--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="206">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,320 +130,316 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>총티 및 주문(마이너스)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>국민은행</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>803-99071007-694</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">밀회관 주문 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>135 -000-099690</t>
   </si>
   <si>
     <t>현화골목상가 통장</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기업은행</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 010-5090-4928</t>
   </si>
   <si>
     <t>청강어패류(천안수)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">6248907 1046328  </t>
   </si>
   <si>
     <t>롯데칠성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>085-097765-04-011</t>
   </si>
   <si>
     <t>㈜원일수산 열기생선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>농협은행</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>351-0532-9248-83</t>
   </si>
   <si>
     <t>평택수산(김진석)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>754801 01 534974</t>
   </si>
   <si>
     <t>대흥포장</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>302 0890 3866 91</t>
   </si>
   <si>
     <t>절임배추(최성욱)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>351-0959-4265-03</t>
   </si>
   <si>
     <t>평택수산(김인기)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>우리은행</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1002-460-525369</t>
   </si>
   <si>
     <t>다정수산(봉호형/김선애)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">355-0055-9305-63 </t>
   </si>
   <si>
     <t>㈜바삭한이야기 (식용유)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>23년 6월</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5461 1211 4034 6367</t>
   </si>
   <si>
     <t>농협체크</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>하나은행</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>290-910004-90104</t>
   </si>
   <si>
     <t>가야주류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21년 10월</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>6364 2007 0450 0725</t>
   </si>
   <si>
     <t>신한체크</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>010-3500-8800-09</t>
   </si>
   <si>
     <t>미도수산(이수연)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>9440 0380 7061 0901</t>
   </si>
   <si>
     <t>기업체크</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>신한은행</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>562093-99-699159</t>
   </si>
   <si>
     <t>주문아이디 5326710</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>22년 10월</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>9490 1919 6406 0110</t>
   </si>
   <si>
     <t>현대</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1544-6535 / 4125</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>399101-04-078605</t>
   </si>
   <si>
     <t>아이필립(유재성)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21년 12월</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5388 0322 7345 2809</t>
   </si>
   <si>
     <t>기업</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>205100-52-222574</t>
   </si>
   <si>
     <t>가게세(손현숙)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3569 0500 4099 3588</t>
   </si>
   <si>
     <t>신한</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>352-0650-9395-23</t>
   </si>
   <si>
     <t>춘희곗돈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>22년 6월</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>9445 4211 7197 5081</t>
   </si>
   <si>
     <t>국민</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>113-12549264</t>
   </si>
   <si>
     <t>춘희</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>22년 8월</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 9409 1510 7615 6248</t>
   </si>
   <si>
     <t>롯데</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>230-182-828100</t>
   </si>
   <si>
     <t>사업자적금(이재석)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>26년 11월</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3791 839415 69193</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>삼성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 100-031-510019</t>
   </si>
   <si>
     <t>주류통장(이재석)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>유효기간</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>카드번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>카드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>연락처 / 비고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>은행</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>계좌번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>밀회관</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>468-601 04 272554</t>
   </si>
   <si>
     <t>국민은행(김인화)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>김인화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>110-535647399</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>신한은행(입금)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1005-403-459758</t>
@@ -453,7 +449,7 @@
   </si>
   <si>
     <t>신협 개인공인인증서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>351-0992-5374-73</t>
@@ -463,137 +459,137 @@
   </si>
   <si>
     <t>22.03.16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>신협</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>132-108-564826</t>
   </si>
   <si>
     <t>신협은행</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>110-376-445247</t>
   </si>
   <si>
     <t>금융공인인증서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>010-9313-7017</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>476-042184-01-015</t>
   </si>
   <si>
     <t>010-3016-7017</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>476-042184-01-011</t>
   </si>
   <si>
     <t>금영노래연습장 사업자계좌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>국민 사업자공인인증서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>468601-04-238158</t>
   </si>
   <si>
     <t>국민은행(사업자)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>메모</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID / P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>만료일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>공인인증서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>OTP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사이트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>아이디</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>비번</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>메모</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홈텍스</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>jaeseik1004</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>@yoyo7266</t>
   </si>
   <si>
     <t xml:space="preserve">신협 건축 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>장보자닷컴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>yoyo7017</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 토지 대금 대출  3억 2천 3백만원 대출 이자 약 110만원 정도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>위생교육</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>치킨마루주문</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>신한 소상공인 대출 : 40.000.000원  / 20.000.000원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>구글선화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dbseown45@gmail,com</t>
@@ -603,11 +599,11 @@
   </si>
   <si>
     <t>우리은행대출 : 10.000.000원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>구글영걸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>younggul99999@gmail,com</t>
@@ -617,7 +613,7 @@
   </si>
   <si>
     <t>구글기러기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2016 y 20 @  gmail,com</t>
@@ -633,7 +629,7 @@
   </si>
   <si>
     <t>카카오톡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> jaeseik@daum.net</t>
@@ -646,11 +642,11 @@
   </si>
   <si>
     <t>이름  : 노래방</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>네이버</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>jaeseik</t>
@@ -660,11 +656,11 @@
   </si>
   <si>
     <t>주소  :  cctv7017.skyddns.com</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>바루고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">031-681-6686  </t>
@@ -674,11 +670,11 @@
   </si>
   <si>
     <t>포트  : 8602</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>서울포장</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> jaeseik1004</t>
@@ -691,27 +687,27 @@
   </si>
   <si>
     <t>사용자 : admin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>암호   : 1120</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">화면분할 : 8 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>체크  :  모두</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">케이티  시시티비 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>스카이 렉스 시시티비</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>깃허브 계정</t>
@@ -722,10 +718,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이벤트 초 구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>카스 10개</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -746,19 +738,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수중현금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 현금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>구매</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>현찰 총</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금값음2022-07-05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9만원 현금받고,2만원티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000원 초 엄마가 삼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>삼촌150만원 현금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수중 현금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수중현금입수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총티 및 음식주문(-)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 촛불 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>농협은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 10분만 있다감 -2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -770,7 +794,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,13 +815,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,6 +839,24 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1156,9 +1191,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1169,46 +1204,22 @@
     <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1227,16 +1238,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,52 +1289,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1609,138 +1661,139 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="33" width="20.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="33" width="20.125" style="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="3">
+      <c r="B1" s="86">
         <v>44742</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="86">
         <v>44743</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="86">
         <v>44744</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="86">
         <v>44745</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="86">
         <v>44746</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="86">
         <v>44747</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="86">
         <v>44748</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="86">
         <v>44749</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="86">
         <v>44750</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="86">
         <v>44751</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="86">
         <v>44752</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="86">
         <v>44753</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="86">
         <v>44754</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="86">
         <v>44755</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="86">
         <v>44756</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="86">
         <v>44757</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="86">
         <v>44758</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="86">
         <v>44759</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="86">
         <v>44760</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="86">
         <v>44761</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="86">
         <v>44762</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="86">
         <v>44763</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="86">
         <v>44764</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="86">
         <v>44765</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="86">
         <v>44766</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="86">
         <v>44767</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="86">
         <v>44768</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="86">
         <v>44769</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="86">
         <v>44770</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="86">
         <v>44771</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="86">
         <v>44772</v>
       </c>
-      <c r="AG1" s="3">
+      <c r="AG1" s="86">
         <v>44773</v>
       </c>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:36" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="63" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5">
-        <f>SUM(B10,B12,B14,B16,B18,B20)</f>
+        <f t="shared" ref="B2:AG2" si="0">SUM(B10,B12,B14,B16,B18,B20)</f>
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <f>SUM(C10,C12,C14,C16,C18,C20)</f>
+        <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
       <c r="D2" s="5">
-        <f>SUM(D10,D12,D14,D16,D18,D20)</f>
+        <f t="shared" si="0"/>
         <v>170000</v>
       </c>
       <c r="E2" s="5">
-        <f>SUM(E10,E12,E14,E16,E18,E20)</f>
+        <f t="shared" si="0"/>
         <v>365000</v>
       </c>
       <c r="F2" s="5">
@@ -1748,116 +1801,116 @@
         <v>781000</v>
       </c>
       <c r="G2" s="5">
-        <f>SUM(G10,G12,G14,G16,G18,G20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H2" s="5">
-        <f>SUM(H10,H12,H14,H16,H18,H20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <f>SUM(I10,I12,I14,I16,I18,I20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <f>SUM(J10,J12,J14,J16,J18,J20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K2" s="5">
-        <f>SUM(K10,K12,K14,K16,K18,K20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L2" s="5">
-        <f>SUM(L10,L12,L14,L16,L18,L20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M2" s="5">
-        <f>SUM(M10,M12,M14,M16,M18,M20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N2" s="5">
-        <f>SUM(N10,N12,N14,N16,N18,N20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O2" s="5">
-        <f>SUM(O10,O12,O14,O16,O18,O20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P2" s="5">
-        <f>SUM(P10,P12,P14,P16,P18,P20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q2" s="5">
-        <f>SUM(Q10,Q12,Q14,Q16,Q18,Q20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R2" s="5">
-        <f>SUM(R10,R12,R14,R16,R18,R20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S2" s="5">
-        <f>SUM(S10,S12,S14,S16,S18,S20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T2" s="5">
-        <f>SUM(T10,T12,T14,T16,T18,T20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U2" s="5">
-        <f>SUM(U10,U12,U14,U16,U18,U20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V2" s="5">
-        <f>SUM(V10,V12,V14,V16,V18,V20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W2" s="5">
-        <f>SUM(W10,W12,W14,W16,W18,W20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X2" s="5">
-        <f>SUM(X10,X12,X14,X16,X18,X20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y2" s="5">
-        <f>SUM(Y10,Y12,Y14,Y16,Y18,Y20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z2" s="5">
-        <f>SUM(Z10,Z12,Z14,Z16,Z18,Z20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA2" s="5">
-        <f>SUM(AA10,AA12,AA14,AA16,AA18,AA20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB2" s="5">
-        <f>SUM(AB10,AB12,AB14,AB16,AB18,AB20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC2" s="5">
-        <f>SUM(AC10,AC12,AC14,AC16,AC18,AC20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD2" s="5">
-        <f>SUM(AD10,AD12,AD14,AD16,AD18,AD20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE2" s="5">
-        <f>SUM(AE10,AE12,AE14,AE16,AE18,AE20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF2" s="5">
-        <f>SUM(AF10,AF12,AF14,AF16,AF18,AF20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG2" s="5">
-        <f>SUM(AG10,AG12,AG14,AG16,AG18,AG20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6">
@@ -1876,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
@@ -1957,141 +2010,141 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:36" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="65" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7">
-        <f t="shared" ref="B4:AG4" si="0">B2+B3</f>
+        <f t="shared" ref="B4:AG4" si="1">B2+B3</f>
         <v>480000</v>
       </c>
       <c r="C4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1760000</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" si="0"/>
+        <f>D2+D3</f>
         <v>235000</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>385000</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>781000</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90000</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="8">
@@ -2115,539 +2168,579 @@
         <v>461000</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" ref="G5:AG5" si="1">SUM(G10:G21)</f>
-        <v>-8000</v>
+        <f>G4+G6</f>
+        <v>62000</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G5:AG5" si="2">H4+H6</f>
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG5" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="18">
         <f>SUM(B11,B13,B15,B17,B19,B21,B21)</f>
         <v>-262000</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="18">
         <f>SUM(C11,C13,C15,C17,C19,C21,C21)</f>
         <v>-580000</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="18">
         <f>SUM(D11,D13,D15,D17,D19,D21,D21)</f>
         <v>-92000</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="18">
         <f>SUM(E11,E13,E15,E17,E19,E21,E21)</f>
         <v>-120000</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="18">
         <f>SUM(F11,F13,F15,F17,F19,F21,F21)</f>
         <v>-320000</v>
       </c>
-      <c r="G6" s="23">
-        <f t="shared" ref="G6:AG6" si="2">SUM(G11,G13,G15,G17,G19,G21,G21)</f>
-        <v>-8000</v>
-      </c>
-      <c r="H6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="66">
-        <v>208000</v>
-      </c>
-      <c r="G7" s="66">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-    </row>
-    <row r="9" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="G6" s="18">
+        <f>SUM(G11,G13,G15,G17,G19,G21,G21)</f>
+        <v>-28000</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" ref="G6:AG6" si="3">SUM(H11,H13,H15,H17,H19,H21,H21)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="47">
+        <v>218000</v>
+      </c>
+      <c r="G7" s="47">
+        <f>1500000+G11+G13+G15+G17+G19+G21+8000</f>
+        <v>1480000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+    </row>
+    <row r="9" spans="1:36" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="70" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
         <v>1100000</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>170000</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>178000</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>99000</v>
       </c>
-      <c r="G10" s="64" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="G10" s="46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>-250000</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <f>1020000-1600000</f>
         <v>-580000</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>-12000</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>-40000</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="11">
         <v>-8000</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>500000</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>187000</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <v>682000</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="G12" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>-12000</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>-80000</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>-80000</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f>-240000-60000</f>
         <v>-300000</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="G13" s="10">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>-20000</v>
       </c>
     </row>
-    <row r="16" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="71" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:7" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="71" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="73" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:7" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="71" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-    </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-    </row>
-    <row r="24" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+    <row r="22" spans="1:7" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="74"/>
+    </row>
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="74"/>
+    </row>
+    <row r="24" spans="1:7" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="76"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="76"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="76"/>
+      <c r="C27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="22">
+        <v>740000</v>
+      </c>
+      <c r="D28" s="22">
+        <v>260000</v>
+      </c>
+      <c r="F28" s="22">
+        <v>300000</v>
+      </c>
+      <c r="G28" s="22">
+        <v>342300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="78"/>
+    </row>
+    <row r="30" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="F24" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-    </row>
-    <row r="27" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="30">
-        <v>740000</v>
-      </c>
-      <c r="D28" s="30">
-        <v>260000</v>
-      </c>
-      <c r="F28" s="30">
-        <v>300000</v>
-      </c>
-      <c r="G28" s="30">
-        <v>342300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:7" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="13">
+        <f>SUM(B3:AG3)</f>
+        <v>815000</v>
+      </c>
+      <c r="C30" s="13"/>
       <c r="G30" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="14">
         <f>SUM(B2:AG2)</f>
         <v>2916000</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="G31" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="16">
+        <f>SUM(B4:AG4)</f>
+        <v>3731000</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="G32" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="17">
+        <f>B32-B35</f>
+        <v>2588700</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="G33" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="20">
-        <f>SUM(B4:AG4)</f>
-        <v>3641000</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="G32" s="9" t="s">
+    <row r="34" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="50">
+        <f>SUM(B6:AG6)</f>
+        <v>-1402000</v>
+      </c>
+      <c r="C34" s="48"/>
+      <c r="G34" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="84" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="21">
-        <f>SUM(B5:AG5)-B35</f>
-        <v>616700</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="G33" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="70">
-        <f>SUM(B6:AG6)</f>
-        <v>-1382000</v>
-      </c>
-      <c r="C34" s="67"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" s="72">
-        <f>SUM(B28:AG28)</f>
-        <v>1642300</v>
-      </c>
-      <c r="C35" s="67"/>
-      <c r="G35" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="73" t="s">
-        <v>197</v>
-      </c>
-      <c r="B36" s="74">
-        <f>SUM(B7:AG7)</f>
-        <v>1708000</v>
-      </c>
-      <c r="C36" s="67"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
+      <c r="B35" s="51">
+        <f>SUM(B28:AG28)-SUM(39:39)</f>
+        <v>1142300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="52">
+        <f>SUM(B7:AG7)-SUM(H6:AG6)</f>
+        <v>1698000</v>
+      </c>
+      <c r="C36" s="48"/>
+    </row>
+    <row r="37" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="52">
+        <f>SUM(E3,G3)</f>
+        <v>110000</v>
+      </c>
+      <c r="C37" s="48"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="D38" s="87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D39" s="48">
+        <v>500000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2669,14 +2762,14 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
+      <c r="B3" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2700,788 +2793,782 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="31"/>
-    <col min="2" max="2" width="20.25" style="31" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.25" style="31" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="31" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="31" customWidth="1"/>
-    <col min="8" max="9" width="9" style="31"/>
-    <col min="10" max="10" width="22.125" style="31" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="20.25" style="23" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="24.25" style="23" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="23" customWidth="1"/>
+    <col min="8" max="9" width="9" style="23"/>
+    <col min="10" max="10" width="22.125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="54"/>
+      <c r="C4" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="55"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25">
+        <v>707266</v>
+      </c>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="59"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="59"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="59"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="59"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="59"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="20" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="33" t="s">
+      <c r="C20" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="I20" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="I21" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="I22" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
+      <c r="D23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="I23" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="I24" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="I25" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="I26" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="I27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="I28" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="I29" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="56"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="58"/>
-      <c r="C4" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="59"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33">
-        <v>707266</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="56"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="56"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="56"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="56"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="56"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="56"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="40"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="40"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="40"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="20" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="I20" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="I21" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="I22" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="I23" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="I24" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="I25" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="33" t="s">
+      <c r="D38" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="I26" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="I27" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="I28" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="I29" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="D40" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -3491,6 +3578,12 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3511,373 +3604,373 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="31"/>
-    <col min="2" max="2" width="16.125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="16.125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="G1" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="62"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="63"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="E2" s="25"/>
+      <c r="G2" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="G2" s="42" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="25"/>
+      <c r="G3" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="G3" s="42" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="C4" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="25">
+        <v>5326710</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="G5" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="33">
-        <v>5326710</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="44"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="D6" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="E6" s="25"/>
+      <c r="G6" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="G6" s="42" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="44"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
+      <c r="C7" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="D7" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="E7" s="25"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="44"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+      <c r="C8" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="D8" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="E8" s="25"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
-    </row>
-    <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33" t="s">
+      <c r="D9" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="E9" s="25"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+    </row>
+    <row r="10" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-    </row>
-    <row r="10" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
+      <c r="C10" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="G10" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="G10" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="47"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33" t="s">
+      <c r="D11" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="E11" s="25"/>
+      <c r="G11" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="G11" s="48" t="s">
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="49"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
+      <c r="C12" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="D12" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="E12" s="25"/>
+      <c r="G12" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="G12" s="48" t="s">
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="41"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="49"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+      <c r="C13" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="D13" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="E13" s="25"/>
+      <c r="G13" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="G13" s="48" t="s">
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="49"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="33" t="s">
+      <c r="C14" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="D14" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="E14" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="G14" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="41"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="G15" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="49"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="G15" s="48" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="G16" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="49"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="G16" s="48" t="s">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="41"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="G17" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="49"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="G17" s="48" t="s">
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="41"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="G19" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="49"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="49"/>
-    </row>
-    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="G19" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="44"/>
     </row>
     <row r="20" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="212">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,18 +82,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>현재 순매출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>현재 총 카드매출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 총 티</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -746,43 +738,76 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>9만원 현금받고,2만원티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000원 초 엄마가 삼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수중 현금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수중현금입수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총티 및 음식주문(-)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 촛불 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>농협은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 10분만 있다감 -2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일안주(숙모손님)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인지 티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33000원 현욱 카드로 
+피자 결제= +현금5만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙모한테 77만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌150만원 카드매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드매출현금으로되돌림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적 총 카드매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드매출현금인출 후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>현금값음2022-07-05</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9만원 현금받고,2만원티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000원 초 엄마가 삼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼촌150만원 현금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수중 현금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수중현금입수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>총티 및 음식주문(-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 촛불 구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>농협은행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A 10분만 있다감 -2</t>
+    <t>누적 순매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -860,7 +885,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,6 +982,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -1193,7 +1224,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1299,36 +1330,6 @@
     <xf numFmtId="177" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1376,6 +1377,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1661,10 +1699,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1676,1064 +1714,1108 @@
   <sheetData>
     <row r="1" spans="1:36" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="86">
+      <c r="B1" s="76">
         <v>44742</v>
       </c>
-      <c r="C1" s="86">
+      <c r="C1" s="76">
         <v>44743</v>
       </c>
-      <c r="D1" s="86">
+      <c r="D1" s="76">
         <v>44744</v>
       </c>
-      <c r="E1" s="86">
+      <c r="E1" s="76">
         <v>44745</v>
       </c>
-      <c r="F1" s="86">
+      <c r="F1" s="76">
         <v>44746</v>
       </c>
-      <c r="G1" s="86">
+      <c r="G1" s="76">
         <v>44747</v>
       </c>
-      <c r="H1" s="86">
+      <c r="H1" s="76">
         <v>44748</v>
       </c>
-      <c r="I1" s="86">
+      <c r="I1" s="76">
         <v>44749</v>
       </c>
-      <c r="J1" s="86">
+      <c r="J1" s="76">
         <v>44750</v>
       </c>
-      <c r="K1" s="86">
+      <c r="K1" s="76">
         <v>44751</v>
       </c>
-      <c r="L1" s="86">
+      <c r="L1" s="76">
         <v>44752</v>
       </c>
-      <c r="M1" s="86">
+      <c r="M1" s="76">
         <v>44753</v>
       </c>
-      <c r="N1" s="86">
+      <c r="N1" s="76">
         <v>44754</v>
       </c>
-      <c r="O1" s="86">
+      <c r="O1" s="76">
         <v>44755</v>
       </c>
-      <c r="P1" s="86">
+      <c r="P1" s="76">
         <v>44756</v>
       </c>
-      <c r="Q1" s="86">
+      <c r="Q1" s="76">
         <v>44757</v>
       </c>
-      <c r="R1" s="86">
+      <c r="R1" s="76">
         <v>44758</v>
       </c>
-      <c r="S1" s="86">
+      <c r="S1" s="76">
         <v>44759</v>
       </c>
-      <c r="T1" s="86">
+      <c r="T1" s="76">
         <v>44760</v>
       </c>
-      <c r="U1" s="86">
+      <c r="U1" s="76">
         <v>44761</v>
       </c>
-      <c r="V1" s="86">
+      <c r="V1" s="76">
         <v>44762</v>
       </c>
-      <c r="W1" s="86">
+      <c r="W1" s="76">
         <v>44763</v>
       </c>
-      <c r="X1" s="86">
+      <c r="X1" s="76">
         <v>44764</v>
       </c>
-      <c r="Y1" s="86">
+      <c r="Y1" s="76">
         <v>44765</v>
       </c>
-      <c r="Z1" s="86">
+      <c r="Z1" s="76">
         <v>44766</v>
       </c>
-      <c r="AA1" s="86">
+      <c r="AA1" s="76">
         <v>44767</v>
       </c>
-      <c r="AB1" s="86">
+      <c r="AB1" s="76">
         <v>44768</v>
       </c>
-      <c r="AC1" s="86">
+      <c r="AC1" s="76">
         <v>44769</v>
       </c>
-      <c r="AD1" s="86">
+      <c r="AD1" s="76">
         <v>44770</v>
       </c>
-      <c r="AE1" s="86">
+      <c r="AE1" s="76">
         <v>44771</v>
       </c>
-      <c r="AF1" s="86">
+      <c r="AF1" s="76">
         <v>44772</v>
       </c>
-      <c r="AG1" s="86">
+      <c r="AG1" s="76">
         <v>44773</v>
       </c>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:36" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:36" s="90" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="90">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
-        <f t="shared" ref="B2:AG2" si="0">SUM(B10,B12,B14,B16,B18,B20)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:AG3" si="0">SUM(B11,B13,B15,B17,B19,B21)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
         <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
         <v>170000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="5">
         <f t="shared" si="0"/>
         <v>365000</v>
       </c>
-      <c r="F2" s="5">
-        <f>SUM(F10,F12,F14,F16,F18,F20)</f>
+      <c r="F3" s="5">
+        <f>SUM(F11,F13,F15,F17,F19,F21)</f>
         <v>781000</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
+        <v>176000</v>
+      </c>
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF2" s="5">
+      <c r="AF3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG2" s="5">
+      <c r="AG3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="4" spans="1:36" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
         <v>480000</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C4" s="6">
         <v>160000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D4" s="6">
         <v>65000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E4" s="6">
         <v>20000</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <v>90000</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-      <c r="R3" s="6">
-        <v>0</v>
-      </c>
-      <c r="S3" s="6">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6">
-        <v>0</v>
-      </c>
-      <c r="U3" s="6">
-        <v>0</v>
-      </c>
-      <c r="V3" s="6">
-        <v>0</v>
-      </c>
-      <c r="W3" s="6">
-        <v>0</v>
-      </c>
-      <c r="X3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="H4" s="6">
+        <v>770000</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
-        <f t="shared" ref="B4:AG4" si="1">B2+B3</f>
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:AG5" si="1">B3+B4</f>
         <v>480000</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C5" s="7">
         <f t="shared" si="1"/>
         <v>1760000</v>
       </c>
-      <c r="D4" s="7">
-        <f>D2+D3</f>
+      <c r="D5" s="7">
+        <f>D3+D4</f>
         <v>235000</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
         <v>385000</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>781000</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
+        <v>946000</v>
+      </c>
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AE5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AF5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AG5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+    <row r="6" spans="1:36" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
-        <f>B4+B6</f>
+      <c r="B6" s="8">
+        <f t="shared" ref="B6:G6" si="2">B5+B7</f>
         <v>218000</v>
       </c>
-      <c r="C5" s="8">
-        <f>C4+C6</f>
+      <c r="C6" s="8">
+        <f t="shared" si="2"/>
         <v>1180000</v>
       </c>
-      <c r="D5" s="8">
-        <f>D4+D6</f>
+      <c r="D6" s="8">
+        <f t="shared" si="2"/>
         <v>143000</v>
       </c>
-      <c r="E5" s="8">
-        <f>E4+E6</f>
+      <c r="E6" s="8">
+        <f t="shared" si="2"/>
         <v>265000</v>
       </c>
-      <c r="F5" s="8">
-        <f>F4+F6</f>
+      <c r="F6" s="8">
+        <f t="shared" si="2"/>
         <v>461000</v>
       </c>
-      <c r="G5" s="8">
-        <f>G4+G6</f>
+      <c r="G6" s="8">
+        <f t="shared" si="2"/>
         <v>62000</v>
       </c>
-      <c r="H5" s="8">
-        <f t="shared" ref="G5:AG5" si="2">H4+H6</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="H6" s="8">
+        <f t="shared" ref="H6:AG6" si="3">H5+H7</f>
+        <v>504000</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="18">
+        <f t="shared" ref="B7:G7" si="4">SUM(B12,B14,B16,B18,B20,B22,B22)</f>
+        <v>-262000</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" si="4"/>
+        <v>-580000</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="4"/>
+        <v>-92000</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="4"/>
+        <v>-120000</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="4"/>
+        <v>-320000</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="4"/>
+        <v>-28000</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" ref="H7:AG7" si="5">SUM(H12,H14,H16,H18,H20,H22,H22)</f>
+        <v>-442000</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="47">
+        <v>218000</v>
+      </c>
+      <c r="G8" s="47">
+        <f>1500000+G12+G14+G16+G18+G20+G22+8000</f>
+        <v>1480000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
+    </row>
+    <row r="10" spans="1:36" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1100000</v>
+      </c>
+      <c r="D11" s="10">
+        <v>170000</v>
+      </c>
+      <c r="E11" s="10">
+        <v>178000</v>
+      </c>
+      <c r="F11" s="10">
+        <v>99000</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="18">
-        <f>SUM(B11,B13,B15,B17,B19,B21,B21)</f>
-        <v>-262000</v>
-      </c>
-      <c r="C6" s="18">
-        <f>SUM(C11,C13,C15,C17,C19,C21,C21)</f>
-        <v>-580000</v>
-      </c>
-      <c r="D6" s="18">
-        <f>SUM(D11,D13,D15,D17,D19,D21,D21)</f>
-        <v>-92000</v>
-      </c>
-      <c r="E6" s="18">
-        <f>SUM(E11,E13,E15,E17,E19,E21,E21)</f>
-        <v>-120000</v>
-      </c>
-      <c r="F6" s="18">
-        <f>SUM(F11,F13,F15,F17,F19,F21,F21)</f>
-        <v>-320000</v>
-      </c>
-      <c r="G6" s="18">
-        <f>SUM(G11,G13,G15,G17,G19,G21,G21)</f>
-        <v>-28000</v>
-      </c>
-      <c r="H6" s="18">
-        <f t="shared" ref="G6:AG6" si="3">SUM(H11,H13,H15,H17,H19,H21,H21)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="47">
-        <v>218000</v>
-      </c>
-      <c r="G7" s="47">
-        <f>1500000+G11+G13+G15+G17+G19+G21+8000</f>
-        <v>1480000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-    </row>
-    <row r="9" spans="1:36" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1100000</v>
-      </c>
-      <c r="D10" s="10">
-        <v>170000</v>
-      </c>
-      <c r="E10" s="10">
-        <v>178000</v>
-      </c>
-      <c r="F10" s="10">
-        <v>99000</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="11">
+    </row>
+    <row r="12" spans="1:36" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="11">
         <v>-250000</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C12" s="11">
         <f>1020000-1600000</f>
         <v>-580000</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>-12000</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>-40000</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>-8000</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="H12" s="11">
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C13" s="12">
         <v>500000</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>187000</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="12">
         <v>682000</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+      <c r="G13" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B14" s="10">
         <v>-12000</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="10">
         <v>-80000</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="10">
         <v>-80000</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F14" s="10">
         <f>-240000-60000</f>
         <v>-300000</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="10">
         <v>-20000</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="73" t="s">
+      <c r="H14" s="10">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="63" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+    <row r="16" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F16" s="10">
         <v>-20000</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
+      <c r="H16" s="10">
+        <v>-340000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="63" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="H17" s="12">
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
+      <c r="H18" s="10">
+        <v>-80000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="63" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="71" t="s">
+    <row r="20" spans="1:8" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="61" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="73" t="s">
+    <row r="21" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="71" t="s">
+    <row r="22" spans="1:8" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="61" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
-    </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
-    </row>
-    <row r="24" spans="1:7" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="75" t="s">
+    <row r="23" spans="1:8" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="64"/>
+    </row>
+    <row r="24" spans="1:8" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="64"/>
+    </row>
+    <row r="25" spans="1:8" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20" t="s">
+      <c r="D25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="66"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="66"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="66"/>
+      <c r="C28" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="21" t="s">
+    </row>
+    <row r="29" spans="1:8" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="22">
+        <v>740000</v>
+      </c>
+      <c r="D29" s="22">
+        <v>260000</v>
+      </c>
+      <c r="F29" s="22">
+        <v>300000</v>
+      </c>
+      <c r="G29" s="22">
+        <v>342300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="68"/>
+    </row>
+    <row r="31" spans="1:8" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="76"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="20" t="s">
+      <c r="B31" s="13">
+        <f>SUM(B4:AG4)</f>
+        <v>1585000</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="G31" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" s="88" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="76"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-    </row>
-    <row r="27" spans="1:7" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="76"/>
-      <c r="C27" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="22">
-        <v>740000</v>
-      </c>
-      <c r="D28" s="22">
-        <v>260000</v>
-      </c>
-      <c r="F28" s="22">
-        <v>300000</v>
-      </c>
-      <c r="G28" s="22">
-        <v>342300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
-    </row>
-    <row r="30" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" s="13">
-        <f>SUM(B3:AG3)</f>
-        <v>815000</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="G30" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="14">
-        <f>SUM(B2:AG2)</f>
-        <v>2916000</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="G31" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="16">
-        <f>SUM(B4:AG4)</f>
-        <v>3731000</v>
+    <row r="32" spans="1:8" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="92">
+        <f>SUM(B3:AG3)-SUM(B2:AG2)</f>
+        <v>1592000</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="G32" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="17">
-        <f>B32-B35</f>
-        <v>2588700</v>
+      <c r="A33" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="14">
+        <f>SUM(B3:AG3)</f>
+        <v>3092000</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-      <c r="G33" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="50">
-        <f>SUM(B6:AG6)</f>
-        <v>-1402000</v>
-      </c>
-      <c r="C34" s="48"/>
-      <c r="G34" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="84" t="s">
-        <v>192</v>
-      </c>
-      <c r="B35" s="51">
-        <f>SUM(B28:AG28)-SUM(39:39)</f>
+    </row>
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="16">
+        <f>SUM(B5:AG5)</f>
+        <v>4677000</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="G34" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B34-B37</f>
+        <v>3534700</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="G35" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="50">
+        <f>SUM(B7:AG7)</f>
+        <v>-1844000</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="G36" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="51">
+        <f>SUM(B29:AG29)-SUM(40:40)</f>
         <v>1142300</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="85" t="s">
+    <row r="38" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="52">
+        <f>SUM(B8:AG8)+SUM(H7:AG7)</f>
+        <v>1256000</v>
+      </c>
+      <c r="C38" s="48"/>
+    </row>
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="B36" s="52">
-        <f>SUM(B7:AG7)-SUM(H6:AG6)</f>
-        <v>1698000</v>
-      </c>
-      <c r="C36" s="48"/>
-    </row>
-    <row r="37" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="85" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" s="52">
-        <f>SUM(E3,G3)</f>
+      <c r="B39" s="52">
+        <f>SUM(E4,G4)</f>
         <v>110000</v>
       </c>
-      <c r="C37" s="48"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
-      <c r="B38" s="49"/>
-      <c r="D38" s="87" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D39" s="48">
+      <c r="C39" s="48"/>
+      <c r="D39" s="77" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="D40" s="48">
         <v>500000</v>
       </c>
     </row>
@@ -2762,10 +2844,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -2808,215 +2890,215 @@
   <sheetData>
     <row r="1" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+        <v>131</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
+      <c r="H2" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="53" t="s">
-        <v>33</v>
+      <c r="B3" s="81" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
+        <v>124</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="54"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
+        <v>122</v>
+      </c>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="59"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="80"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="80"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="59"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="80"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="59"/>
+        <v>112</v>
+      </c>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="59"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="80"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="59"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="80"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -3025,11 +3107,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="59"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -3038,11 +3120,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="59"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="80"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -3051,11 +3133,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="59"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="80"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -3064,11 +3146,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="59"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="80"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -3087,13 +3169,13 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
@@ -3101,247 +3183,247 @@
     </row>
     <row r="20" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="I20" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="I21" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="I22" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="I23" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="I24" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="I25" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="I26" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="I27" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="I28" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
       <c r="I29" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
@@ -3352,13 +3434,13 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
@@ -3369,13 +3451,13 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
@@ -3386,13 +3468,13 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
@@ -3403,13 +3485,13 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
@@ -3420,13 +3502,13 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
@@ -3437,13 +3519,13 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
@@ -3451,13 +3533,13 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
@@ -3465,13 +3547,13 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
@@ -3479,10 +3561,10 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -3491,13 +3573,13 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -3569,6 +3651,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -3578,12 +3666,6 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3614,39 +3696,39 @@
   <sheetData>
     <row r="1" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="G1" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="62"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="87"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>142</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="E2" s="25"/>
       <c r="G2" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -3656,17 +3738,17 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" s="25"/>
       <c r="G3" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
@@ -3676,13 +3758,13 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E4" s="25"/>
       <c r="G4" s="34"/>
@@ -3694,7 +3776,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="25">
         <v>5326710</v>
@@ -3702,7 +3784,7 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="G5" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
@@ -3712,17 +3794,17 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>152</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>154</v>
       </c>
       <c r="E6" s="25"/>
       <c r="G6" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -3732,13 +3814,13 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>156</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>158</v>
       </c>
       <c r="E7" s="25"/>
       <c r="G7" s="34"/>
@@ -3750,13 +3832,13 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>159</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>161</v>
       </c>
       <c r="E8" s="25"/>
       <c r="G8" s="34"/>
@@ -3769,10 +3851,10 @@
     <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E9" s="25"/>
       <c r="G9" s="34"/>
@@ -3784,15 +3866,15 @@
     </row>
     <row r="10" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="G10" s="37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
@@ -3803,14 +3885,14 @@
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
       <c r="C11" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E11" s="25"/>
       <c r="G11" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
@@ -3820,17 +3902,17 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>169</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>171</v>
       </c>
       <c r="E12" s="25"/>
       <c r="G12" s="40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -3840,17 +3922,17 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>173</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>175</v>
       </c>
       <c r="E13" s="25"/>
       <c r="G13" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
@@ -3860,19 +3942,19 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="E14" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="G14" s="40" t="s">
         <v>179</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>181</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
@@ -3886,7 +3968,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="G15" s="40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
@@ -3900,7 +3982,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="G16" s="40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
@@ -3914,7 +3996,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="G17" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -3940,7 +4022,7 @@
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="G19" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="214">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -783,10 +783,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>숙모한테 77만원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>삼촌150만원 카드매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -808,6 +804,18 @@
   </si>
   <si>
     <t>누적 순매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJ현금 빌려줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3만팁 현금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아베크족 1팀 카드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1224,7 +1232,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1377,43 +1385,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1701,8 +1712,8 @@
   </sheetPr>
   <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1814,11 +1825,11 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:36" s="90" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="90">
+    <row r="2" spans="1:36" s="79" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="79">
         <v>1500000</v>
       </c>
     </row>
@@ -1856,7 +1867,7 @@
       </c>
       <c r="I3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66000</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" si="0"/>
@@ -1981,7 +1992,8 @@
         <v>770000</v>
       </c>
       <c r="I4" s="6">
-        <v>0</v>
+        <f>530000+70000+80000</f>
+        <v>680000</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
@@ -2090,7 +2102,7 @@
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>746000</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="1"/>
@@ -2222,8 +2234,8 @@
         <v>504000</v>
       </c>
       <c r="I6" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>I5+I7</f>
+        <v>266000</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="3"/>
@@ -2356,7 +2368,7 @@
       </c>
       <c r="I7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-480000</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" si="5"/>
@@ -2466,6 +2478,9 @@
         <f>1500000+G12+G14+G16+G18+G20+G22+8000</f>
         <v>1480000</v>
       </c>
+      <c r="I8" s="47">
+        <v>30000</v>
+      </c>
     </row>
     <row r="9" spans="1:36" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
@@ -2500,6 +2515,9 @@
       <c r="H11" s="10" t="s">
         <v>202</v>
       </c>
+      <c r="I11" s="46" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="12" spans="1:36" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="62" t="s">
@@ -2524,6 +2542,9 @@
       <c r="H12" s="11">
         <v>-12000</v>
       </c>
+      <c r="I12" s="11">
+        <v>-200000</v>
+      </c>
     </row>
     <row r="13" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
@@ -2568,11 +2589,17 @@
       <c r="H14" s="10">
         <v>-10000</v>
       </c>
+      <c r="I14" s="10">
+        <v>-80000</v>
+      </c>
     </row>
     <row r="15" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
         <v>6</v>
       </c>
+      <c r="I15" s="93" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="16" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
@@ -2584,50 +2611,60 @@
       <c r="H16" s="10">
         <v>-340000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I16" s="10">
+        <f>-120000-40000-40000</f>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="12">
         <v>176000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I17" s="12">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="10">
         <v>-80000</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I18" s="92" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
     </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
     </row>
-    <row r="25" spans="1:8" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
         <v>18</v>
       </c>
@@ -2651,7 +2688,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="66"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
@@ -2664,12 +2701,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="66"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
     </row>
-    <row r="28" spans="1:8" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="66"/>
       <c r="C28" s="20" t="s">
         <v>21</v>
@@ -2678,7 +2715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>23</v>
       </c>
@@ -2695,32 +2732,29 @@
         <v>342300</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="68"/>
     </row>
-    <row r="31" spans="1:8" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="69" t="s">
         <v>193</v>
       </c>
       <c r="B31" s="13">
         <f>SUM(B4:AG4)</f>
-        <v>1585000</v>
+        <v>2265000</v>
       </c>
       <c r="C31" s="13"/>
       <c r="G31" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H31" s="88" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="B32" s="92">
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="81">
         <f>SUM(B3:AG3)-SUM(B2:AG2)</f>
-        <v>1592000</v>
+        <v>1658000</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -2730,11 +2764,11 @@
     </row>
     <row r="33" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B33" s="14">
         <f>SUM(B3:AG3)</f>
-        <v>3092000</v>
+        <v>3158000</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -2745,7 +2779,7 @@
       </c>
       <c r="B34" s="16">
         <f>SUM(B5:AG5)</f>
-        <v>4677000</v>
+        <v>5423000</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -2755,11 +2789,11 @@
     </row>
     <row r="35" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B35" s="17">
         <f>B34-B37</f>
-        <v>3534700</v>
+        <v>4280700</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -2773,11 +2807,11 @@
       </c>
       <c r="B36" s="50">
         <f>SUM(B7:AG7)</f>
-        <v>-1844000</v>
+        <v>-2324000</v>
       </c>
       <c r="C36" s="48"/>
       <c r="G36" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -2795,7 +2829,7 @@
       </c>
       <c r="B38" s="52">
         <f>SUM(B8:AG8)+SUM(H7:AG7)</f>
-        <v>1256000</v>
+        <v>806000</v>
       </c>
       <c r="C38" s="48"/>
     </row>
@@ -2804,12 +2838,12 @@
         <v>200</v>
       </c>
       <c r="B39" s="52">
-        <f>SUM(E4,G4)</f>
-        <v>110000</v>
+        <f>SUM(E4,G4,H4)</f>
+        <v>880000</v>
       </c>
       <c r="C39" s="48"/>
       <c r="D39" s="77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2907,13 +2941,13 @@
       <c r="G1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -2930,16 +2964,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="82" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -2955,14 +2989,14 @@
       <c r="G3" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="82"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="25" t="s">
         <v>123</v>
       </c>
@@ -2972,14 +3006,14 @@
       <c r="G4" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="80"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="88"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="83"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -2989,11 +3023,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -3010,11 +3044,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="88"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -3035,11 +3069,11 @@
       <c r="G7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -3058,11 +3092,11 @@
       <c r="G8" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -3075,11 +3109,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -3094,11 +3128,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -3107,11 +3141,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="80"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -3120,11 +3154,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="80"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -3133,11 +3167,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="80"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="88"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -3146,11 +3180,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="80"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="88"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -3651,12 +3685,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -3666,6 +3694,12 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3707,14 +3741,14 @@
       <c r="E1" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="87"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="227">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -816,6 +816,58 @@
   </si>
   <si>
     <t>아베크족 1팀 카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소주 구매 10병,봉투)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3만원 팁 현금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌손님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미납금 56만원(노조)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전에 48만원 미납금(철거)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2팀 카드계산 5, 5.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미납금48만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일1+티 12만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌20만원 카드매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2페이지)둘다 카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥정많이해서 티가 많이 나옴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +879,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,6 +938,21 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1232,7 +1299,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1389,6 +1456,21 @@
     <xf numFmtId="177" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1401,15 +1483,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1419,11 +1492,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1710,10 +1785,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1832,6 +1907,9 @@
       <c r="G2" s="79">
         <v>1500000</v>
       </c>
+      <c r="J2" s="79">
+        <v>200000</v>
+      </c>
     </row>
     <row r="3" spans="1:36" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
@@ -1870,12 +1948,12 @@
         <v>66000</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(J11,J13,J15,J17,J19,J21,J23,J24,J31,J32,J33)</f>
+        <v>1156000</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>190000</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="0"/>
@@ -1992,14 +2070,16 @@
         <v>770000</v>
       </c>
       <c r="I4" s="6">
-        <f>530000+70000+80000</f>
-        <v>680000</v>
+        <f>530000+70000+80000+80000</f>
+        <v>760000</v>
       </c>
       <c r="J4" s="6">
-        <v>0</v>
+        <f>480000</f>
+        <v>480000</v>
       </c>
       <c r="K4" s="6">
-        <v>0</v>
+        <f>580000+550000+62000+15000</f>
+        <v>1207000</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -2102,15 +2182,15 @@
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>746000</v>
+        <v>826000</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>J3+J4</f>
+        <v>1636000</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>K3+K4</f>
+        <v>1397000</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="1"/>
@@ -2235,15 +2315,15 @@
       </c>
       <c r="I6" s="8">
         <f>I5+I7</f>
-        <v>266000</v>
+        <v>346000</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1038000</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>691000</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="3"/>
@@ -2372,11 +2452,11 @@
       </c>
       <c r="J7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-598000</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-706000</v>
       </c>
       <c r="L7" s="18">
         <f t="shared" si="5"/>
@@ -2481,6 +2561,10 @@
       <c r="I8" s="47">
         <v>30000</v>
       </c>
+      <c r="J8" s="47">
+        <f>230000-4000</f>
+        <v>226000</v>
+      </c>
     </row>
     <row r="9" spans="1:36" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
@@ -2518,6 +2602,12 @@
       <c r="I11" s="46" t="s">
         <v>211</v>
       </c>
+      <c r="J11" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="12" spans="1:36" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="62" t="s">
@@ -2545,6 +2635,10 @@
       <c r="I12" s="11">
         <v>-200000</v>
       </c>
+      <c r="K12" s="11">
+        <f>-320000-12000-24000</f>
+        <v>-356000</v>
+      </c>
     </row>
     <row r="13" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
@@ -2565,6 +2659,12 @@
       <c r="H13" s="12" t="s">
         <v>203</v>
       </c>
+      <c r="J13" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="12">
+        <v>190000</v>
+      </c>
     </row>
     <row r="14" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
@@ -2592,13 +2692,23 @@
       <c r="I14" s="10">
         <v>-80000</v>
       </c>
+      <c r="J14" s="10">
+        <f>-120000-130000-160000</f>
+        <v>-410000</v>
+      </c>
+      <c r="K14" s="10">
+        <v>-100000</v>
+      </c>
     </row>
     <row r="15" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="93" t="s">
+      <c r="I15" s="83" t="s">
         <v>212</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -2615,8 +2725,16 @@
         <f>-120000-40000-40000</f>
         <v>-200000</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J16" s="10">
+        <f>-12000-120000</f>
+        <v>-132000</v>
+      </c>
+      <c r="K16" s="10">
+        <f>-40000-40000-40000-130000</f>
+        <v>-250000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
         <v>10</v>
       </c>
@@ -2626,50 +2744,76 @@
       <c r="I17" s="12">
         <v>66000</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J17" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="10">
         <v>-80000</v>
       </c>
-      <c r="I18" s="92" t="s">
+      <c r="I18" s="82" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J18" s="10">
+        <v>-16000</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J19" s="12">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J20" s="10">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J21" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J22" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
-    </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J23" s="9">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
-    </row>
-    <row r="25" spans="1:9" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="J24" s="9">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="21" t="s">
@@ -2687,8 +2831,18 @@
       <c r="H25" s="21" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I25" s="21">
+        <f>760000-680000</f>
+        <v>80000</v>
+      </c>
+      <c r="J25" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="66"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
@@ -2701,12 +2855,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="66"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
     </row>
-    <row r="28" spans="1:9" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="66"/>
       <c r="C28" s="20" t="s">
         <v>21</v>
@@ -2715,7 +2869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>23</v>
       </c>
@@ -2732,54 +2886,66 @@
         <v>342300</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="68"/>
-    </row>
-    <row r="31" spans="1:9" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J30" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="69" t="s">
         <v>193</v>
       </c>
       <c r="B31" s="13">
         <f>SUM(B4:AG4)</f>
-        <v>2265000</v>
+        <v>4032000</v>
       </c>
       <c r="C31" s="13"/>
       <c r="G31" s="9" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J31" s="9">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="80" t="s">
         <v>208</v>
       </c>
       <c r="B32" s="81">
         <f>SUM(B3:AG3)-SUM(B2:AG2)</f>
-        <v>1658000</v>
+        <v>2804000</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="G32" s="9" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J32" s="9">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="70" t="s">
         <v>207</v>
       </c>
       <c r="B33" s="14">
         <f>SUM(B3:AG3)</f>
-        <v>3158000</v>
+        <v>4504000</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J33" s="9">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="71" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="16">
         <f>SUM(B5:AG5)</f>
-        <v>5423000</v>
+        <v>8536000</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -2787,13 +2953,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="72" t="s">
         <v>210</v>
       </c>
       <c r="B35" s="17">
         <f>B34-B37</f>
-        <v>4280700</v>
+        <v>7393700</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -2801,20 +2967,23 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="50">
         <f>SUM(B7:AG7)</f>
-        <v>-2324000</v>
+        <v>-3628000</v>
       </c>
       <c r="C36" s="48"/>
       <c r="G36" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J36" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="74" t="s">
         <v>190</v>
       </c>
@@ -2823,17 +2992,18 @@
         <v>1142300</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="75" t="s">
         <v>196</v>
       </c>
       <c r="B38" s="52">
-        <f>SUM(B8:AG8)+SUM(H7:AG7)</f>
-        <v>806000</v>
+        <f>SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4</f>
+        <v>1135000</v>
       </c>
       <c r="C38" s="48"/>
-    </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="75" t="s">
         <v>200</v>
       </c>
@@ -2846,12 +3016,32 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="49"/>
       <c r="B40" s="49"/>
       <c r="D40" s="48">
         <v>500000</v>
       </c>
+      <c r="I40" s="95" t="s">
+        <v>217</v>
+      </c>
+      <c r="J40" s="96" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I41" s="96">
+        <v>560000</v>
+      </c>
+      <c r="J41" s="96">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J42" s="97"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J43" s="97"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2941,13 +3131,13 @@
       <c r="G1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -2964,16 +3154,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="88"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="86"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -2989,14 +3179,14 @@
       <c r="G3" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="83"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="25" t="s">
         <v>123</v>
       </c>
@@ -3006,14 +3196,14 @@
       <c r="G4" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="88"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="84"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -3023,11 +3213,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="88"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="86"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -3044,11 +3234,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="88"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -3069,11 +3259,11 @@
       <c r="G7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="88"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="86"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -3092,11 +3282,11 @@
       <c r="G8" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -3109,11 +3299,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -3128,11 +3318,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="86"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -3141,11 +3331,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -3154,11 +3344,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="86"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -3167,11 +3357,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="88"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="86"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -3180,11 +3370,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="88"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -3685,6 +3875,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -3694,12 +3890,6 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3741,14 +3931,14 @@
       <c r="E1" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="91"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="230">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -843,10 +843,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미납금48만</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>과일1+티 12만</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -868,6 +864,22 @@
   </si>
   <si>
     <t>흥정많이해서 티가 많이 나옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>후불48만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드계산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1팀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -960,7 +972,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1072,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,43 +1480,43 @@
     <xf numFmtId="177" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1788,7 +1806,7 @@
   <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1957,7 +1975,7 @@
       </c>
       <c r="L3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>352000</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" si="0"/>
@@ -2194,7 +2212,7 @@
       </c>
       <c r="L5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>352000</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" si="1"/>
@@ -2327,7 +2345,7 @@
       </c>
       <c r="L6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" si="3"/>
@@ -2460,7 +2478,7 @@
       </c>
       <c r="L7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-172000</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" si="5"/>
@@ -2606,7 +2624,10 @@
         <v>216</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:36" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -2639,6 +2660,9 @@
         <f>-320000-12000-24000</f>
         <v>-356000</v>
       </c>
+      <c r="L12" s="11">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="13" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
@@ -2665,6 +2689,10 @@
       <c r="K13" s="12">
         <v>190000</v>
       </c>
+      <c r="L13" s="12">
+        <f>352000</f>
+        <v>352000</v>
+      </c>
     </row>
     <row r="14" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
@@ -2699,6 +2727,10 @@
       <c r="K14" s="10">
         <v>-100000</v>
       </c>
+      <c r="L14" s="10">
+        <f>-80000-80000</f>
+        <v>-160000</v>
+      </c>
     </row>
     <row r="15" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
@@ -2708,7 +2740,7 @@
         <v>212</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -2762,7 +2794,7 @@
         <v>-16000</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -2835,11 +2867,14 @@
         <f>760000-680000</f>
         <v>80000</v>
       </c>
-      <c r="J25" s="94" t="s">
-        <v>220</v>
+      <c r="J25" s="97" t="s">
+        <v>227</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -2889,7 +2924,7 @@
     <row r="30" spans="1:12" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="68"/>
       <c r="J30" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -2914,7 +2949,7 @@
       </c>
       <c r="B32" s="81">
         <f>SUM(B3:AG3)-SUM(B2:AG2)</f>
-        <v>2804000</v>
+        <v>3156000</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -2931,7 +2966,7 @@
       </c>
       <c r="B33" s="14">
         <f>SUM(B3:AG3)</f>
-        <v>4504000</v>
+        <v>4856000</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -2945,7 +2980,7 @@
       </c>
       <c r="B34" s="16">
         <f>SUM(B5:AG5)</f>
-        <v>8536000</v>
+        <v>8888000</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -2959,7 +2994,7 @@
       </c>
       <c r="B35" s="17">
         <f>B34-B37</f>
-        <v>7393700</v>
+        <v>7745700</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -2973,14 +3008,14 @@
       </c>
       <c r="B36" s="50">
         <f>SUM(B7:AG7)</f>
-        <v>-3628000</v>
+        <v>-3800000</v>
       </c>
       <c r="C36" s="48"/>
       <c r="G36" s="1" t="s">
         <v>205</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -2998,7 +3033,7 @@
       </c>
       <c r="B38" s="52">
         <f>SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4</f>
-        <v>1135000</v>
+        <v>963000</v>
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="9"/>
@@ -3008,8 +3043,8 @@
         <v>200</v>
       </c>
       <c r="B39" s="52">
-        <f>SUM(E4,G4,H4)</f>
-        <v>880000</v>
+        <f>SUM(E4,G4,H4)+560000+480000</f>
+        <v>1920000</v>
       </c>
       <c r="C39" s="48"/>
       <c r="D39" s="77" t="s">
@@ -3022,26 +3057,31 @@
       <c r="D40" s="48">
         <v>500000</v>
       </c>
-      <c r="I40" s="95" t="s">
+      <c r="I40" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="J40" s="96" t="s">
+      <c r="J40" s="85" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I41" s="96">
+      <c r="I41" s="85">
         <v>560000</v>
       </c>
-      <c r="J41" s="96">
+      <c r="J41" s="85">
         <v>480000</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J42" s="97"/>
+      <c r="I42" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J43" s="97"/>
+      <c r="J43" s="86"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3154,13 +3194,13 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="86"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="93"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="87" t="s">
@@ -3179,11 +3219,11 @@
       <c r="G3" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="86"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="88"/>
@@ -3196,11 +3236,11 @@
       <c r="G4" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="89"/>
@@ -3213,11 +3253,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="86"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="93"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -3234,11 +3274,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="93"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -3259,11 +3299,11 @@
       <c r="G7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="86"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="93"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -3282,11 +3322,11 @@
       <c r="G8" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -3299,11 +3339,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -3318,11 +3358,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -3331,11 +3371,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -3344,11 +3384,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="86"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -3357,11 +3397,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="93"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -3370,11 +3410,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="86"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -3875,12 +3915,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -3890,6 +3924,12 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3931,14 +3971,14 @@
       <c r="E1" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="93"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="235">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -880,6 +880,26 @@
   </si>
   <si>
     <t>1팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드계산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;10%제외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱2만팁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1485,6 +1505,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1497,15 +1529,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1514,9 +1537,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1805,8 +1825,8 @@
   </sheetPr>
   <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1979,11 +1999,11 @@
       </c>
       <c r="M3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>249000</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77000</v>
       </c>
       <c r="O3" s="5">
         <f t="shared" si="0"/>
@@ -2103,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="6">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="N4" s="6">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="O4" s="6">
         <v>0</v>
@@ -2216,11 +2236,11 @@
       </c>
       <c r="M5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>263000</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>157000</v>
       </c>
       <c r="O5" s="7">
         <f t="shared" si="1"/>
@@ -2349,11 +2369,11 @@
       </c>
       <c r="M6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>222000</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>145000</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="3"/>
@@ -2482,11 +2502,11 @@
       </c>
       <c r="M7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-41000</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="O7" s="18">
         <f t="shared" si="5"/>
@@ -2629,6 +2649,9 @@
       <c r="L11" s="10" t="s">
         <v>228</v>
       </c>
+      <c r="M11" s="10" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="12" spans="1:36" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="62" t="s">
@@ -2693,6 +2716,12 @@
         <f>352000</f>
         <v>352000</v>
       </c>
+      <c r="M13" s="12">
+        <v>38000</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="14" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
@@ -2731,6 +2760,12 @@
         <f>-80000-80000</f>
         <v>-160000</v>
       </c>
+      <c r="M14" s="10">
+        <v>-1000</v>
+      </c>
+      <c r="N14" s="10">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="15" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
@@ -2742,6 +2777,12 @@
       <c r="J15" s="12" t="s">
         <v>220</v>
       </c>
+      <c r="M15" s="12">
+        <v>211000</v>
+      </c>
+      <c r="N15" s="12">
+        <v>77000</v>
+      </c>
     </row>
     <row r="16" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
@@ -2765,8 +2806,11 @@
         <f>-40000-40000-40000-130000</f>
         <v>-250000</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="M16" s="10">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
         <v>10</v>
       </c>
@@ -2780,7 +2824,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>11</v>
       </c>
@@ -2797,7 +2841,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
         <v>10</v>
       </c>
@@ -2805,7 +2849,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>11</v>
       </c>
@@ -2813,7 +2857,7 @@
         <v>-40000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
         <v>12</v>
       </c>
@@ -2821,7 +2865,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>13</v>
       </c>
@@ -2829,19 +2873,19 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="J23" s="9">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="J24" s="9">
         <v>77000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
         <v>18</v>
       </c>
@@ -2867,7 +2911,7 @@
         <f>760000-680000</f>
         <v>80000</v>
       </c>
-      <c r="J25" s="97" t="s">
+      <c r="J25" s="87" t="s">
         <v>227</v>
       </c>
       <c r="K25" s="21" t="s">
@@ -2876,8 +2920,14 @@
       <c r="L25" s="21" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="M25" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="66"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
@@ -2890,12 +2940,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="66"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
     </row>
-    <row r="28" spans="1:12" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="66"/>
       <c r="C28" s="20" t="s">
         <v>21</v>
@@ -2904,7 +2954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>23</v>
       </c>
@@ -2921,19 +2971,19 @@
         <v>342300</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="68"/>
       <c r="J30" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="69" t="s">
         <v>193</v>
       </c>
       <c r="B31" s="13">
         <f>SUM(B4:AG4)</f>
-        <v>4032000</v>
+        <v>4126000</v>
       </c>
       <c r="C31" s="13"/>
       <c r="G31" s="9" t="s">
@@ -2943,13 +2993,13 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="80" t="s">
         <v>208</v>
       </c>
       <c r="B32" s="81">
         <f>SUM(B3:AG3)-SUM(B2:AG2)</f>
-        <v>3156000</v>
+        <v>3482000</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -2966,7 +3016,7 @@
       </c>
       <c r="B33" s="14">
         <f>SUM(B3:AG3)</f>
-        <v>4856000</v>
+        <v>5182000</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -2979,10 +3029,12 @@
         <v>15</v>
       </c>
       <c r="B34" s="16">
-        <f>SUM(B5:AG5)</f>
-        <v>8888000</v>
-      </c>
-      <c r="C34" s="15"/>
+        <f>SUM(B5:AG5)*0.9</f>
+        <v>8377200</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>232</v>
+      </c>
       <c r="D34" s="15"/>
       <c r="G34" s="9" t="s">
         <v>188</v>
@@ -2994,7 +3046,7 @@
       </c>
       <c r="B35" s="17">
         <f>B34-B37</f>
-        <v>7745700</v>
+        <v>7234900</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -3008,7 +3060,7 @@
       </c>
       <c r="B36" s="50">
         <f>SUM(B7:AG7)</f>
-        <v>-3800000</v>
+        <v>-3853000</v>
       </c>
       <c r="C36" s="48"/>
       <c r="G36" s="1" t="s">
@@ -3033,7 +3085,7 @@
       </c>
       <c r="B38" s="52">
         <f>SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4</f>
-        <v>963000</v>
+        <v>910000</v>
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="9"/>
@@ -3043,8 +3095,8 @@
         <v>200</v>
       </c>
       <c r="B39" s="52">
-        <f>SUM(E4,G4,H4)+560000+480000</f>
-        <v>1920000</v>
+        <f>SUM(E4,G4,H4)+560000+480000-500000</f>
+        <v>1420000</v>
       </c>
       <c r="C39" s="48"/>
       <c r="D39" s="77" t="s">
@@ -3171,13 +3223,13 @@
       <c r="G1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -3194,16 +3246,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -3219,14 +3271,14 @@
       <c r="G3" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="91"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="93"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="88"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="25" t="s">
         <v>123</v>
       </c>
@@ -3236,14 +3288,14 @@
       <c r="G4" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="91"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="89"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -3253,11 +3305,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="93"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -3274,11 +3326,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -3299,11 +3351,11 @@
       <c r="G7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="93"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="90"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -3322,11 +3374,11 @@
       <c r="G8" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="93"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -3339,11 +3391,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -3358,11 +3410,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -3371,11 +3423,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="90"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -3384,11 +3436,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="93"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -3397,11 +3449,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="93"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -3410,11 +3462,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="93"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -3915,6 +3967,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -3924,12 +3982,6 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3971,14 +4023,14 @@
       <c r="E1" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="238">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -900,6 +900,19 @@
   </si>
   <si>
     <t>과일1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아베크(과일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoShow
+오전부터 비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님이미리 불러놓음 (공동)에서와서 계산은 티까지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1337,7 +1350,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1481,7 +1494,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1538,6 +1550,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1825,8 +1839,8 @@
   </sheetPr>
   <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1838,114 +1852,114 @@
   <sheetData>
     <row r="1" spans="1:36" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="76">
+      <c r="B1" s="75">
         <v>44742</v>
       </c>
-      <c r="C1" s="76">
+      <c r="C1" s="75">
         <v>44743</v>
       </c>
-      <c r="D1" s="76">
+      <c r="D1" s="75">
         <v>44744</v>
       </c>
-      <c r="E1" s="76">
+      <c r="E1" s="75">
         <v>44745</v>
       </c>
-      <c r="F1" s="76">
+      <c r="F1" s="75">
         <v>44746</v>
       </c>
-      <c r="G1" s="76">
+      <c r="G1" s="75">
         <v>44747</v>
       </c>
-      <c r="H1" s="76">
+      <c r="H1" s="75">
         <v>44748</v>
       </c>
-      <c r="I1" s="76">
+      <c r="I1" s="75">
         <v>44749</v>
       </c>
-      <c r="J1" s="76">
+      <c r="J1" s="75">
         <v>44750</v>
       </c>
-      <c r="K1" s="76">
+      <c r="K1" s="75">
         <v>44751</v>
       </c>
-      <c r="L1" s="76">
+      <c r="L1" s="75">
         <v>44752</v>
       </c>
-      <c r="M1" s="76">
+      <c r="M1" s="75">
         <v>44753</v>
       </c>
-      <c r="N1" s="76">
+      <c r="N1" s="75">
         <v>44754</v>
       </c>
-      <c r="O1" s="76">
+      <c r="O1" s="75">
         <v>44755</v>
       </c>
-      <c r="P1" s="76">
+      <c r="P1" s="75">
         <v>44756</v>
       </c>
-      <c r="Q1" s="76">
+      <c r="Q1" s="75">
         <v>44757</v>
       </c>
-      <c r="R1" s="76">
+      <c r="R1" s="75">
         <v>44758</v>
       </c>
-      <c r="S1" s="76">
+      <c r="S1" s="75">
         <v>44759</v>
       </c>
-      <c r="T1" s="76">
+      <c r="T1" s="75">
         <v>44760</v>
       </c>
-      <c r="U1" s="76">
+      <c r="U1" s="75">
         <v>44761</v>
       </c>
-      <c r="V1" s="76">
+      <c r="V1" s="75">
         <v>44762</v>
       </c>
-      <c r="W1" s="76">
+      <c r="W1" s="75">
         <v>44763</v>
       </c>
-      <c r="X1" s="76">
+      <c r="X1" s="75">
         <v>44764</v>
       </c>
-      <c r="Y1" s="76">
+      <c r="Y1" s="75">
         <v>44765</v>
       </c>
-      <c r="Z1" s="76">
+      <c r="Z1" s="75">
         <v>44766</v>
       </c>
-      <c r="AA1" s="76">
+      <c r="AA1" s="75">
         <v>44767</v>
       </c>
-      <c r="AB1" s="76">
+      <c r="AB1" s="75">
         <v>44768</v>
       </c>
-      <c r="AC1" s="76">
+      <c r="AC1" s="75">
         <v>44769</v>
       </c>
-      <c r="AD1" s="76">
+      <c r="AD1" s="75">
         <v>44770</v>
       </c>
-      <c r="AE1" s="76">
+      <c r="AE1" s="75">
         <v>44771</v>
       </c>
-      <c r="AF1" s="76">
+      <c r="AF1" s="75">
         <v>44772</v>
       </c>
-      <c r="AG1" s="76">
+      <c r="AG1" s="75">
         <v>44773</v>
       </c>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:36" s="79" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:36" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="G2" s="79">
+      <c r="G2" s="78">
         <v>1500000</v>
       </c>
-      <c r="J2" s="79">
+      <c r="J2" s="78">
         <v>200000</v>
       </c>
     </row>
@@ -2011,7 +2025,7 @@
       </c>
       <c r="P3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>421000</v>
       </c>
       <c r="Q3" s="5">
         <f t="shared" si="0"/>
@@ -2248,7 +2262,7 @@
       </c>
       <c r="P5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>421000</v>
       </c>
       <c r="Q5" s="7">
         <f t="shared" si="1"/>
@@ -2381,7 +2395,7 @@
       </c>
       <c r="P6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>329000</v>
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="3"/>
@@ -2514,7 +2528,7 @@
       </c>
       <c r="P7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-92000</v>
       </c>
       <c r="Q7" s="18">
         <f t="shared" si="5"/>
@@ -2652,6 +2666,9 @@
       <c r="M11" s="10" t="s">
         <v>230</v>
       </c>
+      <c r="P11" s="10" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="12" spans="1:36" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="62" t="s">
@@ -2686,6 +2703,9 @@
       <c r="L12" s="11">
         <v>-12000</v>
       </c>
+      <c r="P12" s="11">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="13" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
@@ -2722,6 +2742,9 @@
       <c r="N13" s="12" t="s">
         <v>234</v>
       </c>
+      <c r="P13" s="12">
+        <v>113000</v>
+      </c>
     </row>
     <row r="14" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
@@ -2766,12 +2789,15 @@
       <c r="N14" s="10">
         <v>-12000</v>
       </c>
+      <c r="P14" s="10">
+        <v>-80000</v>
+      </c>
     </row>
     <row r="15" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="83" t="s">
+      <c r="I15" s="82" t="s">
         <v>212</v>
       </c>
       <c r="J15" s="12" t="s">
@@ -2782,6 +2808,9 @@
       </c>
       <c r="N15" s="12">
         <v>77000</v>
+      </c>
+      <c r="P15" s="12">
+        <v>44000</v>
       </c>
     </row>
     <row r="16" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -2810,7 +2839,7 @@
         <v>-40000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
         <v>10</v>
       </c>
@@ -2823,15 +2852,18 @@
       <c r="J17" s="12" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="P17" s="12">
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="10">
         <v>-80000</v>
       </c>
-      <c r="I18" s="82" t="s">
+      <c r="I18" s="81" t="s">
         <v>213</v>
       </c>
       <c r="J18" s="10">
@@ -2841,15 +2873,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="12">
         <v>190000</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="P19" s="12">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2892,7 @@
         <v>-40000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
         <v>12</v>
       </c>
@@ -2865,7 +2900,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>13</v>
       </c>
@@ -2873,19 +2908,19 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="J23" s="9">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="J24" s="9">
         <v>77000</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
         <v>18</v>
       </c>
@@ -2911,7 +2946,7 @@
         <f>760000-680000</f>
         <v>80000</v>
       </c>
-      <c r="J25" s="87" t="s">
+      <c r="J25" s="86" t="s">
         <v>227</v>
       </c>
       <c r="K25" s="21" t="s">
@@ -2926,8 +2961,14 @@
       <c r="N25" s="21" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="O25" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="66"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
@@ -2940,12 +2981,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="66"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
     </row>
-    <row r="28" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="66"/>
       <c r="C28" s="20" t="s">
         <v>21</v>
@@ -2954,7 +2995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>23</v>
       </c>
@@ -2971,17 +3012,17 @@
         <v>342300</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="68"/>
       <c r="J30" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="69" t="s">
+    <row r="31" spans="1:16" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="98">
         <f>SUM(B4:AG4)</f>
         <v>4126000</v>
       </c>
@@ -2993,13 +3034,13 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="80" t="s">
+    <row r="32" spans="1:16" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="B32" s="81">
+      <c r="B32" s="80">
         <f>SUM(B3:AG3)-SUM(B2:AG2)</f>
-        <v>3482000</v>
+        <v>3903000</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -3011,12 +3052,12 @@
       </c>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="69" t="s">
         <v>207</v>
       </c>
       <c r="B33" s="14">
         <f>SUM(B3:AG3)</f>
-        <v>5182000</v>
+        <v>5603000</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -3025,12 +3066,12 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="70" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="16">
         <f>SUM(B5:AG5)*0.9</f>
-        <v>8377200</v>
+        <v>8756100</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>232</v>
@@ -3041,12 +3082,12 @@
       </c>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="71" t="s">
         <v>210</v>
       </c>
       <c r="B35" s="17">
         <f>B34-B37</f>
-        <v>7234900</v>
+        <v>7613800</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -3055,12 +3096,12 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="50">
         <f>SUM(B7:AG7)</f>
-        <v>-3853000</v>
+        <v>-3945000</v>
       </c>
       <c r="C36" s="48"/>
       <c r="G36" s="1" t="s">
@@ -3071,7 +3112,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="73" t="s">
         <v>190</v>
       </c>
       <c r="B37" s="51">
@@ -3080,18 +3121,18 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="74" t="s">
         <v>196</v>
       </c>
       <c r="B38" s="52">
-        <f>SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4</f>
-        <v>910000</v>
-      </c>
-      <c r="C38" s="48"/>
+        <f>SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4+M4+N4+SUM(O4:AG4)</f>
+        <v>912000</v>
+      </c>
+      <c r="C38" s="15"/>
       <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="74" t="s">
         <v>200</v>
       </c>
       <c r="B39" s="52">
@@ -3099,7 +3140,7 @@
         <v>1420000</v>
       </c>
       <c r="C39" s="48"/>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="76" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3109,18 +3150,18 @@
       <c r="D40" s="48">
         <v>500000</v>
       </c>
-      <c r="I40" s="84" t="s">
+      <c r="I40" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="J40" s="85" t="s">
+      <c r="J40" s="84" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I41" s="85">
+      <c r="I41" s="84">
         <v>560000</v>
       </c>
-      <c r="J41" s="85">
+      <c r="J41" s="84">
         <v>480000</v>
       </c>
     </row>
@@ -3133,7 +3174,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J43" s="86"/>
+      <c r="J43" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3223,13 +3264,13 @@
       <c r="G1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -3246,16 +3287,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="90" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -3271,14 +3312,14 @@
       <c r="G3" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="90"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="89"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="92"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="25" t="s">
         <v>123</v>
       </c>
@@ -3288,14 +3329,14 @@
       <c r="G4" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="93"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -3305,11 +3346,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="90"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="89"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -3326,11 +3367,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -3351,11 +3392,11 @@
       <c r="G7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="90"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="89"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -3374,11 +3415,11 @@
       <c r="G8" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -3391,11 +3432,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -3410,11 +3451,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -3423,11 +3464,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="90"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -3436,11 +3477,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -3449,11 +3490,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -3462,11 +3503,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -4023,14 +4064,14 @@
       <c r="E1" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="97"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="6300"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
@@ -1520,6 +1520,8 @@
     <xf numFmtId="177" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1550,8 +1552,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1839,8 +1839,8 @@
   </sheetPr>
   <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2149,7 +2149,8 @@
         <v>0</v>
       </c>
       <c r="Q4" s="6">
-        <v>0</v>
+        <f>500000+400000+240000+80000</f>
+        <v>1220000</v>
       </c>
       <c r="R4" s="6">
         <v>0</v>
@@ -2266,7 +2267,7 @@
       </c>
       <c r="Q5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1220000</v>
       </c>
       <c r="R5" s="7">
         <f t="shared" si="1"/>
@@ -2394,12 +2395,12 @@
         <v>0</v>
       </c>
       <c r="P6" s="8">
-        <f t="shared" si="3"/>
+        <f>P5+P7</f>
         <v>329000</v>
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>498000</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" si="3"/>
@@ -2532,7 +2533,7 @@
       </c>
       <c r="Q7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-722000</v>
       </c>
       <c r="R7" s="18">
         <f t="shared" si="5"/>
@@ -2706,6 +2707,9 @@
       <c r="P12" s="11">
         <v>-12000</v>
       </c>
+      <c r="Q12" s="11">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="13" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
@@ -2792,6 +2796,9 @@
       <c r="P14" s="10">
         <v>-80000</v>
       </c>
+      <c r="Q14" s="10">
+        <v>-80000</v>
+      </c>
     </row>
     <row r="15" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
@@ -2838,8 +2845,11 @@
       <c r="M16" s="10">
         <v>-40000</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="Q16" s="10">
+        <v>-120000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
         <v>10</v>
       </c>
@@ -2856,7 +2866,7 @@
         <v>176000</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>11</v>
       </c>
@@ -2872,8 +2882,12 @@
       <c r="L18" s="10" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="Q18" s="10">
+        <f>-310000</f>
+        <v>-310000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
         <v>10</v>
       </c>
@@ -2884,15 +2898,18 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="10">
         <v>-40000</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="Q20" s="10">
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +2917,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>13</v>
       </c>
@@ -2908,19 +2925,19 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="J23" s="9">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="J24" s="9">
         <v>77000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
         <v>18</v>
       </c>
@@ -2967,8 +2984,12 @@
       <c r="P25" s="21" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="Q25" s="21">
+        <f>SUM(Q18,Q16,Q14,Q20)</f>
+        <v>-710000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="66"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
@@ -2981,12 +3002,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="66"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
     </row>
-    <row r="28" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="66"/>
       <c r="C28" s="20" t="s">
         <v>21</v>
@@ -2995,7 +3016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>23</v>
       </c>
@@ -3012,19 +3033,19 @@
         <v>342300</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="68"/>
       <c r="J30" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="97" t="s">
+    <row r="31" spans="1:17" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="98">
+      <c r="B31" s="88">
         <f>SUM(B4:AG4)</f>
-        <v>4126000</v>
+        <v>5346000</v>
       </c>
       <c r="C31" s="13"/>
       <c r="G31" s="9" t="s">
@@ -3034,7 +3055,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="79" t="s">
         <v>208</v>
       </c>
@@ -3071,7 +3092,7 @@
       </c>
       <c r="B34" s="16">
         <f>SUM(B5:AG5)*0.9</f>
-        <v>8756100</v>
+        <v>9854100</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>232</v>
@@ -3087,7 +3108,7 @@
       </c>
       <c r="B35" s="17">
         <f>B34-B37</f>
-        <v>7613800</v>
+        <v>8711800</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -3101,7 +3122,7 @@
       </c>
       <c r="B36" s="50">
         <f>SUM(B7:AG7)</f>
-        <v>-3945000</v>
+        <v>-4667000</v>
       </c>
       <c r="C36" s="48"/>
       <c r="G36" s="1" t="s">
@@ -3125,10 +3146,13 @@
         <v>196</v>
       </c>
       <c r="B38" s="52">
-        <f>SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4+M4+N4+SUM(O4:AG4)</f>
-        <v>912000</v>
-      </c>
-      <c r="C38" s="15"/>
+        <f>SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4+M4+N4+SUM(O4:AG4)-400000</f>
+        <v>1010000</v>
+      </c>
+      <c r="C38" s="15">
+        <f>1210000-B38</f>
+        <v>200000</v>
+      </c>
       <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3264,13 +3288,13 @@
       <c r="G1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -3287,16 +3311,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="91"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="92" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -3312,14 +3336,14 @@
       <c r="G3" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="91"/>
+      <c r="B4" s="93"/>
       <c r="C4" s="25" t="s">
         <v>123</v>
       </c>
@@ -3329,14 +3353,14 @@
       <c r="G4" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="92"/>
+      <c r="B5" s="94"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -3346,11 +3370,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -3367,11 +3391,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -3392,11 +3416,11 @@
       <c r="G7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -3415,11 +3439,11 @@
       <c r="G8" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -3432,11 +3456,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -3451,11 +3475,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="91"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -3464,11 +3488,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="91"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -3477,11 +3501,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="91"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -3490,11 +3514,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="91"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -3503,11 +3527,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="91"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -4064,14 +4088,14 @@
       <c r="E1" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="96"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="98"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
-    <sheet name="정보" sheetId="2" r:id="rId2"/>
-    <sheet name="계좌,카드" sheetId="3" r:id="rId3"/>
-    <sheet name="아이디,비번" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="정보" sheetId="2" r:id="rId3"/>
+    <sheet name="계좌,카드" sheetId="3" r:id="rId4"/>
+    <sheet name="아이디,비번" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="253">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -78,10 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>현재 총매출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -726,15 +723,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>현욱팁 2만원현금추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현찰 총</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -891,19 +880,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;10%제외</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현욱2만팁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>과일1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아베크(과일)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -913,6 +890,90 @@
   </si>
   <si>
     <t>손님이미리 불러놓음 (공동)에서와서 계산은 티까지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티빼고들어온매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현자본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적 총매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌지인분 10만원내고 현욱팁 2만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱팁 2만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱 3만 팁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올현금, 현욱 계좌로 40,32만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월달 관리비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드럼 현금,1인 2시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게세,관리비 합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌이 뺴준돈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현찰 총 매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현찰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(가게세 관리비 포함)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32만 현욱계좌로 입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌 150만원 카드매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -920,11 +981,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0.00_);[Red]\(&quot;₩&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,8 +1066,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1111,6 +1181,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,7 +1438,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1452,10 +1540,8 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1499,9 +1585,7 @@
     <xf numFmtId="177" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1522,6 +1606,25 @@
     </xf>
     <xf numFmtId="177" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="10" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,6 +1672,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>488157</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1004587</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>80312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="488157" y="10632281"/>
+          <a:ext cx="2409524" cy="5200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1837,10 +1983,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1852,119 +1998,122 @@
   <sheetData>
     <row r="1" spans="1:36" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="75">
+      <c r="B1" s="72">
         <v>44742</v>
       </c>
-      <c r="C1" s="75">
+      <c r="C1" s="72">
         <v>44743</v>
       </c>
-      <c r="D1" s="75">
+      <c r="D1" s="72">
         <v>44744</v>
       </c>
-      <c r="E1" s="75">
+      <c r="E1" s="72">
         <v>44745</v>
       </c>
-      <c r="F1" s="75">
+      <c r="F1" s="72">
         <v>44746</v>
       </c>
-      <c r="G1" s="75">
+      <c r="G1" s="72">
         <v>44747</v>
       </c>
-      <c r="H1" s="75">
+      <c r="H1" s="72">
         <v>44748</v>
       </c>
-      <c r="I1" s="75">
+      <c r="I1" s="72">
         <v>44749</v>
       </c>
-      <c r="J1" s="75">
+      <c r="J1" s="72">
         <v>44750</v>
       </c>
-      <c r="K1" s="75">
+      <c r="K1" s="72">
         <v>44751</v>
       </c>
-      <c r="L1" s="75">
+      <c r="L1" s="72">
         <v>44752</v>
       </c>
-      <c r="M1" s="75">
+      <c r="M1" s="72">
         <v>44753</v>
       </c>
-      <c r="N1" s="75">
+      <c r="N1" s="72">
         <v>44754</v>
       </c>
-      <c r="O1" s="75">
+      <c r="O1" s="72">
         <v>44755</v>
       </c>
-      <c r="P1" s="75">
+      <c r="P1" s="72">
         <v>44756</v>
       </c>
-      <c r="Q1" s="75">
+      <c r="Q1" s="72">
         <v>44757</v>
       </c>
-      <c r="R1" s="75">
+      <c r="R1" s="72">
         <v>44758</v>
       </c>
-      <c r="S1" s="75">
+      <c r="S1" s="72">
         <v>44759</v>
       </c>
-      <c r="T1" s="75">
+      <c r="T1" s="72">
         <v>44760</v>
       </c>
-      <c r="U1" s="75">
+      <c r="U1" s="72">
         <v>44761</v>
       </c>
-      <c r="V1" s="75">
+      <c r="V1" s="72">
         <v>44762</v>
       </c>
-      <c r="W1" s="75">
+      <c r="W1" s="72">
         <v>44763</v>
       </c>
-      <c r="X1" s="75">
+      <c r="X1" s="72">
         <v>44764</v>
       </c>
-      <c r="Y1" s="75">
+      <c r="Y1" s="72">
         <v>44765</v>
       </c>
-      <c r="Z1" s="75">
+      <c r="Z1" s="72">
         <v>44766</v>
       </c>
-      <c r="AA1" s="75">
+      <c r="AA1" s="72">
         <v>44767</v>
       </c>
-      <c r="AB1" s="75">
+      <c r="AB1" s="72">
         <v>44768</v>
       </c>
-      <c r="AC1" s="75">
+      <c r="AC1" s="72">
         <v>44769</v>
       </c>
-      <c r="AD1" s="75">
+      <c r="AD1" s="72">
         <v>44770</v>
       </c>
-      <c r="AE1" s="75">
+      <c r="AE1" s="72">
         <v>44771</v>
       </c>
-      <c r="AF1" s="75">
+      <c r="AF1" s="72">
         <v>44772</v>
       </c>
-      <c r="AG1" s="75">
+      <c r="AG1" s="72">
         <v>44773</v>
       </c>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:36" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
-        <v>206</v>
-      </c>
-      <c r="G2" s="78">
+    <row r="2" spans="1:36" s="74" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="74">
         <v>1500000</v>
       </c>
-      <c r="J2" s="78">
+      <c r="J2" s="74">
         <v>200000</v>
       </c>
+      <c r="T2" s="74">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="3" spans="1:36" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5">
@@ -2033,15 +2182,15 @@
       </c>
       <c r="R3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="S3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>396000</v>
       </c>
       <c r="T3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>352000</v>
       </c>
       <c r="U3" s="5">
         <f t="shared" si="0"/>
@@ -2097,7 +2246,7 @@
       </c>
     </row>
     <row r="4" spans="1:36" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="52" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
@@ -2110,7 +2259,7 @@
         <v>65000</v>
       </c>
       <c r="E4" s="6">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -2122,8 +2271,8 @@
         <v>770000</v>
       </c>
       <c r="I4" s="6">
-        <f>530000+70000+80000+80000</f>
-        <v>760000</v>
+        <f>500000+70000+80000+80000</f>
+        <v>730000</v>
       </c>
       <c r="J4" s="6">
         <f>480000</f>
@@ -2149,17 +2298,18 @@
         <v>0</v>
       </c>
       <c r="Q4" s="6">
-        <f>500000+400000+240000+80000</f>
-        <v>1220000</v>
+        <f>500000+400000+240000+80000+320000</f>
+        <v>1540000</v>
       </c>
       <c r="R4" s="6">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="S4" s="6">
-        <v>0</v>
+        <f>180000</f>
+        <v>180000</v>
       </c>
       <c r="T4" s="6">
-        <v>0</v>
+        <v>320000</v>
       </c>
       <c r="U4" s="6">
         <v>0</v>
@@ -2202,7 +2352,7 @@
       </c>
     </row>
     <row r="5" spans="1:36" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7">
@@ -2219,7 +2369,7 @@
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v>385000</v>
+        <v>365000</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="1"/>
@@ -2235,7 +2385,7 @@
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>826000</v>
+        <v>796000</v>
       </c>
       <c r="J5" s="7">
         <f>J3+J4</f>
@@ -2267,19 +2417,19 @@
       </c>
       <c r="Q5" s="7">
         <f t="shared" si="1"/>
-        <v>1220000</v>
+        <v>1540000</v>
       </c>
       <c r="R5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="S5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>576000</v>
       </c>
       <c r="T5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>672000</v>
       </c>
       <c r="U5" s="7">
         <f t="shared" si="1"/>
@@ -2335,15 +2485,15 @@
       </c>
     </row>
     <row r="6" spans="1:36" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="8">
-        <f t="shared" ref="B6:G6" si="2">B5+B7</f>
+        <f>B5+B7</f>
         <v>218000</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C6:G6" si="2">C5+C7</f>
         <v>1180000</v>
       </c>
       <c r="D6" s="8">
@@ -2352,7 +2502,7 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" si="2"/>
-        <v>265000</v>
+        <v>245000</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="2"/>
@@ -2368,7 +2518,7 @@
       </c>
       <c r="I6" s="8">
         <f>I5+I7</f>
-        <v>346000</v>
+        <v>316000</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="3"/>
@@ -2400,19 +2550,19 @@
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="3"/>
-        <v>498000</v>
+        <v>798000</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>148000</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>364000</v>
       </c>
       <c r="T6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>340000</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="3"/>
@@ -2468,8 +2618,8 @@
       </c>
     </row>
     <row r="7" spans="1:36" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
-        <v>198</v>
+      <c r="A7" s="55" t="s">
+        <v>195</v>
       </c>
       <c r="B7" s="18">
         <f t="shared" ref="B7:G7" si="4">SUM(B12,B14,B16,B18,B20,B22,B22)</f>
@@ -2484,7 +2634,7 @@
         <v>-92000</v>
       </c>
       <c r="E7" s="18">
-        <f t="shared" si="4"/>
+        <f>SUM(E12,E14,E16,E18,E20,E22,E22)</f>
         <v>-120000</v>
       </c>
       <c r="F7" s="18">
@@ -2533,19 +2683,19 @@
       </c>
       <c r="Q7" s="18">
         <f t="shared" si="5"/>
-        <v>-722000</v>
+        <v>-742000</v>
       </c>
       <c r="R7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="S7" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>SUM(S12,S14,S16,S18,S20,S22,S22)</f>
+        <v>-212000</v>
       </c>
       <c r="T7" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>SUM(T12,T14,T16,T18,T20,T22,T22)</f>
+        <v>-332000</v>
       </c>
       <c r="U7" s="18">
         <f t="shared" si="5"/>
@@ -2601,8 +2751,8 @@
       </c>
     </row>
     <row r="8" spans="1:36" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
-        <v>197</v>
+      <c r="A8" s="56" t="s">
+        <v>194</v>
       </c>
       <c r="F8" s="47">
         <v>218000</v>
@@ -2620,15 +2770,15 @@
       </c>
     </row>
     <row r="9" spans="1:36" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="57"/>
     </row>
     <row r="10" spans="1:36" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
-        <v>25</v>
+      <c r="A10" s="58" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="10">
@@ -2647,33 +2797,30 @@
         <v>99000</v>
       </c>
       <c r="G11" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="I11" s="46" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:36" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="62" t="s">
-        <v>16</v>
+      <c r="A12" s="60" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="11">
         <v>-250000</v>
@@ -2710,9 +2857,15 @@
       <c r="Q12" s="11">
         <v>-12000</v>
       </c>
+      <c r="S12" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="T12" s="11">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="13" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="12">
@@ -2725,13 +2878,13 @@
         <v>682000</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K13" s="12">
         <v>190000</v>
@@ -2744,14 +2897,23 @@
         <v>38000</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="P13" s="12">
         <v>113000</v>
       </c>
+      <c r="R13" s="12">
+        <v>50000</v>
+      </c>
+      <c r="S13" s="12">
+        <v>396000</v>
+      </c>
+      <c r="T13" s="12">
+        <v>352000</v>
+      </c>
     </row>
     <row r="14" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="10">
@@ -2799,16 +2961,25 @@
       <c r="Q14" s="10">
         <v>-80000</v>
       </c>
+      <c r="R14" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="S14" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="T14" s="10">
+        <v>-160000</v>
+      </c>
     </row>
     <row r="15" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="82" t="s">
-        <v>212</v>
+      <c r="I15" s="78" t="s">
+        <v>209</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M15" s="12">
         <v>211000</v>
@@ -2821,7 +2992,7 @@
       </c>
     </row>
     <row r="16" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="10">
@@ -2848,9 +3019,15 @@
       <c r="Q16" s="10">
         <v>-120000</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="S16" s="10">
+        <v>-120000</v>
+      </c>
+      <c r="T16" s="10">
+        <v>-80000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="61" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="12">
@@ -2860,35 +3037,41 @@
         <v>66000</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P17" s="12">
         <v>176000</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
+    <row r="18" spans="1:20" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="59" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="10">
         <v>-80000</v>
       </c>
-      <c r="I18" s="81" t="s">
-        <v>213</v>
+      <c r="I18" s="77" t="s">
+        <v>210</v>
       </c>
       <c r="J18" s="10">
         <v>-16000</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="10">
-        <f>-310000</f>
-        <v>-310000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="63" t="s">
+        <f>-330000</f>
+        <v>-330000</v>
+      </c>
+      <c r="S18" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="T18" s="10">
+        <v>-80000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="61" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="12">
@@ -2898,8 +3081,8 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="61" t="s">
+    <row r="20" spans="1:20" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="59" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="10">
@@ -2909,116 +3092,123 @@
         <v>-200000</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+    <row r="21" spans="1:20" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="61" t="s">
         <v>12</v>
       </c>
       <c r="J21" s="12">
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:20" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="59" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="62"/>
       <c r="J23" s="9">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="62"/>
       <c r="J24" s="9">
         <v>77000</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="65" t="s">
-        <v>18</v>
+    <row r="25" spans="1:20" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="I25" s="21">
-        <f>760000-680000</f>
-        <v>80000</v>
-      </c>
-      <c r="J25" s="86" t="s">
-        <v>227</v>
+        <v>201</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" s="82" t="s">
+        <v>224</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M25" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="N25" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="O25" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="P25" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q25" s="21">
-        <f>SUM(Q18,Q16,Q14,Q20)</f>
-        <v>-710000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="66"/>
+      <c r="Q25" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="R25" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="64"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="66"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="64"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
     </row>
-    <row r="28" spans="1:17" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
+    <row r="28" spans="1:20" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="64"/>
       <c r="C28" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="20" t="s">
+    </row>
+    <row r="29" spans="1:20" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="65" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
-        <v>23</v>
       </c>
       <c r="C29" s="22">
         <v>740000</v>
@@ -3033,52 +3223,61 @@
         <v>342300</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="9">
+        <f>SUM(B2:AG2)+1558090</f>
+        <v>4758090</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>250</v>
+      </c>
       <c r="J30" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="87" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" s="88">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="84">
         <f>SUM(B4:AG4)</f>
-        <v>5346000</v>
+        <v>6226000</v>
       </c>
       <c r="C31" s="13"/>
       <c r="G31" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J31" s="9">
         <v>300000</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="80">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="76">
         <f>SUM(B3:AG3)-SUM(B2:AG2)</f>
-        <v>3903000</v>
+        <v>3201000</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="G32" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J32" s="9">
         <v>220000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="69" t="s">
-        <v>207</v>
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="67" t="s">
+        <v>204</v>
       </c>
       <c r="B33" s="14">
         <f>SUM(B3:AG3)</f>
-        <v>5603000</v>
+        <v>6401000</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -3086,128 +3285,364 @@
         <v>264000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="70" t="s">
-        <v>15</v>
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="68" t="s">
+        <v>234</v>
       </c>
       <c r="B34" s="16">
-        <f>SUM(B5:AG5)*0.9</f>
-        <v>9854100</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>232</v>
-      </c>
+        <f>SUM(B5:AG5)</f>
+        <v>12627000</v>
+      </c>
+      <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="G34" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="71" t="s">
-        <v>210</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="69" t="s">
+        <v>207</v>
       </c>
       <c r="B35" s="17">
         <f>B34-B37</f>
-        <v>8711800</v>
+        <v>11484700</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="G35" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="49">
+        <f>SUM(B7:AG7)</f>
+        <v>-5243000</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="G36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="71" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="50">
-        <f>SUM(B7:AG7)</f>
-        <v>-4667000</v>
-      </c>
-      <c r="C36" s="48"/>
-      <c r="G36" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="73" t="s">
-        <v>190</v>
-      </c>
-      <c r="B37" s="51">
+      <c r="B37" s="50">
         <f>SUM(B29:AG29)-SUM(40:40)</f>
         <v>1142300</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" s="52">
-        <f>SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4+M4+N4+SUM(O4:AG4)-400000</f>
-        <v>1010000</v>
-      </c>
-      <c r="C38" s="15">
-        <f>1210000-B38</f>
-        <v>200000</v>
-      </c>
+    <row r="38" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="95">
+        <f>(SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4+M4+N4+SUM(O4:AG4))-400000-320000-20000-30000-320000</f>
+        <v>674000</v>
+      </c>
+      <c r="C38" s="15"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="B39" s="52">
-        <f>SUM(E4,G4,H4)+560000+480000-500000</f>
-        <v>1420000</v>
+    <row r="39" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="93">
+        <f>SUM(E4,G4,H4)+560000+480000-500000+400000+320000+T2+320000</f>
+        <v>3940000</v>
       </c>
       <c r="C39" s="48"/>
-      <c r="D39" s="76" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
-      <c r="D40" s="48">
+      <c r="D39" s="96" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D40" s="97">
         <v>500000</v>
       </c>
-      <c r="I40" s="83" t="s">
-        <v>217</v>
-      </c>
-      <c r="J40" s="84" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I41" s="84">
+      <c r="I40" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="J40" s="80" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="87">
+        <f>SUM(B6:AG6)</f>
+        <v>7384000</v>
+      </c>
+      <c r="I41" s="80">
         <v>560000</v>
       </c>
-      <c r="J41" s="84">
+      <c r="J41" s="80">
         <v>480000</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I42" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J43" s="85"/>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="91">
+        <f>B32+B38+B39</f>
+        <v>7815000</v>
+      </c>
+      <c r="I42" s="88" t="s">
+        <v>223</v>
+      </c>
+      <c r="J42" s="88" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J43" s="81"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" s="98">
+        <v>758090</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" s="1">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="89">
+        <f>SUM(B44:B45)</f>
+        <v>1558090</v>
+      </c>
+      <c r="C46" s="9">
+        <f>C36-B46</f>
+        <v>-1558090</v>
+      </c>
+      <c r="D46" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="99">
+        <v>44774</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="101" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="99">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="99">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="99">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="99">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="99">
+        <v>44779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="99">
+        <v>44780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="99">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="99">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="99">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="99">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="99">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="99">
+        <v>44786</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="99">
+        <v>44787</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="99">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="99">
+        <v>44789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="99">
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="99">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="99">
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="99">
+        <v>44793</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="99">
+        <v>44794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="99">
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="99">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="99">
+        <v>44797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="99">
+        <v>44798</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="99">
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="99">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="99">
+        <v>44801</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="99">
+        <v>44802</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="99">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="99">
+        <v>44804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="99"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
@@ -3225,10 +3660,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>185</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -3243,7 +3678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3271,215 +3706,215 @@
   <sheetData>
     <row r="1" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>103</v>
-      </c>
       <c r="D1" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
+      <c r="H1" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="91"/>
+      <c r="H2" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="104"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="92" t="s">
-        <v>31</v>
+      <c r="B3" s="105" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="91"/>
+        <v>123</v>
+      </c>
+      <c r="H3" s="102"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="93"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="91"/>
+        <v>121</v>
+      </c>
+      <c r="H4" s="102"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="104"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="94"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="104"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="104"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="91"/>
+        <v>114</v>
+      </c>
+      <c r="H7" s="102"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="104"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="91"/>
+        <v>111</v>
+      </c>
+      <c r="H8" s="102"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="104"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="104"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="91"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="104"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -3488,11 +3923,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="91"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="104"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -3501,11 +3936,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="91"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="104"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -3514,11 +3949,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="104"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -3527,11 +3962,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="91"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="104"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -3550,13 +3985,13 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
@@ -3564,247 +3999,247 @@
     </row>
     <row r="20" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="I20" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="I21" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="I22" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="I23" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="I24" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="I25" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="I26" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="I27" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="I28" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
       <c r="I29" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
@@ -3815,13 +4250,13 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
@@ -3832,13 +4267,13 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
@@ -3849,13 +4284,13 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
@@ -3866,13 +4301,13 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
@@ -3883,13 +4318,13 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
@@ -3900,13 +4335,13 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
@@ -3914,13 +4349,13 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
@@ -3928,13 +4363,13 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
@@ -3942,10 +4377,10 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -3954,13 +4389,13 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -4054,14 +4489,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4077,39 +4512,39 @@
   <sheetData>
     <row r="1" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="G1" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="98"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>141</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>142</v>
       </c>
       <c r="E2" s="25"/>
       <c r="G2" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -4119,17 +4554,17 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>144</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>145</v>
       </c>
       <c r="E3" s="25"/>
       <c r="G3" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
@@ -4139,13 +4574,13 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="25"/>
       <c r="G4" s="34"/>
@@ -4157,7 +4592,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="25">
         <v>5326710</v>
@@ -4165,7 +4600,7 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="G5" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
@@ -4175,17 +4610,17 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
         <v>151</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="E6" s="25"/>
       <c r="G6" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -4195,13 +4630,13 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="25" t="s">
         <v>155</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>156</v>
       </c>
       <c r="E7" s="25"/>
       <c r="G7" s="34"/>
@@ -4213,13 +4648,13 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="25" t="s">
         <v>158</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>159</v>
       </c>
       <c r="E8" s="25"/>
       <c r="G8" s="34"/>
@@ -4232,10 +4667,10 @@
     <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>161</v>
       </c>
       <c r="E9" s="25"/>
       <c r="G9" s="34"/>
@@ -4247,15 +4682,15 @@
     </row>
     <row r="10" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>162</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>163</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="G10" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
@@ -4266,14 +4701,14 @@
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
       <c r="C11" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>165</v>
       </c>
       <c r="E11" s="25"/>
       <c r="G11" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
@@ -4283,17 +4718,17 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="D12" s="25" t="s">
         <v>168</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>169</v>
       </c>
       <c r="E12" s="25"/>
       <c r="G12" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -4303,17 +4738,17 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="D13" s="25" t="s">
         <v>172</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>173</v>
       </c>
       <c r="E13" s="25"/>
       <c r="G13" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
@@ -4323,19 +4758,19 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="D14" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="E14" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="G14" s="40" t="s">
         <v>178</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>179</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
@@ -4349,7 +4784,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="G15" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
@@ -4363,7 +4798,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="G16" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
@@ -4377,7 +4812,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="G17" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -4403,7 +4838,7 @@
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="G19" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -784,10 +784,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>카드매출현금인출 후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>현금값음2022-07-05</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -949,31 +945,33 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(가게세 관리비 포함)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32만 현욱계좌로 입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌 150만원 카드매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>카드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>현찰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수입</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(가게세 관리비 포함)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32만 현욱계좌로 입금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼촌 150만원 카드매출</t>
+    <t>카드매출현금인출 후 잔금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1075,7 +1073,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1199,6 +1197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,7 +1442,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1625,6 +1629,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1634,18 +1656,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1655,6 +1665,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1986,7 +1997,7 @@
   <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2803,19 +2814,19 @@
         <v>199</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:36" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -2884,7 +2895,7 @@
         <v>200</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K13" s="12">
         <v>190000</v>
@@ -2897,7 +2908,7 @@
         <v>38000</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P13" s="12">
         <v>113000</v>
@@ -2976,10 +2987,10 @@
         <v>6</v>
       </c>
       <c r="I15" s="78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M15" s="12">
         <v>211000</v>
@@ -3037,7 +3048,7 @@
         <v>66000</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P17" s="12">
         <v>176000</v>
@@ -3051,13 +3062,13 @@
         <v>-80000</v>
       </c>
       <c r="I18" s="77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J18" s="10">
         <v>-16000</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q18" s="10">
         <f>-330000</f>
@@ -3105,7 +3116,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -3131,7 +3142,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>3</v>
@@ -3143,40 +3154,40 @@
         <v>201</v>
       </c>
       <c r="I25" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q25" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J25" s="82" t="s">
-        <v>224</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="M25" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="N25" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="O25" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="P25" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q25" s="21" t="s">
-        <v>238</v>
-      </c>
       <c r="R25" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="S25" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="S25" s="21" t="s">
-        <v>241</v>
-      </c>
       <c r="T25" s="21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -3225,22 +3236,22 @@
     </row>
     <row r="30" spans="1:20" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="66" t="s">
-        <v>244</v>
-      </c>
-      <c r="B30" s="9">
+        <v>243</v>
+      </c>
+      <c r="B30" s="114">
         <f>SUM(B2:AG2)+1558090</f>
         <v>4758090</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>250</v>
+      <c r="C30" s="114" t="s">
+        <v>246</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="84">
         <f>SUM(B4:AG4)</f>
@@ -3256,11 +3267,11 @@
     </row>
     <row r="32" spans="1:20" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="75" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="B32" s="76">
-        <f>SUM(B3:AG3)-SUM(B2:AG2)</f>
-        <v>3201000</v>
+        <f>SUM(B3:AG3)-B30</f>
+        <v>1642910</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -3287,7 +3298,7 @@
     </row>
     <row r="34" spans="1:20" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="16">
         <f>SUM(B5:AG5)</f>
@@ -3301,7 +3312,7 @@
     </row>
     <row r="35" spans="1:20" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B35" s="17">
         <f>B34-B37</f>
@@ -3326,10 +3337,10 @@
         <v>202</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3362,7 +3373,7 @@
       </c>
       <c r="C39" s="48"/>
       <c r="D39" s="96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -3370,15 +3381,15 @@
         <v>500000</v>
       </c>
       <c r="I40" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="J40" s="80" t="s">
         <v>214</v>
-      </c>
-      <c r="J40" s="80" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B41" s="87">
         <f>SUM(B6:AG6)</f>
@@ -3393,17 +3404,17 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B42" s="91">
         <f>B32+B38+B39</f>
-        <v>7815000</v>
+        <v>6256910</v>
       </c>
       <c r="I42" s="88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J42" s="88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -3411,7 +3422,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B44" s="98">
         <v>758090</v>
@@ -3419,7 +3430,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B45" s="1">
         <v>800000</v>
@@ -3427,16 +3438,13 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B46" s="89">
         <f>SUM(B44:B45)</f>
         <v>1558090</v>
       </c>
-      <c r="C46" s="9">
-        <f>C36-B46</f>
-        <v>-1558090</v>
-      </c>
+      <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
   </sheetData>
@@ -3452,7 +3460,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3464,179 +3472,579 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="103">
+        <v>44742</v>
+      </c>
+      <c r="B2" s="100" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="99">
-        <v>44774</v>
-      </c>
-      <c r="B2" s="100" t="s">
-        <v>246</v>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="103"/>
       <c r="B3" s="101" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="C3">
+        <v>480000</v>
+      </c>
+      <c r="D3">
+        <v>-262000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="99">
-        <v>44775</v>
+      <c r="A4" s="102">
+        <v>44743</v>
+      </c>
+      <c r="B4" s="100" t="str">
+        <f>B2</f>
+        <v>카드</v>
+      </c>
+      <c r="C4">
+        <v>1600000</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="102"/>
+      <c r="B5" s="101" t="str">
+        <f t="shared" ref="B5:B63" si="0">B3</f>
+        <v>현찰</v>
+      </c>
+      <c r="C5">
+        <v>160000</v>
+      </c>
+      <c r="D5">
+        <v>-580000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="99">
-        <v>44776</v>
+      <c r="A6" s="102">
+        <v>44744</v>
+      </c>
+      <c r="B6" s="100" t="str">
+        <f>B4</f>
+        <v>카드</v>
+      </c>
+      <c r="C6">
+        <v>170000</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="102"/>
+      <c r="B7" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+      <c r="C7">
+        <v>65000</v>
+      </c>
+      <c r="D7">
+        <v>-92000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="99">
-        <v>44777</v>
+      <c r="A8" s="102">
+        <v>44745</v>
+      </c>
+      <c r="B8" s="100" t="str">
+        <f>B6</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="102"/>
+      <c r="B9" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="99">
-        <v>44778</v>
+      <c r="A10" s="102">
+        <v>44746</v>
+      </c>
+      <c r="B10" s="100" t="str">
+        <f>B8</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="102"/>
+      <c r="B11" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="99">
-        <v>44779</v>
+      <c r="A12" s="102">
+        <v>44747</v>
+      </c>
+      <c r="B12" s="100" t="str">
+        <f>B10</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="102"/>
+      <c r="B13" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="99">
-        <v>44780</v>
+      <c r="A14" s="102">
+        <v>44748</v>
+      </c>
+      <c r="B14" s="100" t="str">
+        <f>B12</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="102"/>
+      <c r="B15" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="99">
-        <v>44781</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="99">
-        <v>44782</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="99">
-        <v>44783</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="99">
-        <v>44784</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="99">
-        <v>44785</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="99">
-        <v>44786</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="99">
-        <v>44787</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="99">
-        <v>44788</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="99">
-        <v>44789</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="99">
-        <v>44790</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="99">
-        <v>44791</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="99">
-        <v>44792</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="99">
-        <v>44793</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="99">
-        <v>44794</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="99">
-        <v>44795</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99">
-        <v>44796</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="99">
-        <v>44797</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="99">
-        <v>44798</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="99">
-        <v>44799</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="99">
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="99">
-        <v>44801</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="99">
-        <v>44802</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="99">
-        <v>44803</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="99">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="102">
+        <v>44749</v>
+      </c>
+      <c r="B16" s="100" t="str">
+        <f>B14</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="102"/>
+      <c r="B17" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="102">
+        <v>44750</v>
+      </c>
+      <c r="B18" s="100" t="str">
+        <f>B16</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="102"/>
+      <c r="B19" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="102">
+        <v>44751</v>
+      </c>
+      <c r="B20" s="100" t="str">
+        <f>B18</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="102"/>
+      <c r="B21" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="102">
+        <v>44752</v>
+      </c>
+      <c r="B22" s="100" t="str">
+        <f>B20</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="102"/>
+      <c r="B23" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="102">
+        <v>44753</v>
+      </c>
+      <c r="B24" s="100" t="str">
+        <f>B22</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="102"/>
+      <c r="B25" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="102">
+        <v>44754</v>
+      </c>
+      <c r="B26" s="100" t="str">
+        <f>B24</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="102"/>
+      <c r="B27" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="102">
+        <v>44755</v>
+      </c>
+      <c r="B28" s="100" t="str">
+        <f>B26</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="102"/>
+      <c r="B29" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="102">
+        <v>44756</v>
+      </c>
+      <c r="B30" s="100" t="str">
+        <f>B28</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="102"/>
+      <c r="B31" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="102">
+        <v>44757</v>
+      </c>
+      <c r="B32" s="100" t="str">
+        <f>B30</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="102"/>
+      <c r="B33" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="102">
+        <v>44758</v>
+      </c>
+      <c r="B34" s="100" t="str">
+        <f>B32</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="102"/>
+      <c r="B35" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="102">
+        <v>44759</v>
+      </c>
+      <c r="B36" s="100" t="str">
+        <f>B34</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="102"/>
+      <c r="B37" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="102">
+        <v>44760</v>
+      </c>
+      <c r="B38" s="100" t="str">
+        <f>B36</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="102"/>
+      <c r="B39" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="102">
+        <v>44761</v>
+      </c>
+      <c r="B40" s="100" t="str">
+        <f>B38</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="102"/>
+      <c r="B41" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="102">
+        <v>44762</v>
+      </c>
+      <c r="B42" s="100" t="str">
+        <f>B40</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="102"/>
+      <c r="B43" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="102">
+        <v>44763</v>
+      </c>
+      <c r="B44" s="100" t="str">
+        <f>B42</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="102"/>
+      <c r="B45" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="102">
+        <v>44764</v>
+      </c>
+      <c r="B46" s="100" t="str">
+        <f>B44</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="102"/>
+      <c r="B47" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="102">
+        <v>44765</v>
+      </c>
+      <c r="B48" s="100" t="str">
+        <f>B46</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="102"/>
+      <c r="B49" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="102">
+        <v>44766</v>
+      </c>
+      <c r="B50" s="100" t="str">
+        <f>B48</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="102"/>
+      <c r="B51" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="102">
+        <v>44767</v>
+      </c>
+      <c r="B52" s="100" t="str">
+        <f>B50</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="102"/>
+      <c r="B53" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="102">
+        <v>44768</v>
+      </c>
+      <c r="B54" s="100" t="str">
+        <f>B52</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="102"/>
+      <c r="B55" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="102">
+        <v>44769</v>
+      </c>
+      <c r="B56" s="100" t="str">
+        <f>B54</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="102"/>
+      <c r="B57" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="102">
+        <v>44770</v>
+      </c>
+      <c r="B58" s="100" t="str">
+        <f>B56</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="102"/>
+      <c r="B59" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="102">
+        <v>44771</v>
+      </c>
+      <c r="B60" s="100" t="str">
+        <f>B58</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="102"/>
+      <c r="B61" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="102">
+        <v>44772</v>
+      </c>
+      <c r="B62" s="100" t="str">
+        <f>B60</f>
+        <v>카드</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="102"/>
+      <c r="B63" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>현찰</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="99"/>
     </row>
   </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3723,13 +4131,13 @@
       <c r="G1" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -3746,16 +4154,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="104" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -3771,14 +4179,14 @@
       <c r="G3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="104"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="110"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="106"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="25" t="s">
         <v>122</v>
       </c>
@@ -3788,14 +4196,14 @@
       <c r="G4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="102"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="104"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="110"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="107"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -3805,11 +4213,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="104"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="110"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -3826,11 +4234,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="104"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -3851,11 +4259,11 @@
       <c r="G7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="104"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="110"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -3874,11 +4282,11 @@
       <c r="G8" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="104"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -3891,11 +4299,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="104"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="110"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -3910,11 +4318,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="104"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="110"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -3923,11 +4331,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="104"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="110"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -3936,11 +4344,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="104"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="110"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -3949,11 +4357,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="104"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="110"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -3962,11 +4370,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="104"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="110"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -4467,12 +4875,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -4482,6 +4884,12 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4523,14 +4931,14 @@
       <c r="E1" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="111"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="113"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="258">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -972,6 +972,26 @@
   </si>
   <si>
     <t>카드매출현금인출 후 잔금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(코스트코)현욱구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(코스트코)주류 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-07-19카카오입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간 놀고 20분 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인손님 3팀 전부 뺀지,40만원 현욱계좌, 과일값 천원짜리 모자라서 현욱 5000원 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1442,7 +1462,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1543,7 +1563,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1629,12 +1648,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1647,15 +1676,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1665,7 +1685,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1994,10 +2015,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2009,122 +2030,122 @@
   <sheetData>
     <row r="1" spans="1:36" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="72">
+      <c r="B1" s="71">
         <v>44742</v>
       </c>
-      <c r="C1" s="72">
+      <c r="C1" s="71">
         <v>44743</v>
       </c>
-      <c r="D1" s="72">
+      <c r="D1" s="71">
         <v>44744</v>
       </c>
-      <c r="E1" s="72">
+      <c r="E1" s="71">
         <v>44745</v>
       </c>
-      <c r="F1" s="72">
+      <c r="F1" s="71">
         <v>44746</v>
       </c>
-      <c r="G1" s="72">
+      <c r="G1" s="71">
         <v>44747</v>
       </c>
-      <c r="H1" s="72">
+      <c r="H1" s="71">
         <v>44748</v>
       </c>
-      <c r="I1" s="72">
+      <c r="I1" s="71">
         <v>44749</v>
       </c>
-      <c r="J1" s="72">
+      <c r="J1" s="71">
         <v>44750</v>
       </c>
-      <c r="K1" s="72">
+      <c r="K1" s="71">
         <v>44751</v>
       </c>
-      <c r="L1" s="72">
+      <c r="L1" s="71">
         <v>44752</v>
       </c>
-      <c r="M1" s="72">
+      <c r="M1" s="71">
         <v>44753</v>
       </c>
-      <c r="N1" s="72">
+      <c r="N1" s="71">
         <v>44754</v>
       </c>
-      <c r="O1" s="72">
+      <c r="O1" s="71">
         <v>44755</v>
       </c>
-      <c r="P1" s="72">
+      <c r="P1" s="71">
         <v>44756</v>
       </c>
-      <c r="Q1" s="72">
+      <c r="Q1" s="71">
         <v>44757</v>
       </c>
-      <c r="R1" s="72">
+      <c r="R1" s="71">
         <v>44758</v>
       </c>
-      <c r="S1" s="72">
+      <c r="S1" s="71">
         <v>44759</v>
       </c>
-      <c r="T1" s="72">
+      <c r="T1" s="71">
         <v>44760</v>
       </c>
-      <c r="U1" s="72">
+      <c r="U1" s="71">
         <v>44761</v>
       </c>
-      <c r="V1" s="72">
+      <c r="V1" s="71">
         <v>44762</v>
       </c>
-      <c r="W1" s="72">
+      <c r="W1" s="71">
         <v>44763</v>
       </c>
-      <c r="X1" s="72">
+      <c r="X1" s="71">
         <v>44764</v>
       </c>
-      <c r="Y1" s="72">
+      <c r="Y1" s="71">
         <v>44765</v>
       </c>
-      <c r="Z1" s="72">
+      <c r="Z1" s="71">
         <v>44766</v>
       </c>
-      <c r="AA1" s="72">
+      <c r="AA1" s="71">
         <v>44767</v>
       </c>
-      <c r="AB1" s="72">
+      <c r="AB1" s="71">
         <v>44768</v>
       </c>
-      <c r="AC1" s="72">
+      <c r="AC1" s="71">
         <v>44769</v>
       </c>
-      <c r="AD1" s="72">
+      <c r="AD1" s="71">
         <v>44770</v>
       </c>
-      <c r="AE1" s="72">
+      <c r="AE1" s="71">
         <v>44771</v>
       </c>
-      <c r="AF1" s="72">
+      <c r="AF1" s="71">
         <v>44772</v>
       </c>
-      <c r="AG1" s="72">
+      <c r="AG1" s="71">
         <v>44773</v>
       </c>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:36" s="74" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:36" s="73" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="74">
+      <c r="G2" s="73">
         <v>1500000</v>
       </c>
-      <c r="J2" s="74">
+      <c r="J2" s="73">
         <v>200000</v>
       </c>
-      <c r="T2" s="74">
+      <c r="T2" s="73">
         <v>1500000</v>
       </c>
     </row>
     <row r="3" spans="1:36" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5">
@@ -2205,7 +2226,7 @@
       </c>
       <c r="U3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="V3" s="5">
         <f t="shared" si="0"/>
@@ -2257,7 +2278,7 @@
       </c>
     </row>
     <row r="4" spans="1:36" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
@@ -2323,10 +2344,12 @@
         <v>320000</v>
       </c>
       <c r="U4" s="6">
-        <v>0</v>
+        <f>35000+400000+5000</f>
+        <v>440000</v>
       </c>
       <c r="V4" s="6">
-        <v>0</v>
+        <f>320000+160000</f>
+        <v>480000</v>
       </c>
       <c r="W4" s="6">
         <v>0</v>
@@ -2363,7 +2386,7 @@
       </c>
     </row>
     <row r="5" spans="1:36" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7">
@@ -2444,11 +2467,11 @@
       </c>
       <c r="U5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>615000</v>
       </c>
       <c r="V5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>480000</v>
       </c>
       <c r="W5" s="7">
         <f t="shared" si="1"/>
@@ -2496,7 +2519,7 @@
       </c>
     </row>
     <row r="6" spans="1:36" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="8">
@@ -2577,11 +2600,11 @@
       </c>
       <c r="U6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>343000</v>
       </c>
       <c r="V6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>228000</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="3"/>
@@ -2629,7 +2652,7 @@
       </c>
     </row>
     <row r="7" spans="1:36" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="54" t="s">
         <v>195</v>
       </c>
       <c r="B7" s="18">
@@ -2710,11 +2733,11 @@
       </c>
       <c r="U7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-272000</v>
       </c>
       <c r="V7" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>SUM(V12,V14,V16,V18,V20,V22,V22)</f>
+        <v>-252000</v>
       </c>
       <c r="W7" s="18">
         <f t="shared" si="5"/>
@@ -2762,7 +2785,7 @@
       </c>
     </row>
     <row r="8" spans="1:36" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="55" t="s">
         <v>194</v>
       </c>
       <c r="F8" s="47">
@@ -2781,15 +2804,15 @@
       </c>
     </row>
     <row r="9" spans="1:36" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
+      <c r="A9" s="56"/>
     </row>
     <row r="10" spans="1:36" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="57" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="10">
@@ -2830,7 +2853,7 @@
       </c>
     </row>
     <row r="12" spans="1:36" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="59" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="11">
@@ -2874,9 +2897,15 @@
       <c r="T12" s="11">
         <v>-12000</v>
       </c>
+      <c r="U12" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="V12" s="11">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="13" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="12">
@@ -2924,7 +2953,7 @@
       </c>
     </row>
     <row r="14" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="58" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="10">
@@ -2981,12 +3010,19 @@
       <c r="T14" s="10">
         <v>-160000</v>
       </c>
+      <c r="U14" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="V14" s="10">
+        <f>-80000-80000</f>
+        <v>-160000</v>
+      </c>
     </row>
     <row r="15" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="78" t="s">
+      <c r="I15" s="77" t="s">
         <v>208</v>
       </c>
       <c r="J15" s="12" t="s">
@@ -3001,9 +3037,12 @@
       <c r="P15" s="12">
         <v>44000</v>
       </c>
+      <c r="U15" s="12">
+        <v>33000</v>
+      </c>
     </row>
     <row r="16" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="10">
@@ -3036,9 +3075,15 @@
       <c r="T16" s="10">
         <v>-80000</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
+      <c r="U16" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="V16" s="10">
+        <v>-80000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="60" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="12">
@@ -3053,15 +3098,18 @@
       <c r="P17" s="12">
         <v>176000</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+      <c r="U17" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="10">
         <v>-80000</v>
       </c>
-      <c r="I18" s="77" t="s">
+      <c r="I18" s="76" t="s">
         <v>209</v>
       </c>
       <c r="J18" s="10">
@@ -3080,9 +3128,12 @@
       <c r="T18" s="10">
         <v>-80000</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="61" t="s">
+      <c r="U18" s="10">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="60" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="12">
@@ -3091,9 +3142,12 @@
       <c r="P19" s="12">
         <v>88000</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="59" t="s">
+      <c r="U19" s="12">
+        <v>142000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="10">
@@ -3102,37 +3156,40 @@
       <c r="Q20" s="10">
         <v>-200000</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="61" t="s">
+      <c r="U20" s="10">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="60" t="s">
         <v>12</v>
       </c>
       <c r="J21" s="12">
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="59" t="s">
+    <row r="22" spans="1:21" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="58" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
+    <row r="23" spans="1:21" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="61"/>
       <c r="J23" s="9">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
+    <row r="24" spans="1:21" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="61"/>
       <c r="J24" s="9">
         <v>77000</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="63" t="s">
+    <row r="25" spans="1:21" s="21" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A25" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -3156,7 +3213,7 @@
       <c r="I25" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="J25" s="82" t="s">
+      <c r="J25" s="81" t="s">
         <v>223</v>
       </c>
       <c r="K25" s="21" t="s">
@@ -3180,7 +3237,7 @@
       <c r="Q25" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="R25" s="85" t="s">
+      <c r="R25" s="84" t="s">
         <v>239</v>
       </c>
       <c r="S25" s="21" t="s">
@@ -3189,9 +3246,12 @@
       <c r="T25" s="21" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
+      <c r="U25" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="63"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
         <v>18</v>
@@ -3203,13 +3263,13 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
+    <row r="27" spans="1:21" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
     </row>
-    <row r="28" spans="1:20" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
+    <row r="28" spans="1:21" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="63"/>
       <c r="C28" s="20" t="s">
         <v>20</v>
       </c>
@@ -3217,8 +3277,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+    <row r="29" spans="1:21" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="64" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="22">
@@ -3234,28 +3294,31 @@
         <v>342300</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="66" t="s">
+    <row r="30" spans="1:21" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="B30" s="114">
+      <c r="B30" s="101">
         <f>SUM(B2:AG2)+1558090</f>
         <v>4758090</v>
       </c>
-      <c r="C30" s="114" t="s">
+      <c r="C30" s="101" t="s">
         <v>246</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="83" t="s">
+      <c r="U30" s="114" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="84">
+      <c r="B31" s="83">
         <f>SUM(B4:AG4)</f>
-        <v>6226000</v>
+        <v>7146000</v>
       </c>
       <c r="C31" s="13"/>
       <c r="G31" s="9" t="s">
@@ -3264,14 +3327,18 @@
       <c r="J31" s="9">
         <v>300000</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="75" t="s">
+      <c r="U31" s="114">
+        <f>25690+25790+4000+(27390*5)</f>
+        <v>192430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="75">
         <f>SUM(B3:AG3)-B30</f>
-        <v>1642910</v>
+        <v>1817910</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -3281,42 +3348,51 @@
       <c r="J32" s="9">
         <v>220000</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="67" t="s">
+      <c r="U32" s="114" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="66" t="s">
         <v>204</v>
       </c>
       <c r="B33" s="14">
         <f>SUM(B3:AG3)</f>
-        <v>6401000</v>
+        <v>6576000</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="J33" s="9">
         <v>264000</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="68" t="s">
+      <c r="U33" s="114">
+        <v>57450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="67" t="s">
         <v>233</v>
       </c>
       <c r="B34" s="16">
         <f>SUM(B5:AG5)</f>
-        <v>12627000</v>
+        <v>13722000</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="G34" s="9" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="69" t="s">
+      <c r="U34" s="115" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="68" t="s">
         <v>206</v>
       </c>
       <c r="B35" s="17">
         <f>B34-B37</f>
-        <v>11484700</v>
+        <v>12579700</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -3324,13 +3400,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="70" t="s">
+    <row r="36" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="48">
         <f>SUM(B7:AG7)</f>
-        <v>-5243000</v>
+        <v>-5767000</v>
       </c>
       <c r="C36" s="15"/>
       <c r="G36" s="1" t="s">
@@ -3343,109 +3419,132 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="71" t="s">
+    <row r="37" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="50">
+      <c r="B37" s="49">
         <f>SUM(B29:AG29)-SUM(40:40)</f>
         <v>1142300</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="94" t="s">
+    <row r="38" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="B38" s="95">
-        <f>(SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4+M4+N4+SUM(O4:AG4))-400000-320000-20000-30000-320000</f>
-        <v>674000</v>
+      <c r="B38" s="94">
+        <f>(SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4+M4+N4+SUM(O4:AG4))-400000-320000-20000-30000-320000-400000</f>
+        <v>670000</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="92" t="s">
+    <row r="39" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="B39" s="93">
-        <f>SUM(E4,G4,H4)+560000+480000-500000+400000+320000+T2+320000</f>
-        <v>3940000</v>
-      </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="96" t="s">
+      <c r="B39" s="92">
+        <f>SUM(E4,G4,H4)+560000+480000-500000+400000+320000+T2+320000-U33-U31+400000</f>
+        <v>4090120</v>
+      </c>
+      <c r="D39" s="95" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D40" s="97">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D40" s="96">
         <v>500000</v>
       </c>
-      <c r="I40" s="79" t="s">
+      <c r="I40" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="J40" s="80" t="s">
+      <c r="J40" s="79" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="86" t="s">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="B41" s="87">
+      <c r="B41" s="86">
         <f>SUM(B6:AG6)</f>
-        <v>7384000</v>
-      </c>
-      <c r="I41" s="80">
+        <v>7955000</v>
+      </c>
+      <c r="I41" s="79">
         <v>560000</v>
       </c>
-      <c r="J41" s="80">
+      <c r="J41" s="79">
         <v>480000</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="90" t="s">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="89" t="s">
         <v>232</v>
       </c>
-      <c r="B42" s="91">
+      <c r="B42" s="90">
         <f>B32+B38+B39</f>
-        <v>6256910</v>
-      </c>
-      <c r="I42" s="88" t="s">
+        <v>6578030</v>
+      </c>
+      <c r="I42" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="J42" s="88" t="s">
+      <c r="J42" s="87" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J43" s="81"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J43" s="80"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B44" s="98">
+      <c r="B44" s="97">
         <v>758090</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B45" s="1">
         <v>800000</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="K45" s="1">
+        <v>8270715</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B46" s="89">
+      <c r="B46" s="88">
         <f>SUM(B44:B45)</f>
         <v>1558090</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
+      <c r="K46" s="1">
+        <v>2729100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K47" s="1">
+        <f>K45-K46</f>
+        <v>5541615</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="15">
+        <f>8270715-B39</f>
+        <v>4180595</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="9">
+        <f>3000000+B37</f>
+        <v>4142300</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3482,7 +3581,7 @@
       <c r="A2" s="103">
         <v>44742</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="99" t="s">
         <v>249</v>
       </c>
       <c r="C2">
@@ -3494,7 +3593,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="103"/>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="100" t="s">
         <v>250</v>
       </c>
       <c r="C3">
@@ -3508,7 +3607,7 @@
       <c r="A4" s="102">
         <v>44743</v>
       </c>
-      <c r="B4" s="100" t="str">
+      <c r="B4" s="99" t="str">
         <f>B2</f>
         <v>카드</v>
       </c>
@@ -3521,7 +3620,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="102"/>
-      <c r="B5" s="101" t="str">
+      <c r="B5" s="100" t="str">
         <f t="shared" ref="B5:B63" si="0">B3</f>
         <v>현찰</v>
       </c>
@@ -3536,7 +3635,7 @@
       <c r="A6" s="102">
         <v>44744</v>
       </c>
-      <c r="B6" s="100" t="str">
+      <c r="B6" s="99" t="str">
         <f>B4</f>
         <v>카드</v>
       </c>
@@ -3549,7 +3648,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="102"/>
-      <c r="B7" s="101" t="str">
+      <c r="B7" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3564,14 +3663,14 @@
       <c r="A8" s="102">
         <v>44745</v>
       </c>
-      <c r="B8" s="100" t="str">
+      <c r="B8" s="99" t="str">
         <f>B6</f>
         <v>카드</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="102"/>
-      <c r="B9" s="101" t="str">
+      <c r="B9" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3580,14 +3679,14 @@
       <c r="A10" s="102">
         <v>44746</v>
       </c>
-      <c r="B10" s="100" t="str">
+      <c r="B10" s="99" t="str">
         <f>B8</f>
         <v>카드</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="102"/>
-      <c r="B11" s="101" t="str">
+      <c r="B11" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3596,14 +3695,14 @@
       <c r="A12" s="102">
         <v>44747</v>
       </c>
-      <c r="B12" s="100" t="str">
+      <c r="B12" s="99" t="str">
         <f>B10</f>
         <v>카드</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="102"/>
-      <c r="B13" s="101" t="str">
+      <c r="B13" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3612,14 +3711,14 @@
       <c r="A14" s="102">
         <v>44748</v>
       </c>
-      <c r="B14" s="100" t="str">
+      <c r="B14" s="99" t="str">
         <f>B12</f>
         <v>카드</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="102"/>
-      <c r="B15" s="101" t="str">
+      <c r="B15" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3628,14 +3727,14 @@
       <c r="A16" s="102">
         <v>44749</v>
       </c>
-      <c r="B16" s="100" t="str">
+      <c r="B16" s="99" t="str">
         <f>B14</f>
         <v>카드</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="102"/>
-      <c r="B17" s="101" t="str">
+      <c r="B17" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3644,14 +3743,14 @@
       <c r="A18" s="102">
         <v>44750</v>
       </c>
-      <c r="B18" s="100" t="str">
+      <c r="B18" s="99" t="str">
         <f>B16</f>
         <v>카드</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="102"/>
-      <c r="B19" s="101" t="str">
+      <c r="B19" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3660,14 +3759,14 @@
       <c r="A20" s="102">
         <v>44751</v>
       </c>
-      <c r="B20" s="100" t="str">
+      <c r="B20" s="99" t="str">
         <f>B18</f>
         <v>카드</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="102"/>
-      <c r="B21" s="101" t="str">
+      <c r="B21" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3676,14 +3775,14 @@
       <c r="A22" s="102">
         <v>44752</v>
       </c>
-      <c r="B22" s="100" t="str">
+      <c r="B22" s="99" t="str">
         <f>B20</f>
         <v>카드</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="102"/>
-      <c r="B23" s="101" t="str">
+      <c r="B23" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3692,14 +3791,14 @@
       <c r="A24" s="102">
         <v>44753</v>
       </c>
-      <c r="B24" s="100" t="str">
+      <c r="B24" s="99" t="str">
         <f>B22</f>
         <v>카드</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="102"/>
-      <c r="B25" s="101" t="str">
+      <c r="B25" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3708,14 +3807,14 @@
       <c r="A26" s="102">
         <v>44754</v>
       </c>
-      <c r="B26" s="100" t="str">
+      <c r="B26" s="99" t="str">
         <f>B24</f>
         <v>카드</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="102"/>
-      <c r="B27" s="101" t="str">
+      <c r="B27" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3724,14 +3823,14 @@
       <c r="A28" s="102">
         <v>44755</v>
       </c>
-      <c r="B28" s="100" t="str">
+      <c r="B28" s="99" t="str">
         <f>B26</f>
         <v>카드</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="102"/>
-      <c r="B29" s="101" t="str">
+      <c r="B29" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3740,14 +3839,14 @@
       <c r="A30" s="102">
         <v>44756</v>
       </c>
-      <c r="B30" s="100" t="str">
+      <c r="B30" s="99" t="str">
         <f>B28</f>
         <v>카드</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="102"/>
-      <c r="B31" s="101" t="str">
+      <c r="B31" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3756,14 +3855,14 @@
       <c r="A32" s="102">
         <v>44757</v>
       </c>
-      <c r="B32" s="100" t="str">
+      <c r="B32" s="99" t="str">
         <f>B30</f>
         <v>카드</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="102"/>
-      <c r="B33" s="101" t="str">
+      <c r="B33" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3772,14 +3871,14 @@
       <c r="A34" s="102">
         <v>44758</v>
       </c>
-      <c r="B34" s="100" t="str">
+      <c r="B34" s="99" t="str">
         <f>B32</f>
         <v>카드</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="102"/>
-      <c r="B35" s="101" t="str">
+      <c r="B35" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3788,14 +3887,14 @@
       <c r="A36" s="102">
         <v>44759</v>
       </c>
-      <c r="B36" s="100" t="str">
+      <c r="B36" s="99" t="str">
         <f>B34</f>
         <v>카드</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="102"/>
-      <c r="B37" s="101" t="str">
+      <c r="B37" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3804,14 +3903,14 @@
       <c r="A38" s="102">
         <v>44760</v>
       </c>
-      <c r="B38" s="100" t="str">
+      <c r="B38" s="99" t="str">
         <f>B36</f>
         <v>카드</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="102"/>
-      <c r="B39" s="101" t="str">
+      <c r="B39" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3820,14 +3919,14 @@
       <c r="A40" s="102">
         <v>44761</v>
       </c>
-      <c r="B40" s="100" t="str">
+      <c r="B40" s="99" t="str">
         <f>B38</f>
         <v>카드</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="102"/>
-      <c r="B41" s="101" t="str">
+      <c r="B41" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3836,14 +3935,14 @@
       <c r="A42" s="102">
         <v>44762</v>
       </c>
-      <c r="B42" s="100" t="str">
+      <c r="B42" s="99" t="str">
         <f>B40</f>
         <v>카드</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="102"/>
-      <c r="B43" s="101" t="str">
+      <c r="B43" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3852,14 +3951,14 @@
       <c r="A44" s="102">
         <v>44763</v>
       </c>
-      <c r="B44" s="100" t="str">
+      <c r="B44" s="99" t="str">
         <f>B42</f>
         <v>카드</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="102"/>
-      <c r="B45" s="101" t="str">
+      <c r="B45" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3868,14 +3967,14 @@
       <c r="A46" s="102">
         <v>44764</v>
       </c>
-      <c r="B46" s="100" t="str">
+      <c r="B46" s="99" t="str">
         <f>B44</f>
         <v>카드</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="102"/>
-      <c r="B47" s="101" t="str">
+      <c r="B47" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3884,14 +3983,14 @@
       <c r="A48" s="102">
         <v>44765</v>
       </c>
-      <c r="B48" s="100" t="str">
+      <c r="B48" s="99" t="str">
         <f>B46</f>
         <v>카드</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="102"/>
-      <c r="B49" s="101" t="str">
+      <c r="B49" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3900,14 +3999,14 @@
       <c r="A50" s="102">
         <v>44766</v>
       </c>
-      <c r="B50" s="100" t="str">
+      <c r="B50" s="99" t="str">
         <f>B48</f>
         <v>카드</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="102"/>
-      <c r="B51" s="101" t="str">
+      <c r="B51" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3916,14 +4015,14 @@
       <c r="A52" s="102">
         <v>44767</v>
       </c>
-      <c r="B52" s="100" t="str">
+      <c r="B52" s="99" t="str">
         <f>B50</f>
         <v>카드</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="102"/>
-      <c r="B53" s="101" t="str">
+      <c r="B53" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3932,14 +4031,14 @@
       <c r="A54" s="102">
         <v>44768</v>
       </c>
-      <c r="B54" s="100" t="str">
+      <c r="B54" s="99" t="str">
         <f>B52</f>
         <v>카드</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="102"/>
-      <c r="B55" s="101" t="str">
+      <c r="B55" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3948,14 +4047,14 @@
       <c r="A56" s="102">
         <v>44769</v>
       </c>
-      <c r="B56" s="100" t="str">
+      <c r="B56" s="99" t="str">
         <f>B54</f>
         <v>카드</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="102"/>
-      <c r="B57" s="101" t="str">
+      <c r="B57" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3964,14 +4063,14 @@
       <c r="A58" s="102">
         <v>44770</v>
       </c>
-      <c r="B58" s="100" t="str">
+      <c r="B58" s="99" t="str">
         <f>B56</f>
         <v>카드</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="102"/>
-      <c r="B59" s="101" t="str">
+      <c r="B59" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3980,14 +4079,14 @@
       <c r="A60" s="102">
         <v>44771</v>
       </c>
-      <c r="B60" s="100" t="str">
+      <c r="B60" s="99" t="str">
         <f>B58</f>
         <v>카드</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="102"/>
-      <c r="B61" s="101" t="str">
+      <c r="B61" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
@@ -3996,23 +4095,42 @@
       <c r="A62" s="102">
         <v>44772</v>
       </c>
-      <c r="B62" s="100" t="str">
+      <c r="B62" s="99" t="str">
         <f>B60</f>
         <v>카드</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="102"/>
-      <c r="B63" s="101" t="str">
+      <c r="B63" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="99"/>
+      <c r="A64" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -4025,25 +4143,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4131,13 +4230,13 @@
       <c r="G1" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -4154,16 +4253,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="107" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -4179,14 +4278,14 @@
       <c r="G3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="108"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="110"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="106"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="105"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="25" t="s">
         <v>122</v>
       </c>
@@ -4196,14 +4295,14 @@
       <c r="G4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="110"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="106"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="106"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -4213,11 +4312,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="110"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="106"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -4234,11 +4333,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="106"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4259,11 +4358,11 @@
       <c r="G7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="110"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="106"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -4282,11 +4381,11 @@
       <c r="G8" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="106"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -4299,11 +4398,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="110"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="106"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -4318,11 +4417,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="106"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -4331,11 +4430,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="110"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="106"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -4344,11 +4443,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="106"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -4357,11 +4456,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="110"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="106"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -4370,11 +4469,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="110"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="106"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -4875,6 +4974,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -4884,12 +4989,6 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="정보" sheetId="2" r:id="rId3"/>
-    <sheet name="계좌,카드" sheetId="3" r:id="rId4"/>
-    <sheet name="아이디,비번" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="정보" sheetId="2" r:id="rId4"/>
+    <sheet name="계좌,카드" sheetId="3" r:id="rId5"/>
+    <sheet name="아이디,비번" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="291">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -992,6 +993,138 @@
   </si>
   <si>
     <t>1인손님 3팀 전부 뺀지,40만원 현욱계좌, 과일값 천원짜리 모자라서 현욱 5000원 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일시켜두고 안나감,  2차손님 아가씨뺸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체 손님 (15명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱계좌에서 80만원 현찰뽑음 , 70만6천원 현욱계좌입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미납금 24만원(Nj)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상계좌 MOBING 휴대폰값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 4명, 과일2개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월30일~7월 3일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차별 평균 총매출 누계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번영회비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24만원 NJ 외상, 2만원 엄마팁, 10만원 현금교환 현욱계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,72,16계좌입금, 폰비,상회비 계좌 출금 ,현욱 계좌에서 30만원 현금으로 출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20분뺀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱계좌에서 60시제 출금, 16계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금완료, 추가완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOSHOW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노래방 저작권료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1팀 , 삼촌이 100만원 카드매출 입금, 2만원 복숭아 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체손님 , 아베크4팀 , 잔돈없어서 현욱 4천원 입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스 , 인터넷 기계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미납금 15만원(영걸이형)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영걸이형손님, 현금 48, 새벽 손님 3시간(a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티+1만</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1093,7 +1226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1226,8 +1359,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1454,6 +1593,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1462,7 +1653,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1649,6 +1840,31 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1685,8 +1901,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1719,7 +1937,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1004587</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>80312</xdr:rowOff>
+      <xdr:rowOff>20781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2015,10 +2233,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AJ52"/>
+  <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2143,6 +2361,9 @@
       <c r="T2" s="73">
         <v>1500000</v>
       </c>
+      <c r="AD2" s="73">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="3" spans="1:36" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
@@ -2234,27 +2455,27 @@
       </c>
       <c r="W3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>144000</v>
       </c>
       <c r="X3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>697000</v>
       </c>
       <c r="Y3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342000</v>
       </c>
       <c r="Z3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>370700</v>
       </c>
       <c r="AA3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>352000</v>
       </c>
       <c r="AB3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77000</v>
       </c>
       <c r="AC3" s="5">
         <f t="shared" si="0"/>
@@ -2262,11 +2483,11 @@
       </c>
       <c r="AD3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71500</v>
       </c>
       <c r="AE3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(AE11,AE13,AE15,AE17,AE19,AE21)</f>
+        <v>412500</v>
       </c>
       <c r="AF3" s="5">
         <f t="shared" si="0"/>
@@ -2274,7 +2495,7 @@
       </c>
       <c r="AG3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="4" spans="1:36" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -2355,19 +2576,24 @@
         <v>0</v>
       </c>
       <c r="X4" s="6">
-        <v>0</v>
+        <f>240000+109000+240000</f>
+        <v>589000</v>
       </c>
       <c r="Y4" s="6">
-        <v>0</v>
+        <f>750000-44000</f>
+        <v>706000</v>
       </c>
       <c r="Z4" s="6">
-        <v>0</v>
+        <f>480000+280000+150000</f>
+        <v>910000</v>
       </c>
       <c r="AA4" s="6">
-        <v>0</v>
+        <f>600000+720000+160000</f>
+        <v>1480000</v>
       </c>
       <c r="AB4" s="6">
-        <v>0</v>
+        <f>160000+280000+90000</f>
+        <v>530000</v>
       </c>
       <c r="AC4" s="6">
         <v>0</v>
@@ -2376,13 +2602,14 @@
         <v>0</v>
       </c>
       <c r="AE4" s="6">
-        <v>0</v>
+        <f>280000+280000+5000+90000</f>
+        <v>655000</v>
       </c>
       <c r="AF4" s="6">
         <v>0</v>
       </c>
       <c r="AG4" s="6">
-        <v>0</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -2475,27 +2702,27 @@
       </c>
       <c r="W5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>144000</v>
       </c>
       <c r="X5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1286000</v>
       </c>
       <c r="Y5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1048000</v>
       </c>
       <c r="Z5" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>Z3+Z4</f>
+        <v>1280700</v>
       </c>
       <c r="AA5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1832000</v>
       </c>
       <c r="AB5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>607000</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="1"/>
@@ -2503,11 +2730,11 @@
       </c>
       <c r="AD5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>71500</v>
       </c>
       <c r="AE5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1067500</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="1"/>
@@ -2515,7 +2742,7 @@
       </c>
       <c r="AG5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>254000</v>
       </c>
     </row>
     <row r="6" spans="1:36" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -2608,27 +2835,27 @@
       </c>
       <c r="W6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>82000</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>646000</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>760000</v>
       </c>
       <c r="Z6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>664700</v>
       </c>
       <c r="AA6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>876000</v>
       </c>
       <c r="AB6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>355000</v>
       </c>
       <c r="AC6" s="8">
         <f t="shared" si="3"/>
@@ -2636,11 +2863,11 @@
       </c>
       <c r="AD6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>51500</v>
       </c>
       <c r="AE6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>875500</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" si="3"/>
@@ -2648,7 +2875,7 @@
       </c>
       <c r="AG6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>164000</v>
       </c>
     </row>
     <row r="7" spans="1:36" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -2741,27 +2968,27 @@
       </c>
       <c r="W7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-62000</v>
       </c>
       <c r="X7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-640000</v>
       </c>
       <c r="Y7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-288000</v>
       </c>
       <c r="Z7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-616000</v>
       </c>
       <c r="AA7" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>SUM(AA12,AA14,AA16,AA18,AA20,AA22,AA22)</f>
+        <v>-956000</v>
       </c>
       <c r="AB7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-252000</v>
       </c>
       <c r="AC7" s="18">
         <f t="shared" si="5"/>
@@ -2769,11 +2996,11 @@
       </c>
       <c r="AD7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-20000</v>
       </c>
       <c r="AE7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-192000</v>
       </c>
       <c r="AF7" s="18">
         <f t="shared" si="5"/>
@@ -2781,7 +3008,7 @@
       </c>
       <c r="AG7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-90000</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -2851,6 +3078,22 @@
       <c r="M11" s="10" t="s">
         <v>226</v>
       </c>
+      <c r="Y11" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB11" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>71500</v>
+      </c>
+      <c r="AE11" s="10">
+        <f>104500+27500</f>
+        <v>132000</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>44000</v>
+      </c>
     </row>
     <row r="12" spans="1:36" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="59" t="s">
@@ -2903,6 +3146,37 @@
       <c r="V12" s="11">
         <v>-12000</v>
       </c>
+      <c r="W12" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="X12" s="11">
+        <f>-80000-70000-70000</f>
+        <v>-220000</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>-48000</v>
+      </c>
+      <c r="Z12" s="11">
+        <f>-80000-70000-12000</f>
+        <v>-162000</v>
+      </c>
+      <c r="AA12" s="10">
+        <f>-120000-120000-80000</f>
+        <v>-320000</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>-20000</v>
+      </c>
+      <c r="AD12" s="11">
+        <v>-20000</v>
+      </c>
+      <c r="AE12" s="11">
+        <f>-12000-12000</f>
+        <v>-24000</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>-90000</v>
+      </c>
     </row>
     <row r="13" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
@@ -2951,6 +3225,28 @@
       <c r="T13" s="12">
         <v>352000</v>
       </c>
+      <c r="W13" s="12">
+        <v>144000</v>
+      </c>
+      <c r="X13" s="12">
+        <v>500000</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>200000</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>330000</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB13" s="12">
+        <f>71500+5500</f>
+        <v>77000</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>110000</v>
+      </c>
     </row>
     <row r="14" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
@@ -3017,6 +3313,32 @@
         <f>-80000-80000</f>
         <v>-160000</v>
       </c>
+      <c r="W14" s="10">
+        <f>-20000-30000</f>
+        <v>-50000</v>
+      </c>
+      <c r="X14" s="10">
+        <f>-80000-80000-80000</f>
+        <v>-240000</v>
+      </c>
+      <c r="Y14" s="10">
+        <f>-40000*5</f>
+        <v>-200000</v>
+      </c>
+      <c r="Z14" s="10">
+        <f>-12000-12000</f>
+        <v>-24000</v>
+      </c>
+      <c r="AA14" s="10">
+        <f>-24000-12000</f>
+        <v>-36000</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="AE14" s="10">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="15" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
@@ -3040,6 +3362,21 @@
       <c r="U15" s="12">
         <v>33000</v>
       </c>
+      <c r="X15" s="12">
+        <v>55000</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>142000</v>
+      </c>
+      <c r="Z15" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>352000</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>66000</v>
+      </c>
     </row>
     <row r="16" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
@@ -3081,8 +3418,28 @@
       <c r="V16" s="10">
         <v>-80000</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="X16" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="Z16" s="10">
+        <f>-320000+10000</f>
+        <v>-310000</v>
+      </c>
+      <c r="AA16" s="10">
+        <f>-120000-120000-120000</f>
+        <v>-360000</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>-140000</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
         <v>10</v>
       </c>
@@ -3101,8 +3458,17 @@
       <c r="U17" s="12" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="X17" s="12">
+        <v>142000</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>40700</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>104500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="58" t="s">
         <v>11</v>
       </c>
@@ -3131,8 +3497,24 @@
       <c r="U18" s="10">
         <v>-60000</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="X18" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>-120000</v>
+      </c>
+      <c r="AA18" s="10">
+        <f>-160000-80000</f>
+        <v>-240000</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>-120000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
         <v>10</v>
       </c>
@@ -3145,8 +3527,11 @@
       <c r="U19" s="12">
         <v>142000</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="AB19" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
         <v>11</v>
       </c>
@@ -3159,8 +3544,17 @@
       <c r="U20" s="10">
         <v>-40000</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="X20" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="AB20" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="AE20" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
         <v>12</v>
       </c>
@@ -3168,7 +3562,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="58" t="s">
         <v>13</v>
       </c>
@@ -3176,19 +3570,19 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="61"/>
       <c r="J23" s="9">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="61"/>
       <c r="J24" s="9">
         <v>77000</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="21" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" s="21" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
         <v>17</v>
       </c>
@@ -3249,8 +3643,41 @@
       <c r="U25" s="21" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="W25" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="X25" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y25" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z25" s="134" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA25" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB25" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC25" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD25" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE25" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF25" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG25" s="21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="63"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
@@ -3263,12 +3690,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="63"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
     </row>
-    <row r="28" spans="1:21" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="63"/>
       <c r="C28" s="20" t="s">
         <v>20</v>
@@ -3277,7 +3704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="64" t="s">
         <v>22</v>
       </c>
@@ -3294,13 +3721,13 @@
         <v>342300</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="65" t="s">
         <v>243</v>
       </c>
       <c r="B30" s="101">
         <f>SUM(B2:AG2)+1558090</f>
-        <v>4758090</v>
+        <v>5758090</v>
       </c>
       <c r="C30" s="101" t="s">
         <v>246</v>
@@ -3308,17 +3735,17 @@
       <c r="J30" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="U30" s="114" t="s">
+      <c r="U30" s="102" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="82" t="s">
         <v>244</v>
       </c>
       <c r="B31" s="83">
         <f>SUM(B4:AG4)</f>
-        <v>7146000</v>
+        <v>12226000</v>
       </c>
       <c r="C31" s="13"/>
       <c r="G31" s="9" t="s">
@@ -3327,20 +3754,22 @@
       <c r="J31" s="9">
         <v>300000</v>
       </c>
-      <c r="U31" s="114">
+      <c r="U31" s="102">
         <f>25690+25790+4000+(27390*5)</f>
         <v>192430</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="74" t="s">
         <v>252</v>
       </c>
       <c r="B32" s="75">
         <f>SUM(B3:AG3)-B30</f>
-        <v>1817910</v>
-      </c>
-      <c r="C32" s="15"/>
+        <v>3328610</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>263</v>
+      </c>
       <c r="D32" s="15"/>
       <c r="G32" s="9" t="s">
         <v>186</v>
@@ -3348,51 +3777,51 @@
       <c r="J32" s="9">
         <v>220000</v>
       </c>
-      <c r="U32" s="114" t="s">
+      <c r="U32" s="102" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="66" t="s">
         <v>204</v>
       </c>
       <c r="B33" s="14">
         <f>SUM(B3:AG3)</f>
-        <v>6576000</v>
+        <v>9086700</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="J33" s="9">
         <v>264000</v>
       </c>
-      <c r="U33" s="114">
+      <c r="U33" s="102">
         <v>57450</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="67" t="s">
         <v>233</v>
       </c>
       <c r="B34" s="16">
         <f>SUM(B5:AG5)</f>
-        <v>13722000</v>
+        <v>21312700</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="G34" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="U34" s="115" t="s">
+      <c r="U34" s="103" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="68" t="s">
         <v>206</v>
       </c>
       <c r="B35" s="17">
         <f>B34-B37</f>
-        <v>12579700</v>
+        <v>20170400</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -3400,13 +3829,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="48">
         <f>SUM(B7:AG7)</f>
-        <v>-5767000</v>
+        <v>-8883000</v>
       </c>
       <c r="C36" s="15"/>
       <c r="G36" s="1" t="s">
@@ -3419,7 +3848,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="70" t="s">
         <v>189</v>
       </c>
@@ -3428,30 +3857,31 @@
         <v>1142300</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="93" t="s">
         <v>193</v>
       </c>
       <c r="B38" s="94">
-        <f>(SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4+M4+N4+SUM(O4:AG4))-400000-320000-20000-30000-320000-400000</f>
-        <v>670000</v>
+        <f>(SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4+M4+N4+SUM(O4:AG4))-400000-320000-20000-30000-320000-400000-240000+20000+800000-Y4-AA4-240000+300000+600000-160000-280000-150000</f>
+        <v>1098000</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="91" t="s">
         <v>197</v>
       </c>
       <c r="B39" s="92">
-        <f>SUM(E4,G4,H4)+560000+480000-500000+400000+320000+T2+320000-U33-U31+400000</f>
-        <v>4090120</v>
-      </c>
+        <f>SUM(E4,G4,H4)+560000+480000-500000+400000+320000+T2+320000-U33-U31+400000+240000+100000-800000+Y4+AA12+AA14+AA4+240000-300000-600000+160000-AD41-AA41-AA44+280000+150000</f>
+        <v>5291060</v>
+      </c>
+      <c r="C39" s="9"/>
       <c r="D39" s="95" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D40" s="96">
         <v>500000</v>
       </c>
@@ -3461,14 +3891,26 @@
       <c r="J40" s="79" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="X40" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z40" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA40" s="133" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD40" s="133" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="85" t="s">
         <v>231</v>
       </c>
       <c r="B41" s="86">
         <f>SUM(B6:AG6)</f>
-        <v>7955000</v>
+        <v>12429700</v>
       </c>
       <c r="I41" s="79">
         <v>560000</v>
@@ -3476,14 +3918,26 @@
       <c r="J41" s="79">
         <v>480000</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="X41" s="79">
+        <v>240000</v>
+      </c>
+      <c r="Z41" s="79">
+        <v>150000</v>
+      </c>
+      <c r="AA41" s="133">
+        <v>36300</v>
+      </c>
+      <c r="AD41" s="133">
+        <v>32760</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="89" t="s">
         <v>232</v>
       </c>
       <c r="B42" s="90">
         <f>B32+B38+B39</f>
-        <v>6578030</v>
+        <v>9717670</v>
       </c>
       <c r="I42" s="87" t="s">
         <v>222</v>
@@ -3491,30 +3945,45 @@
       <c r="J42" s="87" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="X42" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z42" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA42" s="133" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="J43" s="80"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA43" s="133" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B44" s="97">
         <v>758090</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA44" s="133">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B45" s="1">
         <v>800000</v>
       </c>
-      <c r="K45" s="1">
-        <v>8270715</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="AA45" s="133" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>242</v>
       </c>
@@ -3524,29 +3993,127 @@
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="K46" s="1">
-        <v>2729100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="K47" s="1">
-        <f>K45-K46</f>
-        <v>5541615</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C48" s="9">
+        <f>B38+B39+B32-B37</f>
+        <v>8575370</v>
+      </c>
+      <c r="D48" s="9">
+        <f>B39+B37+2000000-1250000</f>
+        <v>7183360</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C49" s="7">
+        <f>39000+20000</f>
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D51" s="15">
-        <f>8270715-B39</f>
-        <v>4180595</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D52" s="9">
-        <f>3000000+B37</f>
-        <v>4142300</v>
+        <f>2000000-1250000</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="9"/>
+    </row>
+    <row r="55" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+    </row>
+    <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="104"/>
+      <c r="E56" s="118" t="s">
+        <v>271</v>
+      </c>
+      <c r="F56" s="119"/>
+      <c r="G56" s="119"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="105"/>
+    </row>
+    <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="104"/>
+      <c r="E57" s="108" t="s">
+        <v>265</v>
+      </c>
+      <c r="F57" s="110" t="s">
+        <v>266</v>
+      </c>
+      <c r="G57" s="112" t="s">
+        <v>267</v>
+      </c>
+      <c r="H57" s="116" t="s">
+        <v>268</v>
+      </c>
+      <c r="I57" s="114" t="s">
+        <v>269</v>
+      </c>
+      <c r="J57" s="105"/>
+    </row>
+    <row r="58" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D58" s="104"/>
+      <c r="E58" s="109">
+        <f>SUM(B5:E5)</f>
+        <v>2840000</v>
+      </c>
+      <c r="F58" s="111">
+        <f>SUM(F5:L5)</f>
+        <v>5998000</v>
+      </c>
+      <c r="G58" s="113">
+        <f>SUM(M5:S5)</f>
+        <v>3117000</v>
+      </c>
+      <c r="H58" s="117">
+        <f>SUM(T5:Z5)</f>
+        <v>5525700</v>
+      </c>
+      <c r="I58" s="115">
+        <f>SUM(AA5:AG5)</f>
+        <v>3832000</v>
+      </c>
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="I59" s="109">
+        <f>SUM(E58:I58)</f>
+        <v>21312700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H60" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="I60" s="109">
+        <f>AVERAGE(E58:I58)</f>
+        <v>4262540</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="1">
+        <v>190000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E56:I56"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3555,6 +4122,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v>1050000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
@@ -3578,7 +4187,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="103">
+      <c r="A2" s="122">
         <v>44742</v>
       </c>
       <c r="B2" s="99" t="s">
@@ -3592,7 +4201,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="103"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="100" t="s">
         <v>250</v>
       </c>
@@ -3604,7 +4213,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="102">
+      <c r="A4" s="121">
         <v>44743</v>
       </c>
       <c r="B4" s="99" t="str">
@@ -3619,7 +4228,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="100" t="str">
         <f t="shared" ref="B5:B63" si="0">B3</f>
         <v>현찰</v>
@@ -3632,7 +4241,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="102">
+      <c r="A6" s="121">
         <v>44744</v>
       </c>
       <c r="B6" s="99" t="str">
@@ -3647,7 +4256,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="102"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
@@ -3660,7 +4269,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="102">
+      <c r="A8" s="121">
         <v>44745</v>
       </c>
       <c r="B8" s="99" t="str">
@@ -3669,14 +4278,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="102"/>
+      <c r="A9" s="121"/>
       <c r="B9" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="102">
+      <c r="A10" s="121">
         <v>44746</v>
       </c>
       <c r="B10" s="99" t="str">
@@ -3685,14 +4294,14 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="102"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="102">
+      <c r="A12" s="121">
         <v>44747</v>
       </c>
       <c r="B12" s="99" t="str">
@@ -3701,14 +4310,14 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="102"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="102">
+      <c r="A14" s="121">
         <v>44748</v>
       </c>
       <c r="B14" s="99" t="str">
@@ -3717,14 +4326,14 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="102"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="102">
+      <c r="A16" s="121">
         <v>44749</v>
       </c>
       <c r="B16" s="99" t="str">
@@ -3733,14 +4342,14 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="102"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="102">
+      <c r="A18" s="121">
         <v>44750</v>
       </c>
       <c r="B18" s="99" t="str">
@@ -3749,14 +4358,14 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="102"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="102">
+      <c r="A20" s="121">
         <v>44751</v>
       </c>
       <c r="B20" s="99" t="str">
@@ -3765,14 +4374,14 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="102"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="102">
+      <c r="A22" s="121">
         <v>44752</v>
       </c>
       <c r="B22" s="99" t="str">
@@ -3781,14 +4390,14 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="102"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="102">
+      <c r="A24" s="121">
         <v>44753</v>
       </c>
       <c r="B24" s="99" t="str">
@@ -3797,14 +4406,14 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="102"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="102">
+      <c r="A26" s="121">
         <v>44754</v>
       </c>
       <c r="B26" s="99" t="str">
@@ -3813,14 +4422,14 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="102"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="102">
+      <c r="A28" s="121">
         <v>44755</v>
       </c>
       <c r="B28" s="99" t="str">
@@ -3829,14 +4438,14 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="102"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="102">
+      <c r="A30" s="121">
         <v>44756</v>
       </c>
       <c r="B30" s="99" t="str">
@@ -3845,14 +4454,14 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="102"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="102">
+      <c r="A32" s="121">
         <v>44757</v>
       </c>
       <c r="B32" s="99" t="str">
@@ -3861,14 +4470,14 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="102"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="102">
+      <c r="A34" s="121">
         <v>44758</v>
       </c>
       <c r="B34" s="99" t="str">
@@ -3877,14 +4486,14 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="102"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="102">
+      <c r="A36" s="121">
         <v>44759</v>
       </c>
       <c r="B36" s="99" t="str">
@@ -3893,14 +4502,14 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="102"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="102">
+      <c r="A38" s="121">
         <v>44760</v>
       </c>
       <c r="B38" s="99" t="str">
@@ -3909,14 +4518,14 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="102"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="102">
+      <c r="A40" s="121">
         <v>44761</v>
       </c>
       <c r="B40" s="99" t="str">
@@ -3925,14 +4534,14 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="102"/>
+      <c r="A41" s="121"/>
       <c r="B41" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="102">
+      <c r="A42" s="121">
         <v>44762</v>
       </c>
       <c r="B42" s="99" t="str">
@@ -3941,14 +4550,14 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="102"/>
+      <c r="A43" s="121"/>
       <c r="B43" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="102">
+      <c r="A44" s="121">
         <v>44763</v>
       </c>
       <c r="B44" s="99" t="str">
@@ -3957,14 +4566,14 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="102"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="102">
+      <c r="A46" s="121">
         <v>44764</v>
       </c>
       <c r="B46" s="99" t="str">
@@ -3973,14 +4582,14 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="102"/>
+      <c r="A47" s="121"/>
       <c r="B47" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="102">
+      <c r="A48" s="121">
         <v>44765</v>
       </c>
       <c r="B48" s="99" t="str">
@@ -3989,14 +4598,14 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="102"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="102">
+      <c r="A50" s="121">
         <v>44766</v>
       </c>
       <c r="B50" s="99" t="str">
@@ -4005,14 +4614,14 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="102"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="102">
+      <c r="A52" s="121">
         <v>44767</v>
       </c>
       <c r="B52" s="99" t="str">
@@ -4021,14 +4630,14 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="102"/>
+      <c r="A53" s="121"/>
       <c r="B53" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="102">
+      <c r="A54" s="121">
         <v>44768</v>
       </c>
       <c r="B54" s="99" t="str">
@@ -4037,14 +4646,14 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="102"/>
+      <c r="A55" s="121"/>
       <c r="B55" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="102">
+      <c r="A56" s="121">
         <v>44769</v>
       </c>
       <c r="B56" s="99" t="str">
@@ -4053,14 +4662,14 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="102"/>
+      <c r="A57" s="121"/>
       <c r="B57" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="102">
+      <c r="A58" s="121">
         <v>44770</v>
       </c>
       <c r="B58" s="99" t="str">
@@ -4069,14 +4678,14 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="102"/>
+      <c r="A59" s="121"/>
       <c r="B59" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="102">
+      <c r="A60" s="121">
         <v>44771</v>
       </c>
       <c r="B60" s="99" t="str">
@@ -4085,14 +4694,14 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="102"/>
+      <c r="A61" s="121"/>
       <c r="B61" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="102">
+      <c r="A62" s="121">
         <v>44772</v>
       </c>
       <c r="B62" s="99" t="str">
@@ -4101,7 +4710,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="102"/>
+      <c r="A63" s="121"/>
       <c r="B63" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
@@ -4149,7 +4758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
@@ -4185,7 +4794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4230,13 +4839,13 @@
       <c r="G1" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -4253,16 +4862,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="104" t="s">
+      <c r="H2" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="106"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="126" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -4278,14 +4887,14 @@
       <c r="G3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="106"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="125"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="108"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="25" t="s">
         <v>122</v>
       </c>
@@ -4295,14 +4904,14 @@
       <c r="G4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="106"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="125"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="109"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -4312,11 +4921,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="106"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="125"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -4333,11 +4942,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="106"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="125"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4358,11 +4967,11 @@
       <c r="G7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="106"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="125"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -4381,11 +4990,11 @@
       <c r="G8" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="106"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -4398,11 +5007,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="106"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="125"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -4417,11 +5026,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="106"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -4430,11 +5039,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="106"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="125"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -4443,11 +5052,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="106"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -4456,11 +5065,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="106"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="125"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -4469,11 +5078,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="106"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -4996,7 +5605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -5030,14 +5639,14 @@
       <c r="E1" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="113"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -8,11 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="정보" sheetId="2" r:id="rId4"/>
-    <sheet name="계좌,카드" sheetId="3" r:id="rId5"/>
-    <sheet name="아이디,비번" sheetId="4" r:id="rId6"/>
+    <sheet name="8월 매출" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="정보" sheetId="2" r:id="rId5"/>
+    <sheet name="계좌,카드" sheetId="3" r:id="rId6"/>
+    <sheet name="아이디,비번" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="291">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1856,6 +1857,10 @@
     <xf numFmtId="177" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1871,15 +1876,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1892,6 +1888,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1900,10 +1905,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1956,6 +1957,49 @@
         <a:xfrm>
           <a:off x="488157" y="10632281"/>
           <a:ext cx="2409524" cy="5200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>488157</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1004587</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>20781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="488157" y="10958512"/>
+          <a:ext cx="2411905" cy="5140469"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2236,7 +2280,7 @@
   <dimension ref="A1:AJ73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2875,7 +2919,7 @@
       </c>
       <c r="AG6" s="8">
         <f t="shared" si="3"/>
-        <v>164000</v>
+        <v>152000</v>
       </c>
     </row>
     <row r="7" spans="1:36" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -3008,7 +3052,7 @@
       </c>
       <c r="AG7" s="18">
         <f t="shared" si="5"/>
-        <v>-90000</v>
+        <v>-102000</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -3337,6 +3381,9 @@
         <v>-40000</v>
       </c>
       <c r="AE14" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="AG14" s="10">
         <v>-12000</v>
       </c>
     </row>
@@ -3652,7 +3699,7 @@
       <c r="Y25" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="Z25" s="134" t="s">
+      <c r="Z25" s="119" t="s">
         <v>289</v>
       </c>
       <c r="AA25" s="21" t="s">
@@ -3835,7 +3882,7 @@
       </c>
       <c r="B36" s="48">
         <f>SUM(B7:AG7)</f>
-        <v>-8883000</v>
+        <v>-8895000</v>
       </c>
       <c r="C36" s="15"/>
       <c r="G36" s="1" t="s">
@@ -3863,7 +3910,7 @@
       </c>
       <c r="B38" s="94">
         <f>(SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4+M4+N4+SUM(O4:AG4))-400000-320000-20000-30000-320000-400000-240000+20000+800000-Y4-AA4-240000+300000+600000-160000-280000-150000</f>
-        <v>1098000</v>
+        <v>1086000</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="9"/>
@@ -3897,10 +3944,10 @@
       <c r="Z40" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="AA40" s="133" t="s">
+      <c r="AA40" s="118" t="s">
         <v>262</v>
       </c>
-      <c r="AD40" s="133" t="s">
+      <c r="AD40" s="118" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3910,7 +3957,7 @@
       </c>
       <c r="B41" s="86">
         <f>SUM(B6:AG6)</f>
-        <v>12429700</v>
+        <v>12417700</v>
       </c>
       <c r="I41" s="79">
         <v>560000</v>
@@ -3924,10 +3971,10 @@
       <c r="Z41" s="79">
         <v>150000</v>
       </c>
-      <c r="AA41" s="133">
+      <c r="AA41" s="118">
         <v>36300</v>
       </c>
-      <c r="AD41" s="133">
+      <c r="AD41" s="118">
         <v>32760</v>
       </c>
     </row>
@@ -3937,7 +3984,7 @@
       </c>
       <c r="B42" s="90">
         <f>B32+B38+B39</f>
-        <v>9717670</v>
+        <v>9705670</v>
       </c>
       <c r="I42" s="87" t="s">
         <v>222</v>
@@ -3951,13 +3998,13 @@
       <c r="Z42" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="AA42" s="133" t="s">
+      <c r="AA42" s="118" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="J43" s="80"/>
-      <c r="AA43" s="133" t="s">
+      <c r="AA43" s="118" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3968,7 +4015,7 @@
       <c r="B44" s="97">
         <v>758090</v>
       </c>
-      <c r="AA44" s="133">
+      <c r="AA44" s="118">
         <v>30000</v>
       </c>
     </row>
@@ -3979,7 +4026,7 @@
       <c r="B45" s="1">
         <v>800000</v>
       </c>
-      <c r="AA45" s="133" t="s">
+      <c r="AA45" s="118" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3997,7 +4044,7 @@
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C48" s="9">
         <f>B38+B39+B32-B37</f>
-        <v>8575370</v>
+        <v>8563370</v>
       </c>
       <c r="D48" s="9">
         <f>B39+B37+2000000-1250000</f>
@@ -4028,13 +4075,13 @@
     </row>
     <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D56" s="104"/>
-      <c r="E56" s="118" t="s">
+      <c r="E56" s="120" t="s">
         <v>271</v>
       </c>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="120"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="122"/>
       <c r="J56" s="105"/>
     </row>
     <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4123,6 +4170,1115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AI73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="20.125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="71">
+        <v>44774</v>
+      </c>
+      <c r="C1" s="71">
+        <v>44775</v>
+      </c>
+      <c r="D1" s="71">
+        <v>44776</v>
+      </c>
+      <c r="E1" s="71">
+        <v>44777</v>
+      </c>
+      <c r="F1" s="71">
+        <v>44778</v>
+      </c>
+      <c r="G1" s="71">
+        <v>44779</v>
+      </c>
+      <c r="H1" s="71">
+        <v>44780</v>
+      </c>
+      <c r="I1" s="71">
+        <v>44781</v>
+      </c>
+      <c r="J1" s="71">
+        <v>44782</v>
+      </c>
+      <c r="K1" s="71">
+        <v>44783</v>
+      </c>
+      <c r="L1" s="71">
+        <v>44784</v>
+      </c>
+      <c r="M1" s="71">
+        <v>44785</v>
+      </c>
+      <c r="N1" s="71">
+        <v>44786</v>
+      </c>
+      <c r="O1" s="71">
+        <v>44787</v>
+      </c>
+      <c r="P1" s="71">
+        <v>44788</v>
+      </c>
+      <c r="Q1" s="71">
+        <v>44789</v>
+      </c>
+      <c r="R1" s="71">
+        <v>44790</v>
+      </c>
+      <c r="S1" s="71">
+        <v>44791</v>
+      </c>
+      <c r="T1" s="71">
+        <v>44792</v>
+      </c>
+      <c r="U1" s="71">
+        <v>44793</v>
+      </c>
+      <c r="V1" s="71">
+        <v>44794</v>
+      </c>
+      <c r="W1" s="71">
+        <v>44795</v>
+      </c>
+      <c r="X1" s="71">
+        <v>44796</v>
+      </c>
+      <c r="Y1" s="71">
+        <v>44797</v>
+      </c>
+      <c r="Z1" s="71">
+        <v>44798</v>
+      </c>
+      <c r="AA1" s="71">
+        <v>44799</v>
+      </c>
+      <c r="AB1" s="71">
+        <v>44800</v>
+      </c>
+      <c r="AC1" s="71">
+        <v>44801</v>
+      </c>
+      <c r="AD1" s="71">
+        <v>44802</v>
+      </c>
+      <c r="AE1" s="71">
+        <v>44803</v>
+      </c>
+      <c r="AF1" s="71">
+        <v>44804</v>
+      </c>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+    </row>
+    <row r="2" spans="1:35" s="73" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:AF3" si="0">SUM(B11,B13,B15,B17,B19,B21)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(F11,F13,F15,F17,F19,F21)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <f>SUM(J11,J13,J15,J17,J19,J21,J23,J24,J31,J32,J33)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5">
+        <f>SUM(AE11,AE13,AE15,AE17,AE19,AE21)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:AF5" si="1">B3+B4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <f>D3+D4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f>J3+J4</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <f>K3+K4</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <f>Z3+Z4</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <f>B5+B7</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" ref="C6:AF6" si="2">C5+C7</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <f>I5+I7</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <f>P5+P7</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="18">
+        <f t="shared" ref="B7:AF7" si="3">SUM(B12,B14,B16,B18,B20,B22,B22)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <f>SUM(E12,E14,E16,E18,E20,E22,E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="18">
+        <f>SUM(S12,S14,S16,S18,S20,S22,S22)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
+        <f>SUM(T12,T14,T16,T18,T20,T22,T22)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="18">
+        <f>SUM(V12,V14,V16,V18,V20,V22,V22)</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="18">
+        <f>SUM(AA12,AA14,AA16,AA18,AA20,AA22,AA22)</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="56"/>
+    </row>
+    <row r="10" spans="1:35" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="1:35" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA12" s="10"/>
+    </row>
+    <row r="13" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="77"/>
+      <c r="Z15" s="77"/>
+    </row>
+    <row r="16" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="76"/>
+    </row>
+    <row r="19" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="61"/>
+    </row>
+    <row r="24" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="61"/>
+    </row>
+    <row r="25" spans="1:30" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="81"/>
+      <c r="R25" s="84"/>
+      <c r="Z25" s="119"/>
+    </row>
+    <row r="26" spans="1:30" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="63"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="1:30" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:30" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="63"/>
+    </row>
+    <row r="29" spans="1:30" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="101">
+        <f>SUM(B2:AF2)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="101"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="83">
+        <f>SUM(B4:AF4)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" s="75">
+        <f>'7월 매출'!B32</f>
+        <v>3328610</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="14">
+        <f>SUM(B3:AF3)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="16">
+        <f>SUM(B5:AF5)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B34-B37</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="48">
+        <f>SUM(B7:AF7)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="Y36" s="9"/>
+      <c r="AE36" s="9"/>
+    </row>
+    <row r="37" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="49">
+        <f>SUM(B29:AF29)-SUM(40:40)</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="9"/>
+      <c r="AE37" s="9"/>
+    </row>
+    <row r="38" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="94">
+        <f>'7월 매출'!B38</f>
+        <v>1086000</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="Y38" s="9"/>
+      <c r="AE38" s="9"/>
+    </row>
+    <row r="39" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="91" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="92">
+        <f>'7월 매출'!B39</f>
+        <v>5291060</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="AE39" s="9"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Y40" s="9"/>
+      <c r="AE40" s="9"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="86">
+        <f>SUM(B6:AF6)</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="9"/>
+      <c r="AE41" s="9"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" s="90">
+        <f>B32+B38+B39</f>
+        <v>9705670</v>
+      </c>
+      <c r="Y42" s="9"/>
+      <c r="AE42" s="9"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Y43" s="9"/>
+      <c r="AE43" s="9"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="97">
+        <v>758090</v>
+      </c>
+      <c r="Y44" s="9"/>
+      <c r="AE44" s="9"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="1">
+        <v>800000</v>
+      </c>
+      <c r="Y45" s="9"/>
+      <c r="AE45" s="9"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" s="88">
+        <f>SUM(B44:B45)</f>
+        <v>1558090</v>
+      </c>
+      <c r="Y46" s="9"/>
+      <c r="AE46" s="9"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Y47" s="9"/>
+      <c r="AE47" s="9"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Y48" s="9"/>
+      <c r="AE48" s="9"/>
+    </row>
+    <row r="49" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="Y49" s="9"/>
+      <c r="AE49" s="9"/>
+    </row>
+    <row r="50" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="Y50" s="9"/>
+      <c r="AE50" s="9"/>
+    </row>
+    <row r="51" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="Y51" s="9"/>
+      <c r="AE51" s="9"/>
+    </row>
+    <row r="52" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="Y52" s="9"/>
+      <c r="AE52" s="9"/>
+    </row>
+    <row r="55" spans="4:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+    </row>
+    <row r="56" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="104"/>
+      <c r="E56" s="120" t="s">
+        <v>271</v>
+      </c>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="105"/>
+    </row>
+    <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="104"/>
+      <c r="E57" s="108" t="s">
+        <v>265</v>
+      </c>
+      <c r="F57" s="110" t="s">
+        <v>266</v>
+      </c>
+      <c r="G57" s="112" t="s">
+        <v>267</v>
+      </c>
+      <c r="H57" s="116" t="s">
+        <v>268</v>
+      </c>
+      <c r="I57" s="114" t="s">
+        <v>269</v>
+      </c>
+      <c r="J57" s="105"/>
+    </row>
+    <row r="58" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D58" s="104"/>
+      <c r="E58" s="109">
+        <f>SUM(B5:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="111">
+        <f>SUM(F5:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="113">
+        <f>SUM(M5:S5)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="117">
+        <f>SUM(T5:Z5)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="115">
+        <f>SUM(AA5:AF5)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="I59" s="109">
+        <f>SUM(E58:I58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H60" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="I60" s="109">
+        <f>AVERAGE(E58:I58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="1">
+        <v>190000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E56:I56"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4163,7 +5319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
@@ -4187,7 +5343,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="122">
+      <c r="A2" s="124">
         <v>44742</v>
       </c>
       <c r="B2" s="99" t="s">
@@ -4201,7 +5357,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="122"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="100" t="s">
         <v>250</v>
       </c>
@@ -4213,7 +5369,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="121">
+      <c r="A4" s="123">
         <v>44743</v>
       </c>
       <c r="B4" s="99" t="str">
@@ -4228,7 +5384,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="121"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="100" t="str">
         <f t="shared" ref="B5:B63" si="0">B3</f>
         <v>현찰</v>
@@ -4241,7 +5397,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="121">
+      <c r="A6" s="123">
         <v>44744</v>
       </c>
       <c r="B6" s="99" t="str">
@@ -4256,7 +5412,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="121"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
@@ -4269,7 +5425,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="121">
+      <c r="A8" s="123">
         <v>44745</v>
       </c>
       <c r="B8" s="99" t="str">
@@ -4278,14 +5434,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="121"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="121">
+      <c r="A10" s="123">
         <v>44746</v>
       </c>
       <c r="B10" s="99" t="str">
@@ -4294,14 +5450,14 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="121">
+      <c r="A12" s="123">
         <v>44747</v>
       </c>
       <c r="B12" s="99" t="str">
@@ -4310,14 +5466,14 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="121"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="121">
+      <c r="A14" s="123">
         <v>44748</v>
       </c>
       <c r="B14" s="99" t="str">
@@ -4326,14 +5482,14 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="121"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="121">
+      <c r="A16" s="123">
         <v>44749</v>
       </c>
       <c r="B16" s="99" t="str">
@@ -4342,14 +5498,14 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="121"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="121">
+      <c r="A18" s="123">
         <v>44750</v>
       </c>
       <c r="B18" s="99" t="str">
@@ -4358,14 +5514,14 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="121"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="121">
+      <c r="A20" s="123">
         <v>44751</v>
       </c>
       <c r="B20" s="99" t="str">
@@ -4374,14 +5530,14 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="121"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="121">
+      <c r="A22" s="123">
         <v>44752</v>
       </c>
       <c r="B22" s="99" t="str">
@@ -4390,14 +5546,14 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="121"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="121">
+      <c r="A24" s="123">
         <v>44753</v>
       </c>
       <c r="B24" s="99" t="str">
@@ -4406,14 +5562,14 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="121"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="121">
+      <c r="A26" s="123">
         <v>44754</v>
       </c>
       <c r="B26" s="99" t="str">
@@ -4422,14 +5578,14 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="121"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="121">
+      <c r="A28" s="123">
         <v>44755</v>
       </c>
       <c r="B28" s="99" t="str">
@@ -4438,14 +5594,14 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="121"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="121">
+      <c r="A30" s="123">
         <v>44756</v>
       </c>
       <c r="B30" s="99" t="str">
@@ -4454,14 +5610,14 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="121"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="121">
+      <c r="A32" s="123">
         <v>44757</v>
       </c>
       <c r="B32" s="99" t="str">
@@ -4470,14 +5626,14 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="121"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="121">
+      <c r="A34" s="123">
         <v>44758</v>
       </c>
       <c r="B34" s="99" t="str">
@@ -4486,14 +5642,14 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="121"/>
+      <c r="A35" s="123"/>
       <c r="B35" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="121">
+      <c r="A36" s="123">
         <v>44759</v>
       </c>
       <c r="B36" s="99" t="str">
@@ -4502,14 +5658,14 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="121"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="121">
+      <c r="A38" s="123">
         <v>44760</v>
       </c>
       <c r="B38" s="99" t="str">
@@ -4518,14 +5674,14 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="121"/>
+      <c r="A39" s="123"/>
       <c r="B39" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="121">
+      <c r="A40" s="123">
         <v>44761</v>
       </c>
       <c r="B40" s="99" t="str">
@@ -4534,14 +5690,14 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="121"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="121">
+      <c r="A42" s="123">
         <v>44762</v>
       </c>
       <c r="B42" s="99" t="str">
@@ -4550,14 +5706,14 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="121"/>
+      <c r="A43" s="123"/>
       <c r="B43" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="121">
+      <c r="A44" s="123">
         <v>44763</v>
       </c>
       <c r="B44" s="99" t="str">
@@ -4566,14 +5722,14 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="121"/>
+      <c r="A45" s="123"/>
       <c r="B45" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="121">
+      <c r="A46" s="123">
         <v>44764</v>
       </c>
       <c r="B46" s="99" t="str">
@@ -4582,14 +5738,14 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="121"/>
+      <c r="A47" s="123"/>
       <c r="B47" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="121">
+      <c r="A48" s="123">
         <v>44765</v>
       </c>
       <c r="B48" s="99" t="str">
@@ -4598,14 +5754,14 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="121"/>
+      <c r="A49" s="123"/>
       <c r="B49" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="121">
+      <c r="A50" s="123">
         <v>44766</v>
       </c>
       <c r="B50" s="99" t="str">
@@ -4614,14 +5770,14 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="121"/>
+      <c r="A51" s="123"/>
       <c r="B51" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="121">
+      <c r="A52" s="123">
         <v>44767</v>
       </c>
       <c r="B52" s="99" t="str">
@@ -4630,14 +5786,14 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="121"/>
+      <c r="A53" s="123"/>
       <c r="B53" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="121">
+      <c r="A54" s="123">
         <v>44768</v>
       </c>
       <c r="B54" s="99" t="str">
@@ -4646,14 +5802,14 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="121"/>
+      <c r="A55" s="123"/>
       <c r="B55" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="121">
+      <c r="A56" s="123">
         <v>44769</v>
       </c>
       <c r="B56" s="99" t="str">
@@ -4662,14 +5818,14 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="121"/>
+      <c r="A57" s="123"/>
       <c r="B57" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="121">
+      <c r="A58" s="123">
         <v>44770</v>
       </c>
       <c r="B58" s="99" t="str">
@@ -4678,14 +5834,14 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="121"/>
+      <c r="A59" s="123"/>
       <c r="B59" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="121">
+      <c r="A60" s="123">
         <v>44771</v>
       </c>
       <c r="B60" s="99" t="str">
@@ -4694,14 +5850,14 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="121"/>
+      <c r="A61" s="123"/>
       <c r="B61" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="121">
+      <c r="A62" s="123">
         <v>44772</v>
       </c>
       <c r="B62" s="99" t="str">
@@ -4710,7 +5866,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="121"/>
+      <c r="A63" s="123"/>
       <c r="B63" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
@@ -4721,13 +5877,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
@@ -4740,25 +5901,20 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
@@ -4794,7 +5950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4839,13 +5995,13 @@
       <c r="G1" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="129" t="s">
+      <c r="H1" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -4862,16 +6018,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="131"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="125" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -4887,14 +6043,14 @@
       <c r="G3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="125"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="131"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="127"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="25" t="s">
         <v>122</v>
       </c>
@@ -4904,14 +6060,14 @@
       <c r="G4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="125"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="128"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -4921,11 +6077,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="125"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="131"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -4942,11 +6098,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="125"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4967,11 +6123,11 @@
       <c r="G7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="125"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="131"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -4990,11 +6146,11 @@
       <c r="G8" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="131"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -5007,11 +6163,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="125"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="131"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -5026,11 +6182,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="131"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -5039,11 +6195,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="131"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -5052,11 +6208,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="131"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -5065,11 +6221,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="131"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -5078,11 +6234,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="131"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -5583,12 +6739,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -5598,6 +6748,12 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5605,7 +6761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -5639,14 +6795,14 @@
       <c r="E1" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="132"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="134"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="293">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1017,115 +1017,123 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>A 4명, 과일2개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월30일~7월 3일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차별 평균 총매출 누계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번영회비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24만원 NJ 외상, 2만원 엄마팁, 10만원 현금교환 현욱계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,72,16계좌입금, 폰비,상회비 계좌 출금 ,현욱 계좌에서 30만원 현금으로 출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20분뺀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱계좌에서 60시제 출금, 16계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금완료, 추가완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOSHOW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노래방 저작권료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1팀 , 삼촌이 100만원 카드매출 입금, 2만원 복숭아 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체손님 , 아베크4팀 , 잔돈없어서 현욱 4천원 입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스 , 인터넷 기계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미납금 15만원(영걸이형)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영걸이형손님, 현금 48, 새벽 손님 3시간(a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티+1만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A 4명, 과일2개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월30일~7월 3일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주차별 평균 총매출 누계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균금액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입금완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>번영회비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24만원 NJ 외상, 2만원 엄마팁, 10만원 현금교환 현욱계좌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,72,16계좌입금, 폰비,상회비 계좌 출금 ,현욱 계좌에서 30만원 현금으로 출금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>과일3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20분뺀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현욱계좌에서 60시제 출금, 16계좌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>과일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입금완료, 추가완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOSHOW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노래방 저작권료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1팀 , 삼촌이 100만원 카드매출 입금, 2만원 복숭아 구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단체손님 , 아베크4팀 , 잔돈없어서 현욱 4천원 입금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포스 , 인터넷 기계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미납금 15만원(영걸이형)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입금완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영걸이형손님, 현금 48, 새벽 손님 3시간(a)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>티+1만</t>
+    <t>7월달 관리비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1654,7 +1662,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1906,6 +1914,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2279,8 +2288,8 @@
   </sheetPr>
   <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2418,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C11,C13,C15,C17,C19,C21)</f>
         <v>1600000</v>
       </c>
       <c r="D3" s="5">
@@ -2482,7 +2491,7 @@
         <v>50000</v>
       </c>
       <c r="S3" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(S10,S13,S15,S17,S19,S21)</f>
         <v>396000</v>
       </c>
       <c r="T3" s="5">
@@ -2490,7 +2499,7 @@
         <v>352000</v>
       </c>
       <c r="U3" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(U11,U13,U15,U17,U19,U21)</f>
         <v>175000</v>
       </c>
       <c r="V3" s="5">
@@ -3081,6 +3090,7 @@
       <c r="A10" s="57" t="s">
         <v>24</v>
       </c>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
@@ -3126,7 +3136,7 @@
         <v>259</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AD11" s="10">
         <v>71500</v>
@@ -3282,7 +3292,7 @@
         <v>330000</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AB13" s="12">
         <f>71500+5500</f>
@@ -3416,7 +3426,7 @@
         <v>142000</v>
       </c>
       <c r="Z15" s="77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA15" s="12">
         <v>352000</v>
@@ -3575,7 +3585,7 @@
         <v>142000</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:33" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -3694,34 +3704,34 @@
         <v>258</v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y25" s="21" t="s">
         <v>260</v>
       </c>
       <c r="Z25" s="119" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA25" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB25" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC25" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD25" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE25" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF25" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG25" s="21" t="s">
         <v>289</v>
-      </c>
-      <c r="AA25" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB25" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC25" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD25" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE25" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF25" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="AG25" s="21" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:33" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -3815,7 +3825,7 @@
         <v>3328610</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="D32" s="15"/>
       <c r="G32" s="9" t="s">
@@ -3870,7 +3880,10 @@
         <f>B34-B37</f>
         <v>20170400</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="15">
+        <f>B35+B36</f>
+        <v>11275400</v>
+      </c>
       <c r="D35" s="15"/>
       <c r="G35" s="9" t="s">
         <v>188</v>
@@ -3942,13 +3955,13 @@
         <v>261</v>
       </c>
       <c r="Z40" s="78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA40" s="118" t="s">
         <v>262</v>
       </c>
       <c r="AD40" s="118" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
@@ -3993,19 +4006,19 @@
         <v>222</v>
       </c>
       <c r="X42" s="87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z42" s="87" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA42" s="118" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="J43" s="80"/>
       <c r="AA43" s="118" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
@@ -4027,7 +4040,7 @@
         <v>800000</v>
       </c>
       <c r="AA45" s="118" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
@@ -4043,8 +4056,8 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C48" s="9">
-        <f>B38+B39+B32-B37</f>
-        <v>8563370</v>
+        <f>B38+B39+B32-B37-2800000</f>
+        <v>5763370</v>
       </c>
       <c r="D48" s="9">
         <f>B39+B37+2000000-1250000</f>
@@ -4076,7 +4089,7 @@
     <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D56" s="104"/>
       <c r="E56" s="120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F56" s="121"/>
       <c r="G56" s="121"/>
@@ -4087,19 +4100,19 @@
     <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="104"/>
       <c r="E57" s="108" t="s">
+        <v>264</v>
+      </c>
+      <c r="F57" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="F57" s="110" t="s">
+      <c r="G57" s="112" t="s">
         <v>266</v>
       </c>
-      <c r="G57" s="112" t="s">
+      <c r="H57" s="116" t="s">
         <v>267</v>
       </c>
-      <c r="H57" s="116" t="s">
+      <c r="I57" s="114" t="s">
         <v>268</v>
-      </c>
-      <c r="I57" s="114" t="s">
-        <v>269</v>
       </c>
       <c r="J57" s="105"/>
     </row>
@@ -4132,7 +4145,7 @@
       <c r="F59" s="107"/>
       <c r="G59" s="107"/>
       <c r="H59" s="109" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I59" s="109">
         <f>SUM(E58:I58)</f>
@@ -4141,7 +4154,7 @@
     </row>
     <row r="60" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H60" s="109" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I60" s="109">
         <f>AVERAGE(E58:I58)</f>
@@ -4151,7 +4164,7 @@
     <row r="61" spans="3:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B73" s="1">
         <v>190000</v>
@@ -4171,12 +4184,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AI73"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4289,6 +4302,9 @@
       <c r="A2" s="72" t="s">
         <v>203</v>
       </c>
+      <c r="B2" s="73">
+        <v>500000</v>
+      </c>
     </row>
     <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
@@ -4423,17 +4439,20 @@
       <c r="A4" s="51" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="6">
+        <v>10000</v>
+      </c>
     </row>
     <row r="5" spans="1:35" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <f t="shared" ref="B5:AF5" si="1">B3+B4</f>
-        <v>0</v>
+        <f>B3+B4</f>
+        <v>10000</v>
       </c>
       <c r="C5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B5:AF5" si="1">C3+C4</f>
         <v>0</v>
       </c>
       <c r="D5" s="7">
@@ -4559,7 +4578,7 @@
       </c>
       <c r="B6" s="8">
         <f>B5+B7</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C6" s="8">
         <f t="shared" ref="C6:AF6" si="2">C5+C7</f>
@@ -4928,7 +4947,7 @@
       </c>
       <c r="B30" s="101">
         <f>SUM(B2:AF2)</f>
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="C30" s="101"/>
       <c r="T30" s="1"/>
@@ -4943,7 +4962,7 @@
       </c>
       <c r="B31" s="83">
         <f>SUM(B4:AF4)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C31" s="13"/>
       <c r="T31" s="1"/>
@@ -4962,13 +4981,12 @@
         <v>252</v>
       </c>
       <c r="B32" s="75">
-        <f>'7월 매출'!B32</f>
-        <v>3328610</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="D32" s="15"/>
+        <f>B33-B30</f>
+        <v>-500000</v>
+      </c>
+      <c r="D32" s="15">
+        <v>2828610</v>
+      </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -5007,7 +5025,7 @@
       </c>
       <c r="B34" s="16">
         <f>SUM(B5:AF5)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -5028,7 +5046,7 @@
       </c>
       <c r="B35" s="17">
         <f>B34-B37</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -5071,8 +5089,8 @@
         <v>193</v>
       </c>
       <c r="B38" s="94">
-        <f>'7월 매출'!B38</f>
-        <v>1086000</v>
+        <f>'7월 매출'!B38+B4:AF4</f>
+        <v>1096000</v>
       </c>
       <c r="C38" s="15"/>
       <c r="Y38" s="9"/>
@@ -5083,8 +5101,8 @@
         <v>197</v>
       </c>
       <c r="B39" s="92">
-        <f>'7월 매출'!B39</f>
-        <v>5291060</v>
+        <f>'7월 매출'!B39+500000</f>
+        <v>5791060</v>
       </c>
       <c r="C39" s="9"/>
       <c r="Y39" s="9"/>
@@ -5100,7 +5118,7 @@
       </c>
       <c r="B41" s="86">
         <f>SUM(B6:AF6)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="AE41" s="9"/>
@@ -5111,7 +5129,7 @@
       </c>
       <c r="B42" s="90">
         <f>B32+B38+B39</f>
-        <v>9705670</v>
+        <v>6387060</v>
       </c>
       <c r="Y42" s="9"/>
       <c r="AE42" s="9"/>
@@ -5122,9 +5140,9 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B44" s="97">
+        <v>291</v>
+      </c>
+      <c r="B44" s="19">
         <v>758090</v>
       </c>
       <c r="Y44" s="9"/>
@@ -5134,7 +5152,7 @@
       <c r="A45" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="9">
         <v>800000</v>
       </c>
       <c r="Y45" s="9"/>
@@ -5144,7 +5162,7 @@
       <c r="A46" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B46" s="88">
+      <c r="B46" s="135">
         <f>SUM(B44:B45)</f>
         <v>1558090</v>
       </c>
@@ -5185,7 +5203,7 @@
     <row r="56" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D56" s="104"/>
       <c r="E56" s="120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F56" s="121"/>
       <c r="G56" s="121"/>
@@ -5195,20 +5213,20 @@
     </row>
     <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="104"/>
-      <c r="E57" s="108" t="s">
+      <c r="E57" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="F57" s="110" t="s">
+      <c r="F57" s="112" t="s">
         <v>266</v>
       </c>
-      <c r="G57" s="112" t="s">
+      <c r="G57" s="116" t="s">
         <v>267</v>
       </c>
-      <c r="H57" s="116" t="s">
+      <c r="H57" s="114" t="s">
         <v>268</v>
       </c>
       <c r="I57" s="114" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="J57" s="105"/>
     </row>
@@ -5216,7 +5234,7 @@
       <c r="D58" s="104"/>
       <c r="E58" s="109">
         <f>SUM(B5:E5)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F58" s="111">
         <f>SUM(F5:L5)</f>
@@ -5241,26 +5259,26 @@
       <c r="F59" s="107"/>
       <c r="G59" s="107"/>
       <c r="H59" s="109" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I59" s="109">
         <f>SUM(E58:I58)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="60" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H60" s="109" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I60" s="109">
         <f>AVERAGE(E58:I58)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="61" spans="4:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B73" s="1">
         <v>190000</v>

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="6300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="6300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="299">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1134,6 +1134,31 @@
   </si>
   <si>
     <t>5주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-03 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌이체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스크구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양주 1병 킵 : 배정현 
+얼금카드구매 2천</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1662,7 +1687,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1869,6 +1894,7 @@
     <xf numFmtId="177" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1884,6 +1910,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1896,15 +1931,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1914,7 +1940,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1981,20 +2008,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>488157</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1004587</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>20781</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>725811</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>56732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2007,8 +2034,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="488157" y="10958512"/>
-          <a:ext cx="2411905" cy="5140469"/>
+          <a:off x="3464719" y="13608844"/>
+          <a:ext cx="3761905" cy="3342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>578474</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>76071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7262812" y="16359188"/>
+          <a:ext cx="1352381" cy="1028571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2288,8 +2353,8 @@
   </sheetPr>
   <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4088,13 +4153,13 @@
     </row>
     <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D56" s="104"/>
-      <c r="E56" s="120" t="s">
+      <c r="E56" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="F56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="123"/>
       <c r="J56" s="105"/>
     </row>
     <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4186,10 +4251,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AI73"/>
+  <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4302,16 +4367,13 @@
       <c r="A2" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="73">
-        <v>500000</v>
-      </c>
     </row>
     <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:AF3" si="0">SUM(B11,B13,B15,B17,B19,B21)</f>
+        <f t="shared" ref="B3:AF3" si="0">SUM(B12,B14,B16,B18,B20,B22)</f>
         <v>0</v>
       </c>
       <c r="C3" s="5">
@@ -4327,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <f>SUM(F11,F13,F15,F17,F19,F21)</f>
+        <f>SUM(F12,F14,F16,F18,F20,F22)</f>
         <v>0</v>
       </c>
       <c r="G3" s="5">
@@ -4343,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <f>SUM(J11,J13,J15,J17,J19,J21,J23,J24,J31,J32,J33)</f>
+        <f>SUM(J12,J14,J16,J18,J20,J22,J24,J25,J32,J33,J34)</f>
         <v>0</v>
       </c>
       <c r="K3" s="5">
@@ -4427,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="5">
-        <f>SUM(AE11,AE13,AE15,AE17,AE19,AE21)</f>
+        <f>SUM(AE12,AE14,AE16,AE18,AE20,AE22)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="5">
@@ -4435,498 +4497,526 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="4" spans="1:35" s="137" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="136" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="137">
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
-        <f>B3+B4</f>
+      <c r="B6" s="7">
+        <f>B3+B4+B5</f>
         <v>10000</v>
       </c>
-      <c r="C5" s="7">
-        <f t="shared" ref="B5:AF5" si="1">C3+C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <f>D3+D4</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="C6" s="7">
+        <f>C3+C4+C5</f>
+        <v>630000</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" ref="D6:AF6" si="1">D3+D4+D5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="7">
-        <f>J3+J4</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <f>K3+K4</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="J6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M5" s="7">
+      <c r="K6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="7">
+      <c r="L6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O5" s="7">
+      <c r="M6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="7">
+      <c r="N6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="O6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R5" s="7">
+      <c r="P6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S5" s="7">
+      <c r="Q6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T5" s="7">
+      <c r="R6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U5" s="7">
+      <c r="S6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V5" s="7">
+      <c r="T6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W5" s="7">
+      <c r="U6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X5" s="7">
+      <c r="V6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="W6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="7">
-        <f>Z3+Z4</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7">
+      <c r="X6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="Y6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="Z6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AA6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AB6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AC6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="AD6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8">
-        <f>B5+B7</f>
+      <c r="B7" s="8">
+        <f>B6+B8</f>
         <v>10000</v>
       </c>
-      <c r="C6" s="8">
-        <f t="shared" ref="C6:AF6" si="2">C5+C7</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C7" s="8">
+        <f>C6+C8</f>
+        <v>377000</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="C7:AF7" si="2">D6+D8</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I7" s="8">
+        <f>I6+I8</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="8">
-        <f>I5+I7</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="K7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="8">
+      <c r="M7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="8">
+      <c r="P7" s="8">
+        <f>P6+P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" s="8">
-        <f>P5+P7</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
+      <c r="R7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R6" s="8">
+      <c r="S7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S6" s="8">
+      <c r="T7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6" s="8">
+      <c r="U7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U6" s="8">
+      <c r="V7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V6" s="8">
+      <c r="W7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W6" s="8">
+      <c r="X7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X6" s="8">
+      <c r="Y7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Z7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="AA7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AB7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AC7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AD7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AE7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AF7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+    </row>
+    <row r="8" spans="1:35" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="18">
-        <f t="shared" ref="B7:AF7" si="3">SUM(B12,B14,B16,B18,B20,B22,B22)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="B8" s="18">
+        <f t="shared" ref="B8:AF8" si="3">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <f>SUM(C13,C15,C17,C19,C21,C23,C23)</f>
+        <v>-253000</v>
+      </c>
+      <c r="D8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D7" s="18">
+      <c r="E8" s="18">
+        <f>SUM(E13,E15,E17,E19,E21,E23,E23)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E7" s="18">
-        <f>SUM(E12,E14,E16,E18,E20,E22,E22)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
+      <c r="G8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G7" s="18">
+      <c r="H8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="18">
+      <c r="I8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I7" s="18">
+      <c r="J8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J7" s="18">
+      <c r="K8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="18">
+      <c r="L8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="18">
+      <c r="M8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="18">
+      <c r="N8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N7" s="18">
+      <c r="O8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O7" s="18">
+      <c r="P8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P7" s="18">
+      <c r="Q8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="R8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R7" s="18">
+      <c r="S8" s="18">
+        <f>SUM(S13,S15,S17,S19,S21,S23,S23)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
+        <f>SUM(T13,T15,T17,T19,T21,T23,T23)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S7" s="18">
-        <f>SUM(S12,S14,S16,S18,S20,S22,S22)</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="18">
-        <f>SUM(T12,T14,T16,T18,T20,T22,T22)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="18">
+      <c r="V8" s="18">
+        <f>SUM(V13,V15,V17,V19,V21,V23,V23)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V7" s="18">
-        <f>SUM(V12,V14,V16,V18,V20,V22,V22)</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="18">
+      <c r="X8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X7" s="18">
+      <c r="Y8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Z8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="AA8" s="18">
+        <f>SUM(AA13,AA15,AA17,AA19,AA21,AA23,AA23)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="18">
-        <f>SUM(AA12,AA14,AA16,AA18,AA20,AA22,AA22)</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="18">
+      <c r="AC8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AD8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AE8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AF8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+    </row>
+    <row r="9" spans="1:35" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
-    </row>
     <row r="10" spans="1:35" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56"/>
+    </row>
+    <row r="11" spans="1:35" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+    <row r="12" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="I11" s="46"/>
-    </row>
-    <row r="12" spans="1:35" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+      <c r="G12" s="46"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="1:35" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="AA12" s="10"/>
-    </row>
-    <row r="13" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+      <c r="C13" s="11">
+        <v>-240000</v>
+      </c>
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="C14" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="58" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
+      <c r="C15" s="10">
+        <f>-1000</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="77"/>
-      <c r="Z15" s="77"/>
-    </row>
-    <row r="16" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="C16" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="77"/>
+      <c r="Z16" s="77"/>
+    </row>
+    <row r="17" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+      <c r="C17" s="10">
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="60" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="C18" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="76"/>
-    </row>
-    <row r="19" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
+      <c r="I19" s="76"/>
+    </row>
+    <row r="20" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+    <row r="21" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="58" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
+    <row r="22" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="58" t="s">
+    <row r="23" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
     </row>
     <row r="24" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="61"/>
     </row>
-    <row r="25" spans="1:30" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
+    <row r="25" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="61"/>
+    </row>
+    <row r="26" spans="1:30" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="81"/>
-      <c r="R25" s="84"/>
-      <c r="Z25" s="119"/>
-    </row>
-    <row r="26" spans="1:30" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="C26" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="J26" s="81"/>
+      <c r="R26" s="84"/>
+      <c r="Z26" s="119"/>
     </row>
     <row r="27" spans="1:30" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="63"/>
@@ -4935,58 +5025,41 @@
     </row>
     <row r="28" spans="1:30" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="63"/>
-    </row>
-    <row r="29" spans="1:30" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:30" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="63"/>
+    </row>
+    <row r="30" spans="1:30" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="64" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+    <row r="31" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="B30" s="101">
+      <c r="B31" s="101">
         <f>SUM(B2:AF2)</f>
-        <v>500000</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-    </row>
-    <row r="31" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="82" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="83">
-        <f>SUM(B4:AF4)</f>
-        <v>10000</v>
-      </c>
-      <c r="C31" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="101"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
     </row>
     <row r="32" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="74" t="s">
-        <v>252</v>
-      </c>
-      <c r="B32" s="75">
-        <f>B33-B30</f>
-        <v>-500000</v>
-      </c>
-      <c r="D32" s="15">
-        <v>2828610</v>
-      </c>
+      <c r="A32" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="83">
+        <f>SUM(B5:AF5)</f>
+        <v>10000</v>
+      </c>
+      <c r="C32" s="13"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -4999,14 +5072,13 @@
       <c r="AD32" s="1"/>
     </row>
     <row r="33" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="B33" s="14">
-        <f>SUM(B3:AF3)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="15"/>
+      <c r="A33" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" s="75">
+        <f>B34-B31</f>
+        <v>160830</v>
+      </c>
       <c r="D33" s="15"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -5020,12 +5092,12 @@
       <c r="AD33" s="1"/>
     </row>
     <row r="34" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="B34" s="16">
-        <f>SUM(B5:AF5)</f>
-        <v>10000</v>
+      <c r="A34" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="14">
+        <f>500000-D81</f>
+        <v>160830</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -5041,12 +5113,12 @@
       <c r="AD34" s="1"/>
     </row>
     <row r="35" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="68" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B34-B37</f>
-        <v>10000</v>
+      <c r="A35" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="16">
+        <f>SUM(B6:AF6)</f>
+        <v>640000</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -5061,115 +5133,132 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="69" t="s">
+    <row r="36" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="17">
+        <f>B35+B37</f>
+        <v>387000</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="48">
-        <f>SUM(B7:AF7)</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="Y36" s="9"/>
-      <c r="AE36" s="9"/>
-    </row>
-    <row r="37" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="49">
-        <f>SUM(B29:AF29)-SUM(40:40)</f>
-        <v>0</v>
-      </c>
+      <c r="B37" s="48">
+        <f>SUM(B8:AF8)</f>
+        <v>-253000</v>
+      </c>
+      <c r="C37" s="15"/>
       <c r="Y37" s="9"/>
       <c r="AE37" s="9"/>
     </row>
     <row r="38" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" s="94">
-        <f>'7월 매출'!B38+B4:AF4</f>
-        <v>1096000</v>
-      </c>
-      <c r="C38" s="15"/>
+      <c r="A38" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="49">
+        <f>SUM(B30:AF30)-SUM(41:41)</f>
+        <v>0</v>
+      </c>
       <c r="Y38" s="9"/>
       <c r="AE38" s="9"/>
     </row>
     <row r="39" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="91" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" s="92">
-        <f>'7월 매출'!B39+500000</f>
-        <v>5791060</v>
-      </c>
-      <c r="C39" s="9"/>
+      <c r="A39" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="94">
+        <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))</f>
+        <v>843000</v>
+      </c>
+      <c r="C39" s="15"/>
       <c r="Y39" s="9"/>
       <c r="AE39" s="9"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="91" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="92">
+        <f>5291060+B4:AF4</f>
+        <v>5291060</v>
+      </c>
+      <c r="C40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="AE40" s="9"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="85" t="s">
-        <v>231</v>
-      </c>
-      <c r="B41" s="86">
-        <f>SUM(B6:AF6)</f>
-        <v>10000</v>
-      </c>
       <c r="Y41" s="9"/>
       <c r="AE41" s="9"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="89" t="s">
-        <v>232</v>
-      </c>
-      <c r="B42" s="90">
-        <f>B32+B38+B39</f>
-        <v>6387060</v>
+      <c r="A42" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="86">
+        <f>SUM(B7:AF7)</f>
+        <v>387000</v>
       </c>
       <c r="Y42" s="9"/>
       <c r="AE42" s="9"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="90">
+        <f>B33+B39+B40</f>
+        <v>6294890</v>
+      </c>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B44" s="19">
-        <v>758090</v>
-      </c>
       <c r="Y44" s="9"/>
       <c r="AE44" s="9"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B45" s="9">
-        <v>800000</v>
+        <v>291</v>
+      </c>
+      <c r="B45" s="19">
+        <v>758090</v>
       </c>
       <c r="Y45" s="9"/>
       <c r="AE45" s="9"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B46" s="135">
-        <f>SUM(B44:B45)</f>
-        <v>1558090</v>
+        <v>241</v>
+      </c>
+      <c r="B46" s="9">
+        <v>800000</v>
       </c>
       <c r="Y46" s="9"/>
       <c r="AE46" s="9"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="120">
+        <f>SUM(B45:B46)</f>
+        <v>1558090</v>
+      </c>
       <c r="Y47" s="9"/>
       <c r="AE47" s="9"/>
     </row>
@@ -5193,100 +5282,104 @@
       <c r="Y52" s="9"/>
       <c r="AE52" s="9"/>
     </row>
-    <row r="55" spans="4:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
-    </row>
-    <row r="56" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="104"/>
-      <c r="E56" s="120" t="s">
-        <v>270</v>
-      </c>
-      <c r="F56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="105"/>
+    <row r="53" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="Y53" s="9"/>
+      <c r="AE53" s="9"/>
+    </row>
+    <row r="56" spans="4:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
     </row>
     <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="104"/>
-      <c r="E57" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="F57" s="112" t="s">
-        <v>266</v>
-      </c>
-      <c r="G57" s="116" t="s">
-        <v>267</v>
-      </c>
-      <c r="H57" s="114" t="s">
-        <v>268</v>
-      </c>
-      <c r="I57" s="114" t="s">
-        <v>292</v>
-      </c>
+      <c r="E57" s="121" t="s">
+        <v>270</v>
+      </c>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="123"/>
       <c r="J57" s="105"/>
     </row>
     <row r="58" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D58" s="104"/>
-      <c r="E58" s="109">
-        <f>SUM(B5:E5)</f>
-        <v>10000</v>
-      </c>
-      <c r="F58" s="111">
-        <f>SUM(F5:L5)</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="113">
-        <f>SUM(M5:S5)</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="117">
-        <f>SUM(T5:Z5)</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="115">
-        <f>SUM(AA5:AF5)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="15"/>
+      <c r="E58" s="110" t="s">
+        <v>265</v>
+      </c>
+      <c r="F58" s="112" t="s">
+        <v>266</v>
+      </c>
+      <c r="G58" s="116" t="s">
+        <v>267</v>
+      </c>
+      <c r="H58" s="114" t="s">
+        <v>268</v>
+      </c>
+      <c r="I58" s="114" t="s">
+        <v>292</v>
+      </c>
+      <c r="J58" s="105"/>
     </row>
     <row r="59" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="109" t="s">
+      <c r="D59" s="104"/>
+      <c r="E59" s="109">
+        <f>SUM(B6:E6)</f>
+        <v>640000</v>
+      </c>
+      <c r="F59" s="111">
+        <f>SUM(F6:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="113">
+        <f>SUM(M6:S6)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="117">
+        <f>SUM(T6:Z6)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="115">
+        <f>SUM(AA6:AF6)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="I59" s="109">
-        <f>SUM(E58:I58)</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="60" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H60" s="109" t="s">
+      <c r="I60" s="109">
+        <f>SUM(E59:I59)</f>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H61" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="I60" s="109">
-        <f>AVERAGE(E58:I58)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="61" spans="4:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B73" s="1">
-        <v>190000</v>
+      <c r="I61" s="109">
+        <f>AVERAGE(E59:I59)</f>
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="62" spans="4:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C81" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D81" s="9">
+        <v>339170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="E57:I57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5361,7 +5454,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="124">
+      <c r="A2" s="125">
         <v>44742</v>
       </c>
       <c r="B2" s="99" t="s">
@@ -5375,7 +5468,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="124"/>
+      <c r="A3" s="125"/>
       <c r="B3" s="100" t="s">
         <v>250</v>
       </c>
@@ -5387,7 +5480,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="123">
+      <c r="A4" s="124">
         <v>44743</v>
       </c>
       <c r="B4" s="99" t="str">
@@ -5402,7 +5495,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="123"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="100" t="str">
         <f t="shared" ref="B5:B63" si="0">B3</f>
         <v>현찰</v>
@@ -5415,7 +5508,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="123">
+      <c r="A6" s="124">
         <v>44744</v>
       </c>
       <c r="B6" s="99" t="str">
@@ -5430,7 +5523,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="123"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
@@ -5443,7 +5536,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="123">
+      <c r="A8" s="124">
         <v>44745</v>
       </c>
       <c r="B8" s="99" t="str">
@@ -5452,14 +5545,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="123"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="123">
+      <c r="A10" s="124">
         <v>44746</v>
       </c>
       <c r="B10" s="99" t="str">
@@ -5468,14 +5561,14 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="123"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="123">
+      <c r="A12" s="124">
         <v>44747</v>
       </c>
       <c r="B12" s="99" t="str">
@@ -5484,14 +5577,14 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="123"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="123">
+      <c r="A14" s="124">
         <v>44748</v>
       </c>
       <c r="B14" s="99" t="str">
@@ -5500,14 +5593,14 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="123"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="123">
+      <c r="A16" s="124">
         <v>44749</v>
       </c>
       <c r="B16" s="99" t="str">
@@ -5516,14 +5609,14 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="123"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="123">
+      <c r="A18" s="124">
         <v>44750</v>
       </c>
       <c r="B18" s="99" t="str">
@@ -5532,14 +5625,14 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="123"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="123">
+      <c r="A20" s="124">
         <v>44751</v>
       </c>
       <c r="B20" s="99" t="str">
@@ -5548,14 +5641,14 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="123"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="123">
+      <c r="A22" s="124">
         <v>44752</v>
       </c>
       <c r="B22" s="99" t="str">
@@ -5564,14 +5657,14 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="123"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="123">
+      <c r="A24" s="124">
         <v>44753</v>
       </c>
       <c r="B24" s="99" t="str">
@@ -5580,14 +5673,14 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="123"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="123">
+      <c r="A26" s="124">
         <v>44754</v>
       </c>
       <c r="B26" s="99" t="str">
@@ -5596,14 +5689,14 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="123"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="123">
+      <c r="A28" s="124">
         <v>44755</v>
       </c>
       <c r="B28" s="99" t="str">
@@ -5612,14 +5705,14 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="123"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="123">
+      <c r="A30" s="124">
         <v>44756</v>
       </c>
       <c r="B30" s="99" t="str">
@@ -5628,14 +5721,14 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="123"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="123">
+      <c r="A32" s="124">
         <v>44757</v>
       </c>
       <c r="B32" s="99" t="str">
@@ -5644,14 +5737,14 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="123"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="123">
+      <c r="A34" s="124">
         <v>44758</v>
       </c>
       <c r="B34" s="99" t="str">
@@ -5660,14 +5753,14 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="123"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="123">
+      <c r="A36" s="124">
         <v>44759</v>
       </c>
       <c r="B36" s="99" t="str">
@@ -5676,14 +5769,14 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="123"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="123">
+      <c r="A38" s="124">
         <v>44760</v>
       </c>
       <c r="B38" s="99" t="str">
@@ -5692,14 +5785,14 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="123"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="123">
+      <c r="A40" s="124">
         <v>44761</v>
       </c>
       <c r="B40" s="99" t="str">
@@ -5708,14 +5801,14 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="123"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="123">
+      <c r="A42" s="124">
         <v>44762</v>
       </c>
       <c r="B42" s="99" t="str">
@@ -5724,14 +5817,14 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="123"/>
+      <c r="A43" s="124"/>
       <c r="B43" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="123">
+      <c r="A44" s="124">
         <v>44763</v>
       </c>
       <c r="B44" s="99" t="str">
@@ -5740,14 +5833,14 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="123"/>
+      <c r="A45" s="124"/>
       <c r="B45" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="123">
+      <c r="A46" s="124">
         <v>44764</v>
       </c>
       <c r="B46" s="99" t="str">
@@ -5756,14 +5849,14 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="123"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="123">
+      <c r="A48" s="124">
         <v>44765</v>
       </c>
       <c r="B48" s="99" t="str">
@@ -5772,14 +5865,14 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="123"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="123">
+      <c r="A50" s="124">
         <v>44766</v>
       </c>
       <c r="B50" s="99" t="str">
@@ -5788,14 +5881,14 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="123"/>
+      <c r="A51" s="124"/>
       <c r="B51" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="123">
+      <c r="A52" s="124">
         <v>44767</v>
       </c>
       <c r="B52" s="99" t="str">
@@ -5804,14 +5897,14 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="123"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="123">
+      <c r="A54" s="124">
         <v>44768</v>
       </c>
       <c r="B54" s="99" t="str">
@@ -5820,14 +5913,14 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="123"/>
+      <c r="A55" s="124"/>
       <c r="B55" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="123">
+      <c r="A56" s="124">
         <v>44769</v>
       </c>
       <c r="B56" s="99" t="str">
@@ -5836,14 +5929,14 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="123"/>
+      <c r="A57" s="124"/>
       <c r="B57" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="123">
+      <c r="A58" s="124">
         <v>44770</v>
       </c>
       <c r="B58" s="99" t="str">
@@ -5852,14 +5945,14 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="123"/>
+      <c r="A59" s="124"/>
       <c r="B59" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="123">
+      <c r="A60" s="124">
         <v>44771</v>
       </c>
       <c r="B60" s="99" t="str">
@@ -5868,14 +5961,14 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="123"/>
+      <c r="A61" s="124"/>
       <c r="B61" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="123">
+      <c r="A62" s="124">
         <v>44772</v>
       </c>
       <c r="B62" s="99" t="str">
@@ -5884,7 +5977,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="123"/>
+      <c r="A63" s="124"/>
       <c r="B63" s="100" t="str">
         <f t="shared" si="0"/>
         <v>현찰</v>
@@ -5895,6 +5988,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -5907,25 +6019,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6013,13 +6106,13 @@
       <c r="G1" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -6036,16 +6129,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="126" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="131"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="129" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -6061,14 +6154,14 @@
       <c r="G3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="129"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="131"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="128"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="126"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="25" t="s">
         <v>122</v>
       </c>
@@ -6078,14 +6171,14 @@
       <c r="G4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="131"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="128"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="127"/>
+      <c r="B5" s="131"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -6095,11 +6188,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="131"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="128"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -6116,11 +6209,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="131"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="128"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -6141,11 +6234,11 @@
       <c r="G7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="131"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="128"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -6164,11 +6257,11 @@
       <c r="G8" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="131"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="128"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -6181,11 +6274,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="131"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="128"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -6200,11 +6293,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="131"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="128"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -6213,11 +6306,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="131"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="128"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -6226,11 +6319,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="131"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="128"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -6239,11 +6332,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="131"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="128"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -6252,11 +6345,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="128"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -6757,6 +6850,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -6766,12 +6865,6 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6813,14 +6906,14 @@
       <c r="E1" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="133" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="135"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="300">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1157,8 +1157,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>한팀 그냥감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>양주 1병 킵 : 배정현 
-얼금카드구매 2천</t>
+얼음 카드구매 2천</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2009,15 +2013,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>35719</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>725811</xdr:colOff>
+      <xdr:colOff>713905</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>56732</xdr:rowOff>
+      <xdr:rowOff>199607</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2034,7 +2038,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3464719" y="13608844"/>
+          <a:off x="3452813" y="14168438"/>
           <a:ext cx="3761905" cy="3342857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2047,15 +2051,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:colOff>702469</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>64058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>578474</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>76071</xdr:rowOff>
+      <xdr:colOff>1071563</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>12743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2072,8 +2076,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7262812" y="16359188"/>
-          <a:ext cx="1352381" cy="1028571"/>
+          <a:off x="7203282" y="14161058"/>
+          <a:ext cx="1905000" cy="1448873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2353,8 +2357,8 @@
   </sheetPr>
   <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4125,8 +4129,8 @@
         <v>5763370</v>
       </c>
       <c r="D48" s="9">
-        <f>B39+B37+2000000-1250000</f>
-        <v>7183360</v>
+        <f>2000000-1250000+B37+1000000</f>
+        <v>2892300</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.3">
@@ -4253,8 +4257,8 @@
   </sheetPr>
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4378,11 +4382,11 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" si="0"/>
@@ -4501,9 +4505,15 @@
       <c r="A4" s="136" t="s">
         <v>294</v>
       </c>
+      <c r="B4" s="137">
+        <v>0</v>
+      </c>
       <c r="C4" s="137">
         <v>630000</v>
       </c>
+      <c r="D4" s="137">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
@@ -4514,6 +4524,9 @@
       </c>
       <c r="C5" s="6">
         <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>480000</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -4526,14 +4539,14 @@
       </c>
       <c r="C6" s="7">
         <f>C3+C4+C5</f>
-        <v>630000</v>
+        <v>663000</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" ref="D6:AF6" si="1">D3+D4+D5</f>
-        <v>0</v>
+        <f>D3+D4+D5</f>
+        <v>525000</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D6:AF6" si="1">E3+E4+E5</f>
         <v>0</v>
       </c>
       <c r="F6" s="7">
@@ -4655,11 +4668,11 @@
       </c>
       <c r="C7" s="8">
         <f>C6+C8</f>
-        <v>377000</v>
+        <v>410000</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="C7:AF7" si="2">D6+D8</f>
-        <v>0</v>
+        <v>273000</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="2"/>
@@ -4788,7 +4801,7 @@
       </c>
       <c r="D8" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-252000</v>
       </c>
       <c r="E8" s="18">
         <f>SUM(E13,E15,E17,E19,E21,E23,E23)</f>
@@ -4930,6 +4943,9 @@
       <c r="C13" s="11">
         <v>-240000</v>
       </c>
+      <c r="D13" s="11">
+        <v>-12000</v>
+      </c>
       <c r="AA13" s="10"/>
     </row>
     <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -4939,6 +4955,9 @@
       <c r="C14" s="12" t="s">
         <v>295</v>
       </c>
+      <c r="D14" s="12">
+        <v>45000</v>
+      </c>
     </row>
     <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
@@ -4948,6 +4967,10 @@
         <f>-1000</f>
         <v>-1000</v>
       </c>
+      <c r="D15" s="10">
+        <f>-120000-120000</f>
+        <v>-240000</v>
+      </c>
     </row>
     <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
@@ -4985,6 +5008,9 @@
       <c r="A20" s="60" t="s">
         <v>10</v>
       </c>
+      <c r="C20" s="12">
+        <v>33000</v>
+      </c>
     </row>
     <row r="21" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="58" t="s">
@@ -5011,8 +5037,11 @@
       <c r="A26" s="62" t="s">
         <v>17</v>
       </c>
+      <c r="B26" s="21" t="s">
+        <v>298</v>
+      </c>
       <c r="C26" s="21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J26" s="81"/>
       <c r="R26" s="84"/>
@@ -5057,9 +5086,13 @@
       </c>
       <c r="B32" s="83">
         <f>SUM(B5:AF5)</f>
-        <v>10000</v>
+        <v>490000</v>
       </c>
       <c r="C32" s="13"/>
+      <c r="H32" s="9">
+        <f>1430000*0.4</f>
+        <v>572000</v>
+      </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -5118,9 +5151,12 @@
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>640000</v>
-      </c>
-      <c r="C35" s="15"/>
+        <v>1198000</v>
+      </c>
+      <c r="C35" s="15">
+        <f>B35*0.1</f>
+        <v>119800</v>
+      </c>
       <c r="D35" s="15"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -5139,7 +5175,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>387000</v>
+        <v>693000</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -5160,7 +5196,7 @@
       </c>
       <c r="B37" s="48">
         <f>SUM(B8:AF8)</f>
-        <v>-253000</v>
+        <v>-505000</v>
       </c>
       <c r="C37" s="15"/>
       <c r="Y37" s="9"/>
@@ -5183,7 +5219,7 @@
       </c>
       <c r="B39" s="94">
         <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))</f>
-        <v>843000</v>
+        <v>1071000</v>
       </c>
       <c r="C39" s="15"/>
       <c r="Y39" s="9"/>
@@ -5211,7 +5247,7 @@
       </c>
       <c r="B42" s="86">
         <f>SUM(B7:AF7)</f>
-        <v>387000</v>
+        <v>693000</v>
       </c>
       <c r="Y42" s="9"/>
       <c r="AE42" s="9"/>
@@ -5222,7 +5258,7 @@
       </c>
       <c r="B43" s="90">
         <f>B33+B39+B40</f>
-        <v>6294890</v>
+        <v>6522890</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
@@ -5327,7 +5363,7 @@
       <c r="D59" s="104"/>
       <c r="E59" s="109">
         <f>SUM(B6:E6)</f>
-        <v>640000</v>
+        <v>1198000</v>
       </c>
       <c r="F59" s="111">
         <f>SUM(F6:L6)</f>
@@ -5356,7 +5392,7 @@
       </c>
       <c r="I60" s="109">
         <f>SUM(E59:I59)</f>
-        <v>640000</v>
+        <v>1198000</v>
       </c>
     </row>
     <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5365,7 +5401,7 @@
       </c>
       <c r="I61" s="109">
         <f>AVERAGE(E59:I59)</f>
-        <v>128000</v>
+        <v>239600</v>
       </c>
     </row>
     <row r="62" spans="4:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -9,11 +9,10 @@
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
     <sheet name="8월 매출" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="정보" sheetId="2" r:id="rId5"/>
-    <sheet name="계좌,카드" sheetId="3" r:id="rId6"/>
-    <sheet name="아이디,비번" sheetId="4" r:id="rId7"/>
+    <sheet name="정보" sheetId="2" r:id="rId3"/>
+    <sheet name="계좌,카드" sheetId="3" r:id="rId4"/>
+    <sheet name="아이디,비번" sheetId="4" r:id="rId5"/>
+    <sheet name="팁" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="306">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -947,10 +946,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(가게세 관리비 포함)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -960,16 +955,6 @@
   </si>
   <si>
     <t>삼촌 150만원 카드매출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드</t>
-  </si>
-  <si>
-    <t>현찰</t>
-  </si>
-  <si>
-    <t>수입</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1163,6 +1148,41 @@
   <si>
     <t>양주 1병 킵 : 배정현 
 얼음 카드구매 2천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터 볼륨은 11시방향</t>
+  </si>
+  <si>
+    <t>에코는 12시방향</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마이크 볼륨 9시 </t>
+  </si>
+  <si>
+    <t>팬 12시 에코 12시  로우 12시 미드 12 하이 10시</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뮤직 볼륨 9시 </t>
+  </si>
+  <si>
+    <t>노래방 앰프 설정법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어컨 고장 코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoShow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김원효닮은 외국손님(스타)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영걸형손님,아베크중국1팀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1691,7 +1711,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1874,9 +1894,6 @@
     <xf numFmtId="14" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1899,6 +1916,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1907,21 +1926,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1935,6 +1939,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1944,8 +1957,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2078,6 +2089,87 @@
         <a:xfrm>
           <a:off x="7203282" y="14161058"/>
           <a:ext cx="1905000" cy="1448873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647365</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>94796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="447675"/>
+          <a:ext cx="2676190" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>681618</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>199480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="2867025"/>
+          <a:ext cx="6158493" cy="1942555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2358,7 +2450,7 @@
   <dimension ref="A1:AJ73"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3202,10 +3294,10 @@
         <v>226</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AD11" s="10">
         <v>71500</v>
@@ -3361,7 +3453,7 @@
         <v>330000</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AB13" s="12">
         <f>71500+5500</f>
@@ -3495,7 +3587,7 @@
         <v>142000</v>
       </c>
       <c r="Z15" s="77" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AA15" s="12">
         <v>352000</v>
@@ -3582,7 +3674,7 @@
         <v>176000</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="X17" s="12">
         <v>142000</v>
@@ -3654,7 +3746,7 @@
         <v>142000</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:33" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -3764,43 +3856,43 @@
         <v>240</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="W25" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="X25" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y25" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z25" s="116" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA25" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB25" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="Y25" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z25" s="119" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA25" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="AB25" s="21" t="s">
-        <v>278</v>
-      </c>
       <c r="AC25" s="21" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AD25" s="21" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AE25" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AF25" s="21" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AG25" s="21" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:33" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -3851,18 +3943,18 @@
       <c r="A30" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="B30" s="101">
+      <c r="B30" s="98">
         <f>SUM(B2:AG2)+1558090</f>
         <v>5758090</v>
       </c>
-      <c r="C30" s="101" t="s">
-        <v>246</v>
+      <c r="C30" s="98" t="s">
+        <v>245</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="U30" s="102" t="s">
-        <v>254</v>
+      <c r="U30" s="99" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:33" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3880,21 +3972,21 @@
       <c r="J31" s="9">
         <v>300000</v>
       </c>
-      <c r="U31" s="102">
+      <c r="U31" s="99">
         <f>25690+25790+4000+(27390*5)</f>
         <v>192430</v>
       </c>
     </row>
     <row r="32" spans="1:33" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="74" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B32" s="75">
         <f>SUM(B3:AG3)-B30</f>
         <v>3328610</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D32" s="15"/>
       <c r="G32" s="9" t="s">
@@ -3903,8 +3995,8 @@
       <c r="J32" s="9">
         <v>220000</v>
       </c>
-      <c r="U32" s="102" t="s">
-        <v>253</v>
+      <c r="U32" s="99" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3920,7 +4012,7 @@
       <c r="J33" s="9">
         <v>264000</v>
       </c>
-      <c r="U33" s="102">
+      <c r="U33" s="99">
         <v>57450</v>
       </c>
     </row>
@@ -3937,8 +4029,8 @@
       <c r="G34" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="U34" s="103" t="s">
-        <v>255</v>
+      <c r="U34" s="100" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3974,7 +4066,7 @@
         <v>217</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4021,16 +4113,16 @@
         <v>214</v>
       </c>
       <c r="X40" s="78" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Z40" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA40" s="118" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD40" s="118" t="s">
         <v>282</v>
+      </c>
+      <c r="AA40" s="115" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD40" s="115" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
@@ -4053,10 +4145,10 @@
       <c r="Z41" s="79">
         <v>150000</v>
       </c>
-      <c r="AA41" s="118">
+      <c r="AA41" s="115">
         <v>36300</v>
       </c>
-      <c r="AD41" s="118">
+      <c r="AD41" s="115">
         <v>32760</v>
       </c>
     </row>
@@ -4075,19 +4167,19 @@
         <v>222</v>
       </c>
       <c r="X42" s="87" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Z42" s="87" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA42" s="118" t="s">
-        <v>272</v>
+        <v>283</v>
+      </c>
+      <c r="AA42" s="115" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="J43" s="80"/>
-      <c r="AA43" s="118" t="s">
-        <v>273</v>
+      <c r="AA43" s="115" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
@@ -4097,7 +4189,7 @@
       <c r="B44" s="97">
         <v>758090</v>
       </c>
-      <c r="AA44" s="118">
+      <c r="AA44" s="115">
         <v>30000</v>
       </c>
     </row>
@@ -4108,8 +4200,8 @@
       <c r="B45" s="1">
         <v>800000</v>
       </c>
-      <c r="AA45" s="118" t="s">
-        <v>272</v>
+      <c r="AA45" s="115" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
@@ -4149,83 +4241,83 @@
       <c r="D52" s="9"/>
     </row>
     <row r="55" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="103"/>
+      <c r="I55" s="103"/>
     </row>
     <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="104"/>
-      <c r="E56" s="121" t="s">
-        <v>270</v>
-      </c>
-      <c r="F56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="123"/>
-      <c r="J56" s="105"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="102"/>
     </row>
     <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="104"/>
-      <c r="E57" s="108" t="s">
+      <c r="D57" s="101"/>
+      <c r="E57" s="105" t="s">
+        <v>260</v>
+      </c>
+      <c r="F57" s="107" t="s">
+        <v>261</v>
+      </c>
+      <c r="G57" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="H57" s="113" t="s">
+        <v>263</v>
+      </c>
+      <c r="I57" s="111" t="s">
         <v>264</v>
       </c>
-      <c r="F57" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="G57" s="112" t="s">
-        <v>266</v>
-      </c>
-      <c r="H57" s="116" t="s">
-        <v>267</v>
-      </c>
-      <c r="I57" s="114" t="s">
-        <v>268</v>
-      </c>
-      <c r="J57" s="105"/>
+      <c r="J57" s="102"/>
     </row>
     <row r="58" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="104"/>
-      <c r="E58" s="109">
+      <c r="D58" s="101"/>
+      <c r="E58" s="106">
         <f>SUM(B5:E5)</f>
         <v>2840000</v>
       </c>
-      <c r="F58" s="111">
+      <c r="F58" s="108">
         <f>SUM(F5:L5)</f>
         <v>5998000</v>
       </c>
-      <c r="G58" s="113">
+      <c r="G58" s="110">
         <f>SUM(M5:S5)</f>
         <v>3117000</v>
       </c>
-      <c r="H58" s="117">
+      <c r="H58" s="114">
         <f>SUM(T5:Z5)</f>
         <v>5525700</v>
       </c>
-      <c r="I58" s="115">
+      <c r="I58" s="112">
         <f>SUM(AA5:AG5)</f>
         <v>3832000</v>
       </c>
       <c r="J58" s="15"/>
     </row>
     <row r="59" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="109" t="s">
-        <v>269</v>
-      </c>
-      <c r="I59" s="109">
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="106" t="s">
+        <v>265</v>
+      </c>
+      <c r="I59" s="106">
         <f>SUM(E58:I58)</f>
         <v>21312700</v>
       </c>
     </row>
     <row r="60" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H60" s="109" t="s">
-        <v>271</v>
-      </c>
-      <c r="I60" s="109">
+      <c r="H60" s="106" t="s">
+        <v>267</v>
+      </c>
+      <c r="I60" s="106">
         <f>AVERAGE(E58:I58)</f>
         <v>4262540</v>
       </c>
@@ -4233,7 +4325,7 @@
     <row r="61" spans="3:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B73" s="1">
         <v>190000</v>
@@ -4257,8 +4349,8 @@
   </sheetPr>
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4371,6 +4463,9 @@
       <c r="A2" s="72" t="s">
         <v>203</v>
       </c>
+      <c r="E2" s="73">
+        <v>160000</v>
+      </c>
     </row>
     <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
@@ -4398,7 +4493,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>125000</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="0"/>
@@ -4501,18 +4596,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="137" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="136" t="s">
-        <v>294</v>
-      </c>
-      <c r="B4" s="137">
-        <v>0</v>
-      </c>
-      <c r="C4" s="137">
+    <row r="4" spans="1:35" s="119" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="118" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="119">
+        <v>0</v>
+      </c>
+      <c r="C4" s="119">
         <v>630000</v>
       </c>
-      <c r="D4" s="137">
-        <v>0</v>
+      <c r="D4" s="119">
+        <v>0</v>
+      </c>
+      <c r="E4" s="119">
+        <f>160000+320000</f>
+        <v>480000</v>
+      </c>
+      <c r="G4" s="119">
+        <v>480000</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -4527,6 +4629,12 @@
       </c>
       <c r="D5" s="6">
         <v>480000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -4546,16 +4654,16 @@
         <v>525000</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" ref="D6:AF6" si="1">E3+E4+E5</f>
-        <v>0</v>
+        <f>E3+E4+E5</f>
+        <v>480000</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E6:AF6" si="1">F3+F4+F5</f>
         <v>0</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>605000</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="1"/>
@@ -4671,12 +4779,12 @@
         <v>410000</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" ref="C7:AF7" si="2">D6+D8</f>
+        <f t="shared" ref="D7:AF7" si="2">D6+D8</f>
         <v>273000</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>E6+E8</f>
+        <v>228000</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="2"/>
@@ -4684,7 +4792,7 @@
       </c>
       <c r="G7" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>341000</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="2"/>
@@ -4805,7 +4913,7 @@
       </c>
       <c r="E8" s="18">
         <f>SUM(E13,E15,E17,E19,E21,E23,E23)</f>
-        <v>0</v>
+        <v>-252000</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" si="3"/>
@@ -4813,7 +4921,7 @@
       </c>
       <c r="G8" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-264000</v>
       </c>
       <c r="H8" s="18">
         <f t="shared" si="3"/>
@@ -4946,6 +5054,14 @@
       <c r="D13" s="11">
         <v>-12000</v>
       </c>
+      <c r="E13" s="11">
+        <f>-80000-80000-80000</f>
+        <v>-240000</v>
+      </c>
+      <c r="G13" s="11">
+        <f>-12000-12000-240000</f>
+        <v>-264000</v>
+      </c>
       <c r="AA13" s="10"/>
     </row>
     <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -4953,10 +5069,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D14" s="12">
         <v>45000</v>
+      </c>
+      <c r="G14" s="12">
+        <v>125000</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -4971,13 +5090,16 @@
         <f>-120000-120000</f>
         <v>-240000</v>
       </c>
+      <c r="E15" s="10">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I16" s="77"/>
       <c r="Z16" s="77"/>
@@ -4995,7 +5117,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -5038,14 +5160,23 @@
         <v>17</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="J26" s="81"/>
       <c r="R26" s="84"/>
-      <c r="Z26" s="119"/>
+      <c r="Z26" s="116"/>
     </row>
     <row r="27" spans="1:30" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="63"/>
@@ -5069,11 +5200,11 @@
       <c r="A31" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="B31" s="101">
+      <c r="B31" s="98">
         <f>SUM(B2:AF2)</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="101"/>
+        <v>160000</v>
+      </c>
+      <c r="C31" s="98"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -5089,10 +5220,6 @@
         <v>490000</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="H32" s="9">
-        <f>1430000*0.4</f>
-        <v>572000</v>
-      </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -5106,11 +5233,11 @@
     </row>
     <row r="33" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="74" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B33" s="75">
         <f>B34-B31</f>
-        <v>160830</v>
+        <v>203830</v>
       </c>
       <c r="D33" s="15"/>
       <c r="T33" s="1"/>
@@ -5129,8 +5256,8 @@
         <v>204</v>
       </c>
       <c r="B34" s="14">
-        <f>500000-D81</f>
-        <v>160830</v>
+        <f>500000-D81+SUM(B3:AF3)</f>
+        <v>363830</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -5151,11 +5278,11 @@
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>1198000</v>
+        <v>2283000</v>
       </c>
       <c r="C35" s="15">
         <f>B35*0.1</f>
-        <v>119800</v>
+        <v>228300</v>
       </c>
       <c r="D35" s="15"/>
       <c r="T35" s="1"/>
@@ -5175,7 +5302,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>693000</v>
+        <v>1262000</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -5196,7 +5323,7 @@
       </c>
       <c r="B37" s="48">
         <f>SUM(B8:AF8)</f>
-        <v>-505000</v>
+        <v>-1021000</v>
       </c>
       <c r="C37" s="15"/>
       <c r="Y37" s="9"/>
@@ -5219,7 +5346,7 @@
       </c>
       <c r="B39" s="94">
         <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))</f>
-        <v>1071000</v>
+        <v>555000</v>
       </c>
       <c r="C39" s="15"/>
       <c r="Y39" s="9"/>
@@ -5230,8 +5357,8 @@
         <v>197</v>
       </c>
       <c r="B40" s="92">
-        <f>5291060+B4:AF4</f>
-        <v>5291060</v>
+        <f>5291060+SUM(B4:AF4)</f>
+        <v>6881060</v>
       </c>
       <c r="C40" s="9"/>
       <c r="Y40" s="9"/>
@@ -5247,7 +5374,7 @@
       </c>
       <c r="B42" s="86">
         <f>SUM(B7:AF7)</f>
-        <v>693000</v>
+        <v>1262000</v>
       </c>
       <c r="Y42" s="9"/>
       <c r="AE42" s="9"/>
@@ -5258,7 +5385,7 @@
       </c>
       <c r="B43" s="90">
         <f>B33+B39+B40</f>
-        <v>6522890</v>
+        <v>7639890</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
@@ -5269,7 +5396,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B45" s="19">
         <v>758090</v>
@@ -5291,7 +5418,7 @@
       <c r="A47" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B47" s="120">
+      <c r="B47" s="117">
         <f>SUM(B45:B46)</f>
         <v>1558090</v>
       </c>
@@ -5323,91 +5450,91 @@
       <c r="AE53" s="9"/>
     </row>
     <row r="56" spans="4:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="103"/>
     </row>
     <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="104"/>
-      <c r="E57" s="121" t="s">
-        <v>270</v>
-      </c>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="122"/>
-      <c r="I57" s="123"/>
-      <c r="J57" s="105"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" s="121"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="102"/>
     </row>
     <row r="58" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="104"/>
-      <c r="E58" s="110" t="s">
+      <c r="D58" s="101"/>
+      <c r="E58" s="107" t="s">
+        <v>261</v>
+      </c>
+      <c r="F58" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G58" s="113" t="s">
+        <v>263</v>
+      </c>
+      <c r="H58" s="111" t="s">
+        <v>264</v>
+      </c>
+      <c r="I58" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="J58" s="102"/>
+    </row>
+    <row r="59" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D59" s="101"/>
+      <c r="E59" s="106">
+        <f>SUM(B6:E6)</f>
+        <v>1678000</v>
+      </c>
+      <c r="F59" s="108">
+        <f>SUM(F6:L6)</f>
+        <v>605000</v>
+      </c>
+      <c r="G59" s="110">
+        <f>SUM(M6:S6)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="114">
+        <f>SUM(T6:Z6)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="112">
+        <f>SUM(AA6:AF6)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="106" t="s">
         <v>265</v>
       </c>
-      <c r="F58" s="112" t="s">
-        <v>266</v>
-      </c>
-      <c r="G58" s="116" t="s">
+      <c r="I60" s="106">
+        <f>SUM(E59:I59)</f>
+        <v>2283000</v>
+      </c>
+    </row>
+    <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H61" s="106" t="s">
         <v>267</v>
       </c>
-      <c r="H58" s="114" t="s">
-        <v>268</v>
-      </c>
-      <c r="I58" s="114" t="s">
-        <v>292</v>
-      </c>
-      <c r="J58" s="105"/>
-    </row>
-    <row r="59" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D59" s="104"/>
-      <c r="E59" s="109">
-        <f>SUM(B6:E6)</f>
-        <v>1198000</v>
-      </c>
-      <c r="F59" s="111">
-        <f>SUM(F6:L6)</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="113">
-        <f>SUM(M6:S6)</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="117">
-        <f>SUM(T6:Z6)</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="115">
-        <f>SUM(AA6:AF6)</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="15"/>
-    </row>
-    <row r="60" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107"/>
-      <c r="H60" s="109" t="s">
-        <v>269</v>
-      </c>
-      <c r="I60" s="109">
-        <f>SUM(E59:I59)</f>
-        <v>1198000</v>
-      </c>
-    </row>
-    <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H61" s="109" t="s">
-        <v>271</v>
-      </c>
-      <c r="I61" s="109">
+      <c r="I61" s="106">
         <f>AVERAGE(E59:I59)</f>
-        <v>239600</v>
+        <v>456600</v>
       </c>
     </row>
     <row r="62" spans="4:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D81" s="9">
         <v>339170</v>
@@ -5426,650 +5553,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <f>SUM(B2:B5)</f>
-        <v>1050000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="125">
-        <v>44742</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="125"/>
-      <c r="B3" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3">
-        <v>480000</v>
-      </c>
-      <c r="D3">
-        <v>-262000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="124">
-        <v>44743</v>
-      </c>
-      <c r="B4" s="99" t="str">
-        <f>B2</f>
-        <v>카드</v>
-      </c>
-      <c r="C4">
-        <v>1600000</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="124"/>
-      <c r="B5" s="100" t="str">
-        <f t="shared" ref="B5:B63" si="0">B3</f>
-        <v>현찰</v>
-      </c>
-      <c r="C5">
-        <v>160000</v>
-      </c>
-      <c r="D5">
-        <v>-580000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="124">
-        <v>44744</v>
-      </c>
-      <c r="B6" s="99" t="str">
-        <f>B4</f>
-        <v>카드</v>
-      </c>
-      <c r="C6">
-        <v>170000</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="124"/>
-      <c r="B7" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-      <c r="C7">
-        <v>65000</v>
-      </c>
-      <c r="D7">
-        <v>-92000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="124">
-        <v>44745</v>
-      </c>
-      <c r="B8" s="99" t="str">
-        <f>B6</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="124"/>
-      <c r="B9" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="124">
-        <v>44746</v>
-      </c>
-      <c r="B10" s="99" t="str">
-        <f>B8</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="124"/>
-      <c r="B11" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="124">
-        <v>44747</v>
-      </c>
-      <c r="B12" s="99" t="str">
-        <f>B10</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="124"/>
-      <c r="B13" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="124">
-        <v>44748</v>
-      </c>
-      <c r="B14" s="99" t="str">
-        <f>B12</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="124"/>
-      <c r="B15" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="124">
-        <v>44749</v>
-      </c>
-      <c r="B16" s="99" t="str">
-        <f>B14</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="124"/>
-      <c r="B17" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="124">
-        <v>44750</v>
-      </c>
-      <c r="B18" s="99" t="str">
-        <f>B16</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="124"/>
-      <c r="B19" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="124">
-        <v>44751</v>
-      </c>
-      <c r="B20" s="99" t="str">
-        <f>B18</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="124"/>
-      <c r="B21" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="124">
-        <v>44752</v>
-      </c>
-      <c r="B22" s="99" t="str">
-        <f>B20</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="124"/>
-      <c r="B23" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="124">
-        <v>44753</v>
-      </c>
-      <c r="B24" s="99" t="str">
-        <f>B22</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="124"/>
-      <c r="B25" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="124">
-        <v>44754</v>
-      </c>
-      <c r="B26" s="99" t="str">
-        <f>B24</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="124"/>
-      <c r="B27" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="124">
-        <v>44755</v>
-      </c>
-      <c r="B28" s="99" t="str">
-        <f>B26</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="124"/>
-      <c r="B29" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="124">
-        <v>44756</v>
-      </c>
-      <c r="B30" s="99" t="str">
-        <f>B28</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="124"/>
-      <c r="B31" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="124">
-        <v>44757</v>
-      </c>
-      <c r="B32" s="99" t="str">
-        <f>B30</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="124"/>
-      <c r="B33" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="124">
-        <v>44758</v>
-      </c>
-      <c r="B34" s="99" t="str">
-        <f>B32</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="124"/>
-      <c r="B35" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="124">
-        <v>44759</v>
-      </c>
-      <c r="B36" s="99" t="str">
-        <f>B34</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="124"/>
-      <c r="B37" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="124">
-        <v>44760</v>
-      </c>
-      <c r="B38" s="99" t="str">
-        <f>B36</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="124"/>
-      <c r="B39" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="124">
-        <v>44761</v>
-      </c>
-      <c r="B40" s="99" t="str">
-        <f>B38</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="124"/>
-      <c r="B41" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="124">
-        <v>44762</v>
-      </c>
-      <c r="B42" s="99" t="str">
-        <f>B40</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="124"/>
-      <c r="B43" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="124">
-        <v>44763</v>
-      </c>
-      <c r="B44" s="99" t="str">
-        <f>B42</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="124"/>
-      <c r="B45" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="124">
-        <v>44764</v>
-      </c>
-      <c r="B46" s="99" t="str">
-        <f>B44</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="124"/>
-      <c r="B47" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="124">
-        <v>44765</v>
-      </c>
-      <c r="B48" s="99" t="str">
-        <f>B46</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="124"/>
-      <c r="B49" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="124">
-        <v>44766</v>
-      </c>
-      <c r="B50" s="99" t="str">
-        <f>B48</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="124"/>
-      <c r="B51" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="124">
-        <v>44767</v>
-      </c>
-      <c r="B52" s="99" t="str">
-        <f>B50</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="124"/>
-      <c r="B53" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="124">
-        <v>44768</v>
-      </c>
-      <c r="B54" s="99" t="str">
-        <f>B52</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="124"/>
-      <c r="B55" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="124">
-        <v>44769</v>
-      </c>
-      <c r="B56" s="99" t="str">
-        <f>B54</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="124"/>
-      <c r="B57" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="124">
-        <v>44770</v>
-      </c>
-      <c r="B58" s="99" t="str">
-        <f>B56</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="124"/>
-      <c r="B59" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="124">
-        <v>44771</v>
-      </c>
-      <c r="B60" s="99" t="str">
-        <f>B58</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="124"/>
-      <c r="B61" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="124">
-        <v>44772</v>
-      </c>
-      <c r="B62" s="99" t="str">
-        <f>B60</f>
-        <v>카드</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="124"/>
-      <c r="B63" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>현찰</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="98"/>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6097,14 +5587,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -6142,13 +5632,13 @@
       <c r="G1" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -6165,16 +5655,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="126" t="s">
+      <c r="H2" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="123" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -6190,14 +5680,14 @@
       <c r="G3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="128"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="129"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="130"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="25" t="s">
         <v>122</v>
       </c>
@@ -6207,14 +5697,14 @@
       <c r="G4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="128"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="131"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -6224,11 +5714,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="128"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="129"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -6245,11 +5735,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="128"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="129"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -6270,11 +5760,11 @@
       <c r="G7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="128"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="129"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -6293,11 +5783,11 @@
       <c r="G8" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="126"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="128"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="129"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -6310,11 +5800,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="128"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="129"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -6329,11 +5819,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="128"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="129"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -6342,11 +5832,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="128"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="129"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -6355,11 +5845,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="128"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="129"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -6368,11 +5858,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="128"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="129"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -6381,11 +5871,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="128"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="129"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -6886,12 +6376,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -6901,6 +6385,12 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6908,7 +6398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6942,14 +6432,14 @@
       <c r="E1" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="135"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -7296,4 +6786,57 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M31" sqref="L31:M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="319">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1118,10 +1118,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2022-08-03 구매</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1183,6 +1179,62 @@
   </si>
   <si>
     <t>영걸형손님,아베크중국1팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인손님 30분만놀고감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 4일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 7일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 7일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차 7일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5주차 7일 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금으로 교환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱계좌에서 34만원뺌, 2만원뺀찌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱계좌에서 90만원 뽑음 ,NoShow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아베크만3팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoSHow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분빠꾸,10분빠꾸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전부카드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1711,7 +1763,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1927,6 +1979,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1939,15 +2000,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1956,6 +2008,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2449,7 +2505,7 @@
   </sheetPr>
   <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="U7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -4349,8 +4405,8 @@
   </sheetPr>
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4497,19 +4553,15 @@
       </c>
       <c r="H3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66000</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <f>SUM(J12,J14,J16,J18,J20,J22,J24,J25,J32,J33,J34)</f>
-        <v>0</v>
+        <f>SUM(I12,I14,I16,I18,I20,I22)</f>
+        <v>1804000</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(K12,K14,K16,K18,K20,K22,K24,K25,K32,K33,K34)</f>
+        <v>233200</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="0"/>
@@ -4521,7 +4573,7 @@
       </c>
       <c r="N3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2019200</v>
       </c>
       <c r="O3" s="5">
         <f t="shared" si="0"/>
@@ -4598,7 +4650,7 @@
     </row>
     <row r="4" spans="1:35" s="119" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="118" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" s="119">
         <v>0</v>
@@ -4613,9 +4665,31 @@
         <f>160000+320000</f>
         <v>480000</v>
       </c>
+      <c r="F4" s="119">
+        <v>0</v>
+      </c>
       <c r="G4" s="119">
         <v>480000</v>
       </c>
+      <c r="H4" s="119">
+        <v>41000</v>
+      </c>
+      <c r="I4" s="119">
+        <f>200000-20000</f>
+        <v>180000</v>
+      </c>
+      <c r="K4" s="119">
+        <v>0</v>
+      </c>
+      <c r="L4" s="119">
+        <v>0</v>
+      </c>
+      <c r="M4" s="119">
+        <v>0</v>
+      </c>
+      <c r="N4" s="119">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
@@ -4633,7 +4707,28 @@
       <c r="E5" s="6">
         <v>0</v>
       </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
       <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>45000</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4658,7 +4753,7 @@
         <v>480000</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" ref="E6:AF6" si="1">F3+F4+F5</f>
+        <f t="shared" ref="F6:AF6" si="1">F3+F4+F5</f>
         <v>0</v>
       </c>
       <c r="G6" s="7">
@@ -4667,23 +4762,19 @@
       </c>
       <c r="H6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>107000</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1984000</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="K6" si="2">K3+K4+K5</f>
+        <v>233200</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="1"/>
@@ -4691,7 +4782,7 @@
       </c>
       <c r="N6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2019200</v>
       </c>
       <c r="O6" s="7">
         <f t="shared" si="1"/>
@@ -4779,7 +4870,7 @@
         <v>410000</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" ref="D7:AF7" si="2">D6+D8</f>
+        <f t="shared" ref="D7:AF7" si="3">D6+D8</f>
         <v>273000</v>
       </c>
       <c r="E7" s="8">
@@ -4787,43 +4878,39 @@
         <v>228000</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>341000</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>87000</v>
       </c>
       <c r="I7" s="8">
         <f>I6+I8</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1146000</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="K7" si="4">K6+K8</f>
+        <v>209200</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>45000</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1127200</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P7" s="8">
@@ -4831,67 +4918,67 @@
         <v>0</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4900,7 +4987,7 @@
         <v>195</v>
       </c>
       <c r="B8" s="18">
-        <f t="shared" ref="B8:AF8" si="3">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
+        <f t="shared" ref="B8:AF8" si="5">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
         <v>0</v>
       </c>
       <c r="C8" s="18">
@@ -4908,7 +4995,7 @@
         <v>-253000</v>
       </c>
       <c r="D8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-252000</v>
       </c>
       <c r="E8" s="18">
@@ -4916,111 +5003,107 @@
         <v>-252000</v>
       </c>
       <c r="F8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-264000</v>
       </c>
       <c r="H8" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-20000</v>
       </c>
       <c r="I8" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(I13,I15,I17,I19,I21,I23)</f>
+        <v>-838000</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="K8" si="6">SUM(K13,K15,K17,K19,K21,K23)</f>
+        <v>-24000</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J8:AF8" si="7">SUM(L13,L15,L17,L19,L21,L23)</f>
         <v>0</v>
       </c>
       <c r="M8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N8" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-892000</v>
       </c>
       <c r="O8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S8" s="18">
-        <f>SUM(S13,S15,S17,S19,S21,S23,S23)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T8" s="18">
-        <f>SUM(T13,T15,T17,T19,T21,T23,T23)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V8" s="18">
-        <f>SUM(V13,V15,V17,V19,V21,V23,V23)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA8" s="18">
-        <f>SUM(AA13,AA15,AA17,AA19,AA21,AA23,AA23)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5062,6 +5145,17 @@
         <f>-12000-12000-240000</f>
         <v>-264000</v>
       </c>
+      <c r="H13" s="11">
+        <v>-20000</v>
+      </c>
+      <c r="I13" s="11">
+        <f>-12000-12000</f>
+        <v>-24000</v>
+      </c>
+      <c r="N13" s="11">
+        <f>-24000-12000</f>
+        <v>-36000</v>
+      </c>
       <c r="AA13" s="10"/>
     </row>
     <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -5069,13 +5163,25 @@
         <v>7</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D14" s="12">
         <v>45000</v>
       </c>
       <c r="G14" s="12">
         <v>125000</v>
+      </c>
+      <c r="H14" s="12">
+        <v>66000</v>
+      </c>
+      <c r="I14" s="12">
+        <v>700000</v>
+      </c>
+      <c r="K14" s="12">
+        <v>51700</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1298000</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -5093,15 +5199,29 @@
       <c r="E15" s="10">
         <v>-12000</v>
       </c>
+      <c r="I15" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="N15" s="10">
+        <v>-26000</v>
+      </c>
     </row>
     <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="I16" s="77"/>
+        <v>291</v>
+      </c>
+      <c r="I16" s="77">
+        <v>704000</v>
+      </c>
+      <c r="K16" s="12">
+        <v>132000</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>317</v>
+      </c>
       <c r="Z16" s="77"/>
     </row>
     <row r="17" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -5111,20 +5231,46 @@
       <c r="C17" s="10">
         <v>-12000</v>
       </c>
+      <c r="I17" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="K17" s="10">
+        <f>-12000-12000</f>
+        <v>-24000</v>
+      </c>
+      <c r="N17" s="10">
+        <f>-440000-100000</f>
+        <v>-540000</v>
+      </c>
     </row>
     <row r="18" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="I18" s="12">
+        <v>244000</v>
+      </c>
+      <c r="K18" s="12">
+        <v>49500</v>
+      </c>
+      <c r="N18" s="12">
+        <v>374700</v>
       </c>
     </row>
     <row r="19" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="76"/>
+      <c r="I19" s="76">
+        <f>-80000-80000-80000-40000</f>
+        <v>-280000</v>
+      </c>
+      <c r="N19" s="10">
+        <v>-110000</v>
+      </c>
     </row>
     <row r="20" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
@@ -5133,21 +5279,44 @@
       <c r="C20" s="12">
         <v>33000</v>
       </c>
+      <c r="I20" s="12">
+        <v>156000</v>
+      </c>
+      <c r="N20" s="12">
+        <v>176000</v>
+      </c>
     </row>
     <row r="21" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="58" t="s">
         <v>11</v>
       </c>
+      <c r="I21" s="10">
+        <f>-80000-80000-80000-80000</f>
+        <v>-320000</v>
+      </c>
+      <c r="N21" s="10">
+        <v>-80000</v>
+      </c>
     </row>
     <row r="22" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
         <v>12</v>
       </c>
+      <c r="N22" s="12">
+        <v>170500</v>
+      </c>
     </row>
     <row r="23" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
         <v>13</v>
       </c>
+      <c r="I23" s="10">
+        <f>-80000-80000-30000</f>
+        <v>-190000</v>
+      </c>
+      <c r="N23" s="10">
+        <v>-100000</v>
+      </c>
     </row>
     <row r="24" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="61"/>
@@ -5160,21 +5329,41 @@
         <v>17</v>
       </c>
       <c r="B26" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>295</v>
-      </c>
       <c r="D26" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="G26" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="G26" s="21" t="s">
+      <c r="H26" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="J26" s="81"/>
+      <c r="I26" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="J26" s="81" t="s">
+        <v>313</v>
+      </c>
+      <c r="K26" s="81" t="s">
+        <v>314</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>318</v>
+      </c>
       <c r="R26" s="84"/>
       <c r="Z26" s="116"/>
     </row>
@@ -5217,7 +5406,7 @@
       </c>
       <c r="B32" s="83">
         <f>SUM(B5:AF5)</f>
-        <v>490000</v>
+        <v>535000</v>
       </c>
       <c r="C32" s="13"/>
       <c r="T32" s="1"/>
@@ -5237,7 +5426,7 @@
       </c>
       <c r="B33" s="75">
         <f>B34-B31</f>
-        <v>203830</v>
+        <v>4326230</v>
       </c>
       <c r="D33" s="15"/>
       <c r="T33" s="1"/>
@@ -5257,7 +5446,7 @@
       </c>
       <c r="B34" s="14">
         <f>500000-D81+SUM(B3:AF3)</f>
-        <v>363830</v>
+        <v>4486230</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -5278,11 +5467,11 @@
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>2283000</v>
+        <v>6671400</v>
       </c>
       <c r="C35" s="15">
         <f>B35*0.1</f>
-        <v>228300</v>
+        <v>667140</v>
       </c>
       <c r="D35" s="15"/>
       <c r="T35" s="1"/>
@@ -5302,7 +5491,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>1262000</v>
+        <v>3876400</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -5323,7 +5512,7 @@
       </c>
       <c r="B37" s="48">
         <f>SUM(B8:AF8)</f>
-        <v>-1021000</v>
+        <v>-2795000</v>
       </c>
       <c r="C37" s="15"/>
       <c r="Y37" s="9"/>
@@ -5345,10 +5534,17 @@
         <v>193</v>
       </c>
       <c r="B39" s="94">
-        <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))</f>
-        <v>555000</v>
-      </c>
-      <c r="C39" s="15"/>
+        <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))+340000+900000</f>
+        <v>66000</v>
+      </c>
+      <c r="C39" s="133">
+        <f>34+90</f>
+        <v>124</v>
+      </c>
+      <c r="D39" s="9">
+        <f>B39-66000</f>
+        <v>0</v>
+      </c>
       <c r="Y39" s="9"/>
       <c r="AE39" s="9"/>
     </row>
@@ -5357,14 +5553,20 @@
         <v>197</v>
       </c>
       <c r="B40" s="92">
-        <f>5291060+SUM(B4:AF4)</f>
-        <v>6881060</v>
-      </c>
-      <c r="C40" s="9"/>
+        <f>5291060+SUM(B4:AF4)-340000-900000</f>
+        <v>5862060</v>
+      </c>
+      <c r="C40" s="7">
+        <f>-34-90</f>
+        <v>-124</v>
+      </c>
       <c r="Y40" s="9"/>
       <c r="AE40" s="9"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C41" s="134" t="s">
+        <v>311</v>
+      </c>
       <c r="Y41" s="9"/>
       <c r="AE41" s="9"/>
     </row>
@@ -5374,7 +5576,7 @@
       </c>
       <c r="B42" s="86">
         <f>SUM(B7:AF7)</f>
-        <v>1262000</v>
+        <v>3876400</v>
       </c>
       <c r="Y42" s="9"/>
       <c r="AE42" s="9"/>
@@ -5385,7 +5587,7 @@
       </c>
       <c r="B43" s="90">
         <f>B33+B39+B40</f>
-        <v>7639890</v>
+        <v>10254290</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
@@ -5470,19 +5672,19 @@
     <row r="58" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D58" s="101"/>
       <c r="E58" s="107" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="F58" s="109" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="G58" s="113" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="H58" s="111" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="I58" s="111" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="J58" s="102"/>
     </row>
@@ -5494,11 +5696,11 @@
       </c>
       <c r="F59" s="108">
         <f>SUM(F6:L6)</f>
-        <v>605000</v>
+        <v>2974200</v>
       </c>
       <c r="G59" s="110">
         <f>SUM(M6:S6)</f>
-        <v>0</v>
+        <v>2019200</v>
       </c>
       <c r="H59" s="114">
         <f>SUM(T6:Z6)</f>
@@ -5519,7 +5721,7 @@
       </c>
       <c r="I60" s="106">
         <f>SUM(E59:I59)</f>
-        <v>2283000</v>
+        <v>6671400</v>
       </c>
     </row>
     <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5528,13 +5730,13 @@
       </c>
       <c r="I61" s="106">
         <f>AVERAGE(E59:I59)</f>
-        <v>456600</v>
+        <v>1334280</v>
       </c>
     </row>
     <row r="62" spans="4:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D81" s="9">
         <v>339170</v>
@@ -5632,13 +5834,13 @@
       <c r="G1" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="126" t="s">
+      <c r="H1" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -5655,16 +5857,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="127" t="s">
+      <c r="H2" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="129"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="126" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -5680,14 +5882,14 @@
       <c r="G3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="127"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="125"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="124"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="25" t="s">
         <v>122</v>
       </c>
@@ -5697,14 +5899,14 @@
       <c r="G4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="127"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="129"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="125"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="125"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -5714,11 +5916,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="129"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="125"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -5735,11 +5937,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="129"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="125"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5760,11 +5962,11 @@
       <c r="G7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="129"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="125"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -5783,11 +5985,11 @@
       <c r="G8" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="129"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -5800,11 +6002,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="129"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="125"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -5819,11 +6021,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="129"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -5832,11 +6034,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="129"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="125"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -5845,11 +6047,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="129"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -5858,11 +6060,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="129"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="125"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -5871,11 +6073,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="129"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -6376,6 +6578,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -6385,12 +6593,6 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6792,7 +6994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M31" sqref="L31:M31"/>
     </sheetView>
   </sheetViews>
@@ -6800,37 +7002,37 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="324">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1206,10 +1206,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>현금으로 교환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>현욱계좌에서 34만원뺌, 2만원뺀찌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1235,6 +1231,30 @@
   </si>
   <si>
     <t>전부카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoShow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱계좌에서 90 출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 현금으로 교환 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일,치킨,피자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1763,7 +1783,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1970,6 +1990,10 @@
     <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1978,15 +2002,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2000,6 +2015,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2009,8 +2033,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2505,8 +2528,8 @@
   </sheetPr>
   <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView topLeftCell="U7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4305,13 +4328,13 @@
     </row>
     <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D56" s="101"/>
-      <c r="E56" s="120" t="s">
+      <c r="E56" s="122" t="s">
         <v>266</v>
       </c>
-      <c r="F56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="122"/>
+      <c r="F56" s="123"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="124"/>
       <c r="J56" s="102"/>
     </row>
     <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4405,8 +4428,8 @@
   </sheetPr>
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4585,7 +4608,7 @@
       </c>
       <c r="Q3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90200</v>
       </c>
       <c r="R3" s="5">
         <f t="shared" si="0"/>
@@ -4690,6 +4713,9 @@
       <c r="N4" s="119">
         <v>0</v>
       </c>
+      <c r="Q4" s="119">
+        <v>1200000</v>
+      </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
@@ -4730,6 +4756,9 @@
       </c>
       <c r="N5" s="6">
         <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -4794,7 +4823,7 @@
       </c>
       <c r="Q6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1320200</v>
       </c>
       <c r="R6" s="7">
         <f t="shared" si="1"/>
@@ -4919,7 +4948,7 @@
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>654200</v>
       </c>
       <c r="R7" s="8">
         <f t="shared" si="3"/>
@@ -4987,7 +5016,7 @@
         <v>195</v>
       </c>
       <c r="B8" s="18">
-        <f t="shared" ref="B8:AF8" si="5">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
+        <f t="shared" ref="B8:H8" si="5">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
         <v>0</v>
       </c>
       <c r="C8" s="18">
@@ -5023,7 +5052,7 @@
         <v>-24000</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" ref="J8:AF8" si="7">SUM(L13,L15,L17,L19,L21,L23)</f>
+        <f t="shared" ref="L8:AF8" si="7">SUM(L13,L15,L17,L19,L21,L23)</f>
         <v>0</v>
       </c>
       <c r="M8" s="18">
@@ -5044,7 +5073,7 @@
       </c>
       <c r="Q8" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-666000</v>
       </c>
       <c r="R8" s="18">
         <f t="shared" si="7"/>
@@ -5183,6 +5212,9 @@
       <c r="N14" s="12">
         <v>1298000</v>
       </c>
+      <c r="Q14" s="12">
+        <v>90200</v>
+      </c>
     </row>
     <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
@@ -5205,6 +5237,9 @@
       <c r="N15" s="10">
         <v>-26000</v>
       </c>
+      <c r="Q15" s="10">
+        <v>-600000</v>
+      </c>
     </row>
     <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
@@ -5220,7 +5255,10 @@
         <v>132000</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="Z16" s="77"/>
     </row>
@@ -5242,6 +5280,10 @@
         <f>-440000-100000</f>
         <v>-540000</v>
       </c>
+      <c r="Q17" s="10">
+        <f>-12000-12000-30000</f>
+        <v>-54000</v>
+      </c>
     </row>
     <row r="18" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
@@ -5259,6 +5301,9 @@
       <c r="N18" s="12">
         <v>374700</v>
       </c>
+      <c r="Q18" s="12" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="19" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="58" t="s">
@@ -5271,6 +5316,9 @@
       <c r="N19" s="10">
         <v>-110000</v>
       </c>
+      <c r="Q19" s="10">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="20" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
@@ -5347,22 +5395,28 @@
         <v>305</v>
       </c>
       <c r="I26" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="J26" s="81" t="s">
         <v>312</v>
       </c>
-      <c r="J26" s="81" t="s">
+      <c r="K26" s="81" t="s">
         <v>313</v>
       </c>
-      <c r="K26" s="81" t="s">
+      <c r="L26" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="M26" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="M26" s="21" t="s">
-        <v>316</v>
-      </c>
       <c r="N26" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="O26" s="21" t="s">
         <v>318</v>
+      </c>
+      <c r="P26" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="R26" s="84"/>
       <c r="Z26" s="116"/>
@@ -5406,7 +5460,7 @@
       </c>
       <c r="B32" s="83">
         <f>SUM(B5:AF5)</f>
-        <v>535000</v>
+        <v>565000</v>
       </c>
       <c r="C32" s="13"/>
       <c r="T32" s="1"/>
@@ -5426,7 +5480,7 @@
       </c>
       <c r="B33" s="75">
         <f>B34-B31</f>
-        <v>4326230</v>
+        <v>4416430</v>
       </c>
       <c r="D33" s="15"/>
       <c r="T33" s="1"/>
@@ -5446,7 +5500,7 @@
       </c>
       <c r="B34" s="14">
         <f>500000-D81+SUM(B3:AF3)</f>
-        <v>4486230</v>
+        <v>4576430</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -5467,11 +5521,11 @@
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>6671400</v>
+        <v>7991600</v>
       </c>
       <c r="C35" s="15">
         <f>B35*0.1</f>
-        <v>667140</v>
+        <v>799160</v>
       </c>
       <c r="D35" s="15"/>
       <c r="T35" s="1"/>
@@ -5491,7 +5545,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>3876400</v>
+        <v>4530600</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -5512,7 +5566,7 @@
       </c>
       <c r="B37" s="48">
         <f>SUM(B8:AF8)</f>
-        <v>-2795000</v>
+        <v>-3461000</v>
       </c>
       <c r="C37" s="15"/>
       <c r="Y37" s="9"/>
@@ -5534,16 +5588,15 @@
         <v>193</v>
       </c>
       <c r="B39" s="94">
-        <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))+340000+900000</f>
-        <v>66000</v>
-      </c>
-      <c r="C39" s="133">
-        <f>34+90</f>
-        <v>124</v>
-      </c>
-      <c r="D39" s="9">
-        <f>B39-66000</f>
-        <v>0</v>
+        <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))+340000+900000+900000</f>
+        <v>330000</v>
+      </c>
+      <c r="C39" s="120">
+        <f>34+90+90</f>
+        <v>214</v>
+      </c>
+      <c r="D39" s="121" t="s">
+        <v>321</v>
       </c>
       <c r="Y39" s="9"/>
       <c r="AE39" s="9"/>
@@ -5553,19 +5606,23 @@
         <v>197</v>
       </c>
       <c r="B40" s="92">
-        <f>5291060+SUM(B4:AF4)-340000-900000</f>
-        <v>5862060</v>
+        <f>5291060+SUM(B4:AF4)-340000-900000-900000</f>
+        <v>6162060</v>
       </c>
       <c r="C40" s="7">
-        <f>-34-90</f>
-        <v>-124</v>
+        <f>-34-90-90</f>
+        <v>-214</v>
+      </c>
+      <c r="D40" s="135">
+        <f>(C39/30)*1800</f>
+        <v>12840</v>
       </c>
       <c r="Y40" s="9"/>
       <c r="AE40" s="9"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C41" s="134" t="s">
-        <v>311</v>
+      <c r="C41" s="121" t="s">
+        <v>320</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="AE41" s="9"/>
@@ -5576,7 +5633,7 @@
       </c>
       <c r="B42" s="86">
         <f>SUM(B7:AF7)</f>
-        <v>3876400</v>
+        <v>4530600</v>
       </c>
       <c r="Y42" s="9"/>
       <c r="AE42" s="9"/>
@@ -5587,7 +5644,7 @@
       </c>
       <c r="B43" s="90">
         <f>B33+B39+B40</f>
-        <v>10254290</v>
+        <v>10908490</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
@@ -5660,13 +5717,13 @@
     </row>
     <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="101"/>
-      <c r="E57" s="120" t="s">
+      <c r="E57" s="122" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="121"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="122"/>
+      <c r="F57" s="123"/>
+      <c r="G57" s="123"/>
+      <c r="H57" s="123"/>
+      <c r="I57" s="124"/>
       <c r="J57" s="102"/>
     </row>
     <row r="58" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5700,7 +5757,7 @@
       </c>
       <c r="G59" s="110">
         <f>SUM(M6:S6)</f>
-        <v>2019200</v>
+        <v>3339400</v>
       </c>
       <c r="H59" s="114">
         <f>SUM(T6:Z6)</f>
@@ -5721,7 +5778,7 @@
       </c>
       <c r="I60" s="106">
         <f>SUM(E59:I59)</f>
-        <v>6671400</v>
+        <v>7991600</v>
       </c>
     </row>
     <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5730,7 +5787,7 @@
       </c>
       <c r="I61" s="106">
         <f>AVERAGE(E59:I59)</f>
-        <v>1334280</v>
+        <v>1598320</v>
       </c>
     </row>
     <row r="62" spans="4:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5834,13 +5891,13 @@
       <c r="G1" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="129" t="s">
+      <c r="H1" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -5857,16 +5914,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="131"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="125" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -5882,14 +5939,14 @@
       <c r="G3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="125"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="131"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="127"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="25" t="s">
         <v>122</v>
       </c>
@@ -5899,14 +5956,14 @@
       <c r="G4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="125"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="128"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -5916,11 +5973,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="125"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="131"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -5937,11 +5994,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="125"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5962,11 +6019,11 @@
       <c r="G7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="125"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="131"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -5985,11 +6042,11 @@
       <c r="G8" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="131"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -6002,11 +6059,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="125"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="131"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -6021,11 +6078,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="131"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -6034,11 +6091,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="131"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -6047,11 +6104,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="131"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -6060,11 +6117,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="131"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -6073,11 +6130,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="131"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -6578,12 +6635,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -6593,6 +6644,12 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6634,14 +6691,14 @@
       <c r="E1" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="132"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="134"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="325">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1255,6 +1255,10 @@
   </si>
   <si>
     <t>과일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5시간, 아베크2팀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1994,6 +1998,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2002,6 +2009,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2015,15 +2031,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2032,9 +2039,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4328,13 +4332,13 @@
     </row>
     <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D56" s="101"/>
-      <c r="E56" s="122" t="s">
+      <c r="E56" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="F56" s="123"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="125"/>
       <c r="J56" s="102"/>
     </row>
     <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4429,7 +4433,7 @@
   <dimension ref="A1:AI81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5418,6 +5422,9 @@
       <c r="P26" s="21" t="s">
         <v>319</v>
       </c>
+      <c r="Q26" s="21" t="s">
+        <v>324</v>
+      </c>
       <c r="R26" s="84"/>
       <c r="Z26" s="116"/>
     </row>
@@ -5613,7 +5620,7 @@
         <f>-34-90-90</f>
         <v>-214</v>
       </c>
-      <c r="D40" s="135">
+      <c r="D40" s="122">
         <f>(C39/30)*1800</f>
         <v>12840</v>
       </c>
@@ -5717,13 +5724,13 @@
     </row>
     <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="101"/>
-      <c r="E57" s="122" t="s">
+      <c r="E57" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="123"/>
-      <c r="G57" s="123"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="125"/>
       <c r="J57" s="102"/>
     </row>
     <row r="58" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5891,13 +5898,13 @@
       <c r="G1" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
@@ -5914,16 +5921,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="126" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="131"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="129" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -5939,14 +5946,14 @@
       <c r="G3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="129"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="131"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="128"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="126"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="25" t="s">
         <v>122</v>
       </c>
@@ -5956,14 +5963,14 @@
       <c r="G4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="131"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="128"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="127"/>
+      <c r="B5" s="131"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
@@ -5973,11 +5980,11 @@
       <c r="G5" s="25">
         <v>707266</v>
       </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="131"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="128"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
@@ -5994,11 +6001,11 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="131"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="128"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -6019,11 +6026,11 @@
       <c r="G7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="131"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="128"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -6042,11 +6049,11 @@
       <c r="G8" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="131"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="128"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
@@ -6059,11 +6066,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="131"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="128"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
@@ -6078,11 +6085,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="131"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="128"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
@@ -6091,11 +6098,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="131"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="128"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
@@ -6104,11 +6111,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="131"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="128"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -6117,11 +6124,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="131"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="128"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
@@ -6130,11 +6137,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="128"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="33"/>
@@ -6635,6 +6642,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -6644,12 +6657,6 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6691,14 +6698,14 @@
       <c r="E1" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="133" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="135"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="326">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1259,6 +1259,10 @@
   </si>
   <si>
     <t>5시간, 아베크2팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드깡 10만</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2180,6 +2184,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>506906</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>137367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10406063"/>
+          <a:ext cx="2400000" cy="5971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4432,8 +4474,8 @@
   </sheetPr>
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4616,11 +4658,11 @@
       </c>
       <c r="R3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="S3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="T3" s="5">
         <f t="shared" si="0"/>
@@ -4764,6 +4806,9 @@
       <c r="Q5" s="6">
         <v>30000</v>
       </c>
+      <c r="R5" s="6">
+        <v>320000</v>
+      </c>
     </row>
     <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
@@ -4831,11 +4876,11 @@
       </c>
       <c r="R6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>430000</v>
       </c>
       <c r="S6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="T6" s="7">
         <f t="shared" si="1"/>
@@ -4956,11 +5001,11 @@
       </c>
       <c r="R7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>158000</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="3"/>
@@ -5081,11 +5126,11 @@
       </c>
       <c r="R8" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-272000</v>
       </c>
       <c r="S8" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-80000</v>
       </c>
       <c r="T8" s="18">
         <f t="shared" si="7"/>
@@ -5219,6 +5264,12 @@
       <c r="Q14" s="12">
         <v>90200</v>
       </c>
+      <c r="R14" s="12">
+        <v>110000</v>
+      </c>
+      <c r="S14" s="12">
+        <v>176000</v>
+      </c>
     </row>
     <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
@@ -5244,6 +5295,12 @@
       <c r="Q15" s="10">
         <v>-600000</v>
       </c>
+      <c r="R15" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="S15" s="10">
+        <v>-80000</v>
+      </c>
     </row>
     <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
@@ -5264,6 +5321,9 @@
       <c r="Q16" s="12" t="s">
         <v>322</v>
       </c>
+      <c r="S16" s="12">
+        <v>44000</v>
+      </c>
       <c r="Z16" s="77"/>
     </row>
     <row r="17" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -5288,6 +5348,9 @@
         <f>-12000-12000-30000</f>
         <v>-54000</v>
       </c>
+      <c r="R17" s="10">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="18" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
@@ -5323,6 +5386,9 @@
       <c r="Q19" s="10">
         <v>-12000</v>
       </c>
+      <c r="R19" s="10">
+        <v>-160000</v>
+      </c>
     </row>
     <row r="20" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
@@ -5425,7 +5491,9 @@
       <c r="Q26" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="R26" s="84"/>
+      <c r="R26" s="84" t="s">
+        <v>325</v>
+      </c>
       <c r="Z26" s="116"/>
     </row>
     <row r="27" spans="1:30" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -5467,7 +5535,7 @@
       </c>
       <c r="B32" s="83">
         <f>SUM(B5:AF5)</f>
-        <v>565000</v>
+        <v>885000</v>
       </c>
       <c r="C32" s="13"/>
       <c r="T32" s="1"/>
@@ -5487,7 +5555,7 @@
       </c>
       <c r="B33" s="75">
         <f>B34-B31</f>
-        <v>4416430</v>
+        <v>4746430</v>
       </c>
       <c r="D33" s="15"/>
       <c r="T33" s="1"/>
@@ -5507,7 +5575,7 @@
       </c>
       <c r="B34" s="14">
         <f>500000-D81+SUM(B3:AF3)</f>
-        <v>4576430</v>
+        <v>4906430</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -5528,11 +5596,11 @@
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>7991600</v>
+        <v>8641600</v>
       </c>
       <c r="C35" s="15">
         <f>B35*0.1</f>
-        <v>799160</v>
+        <v>864160</v>
       </c>
       <c r="D35" s="15"/>
       <c r="T35" s="1"/>
@@ -5552,7 +5620,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>4530600</v>
+        <v>4828600</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -5573,7 +5641,7 @@
       </c>
       <c r="B37" s="48">
         <f>SUM(B8:AF8)</f>
-        <v>-3461000</v>
+        <v>-3813000</v>
       </c>
       <c r="C37" s="15"/>
       <c r="Y37" s="9"/>
@@ -5596,7 +5664,7 @@
       </c>
       <c r="B39" s="94">
         <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))+340000+900000+900000</f>
-        <v>330000</v>
+        <v>298000</v>
       </c>
       <c r="C39" s="120">
         <f>34+90+90</f>
@@ -5640,7 +5708,7 @@
       </c>
       <c r="B42" s="86">
         <f>SUM(B7:AF7)</f>
-        <v>4530600</v>
+        <v>4828600</v>
       </c>
       <c r="Y42" s="9"/>
       <c r="AE42" s="9"/>
@@ -5651,7 +5719,7 @@
       </c>
       <c r="B43" s="90">
         <f>B33+B39+B40</f>
-        <v>10908490</v>
+        <v>11206490</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
@@ -5665,7 +5733,7 @@
         <v>287</v>
       </c>
       <c r="B45" s="19">
-        <v>758090</v>
+        <v>867910</v>
       </c>
       <c r="Y45" s="9"/>
       <c r="AE45" s="9"/>
@@ -5686,7 +5754,7 @@
       </c>
       <c r="B47" s="117">
         <f>SUM(B45:B46)</f>
-        <v>1558090</v>
+        <v>1667910</v>
       </c>
       <c r="Y47" s="9"/>
       <c r="AE47" s="9"/>
@@ -5764,7 +5832,7 @@
       </c>
       <c r="G59" s="110">
         <f>SUM(M6:S6)</f>
-        <v>3339400</v>
+        <v>3989400</v>
       </c>
       <c r="H59" s="114">
         <f>SUM(T6:Z6)</f>
@@ -5785,7 +5853,7 @@
       </c>
       <c r="I60" s="106">
         <f>SUM(E59:I59)</f>
-        <v>7991600</v>
+        <v>8641600</v>
       </c>
     </row>
     <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5794,7 +5862,7 @@
       </c>
       <c r="I61" s="106">
         <f>AVERAGE(E59:I59)</f>
-        <v>1598320</v>
+        <v>1728320</v>
       </c>
     </row>
     <row r="62" spans="4:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32D5D56-D338-4361-BB8E-2908A279A223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17040" windowHeight="6300" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
@@ -14,17 +15,27 @@
     <sheet name="아이디,비번" sheetId="4" r:id="rId5"/>
     <sheet name="팁" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="334">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1263,19 +1274,51 @@
   </si>
   <si>
     <t>카드깡 10만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호두</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>견과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일치즈x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레첼(과자)x3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙모구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱구매</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
     <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0.00_);[Red]\(&quot;₩&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,6 +1404,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1791,7 +1842,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1811,7 +1862,6 @@
     <xf numFmtId="177" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1830,9 +1880,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1842,22 +1889,16 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1">
@@ -1904,10 +1945,10 @@
     <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1917,9 +1958,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1961,7 +1999,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1973,10 +2011,8 @@
     <xf numFmtId="177" fontId="0" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -2014,15 +2050,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2035,6 +2062,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2044,10 +2080,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2080,7 +2120,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2123,7 +2169,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2161,7 +2213,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2187,19 +2245,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
+      <xdr:rowOff>21432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>506906</xdr:colOff>
+      <xdr:colOff>554531</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>137367</xdr:rowOff>
+      <xdr:rowOff>146892</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2212,8 +2276,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10406063"/>
-          <a:ext cx="2400000" cy="5971429"/>
+          <a:off x="47625" y="11651457"/>
+          <a:ext cx="2402381" cy="6154785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2242,7 +2306,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2280,7 +2350,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2568,7 +2644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2578,134 +2654,134 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="33" width="20.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="33" width="20.09765625" style="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" s="4" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2"/>
-      <c r="B1" s="71">
+      <c r="B1" s="66">
         <v>44742</v>
       </c>
-      <c r="C1" s="71">
+      <c r="C1" s="66">
         <v>44743</v>
       </c>
-      <c r="D1" s="71">
+      <c r="D1" s="66">
         <v>44744</v>
       </c>
-      <c r="E1" s="71">
+      <c r="E1" s="66">
         <v>44745</v>
       </c>
-      <c r="F1" s="71">
+      <c r="F1" s="66">
         <v>44746</v>
       </c>
-      <c r="G1" s="71">
+      <c r="G1" s="66">
         <v>44747</v>
       </c>
-      <c r="H1" s="71">
+      <c r="H1" s="66">
         <v>44748</v>
       </c>
-      <c r="I1" s="71">
+      <c r="I1" s="66">
         <v>44749</v>
       </c>
-      <c r="J1" s="71">
+      <c r="J1" s="66">
         <v>44750</v>
       </c>
-      <c r="K1" s="71">
+      <c r="K1" s="66">
         <v>44751</v>
       </c>
-      <c r="L1" s="71">
+      <c r="L1" s="66">
         <v>44752</v>
       </c>
-      <c r="M1" s="71">
+      <c r="M1" s="66">
         <v>44753</v>
       </c>
-      <c r="N1" s="71">
+      <c r="N1" s="66">
         <v>44754</v>
       </c>
-      <c r="O1" s="71">
+      <c r="O1" s="66">
         <v>44755</v>
       </c>
-      <c r="P1" s="71">
+      <c r="P1" s="66">
         <v>44756</v>
       </c>
-      <c r="Q1" s="71">
+      <c r="Q1" s="66">
         <v>44757</v>
       </c>
-      <c r="R1" s="71">
+      <c r="R1" s="66">
         <v>44758</v>
       </c>
-      <c r="S1" s="71">
+      <c r="S1" s="66">
         <v>44759</v>
       </c>
-      <c r="T1" s="71">
+      <c r="T1" s="66">
         <v>44760</v>
       </c>
-      <c r="U1" s="71">
+      <c r="U1" s="66">
         <v>44761</v>
       </c>
-      <c r="V1" s="71">
+      <c r="V1" s="66">
         <v>44762</v>
       </c>
-      <c r="W1" s="71">
+      <c r="W1" s="66">
         <v>44763</v>
       </c>
-      <c r="X1" s="71">
+      <c r="X1" s="66">
         <v>44764</v>
       </c>
-      <c r="Y1" s="71">
+      <c r="Y1" s="66">
         <v>44765</v>
       </c>
-      <c r="Z1" s="71">
+      <c r="Z1" s="66">
         <v>44766</v>
       </c>
-      <c r="AA1" s="71">
+      <c r="AA1" s="66">
         <v>44767</v>
       </c>
-      <c r="AB1" s="71">
+      <c r="AB1" s="66">
         <v>44768</v>
       </c>
-      <c r="AC1" s="71">
+      <c r="AC1" s="66">
         <v>44769</v>
       </c>
-      <c r="AD1" s="71">
+      <c r="AD1" s="66">
         <v>44770</v>
       </c>
-      <c r="AE1" s="71">
+      <c r="AE1" s="66">
         <v>44771</v>
       </c>
-      <c r="AF1" s="71">
+      <c r="AF1" s="66">
         <v>44772</v>
       </c>
-      <c r="AG1" s="71">
+      <c r="AG1" s="66">
         <v>44773</v>
       </c>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:36" s="73" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:36" s="68" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="73">
+      <c r="G2" s="68">
         <v>1500000</v>
       </c>
-      <c r="J2" s="73">
+      <c r="J2" s="68">
         <v>200000</v>
       </c>
-      <c r="T2" s="73">
+      <c r="T2" s="68">
         <v>1500000</v>
       </c>
-      <c r="AD2" s="73">
+      <c r="AD2" s="68">
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:36" s="5" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5">
@@ -2837,8 +2913,8 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:36" s="6" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A4" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
@@ -2951,8 +3027,8 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:36" s="7" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A5" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7">
@@ -3084,8 +3160,8 @@
         <v>254000</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:36" s="8" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A6" s="49" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="8">
@@ -3217,8 +3293,8 @@
         <v>152000</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+    <row r="7" spans="1:36" s="18" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A7" s="50" t="s">
         <v>195</v>
       </c>
       <c r="B7" s="18">
@@ -3350,36 +3426,36 @@
         <v>-102000</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:36" s="43" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A8" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="43">
         <v>218000</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="43">
         <f>1500000+G12+G14+G16+G18+G20+G22+8000</f>
         <v>1480000</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="43">
         <v>30000</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="43">
         <f>230000-4000</f>
         <v>226000</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
-    </row>
-    <row r="10" spans="1:36" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="s">
+    <row r="9" spans="1:36" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A9" s="52"/>
+    </row>
+    <row r="10" spans="1:36" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A10" s="53" t="s">
         <v>24</v>
       </c>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+    <row r="11" spans="1:36" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A11" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="10">
@@ -3397,13 +3473,13 @@
       <c r="F11" s="10">
         <v>99000</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="42" t="s">
         <v>196</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="42" t="s">
         <v>207</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -3435,8 +3511,8 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+    <row r="12" spans="1:36" s="11" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A12" s="55" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="11">
@@ -3518,8 +3594,8 @@
         <v>-90000</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+    <row r="13" spans="1:36" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A13" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="12">
@@ -3588,8 +3664,8 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:36" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A14" s="54" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="10">
@@ -3683,11 +3759,11 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
+    <row r="15" spans="1:36" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A15" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="72" t="s">
         <v>208</v>
       </c>
       <c r="J15" s="12" t="s">
@@ -3711,7 +3787,7 @@
       <c r="Y15" s="12">
         <v>142000</v>
       </c>
-      <c r="Z15" s="77" t="s">
+      <c r="Z15" s="72" t="s">
         <v>259</v>
       </c>
       <c r="AA15" s="12">
@@ -3721,8 +3797,8 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="16" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:36" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A16" s="54" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="10">
@@ -3782,8 +3858,8 @@
         <v>-40000</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+    <row r="17" spans="1:33" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A17" s="56" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="12">
@@ -3811,14 +3887,14 @@
         <v>104500</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+    <row r="18" spans="1:33" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A18" s="54" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="10">
         <v>-80000</v>
       </c>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="71" t="s">
         <v>209</v>
       </c>
       <c r="J18" s="10">
@@ -3857,8 +3933,8 @@
         <v>-120000</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
+    <row r="19" spans="1:33" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A19" s="56" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="12">
@@ -3874,8 +3950,8 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:33" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A20" s="54" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="10">
@@ -3897,196 +3973,196 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
+    <row r="21" spans="1:33" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A21" s="56" t="s">
         <v>12</v>
       </c>
       <c r="J21" s="12">
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="58" t="s">
+    <row r="22" spans="1:33" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A22" s="54" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
+    <row r="23" spans="1:33" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A23" s="53"/>
       <c r="J23" s="9">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
+    <row r="24" spans="1:33" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A24" s="53"/>
       <c r="J24" s="9">
         <v>77000</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="21" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
+    <row r="25" spans="1:33" s="20" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A25" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="J25" s="81" t="s">
+      <c r="J25" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="N25" s="21" t="s">
+      <c r="N25" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="O25" s="21" t="s">
+      <c r="O25" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="P25" s="21" t="s">
+      <c r="P25" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="Q25" s="21" t="s">
+      <c r="Q25" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="R25" s="84" t="s">
+      <c r="R25" s="79" t="s">
         <v>239</v>
       </c>
-      <c r="S25" s="21" t="s">
+      <c r="S25" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="T25" s="21" t="s">
+      <c r="T25" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="U25" s="21" t="s">
+      <c r="U25" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="W25" s="21" t="s">
+      <c r="W25" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="X25" s="21" t="s">
+      <c r="X25" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="Y25" s="21" t="s">
+      <c r="Y25" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="Z25" s="116" t="s">
+      <c r="Z25" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="AA25" s="21" t="s">
+      <c r="AA25" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="AB25" s="21" t="s">
+      <c r="AB25" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="AC25" s="21" t="s">
+      <c r="AC25" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="AD25" s="21" t="s">
+      <c r="AD25" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="AE25" s="21" t="s">
+      <c r="AE25" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="AF25" s="21" t="s">
+      <c r="AF25" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="AG25" s="21" t="s">
+      <c r="AG25" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21" t="s">
+    <row r="26" spans="1:33" s="19" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A26" s="58"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="19" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:33" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="63"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" spans="1:33" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="63"/>
-      <c r="C28" s="20" t="s">
+    <row r="27" spans="1:33" s="19" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A27" s="58"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:33" s="19" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A28" s="58"/>
+      <c r="C28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:33" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+    <row r="29" spans="1:33" s="21" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A29" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>740000</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>260000</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="21">
         <v>300000</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="21">
         <v>342300</v>
       </c>
     </row>
-    <row r="30" spans="1:33" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+    <row r="30" spans="1:33" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A30" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="B30" s="98">
+      <c r="B30" s="92">
         <f>SUM(B2:AG2)+1558090</f>
         <v>5758090</v>
       </c>
-      <c r="C30" s="98" t="s">
+      <c r="C30" s="92" t="s">
         <v>245</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="U30" s="99" t="s">
+      <c r="U30" s="93" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:33" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="82" t="s">
+    <row r="31" spans="1:33" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="83">
+      <c r="B31" s="78">
         <f>SUM(B4:AG4)</f>
         <v>12226000</v>
       </c>
@@ -4097,16 +4173,16 @@
       <c r="J31" s="9">
         <v>300000</v>
       </c>
-      <c r="U31" s="99">
+      <c r="U31" s="93">
         <f>25690+25790+4000+(27390*5)</f>
         <v>192430</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="74" t="s">
+    <row r="32" spans="1:33" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="B32" s="75">
+      <c r="B32" s="70">
         <f>SUM(B3:AG3)-B30</f>
         <v>3328610</v>
       </c>
@@ -4120,12 +4196,12 @@
       <c r="J32" s="9">
         <v>220000</v>
       </c>
-      <c r="U32" s="99" t="s">
+      <c r="U32" s="93" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="66" t="s">
+    <row r="33" spans="1:30" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B33" s="14">
@@ -4137,12 +4213,12 @@
       <c r="J33" s="9">
         <v>264000</v>
       </c>
-      <c r="U33" s="99">
+      <c r="U33" s="93">
         <v>57450</v>
       </c>
     </row>
-    <row r="34" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="67" t="s">
+    <row r="34" spans="1:30" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="62" t="s">
         <v>233</v>
       </c>
       <c r="B34" s="16">
@@ -4154,12 +4230,12 @@
       <c r="G34" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="U34" s="100" t="s">
+      <c r="U34" s="93" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="68" t="s">
+    <row r="35" spans="1:30" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="63" t="s">
         <v>206</v>
       </c>
       <c r="B35" s="17">
@@ -4175,11 +4251,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="69" t="s">
+    <row r="36" spans="1:30" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="44">
         <f>SUM(B7:AG7)</f>
         <v>-8895000</v>
       </c>
@@ -4194,153 +4270,153 @@
         <v>247</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="70" t="s">
+    <row r="37" spans="1:30" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="45">
         <f>SUM(B29:AG29)-SUM(40:40)</f>
         <v>1142300</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="93" t="s">
+    <row r="38" spans="1:30" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="B38" s="94">
+      <c r="B38" s="89">
         <f>(SUM(B8:AG8)+SUM(H7:AG7)+J43+J2+K4+M4+N4+SUM(O4:AG4))-400000-320000-20000-30000-320000-400000-240000+20000+800000-Y4-AA4-240000+300000+600000-160000-280000-150000</f>
         <v>1086000</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="91" t="s">
+    <row r="39" spans="1:30" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="B39" s="92">
+      <c r="B39" s="87">
         <f>SUM(E4,G4,H4)+560000+480000-500000+400000+320000+T2+320000-U33-U31+400000+240000+100000-800000+Y4+AA12+AA14+AA4+240000-300000-600000+160000-AD41-AA41-AA44+280000+150000</f>
         <v>5291060</v>
       </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="95" t="s">
+      <c r="D39" s="90" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="D40" s="96">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="D40" s="91">
         <v>500000</v>
       </c>
-      <c r="I40" s="78" t="s">
+      <c r="I40" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="J40" s="79" t="s">
+      <c r="J40" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="X40" s="78" t="s">
+      <c r="X40" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="Z40" s="78" t="s">
+      <c r="Z40" s="73" t="s">
         <v>282</v>
       </c>
-      <c r="AA40" s="115" t="s">
+      <c r="AA40" s="108" t="s">
         <v>258</v>
       </c>
-      <c r="AD40" s="115" t="s">
+      <c r="AD40" s="108" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A41" s="85" t="s">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A41" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="B41" s="86">
+      <c r="B41" s="81">
         <f>SUM(B6:AG6)</f>
         <v>12417700</v>
       </c>
-      <c r="I41" s="79">
+      <c r="I41" s="74">
         <v>560000</v>
       </c>
-      <c r="J41" s="79">
+      <c r="J41" s="74">
         <v>480000</v>
       </c>
-      <c r="X41" s="79">
+      <c r="X41" s="74">
         <v>240000</v>
       </c>
-      <c r="Z41" s="79">
+      <c r="Z41" s="74">
         <v>150000</v>
       </c>
-      <c r="AA41" s="115">
+      <c r="AA41" s="108">
         <v>36300</v>
       </c>
-      <c r="AD41" s="115">
+      <c r="AD41" s="108">
         <v>32760</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A42" s="89" t="s">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A42" s="84" t="s">
         <v>232</v>
       </c>
-      <c r="B42" s="90">
+      <c r="B42" s="85">
         <f>B32+B38+B39</f>
         <v>9705670</v>
       </c>
-      <c r="I42" s="87" t="s">
+      <c r="I42" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="J42" s="87" t="s">
+      <c r="J42" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="X42" s="87" t="s">
+      <c r="X42" s="82" t="s">
         <v>276</v>
       </c>
-      <c r="Z42" s="87" t="s">
+      <c r="Z42" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="AA42" s="115" t="s">
+      <c r="AA42" s="108" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="J43" s="80"/>
-      <c r="AA43" s="115" t="s">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="J43" s="75"/>
+      <c r="AA43" s="108" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B44" s="97">
+      <c r="B44" s="1">
         <v>758090</v>
       </c>
-      <c r="AA44" s="115">
+      <c r="AA44" s="108">
         <v>30000</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B45" s="1">
         <v>800000</v>
       </c>
-      <c r="AA45" s="115" t="s">
+      <c r="AA45" s="108" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B46" s="88">
+      <c r="B46" s="83">
         <f>SUM(B44:B45)</f>
         <v>1558090</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.4">
       <c r="C48" s="9">
         <f>B38+B39+B32-B37-2800000</f>
         <v>5763370</v>
@@ -4350,105 +4426,105 @@
         <v>2892300</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C49" s="7">
         <f>39000+20000</f>
         <v>59000</v>
       </c>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.4">
       <c r="D51" s="15">
         <f>2000000-1250000</f>
         <v>750000</v>
       </c>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.4">
       <c r="D52" s="9"/>
     </row>
-    <row r="55" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E55" s="103"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="103"/>
-    </row>
-    <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="101"/>
-      <c r="E56" s="123" t="s">
+    <row r="55" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="96"/>
+    </row>
+    <row r="56" spans="3:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D56" s="94"/>
+      <c r="E56" s="116" t="s">
         <v>266</v>
       </c>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="102"/>
-    </row>
-    <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="101"/>
-      <c r="E57" s="105" t="s">
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="118"/>
+      <c r="J56" s="95"/>
+    </row>
+    <row r="57" spans="3:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D57" s="94"/>
+      <c r="E57" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="F57" s="107" t="s">
+      <c r="F57" s="100" t="s">
         <v>261</v>
       </c>
-      <c r="G57" s="109" t="s">
+      <c r="G57" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="H57" s="113" t="s">
+      <c r="H57" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="I57" s="111" t="s">
+      <c r="I57" s="104" t="s">
         <v>264</v>
       </c>
-      <c r="J57" s="102"/>
-    </row>
-    <row r="58" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="101"/>
-      <c r="E58" s="106">
+      <c r="J57" s="95"/>
+    </row>
+    <row r="58" spans="3:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D58" s="94"/>
+      <c r="E58" s="99">
         <f>SUM(B5:E5)</f>
         <v>2840000</v>
       </c>
-      <c r="F58" s="108">
+      <c r="F58" s="101">
         <f>SUM(F5:L5)</f>
         <v>5998000</v>
       </c>
-      <c r="G58" s="110">
+      <c r="G58" s="103">
         <f>SUM(M5:S5)</f>
         <v>3117000</v>
       </c>
-      <c r="H58" s="114">
+      <c r="H58" s="107">
         <f>SUM(T5:Z5)</f>
         <v>5525700</v>
       </c>
-      <c r="I58" s="112">
+      <c r="I58" s="105">
         <f>SUM(AA5:AG5)</f>
         <v>3832000</v>
       </c>
       <c r="J58" s="15"/>
     </row>
-    <row r="59" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E59" s="104"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="106" t="s">
+    <row r="59" spans="3:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="99" t="s">
         <v>265</v>
       </c>
-      <c r="I59" s="106">
+      <c r="I59" s="99">
         <f>SUM(E58:I58)</f>
         <v>21312700</v>
       </c>
     </row>
-    <row r="60" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H60" s="106" t="s">
+    <row r="60" spans="3:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H60" s="99" t="s">
         <v>267</v>
       </c>
-      <c r="I60" s="106">
+      <c r="I60" s="99">
         <f>AVERAGE(E58:I58)</f>
         <v>4262540</v>
       </c>
     </row>
-    <row r="61" spans="3:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:10" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>281</v>
       </c>
@@ -4468,132 +4544,132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="20.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="20.09765625" style="1" customWidth="1"/>
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2"/>
-      <c r="B1" s="71">
+      <c r="B1" s="66">
         <v>44774</v>
       </c>
-      <c r="C1" s="71">
+      <c r="C1" s="66">
         <v>44775</v>
       </c>
-      <c r="D1" s="71">
+      <c r="D1" s="66">
         <v>44776</v>
       </c>
-      <c r="E1" s="71">
+      <c r="E1" s="66">
         <v>44777</v>
       </c>
-      <c r="F1" s="71">
+      <c r="F1" s="66">
         <v>44778</v>
       </c>
-      <c r="G1" s="71">
+      <c r="G1" s="66">
         <v>44779</v>
       </c>
-      <c r="H1" s="71">
+      <c r="H1" s="66">
         <v>44780</v>
       </c>
-      <c r="I1" s="71">
+      <c r="I1" s="66">
         <v>44781</v>
       </c>
-      <c r="J1" s="71">
+      <c r="J1" s="66">
         <v>44782</v>
       </c>
-      <c r="K1" s="71">
+      <c r="K1" s="66">
         <v>44783</v>
       </c>
-      <c r="L1" s="71">
+      <c r="L1" s="66">
         <v>44784</v>
       </c>
-      <c r="M1" s="71">
+      <c r="M1" s="66">
         <v>44785</v>
       </c>
-      <c r="N1" s="71">
+      <c r="N1" s="66">
         <v>44786</v>
       </c>
-      <c r="O1" s="71">
+      <c r="O1" s="66">
         <v>44787</v>
       </c>
-      <c r="P1" s="71">
+      <c r="P1" s="66">
         <v>44788</v>
       </c>
-      <c r="Q1" s="71">
+      <c r="Q1" s="66">
         <v>44789</v>
       </c>
-      <c r="R1" s="71">
+      <c r="R1" s="66">
         <v>44790</v>
       </c>
-      <c r="S1" s="71">
+      <c r="S1" s="66">
         <v>44791</v>
       </c>
-      <c r="T1" s="71">
+      <c r="T1" s="66">
         <v>44792</v>
       </c>
-      <c r="U1" s="71">
+      <c r="U1" s="66">
         <v>44793</v>
       </c>
-      <c r="V1" s="71">
+      <c r="V1" s="66">
         <v>44794</v>
       </c>
-      <c r="W1" s="71">
+      <c r="W1" s="66">
         <v>44795</v>
       </c>
-      <c r="X1" s="71">
+      <c r="X1" s="66">
         <v>44796</v>
       </c>
-      <c r="Y1" s="71">
+      <c r="Y1" s="66">
         <v>44797</v>
       </c>
-      <c r="Z1" s="71">
+      <c r="Z1" s="66">
         <v>44798</v>
       </c>
-      <c r="AA1" s="71">
+      <c r="AA1" s="66">
         <v>44799</v>
       </c>
-      <c r="AB1" s="71">
+      <c r="AB1" s="66">
         <v>44800</v>
       </c>
-      <c r="AC1" s="71">
+      <c r="AC1" s="66">
         <v>44801</v>
       </c>
-      <c r="AD1" s="71">
+      <c r="AD1" s="66">
         <v>44802</v>
       </c>
-      <c r="AE1" s="71">
+      <c r="AE1" s="66">
         <v>44803</v>
       </c>
-      <c r="AF1" s="71">
+      <c r="AF1" s="66">
         <v>44804</v>
       </c>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
     </row>
-    <row r="2" spans="1:35" s="73" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:35" s="68" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="73">
+      <c r="E2" s="68">
         <v>160000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5">
@@ -4717,54 +4793,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="119" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="118" t="s">
+    <row r="4" spans="1:35" s="112" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A4" s="111" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="119">
-        <v>0</v>
-      </c>
-      <c r="C4" s="119">
+      <c r="B4" s="112">
+        <v>0</v>
+      </c>
+      <c r="C4" s="112">
         <v>630000</v>
       </c>
-      <c r="D4" s="119">
-        <v>0</v>
-      </c>
-      <c r="E4" s="119">
+      <c r="D4" s="112">
+        <v>0</v>
+      </c>
+      <c r="E4" s="112">
         <f>160000+320000</f>
         <v>480000</v>
       </c>
-      <c r="F4" s="119">
-        <v>0</v>
-      </c>
-      <c r="G4" s="119">
+      <c r="F4" s="112">
+        <v>0</v>
+      </c>
+      <c r="G4" s="112">
         <v>480000</v>
       </c>
-      <c r="H4" s="119">
+      <c r="H4" s="112">
         <v>41000</v>
       </c>
-      <c r="I4" s="119">
+      <c r="I4" s="112">
         <f>200000-20000</f>
         <v>180000</v>
       </c>
-      <c r="K4" s="119">
-        <v>0</v>
-      </c>
-      <c r="L4" s="119">
-        <v>0</v>
-      </c>
-      <c r="M4" s="119">
-        <v>0</v>
-      </c>
-      <c r="N4" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="119">
+      <c r="K4" s="112">
+        <v>0</v>
+      </c>
+      <c r="L4" s="112">
+        <v>0</v>
+      </c>
+      <c r="M4" s="112">
+        <v>0</v>
+      </c>
+      <c r="N4" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="112">
         <v>1200000</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:35" s="6" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A5" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6">
@@ -4810,8 +4886,8 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:35" s="7" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="7">
@@ -4935,8 +5011,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:35" s="8" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A7" s="49" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8">
@@ -5060,8 +5136,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:35" s="18" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A8" s="50" t="s">
         <v>195</v>
       </c>
       <c r="B8" s="18">
@@ -5185,28 +5261,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:35" s="43" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A9" s="51" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
-    </row>
-    <row r="11" spans="1:35" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
+    <row r="10" spans="1:35" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A10" s="52"/>
+    </row>
+    <row r="11" spans="1:35" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A11" s="53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="58" t="s">
+    <row r="12" spans="1:35" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A12" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="I12" s="46"/>
-    </row>
-    <row r="13" spans="1:35" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="59" t="s">
+      <c r="G12" s="42"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="1:35" s="11" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A13" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="11">
@@ -5236,8 +5312,8 @@
       </c>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
+    <row r="14" spans="1:35" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A14" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -5271,8 +5347,8 @@
         <v>176000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+    <row r="15" spans="1:35" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A15" s="54" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="10">
@@ -5302,14 +5378,14 @@
         <v>-80000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:35" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="I16" s="77">
+      <c r="I16" s="72">
         <v>704000</v>
       </c>
       <c r="K16" s="12">
@@ -5324,10 +5400,10 @@
       <c r="S16" s="12">
         <v>44000</v>
       </c>
-      <c r="Z16" s="77"/>
-    </row>
-    <row r="17" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="Z16" s="72"/>
+    </row>
+    <row r="17" spans="1:30" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A17" s="54" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="10">
@@ -5352,8 +5428,8 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="60" t="s">
+    <row r="18" spans="1:30" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A18" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -5372,11 +5448,11 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
+    <row r="19" spans="1:30" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A19" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="71">
         <f>-80000-80000-80000-40000</f>
         <v>-280000</v>
       </c>
@@ -5390,8 +5466,8 @@
         <v>-160000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
+    <row r="20" spans="1:30" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A20" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="12">
@@ -5404,8 +5480,8 @@
         <v>176000</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:30" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A21" s="54" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="10">
@@ -5416,16 +5492,16 @@
         <v>-80000</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
+    <row r="22" spans="1:30" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A22" s="56" t="s">
         <v>12</v>
       </c>
       <c r="N22" s="12">
         <v>170500</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+    <row r="23" spans="1:30" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A23" s="54" t="s">
         <v>13</v>
       </c>
       <c r="I23" s="10">
@@ -5436,109 +5512,111 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
-    </row>
-    <row r="25" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-    </row>
-    <row r="26" spans="1:30" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+    <row r="24" spans="1:30" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A24" s="53"/>
+    </row>
+    <row r="25" spans="1:30" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A25" s="53"/>
+    </row>
+    <row r="26" spans="1:30" s="20" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A26" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="J26" s="81" t="s">
+      <c r="J26" s="76" t="s">
         <v>312</v>
       </c>
-      <c r="K26" s="81" t="s">
+      <c r="K26" s="76" t="s">
         <v>313</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="M26" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="N26" s="21" t="s">
+      <c r="N26" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="O26" s="21" t="s">
+      <c r="O26" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="P26" s="21" t="s">
+      <c r="P26" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="Q26" s="21" t="s">
+      <c r="Q26" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="R26" s="84" t="s">
+      <c r="R26" s="79" t="s">
         <v>325</v>
       </c>
-      <c r="Z26" s="116"/>
-    </row>
-    <row r="27" spans="1:30" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="63"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" spans="1:30" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="63"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:30" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="63"/>
-    </row>
-    <row r="30" spans="1:30" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="64" t="s">
+      <c r="Z26" s="109"/>
+    </row>
+    <row r="27" spans="1:30" s="19" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A27" s="58"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:30" s="19" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A28" s="58"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:30" s="19" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A29" s="58"/>
+    </row>
+    <row r="30" spans="1:30" s="21" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="65" t="s">
+    <row r="31" spans="1:30" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A31" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="B31" s="98">
+      <c r="B31" s="92">
         <f>SUM(B2:AF2)</f>
         <v>160000</v>
       </c>
-      <c r="C31" s="98"/>
+      <c r="C31" s="92"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="82" t="s">
+    <row r="32" spans="1:30" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="B32" s="83">
+      <c r="B32" s="78">
         <f>SUM(B5:AF5)</f>
         <v>885000</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="T32" s="1"/>
+      <c r="T32" s="83" t="s">
+        <v>331</v>
+      </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -5549,16 +5627,18 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="74" t="s">
+    <row r="33" spans="1:31" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="B33" s="75">
+      <c r="B33" s="70">
         <f>B34-B31</f>
         <v>4746430</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="T33" s="1"/>
+      <c r="T33" s="129" t="s">
+        <v>326</v>
+      </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
@@ -5569,8 +5649,8 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="66" t="s">
+    <row r="34" spans="1:31" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B34" s="14">
@@ -5579,7 +5659,9 @@
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="T34" s="1"/>
+      <c r="T34" s="83">
+        <v>17690</v>
+      </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
@@ -5590,8 +5672,8 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="67" t="s">
+    <row r="35" spans="1:31" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="62" t="s">
         <v>233</v>
       </c>
       <c r="B35" s="16">
@@ -5603,7 +5685,9 @@
         <v>864160</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="T35" s="1"/>
+      <c r="T35" s="130" t="s">
+        <v>327</v>
+      </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -5614,8 +5698,8 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="68" t="s">
+    <row r="36" spans="1:31" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="63" t="s">
         <v>206</v>
       </c>
       <c r="B36" s="17">
@@ -5624,7 +5708,9 @@
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="T36" s="1"/>
+      <c r="T36" s="83">
+        <v>16590</v>
+      </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -5635,52 +5721,62 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="69" t="s">
+    <row r="37" spans="1:31" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="48">
+      <c r="B37" s="44">
         <f>SUM(B8:AF8)</f>
         <v>-3813000</v>
       </c>
       <c r="C37" s="15"/>
+      <c r="T37" s="131" t="s">
+        <v>328</v>
+      </c>
       <c r="Y37" s="9"/>
       <c r="AE37" s="9"/>
     </row>
-    <row r="38" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="70" t="s">
+    <row r="38" spans="1:31" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="49">
+      <c r="B38" s="45">
         <f>SUM(B30:AF30)-SUM(41:41)</f>
         <v>0</v>
+      </c>
+      <c r="T38" s="83">
+        <f>14290*2</f>
+        <v>28580</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="AE38" s="9"/>
     </row>
-    <row r="39" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="93" t="s">
+    <row r="39" spans="1:31" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="94">
+      <c r="B39" s="89">
         <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))+340000+900000+900000</f>
         <v>298000</v>
       </c>
-      <c r="C39" s="120">
+      <c r="C39" s="113">
         <f>34+90+90</f>
         <v>214</v>
       </c>
-      <c r="D39" s="121" t="s">
+      <c r="D39" s="114" t="s">
         <v>321</v>
+      </c>
+      <c r="T39" s="131" t="s">
+        <v>329</v>
       </c>
       <c r="Y39" s="9"/>
       <c r="AE39" s="9"/>
     </row>
-    <row r="40" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="91" t="s">
+    <row r="40" spans="1:31" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="B40" s="92">
+      <c r="B40" s="87">
         <f>5291060+SUM(B4:AF4)-340000-900000-900000</f>
         <v>6162060</v>
       </c>
@@ -5688,185 +5784,223 @@
         <f>-34-90-90</f>
         <v>-214</v>
       </c>
-      <c r="D40" s="122">
+      <c r="D40" s="115">
         <f>(C39/30)*1800</f>
         <v>12840</v>
       </c>
+      <c r="T40" s="83">
+        <f>12390*3</f>
+        <v>37170</v>
+      </c>
       <c r="Y40" s="9"/>
       <c r="AE40" s="9"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C41" s="121" t="s">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C41" s="114" t="s">
         <v>320</v>
+      </c>
+      <c r="T41" s="131" t="s">
+        <v>330</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="AE41" s="9"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="85" t="s">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A42" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="B42" s="86">
+      <c r="B42" s="81">
         <f>SUM(B7:AF7)</f>
         <v>4828600</v>
       </c>
+      <c r="T42" s="132">
+        <f>SUM(T33:T40)</f>
+        <v>100030</v>
+      </c>
       <c r="Y42" s="9"/>
       <c r="AE42" s="9"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="89" t="s">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A43" s="84" t="s">
         <v>232</v>
       </c>
-      <c r="B43" s="90">
+      <c r="B43" s="85">
         <f>B33+B39+B40</f>
         <v>11206490</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="T44" s="84">
+        <v>15990</v>
+      </c>
       <c r="Y44" s="9"/>
       <c r="AE44" s="9"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="9">
         <v>867910</v>
+      </c>
+      <c r="T45" s="84">
+        <v>17990</v>
       </c>
       <c r="Y45" s="9"/>
       <c r="AE45" s="9"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B46" s="9">
         <v>800000</v>
       </c>
+      <c r="T46" s="84">
+        <v>19990</v>
+      </c>
       <c r="Y46" s="9"/>
       <c r="AE46" s="9"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B47" s="117">
+      <c r="B47" s="110">
         <f>SUM(B45:B46)</f>
         <v>1667910</v>
       </c>
+      <c r="S47" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="T47" s="132">
+        <f>SUM(T44:T46)</f>
+        <v>53970</v>
+      </c>
       <c r="Y47" s="9"/>
       <c r="AE47" s="9"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="S48" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="T48" s="1">
+        <f>10890+8490+219120+80000</f>
+        <v>318500</v>
+      </c>
       <c r="Y48" s="9"/>
       <c r="AE48" s="9"/>
     </row>
-    <row r="49" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="T49" s="1">
+        <f>SUM(T48,T42,T47)</f>
+        <v>472500</v>
+      </c>
       <c r="Y49" s="9"/>
       <c r="AE49" s="9"/>
     </row>
-    <row r="50" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:31" x14ac:dyDescent="0.4">
       <c r="Y50" s="9"/>
       <c r="AE50" s="9"/>
     </row>
-    <row r="51" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:31" x14ac:dyDescent="0.4">
       <c r="Y51" s="9"/>
       <c r="AE51" s="9"/>
     </row>
-    <row r="52" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:31" x14ac:dyDescent="0.4">
       <c r="Y52" s="9"/>
       <c r="AE52" s="9"/>
     </row>
-    <row r="53" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:31" x14ac:dyDescent="0.4">
       <c r="Y53" s="9"/>
       <c r="AE53" s="9"/>
     </row>
-    <row r="56" spans="4:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="103"/>
-    </row>
-    <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="101"/>
-      <c r="E57" s="123" t="s">
+    <row r="56" spans="4:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+    </row>
+    <row r="57" spans="4:31" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D57" s="94"/>
+      <c r="E57" s="116" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="124"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="125"/>
-      <c r="J57" s="102"/>
-    </row>
-    <row r="58" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="101"/>
-      <c r="E58" s="107" t="s">
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="95"/>
+    </row>
+    <row r="58" spans="4:31" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D58" s="94"/>
+      <c r="E58" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="F58" s="109" t="s">
+      <c r="F58" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="G58" s="113" t="s">
+      <c r="G58" s="106" t="s">
         <v>308</v>
       </c>
-      <c r="H58" s="111" t="s">
+      <c r="H58" s="104" t="s">
         <v>309</v>
       </c>
-      <c r="I58" s="111" t="s">
+      <c r="I58" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="J58" s="102"/>
-    </row>
-    <row r="59" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D59" s="101"/>
-      <c r="E59" s="106">
+      <c r="J58" s="95"/>
+    </row>
+    <row r="59" spans="4:31" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D59" s="94"/>
+      <c r="E59" s="99">
         <f>SUM(B6:E6)</f>
         <v>1678000</v>
       </c>
-      <c r="F59" s="108">
+      <c r="F59" s="101">
         <f>SUM(F6:L6)</f>
         <v>2974200</v>
       </c>
-      <c r="G59" s="110">
+      <c r="G59" s="103">
         <f>SUM(M6:S6)</f>
         <v>3989400</v>
       </c>
-      <c r="H59" s="114">
+      <c r="H59" s="107">
         <f>SUM(T6:Z6)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="112">
+      <c r="I59" s="105">
         <f>SUM(AA6:AF6)</f>
         <v>0</v>
       </c>
       <c r="J59" s="15"/>
     </row>
-    <row r="60" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="104"/>
-      <c r="F60" s="104"/>
-      <c r="G60" s="104"/>
-      <c r="H60" s="106" t="s">
+    <row r="60" spans="4:31" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E60" s="97"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="97"/>
+      <c r="H60" s="99" t="s">
         <v>265</v>
       </c>
-      <c r="I60" s="106">
+      <c r="I60" s="99">
         <f>SUM(E59:I59)</f>
         <v>8641600</v>
       </c>
     </row>
-    <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H61" s="106" t="s">
+    <row r="61" spans="4:31" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H61" s="99" t="s">
         <v>267</v>
       </c>
-      <c r="I61" s="106">
+      <c r="I61" s="99">
         <f>AVERAGE(E59:I59)</f>
         <v>1728320</v>
       </c>
     </row>
-    <row r="62" spans="4:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:31" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C81" s="1" t="s">
         <v>288</v>
       </c>
@@ -5886,7 +6020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
@@ -5896,33 +6030,33 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="41" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="45"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -5932,790 +6066,784 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="23"/>
-    <col min="2" max="2" width="20.25" style="23" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="23" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24.25" style="23" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="23" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="23" customWidth="1"/>
-    <col min="8" max="9" width="9" style="23"/>
-    <col min="10" max="10" width="22.125" style="23" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="9" style="22"/>
+    <col min="2" max="2" width="20.19921875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="22" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="24.19921875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" style="22" customWidth="1"/>
+    <col min="8" max="9" width="9" style="22"/>
+    <col min="10" max="10" width="22.09765625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="10.8984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="126" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="128"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="129" t="s">
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="128"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="130"/>
-      <c r="C4" s="25" t="s">
+      <c r="H3" s="123"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="125"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="120"/>
+      <c r="C4" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="128"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="131"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="125"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="121"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24">
         <v>707266</v>
       </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="128"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="125"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="128"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="125"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="128"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
+      <c r="H7" s="123"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="125"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="24"/>
+      <c r="G8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="126"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="128"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="128"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="25" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="125"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B10" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="128"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="128"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="128"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="128"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="128"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="32"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="125"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="125"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B18" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="20" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="20" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="I20" s="28" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="I20" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J20" s="28" t="s">
+      <c r="J20" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="28" t="s">
+      <c r="K20" s="26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B21" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="I21" s="25" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="I21" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B22" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="I22" s="26" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="I22" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="K22" s="24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B23" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="I23" s="25" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="I23" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="26" t="s">
+      <c r="K23" s="24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="I24" s="25" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="I24" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="25" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B25" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="I25" s="25" t="s">
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="I25" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B26" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="I26" s="26" t="s">
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="I26" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="K26" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="25" t="s">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="I27" s="26" t="s">
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="I27" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="25" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B28" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="I28" s="25" t="s">
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="I28" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="25" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B29" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="I29" s="25" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="I29" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="26" t="s">
+      <c r="K29" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="25" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B30" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="25" t="s">
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B31" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="25" t="s">
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B32" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="25" t="s">
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B33" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="25" t="s">
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B34" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="25" t="s">
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B35" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="25" t="s">
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B36" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="25" t="s">
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B37" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="25" t="s">
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B38" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="26" t="s">
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B39" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="25" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B40" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -6725,6 +6853,12 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6733,7 +6867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -6743,375 +6877,311 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="23"/>
-    <col min="2" max="2" width="16.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="9" style="22"/>
+    <col min="2" max="2" width="16.09765625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.3984375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="135"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="128"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="G2" s="34" t="s">
+      <c r="E2" s="24"/>
+      <c r="G2" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="L2" s="32"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="24"/>
+      <c r="G3" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="L3" s="32"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
+      <c r="E4" s="24"/>
+      <c r="G4" s="31"/>
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>5326710</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="G5" s="34" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="G5" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="G6" s="34" t="s">
+      <c r="E6" s="24"/>
+      <c r="G6" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
+      <c r="E7" s="24"/>
+      <c r="G7" s="31"/>
+      <c r="L7" s="32"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="24"/>
+      <c r="G8" s="31"/>
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25" t="s">
+      <c r="E9" s="24"/>
+      <c r="G9" s="31"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="G10" s="37" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="G10" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="G11" s="40" t="s">
+      <c r="E11" s="24"/>
+      <c r="G11" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="41"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="25" t="s">
+      <c r="L11" s="37"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="G12" s="40" t="s">
+      <c r="E12" s="24"/>
+      <c r="G12" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="41"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+      <c r="L12" s="37"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="G13" s="40" t="s">
+      <c r="E13" s="24"/>
+      <c r="G13" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="41"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
+      <c r="L13" s="37"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="41"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="G15" s="40" t="s">
+      <c r="L14" s="37"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="G15" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="41"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="G16" s="40" t="s">
+      <c r="L15" s="37"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="G16" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="41"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="G17" s="40" t="s">
+      <c r="L16" s="37"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="G17" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="41"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="41"/>
-    </row>
-    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="G19" s="42" t="s">
+      <c r="L17" s="37"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="G18" s="36"/>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="G19" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="44"/>
-    </row>
-    <row r="20" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+    </row>
+    <row r="20" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7123,46 +7193,46 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M31" sqref="L31:M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H11" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H13" t="s">
         <v>299</v>
       </c>

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32D5D56-D338-4361-BB8E-2908A279A223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA413B9-8813-481A-B23A-C782D291EFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="335">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1306,6 +1306,10 @@
   </si>
   <si>
     <t>현욱구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공병 126개</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2041,6 +2045,10 @@
     <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2049,6 +2057,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2062,15 +2079,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2080,10 +2088,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4450,13 +4454,13 @@
     </row>
     <row r="56" spans="3:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D56" s="94"/>
-      <c r="E56" s="116" t="s">
+      <c r="E56" s="120" t="s">
         <v>266</v>
       </c>
-      <c r="F56" s="117"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="118"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="122"/>
       <c r="J56" s="95"/>
     </row>
     <row r="57" spans="3:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4550,8 +4554,8 @@
   </sheetPr>
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="M19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5636,7 +5640,7 @@
         <v>4746430</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="T33" s="129" t="s">
+      <c r="T33" s="116" t="s">
         <v>326</v>
       </c>
       <c r="U33" s="1"/>
@@ -5685,7 +5689,7 @@
         <v>864160</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="T35" s="130" t="s">
+      <c r="T35" s="117" t="s">
         <v>327</v>
       </c>
       <c r="U35" s="1"/>
@@ -5730,7 +5734,7 @@
         <v>-3813000</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="T37" s="131" t="s">
+      <c r="T37" s="118" t="s">
         <v>328</v>
       </c>
       <c r="Y37" s="9"/>
@@ -5766,7 +5770,7 @@
       <c r="D39" s="114" t="s">
         <v>321</v>
       </c>
-      <c r="T39" s="131" t="s">
+      <c r="T39" s="118" t="s">
         <v>329</v>
       </c>
       <c r="Y39" s="9"/>
@@ -5799,7 +5803,7 @@
       <c r="C41" s="114" t="s">
         <v>320</v>
       </c>
-      <c r="T41" s="131" t="s">
+      <c r="T41" s="118" t="s">
         <v>330</v>
       </c>
       <c r="Y41" s="9"/>
@@ -5813,7 +5817,7 @@
         <f>SUM(B7:AF7)</f>
         <v>4828600</v>
       </c>
-      <c r="T42" s="132">
+      <c r="T42" s="119">
         <f>SUM(T33:T40)</f>
         <v>100030</v>
       </c>
@@ -5875,7 +5879,7 @@
       <c r="S47" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="T47" s="132">
+      <c r="T47" s="119">
         <f>SUM(T44:T46)</f>
         <v>53970</v>
       </c>
@@ -5902,6 +5906,12 @@
       <c r="AE49" s="9"/>
     </row>
     <row r="50" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="S50" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="T50" s="1">
+        <v>12600</v>
+      </c>
       <c r="Y50" s="9"/>
       <c r="AE50" s="9"/>
     </row>
@@ -5926,13 +5936,13 @@
     </row>
     <row r="57" spans="4:31" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D57" s="94"/>
-      <c r="E57" s="116" t="s">
+      <c r="E57" s="120" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
-      <c r="I57" s="118"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="122"/>
       <c r="J57" s="95"/>
     </row>
     <row r="58" spans="4:31" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6100,13 +6110,13 @@
       <c r="G1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="122" t="s">
+      <c r="H1" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="24" t="s">
@@ -6132,7 +6142,7 @@
       <c r="L2" s="125"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="126" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -6155,7 +6165,7 @@
       <c r="L3" s="125"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="120"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="24" t="s">
         <v>122</v>
       </c>
@@ -6172,7 +6182,7 @@
       <c r="L4" s="125"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="121"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -6844,6 +6854,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -6853,12 +6869,6 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6900,14 +6910,14 @@
       <c r="E1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="24" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA413B9-8813-481A-B23A-C782D291EFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="아이디,비번" sheetId="4" r:id="rId5"/>
     <sheet name="팁" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1261,62 +1260,60 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>호두</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>견과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일치즈x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레첼(과자)x3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙모구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>과일,치킨,피자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>과일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5시간, 아베크2팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드깡 10만</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호두</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>견과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>과일치즈x2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프레첼(과자)x3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>총합계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙모구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄마구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현욱구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공병 126개</t>
+  </si>
+  <si>
+    <t>카드깡 10만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공병 126개+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱구매-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마구매-(현찰사용)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합계(정산완료)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시간 외상325000(삼촌손님),1시간</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
@@ -1846,7 +1843,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2058,15 +2055,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2079,6 +2067,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2088,10 +2085,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2249,15 +2249,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>511968</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>21432</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>554531</xdr:colOff>
+      <xdr:colOff>1018874</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>146892</xdr:rowOff>
+      <xdr:rowOff>182611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2280,8 +2280,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="11651457"/>
-          <a:ext cx="2402381" cy="6154785"/>
+          <a:off x="511968" y="10451307"/>
+          <a:ext cx="2400000" cy="5971429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2648,24 +2648,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="33" width="20.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="33" width="20.125" style="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="4" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:36" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="66">
         <v>44742</v>
@@ -2767,7 +2767,7 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:36" s="68" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" s="68" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="67" t="s">
         <v>203</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="5" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="6" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>0</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="7" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>1</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>254000</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="8" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>2</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>152000</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="18" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
         <v>195</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>-102000</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="43" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" s="43" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>194</v>
       </c>
@@ -3449,16 +3449,16 @@
         <v>226000</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="52"/>
     </row>
-    <row r="10" spans="1:36" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>24</v>
       </c>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:36" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="54" t="s">
         <v>5</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="11" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="55" t="s">
         <v>15</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>-90000</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
         <v>7</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
         <v>9</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="56" t="s">
         <v>6</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="16" spans="1:36" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
         <v>8</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>-40000</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:33" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>10</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>104500</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:33" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="54" t="s">
         <v>11</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>-120000</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:33" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="56" t="s">
         <v>10</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:33" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="54" t="s">
         <v>11</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:33" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="56" t="s">
         <v>12</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:33" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="54" t="s">
         <v>13</v>
       </c>
@@ -3993,19 +3993,19 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:33" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="53"/>
       <c r="J23" s="9">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:33" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="53"/>
       <c r="J24" s="9">
         <v>77000</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="20" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:33" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="57" t="s">
         <v>17</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="19" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:33" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20" t="s">
@@ -4113,12 +4113,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:33" s="19" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:33" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:33" s="19" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:33" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="C28" s="19" t="s">
         <v>20</v>
@@ -4127,7 +4127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:33" s="21" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:33" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="59" t="s">
         <v>22</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>342300</v>
       </c>
     </row>
-    <row r="30" spans="1:33" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:33" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
         <v>243</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:33" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:33" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="77" t="s">
         <v>244</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>192430</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:33" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="69" t="s">
         <v>248</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:30" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="61" t="s">
         <v>204</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>57450</v>
       </c>
     </row>
-    <row r="34" spans="1:30" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="62" t="s">
         <v>233</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:30" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="63" t="s">
         <v>206</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="64" t="s">
         <v>16</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="65" t="s">
         <v>189</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>1142300</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="88" t="s">
         <v>193</v>
       </c>
@@ -4294,7 +4294,7 @@
       <c r="C38" s="15"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:30" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="86" t="s">
         <v>197</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D40" s="91">
         <v>500000</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="80" t="s">
         <v>231</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>32760</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="84" t="s">
         <v>232</v>
       </c>
@@ -4381,13 +4381,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="J43" s="75"/>
       <c r="AA43" s="108" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>238</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>241</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>242</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C48" s="9">
         <f>B38+B39+B32-B37-2800000</f>
         <v>5763370</v>
@@ -4430,29 +4430,29 @@
         <v>2892300</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C49" s="7">
         <f>39000+20000</f>
         <v>59000</v>
       </c>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D51" s="15">
         <f>2000000-1250000</f>
         <v>750000</v>
       </c>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D52" s="9"/>
     </row>
-    <row r="55" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E55" s="96"/>
       <c r="F55" s="96"/>
       <c r="G55" s="96"/>
       <c r="H55" s="96"/>
       <c r="I55" s="96"/>
     </row>
-    <row r="56" spans="3:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D56" s="94"/>
       <c r="E56" s="120" t="s">
         <v>266</v>
@@ -4463,7 +4463,7 @@
       <c r="I56" s="122"/>
       <c r="J56" s="95"/>
     </row>
-    <row r="57" spans="3:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="94"/>
       <c r="E57" s="98" t="s">
         <v>260</v>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="J57" s="95"/>
     </row>
-    <row r="58" spans="3:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D58" s="94"/>
       <c r="E58" s="99">
         <f>SUM(B5:E5)</f>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="J58" s="15"/>
     </row>
-    <row r="59" spans="3:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E59" s="97"/>
       <c r="F59" s="97"/>
       <c r="G59" s="97"/>
@@ -4518,7 +4518,7 @@
         <v>21312700</v>
       </c>
     </row>
-    <row r="60" spans="3:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H60" s="99" t="s">
         <v>267</v>
       </c>
@@ -4527,8 +4527,8 @@
         <v>4262540</v>
       </c>
     </row>
-    <row r="61" spans="3:10" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>281</v>
       </c>
@@ -4548,24 +4548,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="20.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="20.125" style="1" customWidth="1"/>
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="4" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="66">
         <v>44774</v>
@@ -4664,15 +4664,18 @@
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
     </row>
-    <row r="2" spans="1:35" s="68" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" s="68" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="67" t="s">
         <v>203</v>
       </c>
       <c r="E2" s="68">
         <v>160000</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" s="5" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="S2" s="68">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -4729,20 +4732,20 @@
         <v>0</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(P12,P14,P16,P18,P20,P22)</f>
+        <v>90200</v>
       </c>
       <c r="Q3" s="5">
-        <f t="shared" si="0"/>
-        <v>90200</v>
+        <f>SUM(Q12,Q14,Q16,Q18,Q20,Q22)</f>
+        <v>110000</v>
       </c>
       <c r="R3" s="5">
-        <f t="shared" si="0"/>
-        <v>110000</v>
+        <f>SUM(R12,R14,R16,R18,R20,R22)</f>
+        <v>220000</v>
       </c>
       <c r="S3" s="5">
-        <f t="shared" si="0"/>
-        <v>220000</v>
+        <f>SUM(S12,S14,S16,S18,S20,S22)</f>
+        <v>0</v>
       </c>
       <c r="T3" s="5">
         <f t="shared" si="0"/>
@@ -4797,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="112" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" s="112" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="111" t="s">
         <v>289</v>
       </c>
@@ -4814,9 +4817,6 @@
         <f>160000+320000</f>
         <v>480000</v>
       </c>
-      <c r="F4" s="112">
-        <v>0</v>
-      </c>
       <c r="G4" s="112">
         <v>480000</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="6" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>0</v>
       </c>
@@ -4889,8 +4889,11 @@
       <c r="R5" s="6">
         <v>320000</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" s="7" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="S5" s="6">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
@@ -4948,19 +4951,19 @@
       </c>
       <c r="P6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90200</v>
       </c>
       <c r="Q6" s="7">
         <f t="shared" si="1"/>
-        <v>1320200</v>
+        <v>1340000</v>
       </c>
       <c r="R6" s="7">
         <f t="shared" si="1"/>
-        <v>430000</v>
+        <v>540000</v>
       </c>
       <c r="S6" s="7">
         <f t="shared" si="1"/>
-        <v>220000</v>
+        <v>120000</v>
       </c>
       <c r="T6" s="7">
         <f t="shared" si="1"/>
@@ -5015,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="8" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>2</v>
       </c>
@@ -5073,19 +5076,19 @@
       </c>
       <c r="P7" s="8">
         <f>P6+P8</f>
-        <v>0</v>
+        <v>-575800</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="3"/>
-        <v>654200</v>
+        <v>1068000</v>
       </c>
       <c r="R7" s="8">
         <f t="shared" si="3"/>
-        <v>158000</v>
+        <v>460000</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="3"/>
-        <v>140000</v>
+        <v>-80000</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="3"/>
@@ -5140,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="18" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>195</v>
       </c>
@@ -5197,20 +5200,20 @@
         <v>0</v>
       </c>
       <c r="P8" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SUM(P13,P15,P17,P19,P21,P23)</f>
+        <v>-666000</v>
       </c>
       <c r="Q8" s="18">
-        <f t="shared" si="7"/>
-        <v>-666000</v>
+        <f>SUM(Q13,Q15,Q17,Q19,Q21,Q23)</f>
+        <v>-272000</v>
       </c>
       <c r="R8" s="18">
-        <f t="shared" si="7"/>
-        <v>-272000</v>
+        <f>SUM(R13,R15,R17,R19,R21,R23)</f>
+        <v>-80000</v>
       </c>
       <c r="S8" s="18">
-        <f t="shared" si="7"/>
-        <v>-80000</v>
+        <f>SUM(S13,S15,S17,S19,S21,S23)</f>
+        <v>-200000</v>
       </c>
       <c r="T8" s="18">
         <f t="shared" si="7"/>
@@ -5265,27 +5268,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="43" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" s="43" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
     </row>
-    <row r="11" spans="1:35" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="42"/>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="1:35" s="11" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
         <v>15</v>
       </c>
@@ -5316,7 +5319,7 @@
       </c>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:35" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
         <v>7</v>
       </c>
@@ -5341,17 +5344,17 @@
       <c r="N14" s="12">
         <v>1298000</v>
       </c>
+      <c r="P14" s="12">
+        <v>90200</v>
+      </c>
       <c r="Q14" s="12">
-        <v>90200</v>
+        <v>110000</v>
       </c>
       <c r="R14" s="12">
-        <v>110000</v>
-      </c>
-      <c r="S14" s="12">
         <v>176000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
         <v>9</v>
       </c>
@@ -5372,17 +5375,20 @@
       <c r="N15" s="10">
         <v>-26000</v>
       </c>
+      <c r="P15" s="10">
+        <v>-600000</v>
+      </c>
       <c r="Q15" s="10">
-        <v>-600000</v>
+        <v>-100000</v>
       </c>
       <c r="R15" s="10">
-        <v>-100000</v>
+        <v>-80000</v>
       </c>
       <c r="S15" s="10">
-        <v>-80000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+        <v>-160000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
@@ -5398,15 +5404,15 @@
       <c r="N16" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="Q16" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="S16" s="12">
+      <c r="P16" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="R16" s="12">
         <v>44000</v>
       </c>
       <c r="Z16" s="72"/>
     </row>
-    <row r="17" spans="1:30" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="54" t="s">
         <v>8</v>
       </c>
@@ -5424,15 +5430,17 @@
         <f>-440000-100000</f>
         <v>-540000</v>
       </c>
+      <c r="P17" s="10">
+        <v>-54000</v>
+      </c>
       <c r="Q17" s="10">
-        <f>-12000-12000-30000</f>
-        <v>-54000</v>
-      </c>
-      <c r="R17" s="10">
         <v>-12000</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="S17" s="10">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>10</v>
       </c>
@@ -5448,11 +5456,11 @@
       <c r="N18" s="12">
         <v>374700</v>
       </c>
-      <c r="Q18" s="12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="P18" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="54" t="s">
         <v>11</v>
       </c>
@@ -5463,14 +5471,14 @@
       <c r="N19" s="10">
         <v>-110000</v>
       </c>
+      <c r="P19" s="10">
+        <v>-12000</v>
+      </c>
       <c r="Q19" s="10">
-        <v>-12000</v>
-      </c>
-      <c r="R19" s="10">
         <v>-160000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>10</v>
       </c>
@@ -5484,7 +5492,7 @@
         <v>176000</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="54" t="s">
         <v>11</v>
       </c>
@@ -5496,7 +5504,7 @@
         <v>-80000</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="12" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
         <v>12</v>
       </c>
@@ -5504,7 +5512,7 @@
         <v>170500</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="54" t="s">
         <v>13</v>
       </c>
@@ -5516,13 +5524,13 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="53"/>
     </row>
-    <row r="25" spans="1:30" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="53"/>
     </row>
-    <row r="26" spans="1:30" s="20" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:30" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="57" t="s">
         <v>17</v>
       </c>
@@ -5569,38 +5577,39 @@
         <v>319</v>
       </c>
       <c r="Q26" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="R26" s="79" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="R26" s="79"/>
+      <c r="S26" s="133" t="s">
+        <v>334</v>
       </c>
       <c r="Z26" s="109"/>
     </row>
-    <row r="27" spans="1:30" s="19" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:30" s="19" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:30" s="19" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
     </row>
-    <row r="30" spans="1:30" s="21" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="60" t="s">
         <v>243</v>
       </c>
       <c r="B31" s="92">
         <f>SUM(B2:AF2)</f>
-        <v>160000</v>
+        <v>3160000</v>
       </c>
       <c r="C31" s="92"/>
       <c r="T31" s="1"/>
@@ -5609,17 +5618,17 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:30" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="77" t="s">
         <v>244</v>
       </c>
       <c r="B32" s="78">
         <f>SUM(B5:AF5)</f>
-        <v>885000</v>
+        <v>1005000</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="T32" s="83" t="s">
-        <v>331</v>
+      <c r="S32" s="83" t="s">
+        <v>326</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -5631,17 +5640,17 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:31" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="69" t="s">
         <v>248</v>
       </c>
       <c r="B33" s="70">
         <f>B34-B31</f>
-        <v>4746430</v>
+        <v>1746430</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="T33" s="116" t="s">
-        <v>326</v>
+      <c r="S33" s="116" t="s">
+        <v>322</v>
       </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -5653,7 +5662,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:31" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="61" t="s">
         <v>204</v>
       </c>
@@ -5663,7 +5672,7 @@
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="T34" s="83">
+      <c r="S34" s="83">
         <v>17690</v>
       </c>
       <c r="U34" s="1"/>
@@ -5676,21 +5685,21 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:31" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="62" t="s">
         <v>233</v>
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>8641600</v>
+        <v>8761600</v>
       </c>
       <c r="C35" s="15">
         <f>B35*0.1</f>
-        <v>864160</v>
+        <v>876160</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="T35" s="117" t="s">
-        <v>327</v>
+      <c r="S35" s="117" t="s">
+        <v>323</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -5702,17 +5711,17 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:31" s="9" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="63" t="s">
         <v>206</v>
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>4828600</v>
+        <v>4090930</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="T36" s="83">
+      <c r="S36" s="83">
         <v>16590</v>
       </c>
       <c r="U36" s="1"/>
@@ -5725,22 +5734,22 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:31" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="64" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="44">
-        <f>SUM(B8:AF8)</f>
-        <v>-3813000</v>
+        <f>SUM(B8:AF8)-318500-339170</f>
+        <v>-4670670</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="T37" s="118" t="s">
-        <v>328</v>
+      <c r="S37" s="118" t="s">
+        <v>324</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="AE37" s="9"/>
     </row>
-    <row r="38" spans="1:31" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="65" t="s">
         <v>189</v>
       </c>
@@ -5748,20 +5757,20 @@
         <f>SUM(B30:AF30)-SUM(41:41)</f>
         <v>0</v>
       </c>
-      <c r="T38" s="83">
+      <c r="S38" s="83">
         <f>14290*2</f>
         <v>28580</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="AE38" s="9"/>
     </row>
-    <row r="39" spans="1:31" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="88" t="s">
         <v>193</v>
       </c>
       <c r="B39" s="89">
         <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))+340000+900000+900000</f>
-        <v>298000</v>
+        <v>218000</v>
       </c>
       <c r="C39" s="113">
         <f>34+90+90</f>
@@ -5770,19 +5779,19 @@
       <c r="D39" s="114" t="s">
         <v>321</v>
       </c>
-      <c r="T39" s="118" t="s">
-        <v>329</v>
+      <c r="S39" s="118" t="s">
+        <v>325</v>
       </c>
       <c r="Y39" s="9"/>
       <c r="AE39" s="9"/>
     </row>
-    <row r="40" spans="1:31" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="86" t="s">
         <v>197</v>
       </c>
       <c r="B40" s="87">
-        <f>5291060+SUM(B4:AF4)-340000-900000-900000</f>
-        <v>6162060</v>
+        <f>5291060+SUM(B4:AF4)-340000-900000-900000+100000</f>
+        <v>6262060</v>
       </c>
       <c r="C40" s="7">
         <f>-34-90-90</f>
@@ -5792,83 +5801,83 @@
         <f>(C39/30)*1800</f>
         <v>12840</v>
       </c>
-      <c r="T40" s="83">
+      <c r="S40" s="83">
         <f>12390*3</f>
         <v>37170</v>
       </c>
       <c r="Y40" s="9"/>
       <c r="AE40" s="9"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C41" s="114" t="s">
         <v>320</v>
       </c>
-      <c r="T41" s="118" t="s">
-        <v>330</v>
+      <c r="S41" s="118" t="s">
+        <v>333</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="AE41" s="9"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="80" t="s">
         <v>231</v>
       </c>
       <c r="B42" s="81">
         <f>SUM(B7:AF7)</f>
-        <v>4828600</v>
-      </c>
-      <c r="T42" s="119">
-        <f>SUM(T33:T40)</f>
+        <v>4748600</v>
+      </c>
+      <c r="S42" s="119">
+        <f>SUM(S33:S40)</f>
         <v>100030</v>
       </c>
       <c r="Y42" s="9"/>
       <c r="AE42" s="9"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="84" t="s">
         <v>232</v>
       </c>
       <c r="B43" s="85">
         <f>B33+B39+B40</f>
-        <v>11206490</v>
+        <v>8226490</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="T44" s="84">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="S44" s="84">
         <v>15990</v>
       </c>
       <c r="Y44" s="9"/>
       <c r="AE44" s="9"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B45" s="9">
         <v>867910</v>
       </c>
-      <c r="T45" s="84">
+      <c r="S45" s="84">
         <v>17990</v>
       </c>
       <c r="Y45" s="9"/>
       <c r="AE45" s="9"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B46" s="9">
         <v>800000</v>
       </c>
-      <c r="T46" s="84">
+      <c r="S46" s="84">
         <v>19990</v>
       </c>
       <c r="Y46" s="9"/>
       <c r="AE46" s="9"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>242</v>
       </c>
@@ -5876,65 +5885,65 @@
         <f>SUM(B45:B46)</f>
         <v>1667910</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="R47" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="T47" s="119">
-        <f>SUM(T44:T46)</f>
+      <c r="S47" s="119">
+        <f>SUM(S44:S46)</f>
         <v>53970</v>
       </c>
       <c r="Y47" s="9"/>
       <c r="AE47" s="9"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="S48" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="T48" s="1">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R48" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S48" s="1">
         <f>10890+8490+219120+80000</f>
         <v>318500</v>
       </c>
       <c r="Y48" s="9"/>
       <c r="AE48" s="9"/>
     </row>
-    <row r="49" spans="4:31" x14ac:dyDescent="0.4">
-      <c r="T49" s="1">
-        <f>SUM(T48,T42,T47)</f>
+    <row r="49" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="S49" s="1">
+        <f>SUM(S48,S42,S47)</f>
         <v>472500</v>
       </c>
       <c r="Y49" s="9"/>
       <c r="AE49" s="9"/>
     </row>
-    <row r="50" spans="4:31" x14ac:dyDescent="0.4">
-      <c r="S50" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="T50" s="1">
+    <row r="50" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="R50" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="S50" s="1">
         <v>12600</v>
       </c>
       <c r="Y50" s="9"/>
       <c r="AE50" s="9"/>
     </row>
-    <row r="51" spans="4:31" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:31" x14ac:dyDescent="0.3">
       <c r="Y51" s="9"/>
       <c r="AE51" s="9"/>
     </row>
-    <row r="52" spans="4:31" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:31" x14ac:dyDescent="0.3">
       <c r="Y52" s="9"/>
       <c r="AE52" s="9"/>
     </row>
-    <row r="53" spans="4:31" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:31" x14ac:dyDescent="0.3">
       <c r="Y53" s="9"/>
       <c r="AE53" s="9"/>
     </row>
-    <row r="56" spans="4:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E56" s="96"/>
       <c r="F56" s="96"/>
       <c r="G56" s="96"/>
       <c r="H56" s="96"/>
       <c r="I56" s="96"/>
     </row>
-    <row r="57" spans="4:31" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="94"/>
       <c r="E57" s="120" t="s">
         <v>266</v>
@@ -5945,7 +5954,7 @@
       <c r="I57" s="122"/>
       <c r="J57" s="95"/>
     </row>
-    <row r="58" spans="4:31" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D58" s="94"/>
       <c r="E58" s="100" t="s">
         <v>306</v>
@@ -5964,7 +5973,7 @@
       </c>
       <c r="J58" s="95"/>
     </row>
-    <row r="59" spans="4:31" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D59" s="94"/>
       <c r="E59" s="99">
         <f>SUM(B6:E6)</f>
@@ -5976,7 +5985,7 @@
       </c>
       <c r="G59" s="103">
         <f>SUM(M6:S6)</f>
-        <v>3989400</v>
+        <v>4109400</v>
       </c>
       <c r="H59" s="107">
         <f>SUM(T6:Z6)</f>
@@ -5988,7 +5997,7 @@
       </c>
       <c r="J59" s="15"/>
     </row>
-    <row r="60" spans="4:31" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E60" s="97"/>
       <c r="F60" s="97"/>
       <c r="G60" s="97"/>
@@ -5997,20 +6006,20 @@
       </c>
       <c r="I60" s="99">
         <f>SUM(E59:I59)</f>
-        <v>8641600</v>
-      </c>
-    </row>
-    <row r="61" spans="4:31" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>8761600</v>
+      </c>
+    </row>
+    <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H61" s="99" t="s">
         <v>267</v>
       </c>
       <c r="I61" s="99">
         <f>AVERAGE(E59:I59)</f>
-        <v>1728320</v>
-      </c>
-    </row>
-    <row r="62" spans="4:31" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.4">
+        <v>1752320</v>
+      </c>
+    </row>
+    <row r="62" spans="4:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>288</v>
       </c>
@@ -6030,7 +6039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
@@ -6040,12 +6049,12 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>184</v>
       </c>
@@ -6053,20 +6062,20 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -6076,22 +6085,22 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="22"/>
-    <col min="2" max="2" width="20.19921875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="22" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="22" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="24.19921875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="24.25" style="22" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="22" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="22" customWidth="1"/>
     <col min="8" max="9" width="9" style="22"/>
-    <col min="10" max="10" width="22.09765625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="10.8984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="22" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="26" t="s">
         <v>101</v>
       </c>
@@ -6110,15 +6119,15 @@
       <c r="G1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="129" t="s">
+      <c r="H1" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
         <v>128</v>
       </c>
@@ -6133,16 +6142,16 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="126" t="s">
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="123" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -6158,14 +6167,14 @@
       <c r="G3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="125"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="129"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="124"/>
       <c r="C4" s="24" t="s">
         <v>122</v>
       </c>
@@ -6175,14 +6184,14 @@
       <c r="G4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="125"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="128"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="129"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="125"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -6192,13 +6201,13 @@
       <c r="G5" s="24">
         <v>707266</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="125"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H5" s="127"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="129"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>64</v>
       </c>
@@ -6213,13 +6222,13 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="125"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="129"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
         <v>118</v>
       </c>
@@ -6238,13 +6247,13 @@
       <c r="G7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="125"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="129"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
         <v>37</v>
       </c>
@@ -6261,13 +6270,13 @@
       <c r="G8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="129"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
         <v>46</v>
       </c>
@@ -6278,13 +6287,13 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="125"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="129"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
         <v>109</v>
       </c>
@@ -6297,80 +6306,80 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="129"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="129"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="129"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="129"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="129"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="28" t="s">
         <v>106</v>
       </c>
@@ -6384,7 +6393,7 @@
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
     </row>
-    <row r="20" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="26" t="s">
         <v>103</v>
       </c>
@@ -6409,7 +6418,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="24" t="s">
         <v>96</v>
       </c>
@@ -6432,7 +6441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="24" t="s">
         <v>91</v>
       </c>
@@ -6455,7 +6464,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
         <v>86</v>
       </c>
@@ -6478,7 +6487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
         <v>81</v>
       </c>
@@ -6501,7 +6510,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="24" t="s">
         <v>77</v>
       </c>
@@ -6524,7 +6533,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
         <v>72</v>
       </c>
@@ -6549,7 +6558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="24" t="s">
         <v>66</v>
       </c>
@@ -6572,7 +6581,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
         <v>61</v>
       </c>
@@ -6595,7 +6604,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
         <v>56</v>
       </c>
@@ -6618,7 +6627,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
         <v>50</v>
       </c>
@@ -6635,7 +6644,7 @@
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="24" t="s">
         <v>48</v>
       </c>
@@ -6652,7 +6661,7 @@
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="24" t="s">
         <v>45</v>
       </c>
@@ -6669,7 +6678,7 @@
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="24" t="s">
         <v>43</v>
       </c>
@@ -6686,7 +6695,7 @@
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="24" t="s">
         <v>41</v>
       </c>
@@ -6703,7 +6712,7 @@
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="24" t="s">
         <v>39</v>
       </c>
@@ -6720,7 +6729,7 @@
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="24" t="s">
         <v>36</v>
       </c>
@@ -6734,7 +6743,7 @@
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="24" t="s">
         <v>34</v>
       </c>
@@ -6748,7 +6757,7 @@
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="24" t="s">
         <v>32</v>
       </c>
@@ -6762,7 +6771,7 @@
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="24" t="s">
         <v>29</v>
       </c>
@@ -6774,7 +6783,7 @@
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="24" t="s">
         <v>27</v>
       </c>
@@ -6788,7 +6797,7 @@
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
@@ -6796,7 +6805,7 @@
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
@@ -6804,7 +6813,7 @@
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -6812,7 +6821,7 @@
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
@@ -6820,7 +6829,7 @@
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -6828,7 +6837,7 @@
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
@@ -6836,7 +6845,7 @@
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
@@ -6844,7 +6853,7 @@
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
@@ -6854,12 +6863,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -6869,6 +6872,12 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6877,7 +6886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -6887,17 +6896,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="22"/>
-    <col min="2" max="2" width="16.09765625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="24.3984375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="23.19921875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="22" customWidth="1"/>
     <col min="6" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="26" t="s">
         <v>134</v>
       </c>
@@ -6919,7 +6928,7 @@
       <c r="K1" s="131"/>
       <c r="L1" s="132"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
         <v>139</v>
       </c>
@@ -6935,7 +6944,7 @@
       </c>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
         <v>143</v>
       </c>
@@ -6951,7 +6960,7 @@
       </c>
       <c r="L3" s="32"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
         <v>146</v>
       </c>
@@ -6965,7 +6974,7 @@
       <c r="G4" s="31"/>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>147</v>
       </c>
@@ -6979,7 +6988,7 @@
       </c>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>149</v>
       </c>
@@ -6995,7 +7004,7 @@
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
         <v>153</v>
       </c>
@@ -7009,7 +7018,7 @@
       <c r="G7" s="31"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
         <v>156</v>
       </c>
@@ -7023,7 +7032,7 @@
       <c r="G8" s="31"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="24"/>
       <c r="C9" s="24" t="s">
         <v>159</v>
@@ -7035,7 +7044,7 @@
       <c r="G9" s="31"/>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
         <v>161</v>
       </c>
@@ -7053,7 +7062,7 @@
       <c r="K10" s="34"/>
       <c r="L10" s="35"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
         <v>163</v>
@@ -7067,7 +7076,7 @@
       </c>
       <c r="L11" s="37"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
         <v>166</v>
       </c>
@@ -7083,7 +7092,7 @@
       </c>
       <c r="L12" s="37"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
         <v>170</v>
       </c>
@@ -7099,7 +7108,7 @@
       </c>
       <c r="L13" s="37"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
         <v>174</v>
       </c>
@@ -7117,7 +7126,7 @@
       </c>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -7127,7 +7136,7 @@
       </c>
       <c r="L15" s="37"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -7137,7 +7146,7 @@
       </c>
       <c r="L16" s="37"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -7147,7 +7156,7 @@
       </c>
       <c r="L17" s="37"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -7155,7 +7164,7 @@
       <c r="G18" s="36"/>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -7169,25 +7178,25 @@
       <c r="K19" s="39"/>
       <c r="L19" s="40"/>
     </row>
-    <row r="20" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -7203,46 +7212,46 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M31" sqref="L31:M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>299</v>
       </c>

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -2046,6 +2046,9 @@
     <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2054,6 +2057,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2067,15 +2079,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2084,9 +2087,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4454,13 +4454,13 @@
     </row>
     <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D56" s="94"/>
-      <c r="E56" s="120" t="s">
+      <c r="E56" s="121" t="s">
         <v>266</v>
       </c>
-      <c r="F56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="123"/>
       <c r="J56" s="95"/>
     </row>
     <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4554,8 +4554,8 @@
   </sheetPr>
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="S7" s="8">
         <f t="shared" si="3"/>
-        <v>-80000</v>
+        <v>-92000</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="3"/>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="S8" s="18">
         <f>SUM(S13,S15,S17,S19,S21,S23)</f>
-        <v>-200000</v>
+        <v>-212000</v>
       </c>
       <c r="T8" s="18">
         <f t="shared" si="7"/>
@@ -5317,6 +5317,9 @@
         <f>-24000-12000</f>
         <v>-36000</v>
       </c>
+      <c r="S13" s="11">
+        <v>-12000</v>
+      </c>
       <c r="AA13" s="10"/>
     </row>
     <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -5580,7 +5583,7 @@
         <v>329</v>
       </c>
       <c r="R26" s="79"/>
-      <c r="S26" s="133" t="s">
+      <c r="S26" s="120" t="s">
         <v>334</v>
       </c>
       <c r="Z26" s="109"/>
@@ -5717,7 +5720,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>4090930</v>
+        <v>4078930</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -5740,7 +5743,7 @@
       </c>
       <c r="B37" s="44">
         <f>SUM(B8:AF8)-318500-339170</f>
-        <v>-4670670</v>
+        <v>-4682670</v>
       </c>
       <c r="C37" s="15"/>
       <c r="S37" s="118" t="s">
@@ -5770,7 +5773,7 @@
       </c>
       <c r="B39" s="89">
         <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))+340000+900000+900000</f>
-        <v>218000</v>
+        <v>206000</v>
       </c>
       <c r="C39" s="113">
         <f>34+90+90</f>
@@ -5824,7 +5827,7 @@
       </c>
       <c r="B42" s="81">
         <f>SUM(B7:AF7)</f>
-        <v>4748600</v>
+        <v>4736600</v>
       </c>
       <c r="S42" s="119">
         <f>SUM(S33:S40)</f>
@@ -5839,7 +5842,7 @@
       </c>
       <c r="B43" s="85">
         <f>B33+B39+B40</f>
-        <v>8226490</v>
+        <v>8214490</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
@@ -5945,13 +5948,13 @@
     </row>
     <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="94"/>
-      <c r="E57" s="120" t="s">
+      <c r="E57" s="121" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="121"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="123"/>
       <c r="J57" s="95"/>
     </row>
     <row r="58" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6119,13 +6122,13 @@
       <c r="G1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="126" t="s">
+      <c r="H1" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
@@ -6142,16 +6145,16 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="127" t="s">
+      <c r="H2" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="129"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="126"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="127" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -6167,14 +6170,14 @@
       <c r="G3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="127"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="124"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="24" t="s">
         <v>122</v>
       </c>
@@ -6184,14 +6187,14 @@
       <c r="G4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="127"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="129"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="126"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="125"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -6201,11 +6204,11 @@
       <c r="G5" s="24">
         <v>707266</v>
       </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="129"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="126"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
@@ -6222,11 +6225,11 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="129"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
@@ -6247,11 +6250,11 @@
       <c r="G7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="129"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="126"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
@@ -6270,11 +6273,11 @@
       <c r="G8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="129"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="126"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
@@ -6287,11 +6290,11 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="129"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="126"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
@@ -6306,11 +6309,11 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="129"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="126"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="24"/>
@@ -6319,11 +6322,11 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="129"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="126"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
@@ -6332,11 +6335,11 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="129"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="126"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
@@ -6345,11 +6348,11 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="129"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="126"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
@@ -6358,11 +6361,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="129"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="126"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="30"/>
@@ -6863,6 +6866,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -6872,12 +6881,6 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6919,14 +6922,14 @@
       <c r="E1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="133"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="336">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1307,6 +1307,10 @@
   </si>
   <si>
     <t>2시간 외상325000(삼촌손님),1시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFSF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2058,15 +2062,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2077,6 +2072,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4554,8 +4558,8 @@
   </sheetPr>
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5585,6 +5589,9 @@
       <c r="R26" s="79"/>
       <c r="S26" s="120" t="s">
         <v>334</v>
+      </c>
+      <c r="T26" s="20" t="s">
+        <v>335</v>
       </c>
       <c r="Z26" s="109"/>
     </row>
@@ -6122,13 +6129,13 @@
       <c r="G1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
@@ -6145,16 +6152,16 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="126"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="124" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -6170,14 +6177,14 @@
       <c r="G3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="130"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="128"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="24" t="s">
         <v>122</v>
       </c>
@@ -6187,14 +6194,14 @@
       <c r="G4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="126"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="130"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="129"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -6204,11 +6211,11 @@
       <c r="G5" s="24">
         <v>707266</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="126"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="130"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
@@ -6225,11 +6232,11 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
@@ -6250,11 +6257,11 @@
       <c r="G7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="126"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="130"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
@@ -6273,11 +6280,11 @@
       <c r="G8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="124"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="126"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="130"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
@@ -6290,11 +6297,11 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="126"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="130"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
@@ -6309,11 +6316,11 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="126"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="130"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="24"/>
@@ -6322,11 +6329,11 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="126"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="130"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
@@ -6335,11 +6342,11 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="126"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="130"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
@@ -6348,11 +6355,11 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="126"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="130"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
@@ -6361,11 +6368,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="126"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="130"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="30"/>
@@ -6866,12 +6873,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -6881,6 +6882,12 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="11940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="아이디,비번" sheetId="4" r:id="rId5"/>
     <sheet name="팁" sheetId="8" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'8월 매출'!$A$1:$AF$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="344">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1310,7 +1313,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AFSF</t>
+    <t>노래방 저작권료(케뱅)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님1명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체손님,몽골손님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트너 카드 매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨,족발</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2050,7 +2085,7 @@
     <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2658,8 +2693,8 @@
   </sheetPr>
   <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4556,10 +4591,11 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AI81"/>
+  <dimension ref="A1:AI108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4715,6 +4751,10 @@
         <f>SUM(I12,I14,I16,I18,I20,I22)</f>
         <v>1804000</v>
       </c>
+      <c r="J3" s="5">
+        <f>SUM(J12,J14,J16,J18,J20,J22)</f>
+        <v>0</v>
+      </c>
       <c r="K3" s="5">
         <f>SUM(K12,K14,K16,K18,K20,K22,K24,K25,K32,K33,K34)</f>
         <v>233200</v>
@@ -4757,7 +4797,7 @@
       </c>
       <c r="U3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>203500</v>
       </c>
       <c r="V3" s="5">
         <f t="shared" si="0"/>
@@ -4765,11 +4805,11 @@
       </c>
       <c r="W3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>385000</v>
       </c>
       <c r="X3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88000</v>
       </c>
       <c r="Y3" s="5">
         <f t="shared" si="0"/>
@@ -4821,6 +4861,9 @@
         <f>160000+320000</f>
         <v>480000</v>
       </c>
+      <c r="F4" s="112">
+        <v>0</v>
+      </c>
       <c r="G4" s="112">
         <v>480000</v>
       </c>
@@ -4831,6 +4874,9 @@
         <f>200000-20000</f>
         <v>180000</v>
       </c>
+      <c r="J4" s="112">
+        <v>0</v>
+      </c>
       <c r="K4" s="112">
         <v>0</v>
       </c>
@@ -4843,8 +4889,28 @@
       <c r="N4" s="112">
         <v>0</v>
       </c>
-      <c r="Q4" s="112">
+      <c r="O4" s="112">
+        <v>0</v>
+      </c>
+      <c r="P4" s="112">
         <v>1200000</v>
+      </c>
+      <c r="R4" s="112">
+        <v>0</v>
+      </c>
+      <c r="S4" s="112">
+        <v>325000</v>
+      </c>
+      <c r="T4" s="112">
+        <v>200000</v>
+      </c>
+      <c r="U4" s="112">
+        <f>250000+220000+131000+160000+80000+330000+34000+120000</f>
+        <v>1325000</v>
+      </c>
+      <c r="X4" s="112">
+        <f>550000+30000+360000</f>
+        <v>940000</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -4875,6 +4941,9 @@
       <c r="I5" s="6">
         <v>0</v>
       </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
       <c r="K5" s="6">
         <v>0</v>
       </c>
@@ -4887,14 +4956,31 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
       <c r="Q5" s="6">
-        <v>30000</v>
+        <v>320000</v>
       </c>
       <c r="R5" s="6">
-        <v>320000</v>
+        <v>0</v>
       </c>
       <c r="S5" s="6">
         <v>120000</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <f>10000+89000+50000</f>
+        <v>149000</v>
+      </c>
+      <c r="V5" s="6">
+        <f>60000+20000+28000+20000+20000+10000</f>
+        <v>158000</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -4930,11 +5016,15 @@
         <v>107000</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="1"/>
+        <f>I3+I4+I5</f>
         <v>1984000</v>
       </c>
+      <c r="J6" s="7">
+        <f t="shared" ref="J6" si="2">J3+J4+J5</f>
+        <v>0</v>
+      </c>
       <c r="K6" s="7">
-        <f t="shared" ref="K6" si="2">K3+K4+K5</f>
+        <f t="shared" ref="K6" si="3">K3+K4+K5</f>
         <v>233200</v>
       </c>
       <c r="L6" s="7">
@@ -4955,39 +5045,39 @@
       </c>
       <c r="P6" s="7">
         <f t="shared" si="1"/>
-        <v>90200</v>
+        <v>1290200</v>
       </c>
       <c r="Q6" s="7">
-        <f t="shared" si="1"/>
-        <v>1340000</v>
+        <f>Q3+Q4+Q5</f>
+        <v>430000</v>
       </c>
       <c r="R6" s="7">
         <f t="shared" si="1"/>
-        <v>540000</v>
+        <v>220000</v>
       </c>
       <c r="S6" s="7">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>445000</v>
       </c>
       <c r="T6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="U6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1677500</v>
       </c>
       <c r="V6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>158000</v>
       </c>
       <c r="W6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>385000</v>
       </c>
       <c r="X6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1028000</v>
       </c>
       <c r="Y6" s="7">
         <f t="shared" si="1"/>
@@ -5035,7 +5125,7 @@
         <v>410000</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" ref="D7:AF7" si="3">D6+D8</f>
+        <f t="shared" ref="D7:AF7" si="4">D6+D8</f>
         <v>273000</v>
       </c>
       <c r="E7" s="8">
@@ -5043,107 +5133,111 @@
         <v>228000</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>341000</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87000</v>
       </c>
       <c r="I7" s="8">
         <f>I6+I8</f>
         <v>1146000</v>
       </c>
+      <c r="J7" s="8">
+        <f>J6+J8</f>
+        <v>0</v>
+      </c>
       <c r="K7" s="8">
-        <f t="shared" ref="K7" si="4">K6+K8</f>
+        <f t="shared" ref="K7" si="5">K6+K8</f>
         <v>209200</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45000</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1127200</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P7" s="8">
         <f>P6+P8</f>
-        <v>-575800</v>
+        <v>624200</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="3"/>
-        <v>1068000</v>
+        <f t="shared" si="4"/>
+        <v>158000</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" si="3"/>
-        <v>460000</v>
+        <f t="shared" si="4"/>
+        <v>140000</v>
       </c>
       <c r="S7" s="8">
-        <f t="shared" si="3"/>
-        <v>-92000</v>
+        <f t="shared" si="4"/>
+        <v>233000</v>
       </c>
       <c r="T7" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>120000</v>
       </c>
       <c r="U7" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1164500</v>
       </c>
       <c r="V7" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>156800</v>
       </c>
       <c r="W7" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>225000</v>
       </c>
       <c r="X7" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>546000</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5152,7 +5246,7 @@
         <v>195</v>
       </c>
       <c r="B8" s="18">
-        <f t="shared" ref="B8:H8" si="5">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
+        <f t="shared" ref="B8:H8" si="6">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
         <v>0</v>
       </c>
       <c r="C8" s="18">
@@ -5160,7 +5254,7 @@
         <v>-253000</v>
       </c>
       <c r="D8" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-252000</v>
       </c>
       <c r="E8" s="18">
@@ -5168,39 +5262,43 @@
         <v>-252000</v>
       </c>
       <c r="F8" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f t="shared" si="5"/>
+        <f>SUM(G13,G15,G17,G19,G21,G23,G23)</f>
         <v>-264000</v>
       </c>
       <c r="H8" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-20000</v>
       </c>
       <c r="I8" s="18">
         <f>SUM(I13,I15,I17,I19,I21,I23)</f>
         <v>-838000</v>
       </c>
+      <c r="J8" s="18">
+        <f t="shared" ref="J8:L8" si="7">SUM(J13,J15,J17,J19,J21,J23)</f>
+        <v>0</v>
+      </c>
       <c r="K8" s="18">
-        <f t="shared" ref="K8" si="6">SUM(K13,K15,K17,K19,K21,K23)</f>
+        <f t="shared" si="7"/>
         <v>-24000</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" ref="L8:AF8" si="7">SUM(L13,L15,L17,L19,L21,L23)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="M8:AF8" si="8">SUM(M13,M15,M17,M19,M21,M23)</f>
         <v>0</v>
       </c>
       <c r="N8" s="18">
-        <f t="shared" si="7"/>
+        <f>SUM(N13,N15,N17,N19,N21,N23)</f>
         <v>-892000</v>
       </c>
       <c r="O8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P8" s="18">
@@ -5220,55 +5318,55 @@
         <v>-212000</v>
       </c>
       <c r="T8" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-80000</v>
       </c>
       <c r="U8" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-513000</v>
       </c>
       <c r="V8" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-1200</v>
       </c>
       <c r="W8" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-160000</v>
       </c>
       <c r="X8" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-482000</v>
       </c>
       <c r="Y8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5324,6 +5422,21 @@
       <c r="S13" s="11">
         <v>-12000</v>
       </c>
+      <c r="T13" s="11">
+        <v>-80000</v>
+      </c>
+      <c r="U13" s="11">
+        <v>-24000</v>
+      </c>
+      <c r="V13" s="11">
+        <v>-1200</v>
+      </c>
+      <c r="W13" s="11">
+        <v>-160000</v>
+      </c>
+      <c r="X13" s="11">
+        <v>-160000</v>
+      </c>
       <c r="AA13" s="10"/>
     </row>
     <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -5360,6 +5473,19 @@
       <c r="R14" s="12">
         <v>176000</v>
       </c>
+      <c r="U14" s="12">
+        <v>55000</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="W14" s="12">
+        <f>200000+185000</f>
+        <v>385000</v>
+      </c>
+      <c r="X14" s="12">
+        <v>88000</v>
+      </c>
     </row>
     <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
@@ -5394,6 +5520,12 @@
       <c r="S15" s="10">
         <v>-160000</v>
       </c>
+      <c r="U15" s="10">
+        <v>-20000</v>
+      </c>
+      <c r="X15" s="10">
+        <v>-40000</v>
+      </c>
     </row>
     <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
@@ -5417,6 +5549,9 @@
       <c r="R16" s="12">
         <v>44000</v>
       </c>
+      <c r="U16" s="12">
+        <v>88000</v>
+      </c>
       <c r="Z16" s="72"/>
     </row>
     <row r="17" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -5446,6 +5581,12 @@
       <c r="S17" s="10">
         <v>-40000</v>
       </c>
+      <c r="U17" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="X17" s="10">
+        <v>-200000</v>
+      </c>
     </row>
     <row r="18" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
@@ -5466,6 +5607,9 @@
       <c r="P18" s="12" t="s">
         <v>328</v>
       </c>
+      <c r="U18" s="12">
+        <v>60500</v>
+      </c>
     </row>
     <row r="19" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="54" t="s">
@@ -5484,6 +5628,13 @@
       <c r="Q19" s="10">
         <v>-160000</v>
       </c>
+      <c r="U19" s="10">
+        <f>-120000-80000</f>
+        <v>-200000</v>
+      </c>
+      <c r="X19" s="10">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="20" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
@@ -5498,6 +5649,9 @@
       <c r="N20" s="12">
         <v>176000</v>
       </c>
+      <c r="X20" s="12" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="21" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="54" t="s">
@@ -5510,6 +5664,13 @@
       <c r="N21" s="10">
         <v>-80000</v>
       </c>
+      <c r="U21" s="10">
+        <f>-80000-40000-40000-40000-40000</f>
+        <v>-240000</v>
+      </c>
+      <c r="X21" s="10">
+        <v>-70000</v>
+      </c>
     </row>
     <row r="22" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
@@ -5530,6 +5691,9 @@
       <c r="N23" s="10">
         <v>-100000</v>
       </c>
+      <c r="U23" s="10">
+        <v>-17000</v>
+      </c>
     </row>
     <row r="24" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="53"/>
@@ -5591,7 +5755,13 @@
         <v>334</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="U26" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="V26" s="20" t="s">
+        <v>339</v>
       </c>
       <c r="Z26" s="109"/>
     </row>
@@ -5618,10 +5788,12 @@
         <v>243</v>
       </c>
       <c r="B31" s="92">
-        <f>SUM(B2:AF2)</f>
-        <v>3160000</v>
-      </c>
-      <c r="C31" s="92"/>
+        <f>SUM(B2:AF2)+1667910</f>
+        <v>4827910</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>245</v>
+      </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -5633,12 +5805,15 @@
         <v>244</v>
       </c>
       <c r="B32" s="78">
-        <f>SUM(B5:AF5)</f>
-        <v>1005000</v>
+        <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
+        <v>7083000</v>
       </c>
       <c r="C32" s="13"/>
       <c r="S32" s="83" t="s">
         <v>326</v>
+      </c>
+      <c r="T32" s="108" t="s">
+        <v>335</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -5656,11 +5831,18 @@
       </c>
       <c r="B33" s="70">
         <f>B34-B31</f>
-        <v>1746430</v>
+        <v>755020</v>
+      </c>
+      <c r="C33" s="9">
+        <f>B32+B34</f>
+        <v>12665930</v>
       </c>
       <c r="D33" s="15"/>
       <c r="S33" s="116" t="s">
         <v>322</v>
+      </c>
+      <c r="T33" s="108">
+        <v>32760</v>
       </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -5678,7 +5860,7 @@
       </c>
       <c r="B34" s="14">
         <f>500000-D81+SUM(B3:AF3)</f>
-        <v>4906430</v>
+        <v>5582930</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -5701,11 +5883,11 @@
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>8761600</v>
+        <v>12505100</v>
       </c>
       <c r="C35" s="15">
         <f>B35*0.1</f>
-        <v>876160</v>
+        <v>1250510</v>
       </c>
       <c r="D35" s="15"/>
       <c r="S35" s="117" t="s">
@@ -5727,7 +5909,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>4078930</v>
+        <v>7243900</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -5749,8 +5931,8 @@
         <v>16</v>
       </c>
       <c r="B37" s="44">
-        <f>SUM(B8:AF8)-318500-339170</f>
-        <v>-4682670</v>
+        <f>SUM(B8:AF8)</f>
+        <v>-5261200</v>
       </c>
       <c r="C37" s="15"/>
       <c r="S37" s="118" t="s">
@@ -5779,16 +5961,17 @@
         <v>193</v>
       </c>
       <c r="B39" s="89">
-        <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))+340000+900000+900000</f>
-        <v>206000</v>
+        <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))+340000+900000+900000+20000+40000+300000+400000+160000</f>
+        <v>166800</v>
       </c>
       <c r="C39" s="113">
-        <f>34+90+90</f>
-        <v>214</v>
+        <f>34+90+90+6+30+40</f>
+        <v>290</v>
       </c>
       <c r="D39" s="114" t="s">
         <v>321</v>
       </c>
+      <c r="E39" s="9"/>
       <c r="S39" s="118" t="s">
         <v>325</v>
       </c>
@@ -5800,16 +5983,16 @@
         <v>197</v>
       </c>
       <c r="B40" s="87">
-        <f>5291060+SUM(B4:AF4)-340000-900000-900000+100000</f>
-        <v>6262060</v>
+        <f>5291060+SUM(B4:AF4)-340000-900000-900000+100000+B31-S48-D81-T33-20000-B47-40000-300000-400000-160000</f>
+        <v>10601630</v>
       </c>
       <c r="C40" s="7">
-        <f>-34-90-90</f>
-        <v>-214</v>
+        <f>-34-90-90-6-30-40</f>
+        <v>-290</v>
       </c>
       <c r="D40" s="115">
         <f>(C39/30)*1800</f>
-        <v>12840</v>
+        <v>17400</v>
       </c>
       <c r="S40" s="83">
         <f>12390*3</f>
@@ -5834,7 +6017,7 @@
       </c>
       <c r="B42" s="81">
         <f>SUM(B7:AF7)</f>
-        <v>4736600</v>
+        <v>7243900</v>
       </c>
       <c r="S42" s="119">
         <f>SUM(S33:S40)</f>
@@ -5849,7 +6032,7 @@
       </c>
       <c r="B43" s="85">
         <f>B33+B39+B40</f>
-        <v>8214490</v>
+        <v>11523450</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
@@ -5995,11 +6178,11 @@
       </c>
       <c r="G59" s="103">
         <f>SUM(M6:S6)</f>
-        <v>4109400</v>
+        <v>4404400</v>
       </c>
       <c r="H59" s="107">
         <f>SUM(T6:Z6)</f>
-        <v>0</v>
+        <v>3448500</v>
       </c>
       <c r="I59" s="105">
         <f>SUM(AA6:AF6)</f>
@@ -6016,7 +6199,7 @@
       </c>
       <c r="I60" s="99">
         <f>SUM(E59:I59)</f>
-        <v>8761600</v>
+        <v>12505100</v>
       </c>
     </row>
     <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6025,7 +6208,7 @@
       </c>
       <c r="I61" s="99">
         <f>AVERAGE(E59:I59)</f>
-        <v>1752320</v>
+        <v>2501020</v>
       </c>
     </row>
     <row r="62" spans="4:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -6035,6 +6218,47 @@
       </c>
       <c r="D81" s="9">
         <v>339170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D105" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" s="119" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="119" t="s">
+        <v>340</v>
+      </c>
+      <c r="C106" s="119">
+        <v>153790</v>
+      </c>
+      <c r="D106" s="119">
+        <v>47940</v>
+      </c>
+      <c r="J106" s="119">
+        <f>172560+153790</f>
+        <v>326350</v>
+      </c>
+      <c r="R106" s="119">
+        <v>95870</v>
+      </c>
+      <c r="T106" s="119">
+        <f>843610+306770</f>
+        <v>1150380</v>
+      </c>
+      <c r="W106" s="119">
+        <v>306770</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <f>SUM(B106:AF106)</f>
+        <v>2081100</v>
       </c>
     </row>
   </sheetData>

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4593,9 +4593,9 @@
   </sheetPr>
   <dimension ref="A1:AI108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="V7" s="8">
         <f t="shared" si="4"/>
-        <v>156800</v>
+        <v>156000</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="V8" s="18">
         <f t="shared" si="8"/>
-        <v>-1200</v>
+        <v>-2000</v>
       </c>
       <c r="W8" s="18">
         <f t="shared" si="8"/>
@@ -5429,7 +5429,7 @@
         <v>-24000</v>
       </c>
       <c r="V13" s="11">
-        <v>-1200</v>
+        <v>-2000</v>
       </c>
       <c r="W13" s="11">
         <v>-160000</v>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>7243900</v>
+        <v>7243100</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B37" s="44">
         <f>SUM(B8:AF8)</f>
-        <v>-5261200</v>
+        <v>-5262000</v>
       </c>
       <c r="C37" s="15"/>
       <c r="S37" s="118" t="s">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="B39" s="89">
         <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))+340000+900000+900000+20000+40000+300000+400000+160000</f>
-        <v>166800</v>
+        <v>166000</v>
       </c>
       <c r="C39" s="113">
         <f>34+90+90+6+30+40</f>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="B42" s="81">
         <f>SUM(B7:AF7)</f>
-        <v>7243900</v>
+        <v>7243100</v>
       </c>
       <c r="S42" s="119">
         <f>SUM(S33:S40)</f>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B43" s="85">
         <f>B33+B39+B40</f>
-        <v>11523450</v>
+        <v>11522650</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="11940" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="계좌,카드" sheetId="3" r:id="rId4"/>
     <sheet name="아이디,비번" sheetId="4" r:id="rId5"/>
     <sheet name="팁" sheetId="8" r:id="rId6"/>
+    <sheet name="계산기" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'8월 매출'!$A$1:$AF$9</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="372">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1151,10 +1152,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>한팀 그냥감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>양주 1병 킵 : 배정현 
 얼음 카드구매 2천</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1223,129 +1220,245 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>아베크만3팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분빠꾸,10분빠꾸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전부카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱계좌에서 90 출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 현금으로 교환 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호두</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>견과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일치즈x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레첼(과자)x3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙모구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일,치킨,피자</t>
+  </si>
+  <si>
+    <t>과일</t>
+  </si>
+  <si>
+    <t>카드깡 10만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공병 126개+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱구매-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마구매-(현찰사용)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합계(정산완료)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시간 외상325000(삼촌손님),1시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노래방 저작권료(케뱅)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님1명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체손님,몽골손님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트너 카드 매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨,족발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55만원 외상 (삼촌지인)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1(2), 카드깡20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰방(大)추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일 및 안주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC인원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가세 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가세 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌손님4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님1명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본안주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티1시간반계산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2인,1인 2팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번영회비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한팀 그냥감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>현욱계좌에서 90만원 뽑음 ,NoShow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아베크만3팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoSHow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30분빠꾸,10분빠꾸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전부카드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoShow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현욱계좌에서 90 출금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 현금으로 교환 금액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수수료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호두</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>견과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>과일치즈x2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프레첼(과자)x3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙모구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>과일,치킨,피자</t>
-  </si>
-  <si>
-    <t>과일</t>
-  </si>
-  <si>
-    <t>카드깡 10만원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공병 126개+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현욱구매-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄마구매-(현찰사용)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>총합계(정산완료)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2시간 외상325000(삼촌손님),1시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노래방 저작권료(케뱅)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님1명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단체손님,몽골손님</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파트너 카드 매출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨,족발</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1455,7 +1568,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1591,6 +1704,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1882,7 +2013,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2088,6 +2219,21 @@
     <xf numFmtId="177" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2693,8 +2839,8 @@
   </sheetPr>
   <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4493,13 +4639,13 @@
     </row>
     <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D56" s="94"/>
-      <c r="E56" s="121" t="s">
+      <c r="E56" s="134" t="s">
         <v>266</v>
       </c>
-      <c r="F56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="123"/>
+      <c r="F56" s="135"/>
+      <c r="G56" s="135"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="136"/>
       <c r="J56" s="95"/>
     </row>
     <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4591,11 +4737,11 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AI108"/>
+  <dimension ref="A1:AI125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4813,15 +4959,15 @@
       </c>
       <c r="Y3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>510000</v>
       </c>
       <c r="Z3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>308000</v>
       </c>
       <c r="AA3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90200</v>
       </c>
       <c r="AB3" s="5">
         <f t="shared" si="0"/>
@@ -4829,11 +4975,11 @@
       </c>
       <c r="AC3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>132000</v>
       </c>
       <c r="AD3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="AE3" s="5">
         <f>SUM(AE12,AE14,AE16,AE18,AE20,AE22)</f>
@@ -4908,10 +5054,34 @@
         <f>250000+220000+131000+160000+80000+330000+34000+120000</f>
         <v>1325000</v>
       </c>
+      <c r="V4" s="112">
+        <v>0</v>
+      </c>
+      <c r="W4" s="112">
+        <v>0</v>
+      </c>
       <c r="X4" s="112">
         <f>550000+30000+360000</f>
         <v>940000</v>
       </c>
+      <c r="Y4" s="112">
+        <v>720000</v>
+      </c>
+      <c r="Z4" s="112">
+        <v>120000</v>
+      </c>
+      <c r="AA4" s="112">
+        <v>640000</v>
+      </c>
+      <c r="AB4" s="112">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="112">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="112">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
@@ -4982,6 +5152,31 @@
         <f>60000+20000+28000+20000+20000+10000</f>
         <v>158000</v>
       </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6">
+        <f>75000+200000</f>
+        <v>275000</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>200000</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>240000</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>42000</v>
+      </c>
     </row>
     <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
@@ -5080,28 +5275,28 @@
         <v>1028000</v>
       </c>
       <c r="Y6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>Y3+Y4+Y5</f>
+        <v>1230000</v>
       </c>
       <c r="Z6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>703000</v>
       </c>
       <c r="AA6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>730200</v>
       </c>
       <c r="AB6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AC6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>372000</v>
       </c>
       <c r="AD6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86000</v>
       </c>
       <c r="AE6" s="7">
         <f t="shared" si="1"/>
@@ -5210,27 +5405,27 @@
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>581000</v>
       </c>
       <c r="Z7" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>343000</v>
       </c>
       <c r="AA7" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>398200</v>
       </c>
       <c r="AB7" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>108000</v>
       </c>
       <c r="AC7" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>188000</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>86000</v>
       </c>
       <c r="AE7" s="8">
         <f t="shared" si="4"/>
@@ -5339,23 +5534,23 @@
       </c>
       <c r="Y8" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-649000</v>
       </c>
       <c r="Z8" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-360000</v>
       </c>
       <c r="AA8" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-332000</v>
       </c>
       <c r="AB8" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-92000</v>
       </c>
       <c r="AC8" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-184000</v>
       </c>
       <c r="AD8" s="18">
         <f t="shared" si="8"/>
@@ -5437,7 +5632,22 @@
       <c r="X13" s="11">
         <v>-160000</v>
       </c>
-      <c r="AA13" s="10"/>
+      <c r="Y13" s="11">
+        <v>-25000</v>
+      </c>
+      <c r="Z13" s="11">
+        <f>-40000-40000</f>
+        <v>-80000</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>-24000</v>
+      </c>
     </row>
     <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
@@ -5477,7 +5687,7 @@
         <v>55000</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="W14" s="12">
         <f>200000+185000</f>
@@ -5486,6 +5696,19 @@
       <c r="X14" s="12">
         <v>88000</v>
       </c>
+      <c r="Y14" s="12">
+        <v>260000</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>88000</v>
+      </c>
+      <c r="AA14" s="72"/>
+      <c r="AC14" s="12">
+        <v>132000</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>44000</v>
+      </c>
     </row>
     <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
@@ -5526,6 +5749,21 @@
       <c r="X15" s="10">
         <v>-40000</v>
       </c>
+      <c r="Y15" s="10">
+        <v>-24000</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>-320000</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>-120000</v>
+      </c>
     </row>
     <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
@@ -5541,10 +5779,10 @@
         <v>132000</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="R16" s="12">
         <v>44000</v>
@@ -5552,9 +5790,17 @@
       <c r="U16" s="12">
         <v>88000</v>
       </c>
-      <c r="Z16" s="72"/>
-    </row>
-    <row r="17" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="Y16" s="12">
+        <v>250000</v>
+      </c>
+      <c r="Z16" s="72">
+        <v>220000</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>90200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="54" t="s">
         <v>8</v>
       </c>
@@ -5587,8 +5833,18 @@
       <c r="X17" s="10">
         <v>-200000</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="Y17" s="10">
+        <f>-40000-40000</f>
+        <v>-80000</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>10</v>
       </c>
@@ -5605,13 +5861,13 @@
         <v>374700</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="U18" s="12">
         <v>60500</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="54" t="s">
         <v>11</v>
       </c>
@@ -5635,8 +5891,11 @@
       <c r="X19" s="10">
         <v>-12000</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="Y19" s="10">
+        <v>-80000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>10</v>
       </c>
@@ -5650,10 +5909,10 @@
         <v>176000</v>
       </c>
       <c r="X20" s="12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="54" t="s">
         <v>11</v>
       </c>
@@ -5671,8 +5930,11 @@
       <c r="X21" s="10">
         <v>-70000</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="Y21" s="10">
+        <v>-360000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
         <v>12</v>
       </c>
@@ -5680,7 +5942,7 @@
         <v>170500</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="54" t="s">
         <v>13</v>
       </c>
@@ -5694,96 +5956,123 @@
       <c r="U23" s="10">
         <v>-17000</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="Y23" s="10">
+        <f>-40000-40000</f>
+        <v>-80000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="53"/>
     </row>
-    <row r="25" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="53"/>
     </row>
-    <row r="26" spans="1:30" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="121" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>294</v>
-      </c>
       <c r="D26" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="F26" s="121" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="G26" s="20" t="s">
+      <c r="H26" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>305</v>
-      </c>
       <c r="I26" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="J26" s="121" t="s">
+        <v>371</v>
+      </c>
+      <c r="K26" s="76" t="s">
         <v>311</v>
       </c>
-      <c r="J26" s="76" t="s">
+      <c r="L26" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="K26" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="L26" s="20" t="s">
+      <c r="M26" s="121" t="s">
+        <v>301</v>
+      </c>
+      <c r="N26" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="O26" s="121" t="s">
+        <v>301</v>
+      </c>
+      <c r="P26" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="N26" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>319</v>
-      </c>
       <c r="Q26" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R26" s="79"/>
       <c r="S26" s="120" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="U26" s="20" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="V26" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z26" s="109"/>
-    </row>
-    <row r="27" spans="1:30" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="X26" s="109" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y26" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z26" s="109" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA26" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB26" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC26" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD26" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE26" s="121" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:30" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:30" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
     </row>
-    <row r="30" spans="1:30" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="60" t="s">
         <v>243</v>
       </c>
@@ -5800,25 +6089,27 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="77" t="s">
         <v>244</v>
       </c>
       <c r="B32" s="78">
         <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
-        <v>7083000</v>
+        <v>9320000</v>
       </c>
       <c r="C32" s="13"/>
       <c r="S32" s="83" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="T32" s="108" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
+      <c r="Y32" s="108" t="s">
+        <v>341</v>
+      </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -5831,15 +6122,15 @@
       </c>
       <c r="B33" s="70">
         <f>B34-B31</f>
-        <v>755020</v>
+        <v>1839220</v>
       </c>
       <c r="C33" s="9">
         <f>B32+B34</f>
-        <v>12665930</v>
+        <v>15987130</v>
       </c>
       <c r="D33" s="15"/>
       <c r="S33" s="116" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="T33" s="108">
         <v>32760</v>
@@ -5847,7 +6138,9 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
+      <c r="Y33" s="93">
+        <v>36300</v>
+      </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -5860,7 +6153,7 @@
       </c>
       <c r="B34" s="14">
         <f>500000-D81+SUM(B3:AF3)</f>
-        <v>5582930</v>
+        <v>6667130</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -5871,6 +6164,9 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
+      <c r="Y34" s="9" t="s">
+        <v>369</v>
+      </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -5883,20 +6179,23 @@
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>12505100</v>
+        <v>15826300</v>
       </c>
       <c r="C35" s="15">
         <f>B35*0.1</f>
-        <v>1250510</v>
+        <v>1582630</v>
       </c>
       <c r="D35" s="15"/>
       <c r="S35" s="117" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
+      <c r="Y35" s="9">
+        <v>30000</v>
+      </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -5909,7 +6208,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>7243100</v>
+        <v>8947300</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -5932,11 +6231,11 @@
       </c>
       <c r="B37" s="44">
         <f>SUM(B8:AF8)</f>
-        <v>-5262000</v>
+        <v>-6879000</v>
       </c>
       <c r="C37" s="15"/>
       <c r="S37" s="118" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="AE37" s="9"/>
@@ -5961,19 +6260,19 @@
         <v>193</v>
       </c>
       <c r="B39" s="89">
-        <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))+340000+900000+900000+20000+40000+300000+400000+160000</f>
-        <v>166000</v>
+        <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))+340000+900000+900000+20000+40000+300000+400000+160000+400000+100000+90000+600000</f>
+        <v>496000</v>
       </c>
       <c r="C39" s="113">
-        <f>34+90+90+6+30+40</f>
-        <v>290</v>
+        <f>34+90+90+6+30+40+50</f>
+        <v>340</v>
       </c>
       <c r="D39" s="114" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E39" s="9"/>
       <c r="S39" s="118" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Y39" s="9"/>
       <c r="AE39" s="9"/>
@@ -5983,16 +6282,16 @@
         <v>197</v>
       </c>
       <c r="B40" s="87">
-        <f>5291060+SUM(B4:AF4)-340000-900000-900000+100000+B31-S48-D81-T33-20000-B47-40000-300000-400000-160000</f>
-        <v>10601630</v>
+        <f>5291060+SUM(B4:AF4)-340000-900000-900000+100000+B31-S48-D81-T33-20000-B47-40000-300000-400000-160000-400000-100000-90000-600000</f>
+        <v>10891630</v>
       </c>
       <c r="C40" s="7">
-        <f>-34-90-90-6-30-40</f>
-        <v>-290</v>
+        <f>-34-90-90-6-30-40-50</f>
+        <v>-340</v>
       </c>
       <c r="D40" s="115">
         <f>(C39/30)*1800</f>
-        <v>17400</v>
+        <v>20400</v>
       </c>
       <c r="S40" s="83">
         <f>12390*3</f>
@@ -6003,10 +6302,10 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C41" s="114" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="S41" s="118" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="AE41" s="9"/>
@@ -6017,7 +6316,7 @@
       </c>
       <c r="B42" s="81">
         <f>SUM(B7:AF7)</f>
-        <v>7243100</v>
+        <v>8947300</v>
       </c>
       <c r="S42" s="119">
         <f>SUM(S33:S40)</f>
@@ -6032,7 +6331,7 @@
       </c>
       <c r="B43" s="85">
         <f>B33+B39+B40</f>
-        <v>11522650</v>
+        <v>13226850</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
@@ -6079,7 +6378,7 @@
         <v>1667910</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="S47" s="119">
         <f>SUM(S44:S46)</f>
@@ -6090,7 +6389,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R48" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="S48" s="1">
         <f>10890+8490+219120+80000</f>
@@ -6099,7 +6398,7 @@
       <c r="Y48" s="9"/>
       <c r="AE48" s="9"/>
     </row>
-    <row r="49" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.3">
       <c r="S49" s="1">
         <f>SUM(S48,S42,S47)</f>
         <v>472500</v>
@@ -6107,9 +6406,9 @@
       <c r="Y49" s="9"/>
       <c r="AE49" s="9"/>
     </row>
-    <row r="50" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.3">
       <c r="R50" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="S50" s="1">
         <v>12600</v>
@@ -6117,56 +6416,66 @@
       <c r="Y50" s="9"/>
       <c r="AE50" s="9"/>
     </row>
-    <row r="51" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:31" x14ac:dyDescent="0.3">
       <c r="Y51" s="9"/>
       <c r="AE51" s="9"/>
     </row>
-    <row r="52" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:31" x14ac:dyDescent="0.3">
       <c r="Y52" s="9"/>
       <c r="AE52" s="9"/>
     </row>
-    <row r="53" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.3">
       <c r="Y53" s="9"/>
       <c r="AE53" s="9"/>
     </row>
-    <row r="56" spans="4:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E56" s="96"/>
       <c r="F56" s="96"/>
       <c r="G56" s="96"/>
       <c r="H56" s="96"/>
       <c r="I56" s="96"/>
     </row>
-    <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="1">
+        <v>1200000</v>
+      </c>
       <c r="D57" s="94"/>
-      <c r="E57" s="121" t="s">
+      <c r="E57" s="134" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="122"/>
-      <c r="I57" s="123"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="136"/>
       <c r="J57" s="95"/>
     </row>
-    <row r="58" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="1">
+        <f>400000+160000</f>
+        <v>560000</v>
+      </c>
       <c r="D58" s="94"/>
       <c r="E58" s="100" t="s">
+        <v>305</v>
+      </c>
+      <c r="F58" s="102" t="s">
         <v>306</v>
       </c>
-      <c r="F58" s="102" t="s">
+      <c r="G58" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="G58" s="106" t="s">
+      <c r="H58" s="104" t="s">
         <v>308</v>
       </c>
-      <c r="H58" s="104" t="s">
+      <c r="I58" s="104" t="s">
         <v>309</v>
       </c>
-      <c r="I58" s="104" t="s">
-        <v>310</v>
-      </c>
       <c r="J58" s="95"/>
     </row>
-    <row r="59" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="1">
+        <v>1000000</v>
+      </c>
       <c r="D59" s="94"/>
       <c r="E59" s="99">
         <f>SUM(B6:E6)</f>
@@ -6182,15 +6491,19 @@
       </c>
       <c r="H59" s="107">
         <f>SUM(T6:Z6)</f>
-        <v>3448500</v>
+        <v>5381500</v>
       </c>
       <c r="I59" s="105">
         <f>SUM(AA6:AF6)</f>
-        <v>0</v>
+        <v>1388200</v>
       </c>
       <c r="J59" s="15"/>
     </row>
-    <row r="60" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="1">
+        <f>SUM(C57:C59)</f>
+        <v>2760000</v>
+      </c>
       <c r="E60" s="97"/>
       <c r="F60" s="97"/>
       <c r="G60" s="97"/>
@@ -6199,19 +6512,23 @@
       </c>
       <c r="I60" s="99">
         <f>SUM(E59:I59)</f>
-        <v>12505100</v>
-      </c>
-    </row>
-    <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15826300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="123">
+        <f>B40-C60</f>
+        <v>8131630</v>
+      </c>
       <c r="H61" s="99" t="s">
         <v>267</v>
       </c>
       <c r="I61" s="99">
         <f>AVERAGE(E59:I59)</f>
-        <v>2501020</v>
-      </c>
-    </row>
-    <row r="62" spans="4:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>3165260</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>288</v>
@@ -6222,12 +6539,12 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D105" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:23" s="119" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="119" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C106" s="119">
         <v>153790</v>
@@ -6252,13 +6569,29 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <f>SUM(B106:AF106)</f>
         <v>2081100</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E123" s="1">
+        <v>47940</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E124" s="1">
+        <v>153790</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E125" s="1">
+        <f>SUM(E123:E124)</f>
+        <v>201730</v>
       </c>
     </row>
   </sheetData>
@@ -6353,13 +6686,13 @@
       <c r="G1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="140" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
@@ -6376,16 +6709,16 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="128" t="s">
+      <c r="H2" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="143"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="137" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -6401,14 +6734,14 @@
       <c r="G3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="130"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="143"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="125"/>
+      <c r="B4" s="138"/>
       <c r="C4" s="24" t="s">
         <v>122</v>
       </c>
@@ -6418,14 +6751,14 @@
       <c r="G4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="130"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="143"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="126"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -6435,11 +6768,11 @@
       <c r="G5" s="24">
         <v>707266</v>
       </c>
-      <c r="H5" s="128"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="130"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="143"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
@@ -6456,11 +6789,11 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="143"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
@@ -6481,11 +6814,11 @@
       <c r="G7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="130"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="143"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
@@ -6504,11 +6837,11 @@
       <c r="G8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="128"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="130"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="143"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
@@ -6521,11 +6854,11 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="130"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="143"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
@@ -6540,11 +6873,11 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="130"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="143"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="24"/>
@@ -6553,11 +6886,11 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="130"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="143"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
@@ -6566,11 +6899,11 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="130"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="143"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
@@ -6579,11 +6912,11 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="130"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="143"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
@@ -6592,11 +6925,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="130"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="30"/>
@@ -7153,14 +7486,14 @@
       <c r="E1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="144" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="133"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="146"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
@@ -7457,37 +7790,37 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -7496,4 +7829,250 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="131" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="131" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="131" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="131" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="130">
+        <v>30000</v>
+      </c>
+      <c r="B2" s="130" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="132">
+        <v>1</v>
+      </c>
+      <c r="D2" s="130">
+        <f>A2*C2</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="82">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="133">
+        <v>2</v>
+      </c>
+      <c r="D3" s="82">
+        <f t="shared" ref="D3:D10" si="0">A3*C3</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="83">
+        <v>5000</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="133">
+        <v>10</v>
+      </c>
+      <c r="D4" s="83">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="124">
+        <v>30000</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="133">
+        <v>2</v>
+      </c>
+      <c r="D5" s="124">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="124">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="124" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="133">
+        <v>0</v>
+      </c>
+      <c r="D6" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="128">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="128" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="133">
+        <v>2</v>
+      </c>
+      <c r="D7" s="128">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="127">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="133">
+        <v>0</v>
+      </c>
+      <c r="D8" s="127">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="125">
+        <f>A15</f>
+        <v>80000</v>
+      </c>
+      <c r="B9" s="125" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="125">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="125">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="126">
+        <v>20000</v>
+      </c>
+      <c r="B10" s="126" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="126">
+        <v>0</v>
+      </c>
+      <c r="D10" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="129" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="129">
+        <f>SUM(D2:D10)</f>
+        <v>244000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="119" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="129" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="129">
+        <f>D12*1.1</f>
+        <v>268400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="125" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="133">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="125">
+        <f>40000*B14</f>
+        <v>80000</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="D16" s="122">
+        <f>B14*80000*C2</f>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="122" t="s">
+        <v>359</v>
+      </c>
+      <c r="D17" s="122">
+        <f>D16*1.1</f>
+        <v>176000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="381">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1124,10 +1124,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>7월달 관리비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1459,6 +1455,46 @@
   </si>
   <si>
     <t>현욱계좌에서 90만원 뽑음 ,NoShow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순매출 합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순매출 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음처럼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참이슬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7인단체</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2013,7 +2049,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2243,6 +2279,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2255,15 +2300,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2272,6 +2308,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2354,7 +2393,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>713905</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>199607</xdr:rowOff>
+      <xdr:rowOff>187701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2398,7 +2437,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1071563</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>12743</xdr:rowOff>
+      <xdr:rowOff>837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2442,7 +2481,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1018874</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>182611</xdr:rowOff>
+      <xdr:rowOff>134986</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2840,7 +2879,7 @@
   <dimension ref="A1:AJ73"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4375,9 +4414,6 @@
         <f>SUM(B3:AG3)-B30</f>
         <v>3328610</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>286</v>
-      </c>
       <c r="D32" s="15"/>
       <c r="G32" s="9" t="s">
         <v>186</v>
@@ -4397,8 +4433,10 @@
         <f>SUM(B3:AG3)</f>
         <v>9086700</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="D33" s="147" t="s">
+        <v>372</v>
+      </c>
+      <c r="E33" s="15"/>
       <c r="J33" s="9">
         <v>264000</v>
       </c>
@@ -4414,8 +4452,12 @@
         <f>SUM(B5:AG5)</f>
         <v>21312700</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="D34" s="147" t="s">
+        <v>371</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>373</v>
+      </c>
       <c r="G34" s="9" t="s">
         <v>187</v>
       </c>
@@ -4431,11 +4473,14 @@
         <f>B34-B37</f>
         <v>20170400</v>
       </c>
-      <c r="C35" s="15">
+      <c r="D35" s="15">
         <f>B35+B36</f>
         <v>11275400</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="E35" s="15">
+        <f>B32-500000</f>
+        <v>2828610</v>
+      </c>
       <c r="G35" s="9" t="s">
         <v>188</v>
       </c>
@@ -4449,6 +4494,13 @@
         <v>-8895000</v>
       </c>
       <c r="C36" s="15"/>
+      <c r="D36" s="9">
+        <f>D35-E35-E37</f>
+        <v>5804490</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>202</v>
       </c>
@@ -4466,6 +4518,10 @@
       <c r="B37" s="45">
         <f>SUM(B29:AG29)-SUM(40:40)</f>
         <v>1142300</v>
+      </c>
+      <c r="E37" s="9">
+        <f>1500000+B37</f>
+        <v>2642300</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4739,9 +4795,9 @@
   </sheetPr>
   <dimension ref="A1:AI125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD21" sqref="AD21"/>
+      <selection pane="bottomLeft" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4992,7 +5048,7 @@
     </row>
     <row r="4" spans="1:35" s="112" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="111" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4" s="112">
         <v>0</v>
@@ -5082,6 +5138,9 @@
       <c r="AD4" s="112">
         <v>0</v>
       </c>
+      <c r="AF4" s="112">
+        <v>208000</v>
+      </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
@@ -5304,7 +5363,7 @@
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>208000</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -5433,7 +5492,7 @@
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>208000</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -5654,7 +5713,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D14" s="12">
         <v>45000</v>
@@ -5687,7 +5746,7 @@
         <v>55000</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W14" s="12">
         <f>200000+185000</f>
@@ -5770,7 +5829,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I16" s="72">
         <v>704000</v>
@@ -5779,10 +5838,10 @@
         <v>132000</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R16" s="12">
         <v>44000</v>
@@ -5800,7 +5859,7 @@
         <v>90200</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="54" t="s">
         <v>8</v>
       </c>
@@ -5844,12 +5903,12 @@
         <v>-40000</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I18" s="12">
         <v>244000</v>
@@ -5861,13 +5920,13 @@
         <v>374700</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U18" s="12">
         <v>60500</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="54" t="s">
         <v>11</v>
       </c>
@@ -5895,7 +5954,7 @@
         <v>-80000</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>10</v>
       </c>
@@ -5909,10 +5968,10 @@
         <v>176000</v>
       </c>
       <c r="X20" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="54" t="s">
         <v>11</v>
       </c>
@@ -5934,7 +5993,7 @@
         <v>-360000</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
         <v>12</v>
       </c>
@@ -5942,7 +6001,7 @@
         <v>170500</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="54" t="s">
         <v>13</v>
       </c>
@@ -5961,118 +6020,121 @@
         <v>-80000</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="53"/>
     </row>
-    <row r="25" spans="1:31" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="53"/>
     </row>
-    <row r="26" spans="1:31" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="121" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26" s="121" t="s">
+        <v>300</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="J26" s="121" t="s">
         <v>370</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="F26" s="121" t="s">
-        <v>301</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="I26" s="20" t="s">
+      <c r="K26" s="76" t="s">
         <v>310</v>
       </c>
-      <c r="J26" s="121" t="s">
-        <v>371</v>
-      </c>
-      <c r="K26" s="76" t="s">
+      <c r="L26" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="L26" s="20" t="s">
-        <v>312</v>
-      </c>
       <c r="M26" s="121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N26" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="O26" s="121" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="O26" s="121" t="s">
-        <v>301</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>315</v>
-      </c>
       <c r="Q26" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R26" s="79"/>
       <c r="S26" s="120" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T26" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="U26" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="U26" s="20" t="s">
-        <v>333</v>
-      </c>
       <c r="V26" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X26" s="109" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y26" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z26" s="109" t="s">
         <v>342</v>
       </c>
-      <c r="Z26" s="109" t="s">
-        <v>343</v>
-      </c>
       <c r="AA26" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB26" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="AB26" s="20" t="s">
-        <v>365</v>
-      </c>
       <c r="AC26" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD26" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="AD26" s="20" t="s">
-        <v>368</v>
-      </c>
       <c r="AE26" s="121" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="AF26" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:31" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:31" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
     </row>
-    <row r="30" spans="1:31" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="60" t="s">
         <v>243</v>
       </c>
@@ -6089,26 +6151,26 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="77" t="s">
         <v>244</v>
       </c>
       <c r="B32" s="78">
         <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
-        <v>9320000</v>
+        <v>9528000</v>
       </c>
       <c r="C32" s="13"/>
       <c r="S32" s="83" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T32" s="108" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="Y32" s="108" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
@@ -6126,11 +6188,11 @@
       </c>
       <c r="C33" s="9">
         <f>B32+B34</f>
-        <v>15987130</v>
+        <v>16195130</v>
       </c>
       <c r="D33" s="15"/>
       <c r="S33" s="116" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T33" s="108">
         <v>32760</v>
@@ -6164,8 +6226,8 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="9" t="s">
-        <v>369</v>
+      <c r="Y34" s="93" t="s">
+        <v>368</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
@@ -6179,21 +6241,21 @@
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>15826300</v>
+        <v>16034300</v>
       </c>
       <c r="C35" s="15">
         <f>B35*0.1</f>
-        <v>1582630</v>
+        <v>1603430</v>
       </c>
       <c r="D35" s="15"/>
       <c r="S35" s="117" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Y35" s="9">
+      <c r="Y35" s="93">
         <v>30000</v>
       </c>
       <c r="Z35" s="1"/>
@@ -6208,7 +6270,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>8947300</v>
+        <v>9155300</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -6235,7 +6297,7 @@
       </c>
       <c r="C37" s="15"/>
       <c r="S37" s="118" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="AE37" s="9"/>
@@ -6268,11 +6330,11 @@
         <v>340</v>
       </c>
       <c r="D39" s="114" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E39" s="9"/>
       <c r="S39" s="118" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y39" s="9"/>
       <c r="AE39" s="9"/>
@@ -6283,7 +6345,7 @@
       </c>
       <c r="B40" s="87">
         <f>5291060+SUM(B4:AF4)-340000-900000-900000+100000+B31-S48-D81-T33-20000-B47-40000-300000-400000-160000-400000-100000-90000-600000</f>
-        <v>10891630</v>
+        <v>11099630</v>
       </c>
       <c r="C40" s="7">
         <f>-34-90-90-6-30-40-50</f>
@@ -6302,10 +6364,10 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C41" s="114" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S41" s="118" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="AE41" s="9"/>
@@ -6316,7 +6378,7 @@
       </c>
       <c r="B42" s="81">
         <f>SUM(B7:AF7)</f>
-        <v>8947300</v>
+        <v>9155300</v>
       </c>
       <c r="S42" s="119">
         <f>SUM(S33:S40)</f>
@@ -6331,7 +6393,7 @@
       </c>
       <c r="B43" s="85">
         <f>B33+B39+B40</f>
-        <v>13226850</v>
+        <v>13434850</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
@@ -6345,7 +6407,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B45" s="9">
         <v>867910</v>
@@ -6378,7 +6440,7 @@
         <v>1667910</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S47" s="119">
         <f>SUM(S44:S46)</f>
@@ -6389,7 +6451,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R48" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S48" s="1">
         <f>10890+8490+219120+80000</f>
@@ -6408,7 +6470,7 @@
     </row>
     <row r="50" spans="3:31" x14ac:dyDescent="0.3">
       <c r="R50" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S50" s="1">
         <v>12600</v>
@@ -6456,19 +6518,19 @@
       </c>
       <c r="D58" s="94"/>
       <c r="E58" s="100" t="s">
+        <v>304</v>
+      </c>
+      <c r="F58" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="F58" s="102" t="s">
+      <c r="G58" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="G58" s="106" t="s">
+      <c r="H58" s="104" t="s">
         <v>307</v>
       </c>
-      <c r="H58" s="104" t="s">
+      <c r="I58" s="104" t="s">
         <v>308</v>
-      </c>
-      <c r="I58" s="104" t="s">
-        <v>309</v>
       </c>
       <c r="J58" s="95"/>
     </row>
@@ -6495,7 +6557,7 @@
       </c>
       <c r="I59" s="105">
         <f>SUM(AA6:AF6)</f>
-        <v>1388200</v>
+        <v>1596200</v>
       </c>
       <c r="J59" s="15"/>
     </row>
@@ -6504,34 +6566,80 @@
         <f>SUM(C57:C59)</f>
         <v>2760000</v>
       </c>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="99" t="s">
-        <v>265</v>
-      </c>
-      <c r="I60" s="99">
-        <f>SUM(E59:I59)</f>
-        <v>15826300</v>
+      <c r="E60" s="99">
+        <f>SUM(B7:E7)</f>
+        <v>921000</v>
+      </c>
+      <c r="F60" s="101">
+        <f>SUM(F7:L7)</f>
+        <v>1828200</v>
+      </c>
+      <c r="G60" s="103">
+        <f>SUM(M7:S7)</f>
+        <v>2282400</v>
+      </c>
+      <c r="H60" s="107">
+        <f>SUM(T7:Z7)</f>
+        <v>3135500</v>
+      </c>
+      <c r="I60" s="105">
+        <f>SUM(AA7:AF7)</f>
+        <v>988200</v>
       </c>
     </row>
     <row r="61" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C61" s="123">
         <f>B40-C60</f>
-        <v>8131630</v>
-      </c>
-      <c r="H61" s="99" t="s">
+        <v>8339630</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="94"/>
+      <c r="H62" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="I62" s="99">
+        <f>SUM(E59:I59)</f>
+        <v>16034300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G63" s="94"/>
+      <c r="H63" s="99" t="s">
         <v>267</v>
       </c>
-      <c r="I61" s="99">
+      <c r="I63" s="99">
         <f>AVERAGE(E59:I59)</f>
-        <v>3165260</v>
-      </c>
-    </row>
-    <row r="62" spans="3:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>3206860</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G64" s="94"/>
+      <c r="H64" s="98" t="s">
+        <v>375</v>
+      </c>
+      <c r="I64" s="99">
+        <f>SUM(E60:I60)</f>
+        <v>9155300</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G65" s="94"/>
+      <c r="H65" s="98" t="s">
+        <v>376</v>
+      </c>
+      <c r="I65" s="99">
+        <f>AVERAGE(E60:I60)</f>
+        <v>1831060</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+    </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D81" s="9">
         <v>339170</v>
@@ -6539,12 +6647,12 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D105" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" spans="1:23" s="119" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="119" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C106" s="119">
         <v>153790</v>
@@ -6569,7 +6677,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.3">
@@ -6686,13 +6794,13 @@
       <c r="G1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
@@ -6709,16 +6817,16 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="141" t="s">
+      <c r="H2" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="143"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="139"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="140" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -6734,14 +6842,14 @@
       <c r="G3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="141"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="143"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="139"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="138"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="24" t="s">
         <v>122</v>
       </c>
@@ -6751,14 +6859,14 @@
       <c r="G4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="143"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="139"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -6768,11 +6876,11 @@
       <c r="G5" s="24">
         <v>707266</v>
       </c>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="143"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="139"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
@@ -6789,11 +6897,11 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="143"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="139"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
@@ -6814,11 +6922,11 @@
       <c r="G7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="141"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="143"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="139"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
@@ -6837,11 +6945,11 @@
       <c r="G8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="141"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="143"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
@@ -6854,11 +6962,11 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="143"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="139"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
@@ -6873,11 +6981,11 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="143"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="139"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="24"/>
@@ -6886,11 +6994,11 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="143"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="139"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
@@ -6899,11 +7007,11 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="143"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="139"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
@@ -6912,11 +7020,11 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="143"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="139"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
@@ -6925,11 +7033,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="143"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="139"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="30"/>
@@ -7430,6 +7538,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -7439,12 +7553,6 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7790,37 +7898,37 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -7833,10 +7941,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7845,26 +7953,50 @@
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="131" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B1" s="131" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="131" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="D1" s="131" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="F1" s="131" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="131" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" s="131" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" s="131" t="s">
+        <v>346</v>
+      </c>
+      <c r="K1" s="131" t="s">
+        <v>347</v>
+      </c>
+      <c r="L1" s="131" t="s">
+        <v>344</v>
+      </c>
+      <c r="M1" s="131" t="s">
+        <v>345</v>
+      </c>
+      <c r="N1" s="131" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="130">
         <v>30000</v>
       </c>
       <c r="B2" s="130" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C2" s="132">
         <v>1</v>
@@ -7873,13 +8005,40 @@
         <f>A2*C2</f>
         <v>30000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="130">
+        <v>30000</v>
+      </c>
+      <c r="G2" s="130" t="s">
+        <v>343</v>
+      </c>
+      <c r="H2" s="132">
+        <v>1</v>
+      </c>
+      <c r="I2" s="130">
+        <f>F2*H2</f>
+        <v>30000</v>
+      </c>
+      <c r="K2" s="130">
+        <v>30000</v>
+      </c>
+      <c r="L2" s="130" t="s">
+        <v>343</v>
+      </c>
+      <c r="M2" s="132">
+        <f>H2</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="130">
+        <f>K2*M2</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="82">
         <v>10000</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C3" s="133">
         <v>2</v>
@@ -7888,13 +8047,41 @@
         <f t="shared" ref="D3:D10" si="0">A3*C3</f>
         <v>20000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="82">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="H3" s="133">
+        <f>2+1+1+2+1</f>
+        <v>7</v>
+      </c>
+      <c r="I3" s="82">
+        <f t="shared" ref="I3:I10" si="1">F3*H3</f>
+        <v>70000</v>
+      </c>
+      <c r="K3" s="82">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="M3" s="132">
+        <f t="shared" ref="M3:M10" si="2">H3</f>
+        <v>7</v>
+      </c>
+      <c r="N3" s="82">
+        <f t="shared" ref="N3:N10" si="3">K3*M3</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="83">
         <v>5000</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C4" s="133">
         <v>10</v>
@@ -7903,13 +8090,41 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" s="83">
+        <v>4000</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="H4" s="133">
+        <f>7+5+5+5</f>
+        <v>22</v>
+      </c>
+      <c r="I4" s="83">
+        <f t="shared" si="1"/>
+        <v>88000</v>
+      </c>
+      <c r="K4" s="83">
+        <v>5000</v>
+      </c>
+      <c r="L4" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="M4" s="132">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N4" s="83">
+        <f t="shared" si="3"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="124">
         <v>30000</v>
       </c>
       <c r="B5" s="124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C5" s="133">
         <v>2</v>
@@ -7918,13 +8133,40 @@
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" s="124">
+        <v>30000</v>
+      </c>
+      <c r="G5" s="124" t="s">
+        <v>354</v>
+      </c>
+      <c r="H5" s="133">
+        <v>0</v>
+      </c>
+      <c r="I5" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="124">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="124" t="s">
+        <v>354</v>
+      </c>
+      <c r="M5" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="124">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="124">
         <v>10000</v>
       </c>
       <c r="B6" s="124" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C6" s="133">
         <v>0</v>
@@ -7933,13 +8175,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="124">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="124" t="s">
+        <v>365</v>
+      </c>
+      <c r="H6" s="133">
+        <v>2</v>
+      </c>
+      <c r="I6" s="124">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="K6" s="124">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="124" t="s">
+        <v>365</v>
+      </c>
+      <c r="M6" s="132">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N6" s="124">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="128">
         <v>2000</v>
       </c>
       <c r="B7" s="128" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C7" s="133">
         <v>2</v>
@@ -7948,13 +8217,40 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="128">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="128" t="s">
+        <v>350</v>
+      </c>
+      <c r="H7" s="133">
+        <v>0</v>
+      </c>
+      <c r="I7" s="128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="128">
+        <v>2000</v>
+      </c>
+      <c r="L7" s="128" t="s">
+        <v>350</v>
+      </c>
+      <c r="M7" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="127">
         <v>1000</v>
       </c>
       <c r="B8" s="127" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C8" s="133">
         <v>0</v>
@@ -7963,14 +8259,41 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8" s="127">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="127" t="s">
+        <v>351</v>
+      </c>
+      <c r="H8" s="133">
+        <v>0</v>
+      </c>
+      <c r="I8" s="127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="127">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="127" t="s">
+        <v>351</v>
+      </c>
+      <c r="M8" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="125">
         <f>A15</f>
         <v>80000</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C9" s="125">
         <f>C2</f>
@@ -7980,13 +8303,42 @@
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F9" s="125">
+        <f>F15</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="125" t="s">
+        <v>352</v>
+      </c>
+      <c r="H9" s="125">
+        <v>0</v>
+      </c>
+      <c r="I9" s="125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="125">
+        <f>K15</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="125" t="s">
+        <v>352</v>
+      </c>
+      <c r="M9" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="126">
         <v>20000</v>
       </c>
       <c r="B10" s="126" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C10" s="126">
         <v>0</v>
@@ -7995,48 +8347,139 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F10" s="126">
+        <v>20000</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>353</v>
+      </c>
+      <c r="H10" s="126">
+        <v>0</v>
+      </c>
+      <c r="I10" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="126">
+        <v>20000</v>
+      </c>
+      <c r="L10" s="126" t="s">
+        <v>353</v>
+      </c>
+      <c r="M10" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="129" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D12" s="129">
         <f>SUM(D2:D10)</f>
         <v>244000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="129" t="s">
+        <v>355</v>
+      </c>
+      <c r="I12" s="129">
+        <f>SUM(I2:I10)</f>
+        <v>208000</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="129" t="s">
+        <v>355</v>
+      </c>
+      <c r="N12" s="129">
+        <f>SUM(N2:N10)</f>
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13" s="129" t="s">
         <v>362</v>
-      </c>
-      <c r="C13" s="129" t="s">
-        <v>363</v>
       </c>
       <c r="D13" s="129">
         <f>D12*1.1</f>
         <v>268400</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+      <c r="G13" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="H13" s="129" t="s">
+        <v>358</v>
+      </c>
+      <c r="I13" s="129">
+        <f>I12*1.1</f>
+        <v>228800.00000000003</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="M13" s="129" t="s">
+        <v>358</v>
+      </c>
+      <c r="N13" s="129">
+        <f>N12*1.1</f>
+        <v>253000.00000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B14" s="133">
         <v>2</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F14" s="125" t="s">
+        <v>356</v>
+      </c>
+      <c r="G14" s="133">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="K14" s="125" t="s">
+        <v>356</v>
+      </c>
+      <c r="L14" s="133">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="125">
         <f>40000*B14</f>
         <v>80000</v>
@@ -8044,31 +8487,340 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F15" s="125">
+        <f>40000*G14</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" s="125">
+        <f>40000*L14</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C16" s="122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D16" s="122">
         <f>B14*80000*C2</f>
         <v>160000</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H16" s="122" t="s">
+        <v>357</v>
+      </c>
+      <c r="I16" s="122">
+        <f>G14*80000*H2</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M16" s="122" t="s">
+        <v>357</v>
+      </c>
+      <c r="N16" s="122">
+        <f>L14*80000*M2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C17" s="122" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D17" s="122">
         <f>D16*1.1</f>
         <v>176000</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H17" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="I17" s="122">
+        <f>I16*1.1</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M17" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="N17" s="122">
+        <f>N16*1.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>377</v>
+      </c>
+      <c r="B40">
+        <f>27390/24</f>
+        <v>1141.25</v>
+      </c>
+      <c r="F40" s="131" t="s">
+        <v>347</v>
+      </c>
+      <c r="G40" s="131" t="s">
+        <v>344</v>
+      </c>
+      <c r="H40" s="131" t="s">
+        <v>345</v>
+      </c>
+      <c r="I40" s="131" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B41">
+        <f>25690/20</f>
+        <v>1284.5</v>
+      </c>
+      <c r="F41" s="130">
+        <v>30000</v>
+      </c>
+      <c r="G41" s="130" t="s">
+        <v>343</v>
+      </c>
+      <c r="H41" s="132">
+        <v>1</v>
+      </c>
+      <c r="I41" s="130">
+        <f>F41*H41</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>379</v>
+      </c>
+      <c r="B42">
+        <f>25790/20</f>
+        <v>1289.5</v>
+      </c>
+      <c r="F42" s="82">
+        <f>B42</f>
+        <v>1289.5</v>
+      </c>
+      <c r="G42" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="H42" s="133">
+        <f>2+1+1+2+1</f>
+        <v>7</v>
+      </c>
+      <c r="I42" s="82">
+        <f t="shared" ref="I42:I49" si="4">F42*H42</f>
+        <v>9026.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F43" s="83">
+        <f>B40</f>
+        <v>1141.25</v>
+      </c>
+      <c r="G43" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="H43" s="133">
+        <f>7+5+5+5</f>
+        <v>22</v>
+      </c>
+      <c r="I43" s="83">
+        <f t="shared" si="4"/>
+        <v>25107.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F44" s="124">
+        <v>30000</v>
+      </c>
+      <c r="G44" s="124" t="s">
+        <v>354</v>
+      </c>
+      <c r="H44" s="133">
+        <v>0</v>
+      </c>
+      <c r="I44" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F45" s="124">
+        <v>10000</v>
+      </c>
+      <c r="G45" s="124" t="s">
+        <v>365</v>
+      </c>
+      <c r="H45" s="133">
+        <v>1</v>
+      </c>
+      <c r="I45" s="124">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F46" s="128">
+        <v>2000</v>
+      </c>
+      <c r="G46" s="128" t="s">
+        <v>350</v>
+      </c>
+      <c r="H46" s="133">
+        <v>0</v>
+      </c>
+      <c r="I46" s="128">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F47" s="127">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="127" t="s">
+        <v>351</v>
+      </c>
+      <c r="H47" s="133">
+        <v>0</v>
+      </c>
+      <c r="I47" s="127">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F48" s="125">
+        <f>F54</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="125" t="s">
+        <v>352</v>
+      </c>
+      <c r="H48" s="125">
+        <v>0</v>
+      </c>
+      <c r="I48" s="125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F49" s="126">
+        <v>20000</v>
+      </c>
+      <c r="G49" s="126" t="s">
+        <v>353</v>
+      </c>
+      <c r="H49" s="126">
+        <v>0</v>
+      </c>
+      <c r="I49" s="126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="129" t="s">
+        <v>355</v>
+      </c>
+      <c r="I51" s="129">
+        <f>SUM(I41:I49)</f>
+        <v>74134</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F52" s="1"/>
+      <c r="G52" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="H52" s="129" t="s">
+        <v>358</v>
+      </c>
+      <c r="I52" s="129">
+        <f>I51*1.1</f>
+        <v>81547.400000000009</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F53" s="125" t="s">
+        <v>356</v>
+      </c>
+      <c r="G53" s="133">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F54" s="125">
+        <f>40000*G53</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H55" s="122" t="s">
+        <v>357</v>
+      </c>
+      <c r="I55" s="122">
+        <f>G53*80000*H41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H56" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="I56" s="122">
+        <f>I55*1.1</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
     <sheet name="8월 매출" sheetId="7" r:id="rId2"/>
-    <sheet name="정보" sheetId="2" r:id="rId3"/>
-    <sheet name="계좌,카드" sheetId="3" r:id="rId4"/>
-    <sheet name="아이디,비번" sheetId="4" r:id="rId5"/>
-    <sheet name="팁" sheetId="8" r:id="rId6"/>
-    <sheet name="계산기" sheetId="9" r:id="rId7"/>
+    <sheet name="9월 매출" sheetId="10" r:id="rId3"/>
+    <sheet name="정보" sheetId="2" r:id="rId4"/>
+    <sheet name="계좌,카드" sheetId="3" r:id="rId5"/>
+    <sheet name="아이디,비번" sheetId="4" r:id="rId6"/>
+    <sheet name="팁" sheetId="8" r:id="rId7"/>
+    <sheet name="계산기" sheetId="9" r:id="rId8"/>
+    <sheet name="현욱메모" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'8월 매출'!$A$1:$AF$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'9월 매출'!$A$1:$AF$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="388">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1495,6 +1498,34 @@
   </si>
   <si>
     <t>7인단체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자제(술+과자)구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaozhiguo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>351-1208-7571-23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>농협은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트너</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">티 1만 디씨 x2 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1604,7 +1635,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1758,6 +1789,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2049,7 +2086,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2270,6 +2307,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="27" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="27" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2278,15 +2320,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2300,6 +2333,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2308,9 +2350,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2518,6 +2557,143 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>713905</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>187701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3452813" y="14320838"/>
+          <a:ext cx="3757142" cy="3288088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>702469</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>64058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1071563</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7198519" y="14313458"/>
+          <a:ext cx="1902619" cy="1432204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1018874</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>134986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="511968" y="10582276"/>
+          <a:ext cx="2402381" cy="5926185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2878,8 +3054,8 @@
   </sheetPr>
   <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="Z1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4433,7 +4609,11 @@
         <f>SUM(B3:AG3)</f>
         <v>9086700</v>
       </c>
-      <c r="D33" s="147" t="s">
+      <c r="C33" s="9">
+        <f>B33*0.1</f>
+        <v>908670</v>
+      </c>
+      <c r="D33" s="134" t="s">
         <v>372</v>
       </c>
       <c r="E33" s="15"/>
@@ -4452,7 +4632,7 @@
         <f>SUM(B5:AG5)</f>
         <v>21312700</v>
       </c>
-      <c r="D34" s="147" t="s">
+      <c r="D34" s="134" t="s">
         <v>371</v>
       </c>
       <c r="E34" s="15" t="s">
@@ -4695,13 +4875,13 @@
     </row>
     <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D56" s="94"/>
-      <c r="E56" s="134" t="s">
+      <c r="E56" s="137" t="s">
         <v>266</v>
       </c>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="136"/>
+      <c r="F56" s="138"/>
+      <c r="G56" s="138"/>
+      <c r="H56" s="138"/>
+      <c r="I56" s="139"/>
       <c r="J56" s="95"/>
     </row>
     <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4795,9 +4975,9 @@
   </sheetPr>
   <dimension ref="A1:AI125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE11" sqref="AE11"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6131,7 +6311,7 @@
     </row>
     <row r="30" spans="1:32" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="59" t="s">
-        <v>22</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:32" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -6217,8 +6397,13 @@
         <f>500000-D81+SUM(B3:AF3)</f>
         <v>6667130</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="135">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="15">
+        <f>B34*0.1</f>
+        <v>666713</v>
+      </c>
       <c r="S34" s="83">
         <v>17690</v>
       </c>
@@ -6243,7 +6428,7 @@
         <f>SUM(B6:AF6)</f>
         <v>16034300</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="136">
         <f>B35*0.1</f>
         <v>1603430</v>
       </c>
@@ -6307,7 +6492,6 @@
         <v>189</v>
       </c>
       <c r="B38" s="45">
-        <f>SUM(B30:AF30)-SUM(41:41)</f>
         <v>0</v>
       </c>
       <c r="S38" s="83">
@@ -6344,8 +6528,8 @@
         <v>197</v>
       </c>
       <c r="B40" s="87">
-        <f>5291060+SUM(B4:AF4)-340000-900000-900000+100000+B31-S48-D81-T33-20000-B47-40000-300000-400000-160000-400000-100000-90000-600000</f>
-        <v>11099630</v>
+        <f>5291060+SUM(B4:AF4)-340000-900000-900000+100000+B31-S48-D81-T33-20000-B47-40000-300000-400000-160000-400000-100000-90000-600000-3600000-B41</f>
+        <v>6841960</v>
       </c>
       <c r="C40" s="7">
         <f>-34-90-90-6-30-40-50</f>
@@ -6363,6 +6547,13 @@
       <c r="AE40" s="9"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B41" s="9">
+        <f>D81+S48</f>
+        <v>657670</v>
+      </c>
       <c r="C41" s="114" t="s">
         <v>315</v>
       </c>
@@ -6393,7 +6584,7 @@
       </c>
       <c r="B43" s="85">
         <f>B33+B39+B40</f>
-        <v>13434850</v>
+        <v>9177180</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
@@ -6498,24 +6689,17 @@
       <c r="I56" s="96"/>
     </row>
     <row r="57" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C57" s="1">
-        <v>1200000</v>
-      </c>
       <c r="D57" s="94"/>
-      <c r="E57" s="134" t="s">
+      <c r="E57" s="137" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="135"/>
-      <c r="I57" s="136"/>
+      <c r="F57" s="138"/>
+      <c r="G57" s="138"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="139"/>
       <c r="J57" s="95"/>
     </row>
     <row r="58" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="1">
-        <f>400000+160000</f>
-        <v>560000</v>
-      </c>
       <c r="D58" s="94"/>
       <c r="E58" s="100" t="s">
         <v>304</v>
@@ -6535,9 +6719,6 @@
       <c r="J58" s="95"/>
     </row>
     <row r="59" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="1">
-        <v>1000000</v>
-      </c>
       <c r="D59" s="94"/>
       <c r="E59" s="99">
         <f>SUM(B6:E6)</f>
@@ -6562,10 +6743,6 @@
       <c r="J59" s="15"/>
     </row>
     <row r="60" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C60" s="1">
-        <f>SUM(C57:C59)</f>
-        <v>2760000</v>
-      </c>
       <c r="E60" s="99">
         <f>SUM(B7:E7)</f>
         <v>921000</v>
@@ -6588,10 +6765,7 @@
       </c>
     </row>
     <row r="61" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C61" s="123">
-        <f>B40-C60</f>
-        <v>8339630</v>
-      </c>
+      <c r="C61" s="123"/>
     </row>
     <row r="62" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G62" s="94"/>
@@ -6714,6 +6888,1419 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AI125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="20.125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="66">
+        <v>44805</v>
+      </c>
+      <c r="C1" s="66">
+        <v>44806</v>
+      </c>
+      <c r="D1" s="66">
+        <v>44807</v>
+      </c>
+      <c r="E1" s="66">
+        <v>44808</v>
+      </c>
+      <c r="F1" s="66">
+        <v>44809</v>
+      </c>
+      <c r="G1" s="66">
+        <v>44810</v>
+      </c>
+      <c r="H1" s="66">
+        <v>44811</v>
+      </c>
+      <c r="I1" s="66">
+        <v>44812</v>
+      </c>
+      <c r="J1" s="66">
+        <v>44813</v>
+      </c>
+      <c r="K1" s="66">
+        <v>44814</v>
+      </c>
+      <c r="L1" s="66">
+        <v>44815</v>
+      </c>
+      <c r="M1" s="66">
+        <v>44816</v>
+      </c>
+      <c r="N1" s="66">
+        <v>44817</v>
+      </c>
+      <c r="O1" s="66">
+        <v>44818</v>
+      </c>
+      <c r="P1" s="66">
+        <v>44819</v>
+      </c>
+      <c r="Q1" s="66">
+        <v>44820</v>
+      </c>
+      <c r="R1" s="66">
+        <v>44821</v>
+      </c>
+      <c r="S1" s="66">
+        <v>44822</v>
+      </c>
+      <c r="T1" s="66">
+        <v>44823</v>
+      </c>
+      <c r="U1" s="66">
+        <v>44824</v>
+      </c>
+      <c r="V1" s="66">
+        <v>44825</v>
+      </c>
+      <c r="W1" s="66">
+        <v>44826</v>
+      </c>
+      <c r="X1" s="66">
+        <v>44827</v>
+      </c>
+      <c r="Y1" s="66">
+        <v>44828</v>
+      </c>
+      <c r="Z1" s="66">
+        <v>44829</v>
+      </c>
+      <c r="AA1" s="66">
+        <v>44830</v>
+      </c>
+      <c r="AB1" s="66">
+        <v>44831</v>
+      </c>
+      <c r="AC1" s="66">
+        <v>44832</v>
+      </c>
+      <c r="AD1" s="66">
+        <v>44833</v>
+      </c>
+      <c r="AE1" s="66">
+        <v>44834</v>
+      </c>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+    </row>
+    <row r="2" spans="1:35" s="68" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="67" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:AF3" si="0">SUM(B12,B14,B16,B18,B20,B22)</f>
+        <v>99000</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" si="0"/>
+        <v>88000</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>132000</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(F12,F14,F16,F18,F20,F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>SUM(I12,I14,I16,I18,I20,I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <f>SUM(J12,J14,J16,J18,J20,J22)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <f>SUM(K12,K14,K16,K18,K20,K22,K24,K25,K32,K33,K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <f>SUM(P12,P14,P16,P18,P20,P22)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>SUM(Q12,Q14,Q16,Q18,Q20,Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <f>SUM(R12,R14,R16,R18,R20,R22)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <f>SUM(S12,S14,S16,S18,S20,S22)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5">
+        <f>SUM(AE12,AE14,AE16,AE18,AE20,AE22)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" s="112" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="112">
+        <f>310000+100000</f>
+        <v>410000</v>
+      </c>
+      <c r="C4" s="112">
+        <f>160000+120000</f>
+        <v>280000</v>
+      </c>
+      <c r="D4" s="112">
+        <f>90000+80000</f>
+        <v>170000</v>
+      </c>
+      <c r="AB4" s="112">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="112">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>150000</v>
+      </c>
+      <c r="D5" s="6">
+        <f>100000+7000</f>
+        <v>107000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <f>B3+B4+B5</f>
+        <v>509000</v>
+      </c>
+      <c r="C6" s="7">
+        <f>C3+C4+C5</f>
+        <v>518000</v>
+      </c>
+      <c r="D6" s="7">
+        <f>D3+D4+D5</f>
+        <v>409000</v>
+      </c>
+      <c r="E6" s="7">
+        <f>E3+E4+E5</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" ref="F6:AF6" si="1">F3+F4+F5</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f>I3+I4+I5</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" ref="J6:K6" si="2">J3+J4+J5</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>Q3+Q4+Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <f>Y3+Y4+Y5</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <f>B6+B8</f>
+        <v>259000</v>
+      </c>
+      <c r="C7" s="8">
+        <f>C6+C8</f>
+        <v>386000</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:AF7" si="3">D6+D8</f>
+        <v>319000</v>
+      </c>
+      <c r="E7" s="8">
+        <f>E6+E8</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <f>I6+I8</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <f>J6+J8</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" ref="K7" si="4">K6+K8</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <f>P6+P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" ref="B8:H8" si="5">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
+        <v>-250000</v>
+      </c>
+      <c r="C8" s="18">
+        <f>SUM(C13,C15,C17,C19,C21,C23,C23)</f>
+        <v>-132000</v>
+      </c>
+      <c r="D8" s="18">
+        <f>SUM(D13,D15,D17,D19,D21,D23,D23)</f>
+        <v>-90000</v>
+      </c>
+      <c r="E8" s="18">
+        <f>SUM(E13,E15,E17,E19,E21,E23,E23)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <f>SUM(G13,G15,G17,G19,G21,G23,G23)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
+        <f>SUM(I13,I15,I17,I19,I21,I23)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" ref="J8:AF8" si="6">SUM(J13,J15,J17,J19,J21,J23)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="18">
+        <f>SUM(N13,N15,N17,N19,N21,N23)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="18">
+        <f>SUM(P13,P15,P17,P19,P21,P23)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="18">
+        <f>SUM(Q13,Q15,Q17,Q19,Q21,Q23)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="18">
+        <f>SUM(R13,R15,R17,R19,R21,R23)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="18">
+        <f>SUM(S13,S15,S17,S19,S21,S23)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="43" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
+    </row>
+    <row r="11" spans="1:35" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10">
+        <v>44000</v>
+      </c>
+      <c r="D12" s="10">
+        <v>132000</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="1:35" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11">
+        <f>-50000-40000-40000-40000</f>
+        <v>-170000</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="D13" s="11">
+        <f>-40000-40000</f>
+        <v>-80000</v>
+      </c>
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12">
+        <v>99000</v>
+      </c>
+      <c r="C14" s="12">
+        <v>44000</v>
+      </c>
+      <c r="AA14" s="72"/>
+    </row>
+    <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="10">
+        <f>-40000-40000</f>
+        <v>-80000</v>
+      </c>
+      <c r="C15" s="10">
+        <f>-40000-40000</f>
+        <v>-80000</v>
+      </c>
+      <c r="D15" s="10">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="72"/>
+      <c r="Z16" s="72"/>
+    </row>
+    <row r="17" spans="1:31" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="71"/>
+    </row>
+    <row r="20" spans="1:31" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="53"/>
+    </row>
+    <row r="25" spans="1:31" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="53"/>
+    </row>
+    <row r="26" spans="1:31" s="20" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="109" t="s">
+        <v>387</v>
+      </c>
+      <c r="S26" s="120"/>
+      <c r="X26" s="109"/>
+      <c r="Z26" s="109"/>
+      <c r="AE26" s="121"/>
+    </row>
+    <row r="27" spans="1:31" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:31" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:31" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
+    </row>
+    <row r="30" spans="1:31" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="92">
+        <f>SUM(B2:AF2)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="78">
+        <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
+        <v>1117000</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="S32" s="83" t="s">
+        <v>321</v>
+      </c>
+      <c r="T32" s="108" t="s">
+        <v>330</v>
+      </c>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="Y32" s="108" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="70">
+        <f>1839220+B34-B31</f>
+        <v>2158220</v>
+      </c>
+      <c r="C33" s="9">
+        <f>B32+B34</f>
+        <v>1436000</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="S33" s="116" t="s">
+        <v>317</v>
+      </c>
+      <c r="T33" s="108">
+        <v>32760</v>
+      </c>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="Y33" s="93">
+        <v>36300</v>
+      </c>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="14">
+        <f>SUM(B3:AF3)</f>
+        <v>319000</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="S34" s="83">
+        <v>17690</v>
+      </c>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="16">
+        <f>SUM(B6:AF6)</f>
+        <v>1436000</v>
+      </c>
+      <c r="C35" s="15">
+        <f>B35*0.1</f>
+        <v>143600</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="S35" s="117" t="s">
+        <v>318</v>
+      </c>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="93">
+        <v>30000</v>
+      </c>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="17">
+        <f>B35+B37</f>
+        <v>964000</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="S36" s="83">
+        <v>16590</v>
+      </c>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="44">
+        <f>SUM(B8:AF8)</f>
+        <v>-472000</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="S37" s="118" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y37" s="9"/>
+      <c r="AE37" s="9"/>
+    </row>
+    <row r="38" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="45">
+        <f>SUM(B30:AF30)-SUM(41:41)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="S38" s="83">
+        <f>14290*2</f>
+        <v>28580</v>
+      </c>
+      <c r="Y38" s="9"/>
+      <c r="AE38" s="9"/>
+    </row>
+    <row r="39" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="89">
+        <f>(496000+SUM(B5:AF5))+SUM(B8:AF8)</f>
+        <v>281000</v>
+      </c>
+      <c r="C39" s="113"/>
+      <c r="D39" s="114" t="s">
+        <v>316</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="S39" s="118" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y39" s="9"/>
+      <c r="AE39" s="9"/>
+    </row>
+    <row r="40" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="87">
+        <f>SUM(B4:AF4)</f>
+        <v>860000</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="115">
+        <f>(C39/30)*1800</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="83">
+        <f>12390*3</f>
+        <v>37170</v>
+      </c>
+      <c r="Y40" s="9"/>
+      <c r="AE40" s="9"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C41" s="114" t="s">
+        <v>315</v>
+      </c>
+      <c r="S41" s="118" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y41" s="9"/>
+      <c r="AE41" s="9"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42" s="80" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="81">
+        <f>SUM(B7:AF7)</f>
+        <v>964000</v>
+      </c>
+      <c r="S42" s="119">
+        <f>SUM(S33:S40)</f>
+        <v>100030</v>
+      </c>
+      <c r="Y42" s="9"/>
+      <c r="AE42" s="9"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="85">
+        <f>B33+B39+B40</f>
+        <v>3299220</v>
+      </c>
+      <c r="Y43" s="9"/>
+      <c r="AE43" s="9"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="S44" s="84">
+        <v>15990</v>
+      </c>
+      <c r="Y44" s="9"/>
+      <c r="AE44" s="9"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B45" s="9">
+        <v>867910</v>
+      </c>
+      <c r="S45" s="84">
+        <v>17990</v>
+      </c>
+      <c r="Y45" s="9"/>
+      <c r="AE45" s="9"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="9">
+        <v>800000</v>
+      </c>
+      <c r="S46" s="84">
+        <v>19990</v>
+      </c>
+      <c r="Y46" s="9"/>
+      <c r="AE46" s="9"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="110">
+        <f>SUM(B45:B46)</f>
+        <v>1667910</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="S47" s="119">
+        <f>SUM(S44:S46)</f>
+        <v>53970</v>
+      </c>
+      <c r="Y47" s="9"/>
+      <c r="AE47" s="9"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R48" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="S48" s="1">
+        <f>10890+8490+219120+80000</f>
+        <v>318500</v>
+      </c>
+      <c r="Y48" s="9"/>
+      <c r="AE48" s="9"/>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.3">
+      <c r="S49" s="1">
+        <f>SUM(S48,S42,S47)</f>
+        <v>472500</v>
+      </c>
+      <c r="Y49" s="9"/>
+      <c r="AE49" s="9"/>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.3">
+      <c r="R50" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="S50" s="1">
+        <v>12600</v>
+      </c>
+      <c r="Y50" s="9"/>
+      <c r="AE50" s="9"/>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.3">
+      <c r="Y51" s="9"/>
+      <c r="AE51" s="9"/>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.3">
+      <c r="Y52" s="9"/>
+      <c r="AE52" s="9"/>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.3">
+      <c r="Y53" s="9"/>
+      <c r="AE53" s="9"/>
+    </row>
+    <row r="56" spans="3:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+    </row>
+    <row r="57" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="94"/>
+      <c r="E57" s="137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" s="138"/>
+      <c r="G57" s="138"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="139"/>
+      <c r="J57" s="95"/>
+    </row>
+    <row r="58" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D58" s="94"/>
+      <c r="E58" s="100" t="s">
+        <v>304</v>
+      </c>
+      <c r="F58" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="G58" s="106" t="s">
+        <v>306</v>
+      </c>
+      <c r="H58" s="104" t="s">
+        <v>307</v>
+      </c>
+      <c r="I58" s="104" t="s">
+        <v>308</v>
+      </c>
+      <c r="J58" s="95"/>
+    </row>
+    <row r="59" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D59" s="94"/>
+      <c r="E59" s="99">
+        <f>SUM(B6:E6)</f>
+        <v>1436000</v>
+      </c>
+      <c r="F59" s="101">
+        <f>SUM(F6:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="103">
+        <f>SUM(M6:S6)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="107">
+        <f>SUM(T6:Z6)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="105">
+        <f>SUM(AA6:AF6)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E60" s="99">
+        <f>SUM(B7:E7)</f>
+        <v>964000</v>
+      </c>
+      <c r="F60" s="101">
+        <f>SUM(F7:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="103">
+        <f>SUM(M7:S7)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="107">
+        <f>SUM(T7:Z7)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="105">
+        <f>SUM(AA7:AF7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="123"/>
+    </row>
+    <row r="62" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="94"/>
+      <c r="H62" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="I62" s="99">
+        <f>SUM(E59:I59)</f>
+        <v>1436000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G63" s="94"/>
+      <c r="H63" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="I63" s="99">
+        <f>AVERAGE(E59:I59)</f>
+        <v>287200</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G64" s="94"/>
+      <c r="H64" s="98" t="s">
+        <v>375</v>
+      </c>
+      <c r="I64" s="99">
+        <f>SUM(E60:I60)</f>
+        <v>964000</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G65" s="94"/>
+      <c r="H65" s="98" t="s">
+        <v>376</v>
+      </c>
+      <c r="I65" s="99">
+        <f>AVERAGE(E60:I60)</f>
+        <v>192800</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C81" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D81" s="9">
+        <v>339170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D105" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" s="119" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="119" t="s">
+        <v>335</v>
+      </c>
+      <c r="C106" s="119">
+        <v>153790</v>
+      </c>
+      <c r="D106" s="119">
+        <v>47940</v>
+      </c>
+      <c r="J106" s="119">
+        <f>172560+153790</f>
+        <v>326350</v>
+      </c>
+      <c r="R106" s="119">
+        <v>95870</v>
+      </c>
+      <c r="T106" s="119">
+        <f>843610+306770</f>
+        <v>1150380</v>
+      </c>
+      <c r="W106" s="119">
+        <v>306770</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <f>SUM(B106:AF106)</f>
+        <v>2081100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D110" s="1">
+        <f>2753110-60000</f>
+        <v>2693110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D111" s="1">
+        <f>170+90</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D113" s="1">
+        <v>153790</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D114" s="1">
+        <v>47940</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D115" s="1">
+        <f>SUM(D113:D114)</f>
+        <v>201730</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E123" s="1">
+        <v>47940</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E124" s="1">
+        <v>153790</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E125" s="1">
+        <f>SUM(E123:E124)</f>
+        <v>201730</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E57:I57"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
@@ -6749,7 +8336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6817,13 +8404,13 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="139"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="140" t="s">
@@ -6842,11 +8429,11 @@
       <c r="G3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="139"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="146"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="141"/>
@@ -6859,11 +8446,11 @@
       <c r="G4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="137"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="139"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="146"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="142"/>
@@ -6876,11 +8463,11 @@
       <c r="G5" s="24">
         <v>707266</v>
       </c>
-      <c r="H5" s="137"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="139"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="146"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
@@ -6897,11 +8484,11 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="139"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="146"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
@@ -6922,11 +8509,11 @@
       <c r="G7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="137"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="139"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="146"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
@@ -6945,11 +8532,11 @@
       <c r="G8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="146"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
@@ -6962,11 +8549,11 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="139"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="146"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
@@ -6981,11 +8568,11 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="139"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="146"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="24"/>
@@ -6994,11 +8581,11 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="139"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="146"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
@@ -7007,11 +8594,11 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="139"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="146"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
@@ -7020,11 +8607,11 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="139"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="146"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
@@ -7033,11 +8620,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="139"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="146"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="30"/>
@@ -7538,12 +9125,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -7553,6 +9134,12 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7560,7 +9147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7594,14 +9181,14 @@
       <c r="E1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="144" t="s">
+      <c r="G1" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="146"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="149"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
@@ -7886,7 +9473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H13"/>
   <sheetViews>
@@ -7939,12 +9526,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8827,4 +10414,40 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4,24 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
     <sheet name="8월 매출" sheetId="7" r:id="rId2"/>
     <sheet name="9월 매출" sheetId="10" r:id="rId3"/>
-    <sheet name="정보" sheetId="2" r:id="rId4"/>
-    <sheet name="계좌,카드" sheetId="3" r:id="rId5"/>
-    <sheet name="아이디,비번" sheetId="4" r:id="rId6"/>
-    <sheet name="팁" sheetId="8" r:id="rId7"/>
-    <sheet name="계산기" sheetId="9" r:id="rId8"/>
-    <sheet name="현욱메모" sheetId="11" r:id="rId9"/>
-    <sheet name="IP추적" sheetId="12" r:id="rId10"/>
-    <sheet name="엄마 출금 기록" sheetId="13" r:id="rId11"/>
-    <sheet name="아빠 출금 기록" sheetId="14" r:id="rId12"/>
-    <sheet name="현욱 출금 기록" sheetId="15" r:id="rId13"/>
+    <sheet name="10월 매출" sheetId="17" r:id="rId4"/>
+    <sheet name="정보" sheetId="2" r:id="rId5"/>
+    <sheet name="계좌,카드" sheetId="3" r:id="rId6"/>
+    <sheet name="아이디,비번" sheetId="4" r:id="rId7"/>
+    <sheet name="팁" sheetId="8" r:id="rId8"/>
+    <sheet name="계산기" sheetId="9" r:id="rId9"/>
+    <sheet name="계좌메모" sheetId="11" r:id="rId10"/>
+    <sheet name="IP추적" sheetId="12" r:id="rId11"/>
+    <sheet name="엄마 출금 기록" sheetId="13" r:id="rId12"/>
+    <sheet name="아빠 출금 기록" sheetId="14" r:id="rId13"/>
+    <sheet name="현욱 출금 기록" sheetId="15" r:id="rId14"/>
+    <sheet name="블록체인(삼성)" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10월 매출'!$A$1:$AF$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'8월 매출'!$A$1:$AF$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'9월 매출'!$A$1:$AF$9</definedName>
   </definedNames>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5752" uniqueCount="5480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5888" uniqueCount="5539">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -16859,10 +16862,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>캐스퍼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2번방</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -16879,10 +16878,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>32만원 삼촌 손님 (외상)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>파트너</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -16920,6 +16915,262 @@
   </si>
   <si>
     <t>임정인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.apple
+2.still
+3.couch
+4.pull
+5.doll
+6.grocery
+7.recycle
+8.small
+9.fabric
+10.choice
+11.machine
+12.kit
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bless tiny wolf anchor brisk position call gather roast walk moment fiber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타마스크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새벽 1인손님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카드, 인터넷 , 저작권료 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트너</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보낸금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트너 카드 매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4만원 덜빼고 보냄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월달 4만원 포함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월달 가게세,관리비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빼고 정산 받을 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱개인순매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월달 10% 삼촌정산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준경험치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간당경험치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당경험치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 일때 경험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남다방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7666-4275</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동다방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8978-1823</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>길성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4898-6277</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번외 남보평택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3453-0025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-6465-0085</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5787-8485</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신데렐라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5787-6236</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애인다방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3697-9995</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우다방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-6228-8788</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영결형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9457-8898</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정다방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2081-7984</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카톡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3277-1888</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40만원 3개월 할부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월달 10% 삼촌정산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐스퍼(원리금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일,닭봉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영걸이형 34입금완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영걸이형 31만원 외상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32만원 삼촌 손님입금완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31만4천원 엄마돈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-10-10술구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월달 관리비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -16927,10 +17178,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
     <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0.00_);[Red]\(&quot;₩&quot;#,##0.00\)"/>
+    <numFmt numFmtId="192" formatCode="&quot;₩&quot;#,##0.00000000000000_);[Red]\(&quot;₩&quot;#,##0.00000000000000\)"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -17536,7 +17788,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -17880,6 +18132,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -17888,15 +18143,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -17910,6 +18156,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -17918,6 +18173,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -18129,15 +18403,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
+      <xdr:colOff>40822</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>28032</xdr:rowOff>
+      <xdr:rowOff>41638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1142999</xdr:colOff>
+      <xdr:colOff>1483179</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>52323</xdr:rowOff>
+      <xdr:rowOff>65929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18154,8 +18428,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="163285" y="10832103"/>
-          <a:ext cx="2871107" cy="7031970"/>
+          <a:off x="40822" y="10845709"/>
+          <a:ext cx="3333750" cy="7031970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18569,10 +18843,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AJ73"/>
+  <dimension ref="A1:AJ83"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -20392,13 +20666,13 @@
     </row>
     <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1">
       <c r="D56" s="94"/>
-      <c r="E56" s="185" t="s">
+      <c r="E56" s="186" t="s">
         <v>266</v>
       </c>
-      <c r="F56" s="186"/>
-      <c r="G56" s="186"/>
-      <c r="H56" s="186"/>
-      <c r="I56" s="187"/>
+      <c r="F56" s="187"/>
+      <c r="G56" s="187"/>
+      <c r="H56" s="187"/>
+      <c r="I56" s="188"/>
       <c r="J56" s="95"/>
     </row>
     <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1">
@@ -20466,12 +20740,47 @@
       </c>
     </row>
     <row r="61" spans="3:10" ht="17.25" thickTop="1"/>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B73" s="1">
         <v>190000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="C77" s="1">
+        <v>2753110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="C78" s="1">
+        <v>2693110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="C79" s="1">
+        <f>C77-C78</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="D80" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="D81" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83" s="1" t="s">
+        <v>5483</v>
+      </c>
+      <c r="D83" s="1">
+        <f>D81+D80</f>
+        <v>140000</v>
       </c>
     </row>
   </sheetData>
@@ -20486,6 +20795,164 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>5468</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5469</v>
+      </c>
+      <c r="D2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>5470</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5471</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5472</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5473</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>5474</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5476</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5477</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" t="s">
+        <v>5505</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5506</v>
+      </c>
+      <c r="E101" t="s">
+        <v>5509</v>
+      </c>
+      <c r="F101" t="s">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" t="s">
+        <v>5503</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" t="s">
+        <v>5507</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5508</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" t="s">
+        <v>5511</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5512</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" t="s">
+        <v>5513</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" t="s">
+        <v>5515</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5516</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" t="s">
+        <v>5517</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" t="s">
+        <v>5519</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" t="s">
+        <v>5521</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5522</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" t="s">
+        <v>5523</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5524</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" t="s">
+        <v>5525</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5526</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -45529,7 +45996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -45537,7 +46004,7 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -45594,7 +46061,9 @@
       </c>
       <c r="C5" s="177"/>
       <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
+      <c r="E5" s="177" t="s">
+        <v>5455</v>
+      </c>
       <c r="F5" s="177"/>
       <c r="G5" s="177"/>
       <c r="H5" s="177"/>
@@ -45605,7 +46074,10 @@
       </c>
       <c r="C6" s="173"/>
       <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
+      <c r="E6" s="173">
+        <f>125087+245287</f>
+        <v>370374</v>
+      </c>
       <c r="F6" s="173"/>
       <c r="G6" s="173"/>
       <c r="H6" s="173"/>
@@ -45634,9 +46106,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="35.1" customHeight="1">
-      <c r="B8" s="177" t="s">
-        <v>5455</v>
-      </c>
+      <c r="B8" s="177"/>
       <c r="C8" s="177" t="s">
         <v>5449</v>
       </c>
@@ -45649,10 +46119,7 @@
       <c r="H8" s="177"/>
     </row>
     <row r="9" spans="2:8" ht="35.1" customHeight="1">
-      <c r="B9" s="173">
-        <f>125087+245287</f>
-        <v>370374</v>
-      </c>
+      <c r="B9" s="173"/>
       <c r="C9" s="173">
         <v>46170</v>
       </c>
@@ -45820,10 +46287,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -45831,7 +46299,7 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -46079,7 +46547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -46087,7 +46555,7 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -46242,7 +46710,9 @@
         <v>335964</v>
       </c>
       <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
+      <c r="D12" s="173">
+        <v>0</v>
+      </c>
       <c r="E12" s="173"/>
       <c r="F12" s="173"/>
       <c r="G12" s="173" t="s">
@@ -46279,7 +46749,7 @@
       <c r="D14" s="177"/>
       <c r="E14" s="177"/>
       <c r="F14" s="179" t="s">
-        <v>5464</v>
+        <v>5529</v>
       </c>
       <c r="G14" s="181"/>
       <c r="H14" s="177"/>
@@ -46331,6 +46801,43 @@
       <c r="H18" s="174">
         <f>SUM(B6:H6,B9:H9,B12:H12,B15:H15,B18:E18)</f>
         <v>1134860</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="69.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>5479</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="214.5">
+      <c r="B3" s="185" t="s">
+        <v>5478</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5480</v>
       </c>
     </row>
   </sheetData>
@@ -46347,8 +46854,8 @@
   <dimension ref="A1:AI125"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -48073,13 +48580,13 @@
     </row>
     <row r="57" spans="3:31" ht="18" thickTop="1" thickBot="1">
       <c r="D57" s="94"/>
-      <c r="E57" s="185" t="s">
+      <c r="E57" s="186" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="186"/>
-      <c r="G57" s="186"/>
-      <c r="H57" s="186"/>
-      <c r="I57" s="187"/>
+      <c r="F57" s="187"/>
+      <c r="G57" s="187"/>
+      <c r="H57" s="187"/>
+      <c r="I57" s="188"/>
       <c r="J57" s="95"/>
     </row>
     <row r="58" spans="3:31" ht="18" thickTop="1" thickBot="1">
@@ -48281,9 +48788,9 @@
   </sheetPr>
   <dimension ref="A1:AI108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -48520,7 +49027,7 @@
       </c>
       <c r="AE3" s="5">
         <f>SUM(AE12,AE14,AE16,AE18,AE20,AE22)</f>
-        <v>0</v>
+        <v>681600</v>
       </c>
       <c r="AF3" s="5">
         <f t="shared" si="0"/>
@@ -48619,6 +49126,12 @@
         <f>320000+320000+50000</f>
         <v>690000</v>
       </c>
+      <c r="AD4" s="112">
+        <v>200000</v>
+      </c>
+      <c r="AE4" s="112">
+        <v>40000</v>
+      </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25">
       <c r="A5" s="47" t="s">
@@ -48711,6 +49224,10 @@
       <c r="AB5" s="6">
         <v>320000</v>
       </c>
+      <c r="AD5" s="6">
+        <f>60000+90000</f>
+        <v>150000</v>
+      </c>
     </row>
     <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25">
       <c r="A6" s="48" t="s">
@@ -48830,11 +49347,11 @@
       </c>
       <c r="AD6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>350000</v>
       </c>
       <c r="AE6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>721600</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="1"/>
@@ -48959,11 +49476,11 @@
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="AE7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>421600</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="3"/>
@@ -49088,11 +49605,11 @@
       </c>
       <c r="AD8" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-100000</v>
       </c>
       <c r="AE8" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-300000</v>
       </c>
       <c r="AF8" s="18">
         <f t="shared" si="6"/>
@@ -49166,6 +49683,12 @@
       <c r="AB11" s="9">
         <v>-120000</v>
       </c>
+      <c r="AD11" s="9">
+        <v>-60000</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>-180000</v>
+      </c>
     </row>
     <row r="12" spans="1:35" s="10" customFormat="1" ht="17.25">
       <c r="A12" s="54" t="s">
@@ -49232,6 +49755,9 @@
       <c r="AA12" s="10">
         <v>55000</v>
       </c>
+      <c r="AE12" s="10">
+        <v>400000</v>
+      </c>
     </row>
     <row r="13" spans="1:35" s="11" customFormat="1" ht="17.25">
       <c r="A13" s="55" t="s">
@@ -49300,6 +49826,12 @@
       <c r="AB13" s="11">
         <v>-160000</v>
       </c>
+      <c r="AD13" s="11">
+        <v>-40000</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>-80000</v>
+      </c>
     </row>
     <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25">
       <c r="A14" s="56" t="s">
@@ -49344,6 +49876,9 @@
       <c r="AA14" s="72">
         <v>65000</v>
       </c>
+      <c r="AE14" s="12">
+        <v>209000</v>
+      </c>
     </row>
     <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25">
       <c r="A15" s="54" t="s">
@@ -49410,6 +49945,9 @@
       <c r="AB15" s="10">
         <v>-200000</v>
       </c>
+      <c r="AE15" s="10">
+        <v>-40000</v>
+      </c>
     </row>
     <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25">
       <c r="A16" s="56" t="s">
@@ -49425,8 +49963,11 @@
         <v>132000</v>
       </c>
       <c r="Z16" s="72"/>
-    </row>
-    <row r="17" spans="1:30" s="10" customFormat="1" ht="17.25">
+      <c r="AE16" s="12">
+        <v>72600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="10" customFormat="1" ht="17.25">
       <c r="A17" s="54" t="s">
         <v>8</v>
       </c>
@@ -49462,7 +50003,7 @@
         <v>-160000</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="12" customFormat="1" ht="17.25">
+    <row r="18" spans="1:31" s="12" customFormat="1" ht="17.25">
       <c r="A18" s="56" t="s">
         <v>10</v>
       </c>
@@ -49471,7 +50012,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="10" customFormat="1" ht="17.25">
+    <row r="19" spans="1:31" s="10" customFormat="1" ht="17.25">
       <c r="A19" s="54" t="s">
         <v>11</v>
       </c>
@@ -49502,7 +50043,7 @@
         <v>-80000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="12" customFormat="1" ht="17.25">
+    <row r="20" spans="1:31" s="12" customFormat="1" ht="17.25">
       <c r="A20" s="56" t="s">
         <v>10</v>
       </c>
@@ -49511,7 +50052,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="10" customFormat="1" ht="17.25">
+    <row r="21" spans="1:31" s="10" customFormat="1" ht="17.25">
       <c r="A21" s="54" t="s">
         <v>11</v>
       </c>
@@ -49523,27 +50064,27 @@
         <v>-93000</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="12" customFormat="1" ht="17.25">
+    <row r="22" spans="1:31" s="12" customFormat="1" ht="17.25">
       <c r="A22" s="56" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="72"/>
     </row>
-    <row r="23" spans="1:30" s="10" customFormat="1" ht="17.25">
+    <row r="23" spans="1:31" s="10" customFormat="1" ht="17.25">
       <c r="A23" s="54" t="s">
         <v>13</v>
       </c>
       <c r="I23" s="71"/>
     </row>
-    <row r="24" spans="1:30" s="9" customFormat="1" ht="17.25">
+    <row r="24" spans="1:31" s="9" customFormat="1" ht="17.25">
       <c r="A24" s="53"/>
       <c r="I24" s="151"/>
     </row>
-    <row r="25" spans="1:30" s="9" customFormat="1" ht="17.25">
+    <row r="25" spans="1:31" s="9" customFormat="1" ht="17.25">
       <c r="A25" s="53"/>
       <c r="I25" s="151"/>
     </row>
-    <row r="26" spans="1:30" s="20" customFormat="1" ht="59.25" customHeight="1">
+    <row r="26" spans="1:31" s="20" customFormat="1" ht="59.25" customHeight="1">
       <c r="A26" s="57" t="s">
         <v>17</v>
       </c>
@@ -49583,35 +50124,44 @@
       </c>
       <c r="X26" s="109"/>
       <c r="Z26" s="109" t="s">
-        <v>5468</v>
-      </c>
-      <c r="AB26" s="121" t="s">
-        <v>5469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" s="19" customFormat="1" ht="17.25">
+        <v>5467</v>
+      </c>
+      <c r="AB26" s="203" t="s">
+        <v>5535</v>
+      </c>
+      <c r="AC26" s="161" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD26" s="20" t="s">
+        <v>5482</v>
+      </c>
+      <c r="AE26" s="200" t="s">
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" s="19" customFormat="1" ht="17.25">
       <c r="A27" s="58"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="I27" s="153"/>
     </row>
-    <row r="28" spans="1:30" s="19" customFormat="1" ht="17.25">
+    <row r="28" spans="1:31" s="19" customFormat="1" ht="17.25">
       <c r="A28" s="58"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="I28" s="153"/>
     </row>
-    <row r="29" spans="1:30" s="19" customFormat="1" ht="17.25">
+    <row r="29" spans="1:31" s="19" customFormat="1" ht="17.25">
       <c r="A29" s="58"/>
       <c r="I29" s="153"/>
     </row>
-    <row r="30" spans="1:30" s="21" customFormat="1" ht="17.25">
+    <row r="30" spans="1:31" s="21" customFormat="1" ht="17.25">
       <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="154"/>
     </row>
-    <row r="31" spans="1:30" s="9" customFormat="1" ht="17.25">
+    <row r="31" spans="1:31" s="9" customFormat="1" ht="17.25">
       <c r="A31" s="60" t="s">
         <v>243</v>
       </c>
@@ -49629,13 +50179,13 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:30" s="9" customFormat="1" ht="18" thickBot="1">
+    <row r="32" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
       <c r="A32" s="77" t="s">
         <v>244</v>
       </c>
       <c r="B32" s="78">
         <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
-        <v>9078000</v>
+        <v>9468000</v>
       </c>
       <c r="C32" s="13"/>
       <c r="I32" s="151"/>
@@ -49645,10 +50195,10 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="93" t="s">
+        <v>5465</v>
+      </c>
+      <c r="Y32" s="108" t="s">
         <v>5466</v>
-      </c>
-      <c r="Y32" s="108" t="s">
-        <v>5467</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
@@ -49662,7 +50212,7 @@
       </c>
       <c r="B33" s="70">
         <f>1139220+B34-B31</f>
-        <v>7135920</v>
+        <v>7817520</v>
       </c>
       <c r="C33" s="15">
         <v>1839220</v>
@@ -49708,11 +50258,11 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B3:AF3)</f>
-        <v>5996700</v>
+        <v>6678300</v>
       </c>
       <c r="C34" s="15">
         <f>B34*0.1</f>
-        <v>599670</v>
+        <v>667830</v>
       </c>
       <c r="D34" s="15"/>
       <c r="I34" s="151"/>
@@ -49734,16 +50284,13 @@
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>15074700</v>
+        <v>16146300</v>
       </c>
       <c r="C35" s="15">
         <f>B35*0.1</f>
-        <v>1507470</v>
+        <v>1614630</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="G35" s="9">
-        <v>7015920</v>
-      </c>
       <c r="I35" s="151"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -49761,13 +50308,10 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>8570700</v>
+        <v>9242300</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="G36" s="9">
-        <v>1603430</v>
-      </c>
       <c r="I36" s="151"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -49785,13 +50329,10 @@
       </c>
       <c r="B37" s="44">
         <f>SUM(B8:AF8)</f>
-        <v>-6504000</v>
+        <v>-6904000</v>
       </c>
       <c r="C37" s="9"/>
-      <c r="G37" s="9">
-        <f>C35</f>
-        <v>1507470</v>
-      </c>
+      <c r="E37" s="9"/>
       <c r="Y37" s="9"/>
       <c r="AE37" s="9"/>
     </row>
@@ -49804,10 +50345,6 @@
         <v>0</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="G38" s="9">
-        <f>B47</f>
-        <v>2497050</v>
-      </c>
       <c r="Y38" s="9"/>
       <c r="AE38" s="9"/>
     </row>
@@ -49816,24 +50353,17 @@
         <v>193</v>
       </c>
       <c r="B39" s="89">
-        <f>(496000+SUM(B5:AF5))+SUM(B8:AF8)+50000+900000+600000+100000+300000-160000-40000</f>
-        <v>140000</v>
+        <f>(496000+SUM(B5:AF5))+SUM(B8:AF8)+50000+900000+600000+100000+300000-160000-40000+409000</f>
+        <v>299000</v>
       </c>
       <c r="C39" s="113">
-        <f>90+60</f>
-        <v>150</v>
+        <f>90+60+60</f>
+        <v>210</v>
       </c>
       <c r="D39" s="114" t="s">
         <v>316</v>
       </c>
-      <c r="E39" s="9">
-        <f>B39-220000</f>
-        <v>-80000</v>
-      </c>
-      <c r="G39" s="9">
-        <f>G35-G36-G37-G38</f>
-        <v>1407970</v>
-      </c>
+      <c r="E39" s="9"/>
       <c r="R39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="AE39" s="9"/>
@@ -49843,16 +50373,16 @@
         <v>197</v>
       </c>
       <c r="B40" s="87">
-        <f>SUM(B4:AF4)-50000-900000-600000-100000-300000-160000+40000</f>
-        <v>2610000</v>
+        <f>SUM(B4:AF4)-50000-900000-600000-100000-300000-160000+40000-409000</f>
+        <v>2441000</v>
       </c>
       <c r="C40" s="7">
-        <f>-90-60</f>
-        <v>-150</v>
+        <f>-90-60-60</f>
+        <v>-210</v>
       </c>
       <c r="D40" s="115">
         <f>(C39/30)*1800</f>
-        <v>9000</v>
+        <v>12600</v>
       </c>
       <c r="F40" s="9"/>
       <c r="R40" s="9"/>
@@ -49873,7 +50403,7 @@
       </c>
       <c r="B42" s="81">
         <f>SUM(B7:AF7)</f>
-        <v>8570700</v>
+        <v>9242300</v>
       </c>
       <c r="R42" s="9"/>
       <c r="Y42" s="9"/>
@@ -49885,7 +50415,7 @@
       </c>
       <c r="B43" s="85">
         <f>B33+B39+B40</f>
-        <v>9885920</v>
+        <v>10557520</v>
       </c>
       <c r="R43" s="9"/>
       <c r="Y43" s="9"/>
@@ -49931,37 +50461,64 @@
       <c r="AE47" s="9"/>
     </row>
     <row r="48" spans="1:31">
+      <c r="E48" s="151" t="s">
+        <v>5491</v>
+      </c>
+      <c r="F48" s="9">
+        <f>7015920-(7015920*0.005)</f>
+        <v>6980840.4000000004</v>
+      </c>
       <c r="Y48" s="9"/>
       <c r="AE48" s="9"/>
     </row>
-    <row r="49" spans="3:31">
+    <row r="49" spans="4:31">
+      <c r="E49" s="151" t="s">
+        <v>5495</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1603430</v>
+      </c>
       <c r="Y49" s="9"/>
       <c r="AE49" s="9"/>
     </row>
-    <row r="50" spans="3:31">
-      <c r="C50" s="175" t="s">
-        <v>5409</v>
+    <row r="50" spans="4:31">
+      <c r="E50" s="155" t="s">
+        <v>5528</v>
+      </c>
+      <c r="F50" s="9">
+        <f>C35</f>
+        <v>1614630</v>
       </c>
       <c r="Y50" s="9"/>
       <c r="AE50" s="9"/>
     </row>
-    <row r="51" spans="3:31">
-      <c r="C51" s="176">
-        <f>B36-B47-C35-L63</f>
-        <v>3916460</v>
+    <row r="51" spans="4:31">
+      <c r="E51" s="155" t="s">
+        <v>5492</v>
+      </c>
+      <c r="F51" s="9">
+        <f>B47</f>
+        <v>2497050</v>
       </c>
       <c r="Y51" s="9"/>
       <c r="AE51" s="9"/>
     </row>
-    <row r="52" spans="3:31">
+    <row r="52" spans="4:31">
+      <c r="E52" s="1" t="s">
+        <v>5493</v>
+      </c>
+      <c r="F52" s="9">
+        <f>F48-F49-F50-F51</f>
+        <v>1265730.4000000004</v>
+      </c>
       <c r="Y52" s="9"/>
       <c r="AE52" s="9"/>
     </row>
-    <row r="53" spans="3:31">
+    <row r="53" spans="4:31">
       <c r="Y53" s="9"/>
       <c r="AE53" s="9"/>
     </row>
-    <row r="56" spans="3:31" ht="17.25" thickBot="1">
+    <row r="56" spans="4:31" ht="17.25" thickBot="1">
       <c r="E56" s="96"/>
       <c r="F56" s="96"/>
       <c r="G56" s="96"/>
@@ -49970,15 +50527,15 @@
       <c r="K56" s="96"/>
       <c r="L56" s="96"/>
     </row>
-    <row r="57" spans="3:31" ht="18" thickTop="1" thickBot="1">
+    <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="D57" s="94"/>
-      <c r="E57" s="185" t="s">
+      <c r="E57" s="186" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="186"/>
-      <c r="G57" s="186"/>
-      <c r="H57" s="186"/>
-      <c r="I57" s="187"/>
+      <c r="F57" s="187"/>
+      <c r="G57" s="187"/>
+      <c r="H57" s="187"/>
+      <c r="I57" s="188"/>
       <c r="J57" s="164"/>
       <c r="K57" s="167" t="s">
         <v>5406</v>
@@ -49988,7 +50545,7 @@
       </c>
       <c r="M57" s="95"/>
     </row>
-    <row r="58" spans="3:31" ht="18" thickTop="1" thickBot="1">
+    <row r="58" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="D58" s="94"/>
       <c r="E58" s="100" t="s">
         <v>304</v>
@@ -50015,7 +50572,7 @@
       </c>
       <c r="M58" s="95"/>
     </row>
-    <row r="59" spans="3:31" ht="18" thickTop="1" thickBot="1">
+    <row r="59" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="D59" s="94"/>
       <c r="E59" s="99">
         <f>SUM(B6:E6)</f>
@@ -50035,7 +50592,7 @@
       </c>
       <c r="I59" s="158">
         <f>SUM(AA6:AF6)</f>
-        <v>1130000</v>
+        <v>2201600</v>
       </c>
       <c r="J59" s="171"/>
       <c r="K59" s="166">
@@ -50046,7 +50603,7 @@
       </c>
       <c r="M59" s="95"/>
     </row>
-    <row r="60" spans="3:31" ht="18" thickTop="1" thickBot="1">
+    <row r="60" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="E60" s="99">
         <f>SUM(B7:E7)</f>
         <v>1234000</v>
@@ -50065,7 +50622,7 @@
       </c>
       <c r="I60" s="158">
         <f>SUM(AA7:AF7)</f>
-        <v>650000</v>
+        <v>1321600</v>
       </c>
       <c r="J60" s="94"/>
       <c r="K60" s="166">
@@ -50077,34 +50634,34 @@
       </c>
       <c r="M60" s="95"/>
     </row>
-    <row r="61" spans="3:31" ht="18" thickTop="1" thickBot="1">
+    <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="J61" s="94"/>
       <c r="K61" s="165"/>
       <c r="L61" s="165"/>
       <c r="M61" s="95"/>
     </row>
-    <row r="62" spans="3:31" ht="18" thickTop="1" thickBot="1">
+    <row r="62" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="G62" s="94"/>
       <c r="H62" s="99" t="s">
         <v>265</v>
       </c>
       <c r="I62" s="159">
         <f>SUM(E59:I59)</f>
-        <v>15074700</v>
+        <v>16146300</v>
       </c>
       <c r="J62" s="94"/>
       <c r="K62" s="165"/>
       <c r="L62" s="165"/>
       <c r="M62" s="95"/>
     </row>
-    <row r="63" spans="3:31" ht="18" thickTop="1" thickBot="1">
+    <row r="63" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="G63" s="94"/>
       <c r="H63" s="99" t="s">
         <v>267</v>
       </c>
       <c r="I63" s="159">
         <f>AVERAGE(E59:I59)</f>
-        <v>3014940</v>
+        <v>3229260</v>
       </c>
       <c r="J63" s="94"/>
       <c r="K63" s="172" t="s">
@@ -50116,14 +50673,14 @@
       </c>
       <c r="M63" s="95"/>
     </row>
-    <row r="64" spans="3:31" ht="18" thickTop="1" thickBot="1">
+    <row r="64" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="G64" s="94"/>
       <c r="H64" s="98" t="s">
         <v>375</v>
       </c>
       <c r="I64" s="159">
         <f>SUM(E60:I60)</f>
-        <v>8570700</v>
+        <v>9242300</v>
       </c>
       <c r="K64" s="97"/>
       <c r="L64" s="97"/>
@@ -50135,15 +50692,82 @@
       </c>
       <c r="I65" s="159">
         <f>AVERAGE(E60:I60)</f>
-        <v>1714140</v>
+        <v>1848460</v>
       </c>
     </row>
     <row r="66" spans="7:9" ht="17.25" thickTop="1">
       <c r="H66" s="97"/>
       <c r="I66" s="160"/>
     </row>
-    <row r="81" spans="4:4">
+    <row r="81" spans="1:4">
       <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="175" t="s">
+        <v>5494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="176">
+        <f>B36-B47-C35-L63</f>
+        <v>4480900</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="C84" s="1" t="s">
+        <v>5485</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="C85" s="1" t="s">
+        <v>5484</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>5486</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="B86" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2753110</v>
+      </c>
+      <c r="D86" s="1">
+        <v>5562900</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="B87" s="1" t="s">
+        <v>5487</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2693110</v>
+      </c>
+      <c r="D87" s="1">
+        <f>D86-140000</f>
+        <v>5422900</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" s="1" t="s">
+        <v>5483</v>
+      </c>
+      <c r="C88" s="1">
+        <f>C86-C87</f>
+        <v>60000</v>
+      </c>
+      <c r="D88" s="1">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="C89" s="1" t="s">
+        <v>5489</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>5490</v>
+      </c>
     </row>
     <row r="105" spans="1:23">
       <c r="D105" s="1" t="s">
@@ -50199,6 +50823,1630 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:AI108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="155" customWidth="1"/>
+    <col min="10" max="32" width="20.125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="66">
+        <v>44835</v>
+      </c>
+      <c r="C1" s="66">
+        <v>44836</v>
+      </c>
+      <c r="D1" s="66">
+        <v>44837</v>
+      </c>
+      <c r="E1" s="66">
+        <v>44838</v>
+      </c>
+      <c r="F1" s="66">
+        <v>44839</v>
+      </c>
+      <c r="G1" s="66">
+        <v>44840</v>
+      </c>
+      <c r="H1" s="66">
+        <v>44841</v>
+      </c>
+      <c r="I1" s="66">
+        <v>44842</v>
+      </c>
+      <c r="J1" s="66">
+        <v>44843</v>
+      </c>
+      <c r="K1" s="66">
+        <v>44844</v>
+      </c>
+      <c r="L1" s="66">
+        <v>44845</v>
+      </c>
+      <c r="M1" s="66">
+        <v>44846</v>
+      </c>
+      <c r="N1" s="66">
+        <v>44847</v>
+      </c>
+      <c r="O1" s="66">
+        <v>44848</v>
+      </c>
+      <c r="P1" s="66">
+        <v>44849</v>
+      </c>
+      <c r="Q1" s="66">
+        <v>44850</v>
+      </c>
+      <c r="R1" s="66">
+        <v>44851</v>
+      </c>
+      <c r="S1" s="66">
+        <v>44852</v>
+      </c>
+      <c r="T1" s="66">
+        <v>44853</v>
+      </c>
+      <c r="U1" s="66">
+        <v>44854</v>
+      </c>
+      <c r="V1" s="66">
+        <v>44855</v>
+      </c>
+      <c r="W1" s="66">
+        <v>44856</v>
+      </c>
+      <c r="X1" s="66">
+        <v>44857</v>
+      </c>
+      <c r="Y1" s="66">
+        <v>44858</v>
+      </c>
+      <c r="Z1" s="66">
+        <v>44859</v>
+      </c>
+      <c r="AA1" s="66">
+        <v>44860</v>
+      </c>
+      <c r="AB1" s="66">
+        <v>44861</v>
+      </c>
+      <c r="AC1" s="66">
+        <v>44862</v>
+      </c>
+      <c r="AD1" s="66">
+        <v>44863</v>
+      </c>
+      <c r="AE1" s="66">
+        <v>44864</v>
+      </c>
+      <c r="AF1" s="66">
+        <v>44865</v>
+      </c>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+    </row>
+    <row r="2" spans="1:35" s="68" customFormat="1" ht="17.25">
+      <c r="A2" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="144"/>
+    </row>
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25">
+      <c r="A3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:AF3" si="0">SUM(B12,B14,B16,B18,B20,B22)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>253000</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(F12,F14,F16,F18,F20,F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <f>SUM(H12,H14,H16,H18,H20,H22)</f>
+        <v>1012000</v>
+      </c>
+      <c r="I3" s="145">
+        <f>SUM(I12,I14,I16,I18,I20,I22)</f>
+        <v>80000</v>
+      </c>
+      <c r="J3" s="5">
+        <f>SUM(J12,J14,J16,J18,J20,J22)</f>
+        <v>528000</v>
+      </c>
+      <c r="K3" s="5">
+        <f>SUM(K12,K14,K16,K18,K20,K22,K24,K25,K32,K33,K34)</f>
+        <v>587400</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="0"/>
+        <v>77000</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <f>SUM(O12,O14,O16,O18,O20,O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <f>SUM(P12,P14,P16,P18,P20,P22)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>SUM(Q12,Q14,Q16,Q18,Q20,Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <f>SUM(R12,R14,R16,R18,R20,R22)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <f>SUM(S12,S14,S16,S18,S20,S22)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5">
+        <f>SUM(AE12,AE14,AE16,AE18,AE20,AE22)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" s="112" customFormat="1" ht="17.25">
+      <c r="A4" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="112">
+        <v>50000</v>
+      </c>
+      <c r="C4" s="112">
+        <f>340000+340000</f>
+        <v>680000</v>
+      </c>
+      <c r="D4" s="112">
+        <f>180000+310000</f>
+        <v>490000</v>
+      </c>
+      <c r="H4" s="112">
+        <v>480000</v>
+      </c>
+      <c r="I4" s="146">
+        <v>120000</v>
+      </c>
+      <c r="L4" s="112">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25">
+      <c r="A5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <f>300000+540000+180000+179000</f>
+        <v>1199000</v>
+      </c>
+      <c r="G5" s="6">
+        <v>38000</v>
+      </c>
+      <c r="H5" s="6">
+        <v>480000</v>
+      </c>
+      <c r="I5" s="147">
+        <v>200000</v>
+      </c>
+      <c r="J5" s="6">
+        <v>200000</v>
+      </c>
+      <c r="K5" s="6">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25">
+      <c r="A6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <f>B3+B4+B5</f>
+        <v>50000</v>
+      </c>
+      <c r="C6" s="7">
+        <f>C3+C4+C5</f>
+        <v>1879000</v>
+      </c>
+      <c r="D6" s="7">
+        <f>D3+D4+D5</f>
+        <v>743000</v>
+      </c>
+      <c r="E6" s="7">
+        <f>E3+E4+E5</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" ref="F6:AF6" si="1">F3+F4+F5</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>38000</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>1972000</v>
+      </c>
+      <c r="I6" s="115">
+        <f>I3+I4+I5</f>
+        <v>400000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" ref="J6" si="2">J3+J4+J5</f>
+        <v>728000</v>
+      </c>
+      <c r="K6" s="7">
+        <f>K3+K4+K5</f>
+        <v>617400</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="1"/>
+        <v>240000</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="1"/>
+        <v>77000</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>Q3+Q4+Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <f>Y3+Y4+Y5</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="8" customFormat="1" ht="17.25">
+      <c r="A7" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <f>B6+B8</f>
+        <v>38000</v>
+      </c>
+      <c r="C7" s="8">
+        <f>C6+C8</f>
+        <v>999000</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:AF7" si="3">D6+D8</f>
+        <v>347000</v>
+      </c>
+      <c r="E7" s="8">
+        <f>E6+E8</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="3"/>
+        <v>38000</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="3"/>
+        <v>1014000</v>
+      </c>
+      <c r="I7" s="148">
+        <f>I6+I8</f>
+        <v>216000</v>
+      </c>
+      <c r="J7" s="8">
+        <f>J6+J8</f>
+        <v>384000</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" ref="K7" si="4">K6+K8</f>
+        <v>315400</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="3"/>
+        <v>77000</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <f>P6+P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <f>S6+S8</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" s="18" customFormat="1" ht="17.25">
+      <c r="A8" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" ref="B8:F8" si="5">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
+        <v>-12000</v>
+      </c>
+      <c r="C8" s="18">
+        <f>SUM(C13,C15,C17,C19,C21,C23,C23)</f>
+        <v>-880000</v>
+      </c>
+      <c r="D8" s="18">
+        <f>SUM(D13,D15,D17,D19,D21,D23,D23)</f>
+        <v>-396000</v>
+      </c>
+      <c r="E8" s="18">
+        <f>SUM(E13,E15,E17,E19,E21,E23,E23)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <f>SUM(G13,G15,G17,G19,G21,G23,G23)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <f>SUM(H13,H15,H17,H19,H21,H11,H23,H25)</f>
+        <v>-958000</v>
+      </c>
+      <c r="I8" s="149">
+        <f t="shared" ref="I8:AF8" si="6">SUM(I13,I15,I17,I19,I21,I11,I23,I25)</f>
+        <v>-184000</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="6"/>
+        <v>-344000</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="6"/>
+        <v>-302000</v>
+      </c>
+      <c r="L8" s="18">
+        <f t="shared" si="6"/>
+        <v>-120000</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="18">
+        <f>SUM(O13,O15,O17,O19,O21,O11,O23,O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="18">
+        <f>SUM(S13,S15,S17,S19,S21,S11,S23,S25)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="18">
+        <f>SUM(W13,W15,W17,W19,W21,W11,W23,W25)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="18">
+        <f>SUM(AA13,AA15,AA17,AA19,AA21,AA11,AA23,AA25)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="18">
+        <f>SUM(AB13,AB15,AB17,AB19,AB21,AB11,AB23,AB25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="43" customFormat="1" ht="17.25">
+      <c r="A9" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="150"/>
+    </row>
+    <row r="10" spans="1:35" s="9" customFormat="1" ht="17.25">
+      <c r="A10" s="52"/>
+      <c r="I10" s="151"/>
+    </row>
+    <row r="11" spans="1:35" s="9" customFormat="1" ht="17.25">
+      <c r="A11" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="151"/>
+    </row>
+    <row r="12" spans="1:35" s="10" customFormat="1" ht="17.25">
+      <c r="A12" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>5530</v>
+      </c>
+      <c r="D12" s="10">
+        <v>253000</v>
+      </c>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71">
+        <v>1012000</v>
+      </c>
+      <c r="I12" s="71">
+        <v>80000</v>
+      </c>
+      <c r="J12" s="10">
+        <f>176000*3</f>
+        <v>528000</v>
+      </c>
+      <c r="K12" s="10">
+        <v>264000</v>
+      </c>
+      <c r="M12" s="10">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" s="11" customFormat="1" ht="17.25">
+      <c r="A13" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-170000</v>
+      </c>
+      <c r="D13" s="11">
+        <f>-24000-12000</f>
+        <v>-36000</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-958000</v>
+      </c>
+      <c r="I13" s="152">
+        <v>-160000</v>
+      </c>
+      <c r="J13" s="11">
+        <f>-80000*3</f>
+        <v>-240000</v>
+      </c>
+      <c r="K13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="L13" s="11">
+        <v>-120000</v>
+      </c>
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25">
+      <c r="A14" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>5531</v>
+      </c>
+      <c r="I14" s="72"/>
+      <c r="K14" s="12">
+        <v>286000</v>
+      </c>
+      <c r="AA14" s="72"/>
+    </row>
+    <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25">
+      <c r="A15" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10">
+        <f>-80000-120000-80000</f>
+        <v>-280000</v>
+      </c>
+      <c r="D15" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="I15" s="71">
+        <v>-24000</v>
+      </c>
+      <c r="J15" s="10">
+        <v>-24000</v>
+      </c>
+      <c r="K15" s="10">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25">
+      <c r="A16" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="72"/>
+      <c r="K16" s="12">
+        <v>37400</v>
+      </c>
+      <c r="Z16" s="72"/>
+    </row>
+    <row r="17" spans="1:35" s="10" customFormat="1" ht="17.25">
+      <c r="A17" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10">
+        <v>-50000</v>
+      </c>
+      <c r="D17" s="10">
+        <f>-160000-20000</f>
+        <v>-180000</v>
+      </c>
+      <c r="I17" s="71"/>
+      <c r="J17" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="K17" s="10">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" s="12" customFormat="1" ht="17.25">
+      <c r="A18" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="72"/>
+    </row>
+    <row r="19" spans="1:35" s="10" customFormat="1" ht="17.25">
+      <c r="A19" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="10">
+        <v>-24000</v>
+      </c>
+      <c r="D19" s="10">
+        <f>-40000-40000</f>
+        <v>-80000</v>
+      </c>
+      <c r="I19" s="71"/>
+      <c r="K19" s="10">
+        <f>-90000-50000-90000</f>
+        <v>-230000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" s="12" customFormat="1" ht="17.25">
+      <c r="A20" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="72"/>
+    </row>
+    <row r="21" spans="1:35" s="10" customFormat="1" ht="17.25">
+      <c r="A21" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="10">
+        <f>-12000-12000-12000</f>
+        <v>-36000</v>
+      </c>
+      <c r="I21" s="71"/>
+    </row>
+    <row r="22" spans="1:35" s="12" customFormat="1" ht="17.25">
+      <c r="A22" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="72"/>
+    </row>
+    <row r="23" spans="1:35" s="10" customFormat="1" ht="17.25">
+      <c r="A23" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-160000</v>
+      </c>
+      <c r="I23" s="71"/>
+    </row>
+    <row r="24" spans="1:35" s="9" customFormat="1" ht="17.25">
+      <c r="A24" s="53"/>
+      <c r="I24" s="151"/>
+    </row>
+    <row r="25" spans="1:35" s="9" customFormat="1" ht="17.25">
+      <c r="A25" s="53"/>
+      <c r="I25" s="151"/>
+    </row>
+    <row r="26" spans="1:35" s="20" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A26" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="109"/>
+      <c r="C26" s="203" t="s">
+        <v>5532</v>
+      </c>
+      <c r="D26" s="121" t="s">
+        <v>5533</v>
+      </c>
+      <c r="E26" s="161" t="s">
+        <v>277</v>
+      </c>
+      <c r="F26" s="161" t="s">
+        <v>277</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>5534</v>
+      </c>
+      <c r="H26" s="205"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201" t="s">
+        <v>5403</v>
+      </c>
+      <c r="M26" s="201"/>
+      <c r="N26" s="201"/>
+      <c r="O26" s="201"/>
+      <c r="P26" s="201"/>
+      <c r="Q26" s="201"/>
+      <c r="R26" s="201"/>
+      <c r="S26" s="202"/>
+      <c r="T26" s="201"/>
+      <c r="U26" s="201"/>
+      <c r="V26" s="201"/>
+      <c r="W26" s="201"/>
+      <c r="X26" s="201"/>
+      <c r="Y26" s="201"/>
+      <c r="Z26" s="201"/>
+      <c r="AA26" s="201"/>
+      <c r="AB26" s="201"/>
+      <c r="AC26" s="201"/>
+      <c r="AD26" s="201"/>
+      <c r="AE26" s="201"/>
+      <c r="AF26" s="201"/>
+      <c r="AG26" s="201"/>
+      <c r="AH26" s="201"/>
+      <c r="AI26" s="201"/>
+    </row>
+    <row r="27" spans="1:35" s="19" customFormat="1" ht="17.25">
+      <c r="A27" s="58"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="I27" s="153"/>
+    </row>
+    <row r="28" spans="1:35" s="19" customFormat="1" ht="17.25">
+      <c r="A28" s="58"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="I28" s="153"/>
+    </row>
+    <row r="29" spans="1:35" s="19" customFormat="1" ht="17.25">
+      <c r="A29" s="58"/>
+      <c r="I29" s="153"/>
+    </row>
+    <row r="30" spans="1:35" s="21" customFormat="1" ht="17.25">
+      <c r="A30" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="154"/>
+    </row>
+    <row r="31" spans="1:35" s="9" customFormat="1" ht="17.25">
+      <c r="A31" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="92">
+        <f>SUM(B2:AF2)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="I31" s="151"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="1:35" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A32" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="78">
+        <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
+        <v>4207000</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="I32" s="151"/>
+      <c r="U32" s="124" t="s">
+        <v>330</v>
+      </c>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="93" t="s">
+        <v>5465</v>
+      </c>
+      <c r="Y32" s="108" t="s">
+        <v>5466</v>
+      </c>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A33" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="70">
+        <f>B34-B31</f>
+        <v>2537400</v>
+      </c>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="108">
+        <v>32760</v>
+      </c>
+      <c r="V33" s="108"/>
+      <c r="W33" s="108"/>
+      <c r="X33" s="93">
+        <v>30000</v>
+      </c>
+      <c r="Y33" s="93">
+        <v>36300</v>
+      </c>
+      <c r="Z33" s="108"/>
+      <c r="AA33" s="108"/>
+      <c r="AB33" s="108"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="108"/>
+      <c r="AE33" s="93"/>
+    </row>
+    <row r="34" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A34" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="14">
+        <f>SUM(B3:AF3)</f>
+        <v>2537400</v>
+      </c>
+      <c r="C34" s="15">
+        <f>B34*0.1</f>
+        <v>253740</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="I34" s="151"/>
+      <c r="U34" s="163" t="s">
+        <v>5404</v>
+      </c>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A35" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="16">
+        <f>SUM(B6:AF6)</f>
+        <v>6744400</v>
+      </c>
+      <c r="C35" s="15">
+        <f>B35*0.1</f>
+        <v>674440</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="I35" s="151"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A36" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="17">
+        <f>B35+B37</f>
+        <v>3548400</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="I36" s="151"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:31" ht="18" thickBot="1">
+      <c r="A37" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="44">
+        <f>SUM(B8:AF8)</f>
+        <v>-3196000</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="AE37" s="9"/>
+    </row>
+    <row r="38" spans="1:31" ht="18" thickBot="1">
+      <c r="A38" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="45">
+        <v>0</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="AE38" s="9"/>
+    </row>
+    <row r="39" spans="1:31" ht="18" thickBot="1">
+      <c r="A39" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="89">
+        <f>('9월 매출'!B39+SUM(B5:AF5))+SUM(B8:AF8)+314000+300000+30000+40000+80000</f>
+        <v>14000</v>
+      </c>
+      <c r="C39" s="113"/>
+      <c r="D39" s="114" t="s">
+        <v>316</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="1" t="s">
+        <v>5536</v>
+      </c>
+      <c r="R39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="AE39" s="9"/>
+    </row>
+    <row r="40" spans="1:31" ht="18" thickBot="1">
+      <c r="A40" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="87">
+        <f>SUM(B4:AF4)-300000-30000-40000-80000</f>
+        <v>1610000</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="115">
+        <f>(C39/30)*1800</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="H40" s="1">
+        <v>1006940</v>
+      </c>
+      <c r="R40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="AE40" s="9"/>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="C41" s="114" t="s">
+        <v>315</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1">
+        <v>1012000</v>
+      </c>
+      <c r="R41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="AE41" s="9"/>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="80" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="81">
+        <f>SUM(B7:AF7)</f>
+        <v>3548400</v>
+      </c>
+      <c r="H42" s="1">
+        <f>H40-H41</f>
+        <v>-5060</v>
+      </c>
+      <c r="R42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="AE42" s="9"/>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="85">
+        <f>B33+B39+B40</f>
+        <v>4161400</v>
+      </c>
+      <c r="H43" s="1">
+        <f>H41*0.005</f>
+        <v>5060</v>
+      </c>
+      <c r="R43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="AE43" s="9"/>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="H44" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y44" s="9"/>
+      <c r="AE44" s="9"/>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" s="1" t="s">
+        <v>5538</v>
+      </c>
+      <c r="B45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="155">
+        <f>100*0.005</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y45" s="9"/>
+      <c r="AE45" s="9"/>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="Y46" s="9"/>
+      <c r="AE46" s="9"/>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="110">
+        <f>SUM(B45:B46)</f>
+        <v>1500000</v>
+      </c>
+      <c r="C47" s="9">
+        <f>B45+B46</f>
+        <v>1500000</v>
+      </c>
+      <c r="Y47" s="9"/>
+      <c r="AE47" s="9"/>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="E48" s="151" t="s">
+        <v>5491</v>
+      </c>
+      <c r="F48" s="9">
+        <f>B34</f>
+        <v>2537400</v>
+      </c>
+      <c r="Y48" s="9"/>
+      <c r="AE48" s="9"/>
+    </row>
+    <row r="49" spans="4:31">
+      <c r="E49" s="155" t="s">
+        <v>5492</v>
+      </c>
+      <c r="F49" s="9">
+        <f>B47</f>
+        <v>1500000</v>
+      </c>
+      <c r="Y49" s="9"/>
+      <c r="AE49" s="9"/>
+    </row>
+    <row r="50" spans="4:31">
+      <c r="E50" s="1" t="s">
+        <v>5493</v>
+      </c>
+      <c r="F50" s="9">
+        <f>F48-F49</f>
+        <v>1037400</v>
+      </c>
+      <c r="Y50" s="9"/>
+      <c r="AE50" s="9"/>
+    </row>
+    <row r="51" spans="4:31">
+      <c r="Y51" s="9"/>
+      <c r="AE51" s="9"/>
+    </row>
+    <row r="52" spans="4:31">
+      <c r="Y52" s="9"/>
+      <c r="AE52" s="9"/>
+    </row>
+    <row r="53" spans="4:31">
+      <c r="Y53" s="9"/>
+      <c r="AE53" s="9"/>
+    </row>
+    <row r="56" spans="4:31" ht="17.25" thickBot="1">
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="156"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="96"/>
+    </row>
+    <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="D57" s="94"/>
+      <c r="E57" s="186" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" s="187"/>
+      <c r="G57" s="187"/>
+      <c r="H57" s="187"/>
+      <c r="I57" s="188"/>
+      <c r="J57" s="164"/>
+      <c r="K57" s="167" t="s">
+        <v>5406</v>
+      </c>
+      <c r="L57" s="168" t="s">
+        <v>347</v>
+      </c>
+      <c r="M57" s="95"/>
+    </row>
+    <row r="58" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="D58" s="94"/>
+      <c r="E58" s="100" t="s">
+        <v>304</v>
+      </c>
+      <c r="F58" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="G58" s="106" t="s">
+        <v>306</v>
+      </c>
+      <c r="H58" s="104" t="s">
+        <v>307</v>
+      </c>
+      <c r="I58" s="157" t="s">
+        <v>308</v>
+      </c>
+      <c r="J58" s="164"/>
+      <c r="K58" s="166" t="s">
+        <v>5407</v>
+      </c>
+      <c r="L58" s="170">
+        <f>SUM(D33:AE33)</f>
+        <v>99060</v>
+      </c>
+      <c r="M58" s="95"/>
+    </row>
+    <row r="59" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="D59" s="94"/>
+      <c r="E59" s="99">
+        <f>SUM(B6:E6)</f>
+        <v>2672000</v>
+      </c>
+      <c r="F59" s="101">
+        <f>SUM(F6:L6)</f>
+        <v>3995400</v>
+      </c>
+      <c r="G59" s="103">
+        <f>SUM(M6:S6)</f>
+        <v>77000</v>
+      </c>
+      <c r="H59" s="107">
+        <f>SUM(T6:Z6)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="158">
+        <f>SUM(AA6:AF6)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="171"/>
+      <c r="K59" s="166" t="s">
+        <v>5537</v>
+      </c>
+      <c r="L59" s="165">
+        <f>353420-76260</f>
+        <v>277160</v>
+      </c>
+      <c r="M59" s="95"/>
+    </row>
+    <row r="60" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="E60" s="99">
+        <f>SUM(B7:E7)</f>
+        <v>1384000</v>
+      </c>
+      <c r="F60" s="101">
+        <f>SUM(F7:L7)</f>
+        <v>2087400</v>
+      </c>
+      <c r="G60" s="103">
+        <f>SUM(M7:S7)</f>
+        <v>77000</v>
+      </c>
+      <c r="H60" s="107">
+        <f>SUM(T7:Z7)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="158">
+        <f>SUM(AA7:AF7)</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="94"/>
+      <c r="K60" s="166"/>
+      <c r="L60" s="165"/>
+      <c r="M60" s="95"/>
+    </row>
+    <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="J61" s="94"/>
+      <c r="K61" s="165"/>
+      <c r="L61" s="165"/>
+      <c r="M61" s="95"/>
+    </row>
+    <row r="62" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="G62" s="94"/>
+      <c r="H62" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="I62" s="159">
+        <f>SUM(E59:I59)</f>
+        <v>6744400</v>
+      </c>
+      <c r="J62" s="94"/>
+      <c r="K62" s="165"/>
+      <c r="L62" s="165"/>
+      <c r="M62" s="95"/>
+    </row>
+    <row r="63" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="G63" s="94"/>
+      <c r="H63" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="I63" s="159">
+        <f>AVERAGE(E59:I59)</f>
+        <v>1348880</v>
+      </c>
+      <c r="J63" s="94"/>
+      <c r="K63" s="172" t="s">
+        <v>5408</v>
+      </c>
+      <c r="L63" s="170">
+        <f>SUM(L58:L60)</f>
+        <v>376220</v>
+      </c>
+      <c r="M63" s="95"/>
+    </row>
+    <row r="64" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="G64" s="94"/>
+      <c r="H64" s="98" t="s">
+        <v>375</v>
+      </c>
+      <c r="I64" s="159">
+        <f>SUM(E60:I60)</f>
+        <v>3548400</v>
+      </c>
+      <c r="K64" s="97"/>
+      <c r="L64" s="97"/>
+    </row>
+    <row r="65" spans="7:9" ht="18" thickTop="1" thickBot="1">
+      <c r="G65" s="94"/>
+      <c r="H65" s="98" t="s">
+        <v>376</v>
+      </c>
+      <c r="I65" s="159">
+        <f>AVERAGE(E60:I60)</f>
+        <v>709680</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" ht="17.25" thickTop="1">
+      <c r="H66" s="97"/>
+      <c r="I66" s="160"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="175" t="s">
+        <v>5494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="176">
+        <f>B36-B47-C35-L63</f>
+        <v>997740</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="C84" s="1" t="s">
+        <v>5485</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="C85" s="1" t="s">
+        <v>5484</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>5486</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="B86" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2753110</v>
+      </c>
+      <c r="D86" s="1">
+        <v>5562900</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="B87" s="1" t="s">
+        <v>5487</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2693110</v>
+      </c>
+      <c r="D87" s="1">
+        <f>D86-140000</f>
+        <v>5422900</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" s="1" t="s">
+        <v>5483</v>
+      </c>
+      <c r="C88" s="1">
+        <f>C86-C87</f>
+        <v>60000</v>
+      </c>
+      <c r="D88" s="1">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="C89" s="1" t="s">
+        <v>5489</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="D105" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" s="119" customFormat="1">
+      <c r="A106" s="119" t="s">
+        <v>335</v>
+      </c>
+      <c r="C106" s="119">
+        <v>153790</v>
+      </c>
+      <c r="D106" s="119">
+        <v>47940</v>
+      </c>
+      <c r="I106" s="114"/>
+      <c r="J106" s="119">
+        <f>172560+153790</f>
+        <v>326350</v>
+      </c>
+      <c r="R106" s="119">
+        <v>95870</v>
+      </c>
+      <c r="T106" s="119">
+        <f>843610+306770</f>
+        <v>1150380</v>
+      </c>
+      <c r="W106" s="119">
+        <v>306770</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" s="1">
+        <f>SUM(B106:AF106)</f>
+        <v>2081100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E57:I57"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
@@ -50264,14 +52512,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -50309,13 +52557,13 @@
       <c r="G1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="194" t="s">
+      <c r="H1" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="24" t="s">
@@ -50332,16 +52580,16 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="188" t="s">
+      <c r="H2" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="190"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="195"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="189" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -50357,14 +52605,14 @@
       <c r="G3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="188"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="190"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="195"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="192"/>
+      <c r="B4" s="190"/>
       <c r="C4" s="24" t="s">
         <v>122</v>
       </c>
@@ -50374,14 +52622,14 @@
       <c r="G4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="188"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="190"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="195"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="193"/>
+      <c r="B5" s="191"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -50391,11 +52639,11 @@
       <c r="G5" s="24">
         <v>707266</v>
       </c>
-      <c r="H5" s="188"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="189"/>
-      <c r="K5" s="189"/>
-      <c r="L5" s="190"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="195"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="24" t="s">
@@ -50412,11 +52660,11 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="189"/>
-      <c r="L6" s="190"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="195"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="24" t="s">
@@ -50437,11 +52685,11 @@
       <c r="G7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="188"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="190"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="195"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="24" t="s">
@@ -50460,11 +52708,11 @@
       <c r="G8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="188"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="190"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="195"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="24" t="s">
@@ -50477,11 +52725,11 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="189"/>
-      <c r="L9" s="190"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="195"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="24" t="s">
@@ -50496,11 +52744,11 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="190"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="195"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="24"/>
@@ -50509,11 +52757,11 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="190"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="195"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="24"/>
@@ -50522,11 +52770,11 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="190"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="195"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="24"/>
@@ -50535,11 +52783,11 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="190"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="195"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="24"/>
@@ -50548,11 +52796,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="190"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="195"/>
     </row>
     <row r="15" spans="2:12">
       <c r="I15" s="30"/>
@@ -51053,12 +53301,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -51068,6 +53310,12 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51075,7 +53323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -51109,14 +53357,14 @@
       <c r="E1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="195" t="s">
+      <c r="G1" s="196" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="198"/>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="24" t="s">
@@ -51401,7 +53649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H13"/>
   <sheetViews>
@@ -51454,12 +53702,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -51468,14 +53716,18 @@
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickBot="1">
+    <row r="1" spans="1:20" ht="17.25" thickBot="1">
       <c r="F1" t="s">
-        <v>5465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18" thickTop="1" thickBot="1">
+        <v>5464</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="131" t="s">
         <v>347</v>
       </c>
@@ -51512,8 +53764,21 @@
       <c r="N2" s="131" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="17.25" thickTop="1">
+      <c r="Q2" s="199" t="s">
+        <v>5497</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5499</v>
+      </c>
+      <c r="T2">
+        <f>R2*60</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17.25" thickTop="1">
       <c r="A3" s="130">
         <v>30000</v>
       </c>
@@ -51554,8 +53819,14 @@
         <f>K3*M3</f>
         <v>30000</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="Q3" t="s">
+        <v>5496</v>
+      </c>
+      <c r="R3">
+        <v>6.2899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="82">
         <v>10000</v>
       </c>
@@ -51596,8 +53867,15 @@
         <f t="shared" ref="N4:N11" si="3">K4*M4</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="Q4" t="s">
+        <v>5500</v>
+      </c>
+      <c r="R4">
+        <f>R3*R2*60</f>
+        <v>3.774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="83">
         <v>5000</v>
       </c>
@@ -51605,11 +53883,12 @@
         <v>349</v>
       </c>
       <c r="C5" s="133">
-        <v>16</v>
+        <f>8+5</f>
+        <v>13</v>
       </c>
       <c r="D5" s="83">
         <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>65000</v>
       </c>
       <c r="F5" s="83">
         <v>5000</v>
@@ -51639,8 +53918,15 @@
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="Q5" t="s">
+        <v>5501</v>
+      </c>
+      <c r="R5">
+        <f>R4/60/60</f>
+        <v>1.0483333333333332E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="124">
         <v>30000</v>
       </c>
@@ -51681,8 +53967,18 @@
         <f t="shared" si="3"/>
         <v>30000</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="Q6" t="s">
+        <v>5502</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <f>R5*60*60*R6</f>
+        <v>18.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="124">
         <v>10000</v>
       </c>
@@ -51724,7 +54020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:20">
       <c r="A8" s="128">
         <v>2000</v>
       </c>
@@ -51766,7 +54062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:20">
       <c r="A9" s="127">
         <v>1000</v>
       </c>
@@ -51808,10 +54104,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:20">
       <c r="A10" s="125">
         <f>A16</f>
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="B10" s="125" t="s">
         <v>352</v>
@@ -51822,7 +54118,7 @@
       </c>
       <c r="D10" s="125">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="F10" s="125">
         <f>F16</f>
@@ -51854,7 +54150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:20">
       <c r="A11" s="126">
         <v>20000</v>
       </c>
@@ -51896,7 +54192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:20">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -51910,7 +54206,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:20">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="129" t="s">
@@ -51918,7 +54214,7 @@
       </c>
       <c r="D13" s="129">
         <f>SUM(D3:D11)</f>
-        <v>330000</v>
+        <v>275000</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -51939,7 +54235,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:20">
       <c r="A14" s="1"/>
       <c r="B14" s="119" t="s">
         <v>361</v>
@@ -51949,7 +54245,7 @@
       </c>
       <c r="D14" s="129">
         <f>D13*1.1</f>
-        <v>363000.00000000006</v>
+        <v>302500</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="119" t="s">
@@ -51974,12 +54270,12 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:20">
       <c r="A15" s="125" t="s">
         <v>356</v>
       </c>
       <c r="B15" s="133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -52000,10 +54296,10 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:20">
       <c r="A16" s="125">
         <f>40000*B15</f>
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -52033,7 +54329,7 @@
       </c>
       <c r="D17" s="122">
         <f>B15*80000*C3</f>
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
@@ -52068,7 +54364,7 @@
       </c>
       <c r="D18" s="122">
         <f>D17*1.1</f>
-        <v>352000</v>
+        <v>264000</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -52091,6 +54387,12 @@
       <c r="N18" s="122">
         <f>N17*1.1</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="D20">
+        <f>440000*1.1</f>
+        <v>484000.00000000006</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17.25" thickBot="1"/>
@@ -52172,11 +54474,11 @@
       </c>
       <c r="H44" s="133">
         <f>C5</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I44" s="83">
         <f t="shared" si="4"/>
-        <v>18260</v>
+        <v>14836.25</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -52290,7 +54592,7 @@
       </c>
       <c r="I52" s="129">
         <f>SUM(I42:I50)</f>
-        <v>90839</v>
+        <v>87415.25</v>
       </c>
     </row>
     <row r="53" spans="6:9">
@@ -52303,7 +54605,7 @@
       </c>
       <c r="I53" s="129">
         <f>I52*1.1</f>
-        <v>99922.900000000009</v>
+        <v>96156.775000000009</v>
       </c>
     </row>
     <row r="54" spans="6:9">
@@ -52356,66 +54658,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" t="s">
-        <v>5470</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5471</v>
-      </c>
-      <c r="D2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" t="s">
-        <v>5472</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5473</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5474</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5475</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>5476</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5478</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5479</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5477</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5888" uniqueCount="5539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5892" uniqueCount="5540">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -17173,6 +17173,11 @@
     <t>10월달 관리비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>당골(장미)
+다음주 토요일 재방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -17182,7 +17187,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
     <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0.00_);[Red]\(&quot;₩&quot;#,##0.00\)"/>
-    <numFmt numFmtId="192" formatCode="&quot;₩&quot;#,##0.00000000000000_);[Red]\(&quot;₩&quot;#,##0.00000000000000\)"/>
+    <numFmt numFmtId="179" formatCode="&quot;₩&quot;#,##0.00000000000000_);[Red]\(&quot;₩&quot;#,##0.00000000000000\)"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -17788,7 +17793,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -18135,6 +18140,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -18173,25 +18198,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -18445,6 +18451,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1320892</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>68631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="326571" y="10940143"/>
+          <a:ext cx="2885714" cy="6123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -18534,7 +18583,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18845,7 +18894,7 @@
   </sheetPr>
   <dimension ref="A1:AJ83"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -20666,13 +20715,13 @@
     </row>
     <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1">
       <c r="D56" s="94"/>
-      <c r="E56" s="186" t="s">
+      <c r="E56" s="194" t="s">
         <v>266</v>
       </c>
-      <c r="F56" s="187"/>
-      <c r="G56" s="187"/>
-      <c r="H56" s="187"/>
-      <c r="I56" s="188"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="195"/>
+      <c r="H56" s="195"/>
+      <c r="I56" s="196"/>
       <c r="J56" s="95"/>
     </row>
     <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1">
@@ -46004,7 +46053,7 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -46127,8 +46176,8 @@
       <c r="E9" s="173"/>
       <c r="F9" s="173"/>
       <c r="G9" s="173">
-        <f>50000+11269</f>
-        <v>61269</v>
+        <f>50000+100000+11269</f>
+        <v>161269</v>
       </c>
       <c r="H9" s="173"/>
     </row>
@@ -46281,7 +46330,7 @@
       </c>
       <c r="H18" s="174">
         <f>SUM(B6:H6,B9:H9,B12:H12,B15:H15,B18:E18)</f>
-        <v>1467080</v>
+        <v>1567080</v>
       </c>
     </row>
   </sheetData>
@@ -46298,8 +46347,8 @@
   </sheetPr>
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -46554,8 +46603,8 @@
   </sheetPr>
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -46853,8 +46902,8 @@
   </sheetPr>
   <dimension ref="A1:AI125"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -48580,13 +48629,13 @@
     </row>
     <row r="57" spans="3:31" ht="18" thickTop="1" thickBot="1">
       <c r="D57" s="94"/>
-      <c r="E57" s="186" t="s">
+      <c r="E57" s="194" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="187"/>
-      <c r="G57" s="187"/>
-      <c r="H57" s="187"/>
-      <c r="I57" s="188"/>
+      <c r="F57" s="195"/>
+      <c r="G57" s="195"/>
+      <c r="H57" s="195"/>
+      <c r="I57" s="196"/>
       <c r="J57" s="95"/>
     </row>
     <row r="58" spans="3:31" ht="18" thickTop="1" thickBot="1">
@@ -48790,7 +48839,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -50126,7 +50175,7 @@
       <c r="Z26" s="109" t="s">
         <v>5467</v>
       </c>
-      <c r="AB26" s="203" t="s">
+      <c r="AB26" s="190" t="s">
         <v>5535</v>
       </c>
       <c r="AC26" s="161" t="s">
@@ -50135,7 +50184,7 @@
       <c r="AD26" s="20" t="s">
         <v>5482</v>
       </c>
-      <c r="AE26" s="200" t="s">
+      <c r="AE26" s="187" t="s">
         <v>5527</v>
       </c>
     </row>
@@ -50529,13 +50578,13 @@
     </row>
     <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="D57" s="94"/>
-      <c r="E57" s="186" t="s">
+      <c r="E57" s="194" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="187"/>
-      <c r="G57" s="187"/>
-      <c r="H57" s="187"/>
-      <c r="I57" s="188"/>
+      <c r="F57" s="195"/>
+      <c r="G57" s="195"/>
+      <c r="H57" s="195"/>
+      <c r="I57" s="196"/>
       <c r="J57" s="164"/>
       <c r="K57" s="167" t="s">
         <v>5406</v>
@@ -50829,9 +50878,9 @@
   </sheetPr>
   <dimension ref="A1:AI108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -51010,11 +51059,11 @@
       </c>
       <c r="P3" s="5">
         <f>SUM(P12,P14,P16,P18,P20,P22)</f>
-        <v>0</v>
+        <v>191500</v>
       </c>
       <c r="Q3" s="5">
         <f>SUM(Q12,Q14,Q16,Q18,Q20,Q22)</f>
-        <v>0</v>
+        <v>1529000</v>
       </c>
       <c r="R3" s="5">
         <f>SUM(R12,R14,R16,R18,R20,R22)</f>
@@ -51033,12 +51082,12 @@
         <v>0</v>
       </c>
       <c r="V3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(V12,V14,V16,V18,V20,V22)</f>
+        <v>264000</v>
       </c>
       <c r="W3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(W12,W14,W16,W18,W20,W22)</f>
+        <v>132000</v>
       </c>
       <c r="X3" s="5">
         <f t="shared" si="0"/>
@@ -51101,6 +51150,20 @@
       <c r="L4" s="112">
         <v>240000</v>
       </c>
+      <c r="N4" s="112">
+        <f>80000+80000</f>
+        <v>160000</v>
+      </c>
+      <c r="P4" s="112">
+        <v>320000</v>
+      </c>
+      <c r="Q4" s="112">
+        <v>0</v>
+      </c>
+      <c r="W4" s="112">
+        <f>220000+35000+80000</f>
+        <v>335000</v>
+      </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25">
       <c r="A5" s="47" t="s">
@@ -51125,6 +51188,23 @@
       <c r="K5" s="6">
         <v>30000</v>
       </c>
+      <c r="N5" s="6">
+        <f>320000+120000</f>
+        <v>440000</v>
+      </c>
+      <c r="P5" s="6">
+        <v>240000</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>96000</v>
+      </c>
+      <c r="T5" s="6">
+        <f>110000+73000</f>
+        <v>183000</v>
+      </c>
     </row>
     <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25">
       <c r="A6" s="48" t="s">
@@ -51180,7 +51260,7 @@
       </c>
       <c r="N6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="O6" s="7">
         <f t="shared" si="1"/>
@@ -51188,11 +51268,11 @@
       </c>
       <c r="P6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>751500</v>
       </c>
       <c r="Q6" s="7">
         <f>Q3+Q4+Q5</f>
-        <v>0</v>
+        <v>1529000</v>
       </c>
       <c r="R6" s="7">
         <f t="shared" si="1"/>
@@ -51200,11 +51280,11 @@
       </c>
       <c r="S6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96000</v>
       </c>
       <c r="T6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>183000</v>
       </c>
       <c r="U6" s="7">
         <f t="shared" si="1"/>
@@ -51212,11 +51292,11 @@
       </c>
       <c r="V6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>264000</v>
       </c>
       <c r="W6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>467000</v>
       </c>
       <c r="X6" s="7">
         <f t="shared" si="1"/>
@@ -51309,7 +51389,7 @@
       </c>
       <c r="N7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>316000</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" si="3"/>
@@ -51317,11 +51397,11 @@
       </c>
       <c r="P7" s="8">
         <f>P6+P8</f>
-        <v>0</v>
+        <v>447500</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>811000</v>
       </c>
       <c r="R7" s="8">
         <f t="shared" si="3"/>
@@ -51329,23 +51409,23 @@
       </c>
       <c r="S7" s="8">
         <f>S6+S8</f>
-        <v>0</v>
+        <v>84000</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>171000</v>
       </c>
       <c r="U7" s="8">
-        <f t="shared" si="3"/>
+        <f>U6+U8</f>
         <v>0</v>
       </c>
       <c r="V7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>179000</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>315000</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="3"/>
@@ -51438,7 +51518,7 @@
       </c>
       <c r="N8" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-284000</v>
       </c>
       <c r="O8" s="18">
         <f>SUM(O13,O15,O17,O19,O21,O11,O23,O25)</f>
@@ -51446,11 +51526,11 @@
       </c>
       <c r="P8" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-304000</v>
       </c>
       <c r="Q8" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-718000</v>
       </c>
       <c r="R8" s="18">
         <f t="shared" si="6"/>
@@ -51458,23 +51538,23 @@
       </c>
       <c r="S8" s="18">
         <f>SUM(S13,S15,S17,S19,S21,S11,S23,S25)</f>
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="T8" s="18">
         <f t="shared" si="6"/>
+        <v>-12000</v>
+      </c>
+      <c r="U8" s="18">
+        <f>SUM(U13,U15,U17,U19,U21,U11,U23,U25)</f>
         <v>0</v>
       </c>
-      <c r="U8" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="V8" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>SUM(V13,V15,V17,V19,V21,V11,V23,V25)</f>
+        <v>-85000</v>
       </c>
       <c r="W8" s="18">
         <f>SUM(W13,W15,W17,W19,W21,W11,W23,W25)</f>
-        <v>0</v>
+        <v>-152000</v>
       </c>
       <c r="X8" s="18">
         <f t="shared" si="6"/>
@@ -51556,6 +51636,10 @@
       <c r="M12" s="10">
         <v>77000</v>
       </c>
+      <c r="Q12" s="10">
+        <f>132000+88000+88000+88000</f>
+        <v>396000</v>
+      </c>
     </row>
     <row r="13" spans="1:35" s="11" customFormat="1" ht="17.25">
       <c r="A13" s="55" t="s">
@@ -51587,6 +51671,28 @@
       <c r="L13" s="11">
         <v>-120000</v>
       </c>
+      <c r="N13" s="11">
+        <v>-80000</v>
+      </c>
+      <c r="P13" s="11">
+        <v>-120000</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>-170000</v>
+      </c>
+      <c r="S13" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="T13" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="W13" s="11">
+        <v>-12000</v>
+      </c>
       <c r="AA13" s="10"/>
     </row>
     <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25">
@@ -51600,6 +51706,19 @@
       <c r="K14" s="12">
         <v>286000</v>
       </c>
+      <c r="P14" s="12">
+        <v>121000</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>726000</v>
+      </c>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11">
+        <v>132000</v>
+      </c>
+      <c r="W14" s="12">
+        <v>99000</v>
+      </c>
       <c r="AA14" s="72"/>
     </row>
     <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25">
@@ -51622,6 +51741,25 @@
       <c r="K15" s="10">
         <v>-20000</v>
       </c>
+      <c r="N15" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="P15" s="10">
+        <v>-160000</v>
+      </c>
+      <c r="Q15" s="10">
+        <f>-240000-90000</f>
+        <v>-330000</v>
+      </c>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12">
+        <f>-45000</f>
+        <v>-45000</v>
+      </c>
+      <c r="W15" s="10">
+        <f>-100000-40000</f>
+        <v>-140000</v>
+      </c>
     </row>
     <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25">
       <c r="A16" s="56" t="s">
@@ -51631,6 +51769,19 @@
       <c r="K16" s="12">
         <v>37400</v>
       </c>
+      <c r="P16" s="12">
+        <v>70500</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>308000</v>
+      </c>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10">
+        <v>132000</v>
+      </c>
+      <c r="W16" s="12">
+        <v>33000</v>
+      </c>
       <c r="Z16" s="72"/>
     </row>
     <row r="17" spans="1:35" s="10" customFormat="1" ht="17.25">
@@ -51651,12 +51802,25 @@
       <c r="K17" s="10">
         <v>-40000</v>
       </c>
+      <c r="N17" s="10">
+        <f>-12000-12000</f>
+        <v>-24000</v>
+      </c>
+      <c r="P17" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>-80000</v>
+      </c>
     </row>
     <row r="18" spans="1:35" s="12" customFormat="1" ht="17.25">
       <c r="A18" s="56" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="72"/>
+      <c r="Q18" s="12">
+        <v>99000</v>
+      </c>
     </row>
     <row r="19" spans="1:35" s="10" customFormat="1" ht="17.25">
       <c r="A19" s="54" t="s">
@@ -51674,6 +51838,15 @@
         <f>-90000-50000-90000</f>
         <v>-230000</v>
       </c>
+      <c r="N19" s="10">
+        <v>-20000</v>
+      </c>
+      <c r="P19" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>-40000</v>
+      </c>
     </row>
     <row r="20" spans="1:35" s="12" customFormat="1" ht="17.25">
       <c r="A20" s="56" t="s">
@@ -51690,6 +51863,14 @@
         <v>-36000</v>
       </c>
       <c r="I21" s="71"/>
+      <c r="N21" s="10">
+        <f>-40000-40000</f>
+        <v>-80000</v>
+      </c>
+      <c r="Q21" s="10">
+        <f>-12000-12000-12000-12000</f>
+        <v>-48000</v>
+      </c>
     </row>
     <row r="22" spans="1:35" s="12" customFormat="1" ht="17.25">
       <c r="A22" s="56" t="s">
@@ -51705,6 +51886,9 @@
         <v>-160000</v>
       </c>
       <c r="I23" s="71"/>
+      <c r="Q23" s="10">
+        <v>-50000</v>
+      </c>
     </row>
     <row r="24" spans="1:35" s="9" customFormat="1" ht="17.25">
       <c r="A24" s="53"/>
@@ -51719,7 +51903,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="109"/>
-      <c r="C26" s="203" t="s">
+      <c r="C26" s="190" t="s">
         <v>5532</v>
       </c>
       <c r="D26" s="121" t="s">
@@ -51734,36 +51918,44 @@
       <c r="G26" s="20" t="s">
         <v>5534</v>
       </c>
-      <c r="H26" s="205"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="201"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="201" t="s">
+      <c r="H26" s="192"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="188" t="s">
         <v>5403</v>
       </c>
-      <c r="M26" s="201"/>
-      <c r="N26" s="201"/>
-      <c r="O26" s="201"/>
-      <c r="P26" s="201"/>
-      <c r="Q26" s="201"/>
-      <c r="R26" s="201"/>
-      <c r="S26" s="202"/>
-      <c r="T26" s="201"/>
-      <c r="U26" s="201"/>
-      <c r="V26" s="201"/>
-      <c r="W26" s="201"/>
-      <c r="X26" s="201"/>
-      <c r="Y26" s="201"/>
-      <c r="Z26" s="201"/>
-      <c r="AA26" s="201"/>
-      <c r="AB26" s="201"/>
-      <c r="AC26" s="201"/>
-      <c r="AD26" s="201"/>
-      <c r="AE26" s="201"/>
-      <c r="AF26" s="201"/>
-      <c r="AG26" s="201"/>
-      <c r="AH26" s="201"/>
-      <c r="AI26" s="201"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="188"/>
+      <c r="O26" s="161" t="s">
+        <v>277</v>
+      </c>
+      <c r="P26" s="188"/>
+      <c r="Q26" s="188" t="s">
+        <v>5539</v>
+      </c>
+      <c r="R26" s="161" t="s">
+        <v>277</v>
+      </c>
+      <c r="S26" s="189"/>
+      <c r="T26" s="188"/>
+      <c r="U26" s="161" t="s">
+        <v>277</v>
+      </c>
+      <c r="V26" s="188"/>
+      <c r="W26" s="188"/>
+      <c r="X26" s="188"/>
+      <c r="Y26" s="188"/>
+      <c r="Z26" s="188"/>
+      <c r="AA26" s="188"/>
+      <c r="AB26" s="188"/>
+      <c r="AC26" s="188"/>
+      <c r="AD26" s="188"/>
+      <c r="AE26" s="188"/>
+      <c r="AF26" s="188"/>
+      <c r="AG26" s="188"/>
+      <c r="AH26" s="188"/>
+      <c r="AI26" s="188"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="17.25">
       <c r="A27" s="58"/>
@@ -51811,20 +52003,19 @@
       </c>
       <c r="B32" s="78">
         <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
-        <v>4207000</v>
+        <v>5981000</v>
       </c>
       <c r="C32" s="13"/>
       <c r="I32" s="151"/>
       <c r="U32" s="124" t="s">
         <v>330</v>
       </c>
-      <c r="V32" s="1"/>
+      <c r="V32" s="108" t="s">
+        <v>340</v>
+      </c>
       <c r="W32" s="1"/>
       <c r="X32" s="93" t="s">
         <v>5465</v>
-      </c>
-      <c r="Y32" s="108" t="s">
-        <v>5466</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
@@ -51838,7 +52029,7 @@
       </c>
       <c r="B33" s="70">
         <f>B34-B31</f>
-        <v>2537400</v>
+        <v>4653900</v>
       </c>
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
@@ -51861,13 +52052,12 @@
       <c r="U33" s="108">
         <v>32760</v>
       </c>
-      <c r="V33" s="108"/>
+      <c r="V33" s="93">
+        <v>36300</v>
+      </c>
       <c r="W33" s="108"/>
       <c r="X33" s="93">
         <v>30000</v>
-      </c>
-      <c r="Y33" s="93">
-        <v>36300</v>
       </c>
       <c r="Z33" s="108"/>
       <c r="AA33" s="108"/>
@@ -51882,11 +52072,11 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B3:AF3)</f>
-        <v>2537400</v>
+        <v>4653900</v>
       </c>
       <c r="C34" s="15">
         <f>B34*0.1</f>
-        <v>253740</v>
+        <v>465390</v>
       </c>
       <c r="D34" s="15"/>
       <c r="I34" s="151"/>
@@ -51908,11 +52098,11 @@
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>6744400</v>
+        <v>10634900</v>
       </c>
       <c r="C35" s="15">
         <f>B35*0.1</f>
-        <v>674440</v>
+        <v>1063490</v>
       </c>
       <c r="D35" s="15"/>
       <c r="I35" s="151"/>
@@ -51932,7 +52122,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>3548400</v>
+        <v>5871900</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -51953,10 +52143,11 @@
       </c>
       <c r="B37" s="44">
         <f>SUM(B8:AF8)</f>
-        <v>-3196000</v>
+        <v>-4763000</v>
       </c>
       <c r="C37" s="9"/>
       <c r="E37" s="9"/>
+      <c r="O37" s="193"/>
       <c r="Y37" s="9"/>
       <c r="AE37" s="9"/>
     </row>
@@ -51968,6 +52159,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="9"/>
+      <c r="P38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="AE38" s="9"/>
     </row>
@@ -51976,17 +52168,21 @@
         <v>193</v>
       </c>
       <c r="B39" s="89">
-        <f>('9월 매출'!B39+SUM(B5:AF5))+SUM(B8:AF8)+314000+300000+30000+40000+80000</f>
-        <v>14000</v>
+        <f>('9월 매출'!B39+SUM(B5:AF5))+SUM(B8:AF8)+314000+300000+30000+40000+80000+260000+400000+80000</f>
+        <v>146000</v>
       </c>
       <c r="C39" s="113"/>
       <c r="D39" s="114" t="s">
         <v>316</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="9">
+        <f>B39-66000</f>
+        <v>80000</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>5536</v>
       </c>
+      <c r="P39" s="9"/>
       <c r="R39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="AE39" s="9"/>
@@ -51996,8 +52192,8 @@
         <v>197</v>
       </c>
       <c r="B40" s="87">
-        <f>SUM(B4:AF4)-300000-30000-40000-80000</f>
-        <v>1610000</v>
+        <f>SUM(B4:AF4)-300000-30000-40000-80000-260000-400000-80000</f>
+        <v>1685000</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="115">
@@ -52008,6 +52204,7 @@
       <c r="H40" s="1">
         <v>1006940</v>
       </c>
+      <c r="P40" s="9"/>
       <c r="R40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="AE40" s="9"/>
@@ -52020,6 +52217,7 @@
       <c r="H41" s="1">
         <v>1012000</v>
       </c>
+      <c r="P41" s="9"/>
       <c r="R41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="AE41" s="9"/>
@@ -52030,12 +52228,13 @@
       </c>
       <c r="B42" s="81">
         <f>SUM(B7:AF7)</f>
-        <v>3548400</v>
+        <v>5871900</v>
       </c>
       <c r="H42" s="1">
         <f>H40-H41</f>
         <v>-5060</v>
       </c>
+      <c r="P42" s="9"/>
       <c r="R42" s="9"/>
       <c r="Y42" s="9"/>
       <c r="AE42" s="9"/>
@@ -52046,12 +52245,13 @@
       </c>
       <c r="B43" s="85">
         <f>B33+B39+B40</f>
-        <v>4161400</v>
+        <v>6484900</v>
       </c>
       <c r="H43" s="1">
         <f>H41*0.005</f>
         <v>5060</v>
       </c>
+      <c r="P43" s="9"/>
       <c r="R43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
@@ -52060,6 +52260,7 @@
       <c r="H44" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="P44" s="9"/>
       <c r="Y44" s="9"/>
       <c r="AE44" s="9"/>
     </row>
@@ -52068,12 +52269,13 @@
         <v>5538</v>
       </c>
       <c r="B45" s="9">
-        <v>0</v>
+        <v>808900</v>
       </c>
       <c r="H45" s="155">
         <f>100*0.005</f>
         <v>0.5</v>
       </c>
+      <c r="P45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="AE45" s="9"/>
     </row>
@@ -52084,6 +52286,7 @@
       <c r="B46" s="9">
         <v>1500000</v>
       </c>
+      <c r="P46" s="9"/>
       <c r="Y46" s="9"/>
       <c r="AE46" s="9"/>
     </row>
@@ -52093,11 +52296,11 @@
       </c>
       <c r="B47" s="110">
         <f>SUM(B45:B46)</f>
-        <v>1500000</v>
+        <v>2308900</v>
       </c>
       <c r="C47" s="9">
         <f>B45+B46</f>
-        <v>1500000</v>
+        <v>2308900</v>
       </c>
       <c r="Y47" s="9"/>
       <c r="AE47" s="9"/>
@@ -52108,7 +52311,7 @@
       </c>
       <c r="F48" s="9">
         <f>B34</f>
-        <v>2537400</v>
+        <v>4653900</v>
       </c>
       <c r="Y48" s="9"/>
       <c r="AE48" s="9"/>
@@ -52119,7 +52322,7 @@
       </c>
       <c r="F49" s="9">
         <f>B47</f>
-        <v>1500000</v>
+        <v>2308900</v>
       </c>
       <c r="Y49" s="9"/>
       <c r="AE49" s="9"/>
@@ -52130,7 +52333,7 @@
       </c>
       <c r="F50" s="9">
         <f>F48-F49</f>
-        <v>1037400</v>
+        <v>2345000</v>
       </c>
       <c r="Y50" s="9"/>
       <c r="AE50" s="9"/>
@@ -52158,13 +52361,13 @@
     </row>
     <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="D57" s="94"/>
-      <c r="E57" s="186" t="s">
+      <c r="E57" s="194" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="187"/>
-      <c r="G57" s="187"/>
-      <c r="H57" s="187"/>
-      <c r="I57" s="188"/>
+      <c r="F57" s="195"/>
+      <c r="G57" s="195"/>
+      <c r="H57" s="195"/>
+      <c r="I57" s="196"/>
       <c r="J57" s="164"/>
       <c r="K57" s="167" t="s">
         <v>5406</v>
@@ -52213,11 +52416,11 @@
       </c>
       <c r="G59" s="103">
         <f>SUM(M6:S6)</f>
-        <v>77000</v>
+        <v>3053500</v>
       </c>
       <c r="H59" s="107">
         <f>SUM(T6:Z6)</f>
-        <v>0</v>
+        <v>914000</v>
       </c>
       <c r="I59" s="158">
         <f>SUM(AA6:AF6)</f>
@@ -52244,11 +52447,11 @@
       </c>
       <c r="G60" s="103">
         <f>SUM(M7:S7)</f>
-        <v>77000</v>
+        <v>1735500</v>
       </c>
       <c r="H60" s="107">
         <f>SUM(T7:Z7)</f>
-        <v>0</v>
+        <v>665000</v>
       </c>
       <c r="I60" s="158">
         <f>SUM(AA7:AF7)</f>
@@ -52272,7 +52475,7 @@
       </c>
       <c r="I62" s="159">
         <f>SUM(E59:I59)</f>
-        <v>6744400</v>
+        <v>10634900</v>
       </c>
       <c r="J62" s="94"/>
       <c r="K62" s="165"/>
@@ -52286,7 +52489,7 @@
       </c>
       <c r="I63" s="159">
         <f>AVERAGE(E59:I59)</f>
-        <v>1348880</v>
+        <v>2126980</v>
       </c>
       <c r="J63" s="94"/>
       <c r="K63" s="172" t="s">
@@ -52305,7 +52508,7 @@
       </c>
       <c r="I64" s="159">
         <f>SUM(E60:I60)</f>
-        <v>3548400</v>
+        <v>5871900</v>
       </c>
       <c r="K64" s="97"/>
       <c r="L64" s="97"/>
@@ -52317,7 +52520,7 @@
       </c>
       <c r="I65" s="159">
         <f>AVERAGE(E60:I60)</f>
-        <v>709680</v>
+        <v>1174380</v>
       </c>
     </row>
     <row r="66" spans="7:9" ht="17.25" thickTop="1">
@@ -52335,7 +52538,11 @@
     <row r="83" spans="1:4">
       <c r="A83" s="176">
         <f>B36-B47-C35-L63</f>
-        <v>997740</v>
+        <v>2123290</v>
+      </c>
+      <c r="B83" s="9">
+        <f>A83+C35</f>
+        <v>3186780</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -52443,6 +52650,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -52557,13 +52765,13 @@
       <c r="G1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="192" t="s">
+      <c r="H1" s="200" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="24" t="s">
@@ -52580,16 +52788,16 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="193" t="s">
+      <c r="H2" s="201" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="195"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="203"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="197" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -52605,14 +52813,14 @@
       <c r="G3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="193"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="195"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="203"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="190"/>
+      <c r="B4" s="198"/>
       <c r="C4" s="24" t="s">
         <v>122</v>
       </c>
@@ -52622,14 +52830,14 @@
       <c r="G4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="193"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="194"/>
-      <c r="L4" s="195"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="203"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="191"/>
+      <c r="B5" s="199"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -52639,11 +52847,11 @@
       <c r="G5" s="24">
         <v>707266</v>
       </c>
-      <c r="H5" s="193"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="195"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="203"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="24" t="s">
@@ -52660,11 +52868,11 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="195"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="203"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="24" t="s">
@@ -52685,11 +52893,11 @@
       <c r="G7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="193"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="195"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="203"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="24" t="s">
@@ -52708,11 +52916,11 @@
       <c r="G8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="193"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="195"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="203"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="24" t="s">
@@ -52725,11 +52933,11 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="194"/>
-      <c r="L9" s="195"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="203"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="24" t="s">
@@ -52744,11 +52952,11 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="194"/>
-      <c r="L10" s="195"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="203"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="24"/>
@@ -52757,11 +52965,11 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="195"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="203"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="24"/>
@@ -52770,11 +52978,11 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="195"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="203"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="24"/>
@@ -52783,11 +52991,11 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="195"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="203"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="24"/>
@@ -52796,11 +53004,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="195"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="203"/>
     </row>
     <row r="15" spans="2:12">
       <c r="I15" s="30"/>
@@ -53357,14 +53565,14 @@
       <c r="E1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="196" t="s">
+      <c r="G1" s="204" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="198"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="206"/>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="24" t="s">
@@ -53707,7 +53915,7 @@
   <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -53764,7 +53972,7 @@
       <c r="N2" s="131" t="s">
         <v>346</v>
       </c>
-      <c r="Q2" s="199" t="s">
+      <c r="Q2" s="186" t="s">
         <v>5497</v>
       </c>
       <c r="R2">
@@ -53786,11 +53994,11 @@
         <v>343</v>
       </c>
       <c r="C3" s="132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="130">
         <f>A3*C3</f>
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="F3" s="130">
         <v>30000</v>
@@ -53834,11 +54042,11 @@
         <v>348</v>
       </c>
       <c r="C4" s="133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="82">
         <f t="shared" ref="D4:D11" si="0">A4*C4</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="82">
         <v>10000</v>
@@ -53883,12 +54091,11 @@
         <v>349</v>
       </c>
       <c r="C5" s="133">
-        <f>8+5</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5" s="83">
         <f t="shared" si="0"/>
-        <v>65000</v>
+        <v>90000</v>
       </c>
       <c r="F5" s="83">
         <v>5000</v>
@@ -54107,14 +54314,14 @@
     <row r="10" spans="1:20">
       <c r="A10" s="125">
         <f>A16</f>
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="B10" s="125" t="s">
         <v>352</v>
       </c>
       <c r="C10" s="125">
         <f>C3</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="125">
         <f t="shared" si="0"/>
@@ -54214,7 +54421,7 @@
       </c>
       <c r="D13" s="129">
         <f>SUM(D3:D11)</f>
-        <v>275000</v>
+        <v>340000</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -54245,7 +54452,7 @@
       </c>
       <c r="D14" s="129">
         <f>D13*1.1</f>
-        <v>302500</v>
+        <v>374000.00000000006</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="119" t="s">
@@ -54275,7 +54482,7 @@
         <v>356</v>
       </c>
       <c r="B15" s="133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -54299,7 +54506,7 @@
     <row r="16" spans="1:20">
       <c r="A16" s="125">
         <f>40000*B15</f>
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -54433,11 +54640,11 @@
       </c>
       <c r="H42" s="132">
         <f>C3</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" s="130">
         <f>F42*H42</f>
-        <v>30000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -54457,11 +54664,11 @@
       </c>
       <c r="H43" s="133">
         <f>C4</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" s="82">
         <f t="shared" ref="I43:I50" si="4">F43*H43</f>
-        <v>2579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -54474,11 +54681,11 @@
       </c>
       <c r="H44" s="133">
         <f>C5</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I44" s="83">
         <f t="shared" si="4"/>
-        <v>14836.25</v>
+        <v>20542.5</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -54555,7 +54762,7 @@
       </c>
       <c r="H49" s="133">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49" s="125">
         <f t="shared" si="4"/>
@@ -54592,7 +54799,7 @@
       </c>
       <c r="I52" s="129">
         <f>SUM(I42:I50)</f>
-        <v>87415.25</v>
+        <v>150542.5</v>
       </c>
     </row>
     <row r="53" spans="6:9">
@@ -54605,7 +54812,7 @@
       </c>
       <c r="I53" s="129">
         <f>I52*1.1</f>
-        <v>96156.775000000009</v>
+        <v>165596.75</v>
       </c>
     </row>
     <row r="54" spans="6:9">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4,27 +4,30 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
     <sheet name="8월 매출" sheetId="7" r:id="rId2"/>
     <sheet name="9월 매출" sheetId="10" r:id="rId3"/>
     <sheet name="10월 매출" sheetId="17" r:id="rId4"/>
-    <sheet name="정보" sheetId="2" r:id="rId5"/>
-    <sheet name="계좌,카드" sheetId="3" r:id="rId6"/>
-    <sheet name="아이디,비번" sheetId="4" r:id="rId7"/>
-    <sheet name="팁" sheetId="8" r:id="rId8"/>
-    <sheet name="계산기" sheetId="9" r:id="rId9"/>
-    <sheet name="계좌메모" sheetId="11" r:id="rId10"/>
-    <sheet name="IP추적" sheetId="12" r:id="rId11"/>
-    <sheet name="엄마 출금 기록" sheetId="13" r:id="rId12"/>
-    <sheet name="아빠 출금 기록" sheetId="14" r:id="rId13"/>
-    <sheet name="현욱 출금 기록" sheetId="15" r:id="rId14"/>
-    <sheet name="블록체인(삼성)" sheetId="16" r:id="rId15"/>
+    <sheet name="11월 매출" sheetId="19" r:id="rId5"/>
+    <sheet name="정보" sheetId="2" r:id="rId6"/>
+    <sheet name="계좌,카드" sheetId="3" r:id="rId7"/>
+    <sheet name="아이디,비번" sheetId="4" r:id="rId8"/>
+    <sheet name="팁" sheetId="8" r:id="rId9"/>
+    <sheet name="계산기" sheetId="9" r:id="rId10"/>
+    <sheet name="계좌메모" sheetId="11" r:id="rId11"/>
+    <sheet name="IP추적" sheetId="12" r:id="rId12"/>
+    <sheet name="엄마 출금 기록" sheetId="13" r:id="rId13"/>
+    <sheet name="아빠 출금 기록" sheetId="14" r:id="rId14"/>
+    <sheet name="현욱 출금 기록" sheetId="15" r:id="rId15"/>
+    <sheet name="블록체인(삼성)" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10월 매출'!$A$1:$AF$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'11월 매출'!$A$1:$AF$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'8월 매출'!$A$1:$AF$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'9월 매출'!$A$1:$AF$9</definedName>
   </definedNames>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5892" uniqueCount="5540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6010" uniqueCount="5573">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -17176,6 +17179,138 @@
   <si>
     <t>당골(장미)
 다음주 토요일 재방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번영회비 2022-10-24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월달 가게세,관리비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수료0.005 제외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-10-24술구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10만외상(숙모지인)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OOO지연되서 추가금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양주(시바스12골든17)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시바스12년산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골든블루 17년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가금액(및-)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드+현금 총매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수료0.005 제외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 총 카드 매출 수수료 제외안한금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화재보험(6개월치) 6*5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캔디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피캔디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트링치즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공병</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참이슬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임연수어 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스모크치즈 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레첼 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 4일 코스트코</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당골</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당골,학생9000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>집합</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -17793,7 +17928,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -18160,6 +18295,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -18198,6 +18338,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -18454,13 +18600,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>326571</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1320892</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>68631</xdr:rowOff>
+      <xdr:rowOff>27810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18477,7 +18623,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="326571" y="10940143"/>
+          <a:off x="326571" y="10899322"/>
           <a:ext cx="2885714" cy="6123809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18894,8 +19040,8 @@
   </sheetPr>
   <dimension ref="A1:AJ83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -20715,13 +20861,13 @@
     </row>
     <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1">
       <c r="D56" s="94"/>
-      <c r="E56" s="194" t="s">
+      <c r="E56" s="197" t="s">
         <v>266</v>
       </c>
-      <c r="F56" s="195"/>
-      <c r="G56" s="195"/>
-      <c r="H56" s="195"/>
-      <c r="I56" s="196"/>
+      <c r="F56" s="198"/>
+      <c r="G56" s="198"/>
+      <c r="H56" s="198"/>
+      <c r="I56" s="199"/>
       <c r="J56" s="95"/>
     </row>
     <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1">
@@ -20845,10 +20991,1017 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A1" t="s">
+        <v>5559</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5464</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A2" s="131" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="131" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="131" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="131" t="s">
+        <v>346</v>
+      </c>
+      <c r="F2" s="131" t="s">
+        <v>347</v>
+      </c>
+      <c r="G2" s="131" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="131" t="s">
+        <v>345</v>
+      </c>
+      <c r="I2" s="131" t="s">
+        <v>346</v>
+      </c>
+      <c r="K2" s="131" t="s">
+        <v>347</v>
+      </c>
+      <c r="L2" s="131" t="s">
+        <v>344</v>
+      </c>
+      <c r="M2" s="131" t="s">
+        <v>345</v>
+      </c>
+      <c r="N2" s="131" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q2" s="186" t="s">
+        <v>5497</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5499</v>
+      </c>
+      <c r="T2">
+        <f>R2*60</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17.25" thickTop="1">
+      <c r="A3" s="130">
+        <v>50000</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="132">
+        <v>2</v>
+      </c>
+      <c r="D3" s="130">
+        <f>A3*C3</f>
+        <v>100000</v>
+      </c>
+      <c r="F3" s="130">
+        <v>30000</v>
+      </c>
+      <c r="G3" s="130" t="s">
+        <v>343</v>
+      </c>
+      <c r="H3" s="132">
+        <v>1</v>
+      </c>
+      <c r="I3" s="130">
+        <f>F3*H3</f>
+        <v>30000</v>
+      </c>
+      <c r="K3" s="130">
+        <v>30000</v>
+      </c>
+      <c r="L3" s="130" t="s">
+        <v>343</v>
+      </c>
+      <c r="M3" s="132">
+        <f>H3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="130">
+        <f>K3*M3</f>
+        <v>30000</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5496</v>
+      </c>
+      <c r="R3">
+        <v>6.2899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="82">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="133">
+        <v>4</v>
+      </c>
+      <c r="D4" s="82">
+        <f t="shared" ref="D4:D13" si="0">A4*C4</f>
+        <v>40000</v>
+      </c>
+      <c r="F4" s="82">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="H4" s="133">
+        <v>1</v>
+      </c>
+      <c r="I4" s="82">
+        <f t="shared" ref="I4:I13" si="1">F4*H4</f>
+        <v>10000</v>
+      </c>
+      <c r="K4" s="82">
+        <v>10000</v>
+      </c>
+      <c r="L4" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="M4" s="132">
+        <f t="shared" ref="M4:M13" si="2">H4</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="82">
+        <f t="shared" ref="N4:N13" si="3">K4*M4</f>
+        <v>10000</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>5500</v>
+      </c>
+      <c r="R4">
+        <f>R3*R2*60</f>
+        <v>3.774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="83">
+        <v>5000</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="133">
+        <v>12</v>
+      </c>
+      <c r="D5" s="83">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="F5" s="83">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="H5" s="133">
+        <f>5+4+4-3</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="83">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="K5" s="83">
+        <v>5000</v>
+      </c>
+      <c r="L5" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="M5" s="132">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N5" s="83">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>5501</v>
+      </c>
+      <c r="R5">
+        <f>R4/60/60</f>
+        <v>1.0483333333333332E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="124">
+        <v>30000</v>
+      </c>
+      <c r="B6" s="124" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="133">
+        <v>2</v>
+      </c>
+      <c r="D6" s="124">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="F6" s="124">
+        <v>30000</v>
+      </c>
+      <c r="G6" s="124" t="s">
+        <v>354</v>
+      </c>
+      <c r="H6" s="133">
+        <v>1</v>
+      </c>
+      <c r="I6" s="124">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="K6" s="124">
+        <v>30000</v>
+      </c>
+      <c r="L6" s="124" t="s">
+        <v>354</v>
+      </c>
+      <c r="M6" s="132">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="124">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>5502</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <f>R5*60*60*R6</f>
+        <v>18.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="124">
+        <v>10000</v>
+      </c>
+      <c r="B7" s="124" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="133">
+        <v>1</v>
+      </c>
+      <c r="D7" s="124">
+        <f>A7*C7</f>
+        <v>10000</v>
+      </c>
+      <c r="F7" s="124">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="124" t="s">
+        <v>365</v>
+      </c>
+      <c r="H7" s="133">
+        <v>0</v>
+      </c>
+      <c r="I7" s="124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="124">
+        <v>10000</v>
+      </c>
+      <c r="L7" s="124" t="s">
+        <v>365</v>
+      </c>
+      <c r="M7" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="124">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="124">
+        <v>150000</v>
+      </c>
+      <c r="B8" s="124" t="s">
+        <v>5552</v>
+      </c>
+      <c r="C8" s="133">
+        <v>0</v>
+      </c>
+      <c r="D8" s="124">
+        <f>A8*C8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="124"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="124">
+        <v>-240000</v>
+      </c>
+      <c r="B9" s="124" t="s">
+        <v>5553</v>
+      </c>
+      <c r="C9" s="133">
+        <v>0</v>
+      </c>
+      <c r="D9" s="124">
+        <f>A9</f>
+        <v>-240000</v>
+      </c>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="124"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="128">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="128" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="133">
+        <f>4+5</f>
+        <v>9</v>
+      </c>
+      <c r="D10" s="128">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="F10" s="128">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>350</v>
+      </c>
+      <c r="H10" s="133">
+        <v>0</v>
+      </c>
+      <c r="I10" s="128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="128">
+        <v>2000</v>
+      </c>
+      <c r="L10" s="128" t="s">
+        <v>350</v>
+      </c>
+      <c r="M10" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="127">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="127" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" s="133">
+        <v>0</v>
+      </c>
+      <c r="D11" s="127">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="127">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="127" t="s">
+        <v>351</v>
+      </c>
+      <c r="H11" s="133">
+        <v>0</v>
+      </c>
+      <c r="I11" s="127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="127">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="127" t="s">
+        <v>351</v>
+      </c>
+      <c r="M11" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="125">
+        <f>A18</f>
+        <v>240000</v>
+      </c>
+      <c r="B12" s="125" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" s="125">
+        <f>C3</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="125">
+        <f t="shared" si="0"/>
+        <v>480000</v>
+      </c>
+      <c r="F12" s="125">
+        <f>F18</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="125" t="s">
+        <v>352</v>
+      </c>
+      <c r="H12" s="125">
+        <v>0</v>
+      </c>
+      <c r="I12" s="125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="125">
+        <f>K18</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="125" t="s">
+        <v>352</v>
+      </c>
+      <c r="M12" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="126">
+        <v>20000</v>
+      </c>
+      <c r="B13" s="126" t="s">
+        <v>353</v>
+      </c>
+      <c r="C13" s="126">
+        <v>0</v>
+      </c>
+      <c r="D13" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="126">
+        <v>20000</v>
+      </c>
+      <c r="G13" s="126" t="s">
+        <v>353</v>
+      </c>
+      <c r="H13" s="126">
+        <v>0</v>
+      </c>
+      <c r="I13" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="126">
+        <v>20000</v>
+      </c>
+      <c r="L13" s="126" t="s">
+        <v>353</v>
+      </c>
+      <c r="M13" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="129" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" s="129">
+        <f>SUM(D3:D13)</f>
+        <v>528000</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="129" t="s">
+        <v>355</v>
+      </c>
+      <c r="I15" s="129">
+        <f>SUM(I3:I13)</f>
+        <v>120000</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="129" t="s">
+        <v>355</v>
+      </c>
+      <c r="N15" s="129">
+        <f>SUM(N3:N13)</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1"/>
+      <c r="B16" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" s="129" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" s="129">
+        <f>D15*1.1</f>
+        <v>580800</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="H16" s="129" t="s">
+        <v>358</v>
+      </c>
+      <c r="I16" s="129">
+        <f>I15*1.1</f>
+        <v>132000</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="M16" s="129" t="s">
+        <v>358</v>
+      </c>
+      <c r="N16" s="129">
+        <f>N15*1.1</f>
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="125" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" s="133">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="F17" s="125" t="s">
+        <v>356</v>
+      </c>
+      <c r="G17" s="133">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="K17" s="125" t="s">
+        <v>356</v>
+      </c>
+      <c r="L17" s="133">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="125">
+        <f>40000*B17</f>
+        <v>240000</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="F18" s="125">
+        <f>40000*G17</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="K18" s="125">
+        <f>40000*L17</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="122" t="s">
+        <v>357</v>
+      </c>
+      <c r="D19" s="122">
+        <f>B17*80000*C3</f>
+        <v>960000</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H19" s="122" t="s">
+        <v>357</v>
+      </c>
+      <c r="I19" s="122">
+        <f>G17*80000*H3</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M19" s="122" t="s">
+        <v>357</v>
+      </c>
+      <c r="N19" s="122">
+        <f>L17*80000*M3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C20" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" s="122">
+        <f>D19*1.1</f>
+        <v>1056000</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H20" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="I20" s="122">
+        <f>I19*1.1</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M20" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="N20" s="122">
+        <f>N19*1.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="D22">
+        <f>440000*1.1</f>
+        <v>484000.00000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17.25" thickBot="1"/>
+    <row r="43" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="A43" t="s">
+        <v>377</v>
+      </c>
+      <c r="B43">
+        <f>27390/24</f>
+        <v>1141.25</v>
+      </c>
+      <c r="F43" s="131" t="s">
+        <v>347</v>
+      </c>
+      <c r="G43" s="131" t="s">
+        <v>344</v>
+      </c>
+      <c r="H43" s="131" t="s">
+        <v>345</v>
+      </c>
+      <c r="I43" s="131" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17.25" thickTop="1">
+      <c r="A44" t="s">
+        <v>378</v>
+      </c>
+      <c r="B44">
+        <f>25690/20</f>
+        <v>1284.5</v>
+      </c>
+      <c r="F44" s="130">
+        <v>30000</v>
+      </c>
+      <c r="G44" s="130" t="s">
+        <v>343</v>
+      </c>
+      <c r="H44" s="132">
+        <f>C3</f>
+        <v>2</v>
+      </c>
+      <c r="I44" s="130">
+        <f>F44*H44</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>379</v>
+      </c>
+      <c r="B45">
+        <f>25790/20</f>
+        <v>1289.5</v>
+      </c>
+      <c r="F45" s="82">
+        <f>B45</f>
+        <v>1289.5</v>
+      </c>
+      <c r="G45" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="H45" s="133">
+        <f>C4</f>
+        <v>4</v>
+      </c>
+      <c r="I45" s="82">
+        <f t="shared" ref="I45:I52" si="4">F45*H45</f>
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="F46" s="83">
+        <f>B43</f>
+        <v>1141.25</v>
+      </c>
+      <c r="G46" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="H46" s="133">
+        <f>C5</f>
+        <v>12</v>
+      </c>
+      <c r="I46" s="83">
+        <f t="shared" si="4"/>
+        <v>13695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="F47" s="124">
+        <v>30000</v>
+      </c>
+      <c r="G47" s="124" t="s">
+        <v>354</v>
+      </c>
+      <c r="H47" s="133">
+        <f>C6</f>
+        <v>2</v>
+      </c>
+      <c r="I47" s="124">
+        <f t="shared" si="4"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="F48" s="124">
+        <v>10000</v>
+      </c>
+      <c r="G48" s="124" t="s">
+        <v>365</v>
+      </c>
+      <c r="H48" s="133">
+        <f>C7</f>
+        <v>1</v>
+      </c>
+      <c r="I48" s="124">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9">
+      <c r="F49" s="128">
+        <v>2000</v>
+      </c>
+      <c r="G49" s="128" t="s">
+        <v>350</v>
+      </c>
+      <c r="H49" s="133">
+        <f t="shared" ref="H49:H52" si="5">C10</f>
+        <v>9</v>
+      </c>
+      <c r="I49" s="128">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9">
+      <c r="F50" s="127">
+        <v>1000</v>
+      </c>
+      <c r="G50" s="127" t="s">
+        <v>351</v>
+      </c>
+      <c r="H50" s="133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="127">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9">
+      <c r="F51" s="125">
+        <f>F57</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="125" t="s">
+        <v>352</v>
+      </c>
+      <c r="H51" s="133">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I51" s="125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9">
+      <c r="F52" s="126">
+        <v>20000</v>
+      </c>
+      <c r="G52" s="126" t="s">
+        <v>353</v>
+      </c>
+      <c r="H52" s="133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="6:9">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="129" t="s">
+        <v>355</v>
+      </c>
+      <c r="I54" s="129">
+        <f>SUM(I44:I52)</f>
+        <v>166853</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9">
+      <c r="F55" s="1"/>
+      <c r="G55" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="H55" s="129" t="s">
+        <v>358</v>
+      </c>
+      <c r="I55" s="129">
+        <f>I54*1.1</f>
+        <v>183538.30000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9">
+      <c r="F56" s="125" t="s">
+        <v>356</v>
+      </c>
+      <c r="G56" s="133">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="6:9">
+      <c r="F57" s="125">
+        <f>40000*G56</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="6:9">
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H58" s="122" t="s">
+        <v>357</v>
+      </c>
+      <c r="I58" s="122">
+        <f>G56*80000*H44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H59" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="I59" s="122">
+        <f>I58*1.1</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -21001,7 +22154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -46045,7 +47198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -46053,7 +47206,7 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -46340,15 +47493,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -46596,15 +47749,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B2:H18"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -46612,7 +47765,7 @@
     <col min="2" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="35.1" customHeight="1">
+    <row r="2" spans="2:10" ht="35.1" customHeight="1">
       <c r="B2" s="184" t="s">
         <v>5460</v>
       </c>
@@ -46623,7 +47776,7 @@
       <c r="G2" s="75"/>
       <c r="H2" s="75"/>
     </row>
-    <row r="3" spans="2:8" ht="35.1" customHeight="1">
+    <row r="3" spans="2:10" ht="35.1" customHeight="1">
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
       <c r="D3" s="75"/>
@@ -46632,7 +47785,7 @@
       <c r="G3" s="75"/>
       <c r="H3" s="75"/>
     </row>
-    <row r="4" spans="2:8" ht="35.1" customHeight="1">
+    <row r="4" spans="2:10" ht="35.1" customHeight="1">
       <c r="B4" s="178" t="s">
         <v>5410</v>
       </c>
@@ -46655,7 +47808,7 @@
         <v>5416</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="35.1" customHeight="1">
+    <row r="5" spans="2:10" ht="35.1" customHeight="1">
       <c r="B5" s="177"/>
       <c r="C5" s="177"/>
       <c r="D5" s="177"/>
@@ -46666,7 +47819,7 @@
       <c r="G5" s="177"/>
       <c r="H5" s="177"/>
     </row>
-    <row r="6" spans="2:8" ht="35.1" customHeight="1">
+    <row r="6" spans="2:10" ht="35.1" customHeight="1">
       <c r="B6" s="173"/>
       <c r="C6" s="173"/>
       <c r="D6" s="173"/>
@@ -46677,7 +47830,7 @@
       <c r="G6" s="173"/>
       <c r="H6" s="173"/>
     </row>
-    <row r="7" spans="2:8" ht="35.1" customHeight="1">
+    <row r="7" spans="2:10" ht="35.1" customHeight="1">
       <c r="B7" s="178" t="s">
         <v>5417</v>
       </c>
@@ -46700,7 +47853,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="35.1" customHeight="1">
+    <row r="8" spans="2:10" ht="35.1" customHeight="1">
       <c r="B8" s="177"/>
       <c r="C8" s="177"/>
       <c r="D8" s="177"/>
@@ -46709,7 +47862,7 @@
       <c r="G8" s="177"/>
       <c r="H8" s="177"/>
     </row>
-    <row r="9" spans="2:8" ht="35.1" customHeight="1">
+    <row r="9" spans="2:10" ht="35.1" customHeight="1">
       <c r="B9" s="173"/>
       <c r="C9" s="173"/>
       <c r="D9" s="173"/>
@@ -46718,7 +47871,7 @@
       <c r="G9" s="173"/>
       <c r="H9" s="173"/>
     </row>
-    <row r="10" spans="2:8" ht="35.1" customHeight="1">
+    <row r="10" spans="2:10" ht="35.1" customHeight="1">
       <c r="B10" s="178" t="s">
         <v>5424</v>
       </c>
@@ -46741,7 +47894,7 @@
         <v>5430</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="35.1" customHeight="1">
+    <row r="11" spans="2:10" ht="35.1" customHeight="1">
       <c r="B11" s="177" t="s">
         <v>5461</v>
       </c>
@@ -46753,8 +47906,11 @@
         <v>5462</v>
       </c>
       <c r="H11" s="177"/>
-    </row>
-    <row r="12" spans="2:8" ht="35.1" customHeight="1">
+      <c r="J11">
+        <v>412890</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="35.1" customHeight="1">
       <c r="B12" s="173">
         <v>335964</v>
       </c>
@@ -46768,8 +47924,11 @@
         <v>5452</v>
       </c>
       <c r="H12" s="173"/>
-    </row>
-    <row r="13" spans="2:8" ht="35.1" customHeight="1">
+      <c r="J12">
+        <v>1271600</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="35.1" customHeight="1">
       <c r="B13" s="178" t="s">
         <v>5431</v>
       </c>
@@ -46792,10 +47951,12 @@
         <v>5437</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="35.1" customHeight="1">
+    <row r="14" spans="2:10" ht="35.1" customHeight="1">
       <c r="B14" s="177"/>
       <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
+      <c r="D14" s="177" t="s">
+        <v>5545</v>
+      </c>
       <c r="E14" s="177"/>
       <c r="F14" s="179" t="s">
         <v>5529</v>
@@ -46803,10 +47964,12 @@
       <c r="G14" s="181"/>
       <c r="H14" s="177"/>
     </row>
-    <row r="15" spans="2:8" ht="35.1" customHeight="1">
+    <row r="15" spans="2:10" ht="35.1" customHeight="1">
       <c r="B15" s="173"/>
       <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
+      <c r="D15" s="173" t="s">
+        <v>5546</v>
+      </c>
       <c r="E15" s="173"/>
       <c r="F15" s="173">
         <v>346059</v>
@@ -46814,7 +47977,7 @@
       <c r="G15" s="173"/>
       <c r="H15" s="173"/>
     </row>
-    <row r="16" spans="2:8" ht="35.1" customHeight="1">
+    <row r="16" spans="2:10" ht="35.1" customHeight="1">
       <c r="B16" s="178" t="s">
         <v>5438</v>
       </c>
@@ -46859,7 +48022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
@@ -46895,6 +48058,41 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>5550</v>
+      </c>
+      <c r="C2">
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>5551</v>
+      </c>
+      <c r="C3">
+        <v>49800</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -46902,9 +48100,9 @@
   </sheetPr>
   <dimension ref="A1:AI125"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -48629,13 +49827,13 @@
     </row>
     <row r="57" spans="3:31" ht="18" thickTop="1" thickBot="1">
       <c r="D57" s="94"/>
-      <c r="E57" s="194" t="s">
+      <c r="E57" s="197" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="195"/>
-      <c r="G57" s="195"/>
-      <c r="H57" s="195"/>
-      <c r="I57" s="196"/>
+      <c r="F57" s="198"/>
+      <c r="G57" s="198"/>
+      <c r="H57" s="198"/>
+      <c r="I57" s="199"/>
       <c r="J57" s="95"/>
     </row>
     <row r="58" spans="3:31" ht="18" thickTop="1" thickBot="1">
@@ -48838,8 +50036,8 @@
   <dimension ref="A1:AI108"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -50578,13 +51776,13 @@
     </row>
     <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="D57" s="94"/>
-      <c r="E57" s="194" t="s">
+      <c r="E57" s="197" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="195"/>
-      <c r="G57" s="195"/>
-      <c r="H57" s="195"/>
-      <c r="I57" s="196"/>
+      <c r="F57" s="198"/>
+      <c r="G57" s="198"/>
+      <c r="H57" s="198"/>
+      <c r="I57" s="199"/>
       <c r="J57" s="164"/>
       <c r="K57" s="167" t="s">
         <v>5406</v>
@@ -50879,8 +52077,8 @@
   <dimension ref="A1:AI108"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W14" sqref="W14"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -51094,8 +52292,8 @@
         <v>0</v>
       </c>
       <c r="Y3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(Y12,Y14,Y16,Y18,Y20,Y22)</f>
+        <v>220000</v>
       </c>
       <c r="Z3" s="5">
         <f t="shared" si="0"/>
@@ -51115,7 +52313,7 @@
       </c>
       <c r="AD3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>444400</v>
       </c>
       <c r="AE3" s="5">
         <f>SUM(AE12,AE14,AE16,AE18,AE20,AE22)</f>
@@ -51123,7 +52321,7 @@
       </c>
       <c r="AF3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>482000</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="112" customFormat="1" ht="17.25">
@@ -51164,6 +52362,13 @@
         <f>220000+35000+80000</f>
         <v>335000</v>
       </c>
+      <c r="Z4" s="112">
+        <f>100000+100000</f>
+        <v>200000</v>
+      </c>
+      <c r="AB4" s="112">
+        <v>240000</v>
+      </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25">
       <c r="A5" s="47" t="s">
@@ -51205,6 +52410,16 @@
         <f>110000+73000</f>
         <v>183000</v>
       </c>
+      <c r="Z5" s="6">
+        <v>130000</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>370000</v>
+      </c>
+      <c r="AE5" s="6">
+        <f>10000+500000+30000+80000</f>
+        <v>620000</v>
+      </c>
     </row>
     <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25">
       <c r="A6" s="48" t="s">
@@ -51299,16 +52514,16 @@
         <v>467000</v>
       </c>
       <c r="X6" s="7">
-        <f t="shared" si="1"/>
+        <f>X3+X4+X5</f>
         <v>0</v>
       </c>
       <c r="Y6" s="7">
         <f>Y3+Y4+Y5</f>
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="Z6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>330000</v>
       </c>
       <c r="AA6" s="7">
         <f t="shared" si="1"/>
@@ -51316,23 +52531,23 @@
       </c>
       <c r="AB6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="AC6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>370000</v>
       </c>
       <c r="AD6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>444400</v>
       </c>
       <c r="AE6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>620000</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>482000</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="8" customFormat="1" ht="17.25">
@@ -51433,11 +52648,11 @@
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>128000</v>
       </c>
       <c r="Z7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="AA7" s="8">
         <f t="shared" si="3"/>
@@ -51445,23 +52660,23 @@
       </c>
       <c r="AB7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>98000</v>
       </c>
       <c r="AC7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>278000</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>300400</v>
       </c>
       <c r="AE7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>316000</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="18" customFormat="1" ht="17.25">
@@ -51557,16 +52772,16 @@
         <v>-152000</v>
       </c>
       <c r="X8" s="18">
-        <f t="shared" si="6"/>
+        <f>SUM(X13,X15,X17,X19,X21,X11,X23,X25)</f>
         <v>0</v>
       </c>
       <c r="Y8" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-92000</v>
       </c>
       <c r="Z8" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-162000</v>
       </c>
       <c r="AA8" s="18">
         <f>SUM(AA13,AA15,AA17,AA19,AA21,AA11,AA23,AA25)</f>
@@ -51574,23 +52789,23 @@
       </c>
       <c r="AB8" s="18">
         <f>SUM(AB13,AB15,AB17,AB19,AB21,AB11,AB23,AB25)</f>
-        <v>0</v>
+        <v>-142000</v>
       </c>
       <c r="AC8" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-92000</v>
       </c>
       <c r="AD8" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-144000</v>
       </c>
       <c r="AE8" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-304000</v>
       </c>
       <c r="AF8" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-212000</v>
       </c>
     </row>
     <row r="9" spans="1:35" s="43" customFormat="1" ht="17.25">
@@ -51640,6 +52855,12 @@
         <f>132000+88000+88000+88000</f>
         <v>396000</v>
       </c>
+      <c r="AD12" s="10">
+        <v>11000</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>100000</v>
+      </c>
     </row>
     <row r="13" spans="1:35" s="11" customFormat="1" ht="17.25">
       <c r="A13" s="55" t="s">
@@ -51693,7 +52914,28 @@
       <c r="W13" s="11">
         <v>-12000</v>
       </c>
+      <c r="Y13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>-40000</v>
+      </c>
       <c r="AA13" s="10"/>
+      <c r="AB13" s="11">
+        <v>-130000</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>-40000</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>-40000</v>
+      </c>
     </row>
     <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25">
       <c r="A14" s="56" t="s">
@@ -51719,7 +52961,16 @@
       <c r="W14" s="12">
         <v>99000</v>
       </c>
+      <c r="Y14" s="12">
+        <v>132000</v>
+      </c>
       <c r="AA14" s="72"/>
+      <c r="AD14" s="12">
+        <v>125400</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>250000</v>
+      </c>
     </row>
     <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25">
       <c r="A15" s="54" t="s">
@@ -51760,6 +53011,28 @@
         <f>-100000-40000</f>
         <v>-140000</v>
       </c>
+      <c r="Y15" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>-30000</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="AE15" s="10">
+        <f>-40000-40000-40000</f>
+        <v>-120000</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>-160000</v>
+      </c>
     </row>
     <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25">
       <c r="A16" s="56" t="s">
@@ -51782,7 +53055,16 @@
       <c r="W16" s="12">
         <v>33000</v>
       </c>
+      <c r="Y16" s="12">
+        <v>88000</v>
+      </c>
       <c r="Z16" s="72"/>
+      <c r="AD16" s="12">
+        <v>88000</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>132000</v>
+      </c>
     </row>
     <row r="17" spans="1:35" s="10" customFormat="1" ht="17.25">
       <c r="A17" s="54" t="s">
@@ -51812,6 +53094,24 @@
       <c r="Q17" s="10">
         <v>-80000</v>
       </c>
+      <c r="Y17" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="AD17" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="AE17" s="10">
+        <v>-120000</v>
+      </c>
+      <c r="AF17" s="10">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="18" spans="1:35" s="12" customFormat="1" ht="17.25">
       <c r="A18" s="56" t="s">
@@ -51820,6 +53120,9 @@
       <c r="I18" s="72"/>
       <c r="Q18" s="12">
         <v>99000</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>132000</v>
       </c>
     </row>
     <row r="19" spans="1:35" s="10" customFormat="1" ht="17.25">
@@ -51847,12 +53150,24 @@
       <c r="Q19" s="10">
         <v>-40000</v>
       </c>
+      <c r="Z19" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="AD19" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="AE19" s="10">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="20" spans="1:35" s="12" customFormat="1" ht="17.25">
       <c r="A20" s="56" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="72"/>
+      <c r="AD20" s="12">
+        <v>88000</v>
+      </c>
     </row>
     <row r="21" spans="1:35" s="10" customFormat="1" ht="17.25">
       <c r="A21" s="54" t="s">
@@ -51870,6 +53185,9 @@
       <c r="Q21" s="10">
         <f>-12000-12000-12000-12000</f>
         <v>-48000</v>
+      </c>
+      <c r="AE21" s="10">
+        <v>-40000</v>
       </c>
     </row>
     <row r="22" spans="1:35" s="12" customFormat="1" ht="17.25">
@@ -51944,11 +53262,19 @@
       </c>
       <c r="V26" s="188"/>
       <c r="W26" s="188"/>
-      <c r="X26" s="188"/>
+      <c r="X26" s="161" t="s">
+        <v>277</v>
+      </c>
       <c r="Y26" s="188"/>
-      <c r="Z26" s="188"/>
-      <c r="AA26" s="188"/>
-      <c r="AB26" s="188"/>
+      <c r="Z26" s="196" t="s">
+        <v>5547</v>
+      </c>
+      <c r="AA26" s="161" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB26" s="188" t="s">
+        <v>5548</v>
+      </c>
       <c r="AC26" s="188"/>
       <c r="AD26" s="188"/>
       <c r="AE26" s="188"/>
@@ -52003,7 +53329,7 @@
       </c>
       <c r="B32" s="78">
         <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
-        <v>5981000</v>
+        <v>7541000</v>
       </c>
       <c r="C32" s="13"/>
       <c r="I32" s="151"/>
@@ -52014,8 +53340,8 @@
         <v>340</v>
       </c>
       <c r="W32" s="1"/>
-      <c r="X32" s="93" t="s">
-        <v>5465</v>
+      <c r="Y32" s="93" t="s">
+        <v>5540</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
@@ -52029,7 +53355,7 @@
       </c>
       <c r="B33" s="70">
         <f>B34-B31</f>
-        <v>4653900</v>
+        <v>5800300</v>
       </c>
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
@@ -52056,7 +53382,8 @@
         <v>36300</v>
       </c>
       <c r="W33" s="108"/>
-      <c r="X33" s="93">
+      <c r="X33" s="108"/>
+      <c r="Y33" s="93">
         <v>30000</v>
       </c>
       <c r="Z33" s="108"/>
@@ -52072,13 +53399,12 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B3:AF3)</f>
-        <v>4653900</v>
+        <v>5800300</v>
       </c>
       <c r="C34" s="15">
         <f>B34*0.1</f>
-        <v>465390</v>
-      </c>
-      <c r="D34" s="15"/>
+        <v>580030</v>
+      </c>
       <c r="I34" s="151"/>
       <c r="U34" s="163" t="s">
         <v>5404</v>
@@ -52098,11 +53424,11 @@
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>10634900</v>
+        <v>13341300</v>
       </c>
       <c r="C35" s="15">
         <f>B35*0.1</f>
-        <v>1063490</v>
+        <v>1334130</v>
       </c>
       <c r="D35" s="15"/>
       <c r="I35" s="151"/>
@@ -52110,6 +53436,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
+      <c r="Y35" s="194"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -52122,7 +53449,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>5871900</v>
+        <v>7430300</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -52131,6 +53458,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
+      <c r="Y36" s="195"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -52143,7 +53471,7 @@
       </c>
       <c r="B37" s="44">
         <f>SUM(B8:AF8)</f>
-        <v>-4763000</v>
+        <v>-5911000</v>
       </c>
       <c r="C37" s="9"/>
       <c r="E37" s="9"/>
@@ -52168,17 +53496,14 @@
         <v>193</v>
       </c>
       <c r="B39" s="89">
-        <f>('9월 매출'!B39+SUM(B5:AF5))+SUM(B8:AF8)+314000+300000+30000+40000+80000+260000+400000+80000</f>
-        <v>146000</v>
+        <f>(299000+SUM(B5:AF5)+SUM(B8:AF8)+314000+300000+30000+40000+80000+260000+400000+40000)+300000</f>
+        <v>378000</v>
       </c>
       <c r="C39" s="113"/>
       <c r="D39" s="114" t="s">
         <v>316</v>
       </c>
-      <c r="E39" s="9">
-        <f>B39-66000</f>
-        <v>80000</v>
-      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>5536</v>
       </c>
@@ -52192,8 +53517,8 @@
         <v>197</v>
       </c>
       <c r="B40" s="87">
-        <f>SUM(B4:AF4)-300000-30000-40000-80000-260000-400000-80000</f>
-        <v>1685000</v>
+        <f>SUM(B4:AF4)-300000-30000-40000-80000-260000-400000-80000-300000</f>
+        <v>1825000</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="115">
@@ -52228,7 +53553,7 @@
       </c>
       <c r="B42" s="81">
         <f>SUM(B7:AF7)</f>
-        <v>5871900</v>
+        <v>7430300</v>
       </c>
       <c r="H42" s="1">
         <f>H40-H41</f>
@@ -52245,7 +53570,7 @@
       </c>
       <c r="B43" s="85">
         <f>B33+B39+B40</f>
-        <v>6484900</v>
+        <v>8003300</v>
       </c>
       <c r="H43" s="1">
         <f>H41*0.005</f>
@@ -52302,23 +53627,31 @@
         <f>B45+B46</f>
         <v>2308900</v>
       </c>
+      <c r="E47" s="155"/>
       <c r="Y47" s="9"/>
       <c r="AE47" s="9"/>
     </row>
     <row r="48" spans="1:31">
       <c r="E48" s="151" t="s">
-        <v>5491</v>
+        <v>5556</v>
       </c>
       <c r="F48" s="9">
         <f>B34</f>
-        <v>4653900</v>
+        <v>5800300</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="H48" s="15">
+        <f>B34-(B34*0.005)</f>
+        <v>5771298.5</v>
       </c>
       <c r="Y48" s="9"/>
       <c r="AE48" s="9"/>
     </row>
     <row r="49" spans="4:31">
       <c r="E49" s="155" t="s">
-        <v>5492</v>
+        <v>5542</v>
       </c>
       <c r="F49" s="9">
         <f>B47</f>
@@ -52328,21 +53661,42 @@
       <c r="AE49" s="9"/>
     </row>
     <row r="50" spans="4:31">
-      <c r="E50" s="1" t="s">
-        <v>5493</v>
+      <c r="E50" s="155" t="s">
+        <v>5554</v>
       </c>
       <c r="F50" s="9">
-        <f>F48-F49</f>
-        <v>2345000</v>
+        <f>B35</f>
+        <v>13341300</v>
       </c>
       <c r="Y50" s="9"/>
       <c r="AE50" s="9"/>
     </row>
     <row r="51" spans="4:31">
+      <c r="E51" s="155" t="s">
+        <v>5541</v>
+      </c>
+      <c r="F51" s="9">
+        <f>C35</f>
+        <v>1334130</v>
+      </c>
       <c r="Y51" s="9"/>
       <c r="AE51" s="9"/>
     </row>
     <row r="52" spans="4:31">
+      <c r="E52" s="155" t="s">
+        <v>5493</v>
+      </c>
+      <c r="F52" s="9">
+        <f>F48-F49-F51</f>
+        <v>2157270</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>5555</v>
+      </c>
+      <c r="H52" s="9">
+        <f>H48-F49-F51</f>
+        <v>2128268.5</v>
+      </c>
       <c r="Y52" s="9"/>
       <c r="AE52" s="9"/>
     </row>
@@ -52361,13 +53715,13 @@
     </row>
     <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="D57" s="94"/>
-      <c r="E57" s="194" t="s">
+      <c r="E57" s="197" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="195"/>
-      <c r="G57" s="195"/>
-      <c r="H57" s="195"/>
-      <c r="I57" s="196"/>
+      <c r="F57" s="198"/>
+      <c r="G57" s="198"/>
+      <c r="H57" s="198"/>
+      <c r="I57" s="199"/>
       <c r="J57" s="164"/>
       <c r="K57" s="167" t="s">
         <v>5406</v>
@@ -52420,11 +53774,11 @@
       </c>
       <c r="H59" s="107">
         <f>SUM(T6:Z6)</f>
-        <v>914000</v>
+        <v>1464000</v>
       </c>
       <c r="I59" s="158">
         <f>SUM(AA6:AF6)</f>
-        <v>0</v>
+        <v>2156400</v>
       </c>
       <c r="J59" s="171"/>
       <c r="K59" s="166" t="s">
@@ -52451,21 +53805,29 @@
       </c>
       <c r="H60" s="107">
         <f>SUM(T7:Z7)</f>
-        <v>665000</v>
+        <v>961000</v>
       </c>
       <c r="I60" s="158">
         <f>SUM(AA7:AF7)</f>
-        <v>0</v>
+        <v>1262400</v>
       </c>
       <c r="J60" s="94"/>
-      <c r="K60" s="166"/>
-      <c r="L60" s="165"/>
+      <c r="K60" s="166" t="s">
+        <v>5544</v>
+      </c>
+      <c r="L60" s="165">
+        <v>251890</v>
+      </c>
       <c r="M60" s="95"/>
     </row>
     <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="J61" s="94"/>
-      <c r="K61" s="165"/>
-      <c r="L61" s="165"/>
+      <c r="K61" s="165" t="s">
+        <v>5549</v>
+      </c>
+      <c r="L61" s="165">
+        <v>136100</v>
+      </c>
       <c r="M61" s="95"/>
     </row>
     <row r="62" spans="4:31" ht="18" thickTop="1" thickBot="1">
@@ -52475,7 +53837,7 @@
       </c>
       <c r="I62" s="159">
         <f>SUM(E59:I59)</f>
-        <v>10634900</v>
+        <v>13341300</v>
       </c>
       <c r="J62" s="94"/>
       <c r="K62" s="165"/>
@@ -52489,15 +53851,15 @@
       </c>
       <c r="I63" s="159">
         <f>AVERAGE(E59:I59)</f>
-        <v>2126980</v>
+        <v>2668260</v>
       </c>
       <c r="J63" s="94"/>
       <c r="K63" s="172" t="s">
         <v>5408</v>
       </c>
       <c r="L63" s="170">
-        <f>SUM(L58:L60)</f>
-        <v>376220</v>
+        <f>SUM(L58:L62)</f>
+        <v>764210</v>
       </c>
       <c r="M63" s="95"/>
     </row>
@@ -52508,7 +53870,7 @@
       </c>
       <c r="I64" s="159">
         <f>SUM(E60:I60)</f>
-        <v>5871900</v>
+        <v>7430300</v>
       </c>
       <c r="K64" s="97"/>
       <c r="L64" s="97"/>
@@ -52520,45 +53882,48 @@
       </c>
       <c r="I65" s="159">
         <f>AVERAGE(E60:I60)</f>
-        <v>1174380</v>
+        <v>1486060</v>
       </c>
     </row>
     <row r="66" spans="7:9" ht="17.25" thickTop="1">
       <c r="H66" s="97"/>
       <c r="I66" s="160"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:6">
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:6">
       <c r="A82" s="175" t="s">
         <v>5494</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:6">
       <c r="A83" s="176">
         <f>B36-B47-C35-L63</f>
-        <v>2123290</v>
+        <v>3023060</v>
       </c>
       <c r="B83" s="9">
         <f>A83+C35</f>
-        <v>3186780</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>4357190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="C84" s="1" t="s">
         <v>5485</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:6">
       <c r="C85" s="1" t="s">
         <v>5484</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>5486</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="F85" s="1" t="s">
+        <v>5557</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="B86" s="1" t="s">
         <v>5488</v>
       </c>
@@ -52568,8 +53933,14 @@
       <c r="D86" s="1">
         <v>5562900</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F86" s="1">
+        <v>4865375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="B87" s="1" t="s">
         <v>5487</v>
       </c>
@@ -52580,8 +53951,15 @@
         <f>D86-140000</f>
         <v>5422900</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" s="1" t="s">
+        <v>5487</v>
+      </c>
+      <c r="F87" s="1">
+        <f>F86-F88-F89</f>
+        <v>4465375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="B88" s="1" t="s">
         <v>5483</v>
       </c>
@@ -52592,13 +53970,25 @@
       <c r="D88" s="1">
         <v>140000</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" s="1" t="s">
+        <v>5483</v>
+      </c>
+      <c r="F88" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="C89" s="1" t="s">
         <v>5489</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>5490</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>5558</v>
+      </c>
+      <c r="F89" s="1">
+        <v>300000</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -52655,6 +54045,1770 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:AJ139"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="155" customWidth="1"/>
+    <col min="10" max="32" width="20.125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="66">
+        <v>44866</v>
+      </c>
+      <c r="C1" s="66">
+        <v>44867</v>
+      </c>
+      <c r="D1" s="66">
+        <v>44868</v>
+      </c>
+      <c r="E1" s="66">
+        <v>44869</v>
+      </c>
+      <c r="F1" s="66">
+        <v>44870</v>
+      </c>
+      <c r="G1" s="66">
+        <v>44871</v>
+      </c>
+      <c r="H1" s="66">
+        <v>44872</v>
+      </c>
+      <c r="I1" s="66">
+        <v>44873</v>
+      </c>
+      <c r="J1" s="66">
+        <v>44874</v>
+      </c>
+      <c r="K1" s="66">
+        <v>44875</v>
+      </c>
+      <c r="L1" s="66">
+        <v>44876</v>
+      </c>
+      <c r="M1" s="66">
+        <v>44877</v>
+      </c>
+      <c r="N1" s="66">
+        <v>44878</v>
+      </c>
+      <c r="O1" s="66">
+        <v>44879</v>
+      </c>
+      <c r="P1" s="66">
+        <v>44880</v>
+      </c>
+      <c r="Q1" s="66">
+        <v>44881</v>
+      </c>
+      <c r="R1" s="66">
+        <v>44882</v>
+      </c>
+      <c r="S1" s="66">
+        <v>44883</v>
+      </c>
+      <c r="T1" s="66">
+        <v>44884</v>
+      </c>
+      <c r="U1" s="66">
+        <v>44885</v>
+      </c>
+      <c r="V1" s="66">
+        <v>44886</v>
+      </c>
+      <c r="W1" s="66">
+        <v>44887</v>
+      </c>
+      <c r="X1" s="66">
+        <v>44888</v>
+      </c>
+      <c r="Y1" s="66">
+        <v>44889</v>
+      </c>
+      <c r="Z1" s="66">
+        <v>44890</v>
+      </c>
+      <c r="AA1" s="66">
+        <v>44891</v>
+      </c>
+      <c r="AB1" s="66">
+        <v>44892</v>
+      </c>
+      <c r="AC1" s="66">
+        <v>44893</v>
+      </c>
+      <c r="AD1" s="66">
+        <v>44894</v>
+      </c>
+      <c r="AE1" s="66">
+        <v>44895</v>
+      </c>
+      <c r="AF1" s="66">
+        <v>44896</v>
+      </c>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+    </row>
+    <row r="2" spans="1:35" s="68" customFormat="1" ht="17.25">
+      <c r="A2" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="144"/>
+    </row>
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25">
+      <c r="A3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:AF3" si="0">SUM(B12,B14,B16,B18,B20,B22)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" si="0"/>
+        <v>264000</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>132000</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(F12,F14,F16,F18,F20,F22)</f>
+        <v>853250</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+      <c r="H3" s="5">
+        <f>SUM(H12,H14,H16,H18,H20,H22)</f>
+        <v>49000</v>
+      </c>
+      <c r="I3" s="145">
+        <f>SUM(I12,I14,I16,I18,I20,I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <f>SUM(J12,J14,J16,J18,J20,J22)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <f>SUM(K12,K14,K16,K18,K20,K22,K24,K25,K32,K33,K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <f>SUM(O12,O14,O16,O18,O20,O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <f>SUM(P12,P14,P16,P18,P20,P22)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>SUM(Q12,Q14,Q16,Q18,Q20,Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <f>SUM(R12,R14,R16,R18,R20,R22)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <f>SUM(S12,S14,S16,S18,S20,S22)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <f>SUM(V12,V14,V16,V18,V20,V22)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <f>SUM(W12,W14,W16,W18,W20,W22)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <f>SUM(Y12,Y14,Y16,Y18,Y20,Y22)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5">
+        <f>SUM(AE12,AE14,AE16,AE18,AE20,AE22)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" s="112" customFormat="1" ht="17.25">
+      <c r="A4" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="112">
+        <v>260000</v>
+      </c>
+      <c r="C4" s="112">
+        <v>240000</v>
+      </c>
+      <c r="D4" s="112">
+        <v>528000</v>
+      </c>
+      <c r="F4" s="112">
+        <f>280000+132500+80000+20000</f>
+        <v>512500</v>
+      </c>
+      <c r="I4" s="146"/>
+    </row>
+    <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25">
+      <c r="A5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>9000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>90000</v>
+      </c>
+      <c r="F5" s="6">
+        <f>2000+49000</f>
+        <v>51000</v>
+      </c>
+      <c r="I5" s="147"/>
+    </row>
+    <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25">
+      <c r="A6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <f>B3+B4+B5</f>
+        <v>260000</v>
+      </c>
+      <c r="C6" s="7">
+        <f>C3+C4+C5</f>
+        <v>504000</v>
+      </c>
+      <c r="D6" s="7">
+        <f>D3+D4+D5</f>
+        <v>537000</v>
+      </c>
+      <c r="E6" s="7">
+        <f>E3+E4+E5</f>
+        <v>222000</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" ref="F6:AF6" si="1">F3+F4+F5</f>
+        <v>1416750</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>47000</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>49000</v>
+      </c>
+      <c r="I6" s="115">
+        <f>I3+I4+I5</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" ref="J6" si="2">J3+J4+J5</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f>K3+K4+K5</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>Q3+Q4+Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <f>X3+X4+X5</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <f>Y3+Y4+Y5</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="8" customFormat="1" ht="17.25">
+      <c r="A7" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <f>B6+B8</f>
+        <v>156000</v>
+      </c>
+      <c r="C7" s="8">
+        <f>C6+C8</f>
+        <v>252000</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:AF7" si="3">D6+D8</f>
+        <v>273000</v>
+      </c>
+      <c r="E7" s="8">
+        <f>E6+E8</f>
+        <v>130000</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="3"/>
+        <v>886750</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="3"/>
+        <v>47000</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="3"/>
+        <v>49000</v>
+      </c>
+      <c r="I7" s="148">
+        <f>I6+I8</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <f>J6+J8</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" ref="K7" si="4">K6+K8</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <f>P6+P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <f>S6+S8</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <f>U6+U8</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" s="18" customFormat="1" ht="17.25">
+      <c r="A8" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" ref="B8:F8" si="5">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
+        <v>-104000</v>
+      </c>
+      <c r="C8" s="18">
+        <f>SUM(C13,C15,C17,C19,C21,C23,C23)</f>
+        <v>-252000</v>
+      </c>
+      <c r="D8" s="18">
+        <f>SUM(D13,D15,D17,D19,D21,D23,D23)</f>
+        <v>-264000</v>
+      </c>
+      <c r="E8" s="18">
+        <f>SUM(E13,E15,E17,E19,E21,E23,E23)</f>
+        <v>-92000</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="5"/>
+        <v>-530000</v>
+      </c>
+      <c r="G8" s="18">
+        <f>SUM(G13,G15,G17,G19,G21,G23,G23)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <f>SUM(H13,H15,H17,H19,H21,H11,H23,H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="149">
+        <f t="shared" ref="I8:AF8" si="6">SUM(I13,I15,I17,I19,I21,I11,I23,I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="18">
+        <f>SUM(O13,O15,O17,O19,O21,O11,O23,O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="18">
+        <f>SUM(S13,S15,S17,S19,S21,S11,S23,S25)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
+        <f>SUM(U13,U15,U17,U19,U21,U11,U23,U25)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="18">
+        <f>SUM(V13,V15,V17,V19,V21,V11,V23,V25)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="18">
+        <f>SUM(W13,W15,W17,W19,W21,W11,W23,W25)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="18">
+        <f>SUM(X13,X15,X17,X19,X21,X11,X23,X25)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="18">
+        <f>SUM(AA13,AA15,AA17,AA19,AA21,AA11,AA23,AA25)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="18">
+        <f>SUM(AB13,AB15,AB17,AB19,AB21,AB11,AB23,AB25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="43" customFormat="1" ht="17.25">
+      <c r="A9" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="150"/>
+    </row>
+    <row r="10" spans="1:35" s="9" customFormat="1" ht="17.25">
+      <c r="A10" s="52"/>
+      <c r="I10" s="151"/>
+    </row>
+    <row r="11" spans="1:35" s="9" customFormat="1" ht="17.25">
+      <c r="A11" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="151"/>
+    </row>
+    <row r="12" spans="1:35" s="10" customFormat="1" ht="17.25">
+      <c r="A12" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="1:35" s="11" customFormat="1" ht="17.25">
+      <c r="A13" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11">
+        <v>-80000</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="D13" s="11">
+        <f>-12000-12000</f>
+        <v>-24000</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="F13" s="11">
+        <f>-12000-80000-12000-40000</f>
+        <v>-144000</v>
+      </c>
+      <c r="I13" s="152"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25">
+      <c r="A14" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12">
+        <v>264000</v>
+      </c>
+      <c r="D14" s="72"/>
+      <c r="E14" s="12">
+        <v>132000</v>
+      </c>
+      <c r="F14" s="12">
+        <v>132000</v>
+      </c>
+      <c r="G14" s="12">
+        <v>47000</v>
+      </c>
+      <c r="H14" s="12">
+        <v>49000</v>
+      </c>
+      <c r="I14" s="72"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="AA14" s="72"/>
+    </row>
+    <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25">
+      <c r="A15" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="10">
+        <v>-24000</v>
+      </c>
+      <c r="C15" s="10">
+        <f>-40000-40000-40000</f>
+        <v>-120000</v>
+      </c>
+      <c r="D15" s="10">
+        <v>-240000</v>
+      </c>
+      <c r="E15" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="F15" s="10">
+        <f>-40000-40000-40000-20000</f>
+        <v>-140000</v>
+      </c>
+      <c r="I15" s="71"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+    </row>
+    <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25">
+      <c r="A16" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="12">
+        <v>88000</v>
+      </c>
+      <c r="I16" s="72"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="Z16" s="72"/>
+    </row>
+    <row r="17" spans="1:36" s="10" customFormat="1" ht="17.25">
+      <c r="A17" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10">
+        <v>-120000</v>
+      </c>
+      <c r="F17" s="10">
+        <v>-50000</v>
+      </c>
+      <c r="I17" s="71"/>
+    </row>
+    <row r="18" spans="1:36" s="12" customFormat="1" ht="17.25">
+      <c r="A18" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="12">
+        <v>130000</v>
+      </c>
+      <c r="I18" s="72"/>
+    </row>
+    <row r="19" spans="1:36" s="10" customFormat="1" ht="17.25">
+      <c r="A19" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="10">
+        <f>-24000-12000</f>
+        <v>-36000</v>
+      </c>
+      <c r="I19" s="71"/>
+    </row>
+    <row r="20" spans="1:36" s="12" customFormat="1" ht="17.25">
+      <c r="A20" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="12">
+        <v>151250</v>
+      </c>
+      <c r="I20" s="72"/>
+    </row>
+    <row r="21" spans="1:36" s="10" customFormat="1" ht="17.25">
+      <c r="A21" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="10">
+        <v>-160000</v>
+      </c>
+      <c r="I21" s="71"/>
+    </row>
+    <row r="22" spans="1:36" s="12" customFormat="1" ht="17.25">
+      <c r="A22" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="12">
+        <f>250000+102000</f>
+        <v>352000</v>
+      </c>
+      <c r="I22" s="72"/>
+    </row>
+    <row r="23" spans="1:36" s="10" customFormat="1" ht="17.25">
+      <c r="A23" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="71"/>
+    </row>
+    <row r="24" spans="1:36" s="9" customFormat="1" ht="17.25">
+      <c r="A24" s="53"/>
+      <c r="I24" s="151"/>
+    </row>
+    <row r="25" spans="1:36" s="9" customFormat="1" ht="17.25">
+      <c r="A25" s="53"/>
+      <c r="I25" s="151"/>
+    </row>
+    <row r="26" spans="1:36" s="20" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A26" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="188" t="s">
+        <v>5403</v>
+      </c>
+      <c r="C26" s="188" t="s">
+        <v>5570</v>
+      </c>
+      <c r="D26" s="188" t="s">
+        <v>5571</v>
+      </c>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="211" t="s">
+        <v>5572</v>
+      </c>
+      <c r="I26" s="211" t="s">
+        <v>5572</v>
+      </c>
+      <c r="J26" s="211" t="s">
+        <v>5572</v>
+      </c>
+      <c r="K26" s="211" t="s">
+        <v>5572</v>
+      </c>
+      <c r="L26" s="211" t="s">
+        <v>5572</v>
+      </c>
+      <c r="M26" s="188"/>
+      <c r="N26" s="188"/>
+      <c r="O26" s="188"/>
+      <c r="P26" s="188"/>
+      <c r="Q26" s="188"/>
+      <c r="R26" s="188"/>
+      <c r="S26" s="189"/>
+      <c r="T26" s="188"/>
+      <c r="U26" s="188"/>
+      <c r="V26" s="188"/>
+      <c r="W26" s="188"/>
+      <c r="X26" s="188"/>
+      <c r="Y26" s="188"/>
+      <c r="Z26" s="196"/>
+      <c r="AA26" s="188"/>
+      <c r="AB26" s="188"/>
+      <c r="AC26" s="188"/>
+      <c r="AD26" s="188"/>
+      <c r="AE26" s="188"/>
+      <c r="AF26" s="188"/>
+      <c r="AG26" s="188"/>
+      <c r="AH26" s="188"/>
+      <c r="AI26" s="188"/>
+      <c r="AJ26" s="188"/>
+    </row>
+    <row r="27" spans="1:36" s="19" customFormat="1" ht="17.25">
+      <c r="A27" s="58"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="I27" s="153"/>
+    </row>
+    <row r="28" spans="1:36" s="19" customFormat="1" ht="17.25">
+      <c r="A28" s="58"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="I28" s="153"/>
+    </row>
+    <row r="29" spans="1:36" s="19" customFormat="1" ht="17.25">
+      <c r="A29" s="58"/>
+      <c r="I29" s="153"/>
+    </row>
+    <row r="30" spans="1:36" s="21" customFormat="1" ht="17.25">
+      <c r="A30" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="154"/>
+    </row>
+    <row r="31" spans="1:36" s="9" customFormat="1" ht="17.25">
+      <c r="A31" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="92">
+        <f>SUM(B2:AF2)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="I31" s="151"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="1:36" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A32" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="78">
+        <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
+        <v>1690500</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="I32" s="151"/>
+      <c r="U32" s="124" t="s">
+        <v>330</v>
+      </c>
+      <c r="V32" s="108" t="s">
+        <v>340</v>
+      </c>
+      <c r="W32" s="1"/>
+      <c r="Y32" s="93" t="s">
+        <v>5540</v>
+      </c>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A33" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="70">
+        <f>B34-B31</f>
+        <v>1345250</v>
+      </c>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="108">
+        <v>32760</v>
+      </c>
+      <c r="V33" s="93">
+        <v>36300</v>
+      </c>
+      <c r="W33" s="108"/>
+      <c r="X33" s="108"/>
+      <c r="Y33" s="93">
+        <v>30000</v>
+      </c>
+      <c r="Z33" s="108"/>
+      <c r="AA33" s="108"/>
+      <c r="AB33" s="108"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="108"/>
+      <c r="AE33" s="93"/>
+    </row>
+    <row r="34" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A34" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="14">
+        <f>SUM(B3:AF3)</f>
+        <v>1345250</v>
+      </c>
+      <c r="C34" s="15">
+        <f>B34*0.1</f>
+        <v>134525</v>
+      </c>
+      <c r="I34" s="151"/>
+      <c r="U34" s="163" t="s">
+        <v>5404</v>
+      </c>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A35" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="16">
+        <f>SUM(B6:AF6)</f>
+        <v>3035750</v>
+      </c>
+      <c r="C35" s="15">
+        <f>B35*0.1</f>
+        <v>303575</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="I35" s="151"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="194"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A36" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="17">
+        <f>B35+B37</f>
+        <v>1793750</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="I36" s="151"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="195"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:31" ht="18" thickBot="1">
+      <c r="A37" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="44">
+        <f>SUM(B8:AF8)</f>
+        <v>-1242000</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="O37" s="193"/>
+      <c r="Y37" s="9"/>
+      <c r="AE37" s="9"/>
+    </row>
+    <row r="38" spans="1:31" ht="18" thickBot="1">
+      <c r="A38" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="45">
+        <v>0</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="AE38" s="9"/>
+    </row>
+    <row r="39" spans="1:31" ht="18" thickBot="1">
+      <c r="A39" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="89">
+        <f>(378000+SUM(B5:AF5)+SUM(B8:AF8))+130000+50000+300000+300000</f>
+        <v>66000</v>
+      </c>
+      <c r="C39" s="113"/>
+      <c r="D39" s="114" t="s">
+        <v>316</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="AE39" s="9"/>
+    </row>
+    <row r="40" spans="1:31" ht="18" thickBot="1">
+      <c r="A40" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="87">
+        <f>SUM(B4:AF4)-130000-50000-300000-300000</f>
+        <v>760500</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="115">
+        <f>(C39/30)*1800</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="AE40" s="9"/>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="C41" s="114" t="s">
+        <v>315</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="AE41" s="9"/>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="80" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="81">
+        <f>SUM(B7:AF7)</f>
+        <v>1793750</v>
+      </c>
+      <c r="P42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="AE42" s="9"/>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="85">
+        <f>B33+B39+B40</f>
+        <v>2171750</v>
+      </c>
+      <c r="P43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="AE43" s="9"/>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="P44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="AE44" s="9"/>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" s="1" t="s">
+        <v>5538</v>
+      </c>
+      <c r="B45" s="9">
+        <v>800000</v>
+      </c>
+      <c r="H45" s="155"/>
+      <c r="P45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="AE45" s="9"/>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="P46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="AE46" s="9"/>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="110">
+        <f>SUM(B45:B46)</f>
+        <v>2300000</v>
+      </c>
+      <c r="C47" s="9">
+        <f>B45+B46</f>
+        <v>2300000</v>
+      </c>
+      <c r="E47" s="155"/>
+      <c r="Y47" s="9"/>
+      <c r="AE47" s="9"/>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="E48" s="151" t="s">
+        <v>5556</v>
+      </c>
+      <c r="F48" s="9">
+        <f>B34</f>
+        <v>1345250</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="H48" s="15">
+        <f>B34-(B34*0.005)</f>
+        <v>1338523.75</v>
+      </c>
+      <c r="Y48" s="9"/>
+      <c r="AE48" s="9"/>
+    </row>
+    <row r="49" spans="4:31">
+      <c r="E49" s="155" t="s">
+        <v>5542</v>
+      </c>
+      <c r="F49" s="9">
+        <f>B47</f>
+        <v>2300000</v>
+      </c>
+      <c r="Y49" s="9"/>
+      <c r="AE49" s="9"/>
+    </row>
+    <row r="50" spans="4:31">
+      <c r="E50" s="155" t="s">
+        <v>5554</v>
+      </c>
+      <c r="F50" s="9">
+        <f>B35</f>
+        <v>3035750</v>
+      </c>
+      <c r="Y50" s="9"/>
+      <c r="AE50" s="9"/>
+    </row>
+    <row r="51" spans="4:31">
+      <c r="E51" s="155" t="s">
+        <v>5541</v>
+      </c>
+      <c r="F51" s="9">
+        <f>C35</f>
+        <v>303575</v>
+      </c>
+      <c r="Y51" s="9"/>
+      <c r="AE51" s="9"/>
+    </row>
+    <row r="52" spans="4:31">
+      <c r="E52" s="155" t="s">
+        <v>5493</v>
+      </c>
+      <c r="F52" s="9">
+        <f>F48-F49-F51</f>
+        <v>-1258325</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>5555</v>
+      </c>
+      <c r="H52" s="9">
+        <f>H48-F49-F51</f>
+        <v>-1265051.25</v>
+      </c>
+      <c r="Y52" s="9"/>
+      <c r="AE52" s="9"/>
+    </row>
+    <row r="53" spans="4:31">
+      <c r="Y53" s="9"/>
+      <c r="AE53" s="9"/>
+    </row>
+    <row r="56" spans="4:31" ht="17.25" thickBot="1">
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="156"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="96"/>
+    </row>
+    <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="D57" s="94"/>
+      <c r="E57" s="197" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" s="198"/>
+      <c r="G57" s="198"/>
+      <c r="H57" s="198"/>
+      <c r="I57" s="199"/>
+      <c r="J57" s="164"/>
+      <c r="K57" s="167" t="s">
+        <v>5406</v>
+      </c>
+      <c r="L57" s="168" t="s">
+        <v>347</v>
+      </c>
+      <c r="M57" s="95"/>
+    </row>
+    <row r="58" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="D58" s="94"/>
+      <c r="E58" s="100" t="s">
+        <v>304</v>
+      </c>
+      <c r="F58" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="G58" s="106" t="s">
+        <v>306</v>
+      </c>
+      <c r="H58" s="104" t="s">
+        <v>307</v>
+      </c>
+      <c r="I58" s="157" t="s">
+        <v>308</v>
+      </c>
+      <c r="J58" s="164"/>
+      <c r="K58" s="166" t="s">
+        <v>5407</v>
+      </c>
+      <c r="L58" s="170">
+        <f>SUM(D33:AE33)</f>
+        <v>99060</v>
+      </c>
+      <c r="M58" s="95"/>
+    </row>
+    <row r="59" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="D59" s="94"/>
+      <c r="E59" s="99">
+        <f>SUM(B6:E6)</f>
+        <v>1523000</v>
+      </c>
+      <c r="F59" s="101">
+        <f>SUM(F6:L6)</f>
+        <v>1512750</v>
+      </c>
+      <c r="G59" s="103">
+        <f>SUM(M6:S6)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="107">
+        <f>SUM(T6:Z6)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="158">
+        <f>SUM(AA6:AF6)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="171"/>
+      <c r="K59" s="166" t="s">
+        <v>5568</v>
+      </c>
+      <c r="L59" s="165">
+        <v>274880</v>
+      </c>
+      <c r="M59" s="95"/>
+    </row>
+    <row r="60" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="E60" s="99">
+        <f>SUM(B7:E7)</f>
+        <v>811000</v>
+      </c>
+      <c r="F60" s="101">
+        <f>SUM(F7:L7)</f>
+        <v>982750</v>
+      </c>
+      <c r="G60" s="103">
+        <f>SUM(M7:S7)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="107">
+        <f>SUM(T7:Z7)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="158">
+        <f>SUM(AA7:AF7)</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="94"/>
+      <c r="K60" s="166"/>
+      <c r="L60" s="165"/>
+      <c r="M60" s="95"/>
+    </row>
+    <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="J61" s="94"/>
+      <c r="K61" s="165"/>
+      <c r="L61" s="165"/>
+      <c r="M61" s="95"/>
+    </row>
+    <row r="62" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="G62" s="94"/>
+      <c r="H62" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="I62" s="159">
+        <f>SUM(E59:I59)</f>
+        <v>3035750</v>
+      </c>
+      <c r="J62" s="94"/>
+      <c r="K62" s="165"/>
+      <c r="L62" s="165"/>
+      <c r="M62" s="95"/>
+    </row>
+    <row r="63" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="G63" s="94"/>
+      <c r="H63" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="I63" s="159">
+        <f>AVERAGE(E59:I59)</f>
+        <v>607150</v>
+      </c>
+      <c r="J63" s="94"/>
+      <c r="K63" s="172" t="s">
+        <v>5408</v>
+      </c>
+      <c r="L63" s="170">
+        <f>SUM(L58:L62)</f>
+        <v>373940</v>
+      </c>
+      <c r="M63" s="95"/>
+    </row>
+    <row r="64" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="G64" s="94"/>
+      <c r="H64" s="98" t="s">
+        <v>375</v>
+      </c>
+      <c r="I64" s="159">
+        <f>SUM(E60:I60)</f>
+        <v>1793750</v>
+      </c>
+      <c r="K64" s="97"/>
+      <c r="L64" s="97"/>
+    </row>
+    <row r="65" spans="7:9" ht="18" thickTop="1" thickBot="1">
+      <c r="G65" s="94"/>
+      <c r="H65" s="98" t="s">
+        <v>376</v>
+      </c>
+      <c r="I65" s="159">
+        <f>AVERAGE(E60:I60)</f>
+        <v>358750</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" ht="17.25" thickTop="1">
+      <c r="H66" s="97"/>
+      <c r="I66" s="160"/>
+    </row>
+    <row r="76" spans="7:9">
+      <c r="H76" s="1" t="s">
+        <v>5564</v>
+      </c>
+      <c r="I76" s="155">
+        <v>23690</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9">
+      <c r="H77" s="1" t="s">
+        <v>5563</v>
+      </c>
+      <c r="I77" s="155">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9">
+      <c r="H78" s="1" t="s">
+        <v>5562</v>
+      </c>
+      <c r="I78" s="155">
+        <v>20990</v>
+      </c>
+    </row>
+    <row r="79" spans="7:9">
+      <c r="H79" s="1" t="s">
+        <v>5561</v>
+      </c>
+      <c r="I79" s="155">
+        <v>9890</v>
+      </c>
+    </row>
+    <row r="80" spans="7:9">
+      <c r="H80" s="1" t="s">
+        <v>5565</v>
+      </c>
+      <c r="I80" s="155">
+        <v>25980</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="D81" s="9"/>
+      <c r="H81" s="1" t="s">
+        <v>5560</v>
+      </c>
+      <c r="I81" s="155">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="175" t="s">
+        <v>5494</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>5566</v>
+      </c>
+      <c r="I82" s="155">
+        <v>23980</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="176">
+        <f>B36-B47-C35-L63</f>
+        <v>-1183765</v>
+      </c>
+      <c r="B83" s="9">
+        <f>A83+C35</f>
+        <v>-880190</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>5567</v>
+      </c>
+      <c r="I83" s="155">
+        <v>27180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="C84" s="1" t="s">
+        <v>5468</v>
+      </c>
+      <c r="H84" s="108" t="s">
+        <v>5569</v>
+      </c>
+      <c r="I84" s="210">
+        <f>SUM(I76:I83)</f>
+        <v>144700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="C85" s="1" t="s">
+        <v>5484</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>5486</v>
+      </c>
+      <c r="I85" s="155">
+        <v>419580</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="B86" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2753110</v>
+      </c>
+      <c r="D86" s="1">
+        <v>5562900</v>
+      </c>
+      <c r="I86" s="155">
+        <f>I85-I84</f>
+        <v>274880</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="B87" s="1" t="s">
+        <v>5487</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2693110</v>
+      </c>
+      <c r="D87" s="1">
+        <f>D86-140000</f>
+        <v>5422900</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="B88" s="1" t="s">
+        <v>5483</v>
+      </c>
+      <c r="C88" s="1">
+        <f>C86-C87</f>
+        <v>60000</v>
+      </c>
+      <c r="D88" s="1">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="C89" s="1" t="s">
+        <v>5489</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="D105" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" s="119" customFormat="1">
+      <c r="A106" s="119" t="s">
+        <v>335</v>
+      </c>
+      <c r="C106" s="119">
+        <v>153790</v>
+      </c>
+      <c r="D106" s="119">
+        <v>47940</v>
+      </c>
+      <c r="I106" s="114"/>
+      <c r="J106" s="119">
+        <f>172560+153790</f>
+        <v>326350</v>
+      </c>
+      <c r="R106" s="119">
+        <v>95870</v>
+      </c>
+      <c r="T106" s="119">
+        <f>843610+306770</f>
+        <v>1150380</v>
+      </c>
+      <c r="W106" s="119">
+        <v>306770</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" s="1">
+        <f>SUM(B106:AF106)</f>
+        <v>2081100</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" s="1">
+        <v>482000</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" s="1">
+        <v>444400</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" s="1">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" s="1">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129" s="1">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" s="1">
+        <v>1529000</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" s="1">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5">
+      <c r="E132" s="1">
+        <v>587400</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5">
+      <c r="E134" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" s="1">
+        <v>1012000</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5">
+      <c r="E136" s="1">
+        <v>253000</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" s="1">
+        <v>191500</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5">
+      <c r="E139" s="1">
+        <f>SUM(E125:E137)</f>
+        <v>5800300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E57:I57"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
@@ -52720,7 +55874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -52728,7 +55882,7 @@
   <dimension ref="B1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -52765,13 +55919,13 @@
       <c r="G1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="200" t="s">
+      <c r="H1" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="24" t="s">
@@ -52788,16 +55942,16 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="201" t="s">
+      <c r="H2" s="204" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="203"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="206"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="200" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -52813,14 +55967,14 @@
       <c r="G3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="201"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="203"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="206"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="198"/>
+      <c r="B4" s="201"/>
       <c r="C4" s="24" t="s">
         <v>122</v>
       </c>
@@ -52830,14 +55984,14 @@
       <c r="G4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="201"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="203"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="206"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="199"/>
+      <c r="B5" s="202"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -52847,11 +56001,11 @@
       <c r="G5" s="24">
         <v>707266</v>
       </c>
-      <c r="H5" s="201"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="203"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="205"/>
+      <c r="K5" s="205"/>
+      <c r="L5" s="206"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="24" t="s">
@@ -52868,11 +56022,11 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="203"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="205"/>
+      <c r="J6" s="205"/>
+      <c r="K6" s="205"/>
+      <c r="L6" s="206"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="24" t="s">
@@ -52893,11 +56047,11 @@
       <c r="G7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="201"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="203"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="205"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="205"/>
+      <c r="L7" s="206"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="24" t="s">
@@ -52916,11 +56070,11 @@
       <c r="G8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="201"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="203"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="205"/>
+      <c r="K8" s="205"/>
+      <c r="L8" s="206"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="24" t="s">
@@ -52933,11 +56087,11 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="201"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="203"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="205"/>
+      <c r="L9" s="206"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="24" t="s">
@@ -52952,11 +56106,11 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="203"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="205"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="206"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="24"/>
@@ -52965,11 +56119,11 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="203"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="205"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="205"/>
+      <c r="L11" s="206"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="24"/>
@@ -52978,11 +56132,11 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="203"/>
+      <c r="H12" s="204"/>
+      <c r="I12" s="205"/>
+      <c r="J12" s="205"/>
+      <c r="K12" s="205"/>
+      <c r="L12" s="206"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="24"/>
@@ -52991,11 +56145,11 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="203"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="205"/>
+      <c r="J13" s="205"/>
+      <c r="K13" s="205"/>
+      <c r="L13" s="206"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="24"/>
@@ -53004,11 +56158,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="203"/>
+      <c r="H14" s="204"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="205"/>
+      <c r="L14" s="206"/>
     </row>
     <row r="15" spans="2:12">
       <c r="I15" s="30"/>
@@ -53531,7 +56685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -53565,14 +56719,14 @@
       <c r="E1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="204" t="s">
+      <c r="G1" s="207" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="206"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="209"/>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="24" t="s">
@@ -53857,7 +57011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H13"/>
   <sheetViews>
@@ -53908,961 +57062,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="17.25" thickBot="1">
-      <c r="F1" t="s">
-        <v>5464</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>5498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="131" t="s">
-        <v>347</v>
-      </c>
-      <c r="B2" s="131" t="s">
-        <v>344</v>
-      </c>
-      <c r="C2" s="131" t="s">
-        <v>345</v>
-      </c>
-      <c r="D2" s="131" t="s">
-        <v>346</v>
-      </c>
-      <c r="F2" s="131" t="s">
-        <v>347</v>
-      </c>
-      <c r="G2" s="131" t="s">
-        <v>344</v>
-      </c>
-      <c r="H2" s="131" t="s">
-        <v>345</v>
-      </c>
-      <c r="I2" s="131" t="s">
-        <v>346</v>
-      </c>
-      <c r="K2" s="131" t="s">
-        <v>347</v>
-      </c>
-      <c r="L2" s="131" t="s">
-        <v>344</v>
-      </c>
-      <c r="M2" s="131" t="s">
-        <v>345</v>
-      </c>
-      <c r="N2" s="131" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q2" s="186" t="s">
-        <v>5497</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>5499</v>
-      </c>
-      <c r="T2">
-        <f>R2*60</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="17.25" thickTop="1">
-      <c r="A3" s="130">
-        <v>30000</v>
-      </c>
-      <c r="B3" s="130" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" s="132">
-        <v>3</v>
-      </c>
-      <c r="D3" s="130">
-        <f>A3*C3</f>
-        <v>90000</v>
-      </c>
-      <c r="F3" s="130">
-        <v>30000</v>
-      </c>
-      <c r="G3" s="130" t="s">
-        <v>343</v>
-      </c>
-      <c r="H3" s="132">
-        <v>1</v>
-      </c>
-      <c r="I3" s="130">
-        <f>F3*H3</f>
-        <v>30000</v>
-      </c>
-      <c r="K3" s="130">
-        <v>30000</v>
-      </c>
-      <c r="L3" s="130" t="s">
-        <v>343</v>
-      </c>
-      <c r="M3" s="132">
-        <f>H3</f>
-        <v>1</v>
-      </c>
-      <c r="N3" s="130">
-        <f>K3*M3</f>
-        <v>30000</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>5496</v>
-      </c>
-      <c r="R3">
-        <v>6.2899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="82">
-        <v>10000</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="C4" s="133">
-        <v>0</v>
-      </c>
-      <c r="D4" s="82">
-        <f t="shared" ref="D4:D11" si="0">A4*C4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="82">
-        <v>10000</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="H4" s="133">
-        <v>1</v>
-      </c>
-      <c r="I4" s="82">
-        <f t="shared" ref="I4:I11" si="1">F4*H4</f>
-        <v>10000</v>
-      </c>
-      <c r="K4" s="82">
-        <v>10000</v>
-      </c>
-      <c r="L4" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="M4" s="132">
-        <f t="shared" ref="M4:M11" si="2">H4</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="82">
-        <f t="shared" ref="N4:N11" si="3">K4*M4</f>
-        <v>10000</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>5500</v>
-      </c>
-      <c r="R4">
-        <f>R3*R2*60</f>
-        <v>3.774</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="83">
-        <v>5000</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="133">
-        <v>18</v>
-      </c>
-      <c r="D5" s="83">
-        <f t="shared" si="0"/>
-        <v>90000</v>
-      </c>
-      <c r="F5" s="83">
-        <v>5000</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="H5" s="133">
-        <f>5+4+4-3</f>
-        <v>10</v>
-      </c>
-      <c r="I5" s="83">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-      <c r="K5" s="83">
-        <v>5000</v>
-      </c>
-      <c r="L5" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="M5" s="132">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N5" s="83">
-        <f t="shared" si="3"/>
-        <v>50000</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>5501</v>
-      </c>
-      <c r="R5">
-        <f>R4/60/60</f>
-        <v>1.0483333333333332E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="124">
-        <v>30000</v>
-      </c>
-      <c r="B6" s="124" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6" s="133">
-        <v>1</v>
-      </c>
-      <c r="D6" s="124">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="F6" s="124">
-        <v>30000</v>
-      </c>
-      <c r="G6" s="124" t="s">
-        <v>354</v>
-      </c>
-      <c r="H6" s="133">
-        <v>1</v>
-      </c>
-      <c r="I6" s="124">
-        <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-      <c r="K6" s="124">
-        <v>30000</v>
-      </c>
-      <c r="L6" s="124" t="s">
-        <v>354</v>
-      </c>
-      <c r="M6" s="132">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N6" s="124">
-        <f t="shared" si="3"/>
-        <v>30000</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>5502</v>
-      </c>
-      <c r="R6">
-        <v>5</v>
-      </c>
-      <c r="S6">
-        <f>R5*60*60*R6</f>
-        <v>18.87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="124">
-        <v>10000</v>
-      </c>
-      <c r="B7" s="124" t="s">
-        <v>365</v>
-      </c>
-      <c r="C7" s="133">
-        <v>1</v>
-      </c>
-      <c r="D7" s="124">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="F7" s="124">
-        <v>10000</v>
-      </c>
-      <c r="G7" s="124" t="s">
-        <v>365</v>
-      </c>
-      <c r="H7" s="133">
-        <v>0</v>
-      </c>
-      <c r="I7" s="124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="124">
-        <v>10000</v>
-      </c>
-      <c r="L7" s="124" t="s">
-        <v>365</v>
-      </c>
-      <c r="M7" s="132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="124">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="128">
-        <v>2000</v>
-      </c>
-      <c r="B8" s="128" t="s">
-        <v>350</v>
-      </c>
-      <c r="C8" s="133">
-        <v>0</v>
-      </c>
-      <c r="D8" s="128">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="128">
-        <v>2000</v>
-      </c>
-      <c r="G8" s="128" t="s">
-        <v>350</v>
-      </c>
-      <c r="H8" s="133">
-        <v>0</v>
-      </c>
-      <c r="I8" s="128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="128">
-        <v>2000</v>
-      </c>
-      <c r="L8" s="128" t="s">
-        <v>350</v>
-      </c>
-      <c r="M8" s="132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="128">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="127">
-        <v>1000</v>
-      </c>
-      <c r="B9" s="127" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" s="133">
-        <v>0</v>
-      </c>
-      <c r="D9" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="127">
-        <v>1000</v>
-      </c>
-      <c r="G9" s="127" t="s">
-        <v>351</v>
-      </c>
-      <c r="H9" s="133">
-        <v>0</v>
-      </c>
-      <c r="I9" s="127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="127">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="127" t="s">
-        <v>351</v>
-      </c>
-      <c r="M9" s="132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="127">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="125">
-        <f>A16</f>
-        <v>40000</v>
-      </c>
-      <c r="B10" s="125" t="s">
-        <v>352</v>
-      </c>
-      <c r="C10" s="125">
-        <f>C3</f>
-        <v>3</v>
-      </c>
-      <c r="D10" s="125">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="F10" s="125">
-        <f>F16</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="125" t="s">
-        <v>352</v>
-      </c>
-      <c r="H10" s="125">
-        <v>0</v>
-      </c>
-      <c r="I10" s="125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="125">
-        <f>K16</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="125" t="s">
-        <v>352</v>
-      </c>
-      <c r="M10" s="132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="125">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="126">
-        <v>20000</v>
-      </c>
-      <c r="B11" s="126" t="s">
-        <v>353</v>
-      </c>
-      <c r="C11" s="126">
-        <v>0</v>
-      </c>
-      <c r="D11" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="126">
-        <v>20000</v>
-      </c>
-      <c r="G11" s="126" t="s">
-        <v>353</v>
-      </c>
-      <c r="H11" s="126">
-        <v>0</v>
-      </c>
-      <c r="I11" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="126">
-        <v>20000</v>
-      </c>
-      <c r="L11" s="126" t="s">
-        <v>353</v>
-      </c>
-      <c r="M11" s="132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="129" t="s">
-        <v>355</v>
-      </c>
-      <c r="D13" s="129">
-        <f>SUM(D3:D11)</f>
-        <v>340000</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="129" t="s">
-        <v>355</v>
-      </c>
-      <c r="I13" s="129">
-        <f>SUM(I3:I11)</f>
-        <v>120000</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="129" t="s">
-        <v>355</v>
-      </c>
-      <c r="N13" s="129">
-        <f>SUM(N3:N11)</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="1"/>
-      <c r="B14" s="119" t="s">
-        <v>361</v>
-      </c>
-      <c r="C14" s="129" t="s">
-        <v>362</v>
-      </c>
-      <c r="D14" s="129">
-        <f>D13*1.1</f>
-        <v>374000.00000000006</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="119" t="s">
-        <v>361</v>
-      </c>
-      <c r="H14" s="129" t="s">
-        <v>358</v>
-      </c>
-      <c r="I14" s="129">
-        <f>I13*1.1</f>
-        <v>132000</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="119" t="s">
-        <v>361</v>
-      </c>
-      <c r="M14" s="129" t="s">
-        <v>358</v>
-      </c>
-      <c r="N14" s="129">
-        <f>N13*1.1</f>
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="125" t="s">
-        <v>356</v>
-      </c>
-      <c r="B15" s="133">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="F15" s="125" t="s">
-        <v>356</v>
-      </c>
-      <c r="G15" s="133">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="K15" s="125" t="s">
-        <v>356</v>
-      </c>
-      <c r="L15" s="133">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="125">
-        <f>40000*B15</f>
-        <v>40000</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="F16" s="125">
-        <f>40000*G15</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="K16" s="125">
-        <f>40000*L15</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C17" s="122" t="s">
-        <v>357</v>
-      </c>
-      <c r="D17" s="122">
-        <f>B15*80000*C3</f>
-        <v>240000</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H17" s="122" t="s">
-        <v>357</v>
-      </c>
-      <c r="I17" s="122">
-        <f>G15*80000*H3</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="M17" s="122" t="s">
-        <v>357</v>
-      </c>
-      <c r="N17" s="122">
-        <f>L15*80000*M3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C18" s="122" t="s">
-        <v>358</v>
-      </c>
-      <c r="D18" s="122">
-        <f>D17*1.1</f>
-        <v>264000</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H18" s="122" t="s">
-        <v>358</v>
-      </c>
-      <c r="I18" s="122">
-        <f>I17*1.1</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M18" s="122" t="s">
-        <v>358</v>
-      </c>
-      <c r="N18" s="122">
-        <f>N17*1.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="D20">
-        <f>440000*1.1</f>
-        <v>484000.00000000006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17.25" thickBot="1"/>
-    <row r="41" spans="1:9" ht="18" thickTop="1" thickBot="1">
-      <c r="A41" t="s">
-        <v>377</v>
-      </c>
-      <c r="B41">
-        <f>27390/24</f>
-        <v>1141.25</v>
-      </c>
-      <c r="F41" s="131" t="s">
-        <v>347</v>
-      </c>
-      <c r="G41" s="131" t="s">
-        <v>344</v>
-      </c>
-      <c r="H41" s="131" t="s">
-        <v>345</v>
-      </c>
-      <c r="I41" s="131" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17.25" thickTop="1">
-      <c r="A42" t="s">
-        <v>378</v>
-      </c>
-      <c r="B42">
-        <f>25690/20</f>
-        <v>1284.5</v>
-      </c>
-      <c r="F42" s="130">
-        <v>30000</v>
-      </c>
-      <c r="G42" s="130" t="s">
-        <v>343</v>
-      </c>
-      <c r="H42" s="132">
-        <f>C3</f>
-        <v>3</v>
-      </c>
-      <c r="I42" s="130">
-        <f>F42*H42</f>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>379</v>
-      </c>
-      <c r="B43">
-        <f>25790/20</f>
-        <v>1289.5</v>
-      </c>
-      <c r="F43" s="82">
-        <f>B43</f>
-        <v>1289.5</v>
-      </c>
-      <c r="G43" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="H43" s="133">
-        <f>C4</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="82">
-        <f t="shared" ref="I43:I50" si="4">F43*H43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="F44" s="83">
-        <f>B41</f>
-        <v>1141.25</v>
-      </c>
-      <c r="G44" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="H44" s="133">
-        <f>C5</f>
-        <v>18</v>
-      </c>
-      <c r="I44" s="83">
-        <f t="shared" si="4"/>
-        <v>20542.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="F45" s="124">
-        <v>30000</v>
-      </c>
-      <c r="G45" s="124" t="s">
-        <v>354</v>
-      </c>
-      <c r="H45" s="133">
-        <f t="shared" ref="H45:H50" si="5">C6</f>
-        <v>1</v>
-      </c>
-      <c r="I45" s="124">
-        <f t="shared" si="4"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="F46" s="124">
-        <v>10000</v>
-      </c>
-      <c r="G46" s="124" t="s">
-        <v>365</v>
-      </c>
-      <c r="H46" s="133">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I46" s="124">
-        <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="F47" s="128">
-        <v>2000</v>
-      </c>
-      <c r="G47" s="128" t="s">
-        <v>350</v>
-      </c>
-      <c r="H47" s="133">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="128">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="F48" s="127">
-        <v>1000</v>
-      </c>
-      <c r="G48" s="127" t="s">
-        <v>351</v>
-      </c>
-      <c r="H48" s="133">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="127">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="6:9">
-      <c r="F49" s="125">
-        <f>F55</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="125" t="s">
-        <v>352</v>
-      </c>
-      <c r="H49" s="133">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="I49" s="125">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="6:9">
-      <c r="F50" s="126">
-        <v>20000</v>
-      </c>
-      <c r="G50" s="126" t="s">
-        <v>353</v>
-      </c>
-      <c r="H50" s="133">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="126">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="6:9">
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="6:9">
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="129" t="s">
-        <v>355</v>
-      </c>
-      <c r="I52" s="129">
-        <f>SUM(I42:I50)</f>
-        <v>150542.5</v>
-      </c>
-    </row>
-    <row r="53" spans="6:9">
-      <c r="F53" s="1"/>
-      <c r="G53" s="119" t="s">
-        <v>361</v>
-      </c>
-      <c r="H53" s="129" t="s">
-        <v>358</v>
-      </c>
-      <c r="I53" s="129">
-        <f>I52*1.1</f>
-        <v>165596.75</v>
-      </c>
-    </row>
-    <row r="54" spans="6:9">
-      <c r="F54" s="125" t="s">
-        <v>356</v>
-      </c>
-      <c r="G54" s="133">
-        <v>0</v>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="6:9">
-      <c r="F55" s="125">
-        <f>40000*G54</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="6:9">
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H56" s="122" t="s">
-        <v>357</v>
-      </c>
-      <c r="I56" s="122">
-        <f>G54*80000*H42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="6:9">
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H57" s="122" t="s">
-        <v>358</v>
-      </c>
-      <c r="I57" s="122">
-        <f>I56*1.1</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6010" uniqueCount="5573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6009" uniqueCount="5573">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -18300,6 +18300,12 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -18308,6 +18314,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18321,15 +18336,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -18338,12 +18344,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -19040,7 +19040,7 @@
   </sheetPr>
   <dimension ref="A1:AJ83"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -20861,13 +20861,13 @@
     </row>
     <row r="56" spans="3:10" ht="18" thickTop="1" thickBot="1">
       <c r="D56" s="94"/>
-      <c r="E56" s="197" t="s">
+      <c r="E56" s="199" t="s">
         <v>266</v>
       </c>
-      <c r="F56" s="198"/>
-      <c r="G56" s="198"/>
-      <c r="H56" s="198"/>
-      <c r="I56" s="199"/>
+      <c r="F56" s="200"/>
+      <c r="G56" s="200"/>
+      <c r="H56" s="200"/>
+      <c r="I56" s="201"/>
       <c r="J56" s="95"/>
     </row>
     <row r="57" spans="3:10" ht="18" thickTop="1" thickBot="1">
@@ -48101,7 +48101,7 @@
   <dimension ref="A1:AI125"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -49827,13 +49827,13 @@
     </row>
     <row r="57" spans="3:31" ht="18" thickTop="1" thickBot="1">
       <c r="D57" s="94"/>
-      <c r="E57" s="197" t="s">
+      <c r="E57" s="199" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="198"/>
-      <c r="G57" s="198"/>
-      <c r="H57" s="198"/>
-      <c r="I57" s="199"/>
+      <c r="F57" s="200"/>
+      <c r="G57" s="200"/>
+      <c r="H57" s="200"/>
+      <c r="I57" s="201"/>
       <c r="J57" s="95"/>
     </row>
     <row r="58" spans="3:31" ht="18" thickTop="1" thickBot="1">
@@ -50036,7 +50036,7 @@
   <dimension ref="A1:AI108"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -51776,13 +51776,13 @@
     </row>
     <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="D57" s="94"/>
-      <c r="E57" s="197" t="s">
+      <c r="E57" s="199" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="198"/>
-      <c r="G57" s="198"/>
-      <c r="H57" s="198"/>
-      <c r="I57" s="199"/>
+      <c r="F57" s="200"/>
+      <c r="G57" s="200"/>
+      <c r="H57" s="200"/>
+      <c r="I57" s="201"/>
       <c r="J57" s="164"/>
       <c r="K57" s="167" t="s">
         <v>5406</v>
@@ -52077,7 +52077,7 @@
   <dimension ref="A1:AI108"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -53715,13 +53715,13 @@
     </row>
     <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="D57" s="94"/>
-      <c r="E57" s="197" t="s">
+      <c r="E57" s="199" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="198"/>
-      <c r="G57" s="198"/>
-      <c r="H57" s="198"/>
-      <c r="I57" s="199"/>
+      <c r="F57" s="200"/>
+      <c r="G57" s="200"/>
+      <c r="H57" s="200"/>
+      <c r="I57" s="201"/>
       <c r="J57" s="164"/>
       <c r="K57" s="167" t="s">
         <v>5406</v>
@@ -54053,7 +54053,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -54251,7 +54251,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(U12,U14,U16,U18,U20,U22)</f>
         <v>0</v>
       </c>
       <c r="V3" s="5">
@@ -54317,6 +54317,10 @@
         <v>512500</v>
       </c>
       <c r="I4" s="146"/>
+      <c r="L4" s="112">
+        <f>160000+620000</f>
+        <v>780000</v>
+      </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25">
       <c r="A5" s="47" t="s">
@@ -54333,6 +54337,9 @@
         <v>51000</v>
       </c>
       <c r="I5" s="147"/>
+      <c r="L5" s="6">
+        <v>230000</v>
+      </c>
     </row>
     <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25">
       <c r="A6" s="48" t="s">
@@ -54380,7 +54387,7 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1010000</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="1"/>
@@ -54509,7 +54516,7 @@
       </c>
       <c r="L7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>494000</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" si="3"/>
@@ -54638,7 +54645,7 @@
       </c>
       <c r="L8" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-516000</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" si="6"/>
@@ -54768,10 +54775,9 @@
         <v>-144000</v>
       </c>
       <c r="I13" s="152"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
+      <c r="L13" s="11">
+        <v>-80000</v>
+      </c>
       <c r="AA13" s="10"/>
     </row>
     <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25">
@@ -54795,8 +54801,6 @@
         <v>49000</v>
       </c>
       <c r="I14" s="72"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
       <c r="AA14" s="72"/>
     </row>
     <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25">
@@ -54821,8 +54825,9 @@
         <v>-140000</v>
       </c>
       <c r="I15" s="71"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
+      <c r="L15" s="10">
+        <v>-24000</v>
+      </c>
     </row>
     <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25">
       <c r="A16" s="56" t="s">
@@ -54832,8 +54837,6 @@
         <v>88000</v>
       </c>
       <c r="I16" s="72"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
       <c r="Z16" s="72"/>
     </row>
     <row r="17" spans="1:36" s="10" customFormat="1" ht="17.25">
@@ -54847,6 +54850,9 @@
         <v>-50000</v>
       </c>
       <c r="I17" s="71"/>
+      <c r="L17" s="10">
+        <v>-80000</v>
+      </c>
     </row>
     <row r="18" spans="1:36" s="12" customFormat="1" ht="17.25">
       <c r="A18" s="56" t="s">
@@ -54866,6 +54872,9 @@
         <v>-36000</v>
       </c>
       <c r="I19" s="71"/>
+      <c r="L19" s="10">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="20" spans="1:36" s="12" customFormat="1" ht="17.25">
       <c r="A20" s="56" t="s">
@@ -54884,6 +54893,10 @@
         <v>-160000</v>
       </c>
       <c r="I21" s="71"/>
+      <c r="L21" s="10">
+        <f>-160000-160000</f>
+        <v>-320000</v>
+      </c>
     </row>
     <row r="22" spans="1:36" s="12" customFormat="1" ht="17.25">
       <c r="A22" s="56" t="s">
@@ -54925,21 +54938,19 @@
       <c r="E26" s="188"/>
       <c r="F26" s="188"/>
       <c r="G26" s="188"/>
-      <c r="H26" s="211" t="s">
+      <c r="H26" s="198" t="s">
         <v>5572</v>
       </c>
-      <c r="I26" s="211" t="s">
+      <c r="I26" s="198" t="s">
         <v>5572</v>
       </c>
-      <c r="J26" s="211" t="s">
+      <c r="J26" s="198" t="s">
         <v>5572</v>
       </c>
-      <c r="K26" s="211" t="s">
+      <c r="K26" s="198" t="s">
         <v>5572</v>
       </c>
-      <c r="L26" s="211" t="s">
-        <v>5572</v>
-      </c>
+      <c r="L26" s="188"/>
       <c r="M26" s="188"/>
       <c r="N26" s="188"/>
       <c r="O26" s="188"/>
@@ -55011,7 +55022,7 @@
       </c>
       <c r="B32" s="78">
         <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
-        <v>1690500</v>
+        <v>2700500</v>
       </c>
       <c r="C32" s="13"/>
       <c r="I32" s="151"/>
@@ -55106,11 +55117,11 @@
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>3035750</v>
+        <v>4045750</v>
       </c>
       <c r="C35" s="15">
         <f>B35*0.1</f>
-        <v>303575</v>
+        <v>404575</v>
       </c>
       <c r="D35" s="15"/>
       <c r="I35" s="151"/>
@@ -55131,7 +55142,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>1793750</v>
+        <v>2287750</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -55153,7 +55164,7 @@
       </c>
       <c r="B37" s="44">
         <f>SUM(B8:AF8)</f>
-        <v>-1242000</v>
+        <v>-1758000</v>
       </c>
       <c r="C37" s="9"/>
       <c r="E37" s="9"/>
@@ -55178,8 +55189,8 @@
         <v>193</v>
       </c>
       <c r="B39" s="89">
-        <f>(378000+SUM(B5:AF5)+SUM(B8:AF8))+130000+50000+300000+300000</f>
-        <v>66000</v>
+        <f>(378000+SUM(B5:AF5)+SUM(B8:AF8))+130000+50000+300000+300000+360000</f>
+        <v>140000</v>
       </c>
       <c r="C39" s="113"/>
       <c r="D39" s="114" t="s">
@@ -55196,8 +55207,8 @@
         <v>197</v>
       </c>
       <c r="B40" s="87">
-        <f>SUM(B4:AF4)-130000-50000-300000-300000</f>
-        <v>760500</v>
+        <f>SUM(B4:AF4)-130000-50000-300000-300000-360000</f>
+        <v>1180500</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="115">
@@ -55226,7 +55237,7 @@
       </c>
       <c r="B42" s="81">
         <f>SUM(B7:AF7)</f>
-        <v>1793750</v>
+        <v>2287750</v>
       </c>
       <c r="P42" s="9"/>
       <c r="R42" s="9"/>
@@ -55239,7 +55250,7 @@
       </c>
       <c r="B43" s="85">
         <f>B33+B39+B40</f>
-        <v>2171750</v>
+        <v>2665750</v>
       </c>
       <c r="P43" s="9"/>
       <c r="R43" s="9"/>
@@ -55325,7 +55336,7 @@
       </c>
       <c r="F50" s="9">
         <f>B35</f>
-        <v>3035750</v>
+        <v>4045750</v>
       </c>
       <c r="Y50" s="9"/>
       <c r="AE50" s="9"/>
@@ -55336,7 +55347,7 @@
       </c>
       <c r="F51" s="9">
         <f>C35</f>
-        <v>303575</v>
+        <v>404575</v>
       </c>
       <c r="Y51" s="9"/>
       <c r="AE51" s="9"/>
@@ -55347,14 +55358,14 @@
       </c>
       <c r="F52" s="9">
         <f>F48-F49-F51</f>
-        <v>-1258325</v>
+        <v>-1359325</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>5555</v>
       </c>
       <c r="H52" s="9">
         <f>H48-F49-F51</f>
-        <v>-1265051.25</v>
+        <v>-1366051.25</v>
       </c>
       <c r="Y52" s="9"/>
       <c r="AE52" s="9"/>
@@ -55374,13 +55385,13 @@
     </row>
     <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="D57" s="94"/>
-      <c r="E57" s="197" t="s">
+      <c r="E57" s="199" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="198"/>
-      <c r="G57" s="198"/>
-      <c r="H57" s="198"/>
-      <c r="I57" s="199"/>
+      <c r="F57" s="200"/>
+      <c r="G57" s="200"/>
+      <c r="H57" s="200"/>
+      <c r="I57" s="201"/>
       <c r="J57" s="164"/>
       <c r="K57" s="167" t="s">
         <v>5406</v>
@@ -55425,7 +55436,7 @@
       </c>
       <c r="F59" s="101">
         <f>SUM(F6:L6)</f>
-        <v>1512750</v>
+        <v>2522750</v>
       </c>
       <c r="G59" s="103">
         <f>SUM(M6:S6)</f>
@@ -55455,7 +55466,7 @@
       </c>
       <c r="F60" s="101">
         <f>SUM(F7:L7)</f>
-        <v>982750</v>
+        <v>1476750</v>
       </c>
       <c r="G60" s="103">
         <f>SUM(M7:S7)</f>
@@ -55487,7 +55498,7 @@
       </c>
       <c r="I62" s="159">
         <f>SUM(E59:I59)</f>
-        <v>3035750</v>
+        <v>4045750</v>
       </c>
       <c r="J62" s="94"/>
       <c r="K62" s="165"/>
@@ -55501,7 +55512,7 @@
       </c>
       <c r="I63" s="159">
         <f>AVERAGE(E59:I59)</f>
-        <v>607150</v>
+        <v>809150</v>
       </c>
       <c r="J63" s="94"/>
       <c r="K63" s="172" t="s">
@@ -55520,7 +55531,7 @@
       </c>
       <c r="I64" s="159">
         <f>SUM(E60:I60)</f>
-        <v>1793750</v>
+        <v>2287750</v>
       </c>
       <c r="K64" s="97"/>
       <c r="L64" s="97"/>
@@ -55532,7 +55543,7 @@
       </c>
       <c r="I65" s="159">
         <f>AVERAGE(E60:I60)</f>
-        <v>358750</v>
+        <v>457550</v>
       </c>
     </row>
     <row r="66" spans="7:9" ht="17.25" thickTop="1">
@@ -55602,11 +55613,11 @@
     <row r="83" spans="1:9">
       <c r="A83" s="176">
         <f>B36-B47-C35-L63</f>
-        <v>-1183765</v>
+        <v>-790765</v>
       </c>
       <c r="B83" s="9">
         <f>A83+C35</f>
-        <v>-880190</v>
+        <v>-386190</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>5567</v>
@@ -55622,7 +55633,7 @@
       <c r="H84" s="108" t="s">
         <v>5569</v>
       </c>
-      <c r="I84" s="210">
+      <c r="I84" s="197">
         <f>SUM(I76:I83)</f>
         <v>144700</v>
       </c>
@@ -55919,13 +55930,13 @@
       <c r="G1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="203" t="s">
+      <c r="H1" s="208" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="24" t="s">
@@ -55942,16 +55953,16 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="204" t="s">
+      <c r="H2" s="202" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="206"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="204"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="205" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -55967,14 +55978,14 @@
       <c r="G3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="204"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="206"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="204"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="201"/>
+      <c r="B4" s="206"/>
       <c r="C4" s="24" t="s">
         <v>122</v>
       </c>
@@ -55984,14 +55995,14 @@
       <c r="G4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="204"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="206"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="204"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="202"/>
+      <c r="B5" s="207"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -56001,11 +56012,11 @@
       <c r="G5" s="24">
         <v>707266</v>
       </c>
-      <c r="H5" s="204"/>
-      <c r="I5" s="205"/>
-      <c r="J5" s="205"/>
-      <c r="K5" s="205"/>
-      <c r="L5" s="206"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="203"/>
+      <c r="K5" s="203"/>
+      <c r="L5" s="204"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="24" t="s">
@@ -56022,11 +56033,11 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="205"/>
-      <c r="J6" s="205"/>
-      <c r="K6" s="205"/>
-      <c r="L6" s="206"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="203"/>
+      <c r="L6" s="204"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="24" t="s">
@@ -56047,11 +56058,11 @@
       <c r="G7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="204"/>
-      <c r="I7" s="205"/>
-      <c r="J7" s="205"/>
-      <c r="K7" s="205"/>
-      <c r="L7" s="206"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="203"/>
+      <c r="K7" s="203"/>
+      <c r="L7" s="204"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="24" t="s">
@@ -56070,11 +56081,11 @@
       <c r="G8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="204"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="206"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
+      <c r="L8" s="204"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="24" t="s">
@@ -56087,11 +56098,11 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="205"/>
-      <c r="L9" s="206"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
+      <c r="L9" s="204"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="24" t="s">
@@ -56106,11 +56117,11 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="206"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
+      <c r="L10" s="204"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="24"/>
@@ -56119,11 +56130,11 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="206"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
+      <c r="L11" s="204"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="24"/>
@@ -56132,11 +56143,11 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="205"/>
-      <c r="L12" s="206"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="203"/>
+      <c r="L12" s="204"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="24"/>
@@ -56145,11 +56156,11 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="205"/>
-      <c r="L13" s="206"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="203"/>
+      <c r="K13" s="203"/>
+      <c r="L13" s="204"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="24"/>
@@ -56158,11 +56169,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="205"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="206"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="203"/>
+      <c r="L14" s="204"/>
     </row>
     <row r="15" spans="2:12">
       <c r="I15" s="30"/>
@@ -56663,6 +56674,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -56672,12 +56689,6 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56719,14 +56730,14 @@
       <c r="E1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="207" t="s">
+      <c r="G1" s="209" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="209"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="211"/>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="24" t="s">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" firstSheet="7" activeTab="17"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
@@ -42,22 +42,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6263" uniqueCount="5666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6271" uniqueCount="5674">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -17668,10 +17658,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>손놈먹튀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>20대 테이블</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -17719,6 +17705,42 @@
   </si>
   <si>
     <t>164000 삼촌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단골</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단골(모자)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>손놈먹튀 2만</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월달 가게세,관리비</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-12-23코스트코</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>번영회비 2022-12-24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>케뱅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -19149,6 +19171,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1510393</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>169276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="108857" y="10926536"/>
+          <a:ext cx="3292929" cy="7081704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -19238,7 +19303,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -19281,7 +19346,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -20183,11 +20248,11 @@
         <v>2</v>
       </c>
       <c r="B6" s="8">
-        <f>B5+B7</f>
+        <f t="shared" ref="B6:G6" si="2">B5+B7</f>
         <v>218000</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" ref="C6:G6" si="2">C5+C7</f>
+        <f t="shared" si="2"/>
         <v>1180000</v>
       </c>
       <c r="D6" s="8">
@@ -22759,13 +22824,13 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="212" t="s">
+        <v>5661</v>
+      </c>
+      <c r="C26" s="213" t="s">
         <v>5662</v>
       </c>
-      <c r="C26" s="213" t="s">
+      <c r="D26" s="212" t="s">
         <v>5663</v>
-      </c>
-      <c r="D26" s="212" t="s">
-        <v>5664</v>
       </c>
     </row>
   </sheetData>
@@ -22838,7 +22903,7 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -22920,11 +22985,11 @@
         <v>342</v>
       </c>
       <c r="C3" s="132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="130">
         <f>A3*C3</f>
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="F3" s="130">
         <v>30000</v>
@@ -22968,11 +23033,11 @@
         <v>347</v>
       </c>
       <c r="C4" s="133">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" s="82">
         <f t="shared" ref="D4:D13" si="0">A4*C4</f>
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="82">
         <v>10000</v>
@@ -23017,11 +23082,11 @@
         <v>348</v>
       </c>
       <c r="C5" s="133">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D5" s="83">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="F5" s="83">
         <v>5000</v>
@@ -23067,11 +23132,11 @@
         <v>353</v>
       </c>
       <c r="C6" s="133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="124">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="F6" s="124">
         <v>30000</v>
@@ -23207,11 +23272,11 @@
         <v>349</v>
       </c>
       <c r="C10" s="133">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D10" s="128">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="128">
         <v>2000</v>
@@ -23249,11 +23314,11 @@
         <v>350</v>
       </c>
       <c r="C11" s="133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="127">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="127">
         <v>1000</v>
@@ -23286,18 +23351,18 @@
     <row r="12" spans="1:20">
       <c r="A12" s="125">
         <f>A18</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="B12" s="125" t="s">
         <v>351</v>
       </c>
       <c r="C12" s="125">
         <f>C3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="125">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="F12" s="125">
         <f>F18</f>
@@ -23393,7 +23458,7 @@
       </c>
       <c r="D15" s="129">
         <f>SUM(D3:D13)</f>
-        <v>203000</v>
+        <v>320000</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -23424,7 +23489,7 @@
       </c>
       <c r="D16" s="129">
         <f>D15*1.1</f>
-        <v>223300.00000000003</v>
+        <v>352000</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="119" t="s">
@@ -23454,7 +23519,7 @@
         <v>355</v>
       </c>
       <c r="B17" s="133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -23478,7 +23543,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="125">
         <f>40000*B17</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -23508,7 +23573,7 @@
       </c>
       <c r="D19" s="122">
         <f>B17*80000*C3</f>
-        <v>0</v>
+        <v>320000</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -23543,7 +23608,7 @@
       </c>
       <c r="D20" s="122">
         <f>D19*1.1</f>
-        <v>0</v>
+        <v>352000</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
@@ -23574,7 +23639,7 @@
         <v>484000.00000000006</v>
       </c>
       <c r="K22" t="s">
-        <v>5660</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18" thickTop="1" thickBot="1">
@@ -23617,7 +23682,7 @@
         <v>2</v>
       </c>
       <c r="N25" s="82">
-        <f t="shared" ref="N25:N28" si="4">K25*M25</f>
+        <f>K25*M25</f>
         <v>8000</v>
       </c>
     </row>
@@ -23629,11 +23694,11 @@
         <v>348</v>
       </c>
       <c r="M26" s="132">
-        <f t="shared" ref="M26:M28" si="5">H26</f>
+        <f>H26</f>
         <v>0</v>
       </c>
       <c r="N26" s="83">
-        <f t="shared" si="4"/>
+        <f>K26*M26</f>
         <v>0</v>
       </c>
     </row>
@@ -23645,11 +23710,11 @@
         <v>353</v>
       </c>
       <c r="M27" s="132">
-        <f t="shared" si="5"/>
+        <f>H27</f>
         <v>0</v>
       </c>
       <c r="N27" s="124">
-        <f t="shared" si="4"/>
+        <f>K27*M27</f>
         <v>0</v>
       </c>
     </row>
@@ -23661,11 +23726,11 @@
         <v>364</v>
       </c>
       <c r="M28" s="132">
-        <f t="shared" si="5"/>
+        <f>H28</f>
         <v>0</v>
       </c>
       <c r="N28" s="124">
-        <f t="shared" si="4"/>
+        <f>K28*M28</f>
         <v>0</v>
       </c>
     </row>
@@ -23689,11 +23754,11 @@
         <v>349</v>
       </c>
       <c r="M31" s="132">
-        <f t="shared" ref="M31:M34" si="6">H31</f>
+        <f>H31</f>
         <v>0</v>
       </c>
       <c r="N31" s="128">
-        <f t="shared" ref="N31:N34" si="7">K31*M31</f>
+        <f>K31*M31</f>
         <v>0</v>
       </c>
     </row>
@@ -23705,11 +23770,11 @@
         <v>350</v>
       </c>
       <c r="M32" s="132">
-        <f t="shared" si="6"/>
+        <f>H32</f>
         <v>0</v>
       </c>
       <c r="N32" s="127">
-        <f t="shared" si="7"/>
+        <f>K32*M32</f>
         <v>0</v>
       </c>
     </row>
@@ -23722,11 +23787,11 @@
         <v>351</v>
       </c>
       <c r="M33" s="132">
-        <f t="shared" si="6"/>
+        <f>H33</f>
         <v>0</v>
       </c>
       <c r="N33" s="125">
-        <f t="shared" si="7"/>
+        <f>K33*M33</f>
         <v>0</v>
       </c>
     </row>
@@ -23738,11 +23803,11 @@
         <v>352</v>
       </c>
       <c r="M34" s="132">
-        <f t="shared" si="6"/>
+        <f>H34</f>
         <v>0</v>
       </c>
       <c r="N34" s="126">
-        <f t="shared" si="7"/>
+        <f>K34*M34</f>
         <v>0</v>
       </c>
     </row>
@@ -23859,11 +23924,11 @@
       </c>
       <c r="H44" s="132">
         <f>C3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" s="130">
         <f>F44*H44</f>
-        <v>30000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -23883,11 +23948,11 @@
       </c>
       <c r="H45" s="133">
         <f>C4</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I45" s="82">
-        <f t="shared" ref="I45:I52" si="8">F45*H45</f>
-        <v>10316</v>
+        <f t="shared" ref="I45:I52" si="4">F45*H45</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -23900,11 +23965,11 @@
       </c>
       <c r="H46" s="133">
         <f>C5</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I46" s="83">
-        <f t="shared" si="8"/>
-        <v>1141.25</v>
+        <f t="shared" si="4"/>
+        <v>13695</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -23916,11 +23981,11 @@
       </c>
       <c r="H47" s="133">
         <f>C6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="124">
-        <f t="shared" si="8"/>
-        <v>60000</v>
+        <f t="shared" si="4"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -23935,7 +24000,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -23947,12 +24012,12 @@
         <v>349</v>
       </c>
       <c r="H49" s="133">
-        <f t="shared" ref="H49:H52" si="9">C10</f>
-        <v>8</v>
+        <f>C10</f>
+        <v>0</v>
       </c>
       <c r="I49" s="128">
-        <f t="shared" si="8"/>
-        <v>16000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="6:9">
@@ -23963,12 +24028,12 @@
         <v>350</v>
       </c>
       <c r="H50" s="133">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>C11</f>
+        <v>0</v>
       </c>
       <c r="I50" s="127">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="6:9">
@@ -23980,11 +24045,11 @@
         <v>351</v>
       </c>
       <c r="H51" s="133">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>C12</f>
+        <v>2</v>
       </c>
       <c r="I51" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -23996,11 +24061,11 @@
         <v>352</v>
       </c>
       <c r="H52" s="133">
-        <f t="shared" si="9"/>
+        <f>C13</f>
         <v>0</v>
       </c>
       <c r="I52" s="126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24018,7 +24083,7 @@
       </c>
       <c r="I54" s="129">
         <f>SUM(I44:I52)</f>
-        <v>129457.25</v>
+        <v>113695</v>
       </c>
     </row>
     <row r="55" spans="6:9">
@@ -24031,7 +24096,7 @@
       </c>
       <c r="I55" s="129">
         <f>I54*1.1</f>
-        <v>142402.97500000001</v>
+        <v>125064.50000000001</v>
       </c>
     </row>
     <row r="56" spans="6:9">
@@ -24267,8 +24332,8 @@
   </sheetPr>
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -24819,7 +24884,7 @@
   <dimension ref="D3:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -25083,8 +25148,8 @@
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -50434,9 +50499,9 @@
   </sheetPr>
   <dimension ref="A1:AI125"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S54" sqref="S54"/>
+    <sheetView topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -50913,11 +50978,11 @@
         <v>1984000</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" ref="J6" si="2">J3+J4+J5</f>
+        <f>J3+J4+J5</f>
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" ref="K6" si="3">K3+K4+K5</f>
+        <f>K3+K4+K5</f>
         <v>233200</v>
       </c>
       <c r="L6" s="7">
@@ -51018,7 +51083,7 @@
         <v>410000</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" ref="D7:AF7" si="4">D6+D8</f>
+        <f t="shared" ref="D7:AF7" si="2">D6+D8</f>
         <v>273000</v>
       </c>
       <c r="E7" s="8">
@@ -51026,15 +51091,15 @@
         <v>228000</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>341000</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>87000</v>
       </c>
       <c r="I7" s="8">
@@ -51046,23 +51111,23 @@
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ref="K7" si="5">K6+K8</f>
+        <f>K6+K8</f>
         <v>209200</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>45000</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1127200</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P7" s="8">
@@ -51070,67 +51135,67 @@
         <v>624200</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>158000</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>140000</v>
       </c>
       <c r="S7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>233000</v>
       </c>
       <c r="T7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>120000</v>
       </c>
       <c r="U7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1164500</v>
       </c>
       <c r="V7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>156000</v>
       </c>
       <c r="W7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>225000</v>
       </c>
       <c r="X7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>546000</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>581000</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>343000</v>
       </c>
       <c r="AA7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>398200</v>
       </c>
       <c r="AB7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>108000</v>
       </c>
       <c r="AC7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>188000</v>
       </c>
       <c r="AD7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>86000</v>
       </c>
       <c r="AE7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>208000</v>
       </c>
     </row>
@@ -51139,7 +51204,7 @@
         <v>195</v>
       </c>
       <c r="B8" s="18">
-        <f t="shared" ref="B8:H8" si="6">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
+        <f t="shared" ref="B8:H8" si="3">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
         <v>0</v>
       </c>
       <c r="C8" s="18">
@@ -51147,7 +51212,7 @@
         <v>-253000</v>
       </c>
       <c r="D8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-252000</v>
       </c>
       <c r="E8" s="18">
@@ -51155,7 +51220,7 @@
         <v>-252000</v>
       </c>
       <c r="F8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8" s="18">
@@ -51163,7 +51228,7 @@
         <v>-264000</v>
       </c>
       <c r="H8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-20000</v>
       </c>
       <c r="I8" s="18">
@@ -51171,19 +51236,19 @@
         <v>-838000</v>
       </c>
       <c r="J8" s="18">
-        <f t="shared" ref="J8:L8" si="7">SUM(J13,J15,J17,J19,J21,J23)</f>
+        <f>SUM(J13,J15,J17,J19,J21,J23)</f>
         <v>0</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" si="7"/>
+        <f>SUM(K13,K15,K17,K19,K21,K23)</f>
         <v>-24000</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" si="7"/>
+        <f>SUM(L13,L15,L17,L19,L21,L23)</f>
         <v>0</v>
       </c>
       <c r="M8" s="18">
-        <f t="shared" ref="M8:AF8" si="8">SUM(M13,M15,M17,M19,M21,M23)</f>
+        <f t="shared" ref="M8:AF8" si="4">SUM(M13,M15,M17,M19,M21,M23)</f>
         <v>0</v>
       </c>
       <c r="N8" s="18">
@@ -51191,7 +51256,7 @@
         <v>-892000</v>
       </c>
       <c r="O8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P8" s="18">
@@ -51211,55 +51276,55 @@
         <v>-212000</v>
       </c>
       <c r="T8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-80000</v>
       </c>
       <c r="U8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-513000</v>
       </c>
       <c r="V8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-2000</v>
       </c>
       <c r="W8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-160000</v>
       </c>
       <c r="X8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-482000</v>
       </c>
       <c r="Y8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-649000</v>
       </c>
       <c r="Z8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-360000</v>
       </c>
       <c r="AA8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-332000</v>
       </c>
       <c r="AB8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-92000</v>
       </c>
       <c r="AC8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-184000</v>
       </c>
       <c r="AD8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -52472,9 +52537,9 @@
   </sheetPr>
   <dimension ref="A1:AI108"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X32" sqref="X32:X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -52950,7 +53015,7 @@
         <v>1517000</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" ref="J6" si="2">J3+J4+J5</f>
+        <f>J3+J4+J5</f>
         <v>0</v>
       </c>
       <c r="K6" s="7">
@@ -53055,7 +53120,7 @@
         <v>386000</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" ref="D7:AF7" si="3">D6+D8</f>
+        <f t="shared" ref="D7:AF7" si="2">D6+D8</f>
         <v>319000</v>
       </c>
       <c r="E7" s="8">
@@ -53063,15 +53128,15 @@
         <v>270000</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>513000</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>267000</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>738000</v>
       </c>
       <c r="I7" s="148">
@@ -53083,23 +53148,23 @@
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ref="K7" si="4">K6+K8</f>
+        <f>K6+K8</f>
         <v>506000</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170000</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>69000</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>590000</v>
       </c>
       <c r="P7" s="8">
@@ -53107,11 +53172,11 @@
         <v>205000</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="S7" s="8">
@@ -53119,55 +53184,55 @@
         <v>183000</v>
       </c>
       <c r="T7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>335200</v>
       </c>
       <c r="U7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>388000</v>
       </c>
       <c r="V7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>521300</v>
       </c>
       <c r="W7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250000</v>
       </c>
       <c r="X7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>177200</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>512000</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>118000</v>
       </c>
       <c r="AA7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120000</v>
       </c>
       <c r="AB7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>530000</v>
       </c>
       <c r="AC7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250000</v>
       </c>
       <c r="AE7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>421600</v>
       </c>
       <c r="AF7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -53176,27 +53241,27 @@
         <v>195</v>
       </c>
       <c r="B8" s="18">
-        <f t="shared" ref="B8:F8" si="5">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
+        <f t="shared" ref="B8:G8" si="3">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
         <v>-250000</v>
       </c>
       <c r="C8" s="18">
-        <f>SUM(C13,C15,C17,C19,C21,C23,C23)</f>
+        <f t="shared" si="3"/>
         <v>-132000</v>
       </c>
       <c r="D8" s="18">
-        <f>SUM(D13,D15,D17,D19,D21,D23,D23)</f>
+        <f t="shared" si="3"/>
         <v>-90000</v>
       </c>
       <c r="E8" s="18">
-        <f>SUM(E13,E15,E17,E19,E21,E23,E23)</f>
+        <f t="shared" si="3"/>
         <v>-120000</v>
       </c>
       <c r="F8" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-396000</v>
       </c>
       <c r="G8" s="18">
-        <f>SUM(G13,G15,G17,G19,G21,G23,G23)</f>
+        <f t="shared" si="3"/>
         <v>-184000</v>
       </c>
       <c r="H8" s="18">
@@ -53204,27 +53269,27 @@
         <v>-572000</v>
       </c>
       <c r="I8" s="149">
-        <f t="shared" ref="I8:AF8" si="6">SUM(I13,I15,I17,I19,I21,I11,I23,I25)</f>
+        <f t="shared" ref="I8:AF8" si="4">SUM(I13,I15,I17,I19,I21,I11,I23,I25)</f>
         <v>-593000</v>
       </c>
       <c r="J8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-519000</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-12000</v>
       </c>
       <c r="M8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-12000</v>
       </c>
       <c r="N8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O8" s="18">
@@ -53232,15 +53297,15 @@
         <v>-596000</v>
       </c>
       <c r="P8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-160000</v>
       </c>
       <c r="Q8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-120000</v>
       </c>
       <c r="R8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-10000</v>
       </c>
       <c r="S8" s="18">
@@ -53248,15 +53313,15 @@
         <v>-160000</v>
       </c>
       <c r="T8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-256000</v>
       </c>
       <c r="U8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-372000</v>
       </c>
       <c r="V8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-474000</v>
       </c>
       <c r="W8" s="18">
@@ -53264,15 +53329,15 @@
         <v>-202000</v>
       </c>
       <c r="X8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-252000</v>
       </c>
       <c r="Y8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-418000</v>
       </c>
       <c r="Z8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-124000</v>
       </c>
       <c r="AA8" s="18">
@@ -53284,19 +53349,19 @@
         <v>-480000</v>
       </c>
       <c r="AC8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-100000</v>
       </c>
       <c r="AE8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-300000</v>
       </c>
       <c r="AF8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -54520,8 +54585,8 @@
   </sheetPr>
   <dimension ref="A1:AI108"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A44" sqref="A44:B44"/>
     </sheetView>
   </sheetViews>
@@ -54902,7 +54967,7 @@
         <v>400000</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" ref="J6" si="2">J3+J4+J5</f>
+        <f>J3+J4+J5</f>
         <v>728000</v>
       </c>
       <c r="K6" s="7">
@@ -55007,7 +55072,7 @@
         <v>999000</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" ref="D7:AF7" si="3">D6+D8</f>
+        <f t="shared" ref="D7:AF7" si="2">D6+D8</f>
         <v>347000</v>
       </c>
       <c r="E7" s="8">
@@ -55015,15 +55080,15 @@
         <v>0</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38000</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1014000</v>
       </c>
       <c r="I7" s="148">
@@ -55035,23 +55100,23 @@
         <v>384000</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ref="K7" si="4">K6+K8</f>
+        <f>K6+K8</f>
         <v>315400</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120000</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>77000</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>316000</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P7" s="8">
@@ -55059,11 +55124,11 @@
         <v>447500</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>811000</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="8">
@@ -55071,7 +55136,7 @@
         <v>84000</v>
       </c>
       <c r="T7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>171000</v>
       </c>
       <c r="U7" s="8">
@@ -55079,47 +55144,47 @@
         <v>0</v>
       </c>
       <c r="V7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>179000</v>
       </c>
       <c r="W7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>315000</v>
       </c>
       <c r="X7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>128000</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>168000</v>
       </c>
       <c r="AA7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>98000</v>
       </c>
       <c r="AC7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>278000</v>
       </c>
       <c r="AD7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>300400</v>
       </c>
       <c r="AE7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>316000</v>
       </c>
       <c r="AF7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270000</v>
       </c>
     </row>
@@ -55128,27 +55193,27 @@
         <v>195</v>
       </c>
       <c r="B8" s="18">
-        <f t="shared" ref="B8:F8" si="5">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
+        <f t="shared" ref="B8:G8" si="3">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
         <v>-12000</v>
       </c>
       <c r="C8" s="18">
-        <f>SUM(C13,C15,C17,C19,C21,C23,C23)</f>
+        <f t="shared" si="3"/>
         <v>-880000</v>
       </c>
       <c r="D8" s="18">
-        <f>SUM(D13,D15,D17,D19,D21,D23,D23)</f>
+        <f t="shared" si="3"/>
         <v>-396000</v>
       </c>
       <c r="E8" s="18">
-        <f>SUM(E13,E15,E17,E19,E21,E23,E23)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f>SUM(G13,G15,G17,G19,G21,G23,G23)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8" s="18">
@@ -55156,27 +55221,27 @@
         <v>-958000</v>
       </c>
       <c r="I8" s="149">
-        <f t="shared" ref="I8:AF8" si="6">SUM(I13,I15,I17,I19,I21,I11,I23,I25)</f>
+        <f t="shared" ref="I8:AF8" si="4">SUM(I13,I15,I17,I19,I21,I11,I23,I25)</f>
         <v>-184000</v>
       </c>
       <c r="J8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-344000</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-302000</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-120000</v>
       </c>
       <c r="M8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-284000</v>
       </c>
       <c r="O8" s="18">
@@ -55184,15 +55249,15 @@
         <v>0</v>
       </c>
       <c r="P8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-304000</v>
       </c>
       <c r="Q8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-718000</v>
       </c>
       <c r="R8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S8" s="18">
@@ -55200,7 +55265,7 @@
         <v>-12000</v>
       </c>
       <c r="T8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-12000</v>
       </c>
       <c r="U8" s="18">
@@ -55220,11 +55285,11 @@
         <v>0</v>
       </c>
       <c r="Y8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-92000</v>
       </c>
       <c r="Z8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-162000</v>
       </c>
       <c r="AA8" s="18">
@@ -55236,19 +55301,19 @@
         <v>-142000</v>
       </c>
       <c r="AC8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-92000</v>
       </c>
       <c r="AD8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-144000</v>
       </c>
       <c r="AE8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-304000</v>
       </c>
       <c r="AF8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-212000</v>
       </c>
     </row>
@@ -56503,8 +56568,8 @@
   <dimension ref="A1:AJ139"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -56898,7 +56963,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" ref="J6" si="3">J3+J4+J5</f>
+        <f>J3+J4+J5</f>
         <v>0</v>
       </c>
       <c r="K6" s="7">
@@ -56999,7 +57064,7 @@
         <v>252000</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" ref="D7:AE7" si="4">D6+D8</f>
+        <f t="shared" ref="D7:AE7" si="3">D6+D8</f>
         <v>273000</v>
       </c>
       <c r="E7" s="8">
@@ -57007,15 +57072,15 @@
         <v>130000</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>886750</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>47000</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>49000</v>
       </c>
       <c r="I7" s="148">
@@ -57027,23 +57092,23 @@
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ref="K7" si="5">K6+K8</f>
+        <f>K6+K8</f>
         <v>0</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>494000</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>384000</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>208000</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>548500</v>
       </c>
       <c r="P7" s="8">
@@ -57051,11 +57116,11 @@
         <v>348000</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>148000</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>518900</v>
       </c>
       <c r="S7" s="8">
@@ -57063,7 +57128,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>307000</v>
       </c>
       <c r="U7" s="8">
@@ -57071,43 +57136,43 @@
         <v>181000</v>
       </c>
       <c r="V7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>176000</v>
       </c>
       <c r="W7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>627000</v>
       </c>
       <c r="X7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>276000</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>384600</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>582000</v>
       </c>
       <c r="AA7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>324000</v>
       </c>
       <c r="AB7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>258000</v>
       </c>
       <c r="AC7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -57116,27 +57181,27 @@
         <v>195</v>
       </c>
       <c r="B8" s="18">
-        <f t="shared" ref="B8:F8" si="6">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
+        <f t="shared" ref="B8:G8" si="4">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
         <v>-104000</v>
       </c>
       <c r="C8" s="18">
-        <f>SUM(C13,C15,C17,C19,C21,C23,C23)</f>
+        <f t="shared" si="4"/>
         <v>-252000</v>
       </c>
       <c r="D8" s="18">
-        <f>SUM(D13,D15,D17,D19,D21,D23,D23)</f>
+        <f t="shared" si="4"/>
         <v>-264000</v>
       </c>
       <c r="E8" s="18">
-        <f>SUM(E13,E15,E17,E19,E21,E23,E23)</f>
+        <f t="shared" si="4"/>
         <v>-92000</v>
       </c>
       <c r="F8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-530000</v>
       </c>
       <c r="G8" s="18">
-        <f>SUM(G13,G15,G17,G19,G21,G23,G23)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H8" s="18">
@@ -57144,27 +57209,27 @@
         <v>0</v>
       </c>
       <c r="I8" s="149">
-        <f t="shared" ref="I8:AE8" si="7">SUM(I13,I15,I17,I19,I21,I11,I23,I25)</f>
+        <f t="shared" ref="I8:AE8" si="5">SUM(I13,I15,I17,I19,I21,I11,I23,I25)</f>
         <v>0</v>
       </c>
       <c r="J8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-516000</v>
       </c>
       <c r="M8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-244000</v>
       </c>
       <c r="N8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-212000</v>
       </c>
       <c r="O8" s="18">
@@ -57172,15 +57237,15 @@
         <v>-484000</v>
       </c>
       <c r="P8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-372000</v>
       </c>
       <c r="Q8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-132000</v>
       </c>
       <c r="R8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-424000</v>
       </c>
       <c r="S8" s="18">
@@ -57188,7 +57253,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-172000</v>
       </c>
       <c r="U8" s="18">
@@ -57208,11 +57273,11 @@
         <v>-252000</v>
       </c>
       <c r="Y8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-262000</v>
       </c>
       <c r="Z8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-478000</v>
       </c>
       <c r="AA8" s="18">
@@ -57224,15 +57289,15 @@
         <v>-262000</v>
       </c>
       <c r="AC8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -58628,9 +58693,9 @@
   </sheetPr>
   <dimension ref="A1:AJ139"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -58805,27 +58870,27 @@
       </c>
       <c r="O3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="P3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>484000</v>
       </c>
       <c r="Q3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>117000</v>
       </c>
       <c r="R3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81000</v>
       </c>
       <c r="S3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>130000</v>
       </c>
       <c r="T3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>352000</v>
       </c>
       <c r="U3" s="5">
         <f t="shared" si="0"/>
@@ -58841,11 +58906,11 @@
       </c>
       <c r="X3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="Y3" s="5">
         <f>SUM(Y12,Y14,Y16,Y18,Y20,Y22)</f>
-        <v>0</v>
+        <v>154000</v>
       </c>
       <c r="Z3" s="5">
         <f t="shared" si="0"/>
@@ -58904,6 +58969,21 @@
         <f>170000+80000</f>
         <v>250000</v>
       </c>
+      <c r="N4" s="112">
+        <v>180000</v>
+      </c>
+      <c r="O4" s="112">
+        <f>560000+80000+160000+90000</f>
+        <v>890000</v>
+      </c>
+      <c r="Q4" s="112">
+        <f>120000+80000</f>
+        <v>200000</v>
+      </c>
+      <c r="W4" s="112">
+        <f>120000+80000</f>
+        <v>200000</v>
+      </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25">
       <c r="A5" s="47" t="s">
@@ -58926,6 +59006,20 @@
       <c r="L5" s="6">
         <v>160000</v>
       </c>
+      <c r="M5" s="6">
+        <f>160000+160000+120000</f>
+        <v>440000</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>120000+160000+80000</f>
+        <v>360000</v>
+      </c>
+      <c r="S5" s="6">
+        <v>150000</v>
+      </c>
+      <c r="T5" s="6">
+        <v>160000</v>
+      </c>
     </row>
     <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25">
       <c r="A6" s="48" t="s">
@@ -58964,7 +59058,7 @@
         <v>203000</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" ref="J6" si="2">J3+J4+J5</f>
+        <f>J3+J4+J5</f>
         <v>686700</v>
       </c>
       <c r="K6" s="7">
@@ -58977,35 +59071,35 @@
       </c>
       <c r="M6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="O6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>920000</v>
       </c>
       <c r="P6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>484000</v>
       </c>
       <c r="Q6" s="7">
         <f>Q3+Q4+Q5</f>
-        <v>0</v>
+        <v>677000</v>
       </c>
       <c r="R6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>81000</v>
       </c>
       <c r="S6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>280000</v>
       </c>
       <c r="T6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>512000</v>
       </c>
       <c r="U6" s="7">
         <f t="shared" si="1"/>
@@ -59017,15 +59111,15 @@
       </c>
       <c r="W6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="X6" s="7">
         <f>X3+X4+X5</f>
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="Y6" s="7">
         <f>Y3+Y4+Y5</f>
-        <v>0</v>
+        <v>154000</v>
       </c>
       <c r="Z6" s="7">
         <f t="shared" si="1"/>
@@ -59052,7 +59146,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="7">
-        <f t="shared" ref="AF6" si="3">AF3+AF4+AF5</f>
+        <f>AF3+AF4+AF5</f>
         <v>0</v>
       </c>
     </row>
@@ -59069,23 +59163,23 @@
         <v>0</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" ref="D7:AE7" si="4">D6+D8</f>
-        <v>988400</v>
+        <f t="shared" ref="D7:AE7" si="2">D6+D8</f>
+        <v>908400</v>
       </c>
       <c r="E7" s="8">
         <f>E6+E8</f>
         <v>368000</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>129000</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="4"/>
+        <f>H6+H8</f>
         <v>88000</v>
       </c>
       <c r="I7" s="148">
@@ -59097,91 +59191,91 @@
         <v>454700</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ref="K7" si="5">K6+K8</f>
+        <f>K6+K8</f>
         <v>341000</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>570000</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>228000</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>88000</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>536000</v>
       </c>
       <c r="P7" s="8">
         <f>P6+P8</f>
-        <v>0</v>
+        <v>272000</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>421000</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>69000</v>
       </c>
       <c r="S7" s="8">
         <f>S6+S8</f>
-        <v>0</v>
+        <v>130000</v>
       </c>
       <c r="T7" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>272000</v>
       </c>
       <c r="U7" s="8">
         <f>U6+U8</f>
         <v>0</v>
       </c>
       <c r="V7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>108000</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" si="2"/>
+        <v>428000</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="2"/>
+        <v>142000</v>
+      </c>
+      <c r="Z7" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X7" s="8">
-        <f t="shared" si="4"/>
+      <c r="AA7" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="8">
-        <f t="shared" si="4"/>
+      <c r="AB7" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="8">
-        <f t="shared" si="4"/>
+      <c r="AC7" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="8">
-        <f t="shared" si="4"/>
+      <c r="AD7" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="8">
-        <f t="shared" si="4"/>
+      <c r="AE7" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AF7" s="8">
-        <f t="shared" ref="AF7" si="6">AF6+AF8</f>
+        <f>AF6+AF8</f>
         <v>0</v>
       </c>
     </row>
@@ -59190,27 +59284,27 @@
         <v>195</v>
       </c>
       <c r="B8" s="18">
-        <f t="shared" ref="B8:F8" si="7">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
+        <f t="shared" ref="B8:G8" si="3">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
         <v>0</v>
       </c>
       <c r="C8" s="18">
-        <f>SUM(C13,C15,C17,C19,C21,C23,C23)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8" s="18">
         <f>SUM(D13,D15,D17,D19,D21,D23,D23)</f>
-        <v>-824000</v>
+        <v>-904000</v>
       </c>
       <c r="E8" s="18">
-        <f>SUM(E13,E15,E17,E19,E21,E23,E23)</f>
+        <f t="shared" si="3"/>
         <v>-292000</v>
       </c>
       <c r="F8" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f>SUM(G13,G15,G17,G19,G21,G23,G23)</f>
+        <f t="shared" si="3"/>
         <v>-12000</v>
       </c>
       <c r="H8" s="18">
@@ -59218,52 +59312,52 @@
         <v>-152000</v>
       </c>
       <c r="I8" s="149">
-        <f t="shared" ref="I8:AE8" si="8">SUM(I13,I15,I17,I19,I21,I11,I23,I25)</f>
+        <f t="shared" ref="I8:AE8" si="4">SUM(I13,I15,I17,I19,I21,I11,I23,I25)</f>
         <v>-50000</v>
       </c>
       <c r="J8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-232000</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-58000</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-544000</v>
       </c>
       <c r="M8" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-212000</v>
       </c>
       <c r="N8" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-92000</v>
       </c>
       <c r="O8" s="18">
         <f>SUM(O13,O15,O17,O19,O21,O11,O23,O25)</f>
-        <v>0</v>
+        <v>-384000</v>
       </c>
       <c r="P8" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-212000</v>
       </c>
       <c r="Q8" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-256000</v>
       </c>
       <c r="R8" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-12000</v>
       </c>
       <c r="S8" s="18">
         <f>SUM(S13,S15,S17,S19,S21,S11,S23,S25)</f>
-        <v>0</v>
+        <v>-150000</v>
       </c>
       <c r="T8" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-240000</v>
       </c>
       <c r="U8" s="18">
         <f>SUM(U13,U15,U17,U19,U21,U11,U23,U25)</f>
@@ -59275,18 +59369,18 @@
       </c>
       <c r="W8" s="18">
         <f>SUM(W13,W15,W17,W19,W21,W11,W23,W25)</f>
-        <v>0</v>
+        <v>-92000</v>
       </c>
       <c r="X8" s="18">
         <f>SUM(X13,X15,X17,X19,X21,X11,X23,X25)</f>
-        <v>0</v>
+        <v>-372000</v>
       </c>
       <c r="Y8" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-12000</v>
       </c>
       <c r="Z8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA8" s="18">
@@ -59298,19 +59392,19 @@
         <v>0</v>
       </c>
       <c r="AC8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE8" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF8" s="18">
-        <f t="shared" ref="AF8" si="9">SUM(AF13,AF15,AF17,AF19,AF21,AF11,AF23,AF25)</f>
+        <f>SUM(AF13,AF15,AF17,AF19,AF21,AF11,AF23,AF25)</f>
         <v>0</v>
       </c>
     </row>
@@ -59367,7 +59461,41 @@
       <c r="L13" s="11">
         <v>-80000</v>
       </c>
-      <c r="AA13" s="10"/>
+      <c r="M13" s="11">
+        <v>-80000</v>
+      </c>
+      <c r="N13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="O13" s="11">
+        <f>-40000*8</f>
+        <v>-320000</v>
+      </c>
+      <c r="P13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>-40000</v>
+      </c>
+      <c r="R13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="S13" s="11">
+        <v>-150000</v>
+      </c>
+      <c r="T13" s="11">
+        <v>-80000</v>
+      </c>
+      <c r="W13" s="11">
+        <v>-40000</v>
+      </c>
+      <c r="X13" s="11">
+        <f>-40000-40000-40000</f>
+        <v>-120000</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25">
       <c r="A14" s="56" t="s">
@@ -59392,6 +59520,30 @@
       <c r="L14" s="12">
         <v>704000</v>
       </c>
+      <c r="O14" s="12">
+        <v>30000</v>
+      </c>
+      <c r="P14" s="12">
+        <v>132000</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>117000</v>
+      </c>
+      <c r="R14" s="12">
+        <v>81000</v>
+      </c>
+      <c r="S14" s="12">
+        <v>130000</v>
+      </c>
+      <c r="T14" s="12">
+        <v>352000</v>
+      </c>
+      <c r="X14" s="12">
+        <v>800000</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>93500</v>
+      </c>
       <c r="AA14" s="72"/>
     </row>
     <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25">
@@ -59417,6 +59569,30 @@
       </c>
       <c r="L15" s="10">
         <v>-240000</v>
+      </c>
+      <c r="M15" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="N15" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="P15" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="T15" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="W15" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="X15" s="10">
+        <v>-120000</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25">
@@ -59431,6 +59607,12 @@
       <c r="J16" s="12">
         <v>275000</v>
       </c>
+      <c r="P16" s="12">
+        <v>88000</v>
+      </c>
+      <c r="Y16" s="72">
+        <v>60500</v>
+      </c>
       <c r="Z16" s="72"/>
     </row>
     <row r="17" spans="1:36" s="10" customFormat="1" ht="17.25">
@@ -59456,6 +59638,27 @@
       <c r="L17" s="10">
         <v>-80000</v>
       </c>
+      <c r="M17" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="P17" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="T17" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="W17" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="X17" s="10">
+        <v>-120000</v>
+      </c>
     </row>
     <row r="18" spans="1:36" s="12" customFormat="1" ht="17.25">
       <c r="A18" s="56" t="s">
@@ -59468,6 +59671,9 @@
       <c r="J18" s="12">
         <v>176000</v>
       </c>
+      <c r="P18" s="12">
+        <v>88000</v>
+      </c>
     </row>
     <row r="19" spans="1:36" s="10" customFormat="1" ht="17.25">
       <c r="A19" s="54" t="s">
@@ -59488,6 +59694,22 @@
         <f>-12000-12000</f>
         <v>-24000</v>
       </c>
+      <c r="M19" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="P19" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="Q19" s="10">
+        <f>-12000-12000-12000</f>
+        <v>-36000</v>
+      </c>
+      <c r="X19" s="10">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="20" spans="1:36" s="12" customFormat="1" ht="17.25">
       <c r="A20" s="56" t="s">
@@ -59497,6 +59719,9 @@
       <c r="J20" s="12">
         <v>62700</v>
       </c>
+      <c r="P20" s="12">
+        <v>88000</v>
+      </c>
     </row>
     <row r="21" spans="1:36" s="10" customFormat="1" ht="17.25">
       <c r="A21" s="54" t="s">
@@ -59514,22 +59739,35 @@
         <f>-80000-40000</f>
         <v>-120000</v>
       </c>
+      <c r="P21" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="Q21" s="10">
+        <f>-40000-40000-20000</f>
+        <v>-100000</v>
+      </c>
     </row>
     <row r="22" spans="1:36" s="12" customFormat="1" ht="17.25">
       <c r="A22" s="56" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="72"/>
+      <c r="P22" s="12">
+        <v>88000</v>
+      </c>
     </row>
     <row r="23" spans="1:36" s="10" customFormat="1" ht="17.25">
       <c r="A23" s="54" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="10">
-        <f>-160000-40000</f>
-        <v>-200000</v>
+        <f>-160000-40000-40000</f>
+        <v>-240000</v>
       </c>
       <c r="I23" s="71"/>
+      <c r="P23" s="10">
+        <v>-40000</v>
+      </c>
     </row>
     <row r="24" spans="1:36" s="9" customFormat="1" ht="17.25">
       <c r="A24" s="53"/>
@@ -59556,24 +59794,32 @@
       </c>
       <c r="G26" s="188"/>
       <c r="H26" s="192" t="s">
-        <v>5659</v>
+        <v>5667</v>
       </c>
       <c r="I26" s="192"/>
       <c r="J26" s="192"/>
       <c r="K26" s="192" t="s">
-        <v>5665</v>
+        <v>5664</v>
       </c>
       <c r="L26" s="188"/>
       <c r="M26" s="188"/>
       <c r="N26" s="188"/>
       <c r="O26" s="188"/>
-      <c r="P26" s="188"/>
-      <c r="Q26" s="188"/>
+      <c r="P26" s="188" t="s">
+        <v>5665</v>
+      </c>
+      <c r="Q26" s="188" t="s">
+        <v>5666</v>
+      </c>
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
       <c r="T26" s="188"/>
-      <c r="U26" s="188"/>
-      <c r="V26" s="188"/>
+      <c r="U26" s="200" t="s">
+        <v>299</v>
+      </c>
+      <c r="V26" s="200" t="s">
+        <v>299</v>
+      </c>
       <c r="W26" s="188"/>
       <c r="X26" s="188"/>
       <c r="Y26" s="188"/>
@@ -59635,7 +59881,7 @@
       </c>
       <c r="B32" s="78">
         <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
-        <v>2985000</v>
+        <v>5565000</v>
       </c>
       <c r="C32" s="13"/>
       <c r="I32" s="151"/>
@@ -59646,11 +59892,10 @@
         <v>339</v>
       </c>
       <c r="W32" s="1"/>
-      <c r="Y32" s="93"/>
+      <c r="Y32" s="93" t="s">
+        <v>5671</v>
+      </c>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="93" t="s">
-        <v>5570</v>
-      </c>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
@@ -59661,7 +59906,7 @@
       </c>
       <c r="B33" s="70">
         <f>B34-B31</f>
-        <v>2271100</v>
+        <v>4419100</v>
       </c>
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
@@ -59689,11 +59934,11 @@
       </c>
       <c r="W33" s="108"/>
       <c r="X33" s="108"/>
-      <c r="Y33" s="93"/>
+      <c r="Y33" s="93">
+        <v>30000</v>
+      </c>
       <c r="Z33" s="108"/>
-      <c r="AA33" s="93">
-        <v>30000</v>
-      </c>
+      <c r="AA33" s="108"/>
       <c r="AB33" s="108"/>
       <c r="AC33" s="108"/>
       <c r="AD33" s="108"/>
@@ -59705,19 +59950,24 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B3:AF3)</f>
-        <v>2271100</v>
+        <v>4419100</v>
       </c>
       <c r="C34" s="15">
         <f>B34*0.1</f>
-        <v>227110</v>
+        <v>441910</v>
       </c>
       <c r="I34" s="151"/>
-      <c r="U34" s="163"/>
-      <c r="V34" s="1" t="s">
+      <c r="U34" s="163" t="s">
+        <v>5673</v>
+      </c>
+      <c r="V34" s="108" t="s">
         <v>340</v>
       </c>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
+      <c r="Y34" s="93" t="s">
+        <v>5672</v>
+      </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -59730,11 +59980,11 @@
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>5256100</v>
+        <v>9984100</v>
       </c>
       <c r="C35" s="15">
         <f>B35*0.1</f>
-        <v>525610</v>
+        <v>998410</v>
       </c>
       <c r="D35" s="15"/>
       <c r="I35" s="151"/>
@@ -59755,7 +60005,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>3092100</v>
+        <v>5706100</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -59777,7 +60027,7 @@
       </c>
       <c r="B37" s="44">
         <f>SUM(B8:AF8)</f>
-        <v>-2164000</v>
+        <v>-4278000</v>
       </c>
       <c r="C37" s="9"/>
       <c r="E37" s="9"/>
@@ -59788,7 +60038,6 @@
         <v>14990</v>
       </c>
       <c r="O37" s="193"/>
-      <c r="Y37" s="9"/>
       <c r="AE37" s="9"/>
     </row>
     <row r="38" spans="1:31" ht="18" thickBot="1">
@@ -59812,7 +60061,6 @@
       <c r="S38" s="1">
         <v>23</v>
       </c>
-      <c r="Y38" s="9"/>
       <c r="AE38" s="9"/>
     </row>
     <row r="39" spans="1:31" ht="18" thickBot="1">
@@ -59820,24 +60068,21 @@
         <v>193</v>
       </c>
       <c r="B39" s="89">
-        <f>(110000+SUM(B5:AF5)+SUM(B8:AF8))+300000+300000+300000+240000+50000</f>
-        <v>76000</v>
+        <f>(110000+SUM(B5:AF5)+SUM(B8:AF8))+300000+300000+300000+240000+50000+300000+100000+50000+300000+180000+300000-14000</f>
+        <v>288000</v>
       </c>
       <c r="C39" s="113"/>
       <c r="D39" s="114" t="s">
         <v>315</v>
       </c>
-      <c r="E39" s="9">
-        <f>B39+160000</f>
-        <v>236000</v>
-      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="1">
         <f>10000*Q38*R38*S38</f>
         <v>6900000</v>
       </c>
       <c r="R39" s="9"/>
-      <c r="Y39" s="9"/>
       <c r="AE39" s="9"/>
     </row>
     <row r="40" spans="1:31" ht="18" thickBot="1">
@@ -59845,8 +60090,8 @@
         <v>197</v>
       </c>
       <c r="B40" s="87">
-        <f>SUM(B4:AF4)-135460-300000-50000</f>
-        <v>1559540</v>
+        <f>SUM(B4:AF4)-135460-300000-50000-300000-100000-50000-300000-166000-300000</f>
+        <v>1813540</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="115">
@@ -59856,7 +60101,6 @@
       <c r="F40" s="9"/>
       <c r="P40" s="9"/>
       <c r="R40" s="9"/>
-      <c r="Y40" s="9"/>
       <c r="AE40" s="9"/>
     </row>
     <row r="41" spans="1:31">
@@ -59866,7 +60110,6 @@
       <c r="G41" s="9"/>
       <c r="P41" s="9"/>
       <c r="R41" s="9"/>
-      <c r="Y41" s="9"/>
       <c r="AE41" s="9"/>
     </row>
     <row r="42" spans="1:31">
@@ -59875,11 +60118,10 @@
       </c>
       <c r="B42" s="81">
         <f>SUM(B7:AF7)</f>
-        <v>3092100</v>
+        <v>5706100</v>
       </c>
       <c r="P42" s="9"/>
       <c r="R42" s="9"/>
-      <c r="Y42" s="9"/>
       <c r="AE42" s="9"/>
     </row>
     <row r="43" spans="1:31" ht="17.25" thickBot="1">
@@ -59888,11 +60130,10 @@
       </c>
       <c r="B43" s="85">
         <f>B33+B39+B40</f>
-        <v>3906640</v>
+        <v>6520640</v>
       </c>
       <c r="P43" s="9"/>
       <c r="R43" s="9"/>
-      <c r="Y43" s="9"/>
       <c r="AE43" s="9"/>
     </row>
     <row r="44" spans="1:31" ht="17.25" thickBot="1">
@@ -59901,7 +60142,7 @@
       </c>
       <c r="B44" s="170">
         <f>SUM(L58:L62)</f>
-        <v>413450</v>
+        <v>771690</v>
       </c>
       <c r="P44" s="9"/>
       <c r="Y44" s="9"/>
@@ -59912,7 +60153,7 @@
         <v>5536</v>
       </c>
       <c r="B45" s="9">
-        <v>800000</v>
+        <v>659210</v>
       </c>
       <c r="H45" s="155"/>
       <c r="P45" s="9"/>
@@ -59936,11 +60177,11 @@
       </c>
       <c r="B47" s="110">
         <f>SUM(B45:B46)</f>
-        <v>2300000</v>
+        <v>2159210</v>
       </c>
       <c r="C47" s="9">
         <f>B45+B46</f>
-        <v>2300000</v>
+        <v>2159210</v>
       </c>
       <c r="E47" s="155"/>
       <c r="Y47" s="9"/>
@@ -59952,25 +60193,25 @@
       </c>
       <c r="F48" s="9">
         <f>B34</f>
-        <v>2271100</v>
+        <v>4419100</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>5541</v>
       </c>
       <c r="H48" s="15">
         <f>B34-(B34*0.005)</f>
-        <v>2259744.5</v>
+        <v>4397004.5</v>
       </c>
       <c r="Y48" s="9"/>
       <c r="AE48" s="9"/>
     </row>
     <row r="49" spans="4:31">
       <c r="E49" s="155" t="s">
-        <v>5540</v>
+        <v>5668</v>
       </c>
       <c r="F49" s="9">
         <f>B47</f>
-        <v>2300000</v>
+        <v>2159210</v>
       </c>
       <c r="Y49" s="9"/>
       <c r="AE49" s="9"/>
@@ -59981,7 +60222,7 @@
       </c>
       <c r="F50" s="9">
         <f>B35</f>
-        <v>5256100</v>
+        <v>9984100</v>
       </c>
       <c r="Y50" s="9"/>
       <c r="AE50" s="9"/>
@@ -59992,7 +60233,7 @@
       </c>
       <c r="F51" s="9">
         <f>C35</f>
-        <v>525610</v>
+        <v>998410</v>
       </c>
       <c r="Y51" s="9"/>
       <c r="AE51" s="9"/>
@@ -60003,14 +60244,14 @@
       </c>
       <c r="F52" s="9">
         <f>F48-F49-F51</f>
-        <v>-554510</v>
+        <v>1261480</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>5541</v>
       </c>
       <c r="H52" s="9">
         <f>H48-F49-F51</f>
-        <v>-565865.5</v>
+        <v>1239384.5</v>
       </c>
       <c r="Y52" s="9"/>
       <c r="AE52" s="9"/>
@@ -60085,11 +60326,11 @@
       </c>
       <c r="G59" s="103">
         <f>SUM(M6:S6)</f>
-        <v>0</v>
+        <v>3062000</v>
       </c>
       <c r="H59" s="107">
         <f>SUM(T6:Z6)</f>
-        <v>0</v>
+        <v>1666000</v>
       </c>
       <c r="I59" s="158">
         <f>SUM(AA6:AF6)</f>
@@ -60108,7 +60349,7 @@
     <row r="60" spans="4:31" ht="18" thickTop="1" thickBot="1">
       <c r="E60" s="99">
         <f>SUM(B7:E7)</f>
-        <v>1356400</v>
+        <v>1276400</v>
       </c>
       <c r="F60" s="101">
         <f>SUM(F7:L7)</f>
@@ -60116,19 +60357,23 @@
       </c>
       <c r="G60" s="103">
         <f>SUM(M7:S7)</f>
-        <v>0</v>
+        <v>1744000</v>
       </c>
       <c r="H60" s="107">
         <f>SUM(T7:Z7)</f>
-        <v>0</v>
+        <v>950000</v>
       </c>
       <c r="I60" s="158">
         <f>SUM(AA7:AF7)</f>
         <v>0</v>
       </c>
       <c r="J60" s="94"/>
-      <c r="K60" s="166"/>
-      <c r="L60" s="165"/>
+      <c r="K60" s="166" t="s">
+        <v>5670</v>
+      </c>
+      <c r="L60" s="165">
+        <v>358240</v>
+      </c>
       <c r="M60" s="95"/>
     </row>
     <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1">
@@ -60144,7 +60389,7 @@
       </c>
       <c r="I62" s="159">
         <f>SUM(E59:I59)</f>
-        <v>5256100</v>
+        <v>9984100</v>
       </c>
       <c r="J62" s="94"/>
       <c r="K62" s="165"/>
@@ -60158,7 +60403,7 @@
       </c>
       <c r="I63" s="159">
         <f>AVERAGE(E59:I59)</f>
-        <v>1051220</v>
+        <v>1996820</v>
       </c>
       <c r="J63" s="94"/>
       <c r="K63" s="172" t="s">
@@ -60166,7 +60411,7 @@
       </c>
       <c r="L63" s="170">
         <f>SUM(L58:L62)</f>
-        <v>413450</v>
+        <v>771690</v>
       </c>
       <c r="M63" s="95"/>
     </row>
@@ -60177,26 +60422,29 @@
       </c>
       <c r="I64" s="159">
         <f>SUM(E60:I60)</f>
-        <v>3092100</v>
+        <v>5706100</v>
       </c>
       <c r="K64" s="97"/>
       <c r="L64" s="97"/>
     </row>
-    <row r="65" spans="7:9" ht="18" thickTop="1" thickBot="1">
+    <row r="65" spans="5:9" ht="18" thickTop="1" thickBot="1">
       <c r="G65" s="94"/>
       <c r="H65" s="98" t="s">
         <v>375</v>
       </c>
       <c r="I65" s="159">
         <f>AVERAGE(E60:I60)</f>
-        <v>618420</v>
-      </c>
-    </row>
-    <row r="66" spans="7:9" ht="17.25" thickTop="1">
+        <v>1141220</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9" ht="17.25" thickTop="1">
       <c r="H66" s="97"/>
       <c r="I66" s="160"/>
     </row>
-    <row r="76" spans="7:9">
+    <row r="76" spans="5:9">
+      <c r="E76" s="1" t="s">
+        <v>5669</v>
+      </c>
       <c r="H76" s="1" t="s">
         <v>5561</v>
       </c>
@@ -60204,7 +60452,7 @@
         <v>23690</v>
       </c>
     </row>
-    <row r="77" spans="7:9">
+    <row r="77" spans="5:9">
       <c r="H77" s="1" t="s">
         <v>5560</v>
       </c>
@@ -60212,7 +60460,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="78" spans="7:9">
+    <row r="78" spans="5:9">
       <c r="H78" s="1" t="s">
         <v>5559</v>
       </c>
@@ -60220,7 +60468,7 @@
         <v>20990</v>
       </c>
     </row>
-    <row r="79" spans="7:9">
+    <row r="79" spans="5:9">
       <c r="H79" s="1" t="s">
         <v>5558</v>
       </c>
@@ -60228,7 +60476,7 @@
         <v>9890</v>
       </c>
     </row>
-    <row r="80" spans="7:9">
+    <row r="80" spans="5:9">
       <c r="H80" s="1" t="s">
         <v>5562</v>
       </c>
@@ -60259,11 +60507,11 @@
     <row r="83" spans="1:9">
       <c r="A83" s="176">
         <f>B36-B47-C35-L63</f>
-        <v>-146960</v>
+        <v>1776790</v>
       </c>
       <c r="B83" s="9">
         <f>A83+C35</f>
-        <v>378650</v>
+        <v>2775200</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>5564</v>
@@ -60500,6 +60748,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -60511,7 +60760,7 @@
   <dimension ref="B2:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -60564,7 +60813,7 @@
         <v>12226000</v>
       </c>
       <c r="E3" s="201">
-        <f>C3+D3</f>
+        <f t="shared" ref="E3:E9" si="0">C3+D3</f>
         <v>21312700</v>
       </c>
       <c r="F3" s="201">
@@ -60596,7 +60845,7 @@
         <v>9528000</v>
       </c>
       <c r="E4" s="201">
-        <f t="shared" ref="E4:E8" si="0">C4+D4</f>
+        <f t="shared" si="0"/>
         <v>16195130</v>
       </c>
       <c r="F4" s="201">
@@ -60720,31 +60969,31 @@
       </c>
       <c r="C8" s="201">
         <f>'12월 매출'!B34</f>
-        <v>2271100</v>
+        <v>4419100</v>
       </c>
       <c r="D8" s="201">
         <f>'12월 매출'!B32</f>
-        <v>2985000</v>
+        <v>5565000</v>
       </c>
       <c r="E8" s="201">
         <f t="shared" si="0"/>
-        <v>5256100</v>
+        <v>9984100</v>
       </c>
       <c r="F8" s="201">
         <f>-'12월 매출'!B47</f>
-        <v>-2300000</v>
+        <v>-2159210</v>
       </c>
       <c r="G8" s="201">
         <f>'12월 매출'!B37</f>
-        <v>-2164000</v>
+        <v>-4278000</v>
       </c>
       <c r="H8" s="201">
         <f>-'12월 매출'!B44</f>
-        <v>-413450</v>
+        <v>-771690</v>
       </c>
       <c r="I8" s="201">
         <f t="shared" si="1"/>
-        <v>378650</v>
+        <v>2775200</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -60753,31 +61002,31 @@
       </c>
       <c r="C9" s="201">
         <f>SUM(C3:C8)</f>
-        <v>34658780</v>
+        <v>36806780</v>
       </c>
       <c r="D9" s="201">
         <f>SUM(D3:D8)</f>
-        <v>51391500</v>
+        <v>53971500</v>
       </c>
       <c r="E9" s="201">
-        <f>C9+D9</f>
-        <v>86050280</v>
+        <f t="shared" si="0"/>
+        <v>90778280</v>
       </c>
       <c r="F9" s="201">
         <f>SUM(F3:F8)</f>
-        <v>-13117460</v>
+        <v>-12976670</v>
       </c>
       <c r="G9" s="201">
         <f>SUM(G3:G8)</f>
-        <v>-36993000</v>
+        <v>-39107000</v>
       </c>
       <c r="H9" s="201">
         <f>SUM(H3:H8)</f>
-        <v>-3969160</v>
+        <v>-4327400</v>
       </c>
       <c r="I9" s="201">
         <f t="shared" si="1"/>
-        <v>31970660</v>
+        <v>34367210</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -60786,7 +61035,7 @@
       </c>
       <c r="C13" s="201">
         <f>C9*1.5%</f>
-        <v>519881.69999999995</v>
+        <v>552101.69999999995</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -60795,7 +61044,7 @@
       </c>
       <c r="C14" s="201">
         <f>C9*3.3%</f>
-        <v>1143739.74</v>
+        <v>1214623.74</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -60804,12 +61053,12 @@
       </c>
       <c r="C15" s="201">
         <f>C9*10%</f>
-        <v>3465878</v>
+        <v>3680678</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" s="201" t="s">
-        <v>5661</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="77" spans="6:6">
@@ -60969,7 +61218,7 @@
       </c>
       <c r="B12" s="209">
         <f>'12월 매출'!B39</f>
-        <v>76000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -61018,7 +61267,7 @@
       </c>
       <c r="B18" s="209">
         <f>SUM(B12:B17)</f>
-        <v>1666826</v>
+        <v>1878826</v>
       </c>
     </row>
     <row r="19" spans="1:2">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,12 @@
     <sheet name="엄마 출금 기록" sheetId="13" r:id="rId15"/>
     <sheet name="아빠 출금 기록" sheetId="14" r:id="rId16"/>
     <sheet name="현욱출금기록" sheetId="22" r:id="rId17"/>
-    <sheet name="종합 출금 기록" sheetId="15" r:id="rId18"/>
+    <sheet name="종합 출금 기록(22년)" sheetId="15" r:id="rId18"/>
     <sheet name="IP추적" sheetId="12" r:id="rId19"/>
     <sheet name="블록체인(삼성)" sheetId="16" r:id="rId20"/>
     <sheet name="양주가격" sheetId="18" r:id="rId21"/>
     <sheet name="블랙리스트" sheetId="24" r:id="rId22"/>
+    <sheet name="자동이체기록" sheetId="25" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10월 매출'!$A$1:$AF$9</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6271" uniqueCount="5674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6326" uniqueCount="5680">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -17741,6 +17742,25 @@
   </si>
   <si>
     <t>삼촌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 총 카드 매출 수수료 제외안한금액</t>
+  </si>
+  <si>
+    <t>10월달 가게세,관리비</t>
+  </si>
+  <si>
+    <t>카드+현금 총매출</t>
+  </si>
+  <si>
+    <t>삼촌 10%</t>
+  </si>
+  <si>
+    <t>빼고 정산 받을 금액</t>
+  </si>
+  <si>
+    <t>8만 미입금</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -19197,7 +19217,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108857" y="10926536"/>
+          <a:off x="108857" y="10912929"/>
           <a:ext cx="3292929" cy="7081704"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19733,8 +19753,8 @@
   </sheetPr>
   <dimension ref="A1:AJ83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -22900,10 +22920,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -22979,17 +23002,17 @@
     </row>
     <row r="3" spans="1:20" ht="17.25" thickTop="1">
       <c r="A3" s="130">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="B3" s="130" t="s">
         <v>342</v>
       </c>
       <c r="C3" s="132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="130">
         <f>A3*C3</f>
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="F3" s="130">
         <v>30000</v>
@@ -23027,17 +23050,17 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="82">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>347</v>
       </c>
       <c r="C4" s="133">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D4" s="82">
         <f t="shared" ref="D4:D13" si="0">A4*C4</f>
-        <v>0</v>
+        <v>92000</v>
       </c>
       <c r="F4" s="82">
         <v>10000</v>
@@ -23076,17 +23099,17 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="83">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="B5" s="83" t="s">
         <v>348</v>
       </c>
       <c r="C5" s="133">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="83">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>64000</v>
       </c>
       <c r="F5" s="83">
         <v>5000</v>
@@ -23272,11 +23295,11 @@
         <v>349</v>
       </c>
       <c r="C10" s="133">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" s="128">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="F10" s="128">
         <v>2000</v>
@@ -23350,19 +23373,18 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="125">
-        <f>A18</f>
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="B12" s="125" t="s">
         <v>351</v>
       </c>
       <c r="C12" s="125">
-        <f>C3</f>
+        <f>B17</f>
         <v>2</v>
       </c>
       <c r="D12" s="125">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="F12" s="125">
         <f>F18</f>
@@ -23458,7 +23480,7 @@
       </c>
       <c r="D15" s="129">
         <f>SUM(D3:D13)</f>
-        <v>320000</v>
+        <v>342000</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -23489,7 +23511,7 @@
       </c>
       <c r="D16" s="129">
         <f>D15*1.1</f>
-        <v>352000</v>
+        <v>376200.00000000006</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="119" t="s">
@@ -23573,7 +23595,7 @@
       </c>
       <c r="D19" s="122">
         <f>B17*80000*C3</f>
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -23608,7 +23630,7 @@
       </c>
       <c r="D20" s="122">
         <f>D19*1.1</f>
-        <v>352000</v>
+        <v>176000</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
@@ -23924,11 +23946,11 @@
       </c>
       <c r="H44" s="132">
         <f>C3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="130">
         <f>F44*H44</f>
-        <v>60000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -23948,11 +23970,11 @@
       </c>
       <c r="H45" s="133">
         <f>C4</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I45" s="82">
         <f t="shared" ref="I45:I52" si="4">F45*H45</f>
-        <v>0</v>
+        <v>29658.5</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -23965,11 +23987,11 @@
       </c>
       <c r="H46" s="133">
         <f>C5</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="83">
         <f t="shared" si="4"/>
-        <v>13695</v>
+        <v>18260</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -24013,11 +24035,11 @@
       </c>
       <c r="H49" s="133">
         <f>C10</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I49" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="50" spans="6:9">
@@ -24083,7 +24105,7 @@
       </c>
       <c r="I54" s="129">
         <f>SUM(I44:I52)</f>
-        <v>113695</v>
+        <v>133918.5</v>
       </c>
     </row>
     <row r="55" spans="6:9">
@@ -24096,7 +24118,7 @@
       </c>
       <c r="I55" s="129">
         <f>I54*1.1</f>
-        <v>125064.50000000001</v>
+        <v>147310.35</v>
       </c>
     </row>
     <row r="56" spans="6:9">
@@ -24884,7 +24906,7 @@
   <dimension ref="D3:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -25148,8 +25170,8 @@
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -50499,8 +50521,8 @@
   </sheetPr>
   <dimension ref="A1:AI125"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
@@ -52530,6 +52552,305 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B2:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="8" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="45" customHeight="1">
+      <c r="B2" s="184" t="s">
+        <v>5458</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+    </row>
+    <row r="3" spans="2:10" ht="45" customHeight="1">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+    </row>
+    <row r="4" spans="2:10" ht="45" customHeight="1">
+      <c r="B4" s="178" t="s">
+        <v>5409</v>
+      </c>
+      <c r="C4" s="178" t="s">
+        <v>5410</v>
+      </c>
+      <c r="D4" s="178" t="s">
+        <v>5411</v>
+      </c>
+      <c r="E4" s="178" t="s">
+        <v>5412</v>
+      </c>
+      <c r="F4" s="178" t="s">
+        <v>5413</v>
+      </c>
+      <c r="G4" s="178" t="s">
+        <v>5414</v>
+      </c>
+      <c r="H4" s="178" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="45" customHeight="1">
+      <c r="B5" s="177" t="s">
+        <v>5442</v>
+      </c>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177" t="s">
+        <v>5585</v>
+      </c>
+      <c r="F5" s="177" t="s">
+        <v>5461</v>
+      </c>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+    </row>
+    <row r="6" spans="2:10" ht="45" customHeight="1">
+      <c r="B6" s="173" t="s">
+        <v>5443</v>
+      </c>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173">
+        <f>125087+245287</f>
+        <v>370374</v>
+      </c>
+      <c r="F6" s="173">
+        <f>344640+104354</f>
+        <v>448994</v>
+      </c>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+    </row>
+    <row r="7" spans="2:10" ht="45" customHeight="1">
+      <c r="B7" s="178" t="s">
+        <v>5416</v>
+      </c>
+      <c r="C7" s="178" t="s">
+        <v>5417</v>
+      </c>
+      <c r="D7" s="178" t="s">
+        <v>5418</v>
+      </c>
+      <c r="E7" s="178" t="s">
+        <v>5419</v>
+      </c>
+      <c r="F7" s="178" t="s">
+        <v>5420</v>
+      </c>
+      <c r="G7" s="178" t="s">
+        <v>5421</v>
+      </c>
+      <c r="H7" s="178" t="s">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="45" customHeight="1">
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177" t="s">
+        <v>5658</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="45" customHeight="1">
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173">
+        <v>335964</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="45" customHeight="1">
+      <c r="B10" s="178" t="s">
+        <v>5423</v>
+      </c>
+      <c r="C10" s="178" t="s">
+        <v>5424</v>
+      </c>
+      <c r="D10" s="178" t="s">
+        <v>5425</v>
+      </c>
+      <c r="E10" s="178" t="s">
+        <v>5426</v>
+      </c>
+      <c r="F10" s="178" t="s">
+        <v>5427</v>
+      </c>
+      <c r="G10" s="178" t="s">
+        <v>5428</v>
+      </c>
+      <c r="H10" s="178" t="s">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="45" customHeight="1">
+      <c r="B11" s="179" t="s">
+        <v>5657</v>
+      </c>
+      <c r="C11" s="177" t="s">
+        <v>5445</v>
+      </c>
+      <c r="D11" s="177"/>
+      <c r="E11" s="181" t="s">
+        <v>5455</v>
+      </c>
+      <c r="F11" s="177"/>
+      <c r="G11" s="179" t="s">
+        <v>5586</v>
+      </c>
+      <c r="H11" s="177"/>
+      <c r="J11">
+        <v>412890</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="45" customHeight="1">
+      <c r="B12" s="173">
+        <f>41800</f>
+        <v>41800</v>
+      </c>
+      <c r="C12" s="173">
+        <v>111269</v>
+      </c>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173" t="s">
+        <v>5443</v>
+      </c>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173" t="s">
+        <v>5443</v>
+      </c>
+      <c r="H12" s="173"/>
+      <c r="J12">
+        <v>1271600</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="45" customHeight="1">
+      <c r="B13" s="178" t="s">
+        <v>5430</v>
+      </c>
+      <c r="C13" s="178" t="s">
+        <v>5431</v>
+      </c>
+      <c r="D13" s="178" t="s">
+        <v>5432</v>
+      </c>
+      <c r="E13" s="178" t="s">
+        <v>5433</v>
+      </c>
+      <c r="F13" s="178" t="s">
+        <v>5434</v>
+      </c>
+      <c r="G13" s="178" t="s">
+        <v>5435</v>
+      </c>
+      <c r="H13" s="178" t="s">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="45" customHeight="1">
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177" t="s">
+        <v>5543</v>
+      </c>
+      <c r="E14" s="177"/>
+      <c r="F14" s="179" t="s">
+        <v>5584</v>
+      </c>
+      <c r="G14" s="181" t="s">
+        <v>5449</v>
+      </c>
+      <c r="H14" s="177"/>
+    </row>
+    <row r="15" spans="2:10" ht="45" customHeight="1">
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173">
+        <v>91146</v>
+      </c>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173">
+        <f>346012+1298</f>
+        <v>347310</v>
+      </c>
+      <c r="G15" s="173" t="s">
+        <v>5443</v>
+      </c>
+      <c r="H15" s="173"/>
+    </row>
+    <row r="16" spans="2:10" ht="45" customHeight="1">
+      <c r="B16" s="178" t="s">
+        <v>5437</v>
+      </c>
+      <c r="C16" s="178" t="s">
+        <v>5438</v>
+      </c>
+      <c r="D16" s="178" t="s">
+        <v>5439</v>
+      </c>
+      <c r="E16" s="178"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="2:8" ht="45" customHeight="1">
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182" t="s">
+        <v>5451</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="45" customHeight="1">
+      <c r="B18" s="173"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="174">
+        <f>SUM(B6:H6,B9:H9,B12:H12,B15:H15,B18:E18)</f>
+        <v>1746857</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -52537,8 +52858,8 @@
   </sheetPr>
   <dimension ref="A1:AI108"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X32" sqref="X32:X33"/>
     </sheetView>
   </sheetViews>
@@ -54585,8 +54906,8 @@
   </sheetPr>
   <dimension ref="A1:AI108"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A44" sqref="A44:B44"/>
     </sheetView>
   </sheetViews>
@@ -56568,8 +56889,8 @@
   <dimension ref="A1:AJ139"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -58695,7 +59016,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -58914,7 +59235,7 @@
       </c>
       <c r="Z3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AA3" s="5">
         <f t="shared" si="0"/>
@@ -58984,6 +59305,31 @@
         <f>120000+80000</f>
         <v>200000</v>
       </c>
+      <c r="Z4" s="112">
+        <v>200000</v>
+      </c>
+      <c r="AA4" s="112">
+        <v>400000</v>
+      </c>
+      <c r="AB4" s="112">
+        <f>160000+30000</f>
+        <v>190000</v>
+      </c>
+      <c r="AC4" s="112">
+        <f>480000+180000</f>
+        <v>660000</v>
+      </c>
+      <c r="AD4" s="112">
+        <f>160000+160000</f>
+        <v>320000</v>
+      </c>
+      <c r="AE4" s="112">
+        <v>30000</v>
+      </c>
+      <c r="AF4" s="112">
+        <f>250000+40000+80000+40000+40000+40000</f>
+        <v>490000</v>
+      </c>
     </row>
     <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25">
       <c r="A5" s="47" t="s">
@@ -59020,6 +59366,18 @@
       <c r="T5" s="6">
         <v>160000</v>
       </c>
+      <c r="Z5" s="6">
+        <f>50000+10000</f>
+        <v>60000</v>
+      </c>
+      <c r="AC5" s="6">
+        <f>100000+80000</f>
+        <v>180000</v>
+      </c>
+      <c r="AD5" s="6">
+        <f>45000+20000</f>
+        <v>65000</v>
+      </c>
     </row>
     <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25">
       <c r="A6" s="48" t="s">
@@ -59123,31 +59481,31 @@
       </c>
       <c r="Z6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>290000</v>
       </c>
       <c r="AA6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="AB6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>190000</v>
       </c>
       <c r="AC6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>840000</v>
       </c>
       <c r="AD6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>385000</v>
       </c>
       <c r="AE6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AF6" s="7">
         <f>AF3+AF4+AF5</f>
-        <v>0</v>
+        <v>490000</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="8" customFormat="1" ht="17.25">
@@ -59252,31 +59610,31 @@
       </c>
       <c r="Z7" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>266000</v>
       </c>
       <c r="AA7" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>148000</v>
       </c>
       <c r="AB7" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="AC7" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>416000</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>203000</v>
       </c>
       <c r="AE7" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AF7" s="8">
         <f>AF6+AF8</f>
-        <v>0</v>
+        <v>466000</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="18" customFormat="1" ht="17.25">
@@ -59381,23 +59739,23 @@
       </c>
       <c r="Z8" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-24000</v>
       </c>
       <c r="AA8" s="18">
         <f>SUM(AA13,AA15,AA17,AA19,AA21,AA11,AA23,AA25)</f>
-        <v>0</v>
+        <v>-252000</v>
       </c>
       <c r="AB8" s="18">
         <f>SUM(AB13,AB15,AB17,AB19,AB21,AB11,AB23,AB25)</f>
-        <v>0</v>
+        <v>-80000</v>
       </c>
       <c r="AC8" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-424000</v>
       </c>
       <c r="AD8" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-182000</v>
       </c>
       <c r="AE8" s="18">
         <f t="shared" si="4"/>
@@ -59405,7 +59763,7 @@
       </c>
       <c r="AF8" s="18">
         <f>SUM(AF13,AF15,AF17,AF19,AF21,AF11,AF23,AF25)</f>
-        <v>0</v>
+        <v>-24000</v>
       </c>
     </row>
     <row r="9" spans="1:35" s="43" customFormat="1" ht="17.25">
@@ -59496,6 +59854,26 @@
       <c r="Y13" s="11">
         <v>-12000</v>
       </c>
+      <c r="Z13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>-80000</v>
+      </c>
+      <c r="AC13" s="11">
+        <f>-12000-12000</f>
+        <v>-24000</v>
+      </c>
+      <c r="AD13" s="11">
+        <f>-80000-80000</f>
+        <v>-160000</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>-12000</v>
+      </c>
     </row>
     <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25">
       <c r="A14" s="56" t="s">
@@ -59544,6 +59922,9 @@
       <c r="Y14" s="12">
         <v>93500</v>
       </c>
+      <c r="Z14" s="12">
+        <v>30000</v>
+      </c>
       <c r="AA14" s="72"/>
     </row>
     <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25">
@@ -59593,6 +59974,22 @@
       </c>
       <c r="X15" s="10">
         <v>-120000</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>-120000</v>
+      </c>
+      <c r="AC15" s="10">
+        <f>-80000-120000</f>
+        <v>-200000</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>-12000</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25">
@@ -59659,6 +60056,16 @@
       <c r="X17" s="10">
         <v>-120000</v>
       </c>
+      <c r="AA17" s="10">
+        <v>-120000</v>
+      </c>
+      <c r="AC17" s="10">
+        <f>-40000-80000</f>
+        <v>-120000</v>
+      </c>
+      <c r="AD17" s="10">
+        <v>-10000</v>
+      </c>
     </row>
     <row r="18" spans="1:36" s="12" customFormat="1" ht="17.25">
       <c r="A18" s="56" t="s">
@@ -59710,6 +60117,9 @@
       <c r="X19" s="10">
         <v>-12000</v>
       </c>
+      <c r="AC19" s="10">
+        <v>-40000</v>
+      </c>
     </row>
     <row r="20" spans="1:36" s="12" customFormat="1" ht="17.25">
       <c r="A20" s="56" t="s">
@@ -59745,6 +60155,9 @@
       <c r="Q21" s="10">
         <f>-40000-40000-20000</f>
         <v>-100000</v>
+      </c>
+      <c r="AC21" s="10">
+        <v>-40000</v>
       </c>
     </row>
     <row r="22" spans="1:36" s="12" customFormat="1" ht="17.25">
@@ -59824,11 +60237,15 @@
       <c r="X26" s="188"/>
       <c r="Y26" s="188"/>
       <c r="Z26" s="196"/>
-      <c r="AA26" s="188"/>
+      <c r="AA26" s="196" t="s">
+        <v>5679</v>
+      </c>
       <c r="AB26" s="188"/>
       <c r="AC26" s="188"/>
       <c r="AD26" s="188"/>
-      <c r="AE26" s="192"/>
+      <c r="AE26" s="200" t="s">
+        <v>299</v>
+      </c>
       <c r="AF26" s="188"/>
       <c r="AG26" s="188"/>
       <c r="AH26" s="188"/>
@@ -59881,7 +60298,7 @@
       </c>
       <c r="B32" s="78">
         <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
-        <v>5565000</v>
+        <v>8160000</v>
       </c>
       <c r="C32" s="13"/>
       <c r="I32" s="151"/>
@@ -59900,13 +60317,13 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+    <row r="33" spans="1:32" s="9" customFormat="1" ht="18" thickBot="1">
       <c r="A33" s="69" t="s">
         <v>247</v>
       </c>
       <c r="B33" s="70">
         <f>B34-B31</f>
-        <v>4419100</v>
+        <v>4449100</v>
       </c>
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
@@ -59943,18 +60360,19 @@
       <c r="AC33" s="108"/>
       <c r="AD33" s="108"/>
       <c r="AE33" s="93"/>
-    </row>
-    <row r="34" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="AF33" s="93"/>
+    </row>
+    <row r="34" spans="1:32" s="9" customFormat="1" ht="18" thickBot="1">
       <c r="A34" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B34" s="14">
         <f>SUM(B3:AF3)</f>
-        <v>4419100</v>
+        <v>4449100</v>
       </c>
       <c r="C34" s="15">
         <f>B34*0.1</f>
-        <v>441910</v>
+        <v>444910</v>
       </c>
       <c r="I34" s="151"/>
       <c r="U34" s="163" t="s">
@@ -59974,17 +60392,17 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+    <row r="35" spans="1:32" s="9" customFormat="1" ht="18" thickBot="1">
       <c r="A35" s="62" t="s">
         <v>232</v>
       </c>
       <c r="B35" s="16">
         <f>SUM(B6:AF6)</f>
-        <v>9984100</v>
+        <v>12609100</v>
       </c>
       <c r="C35" s="15">
         <f>B35*0.1</f>
-        <v>998410</v>
+        <v>1260910</v>
       </c>
       <c r="D35" s="15"/>
       <c r="I35" s="151"/>
@@ -59999,13 +60417,13 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+    <row r="36" spans="1:32" s="9" customFormat="1" ht="18" thickBot="1">
       <c r="A36" s="63" t="s">
         <v>206</v>
       </c>
       <c r="B36" s="17">
         <f>B35+B37</f>
-        <v>5706100</v>
+        <v>7345100</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -60021,13 +60439,13 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:31" ht="18" thickBot="1">
+    <row r="37" spans="1:32" ht="18" thickBot="1">
       <c r="A37" s="64" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="44">
         <f>SUM(B8:AF8)</f>
-        <v>-4278000</v>
+        <v>-5264000</v>
       </c>
       <c r="C37" s="9"/>
       <c r="E37" s="9"/>
@@ -60040,7 +60458,7 @@
       <c r="O37" s="193"/>
       <c r="AE37" s="9"/>
     </row>
-    <row r="38" spans="1:31" ht="18" thickBot="1">
+    <row r="38" spans="1:32" ht="18" thickBot="1">
       <c r="A38" s="65" t="s">
         <v>189</v>
       </c>
@@ -60063,13 +60481,13 @@
       </c>
       <c r="AE38" s="9"/>
     </row>
-    <row r="39" spans="1:31" ht="18" thickBot="1">
+    <row r="39" spans="1:32" ht="18" thickBot="1">
       <c r="A39" s="88" t="s">
         <v>193</v>
       </c>
       <c r="B39" s="89">
-        <f>(110000+SUM(B5:AF5)+SUM(B8:AF8))+300000+300000+300000+240000+50000+300000+100000+50000+300000+180000+300000-14000</f>
-        <v>288000</v>
+        <f>(110000+SUM(B5:AF5)+SUM(B8:AF8))+300000+300000+300000+240000+50000+300000+100000+50000+300000+180000+300000-14000+300000+300000</f>
+        <v>207000</v>
       </c>
       <c r="C39" s="113"/>
       <c r="D39" s="114" t="s">
@@ -60085,13 +60503,13 @@
       <c r="R39" s="9"/>
       <c r="AE39" s="9"/>
     </row>
-    <row r="40" spans="1:31" ht="18" thickBot="1">
+    <row r="40" spans="1:32" ht="18" thickBot="1">
       <c r="A40" s="86" t="s">
         <v>197</v>
       </c>
       <c r="B40" s="87">
         <f>SUM(B4:AF4)-135460-300000-50000-300000-100000-50000-300000-166000-300000</f>
-        <v>1813540</v>
+        <v>4103540</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="115">
@@ -60103,7 +60521,7 @@
       <c r="R40" s="9"/>
       <c r="AE40" s="9"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32">
       <c r="C41" s="114" t="s">
         <v>314</v>
       </c>
@@ -60112,31 +60530,31 @@
       <c r="R41" s="9"/>
       <c r="AE41" s="9"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:32">
       <c r="A42" s="80" t="s">
         <v>230</v>
       </c>
       <c r="B42" s="81">
         <f>SUM(B7:AF7)</f>
-        <v>5706100</v>
+        <v>7345100</v>
       </c>
       <c r="P42" s="9"/>
       <c r="R42" s="9"/>
       <c r="AE42" s="9"/>
     </row>
-    <row r="43" spans="1:31" ht="17.25" thickBot="1">
+    <row r="43" spans="1:32" ht="17.25" thickBot="1">
       <c r="A43" s="84" t="s">
         <v>231</v>
       </c>
       <c r="B43" s="85">
         <f>B33+B39+B40</f>
-        <v>6520640</v>
+        <v>8759640</v>
       </c>
       <c r="P43" s="9"/>
       <c r="R43" s="9"/>
       <c r="AE43" s="9"/>
     </row>
-    <row r="44" spans="1:31" ht="17.25" thickBot="1">
+    <row r="44" spans="1:32" ht="17.25" thickBot="1">
       <c r="A44" s="172" t="s">
         <v>5407</v>
       </c>
@@ -60148,7 +60566,7 @@
       <c r="Y44" s="9"/>
       <c r="AE44" s="9"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:32">
       <c r="A45" s="1" t="s">
         <v>5536</v>
       </c>
@@ -60160,7 +60578,7 @@
       <c r="Y45" s="9"/>
       <c r="AE45" s="9"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32">
       <c r="A46" s="1" t="s">
         <v>240</v>
       </c>
@@ -60171,7 +60589,7 @@
       <c r="Y46" s="9"/>
       <c r="AE46" s="9"/>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:32">
       <c r="A47" s="1" t="s">
         <v>241</v>
       </c>
@@ -60187,20 +60605,20 @@
       <c r="Y47" s="9"/>
       <c r="AE47" s="9"/>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:32">
       <c r="E48" s="151" t="s">
         <v>5553</v>
       </c>
       <c r="F48" s="9">
         <f>B34</f>
-        <v>4419100</v>
+        <v>4449100</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>5541</v>
       </c>
       <c r="H48" s="15">
         <f>B34-(B34*0.005)</f>
-        <v>4397004.5</v>
+        <v>4426854.5</v>
       </c>
       <c r="Y48" s="9"/>
       <c r="AE48" s="9"/>
@@ -60222,7 +60640,7 @@
       </c>
       <c r="F50" s="9">
         <f>B35</f>
-        <v>9984100</v>
+        <v>12609100</v>
       </c>
       <c r="Y50" s="9"/>
       <c r="AE50" s="9"/>
@@ -60233,7 +60651,7 @@
       </c>
       <c r="F51" s="9">
         <f>C35</f>
-        <v>998410</v>
+        <v>1260910</v>
       </c>
       <c r="Y51" s="9"/>
       <c r="AE51" s="9"/>
@@ -60244,14 +60662,14 @@
       </c>
       <c r="F52" s="9">
         <f>F48-F49-F51</f>
-        <v>1261480</v>
+        <v>1028980</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>5541</v>
       </c>
       <c r="H52" s="9">
         <f>H48-F49-F51</f>
-        <v>1239384.5</v>
+        <v>1006734.5</v>
       </c>
       <c r="Y52" s="9"/>
       <c r="AE52" s="9"/>
@@ -60330,11 +60748,11 @@
       </c>
       <c r="H59" s="107">
         <f>SUM(T6:Z6)</f>
-        <v>1666000</v>
+        <v>1956000</v>
       </c>
       <c r="I59" s="158">
         <f>SUM(AA6:AF6)</f>
-        <v>0</v>
+        <v>2335000</v>
       </c>
       <c r="J59" s="171"/>
       <c r="K59" s="166" t="s">
@@ -60361,11 +60779,11 @@
       </c>
       <c r="H60" s="107">
         <f>SUM(T7:Z7)</f>
-        <v>950000</v>
+        <v>1216000</v>
       </c>
       <c r="I60" s="158">
         <f>SUM(AA7:AF7)</f>
-        <v>0</v>
+        <v>1373000</v>
       </c>
       <c r="J60" s="94"/>
       <c r="K60" s="166" t="s">
@@ -60389,7 +60807,7 @@
       </c>
       <c r="I62" s="159">
         <f>SUM(E59:I59)</f>
-        <v>9984100</v>
+        <v>12609100</v>
       </c>
       <c r="J62" s="94"/>
       <c r="K62" s="165"/>
@@ -60403,7 +60821,7 @@
       </c>
       <c r="I63" s="159">
         <f>AVERAGE(E59:I59)</f>
-        <v>1996820</v>
+        <v>2521820</v>
       </c>
       <c r="J63" s="94"/>
       <c r="K63" s="172" t="s">
@@ -60422,7 +60840,7 @@
       </c>
       <c r="I64" s="159">
         <f>SUM(E60:I60)</f>
-        <v>5706100</v>
+        <v>7345100</v>
       </c>
       <c r="K64" s="97"/>
       <c r="L64" s="97"/>
@@ -60434,12 +60852,56 @@
       </c>
       <c r="I65" s="159">
         <f>AVERAGE(E60:I60)</f>
-        <v>1141220</v>
+        <v>1469020</v>
       </c>
     </row>
     <row r="66" spans="5:9" ht="17.25" thickTop="1">
       <c r="H66" s="97"/>
       <c r="I66" s="160"/>
+    </row>
+    <row r="67" spans="5:9">
+      <c r="E67" s="1" t="s">
+        <v>5674</v>
+      </c>
+      <c r="F67" s="1">
+        <v>4155250</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9">
+      <c r="E68" s="1" t="s">
+        <v>5675</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2085510</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9">
+      <c r="E69" s="1" t="s">
+        <v>5676</v>
+      </c>
+      <c r="F69" s="1">
+        <v>13798750</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9">
+      <c r="E70" s="1" t="s">
+        <v>5677</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1379875</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9">
+      <c r="E71" s="1" t="s">
+        <v>5678</v>
+      </c>
+      <c r="F71" s="1">
+        <v>689865</v>
+      </c>
+      <c r="G71" s="9">
+        <f>F52+F71</f>
+        <v>1718845</v>
+      </c>
     </row>
     <row r="76" spans="5:9">
       <c r="E76" s="1" t="s">
@@ -60507,11 +60969,11 @@
     <row r="83" spans="1:9">
       <c r="A83" s="176">
         <f>B36-B47-C35-L63</f>
-        <v>1776790</v>
+        <v>3153290</v>
       </c>
       <c r="B83" s="9">
         <f>A83+C35</f>
-        <v>2775200</v>
+        <v>4414200</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>5564</v>
@@ -60760,7 +61222,7 @@
   <dimension ref="B2:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -60969,15 +61431,15 @@
       </c>
       <c r="C8" s="201">
         <f>'12월 매출'!B34</f>
-        <v>4419100</v>
+        <v>4449100</v>
       </c>
       <c r="D8" s="201">
         <f>'12월 매출'!B32</f>
-        <v>5565000</v>
+        <v>8160000</v>
       </c>
       <c r="E8" s="201">
         <f t="shared" si="0"/>
-        <v>9984100</v>
+        <v>12609100</v>
       </c>
       <c r="F8" s="201">
         <f>-'12월 매출'!B47</f>
@@ -60985,7 +61447,7 @@
       </c>
       <c r="G8" s="201">
         <f>'12월 매출'!B37</f>
-        <v>-4278000</v>
+        <v>-5264000</v>
       </c>
       <c r="H8" s="201">
         <f>-'12월 매출'!B44</f>
@@ -60993,7 +61455,7 @@
       </c>
       <c r="I8" s="201">
         <f t="shared" si="1"/>
-        <v>2775200</v>
+        <v>4414200</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -61002,15 +61464,15 @@
       </c>
       <c r="C9" s="201">
         <f>SUM(C3:C8)</f>
-        <v>36806780</v>
+        <v>36836780</v>
       </c>
       <c r="D9" s="201">
         <f>SUM(D3:D8)</f>
-        <v>53971500</v>
+        <v>56566500</v>
       </c>
       <c r="E9" s="201">
         <f t="shared" si="0"/>
-        <v>90778280</v>
+        <v>93403280</v>
       </c>
       <c r="F9" s="201">
         <f>SUM(F3:F8)</f>
@@ -61018,7 +61480,7 @@
       </c>
       <c r="G9" s="201">
         <f>SUM(G3:G8)</f>
-        <v>-39107000</v>
+        <v>-40093000</v>
       </c>
       <c r="H9" s="201">
         <f>SUM(H3:H8)</f>
@@ -61026,7 +61488,7 @@
       </c>
       <c r="I9" s="201">
         <f t="shared" si="1"/>
-        <v>34367210</v>
+        <v>36006210</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -61035,7 +61497,7 @@
       </c>
       <c r="C13" s="201">
         <f>C9*1.5%</f>
-        <v>552101.69999999995</v>
+        <v>552551.69999999995</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -61044,7 +61506,7 @@
       </c>
       <c r="C14" s="201">
         <f>C9*3.3%</f>
-        <v>1214623.74</v>
+        <v>1215613.74</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -61053,7 +61515,7 @@
       </c>
       <c r="C15" s="201">
         <f>C9*10%</f>
-        <v>3680678</v>
+        <v>3683678</v>
       </c>
     </row>
     <row r="76" spans="6:6">
@@ -61218,7 +61680,7 @@
       </c>
       <c r="B12" s="209">
         <f>'12월 매출'!B39</f>
-        <v>288000</v>
+        <v>207000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -61267,7 +61729,7 @@
       </c>
       <c r="B18" s="209">
         <f>SUM(B12:B17)</f>
-        <v>1878826</v>
+        <v>1797826</v>
       </c>
     </row>
     <row r="19" spans="1:2">

--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="7395" windowHeight="6165" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="7월 매출" sheetId="1" r:id="rId1"/>
@@ -13,32 +13,35 @@
     <sheet name="10월 매출" sheetId="17" r:id="rId4"/>
     <sheet name="11월 매출" sheetId="19" r:id="rId5"/>
     <sheet name="12월 매출" sheetId="20" r:id="rId6"/>
-    <sheet name="연말 정산" sheetId="23" r:id="rId7"/>
-    <sheet name="재무제표" sheetId="21" r:id="rId8"/>
-    <sheet name="정보" sheetId="2" r:id="rId9"/>
-    <sheet name="계좌,카드" sheetId="3" r:id="rId10"/>
-    <sheet name="아이디,비번" sheetId="4" r:id="rId11"/>
-    <sheet name="팁" sheetId="8" r:id="rId12"/>
-    <sheet name="계산기" sheetId="9" r:id="rId13"/>
-    <sheet name="계좌메모" sheetId="11" r:id="rId14"/>
-    <sheet name="엄마 출금 기록" sheetId="13" r:id="rId15"/>
-    <sheet name="아빠 출금 기록" sheetId="14" r:id="rId16"/>
-    <sheet name="현욱출금기록" sheetId="22" r:id="rId17"/>
-    <sheet name="종합 출금 기록(22년)" sheetId="15" r:id="rId18"/>
-    <sheet name="IP추적" sheetId="12" r:id="rId19"/>
-    <sheet name="블록체인(삼성)" sheetId="16" r:id="rId20"/>
-    <sheet name="양주가격" sheetId="18" r:id="rId21"/>
-    <sheet name="블랙리스트" sheetId="24" r:id="rId22"/>
-    <sheet name="자동이체기록" sheetId="25" r:id="rId23"/>
+    <sheet name="1월 매출" sheetId="26" r:id="rId7"/>
+    <sheet name="연말 정산" sheetId="23" r:id="rId8"/>
+    <sheet name="재무제표" sheetId="21" r:id="rId9"/>
+    <sheet name="정보" sheetId="2" r:id="rId10"/>
+    <sheet name="계좌,카드" sheetId="3" r:id="rId11"/>
+    <sheet name="아이디,비번" sheetId="4" r:id="rId12"/>
+    <sheet name="팁" sheetId="8" r:id="rId13"/>
+    <sheet name="계산기" sheetId="9" r:id="rId14"/>
+    <sheet name="계좌메모" sheetId="11" r:id="rId15"/>
+    <sheet name="엄마 출금 기록" sheetId="13" r:id="rId16"/>
+    <sheet name="아빠 출금 기록" sheetId="14" r:id="rId17"/>
+    <sheet name="현욱출금기록" sheetId="22" r:id="rId18"/>
+    <sheet name="종합 출금 기록(22년)" sheetId="15" r:id="rId19"/>
+    <sheet name="IP추적" sheetId="12" r:id="rId20"/>
+    <sheet name="블록체인(삼성)" sheetId="16" r:id="rId21"/>
+    <sheet name="양주가격" sheetId="18" r:id="rId22"/>
+    <sheet name="블랙리스트" sheetId="24" r:id="rId23"/>
+    <sheet name="자동이체기록" sheetId="25" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10월 매출'!$A$1:$AF$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'11월 매출'!$A$1:$AF$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'12월 매출'!$A$1:$AF$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1월 매출'!$A$1:$AF$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'8월 매출'!$A$1:$AF$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'9월 매출'!$A$1:$AF$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6326" uniqueCount="5680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6415" uniqueCount="5687">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -17761,6 +17764,34 @@
   </si>
   <si>
     <t>8만 미입금</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴무</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01-02코스트코</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01-02다판다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>예거마이스터 1L</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>호세쿠엘보 데킬라</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>조니워커 블루라벨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비가</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -19753,7 +19784,7 @@
   </sheetPr>
   <dimension ref="A1:AJ83"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -21715,6 +21746,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A2:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="41"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="162" t="s">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5401</v>
+      </c>
+      <c r="B11">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>5400</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>5399</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -22525,7 +22622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -22865,7 +22962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H13"/>
   <sheetViews>
@@ -22918,7 +23015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -24184,7 +24281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F111"/>
   <sheetViews>
@@ -24347,7 +24444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -24642,7 +24739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -24898,15 +24995,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="D3:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -25163,7 +25260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -25171,7 +25268,7 @@
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C14:C15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -25470,7 +25567,1958 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AI125"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y35" sqref="Y35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="20.125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="66">
+        <v>44774</v>
+      </c>
+      <c r="C1" s="66">
+        <v>44775</v>
+      </c>
+      <c r="D1" s="66">
+        <v>44776</v>
+      </c>
+      <c r="E1" s="66">
+        <v>44777</v>
+      </c>
+      <c r="F1" s="66">
+        <v>44778</v>
+      </c>
+      <c r="G1" s="66">
+        <v>44779</v>
+      </c>
+      <c r="H1" s="66">
+        <v>44780</v>
+      </c>
+      <c r="I1" s="66">
+        <v>44781</v>
+      </c>
+      <c r="J1" s="66">
+        <v>44782</v>
+      </c>
+      <c r="K1" s="66">
+        <v>44783</v>
+      </c>
+      <c r="L1" s="66">
+        <v>44784</v>
+      </c>
+      <c r="M1" s="66">
+        <v>44785</v>
+      </c>
+      <c r="N1" s="66">
+        <v>44786</v>
+      </c>
+      <c r="O1" s="66">
+        <v>44787</v>
+      </c>
+      <c r="P1" s="66">
+        <v>44788</v>
+      </c>
+      <c r="Q1" s="66">
+        <v>44789</v>
+      </c>
+      <c r="R1" s="66">
+        <v>44790</v>
+      </c>
+      <c r="S1" s="66">
+        <v>44791</v>
+      </c>
+      <c r="T1" s="66">
+        <v>44792</v>
+      </c>
+      <c r="U1" s="66">
+        <v>44793</v>
+      </c>
+      <c r="V1" s="66">
+        <v>44794</v>
+      </c>
+      <c r="W1" s="66">
+        <v>44795</v>
+      </c>
+      <c r="X1" s="66">
+        <v>44796</v>
+      </c>
+      <c r="Y1" s="66">
+        <v>44797</v>
+      </c>
+      <c r="Z1" s="66">
+        <v>44798</v>
+      </c>
+      <c r="AA1" s="66">
+        <v>44799</v>
+      </c>
+      <c r="AB1" s="66">
+        <v>44800</v>
+      </c>
+      <c r="AC1" s="66">
+        <v>44801</v>
+      </c>
+      <c r="AD1" s="66">
+        <v>44802</v>
+      </c>
+      <c r="AE1" s="66">
+        <v>44803</v>
+      </c>
+      <c r="AF1" s="66">
+        <v>44804</v>
+      </c>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+    </row>
+    <row r="2" spans="1:35" s="68" customFormat="1" ht="17.25">
+      <c r="A2" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="68">
+        <v>160000</v>
+      </c>
+      <c r="S2" s="68">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25">
+      <c r="A3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:AF3" si="0">SUM(B12,B14,B16,B18,B20,B22)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" si="0"/>
+        <v>33000</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(F12,F14,F16,F18,F20,F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
+        <v>66000</v>
+      </c>
+      <c r="I3" s="5">
+        <f>SUM(I12,I14,I16,I18,I20,I22)</f>
+        <v>1804000</v>
+      </c>
+      <c r="J3" s="5">
+        <f>SUM(J12,J14,J16,J18,J20,J22)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <f>SUM(K12,K14,K16,K18,K20,K22,K24,K25,K32,K33,K34)</f>
+        <v>233200</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="0"/>
+        <v>2019200</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <f>SUM(P12,P14,P16,P18,P20,P22)</f>
+        <v>90200</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>SUM(Q12,Q14,Q16,Q18,Q20,Q22)</f>
+        <v>110000</v>
+      </c>
+      <c r="R3" s="5">
+        <f>SUM(R12,R14,R16,R18,R20,R22)</f>
+        <v>220000</v>
+      </c>
+      <c r="S3" s="5">
+        <f>SUM(S12,S14,S16,S18,S20,S22)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="0"/>
+        <v>203500</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" si="0"/>
+        <v>385000</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" si="0"/>
+        <v>88000</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" si="0"/>
+        <v>510000</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="0"/>
+        <v>308000</v>
+      </c>
+      <c r="AA3" s="5">
+        <f t="shared" si="0"/>
+        <v>90200</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="5">
+        <f t="shared" si="0"/>
+        <v>132000</v>
+      </c>
+      <c r="AD3" s="5">
+        <f t="shared" si="0"/>
+        <v>44000</v>
+      </c>
+      <c r="AE3" s="5">
+        <f>SUM(AE12,AE14,AE16,AE18,AE20,AE22)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" s="112" customFormat="1" ht="17.25">
+      <c r="A4" s="111" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="112">
+        <v>0</v>
+      </c>
+      <c r="C4" s="112">
+        <v>630000</v>
+      </c>
+      <c r="D4" s="112">
+        <v>0</v>
+      </c>
+      <c r="E4" s="112">
+        <f>160000+320000</f>
+        <v>480000</v>
+      </c>
+      <c r="F4" s="112">
+        <v>0</v>
+      </c>
+      <c r="G4" s="112">
+        <v>480000</v>
+      </c>
+      <c r="H4" s="112">
+        <v>41000</v>
+      </c>
+      <c r="I4" s="112">
+        <f>200000-20000</f>
+        <v>180000</v>
+      </c>
+      <c r="J4" s="112">
+        <v>0</v>
+      </c>
+      <c r="K4" s="112">
+        <v>0</v>
+      </c>
+      <c r="L4" s="112">
+        <v>0</v>
+      </c>
+      <c r="M4" s="112">
+        <v>0</v>
+      </c>
+      <c r="N4" s="112">
+        <v>0</v>
+      </c>
+      <c r="O4" s="112">
+        <v>0</v>
+      </c>
+      <c r="P4" s="112">
+        <v>1200000</v>
+      </c>
+      <c r="R4" s="112">
+        <v>0</v>
+      </c>
+      <c r="S4" s="112">
+        <v>325000</v>
+      </c>
+      <c r="T4" s="112">
+        <v>200000</v>
+      </c>
+      <c r="U4" s="112">
+        <f>250000+220000+131000+160000+80000+330000+34000+120000</f>
+        <v>1325000</v>
+      </c>
+      <c r="V4" s="112">
+        <v>0</v>
+      </c>
+      <c r="W4" s="112">
+        <v>0</v>
+      </c>
+      <c r="X4" s="112">
+        <f>550000+30000+360000</f>
+        <v>940000</v>
+      </c>
+      <c r="Y4" s="112">
+        <v>720000</v>
+      </c>
+      <c r="Z4" s="112">
+        <v>120000</v>
+      </c>
+      <c r="AA4" s="112">
+        <v>640000</v>
+      </c>
+      <c r="AB4" s="112">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="112">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="112">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="112">
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25">
+      <c r="A5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>480000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>45000</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>320000</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>120000</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <f>10000+89000+50000</f>
+        <v>149000</v>
+      </c>
+      <c r="V5" s="6">
+        <f>60000+20000+28000+20000+20000+10000</f>
+        <v>158000</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6">
+        <f>75000+200000</f>
+        <v>275000</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>200000</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>240000</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25">
+      <c r="A6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <f>B3+B4+B5</f>
+        <v>10000</v>
+      </c>
+      <c r="C6" s="7">
+        <f>C3+C4+C5</f>
+        <v>663000</v>
+      </c>
+      <c r="D6" s="7">
+        <f>D3+D4+D5</f>
+        <v>525000</v>
+      </c>
+      <c r="E6" s="7">
+        <f>E3+E4+E5</f>
+        <v>480000</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" ref="F6:AF6" si="1">F3+F4+F5</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>605000</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>107000</v>
+      </c>
+      <c r="I6" s="7">
+        <f>I3+I4+I5</f>
+        <v>1984000</v>
+      </c>
+      <c r="J6" s="7">
+        <f>J3+J4+J5</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f>K3+K4+K5</f>
+        <v>233200</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="1"/>
+        <v>2019200</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="1"/>
+        <v>1290200</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>Q3+Q4+Q5</f>
+        <v>430000</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="1"/>
+        <v>220000</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="1"/>
+        <v>445000</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="1"/>
+        <v>1677500</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="1"/>
+        <v>158000</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="1"/>
+        <v>385000</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="1"/>
+        <v>1028000</v>
+      </c>
+      <c r="Y6" s="7">
+        <f>Y3+Y4+Y5</f>
+        <v>1230000</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="1"/>
+        <v>703000</v>
+      </c>
+      <c r="AA6" s="7">
+        <f t="shared" si="1"/>
+        <v>730200</v>
+      </c>
+      <c r="AB6" s="7">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="AC6" s="7">
+        <f t="shared" si="1"/>
+        <v>372000</v>
+      </c>
+      <c r="AD6" s="7">
+        <f t="shared" si="1"/>
+        <v>86000</v>
+      </c>
+      <c r="AE6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="1"/>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="8" customFormat="1" ht="17.25">
+      <c r="A7" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <f>B6+B8</f>
+        <v>10000</v>
+      </c>
+      <c r="C7" s="8">
+        <f>C6+C8</f>
+        <v>410000</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:AF7" si="2">D6+D8</f>
+        <v>273000</v>
+      </c>
+      <c r="E7" s="8">
+        <f>E6+E8</f>
+        <v>228000</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="2"/>
+        <v>341000</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="2"/>
+        <v>87000</v>
+      </c>
+      <c r="I7" s="8">
+        <f>I6+I8</f>
+        <v>1146000</v>
+      </c>
+      <c r="J7" s="8">
+        <f>J6+J8</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <f>K6+K8</f>
+        <v>209200</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="2"/>
+        <v>45000</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="2"/>
+        <v>1127200</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <f>P6+P8</f>
+        <v>624200</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="2"/>
+        <v>158000</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="2"/>
+        <v>140000</v>
+      </c>
+      <c r="S7" s="8">
+        <f t="shared" si="2"/>
+        <v>233000</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="2"/>
+        <v>1164500</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="2"/>
+        <v>156000</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" si="2"/>
+        <v>225000</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" si="2"/>
+        <v>546000</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="2"/>
+        <v>581000</v>
+      </c>
+      <c r="Z7" s="8">
+        <f t="shared" si="2"/>
+        <v>343000</v>
+      </c>
+      <c r="AA7" s="8">
+        <f t="shared" si="2"/>
+        <v>398200</v>
+      </c>
+      <c r="AB7" s="8">
+        <f t="shared" si="2"/>
+        <v>108000</v>
+      </c>
+      <c r="AC7" s="8">
+        <f t="shared" si="2"/>
+        <v>188000</v>
+      </c>
+      <c r="AD7" s="8">
+        <f t="shared" si="2"/>
+        <v>86000</v>
+      </c>
+      <c r="AE7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <f t="shared" si="2"/>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" s="18" customFormat="1" ht="17.25">
+      <c r="A8" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" ref="B8:H8" si="3">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <f>SUM(C13,C15,C17,C19,C21,C23,C23)</f>
+        <v>-253000</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="3"/>
+        <v>-252000</v>
+      </c>
+      <c r="E8" s="18">
+        <f>SUM(E13,E15,E17,E19,E21,E23,E23)</f>
+        <v>-252000</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <f>SUM(G13,G15,G17,G19,G21,G23,G23)</f>
+        <v>-264000</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="3"/>
+        <v>-20000</v>
+      </c>
+      <c r="I8" s="18">
+        <f>SUM(I13,I15,I17,I19,I21,I23)</f>
+        <v>-838000</v>
+      </c>
+      <c r="J8" s="18">
+        <f>SUM(J13,J15,J17,J19,J21,J23)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <f>SUM(K13,K15,K17,K19,K21,K23)</f>
+        <v>-24000</v>
+      </c>
+      <c r="L8" s="18">
+        <f>SUM(L13,L15,L17,L19,L21,L23)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" ref="M8:AF8" si="4">SUM(M13,M15,M17,M19,M21,M23)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="18">
+        <f>SUM(N13,N15,N17,N19,N21,N23)</f>
+        <v>-892000</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="18">
+        <f>SUM(P13,P15,P17,P19,P21,P23)</f>
+        <v>-666000</v>
+      </c>
+      <c r="Q8" s="18">
+        <f>SUM(Q13,Q15,Q17,Q19,Q21,Q23)</f>
+        <v>-272000</v>
+      </c>
+      <c r="R8" s="18">
+        <f>SUM(R13,R15,R17,R19,R21,R23)</f>
+        <v>-80000</v>
+      </c>
+      <c r="S8" s="18">
+        <f>SUM(S13,S15,S17,S19,S21,S23)</f>
+        <v>-212000</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" si="4"/>
+        <v>-80000</v>
+      </c>
+      <c r="U8" s="18">
+        <f t="shared" si="4"/>
+        <v>-513000</v>
+      </c>
+      <c r="V8" s="18">
+        <f t="shared" si="4"/>
+        <v>-2000</v>
+      </c>
+      <c r="W8" s="18">
+        <f t="shared" si="4"/>
+        <v>-160000</v>
+      </c>
+      <c r="X8" s="18">
+        <f t="shared" si="4"/>
+        <v>-482000</v>
+      </c>
+      <c r="Y8" s="18">
+        <f t="shared" si="4"/>
+        <v>-649000</v>
+      </c>
+      <c r="Z8" s="18">
+        <f t="shared" si="4"/>
+        <v>-360000</v>
+      </c>
+      <c r="AA8" s="18">
+        <f t="shared" si="4"/>
+        <v>-332000</v>
+      </c>
+      <c r="AB8" s="18">
+        <f t="shared" si="4"/>
+        <v>-92000</v>
+      </c>
+      <c r="AC8" s="18">
+        <f t="shared" si="4"/>
+        <v>-184000</v>
+      </c>
+      <c r="AD8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="43" customFormat="1" ht="17.25">
+      <c r="A9" s="51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="9" customFormat="1" ht="17.25">
+      <c r="A10" s="52"/>
+    </row>
+    <row r="11" spans="1:35" s="9" customFormat="1" ht="17.25">
+      <c r="A11" s="53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="10" customFormat="1" ht="17.25">
+      <c r="A12" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="1:35" s="11" customFormat="1" ht="17.25">
+      <c r="A13" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-240000</v>
+      </c>
+      <c r="D13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="E13" s="11">
+        <f>-80000-80000-80000</f>
+        <v>-240000</v>
+      </c>
+      <c r="G13" s="11">
+        <f>-12000-12000-240000</f>
+        <v>-264000</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-20000</v>
+      </c>
+      <c r="I13" s="11">
+        <f>-12000-12000</f>
+        <v>-24000</v>
+      </c>
+      <c r="N13" s="11">
+        <f>-24000-12000</f>
+        <v>-36000</v>
+      </c>
+      <c r="S13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="T13" s="11">
+        <v>-80000</v>
+      </c>
+      <c r="U13" s="11">
+        <v>-24000</v>
+      </c>
+      <c r="V13" s="11">
+        <v>-2000</v>
+      </c>
+      <c r="W13" s="11">
+        <v>-160000</v>
+      </c>
+      <c r="X13" s="11">
+        <v>-160000</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>-25000</v>
+      </c>
+      <c r="Z13" s="11">
+        <f>-40000-40000</f>
+        <v>-80000</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>-12000</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25">
+      <c r="A14" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="12">
+        <v>45000</v>
+      </c>
+      <c r="G14" s="12">
+        <v>125000</v>
+      </c>
+      <c r="H14" s="12">
+        <v>66000</v>
+      </c>
+      <c r="I14" s="12">
+        <v>700000</v>
+      </c>
+      <c r="K14" s="12">
+        <v>51700</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1298000</v>
+      </c>
+      <c r="P14" s="12">
+        <v>90200</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>110000</v>
+      </c>
+      <c r="R14" s="12">
+        <v>176000</v>
+      </c>
+      <c r="U14" s="12">
+        <v>55000</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="W14" s="12">
+        <f>200000+185000</f>
+        <v>385000</v>
+      </c>
+      <c r="X14" s="12">
+        <v>88000</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>260000</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>88000</v>
+      </c>
+      <c r="AA14" s="72"/>
+      <c r="AC14" s="12">
+        <v>132000</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25">
+      <c r="A15" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10">
+        <f>-1000</f>
+        <v>-1000</v>
+      </c>
+      <c r="D15" s="10">
+        <f>-120000-120000</f>
+        <v>-240000</v>
+      </c>
+      <c r="E15" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="I15" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="N15" s="10">
+        <v>-26000</v>
+      </c>
+      <c r="P15" s="10">
+        <v>-600000</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="R15" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="S15" s="10">
+        <v>-160000</v>
+      </c>
+      <c r="U15" s="10">
+        <v>-20000</v>
+      </c>
+      <c r="X15" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>-24000</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>-320000</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>-120000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25">
+      <c r="A16" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="I16" s="72">
+        <v>704000</v>
+      </c>
+      <c r="K16" s="12">
+        <v>132000</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="R16" s="12">
+        <v>44000</v>
+      </c>
+      <c r="U16" s="12">
+        <v>88000</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>250000</v>
+      </c>
+      <c r="Z16" s="72">
+        <v>220000</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>90200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="10" customFormat="1" ht="17.25">
+      <c r="A17" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="I17" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="K17" s="10">
+        <f>-12000-12000</f>
+        <v>-24000</v>
+      </c>
+      <c r="N17" s="10">
+        <f>-440000-100000</f>
+        <v>-540000</v>
+      </c>
+      <c r="P17" s="10">
+        <v>-54000</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="S17" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="U17" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="X17" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="Y17" s="10">
+        <f>-40000-40000</f>
+        <v>-80000</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="12" customFormat="1" ht="17.25">
+      <c r="A18" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="I18" s="12">
+        <v>244000</v>
+      </c>
+      <c r="K18" s="12">
+        <v>49500</v>
+      </c>
+      <c r="N18" s="12">
+        <v>374700</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="U18" s="12">
+        <v>60500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="10" customFormat="1" ht="17.25">
+      <c r="A19" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="71">
+        <f>-80000-80000-80000-40000</f>
+        <v>-280000</v>
+      </c>
+      <c r="N19" s="10">
+        <v>-110000</v>
+      </c>
+      <c r="P19" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>-160000</v>
+      </c>
+      <c r="U19" s="10">
+        <f>-120000-80000</f>
+        <v>-200000</v>
+      </c>
+      <c r="X19" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>-80000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="12" customFormat="1" ht="17.25">
+      <c r="A20" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="12">
+        <v>33000</v>
+      </c>
+      <c r="I20" s="12">
+        <v>156000</v>
+      </c>
+      <c r="N20" s="12">
+        <v>176000</v>
+      </c>
+      <c r="X20" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="10" customFormat="1" ht="17.25">
+      <c r="A21" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="10">
+        <f>-80000-80000-80000-80000</f>
+        <v>-320000</v>
+      </c>
+      <c r="N21" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="U21" s="10">
+        <f>-80000-40000-40000-40000-40000</f>
+        <v>-240000</v>
+      </c>
+      <c r="X21" s="10">
+        <v>-70000</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>-360000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="12" customFormat="1" ht="17.25">
+      <c r="A22" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="12">
+        <v>170500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="10" customFormat="1" ht="17.25">
+      <c r="A23" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="10">
+        <f>-80000-80000-30000</f>
+        <v>-190000</v>
+      </c>
+      <c r="N23" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="U23" s="10">
+        <v>-17000</v>
+      </c>
+      <c r="Y23" s="10">
+        <f>-40000-40000</f>
+        <v>-80000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="9" customFormat="1" ht="17.25">
+      <c r="A24" s="53"/>
+    </row>
+    <row r="25" spans="1:32" s="9" customFormat="1" ht="17.25">
+      <c r="A25" s="53"/>
+    </row>
+    <row r="26" spans="1:32" s="20" customFormat="1" ht="33">
+      <c r="A26" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="121" t="s">
+        <v>368</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="121" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="J26" s="121" t="s">
+        <v>369</v>
+      </c>
+      <c r="K26" s="76" t="s">
+        <v>309</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="M26" s="121" t="s">
+        <v>299</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="O26" s="121" t="s">
+        <v>299</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="R26" s="79"/>
+      <c r="S26" s="120" t="s">
+        <v>328</v>
+      </c>
+      <c r="T26" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="U26" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="V26" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="X26" s="109" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y26" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z26" s="109" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA26" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB26" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC26" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD26" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE26" s="121" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF26" s="20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="19" customFormat="1" ht="17.25">
+      <c r="A27" s="58"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:32" s="19" customFormat="1" ht="17.25">
+      <c r="A28" s="58"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:32" s="19" customFormat="1" ht="17.25">
+      <c r="A29" s="58"/>
+    </row>
+    <row r="30" spans="1:32" s="21" customFormat="1" ht="17.25">
+      <c r="A30" s="59" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" s="9" customFormat="1" ht="17.25">
+      <c r="A31" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="92">
+        <f>SUM(B2:AF2)+B45+B46</f>
+        <v>5527910</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="1:32" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A32" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32" s="78">
+        <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
+        <v>9528000</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="S32" s="83" t="s">
+        <v>320</v>
+      </c>
+      <c r="T32" s="108" t="s">
+        <v>329</v>
+      </c>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="Y32" s="108" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A33" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="70">
+        <f>B34-B31</f>
+        <v>1139220</v>
+      </c>
+      <c r="C33" s="9">
+        <f>B32+B34</f>
+        <v>16195130</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1139220</v>
+      </c>
+      <c r="S33" s="116" t="s">
+        <v>316</v>
+      </c>
+      <c r="T33" s="108">
+        <v>32760</v>
+      </c>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="Y33" s="93">
+        <v>36300</v>
+      </c>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A34" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="14">
+        <f>500000-D81+SUM(B3:AF3)</f>
+        <v>6667130</v>
+      </c>
+      <c r="C34" s="135">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="15">
+        <f>B34*0.1</f>
+        <v>666713</v>
+      </c>
+      <c r="S34" s="83">
+        <v>17690</v>
+      </c>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="93" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A35" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="16">
+        <f>SUM(B6:AF6)</f>
+        <v>16034300</v>
+      </c>
+      <c r="C35" s="136">
+        <f>B35*0.1</f>
+        <v>1603430</v>
+      </c>
+      <c r="D35" s="15">
+        <f>C35-B33</f>
+        <v>464210</v>
+      </c>
+      <c r="S35" s="117" t="s">
+        <v>317</v>
+      </c>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="93">
+        <v>30000</v>
+      </c>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A36" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="17">
+        <f>B35+B37</f>
+        <v>9155300</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="S36" s="83">
+        <v>16590</v>
+      </c>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:31" ht="18" thickBot="1">
+      <c r="A37" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="44">
+        <f>SUM(B8:AF8)</f>
+        <v>-6879000</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="S37" s="118" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y37" s="9"/>
+      <c r="AE37" s="9"/>
+    </row>
+    <row r="38" spans="1:31" ht="18" thickBot="1">
+      <c r="A38" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="45">
+        <v>0</v>
+      </c>
+      <c r="S38" s="83">
+        <f>14290*2</f>
+        <v>28580</v>
+      </c>
+      <c r="Y38" s="9"/>
+      <c r="AE38" s="9"/>
+    </row>
+    <row r="39" spans="1:31" ht="18" thickBot="1">
+      <c r="A39" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="89">
+        <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))+340000+900000+900000+20000+40000+300000+400000+160000+400000+100000+90000+600000</f>
+        <v>496000</v>
+      </c>
+      <c r="C39" s="113">
+        <f>34+90+90+6+30+40+50</f>
+        <v>340</v>
+      </c>
+      <c r="D39" s="114" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="S39" s="118" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y39" s="9"/>
+      <c r="AE39" s="9"/>
+    </row>
+    <row r="40" spans="1:31" ht="18" thickBot="1">
+      <c r="A40" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="87">
+        <f>5291060+SUM(B4:AF4)-340000-900000-900000+100000+B31-S48-D81-T33-20000-B47-40000-300000-400000-160000-400000-100000-90000-600000-3600000-B41</f>
+        <v>6841960</v>
+      </c>
+      <c r="C40" s="7">
+        <f>-34-90-90-6-30-40-50</f>
+        <v>-340</v>
+      </c>
+      <c r="D40" s="115">
+        <f>(C39/30)*1800</f>
+        <v>20400</v>
+      </c>
+      <c r="S40" s="83">
+        <f>12390*3</f>
+        <v>37170</v>
+      </c>
+      <c r="Y40" s="9"/>
+      <c r="AE40" s="9"/>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B41" s="9">
+        <f>D81+S48</f>
+        <v>657670</v>
+      </c>
+      <c r="C41" s="114" t="s">
+        <v>314</v>
+      </c>
+      <c r="S41" s="118" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y41" s="9"/>
+      <c r="AE41" s="9"/>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="81">
+        <f>SUM(B7:AF7)</f>
+        <v>9155300</v>
+      </c>
+      <c r="S42" s="119">
+        <f>SUM(S33:S40)</f>
+        <v>100030</v>
+      </c>
+      <c r="Y42" s="9"/>
+      <c r="AE42" s="9"/>
+    </row>
+    <row r="43" spans="1:31" ht="17.25" thickBot="1">
+      <c r="A43" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" s="85">
+        <f>B33+B39+B40</f>
+        <v>8477180</v>
+      </c>
+      <c r="Y43" s="9"/>
+      <c r="AE43" s="9"/>
+    </row>
+    <row r="44" spans="1:31" ht="17.25" thickBot="1">
+      <c r="A44" s="172" t="s">
+        <v>5407</v>
+      </c>
+      <c r="B44" s="170">
+        <f>SUM(L58:L62)</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="84">
+        <v>15990</v>
+      </c>
+      <c r="Y44" s="9"/>
+      <c r="AE44" s="9"/>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" s="9">
+        <v>867910</v>
+      </c>
+      <c r="S45" s="84">
+        <v>17990</v>
+      </c>
+      <c r="Y45" s="9"/>
+      <c r="AE45" s="9"/>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="S46" s="84">
+        <v>19990</v>
+      </c>
+      <c r="Y46" s="9"/>
+      <c r="AE46" s="9"/>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="110">
+        <f>SUM(B45:B46)</f>
+        <v>2367910</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="S47" s="119">
+        <f>SUM(S44:S46)</f>
+        <v>53970</v>
+      </c>
+      <c r="Y47" s="9"/>
+      <c r="AE47" s="9"/>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="R48" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="S48" s="1">
+        <f>10890+8490+219120+80000</f>
+        <v>318500</v>
+      </c>
+      <c r="Y48" s="9"/>
+      <c r="AE48" s="9"/>
+    </row>
+    <row r="49" spans="3:31">
+      <c r="S49" s="1">
+        <f>SUM(S48,S42,S47)</f>
+        <v>472500</v>
+      </c>
+      <c r="Y49" s="9"/>
+      <c r="AE49" s="9"/>
+    </row>
+    <row r="50" spans="3:31">
+      <c r="C50" s="175" t="s">
+        <v>5408</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="S50" s="1">
+        <v>12600</v>
+      </c>
+      <c r="Y50" s="9"/>
+      <c r="AE50" s="9"/>
+    </row>
+    <row r="51" spans="3:31">
+      <c r="C51" s="176">
+        <f>B36-B47-C35-L63-339170-318500</f>
+        <v>4457230</v>
+      </c>
+      <c r="Y51" s="9"/>
+      <c r="AE51" s="9"/>
+    </row>
+    <row r="52" spans="3:31">
+      <c r="Y52" s="9"/>
+      <c r="AE52" s="9"/>
+    </row>
+    <row r="53" spans="3:31">
+      <c r="S53" s="9">
+        <v>339170</v>
+      </c>
+      <c r="Y53" s="9"/>
+      <c r="AE53" s="9"/>
+    </row>
+    <row r="54" spans="3:31">
+      <c r="S54" s="9">
+        <f>SUM(S53,S48,T33,Y33,Y35)</f>
+        <v>756730</v>
+      </c>
+    </row>
+    <row r="56" spans="3:31" ht="17.25" thickBot="1">
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+    </row>
+    <row r="57" spans="3:31" ht="18" thickTop="1" thickBot="1">
+      <c r="D57" s="94"/>
+      <c r="E57" s="214" t="s">
+        <v>265</v>
+      </c>
+      <c r="F57" s="215"/>
+      <c r="G57" s="215"/>
+      <c r="H57" s="215"/>
+      <c r="I57" s="216"/>
+      <c r="J57" s="95"/>
+    </row>
+    <row r="58" spans="3:31" ht="18" thickTop="1" thickBot="1">
+      <c r="D58" s="94"/>
+      <c r="E58" s="100" t="s">
+        <v>303</v>
+      </c>
+      <c r="F58" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="G58" s="106" t="s">
+        <v>305</v>
+      </c>
+      <c r="H58" s="104" t="s">
+        <v>306</v>
+      </c>
+      <c r="I58" s="104" t="s">
+        <v>307</v>
+      </c>
+      <c r="J58" s="95"/>
+    </row>
+    <row r="59" spans="3:31" ht="18" thickTop="1" thickBot="1">
+      <c r="D59" s="94"/>
+      <c r="E59" s="99">
+        <f>SUM(B6:E6)</f>
+        <v>1678000</v>
+      </c>
+      <c r="F59" s="101">
+        <f>SUM(F6:L6)</f>
+        <v>2974200</v>
+      </c>
+      <c r="G59" s="103">
+        <f>SUM(M6:S6)</f>
+        <v>4404400</v>
+      </c>
+      <c r="H59" s="107">
+        <f>SUM(T6:Z6)</f>
+        <v>5381500</v>
+      </c>
+      <c r="I59" s="105">
+        <f>SUM(AA6:AF6)</f>
+        <v>1596200</v>
+      </c>
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="3:31" ht="18" thickTop="1" thickBot="1">
+      <c r="E60" s="99">
+        <f>SUM(B7:E7)</f>
+        <v>921000</v>
+      </c>
+      <c r="F60" s="101">
+        <f>SUM(F7:L7)</f>
+        <v>1828200</v>
+      </c>
+      <c r="G60" s="103">
+        <f>SUM(M7:S7)</f>
+        <v>2282400</v>
+      </c>
+      <c r="H60" s="107">
+        <f>SUM(T7:Z7)</f>
+        <v>3135500</v>
+      </c>
+      <c r="I60" s="105">
+        <f>SUM(AA7:AF7)</f>
+        <v>988200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" ht="18" thickTop="1" thickBot="1">
+      <c r="C61" s="123"/>
+    </row>
+    <row r="62" spans="3:31" ht="18" thickTop="1" thickBot="1">
+      <c r="G62" s="94"/>
+      <c r="H62" s="99" t="s">
+        <v>264</v>
+      </c>
+      <c r="I62" s="99">
+        <f>SUM(E59:I59)</f>
+        <v>16034300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" ht="18" thickTop="1" thickBot="1">
+      <c r="G63" s="94"/>
+      <c r="H63" s="99" t="s">
+        <v>266</v>
+      </c>
+      <c r="I63" s="99">
+        <f>AVERAGE(E59:I59)</f>
+        <v>3206860</v>
+      </c>
+      <c r="L63" s="9">
+        <f>SUM(R33:AD33)</f>
+        <v>69060</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" ht="18" thickTop="1" thickBot="1">
+      <c r="G64" s="94"/>
+      <c r="H64" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="I64" s="99">
+        <f>SUM(E60:I60)</f>
+        <v>9155300</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" ht="18" thickTop="1" thickBot="1">
+      <c r="G65" s="94"/>
+      <c r="H65" s="98" t="s">
+        <v>375</v>
+      </c>
+      <c r="I65" s="99">
+        <f>AVERAGE(E60:I60)</f>
+        <v>1831060</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" ht="17.25" thickTop="1">
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D81" s="9">
+        <v>339170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="D105" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" s="119" customFormat="1">
+      <c r="A106" s="119" t="s">
+        <v>334</v>
+      </c>
+      <c r="C106" s="119">
+        <v>153790</v>
+      </c>
+      <c r="D106" s="119">
+        <v>47940</v>
+      </c>
+      <c r="J106" s="119">
+        <f>172560+153790</f>
+        <v>326350</v>
+      </c>
+      <c r="R106" s="119">
+        <v>95870</v>
+      </c>
+      <c r="T106" s="119">
+        <f>843610+306770</f>
+        <v>1150380</v>
+      </c>
+      <c r="W106" s="119">
+        <v>306770</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" s="1">
+        <f>SUM(B106:AF106)</f>
+        <v>2081100</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5">
+      <c r="E123" s="1">
+        <v>47940</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5">
+      <c r="E124" s="1">
+        <v>153790</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" s="1">
+        <f>SUM(E123:E124)</f>
+        <v>201730</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E57:I57"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -50514,1958 +52562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:AI125"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y35" sqref="Y35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="20.125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" s="4" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="66">
-        <v>44774</v>
-      </c>
-      <c r="C1" s="66">
-        <v>44775</v>
-      </c>
-      <c r="D1" s="66">
-        <v>44776</v>
-      </c>
-      <c r="E1" s="66">
-        <v>44777</v>
-      </c>
-      <c r="F1" s="66">
-        <v>44778</v>
-      </c>
-      <c r="G1" s="66">
-        <v>44779</v>
-      </c>
-      <c r="H1" s="66">
-        <v>44780</v>
-      </c>
-      <c r="I1" s="66">
-        <v>44781</v>
-      </c>
-      <c r="J1" s="66">
-        <v>44782</v>
-      </c>
-      <c r="K1" s="66">
-        <v>44783</v>
-      </c>
-      <c r="L1" s="66">
-        <v>44784</v>
-      </c>
-      <c r="M1" s="66">
-        <v>44785</v>
-      </c>
-      <c r="N1" s="66">
-        <v>44786</v>
-      </c>
-      <c r="O1" s="66">
-        <v>44787</v>
-      </c>
-      <c r="P1" s="66">
-        <v>44788</v>
-      </c>
-      <c r="Q1" s="66">
-        <v>44789</v>
-      </c>
-      <c r="R1" s="66">
-        <v>44790</v>
-      </c>
-      <c r="S1" s="66">
-        <v>44791</v>
-      </c>
-      <c r="T1" s="66">
-        <v>44792</v>
-      </c>
-      <c r="U1" s="66">
-        <v>44793</v>
-      </c>
-      <c r="V1" s="66">
-        <v>44794</v>
-      </c>
-      <c r="W1" s="66">
-        <v>44795</v>
-      </c>
-      <c r="X1" s="66">
-        <v>44796</v>
-      </c>
-      <c r="Y1" s="66">
-        <v>44797</v>
-      </c>
-      <c r="Z1" s="66">
-        <v>44798</v>
-      </c>
-      <c r="AA1" s="66">
-        <v>44799</v>
-      </c>
-      <c r="AB1" s="66">
-        <v>44800</v>
-      </c>
-      <c r="AC1" s="66">
-        <v>44801</v>
-      </c>
-      <c r="AD1" s="66">
-        <v>44802</v>
-      </c>
-      <c r="AE1" s="66">
-        <v>44803</v>
-      </c>
-      <c r="AF1" s="66">
-        <v>44804</v>
-      </c>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-    </row>
-    <row r="2" spans="1:35" s="68" customFormat="1" ht="17.25">
-      <c r="A2" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="68">
-        <v>160000</v>
-      </c>
-      <c r="S2" s="68">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25">
-      <c r="A3" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5">
-        <f t="shared" ref="B3:AF3" si="0">SUM(B12,B14,B16,B18,B20,B22)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <f t="shared" si="0"/>
-        <v>33000</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" si="0"/>
-        <v>45000</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <f>SUM(F12,F14,F16,F18,F20,F22)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" si="0"/>
-        <v>125000</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" si="0"/>
-        <v>66000</v>
-      </c>
-      <c r="I3" s="5">
-        <f>SUM(I12,I14,I16,I18,I20,I22)</f>
-        <v>1804000</v>
-      </c>
-      <c r="J3" s="5">
-        <f>SUM(J12,J14,J16,J18,J20,J22)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <f>SUM(K12,K14,K16,K18,K20,K22,K24,K25,K32,K33,K34)</f>
-        <v>233200</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <f t="shared" si="0"/>
-        <v>2019200</v>
-      </c>
-      <c r="O3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <f>SUM(P12,P14,P16,P18,P20,P22)</f>
-        <v>90200</v>
-      </c>
-      <c r="Q3" s="5">
-        <f>SUM(Q12,Q14,Q16,Q18,Q20,Q22)</f>
-        <v>110000</v>
-      </c>
-      <c r="R3" s="5">
-        <f>SUM(R12,R14,R16,R18,R20,R22)</f>
-        <v>220000</v>
-      </c>
-      <c r="S3" s="5">
-        <f>SUM(S12,S14,S16,S18,S20,S22)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="5">
-        <f t="shared" si="0"/>
-        <v>203500</v>
-      </c>
-      <c r="V3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="5">
-        <f t="shared" si="0"/>
-        <v>385000</v>
-      </c>
-      <c r="X3" s="5">
-        <f t="shared" si="0"/>
-        <v>88000</v>
-      </c>
-      <c r="Y3" s="5">
-        <f t="shared" si="0"/>
-        <v>510000</v>
-      </c>
-      <c r="Z3" s="5">
-        <f t="shared" si="0"/>
-        <v>308000</v>
-      </c>
-      <c r="AA3" s="5">
-        <f t="shared" si="0"/>
-        <v>90200</v>
-      </c>
-      <c r="AB3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="5">
-        <f t="shared" si="0"/>
-        <v>132000</v>
-      </c>
-      <c r="AD3" s="5">
-        <f t="shared" si="0"/>
-        <v>44000</v>
-      </c>
-      <c r="AE3" s="5">
-        <f>SUM(AE12,AE14,AE16,AE18,AE20,AE22)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" s="112" customFormat="1" ht="17.25">
-      <c r="A4" s="111" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="112">
-        <v>0</v>
-      </c>
-      <c r="C4" s="112">
-        <v>630000</v>
-      </c>
-      <c r="D4" s="112">
-        <v>0</v>
-      </c>
-      <c r="E4" s="112">
-        <f>160000+320000</f>
-        <v>480000</v>
-      </c>
-      <c r="F4" s="112">
-        <v>0</v>
-      </c>
-      <c r="G4" s="112">
-        <v>480000</v>
-      </c>
-      <c r="H4" s="112">
-        <v>41000</v>
-      </c>
-      <c r="I4" s="112">
-        <f>200000-20000</f>
-        <v>180000</v>
-      </c>
-      <c r="J4" s="112">
-        <v>0</v>
-      </c>
-      <c r="K4" s="112">
-        <v>0</v>
-      </c>
-      <c r="L4" s="112">
-        <v>0</v>
-      </c>
-      <c r="M4" s="112">
-        <v>0</v>
-      </c>
-      <c r="N4" s="112">
-        <v>0</v>
-      </c>
-      <c r="O4" s="112">
-        <v>0</v>
-      </c>
-      <c r="P4" s="112">
-        <v>1200000</v>
-      </c>
-      <c r="R4" s="112">
-        <v>0</v>
-      </c>
-      <c r="S4" s="112">
-        <v>325000</v>
-      </c>
-      <c r="T4" s="112">
-        <v>200000</v>
-      </c>
-      <c r="U4" s="112">
-        <f>250000+220000+131000+160000+80000+330000+34000+120000</f>
-        <v>1325000</v>
-      </c>
-      <c r="V4" s="112">
-        <v>0</v>
-      </c>
-      <c r="W4" s="112">
-        <v>0</v>
-      </c>
-      <c r="X4" s="112">
-        <f>550000+30000+360000</f>
-        <v>940000</v>
-      </c>
-      <c r="Y4" s="112">
-        <v>720000</v>
-      </c>
-      <c r="Z4" s="112">
-        <v>120000</v>
-      </c>
-      <c r="AA4" s="112">
-        <v>640000</v>
-      </c>
-      <c r="AB4" s="112">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="112">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="112">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="112">
-        <v>208000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25">
-      <c r="A5" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>480000</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>320000</v>
-      </c>
-      <c r="R5" s="6">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6">
-        <v>120000</v>
-      </c>
-      <c r="T5" s="6">
-        <v>0</v>
-      </c>
-      <c r="U5" s="6">
-        <f>10000+89000+50000</f>
-        <v>149000</v>
-      </c>
-      <c r="V5" s="6">
-        <f>60000+20000+28000+20000+20000+10000</f>
-        <v>158000</v>
-      </c>
-      <c r="W5" s="6">
-        <v>0</v>
-      </c>
-      <c r="X5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="6">
-        <f>75000+200000</f>
-        <v>275000</v>
-      </c>
-      <c r="AA5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>200000</v>
-      </c>
-      <c r="AC5" s="6">
-        <v>240000</v>
-      </c>
-      <c r="AD5" s="6">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25">
-      <c r="A6" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <f>B3+B4+B5</f>
-        <v>10000</v>
-      </c>
-      <c r="C6" s="7">
-        <f>C3+C4+C5</f>
-        <v>663000</v>
-      </c>
-      <c r="D6" s="7">
-        <f>D3+D4+D5</f>
-        <v>525000</v>
-      </c>
-      <c r="E6" s="7">
-        <f>E3+E4+E5</f>
-        <v>480000</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" ref="F6:AF6" si="1">F3+F4+F5</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="1"/>
-        <v>605000</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="1"/>
-        <v>107000</v>
-      </c>
-      <c r="I6" s="7">
-        <f>I3+I4+I5</f>
-        <v>1984000</v>
-      </c>
-      <c r="J6" s="7">
-        <f>J3+J4+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <f>K3+K4+K5</f>
-        <v>233200</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-      <c r="M6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" si="1"/>
-        <v>2019200</v>
-      </c>
-      <c r="O6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <f t="shared" si="1"/>
-        <v>1290200</v>
-      </c>
-      <c r="Q6" s="7">
-        <f>Q3+Q4+Q5</f>
-        <v>430000</v>
-      </c>
-      <c r="R6" s="7">
-        <f t="shared" si="1"/>
-        <v>220000</v>
-      </c>
-      <c r="S6" s="7">
-        <f t="shared" si="1"/>
-        <v>445000</v>
-      </c>
-      <c r="T6" s="7">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-      <c r="U6" s="7">
-        <f t="shared" si="1"/>
-        <v>1677500</v>
-      </c>
-      <c r="V6" s="7">
-        <f t="shared" si="1"/>
-        <v>158000</v>
-      </c>
-      <c r="W6" s="7">
-        <f t="shared" si="1"/>
-        <v>385000</v>
-      </c>
-      <c r="X6" s="7">
-        <f t="shared" si="1"/>
-        <v>1028000</v>
-      </c>
-      <c r="Y6" s="7">
-        <f>Y3+Y4+Y5</f>
-        <v>1230000</v>
-      </c>
-      <c r="Z6" s="7">
-        <f t="shared" si="1"/>
-        <v>703000</v>
-      </c>
-      <c r="AA6" s="7">
-        <f t="shared" si="1"/>
-        <v>730200</v>
-      </c>
-      <c r="AB6" s="7">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-      <c r="AC6" s="7">
-        <f t="shared" si="1"/>
-        <v>372000</v>
-      </c>
-      <c r="AD6" s="7">
-        <f t="shared" si="1"/>
-        <v>86000</v>
-      </c>
-      <c r="AE6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="7">
-        <f t="shared" si="1"/>
-        <v>208000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="8" customFormat="1" ht="17.25">
-      <c r="A7" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8">
-        <f>B6+B8</f>
-        <v>10000</v>
-      </c>
-      <c r="C7" s="8">
-        <f>C6+C8</f>
-        <v>410000</v>
-      </c>
-      <c r="D7" s="8">
-        <f t="shared" ref="D7:AF7" si="2">D6+D8</f>
-        <v>273000</v>
-      </c>
-      <c r="E7" s="8">
-        <f>E6+E8</f>
-        <v>228000</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="2"/>
-        <v>341000</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="2"/>
-        <v>87000</v>
-      </c>
-      <c r="I7" s="8">
-        <f>I6+I8</f>
-        <v>1146000</v>
-      </c>
-      <c r="J7" s="8">
-        <f>J6+J8</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <f>K6+K8</f>
-        <v>209200</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" si="2"/>
-        <v>45000</v>
-      </c>
-      <c r="M7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <f t="shared" si="2"/>
-        <v>1127200</v>
-      </c>
-      <c r="O7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <f>P6+P8</f>
-        <v>624200</v>
-      </c>
-      <c r="Q7" s="8">
-        <f t="shared" si="2"/>
-        <v>158000</v>
-      </c>
-      <c r="R7" s="8">
-        <f t="shared" si="2"/>
-        <v>140000</v>
-      </c>
-      <c r="S7" s="8">
-        <f t="shared" si="2"/>
-        <v>233000</v>
-      </c>
-      <c r="T7" s="8">
-        <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-      <c r="U7" s="8">
-        <f t="shared" si="2"/>
-        <v>1164500</v>
-      </c>
-      <c r="V7" s="8">
-        <f t="shared" si="2"/>
-        <v>156000</v>
-      </c>
-      <c r="W7" s="8">
-        <f t="shared" si="2"/>
-        <v>225000</v>
-      </c>
-      <c r="X7" s="8">
-        <f t="shared" si="2"/>
-        <v>546000</v>
-      </c>
-      <c r="Y7" s="8">
-        <f t="shared" si="2"/>
-        <v>581000</v>
-      </c>
-      <c r="Z7" s="8">
-        <f t="shared" si="2"/>
-        <v>343000</v>
-      </c>
-      <c r="AA7" s="8">
-        <f t="shared" si="2"/>
-        <v>398200</v>
-      </c>
-      <c r="AB7" s="8">
-        <f t="shared" si="2"/>
-        <v>108000</v>
-      </c>
-      <c r="AC7" s="8">
-        <f t="shared" si="2"/>
-        <v>188000</v>
-      </c>
-      <c r="AD7" s="8">
-        <f t="shared" si="2"/>
-        <v>86000</v>
-      </c>
-      <c r="AE7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="8">
-        <f t="shared" si="2"/>
-        <v>208000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" s="18" customFormat="1" ht="17.25">
-      <c r="A8" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="18">
-        <f t="shared" ref="B8:H8" si="3">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="18">
-        <f>SUM(C13,C15,C17,C19,C21,C23,C23)</f>
-        <v>-253000</v>
-      </c>
-      <c r="D8" s="18">
-        <f t="shared" si="3"/>
-        <v>-252000</v>
-      </c>
-      <c r="E8" s="18">
-        <f>SUM(E13,E15,E17,E19,E21,E23,E23)</f>
-        <v>-252000</v>
-      </c>
-      <c r="F8" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <f>SUM(G13,G15,G17,G19,G21,G23,G23)</f>
-        <v>-264000</v>
-      </c>
-      <c r="H8" s="18">
-        <f t="shared" si="3"/>
-        <v>-20000</v>
-      </c>
-      <c r="I8" s="18">
-        <f>SUM(I13,I15,I17,I19,I21,I23)</f>
-        <v>-838000</v>
-      </c>
-      <c r="J8" s="18">
-        <f>SUM(J13,J15,J17,J19,J21,J23)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="18">
-        <f>SUM(K13,K15,K17,K19,K21,K23)</f>
-        <v>-24000</v>
-      </c>
-      <c r="L8" s="18">
-        <f>SUM(L13,L15,L17,L19,L21,L23)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="18">
-        <f t="shared" ref="M8:AF8" si="4">SUM(M13,M15,M17,M19,M21,M23)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="18">
-        <f>SUM(N13,N15,N17,N19,N21,N23)</f>
-        <v>-892000</v>
-      </c>
-      <c r="O8" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="18">
-        <f>SUM(P13,P15,P17,P19,P21,P23)</f>
-        <v>-666000</v>
-      </c>
-      <c r="Q8" s="18">
-        <f>SUM(Q13,Q15,Q17,Q19,Q21,Q23)</f>
-        <v>-272000</v>
-      </c>
-      <c r="R8" s="18">
-        <f>SUM(R13,R15,R17,R19,R21,R23)</f>
-        <v>-80000</v>
-      </c>
-      <c r="S8" s="18">
-        <f>SUM(S13,S15,S17,S19,S21,S23)</f>
-        <v>-212000</v>
-      </c>
-      <c r="T8" s="18">
-        <f t="shared" si="4"/>
-        <v>-80000</v>
-      </c>
-      <c r="U8" s="18">
-        <f t="shared" si="4"/>
-        <v>-513000</v>
-      </c>
-      <c r="V8" s="18">
-        <f t="shared" si="4"/>
-        <v>-2000</v>
-      </c>
-      <c r="W8" s="18">
-        <f t="shared" si="4"/>
-        <v>-160000</v>
-      </c>
-      <c r="X8" s="18">
-        <f t="shared" si="4"/>
-        <v>-482000</v>
-      </c>
-      <c r="Y8" s="18">
-        <f t="shared" si="4"/>
-        <v>-649000</v>
-      </c>
-      <c r="Z8" s="18">
-        <f t="shared" si="4"/>
-        <v>-360000</v>
-      </c>
-      <c r="AA8" s="18">
-        <f t="shared" si="4"/>
-        <v>-332000</v>
-      </c>
-      <c r="AB8" s="18">
-        <f t="shared" si="4"/>
-        <v>-92000</v>
-      </c>
-      <c r="AC8" s="18">
-        <f t="shared" si="4"/>
-        <v>-184000</v>
-      </c>
-      <c r="AD8" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" s="43" customFormat="1" ht="17.25">
-      <c r="A9" s="51" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" s="9" customFormat="1" ht="17.25">
-      <c r="A10" s="52"/>
-    </row>
-    <row r="11" spans="1:35" s="9" customFormat="1" ht="17.25">
-      <c r="A11" s="53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" s="10" customFormat="1" ht="17.25">
-      <c r="A12" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="I12" s="42"/>
-    </row>
-    <row r="13" spans="1:35" s="11" customFormat="1" ht="17.25">
-      <c r="A13" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="11">
-        <v>-240000</v>
-      </c>
-      <c r="D13" s="11">
-        <v>-12000</v>
-      </c>
-      <c r="E13" s="11">
-        <f>-80000-80000-80000</f>
-        <v>-240000</v>
-      </c>
-      <c r="G13" s="11">
-        <f>-12000-12000-240000</f>
-        <v>-264000</v>
-      </c>
-      <c r="H13" s="11">
-        <v>-20000</v>
-      </c>
-      <c r="I13" s="11">
-        <f>-12000-12000</f>
-        <v>-24000</v>
-      </c>
-      <c r="N13" s="11">
-        <f>-24000-12000</f>
-        <v>-36000</v>
-      </c>
-      <c r="S13" s="11">
-        <v>-12000</v>
-      </c>
-      <c r="T13" s="11">
-        <v>-80000</v>
-      </c>
-      <c r="U13" s="11">
-        <v>-24000</v>
-      </c>
-      <c r="V13" s="11">
-        <v>-2000</v>
-      </c>
-      <c r="W13" s="11">
-        <v>-160000</v>
-      </c>
-      <c r="X13" s="11">
-        <v>-160000</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>-25000</v>
-      </c>
-      <c r="Z13" s="11">
-        <f>-40000-40000</f>
-        <v>-80000</v>
-      </c>
-      <c r="AA13" s="10">
-        <v>-12000</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>-12000</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>-24000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25">
-      <c r="A14" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D14" s="12">
-        <v>45000</v>
-      </c>
-      <c r="G14" s="12">
-        <v>125000</v>
-      </c>
-      <c r="H14" s="12">
-        <v>66000</v>
-      </c>
-      <c r="I14" s="12">
-        <v>700000</v>
-      </c>
-      <c r="K14" s="12">
-        <v>51700</v>
-      </c>
-      <c r="N14" s="12">
-        <v>1298000</v>
-      </c>
-      <c r="P14" s="12">
-        <v>90200</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>110000</v>
-      </c>
-      <c r="R14" s="12">
-        <v>176000</v>
-      </c>
-      <c r="U14" s="12">
-        <v>55000</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="W14" s="12">
-        <f>200000+185000</f>
-        <v>385000</v>
-      </c>
-      <c r="X14" s="12">
-        <v>88000</v>
-      </c>
-      <c r="Y14" s="12">
-        <v>260000</v>
-      </c>
-      <c r="Z14" s="12">
-        <v>88000</v>
-      </c>
-      <c r="AA14" s="72"/>
-      <c r="AC14" s="12">
-        <v>132000</v>
-      </c>
-      <c r="AD14" s="12">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25">
-      <c r="A15" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10">
-        <f>-1000</f>
-        <v>-1000</v>
-      </c>
-      <c r="D15" s="10">
-        <f>-120000-120000</f>
-        <v>-240000</v>
-      </c>
-      <c r="E15" s="10">
-        <v>-12000</v>
-      </c>
-      <c r="I15" s="10">
-        <v>-12000</v>
-      </c>
-      <c r="N15" s="10">
-        <v>-26000</v>
-      </c>
-      <c r="P15" s="10">
-        <v>-600000</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>-100000</v>
-      </c>
-      <c r="R15" s="10">
-        <v>-80000</v>
-      </c>
-      <c r="S15" s="10">
-        <v>-160000</v>
-      </c>
-      <c r="U15" s="10">
-        <v>-20000</v>
-      </c>
-      <c r="X15" s="10">
-        <v>-40000</v>
-      </c>
-      <c r="Y15" s="10">
-        <v>-24000</v>
-      </c>
-      <c r="Z15" s="10">
-        <v>-200000</v>
-      </c>
-      <c r="AA15" s="10">
-        <v>-320000</v>
-      </c>
-      <c r="AB15" s="10">
-        <v>-80000</v>
-      </c>
-      <c r="AC15" s="10">
-        <v>-120000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25">
-      <c r="A16" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="I16" s="72">
-        <v>704000</v>
-      </c>
-      <c r="K16" s="12">
-        <v>132000</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="R16" s="12">
-        <v>44000</v>
-      </c>
-      <c r="U16" s="12">
-        <v>88000</v>
-      </c>
-      <c r="Y16" s="12">
-        <v>250000</v>
-      </c>
-      <c r="Z16" s="72">
-        <v>220000</v>
-      </c>
-      <c r="AA16" s="12">
-        <v>90200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" s="10" customFormat="1" ht="17.25">
-      <c r="A17" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="10">
-        <v>-12000</v>
-      </c>
-      <c r="I17" s="10">
-        <v>-12000</v>
-      </c>
-      <c r="K17" s="10">
-        <f>-12000-12000</f>
-        <v>-24000</v>
-      </c>
-      <c r="N17" s="10">
-        <f>-440000-100000</f>
-        <v>-540000</v>
-      </c>
-      <c r="P17" s="10">
-        <v>-54000</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>-12000</v>
-      </c>
-      <c r="S17" s="10">
-        <v>-40000</v>
-      </c>
-      <c r="U17" s="10">
-        <v>-12000</v>
-      </c>
-      <c r="X17" s="10">
-        <v>-200000</v>
-      </c>
-      <c r="Y17" s="10">
-        <f>-40000-40000</f>
-        <v>-80000</v>
-      </c>
-      <c r="Z17" s="10">
-        <v>-80000</v>
-      </c>
-      <c r="AC17" s="10">
-        <v>-40000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" s="12" customFormat="1" ht="17.25">
-      <c r="A18" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="I18" s="12">
-        <v>244000</v>
-      </c>
-      <c r="K18" s="12">
-        <v>49500</v>
-      </c>
-      <c r="N18" s="12">
-        <v>374700</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="U18" s="12">
-        <v>60500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" s="10" customFormat="1" ht="17.25">
-      <c r="A19" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="71">
-        <f>-80000-80000-80000-40000</f>
-        <v>-280000</v>
-      </c>
-      <c r="N19" s="10">
-        <v>-110000</v>
-      </c>
-      <c r="P19" s="10">
-        <v>-12000</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>-160000</v>
-      </c>
-      <c r="U19" s="10">
-        <f>-120000-80000</f>
-        <v>-200000</v>
-      </c>
-      <c r="X19" s="10">
-        <v>-12000</v>
-      </c>
-      <c r="Y19" s="10">
-        <v>-80000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" s="12" customFormat="1" ht="17.25">
-      <c r="A20" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="12">
-        <v>33000</v>
-      </c>
-      <c r="I20" s="12">
-        <v>156000</v>
-      </c>
-      <c r="N20" s="12">
-        <v>176000</v>
-      </c>
-      <c r="X20" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" s="10" customFormat="1" ht="17.25">
-      <c r="A21" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="10">
-        <f>-80000-80000-80000-80000</f>
-        <v>-320000</v>
-      </c>
-      <c r="N21" s="10">
-        <v>-80000</v>
-      </c>
-      <c r="U21" s="10">
-        <f>-80000-40000-40000-40000-40000</f>
-        <v>-240000</v>
-      </c>
-      <c r="X21" s="10">
-        <v>-70000</v>
-      </c>
-      <c r="Y21" s="10">
-        <v>-360000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" s="12" customFormat="1" ht="17.25">
-      <c r="A22" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="12">
-        <v>170500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" s="10" customFormat="1" ht="17.25">
-      <c r="A23" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="10">
-        <f>-80000-80000-30000</f>
-        <v>-190000</v>
-      </c>
-      <c r="N23" s="10">
-        <v>-100000</v>
-      </c>
-      <c r="U23" s="10">
-        <v>-17000</v>
-      </c>
-      <c r="Y23" s="10">
-        <f>-40000-40000</f>
-        <v>-80000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" s="9" customFormat="1" ht="17.25">
-      <c r="A24" s="53"/>
-    </row>
-    <row r="25" spans="1:32" s="9" customFormat="1" ht="17.25">
-      <c r="A25" s="53"/>
-    </row>
-    <row r="26" spans="1:32" s="20" customFormat="1" ht="33">
-      <c r="A26" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="121" t="s">
-        <v>368</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="F26" s="121" t="s">
-        <v>299</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="J26" s="121" t="s">
-        <v>369</v>
-      </c>
-      <c r="K26" s="76" t="s">
-        <v>309</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="M26" s="121" t="s">
-        <v>299</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="O26" s="121" t="s">
-        <v>299</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="R26" s="79"/>
-      <c r="S26" s="120" t="s">
-        <v>328</v>
-      </c>
-      <c r="T26" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="U26" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="V26" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="X26" s="109" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y26" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z26" s="109" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA26" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB26" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC26" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="AD26" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="AE26" s="121" t="s">
-        <v>299</v>
-      </c>
-      <c r="AF26" s="20" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" s="19" customFormat="1" ht="17.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:32" s="19" customFormat="1" ht="17.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-    </row>
-    <row r="29" spans="1:32" s="19" customFormat="1" ht="17.25">
-      <c r="A29" s="58"/>
-    </row>
-    <row r="30" spans="1:32" s="21" customFormat="1" ht="17.25">
-      <c r="A30" s="59" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" s="9" customFormat="1" ht="17.25">
-      <c r="A31" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="B31" s="92">
-        <f>SUM(B2:AF2)+B45+B46</f>
-        <v>5527910</v>
-      </c>
-      <c r="C31" s="92" t="s">
-        <v>244</v>
-      </c>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-    </row>
-    <row r="32" spans="1:32" s="9" customFormat="1" ht="18" thickBot="1">
-      <c r="A32" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="B32" s="78">
-        <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
-        <v>9528000</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="S32" s="83" t="s">
-        <v>320</v>
-      </c>
-      <c r="T32" s="108" t="s">
-        <v>329</v>
-      </c>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="Y32" s="108" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-    </row>
-    <row r="33" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
-      <c r="A33" s="69" t="s">
-        <v>247</v>
-      </c>
-      <c r="B33" s="70">
-        <f>B34-B31</f>
-        <v>1139220</v>
-      </c>
-      <c r="C33" s="9">
-        <f>B32+B34</f>
-        <v>16195130</v>
-      </c>
-      <c r="D33" s="15">
-        <v>1139220</v>
-      </c>
-      <c r="S33" s="116" t="s">
-        <v>316</v>
-      </c>
-      <c r="T33" s="108">
-        <v>32760</v>
-      </c>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="Y33" s="93">
-        <v>36300</v>
-      </c>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-    </row>
-    <row r="34" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
-      <c r="A34" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="B34" s="14">
-        <f>500000-D81+SUM(B3:AF3)</f>
-        <v>6667130</v>
-      </c>
-      <c r="C34" s="135">
-        <v>0.1</v>
-      </c>
-      <c r="D34" s="15">
-        <f>B34*0.1</f>
-        <v>666713</v>
-      </c>
-      <c r="S34" s="83">
-        <v>17690</v>
-      </c>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="93" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-    </row>
-    <row r="35" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
-      <c r="A35" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="B35" s="16">
-        <f>SUM(B6:AF6)</f>
-        <v>16034300</v>
-      </c>
-      <c r="C35" s="136">
-        <f>B35*0.1</f>
-        <v>1603430</v>
-      </c>
-      <c r="D35" s="15">
-        <f>C35-B33</f>
-        <v>464210</v>
-      </c>
-      <c r="S35" s="117" t="s">
-        <v>317</v>
-      </c>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="93">
-        <v>30000</v>
-      </c>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-    </row>
-    <row r="36" spans="1:31" s="9" customFormat="1" ht="18" thickBot="1">
-      <c r="A36" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" s="17">
-        <f>B35+B37</f>
-        <v>9155300</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="S36" s="83">
-        <v>16590</v>
-      </c>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-    </row>
-    <row r="37" spans="1:31" ht="18" thickBot="1">
-      <c r="A37" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="44">
-        <f>SUM(B8:AF8)</f>
-        <v>-6879000</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="S37" s="118" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y37" s="9"/>
-      <c r="AE37" s="9"/>
-    </row>
-    <row r="38" spans="1:31" ht="18" thickBot="1">
-      <c r="A38" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" s="45">
-        <v>0</v>
-      </c>
-      <c r="S38" s="83">
-        <f>14290*2</f>
-        <v>28580</v>
-      </c>
-      <c r="Y38" s="9"/>
-      <c r="AE38" s="9"/>
-    </row>
-    <row r="39" spans="1:31" ht="18" thickBot="1">
-      <c r="A39" s="88" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" s="89">
-        <f>(1086000+SUM(B5:AF5)+SUM(B8:AF8))+340000+900000+900000+20000+40000+300000+400000+160000+400000+100000+90000+600000</f>
-        <v>496000</v>
-      </c>
-      <c r="C39" s="113">
-        <f>34+90+90+6+30+40+50</f>
-        <v>340</v>
-      </c>
-      <c r="D39" s="114" t="s">
-        <v>315</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="S39" s="118" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y39" s="9"/>
-      <c r="AE39" s="9"/>
-    </row>
-    <row r="40" spans="1:31" ht="18" thickBot="1">
-      <c r="A40" s="86" t="s">
-        <v>197</v>
-      </c>
-      <c r="B40" s="87">
-        <f>5291060+SUM(B4:AF4)-340000-900000-900000+100000+B31-S48-D81-T33-20000-B47-40000-300000-400000-160000-400000-100000-90000-600000-3600000-B41</f>
-        <v>6841960</v>
-      </c>
-      <c r="C40" s="7">
-        <f>-34-90-90-6-30-40-50</f>
-        <v>-340</v>
-      </c>
-      <c r="D40" s="115">
-        <f>(C39/30)*1800</f>
-        <v>20400</v>
-      </c>
-      <c r="S40" s="83">
-        <f>12390*3</f>
-        <v>37170</v>
-      </c>
-      <c r="Y40" s="9"/>
-      <c r="AE40" s="9"/>
-    </row>
-    <row r="41" spans="1:31">
-      <c r="A41" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B41" s="9">
-        <f>D81+S48</f>
-        <v>657670</v>
-      </c>
-      <c r="C41" s="114" t="s">
-        <v>314</v>
-      </c>
-      <c r="S41" s="118" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y41" s="9"/>
-      <c r="AE41" s="9"/>
-    </row>
-    <row r="42" spans="1:31">
-      <c r="A42" s="80" t="s">
-        <v>230</v>
-      </c>
-      <c r="B42" s="81">
-        <f>SUM(B7:AF7)</f>
-        <v>9155300</v>
-      </c>
-      <c r="S42" s="119">
-        <f>SUM(S33:S40)</f>
-        <v>100030</v>
-      </c>
-      <c r="Y42" s="9"/>
-      <c r="AE42" s="9"/>
-    </row>
-    <row r="43" spans="1:31" ht="17.25" thickBot="1">
-      <c r="A43" s="84" t="s">
-        <v>231</v>
-      </c>
-      <c r="B43" s="85">
-        <f>B33+B39+B40</f>
-        <v>8477180</v>
-      </c>
-      <c r="Y43" s="9"/>
-      <c r="AE43" s="9"/>
-    </row>
-    <row r="44" spans="1:31" ht="17.25" thickBot="1">
-      <c r="A44" s="172" t="s">
-        <v>5407</v>
-      </c>
-      <c r="B44" s="170">
-        <f>SUM(L58:L62)</f>
-        <v>0</v>
-      </c>
-      <c r="S44" s="84">
-        <v>15990</v>
-      </c>
-      <c r="Y44" s="9"/>
-      <c r="AE44" s="9"/>
-    </row>
-    <row r="45" spans="1:31">
-      <c r="A45" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B45" s="9">
-        <v>867910</v>
-      </c>
-      <c r="S45" s="84">
-        <v>17990</v>
-      </c>
-      <c r="Y45" s="9"/>
-      <c r="AE45" s="9"/>
-    </row>
-    <row r="46" spans="1:31">
-      <c r="A46" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B46" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="S46" s="84">
-        <v>19990</v>
-      </c>
-      <c r="Y46" s="9"/>
-      <c r="AE46" s="9"/>
-    </row>
-    <row r="47" spans="1:31">
-      <c r="A47" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B47" s="110">
-        <f>SUM(B45:B46)</f>
-        <v>2367910</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="S47" s="119">
-        <f>SUM(S44:S46)</f>
-        <v>53970</v>
-      </c>
-      <c r="Y47" s="9"/>
-      <c r="AE47" s="9"/>
-    </row>
-    <row r="48" spans="1:31">
-      <c r="R48" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="S48" s="1">
-        <f>10890+8490+219120+80000</f>
-        <v>318500</v>
-      </c>
-      <c r="Y48" s="9"/>
-      <c r="AE48" s="9"/>
-    </row>
-    <row r="49" spans="3:31">
-      <c r="S49" s="1">
-        <f>SUM(S48,S42,S47)</f>
-        <v>472500</v>
-      </c>
-      <c r="Y49" s="9"/>
-      <c r="AE49" s="9"/>
-    </row>
-    <row r="50" spans="3:31">
-      <c r="C50" s="175" t="s">
-        <v>5408</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="S50" s="1">
-        <v>12600</v>
-      </c>
-      <c r="Y50" s="9"/>
-      <c r="AE50" s="9"/>
-    </row>
-    <row r="51" spans="3:31">
-      <c r="C51" s="176">
-        <f>B36-B47-C35-L63-339170-318500</f>
-        <v>4457230</v>
-      </c>
-      <c r="Y51" s="9"/>
-      <c r="AE51" s="9"/>
-    </row>
-    <row r="52" spans="3:31">
-      <c r="Y52" s="9"/>
-      <c r="AE52" s="9"/>
-    </row>
-    <row r="53" spans="3:31">
-      <c r="S53" s="9">
-        <v>339170</v>
-      </c>
-      <c r="Y53" s="9"/>
-      <c r="AE53" s="9"/>
-    </row>
-    <row r="54" spans="3:31">
-      <c r="S54" s="9">
-        <f>SUM(S53,S48,T33,Y33,Y35)</f>
-        <v>756730</v>
-      </c>
-    </row>
-    <row r="56" spans="3:31" ht="17.25" thickBot="1">
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="96"/>
-    </row>
-    <row r="57" spans="3:31" ht="18" thickTop="1" thickBot="1">
-      <c r="D57" s="94"/>
-      <c r="E57" s="214" t="s">
-        <v>265</v>
-      </c>
-      <c r="F57" s="215"/>
-      <c r="G57" s="215"/>
-      <c r="H57" s="215"/>
-      <c r="I57" s="216"/>
-      <c r="J57" s="95"/>
-    </row>
-    <row r="58" spans="3:31" ht="18" thickTop="1" thickBot="1">
-      <c r="D58" s="94"/>
-      <c r="E58" s="100" t="s">
-        <v>303</v>
-      </c>
-      <c r="F58" s="102" t="s">
-        <v>304</v>
-      </c>
-      <c r="G58" s="106" t="s">
-        <v>305</v>
-      </c>
-      <c r="H58" s="104" t="s">
-        <v>306</v>
-      </c>
-      <c r="I58" s="104" t="s">
-        <v>307</v>
-      </c>
-      <c r="J58" s="95"/>
-    </row>
-    <row r="59" spans="3:31" ht="18" thickTop="1" thickBot="1">
-      <c r="D59" s="94"/>
-      <c r="E59" s="99">
-        <f>SUM(B6:E6)</f>
-        <v>1678000</v>
-      </c>
-      <c r="F59" s="101">
-        <f>SUM(F6:L6)</f>
-        <v>2974200</v>
-      </c>
-      <c r="G59" s="103">
-        <f>SUM(M6:S6)</f>
-        <v>4404400</v>
-      </c>
-      <c r="H59" s="107">
-        <f>SUM(T6:Z6)</f>
-        <v>5381500</v>
-      </c>
-      <c r="I59" s="105">
-        <f>SUM(AA6:AF6)</f>
-        <v>1596200</v>
-      </c>
-      <c r="J59" s="15"/>
-    </row>
-    <row r="60" spans="3:31" ht="18" thickTop="1" thickBot="1">
-      <c r="E60" s="99">
-        <f>SUM(B7:E7)</f>
-        <v>921000</v>
-      </c>
-      <c r="F60" s="101">
-        <f>SUM(F7:L7)</f>
-        <v>1828200</v>
-      </c>
-      <c r="G60" s="103">
-        <f>SUM(M7:S7)</f>
-        <v>2282400</v>
-      </c>
-      <c r="H60" s="107">
-        <f>SUM(T7:Z7)</f>
-        <v>3135500</v>
-      </c>
-      <c r="I60" s="105">
-        <f>SUM(AA7:AF7)</f>
-        <v>988200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:31" ht="18" thickTop="1" thickBot="1">
-      <c r="C61" s="123"/>
-    </row>
-    <row r="62" spans="3:31" ht="18" thickTop="1" thickBot="1">
-      <c r="G62" s="94"/>
-      <c r="H62" s="99" t="s">
-        <v>264</v>
-      </c>
-      <c r="I62" s="99">
-        <f>SUM(E59:I59)</f>
-        <v>16034300</v>
-      </c>
-    </row>
-    <row r="63" spans="3:31" ht="18" thickTop="1" thickBot="1">
-      <c r="G63" s="94"/>
-      <c r="H63" s="99" t="s">
-        <v>266</v>
-      </c>
-      <c r="I63" s="99">
-        <f>AVERAGE(E59:I59)</f>
-        <v>3206860</v>
-      </c>
-      <c r="L63" s="9">
-        <f>SUM(R33:AD33)</f>
-        <v>69060</v>
-      </c>
-    </row>
-    <row r="64" spans="3:31" ht="18" thickTop="1" thickBot="1">
-      <c r="G64" s="94"/>
-      <c r="H64" s="98" t="s">
-        <v>374</v>
-      </c>
-      <c r="I64" s="99">
-        <f>SUM(E60:I60)</f>
-        <v>9155300</v>
-      </c>
-    </row>
-    <row r="65" spans="7:9" ht="18" thickTop="1" thickBot="1">
-      <c r="G65" s="94"/>
-      <c r="H65" s="98" t="s">
-        <v>375</v>
-      </c>
-      <c r="I65" s="99">
-        <f>AVERAGE(E60:I60)</f>
-        <v>1831060</v>
-      </c>
-    </row>
-    <row r="66" spans="7:9" ht="17.25" thickTop="1">
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-    </row>
-    <row r="81" spans="3:4">
-      <c r="C81" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D81" s="9">
-        <v>339170</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23">
-      <c r="D105" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" s="119" customFormat="1">
-      <c r="A106" s="119" t="s">
-        <v>334</v>
-      </c>
-      <c r="C106" s="119">
-        <v>153790</v>
-      </c>
-      <c r="D106" s="119">
-        <v>47940</v>
-      </c>
-      <c r="J106" s="119">
-        <f>172560+153790</f>
-        <v>326350</v>
-      </c>
-      <c r="R106" s="119">
-        <v>95870</v>
-      </c>
-      <c r="T106" s="119">
-        <f>843610+306770</f>
-        <v>1150380</v>
-      </c>
-      <c r="W106" s="119">
-        <v>306770</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23">
-      <c r="A107" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23">
-      <c r="A108" s="1">
-        <f>SUM(B106:AF106)</f>
-        <v>2081100</v>
-      </c>
-    </row>
-    <row r="123" spans="5:5">
-      <c r="E123" s="1">
-        <v>47940</v>
-      </c>
-    </row>
-    <row r="124" spans="5:5">
-      <c r="E124" s="1">
-        <v>153790</v>
-      </c>
-    </row>
-    <row r="125" spans="5:5">
-      <c r="E125" s="1">
-        <f>SUM(E123:E124)</f>
-        <v>201730</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E57:I57"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
@@ -52501,33 +52598,112 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="1" spans="2:6">
+      <c r="F1" t="s">
+        <v>5686</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>5547</v>
       </c>
       <c r="C2">
         <v>36500</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>146000</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>5548</v>
       </c>
       <c r="C3">
         <v>49800</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">C3*D3</f>
+        <v>199200</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>5683</v>
+      </c>
+      <c r="C4">
+        <v>39990</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>159960</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>5684</v>
+      </c>
+      <c r="C5">
+        <v>41990</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>167960</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>5685</v>
+      </c>
+      <c r="C6">
+        <v>283900</v>
+      </c>
+      <c r="D6">
+        <v>2.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>709750</v>
+      </c>
+      <c r="F6">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -52536,7 +52712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -52552,7 +52728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -54907,8 +55083,8 @@
   <dimension ref="A1:AI108"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:B44"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -56889,7 +57065,7 @@
   <dimension ref="A1:AJ139"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E48" sqref="E48:F52"/>
     </sheetView>
   </sheetViews>
@@ -59014,9 +59190,9 @@
   </sheetPr>
   <dimension ref="A1:AJ139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -61215,6 +61391,1669 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AL139"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="155" customWidth="1"/>
+    <col min="10" max="32" width="20.125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="66">
+        <v>44927</v>
+      </c>
+      <c r="C1" s="66">
+        <v>44928</v>
+      </c>
+      <c r="D1" s="66">
+        <v>44929</v>
+      </c>
+      <c r="E1" s="66">
+        <v>44930</v>
+      </c>
+      <c r="F1" s="66">
+        <v>44931</v>
+      </c>
+      <c r="G1" s="66">
+        <v>44932</v>
+      </c>
+      <c r="H1" s="66">
+        <v>44933</v>
+      </c>
+      <c r="I1" s="66">
+        <v>44934</v>
+      </c>
+      <c r="J1" s="66">
+        <v>44935</v>
+      </c>
+      <c r="K1" s="66">
+        <v>44936</v>
+      </c>
+      <c r="L1" s="66">
+        <v>44937</v>
+      </c>
+      <c r="M1" s="66">
+        <v>44938</v>
+      </c>
+      <c r="N1" s="66">
+        <v>44939</v>
+      </c>
+      <c r="O1" s="66">
+        <v>44940</v>
+      </c>
+      <c r="P1" s="66">
+        <v>44941</v>
+      </c>
+      <c r="Q1" s="66">
+        <v>44942</v>
+      </c>
+      <c r="R1" s="66">
+        <v>44943</v>
+      </c>
+      <c r="S1" s="66">
+        <v>44944</v>
+      </c>
+      <c r="T1" s="66">
+        <v>44945</v>
+      </c>
+      <c r="U1" s="66">
+        <v>44946</v>
+      </c>
+      <c r="V1" s="66">
+        <v>44947</v>
+      </c>
+      <c r="W1" s="66">
+        <v>44948</v>
+      </c>
+      <c r="X1" s="66">
+        <v>44949</v>
+      </c>
+      <c r="Y1" s="66">
+        <v>44950</v>
+      </c>
+      <c r="Z1" s="66">
+        <v>44951</v>
+      </c>
+      <c r="AA1" s="66">
+        <v>44952</v>
+      </c>
+      <c r="AB1" s="66">
+        <v>44953</v>
+      </c>
+      <c r="AC1" s="66">
+        <v>44954</v>
+      </c>
+      <c r="AD1" s="66">
+        <v>44955</v>
+      </c>
+      <c r="AE1" s="66">
+        <v>44956</v>
+      </c>
+      <c r="AF1" s="66">
+        <v>44957</v>
+      </c>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+    </row>
+    <row r="2" spans="1:35" s="68" customFormat="1" ht="17.25">
+      <c r="A2" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="144"/>
+    </row>
+    <row r="3" spans="1:35" s="5" customFormat="1" ht="17.25">
+      <c r="A3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:AD3" si="0">SUM(B12,B14,B16,B18,B20,B22)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(F12,F14,F16,F18,F20,F22)</f>
+        <v>352000</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <f>SUM(H12,H14,H16,H18,H20,H22)</f>
+        <v>409000</v>
+      </c>
+      <c r="I3" s="145">
+        <f>SUM(I12,I14,I16,I18,I20,I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <f>SUM(J12,J14,J16,J18,J20,J22)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <f>SUM(K12,K14,K16,K18,K20,K22,K24,K25,K32,K33,K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <f>SUM(Y12,Y14,Y16,Y18,Y20,Y22)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5">
+        <f>SUM(AE12,AE14,AE16,AE18,AE20,AE22)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="5">
+        <f>SUM(AF12,AF14,AF16,AF18,AF20,AF22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" s="112" customFormat="1" ht="17.25">
+      <c r="A4" s="111" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="112">
+        <f>180000+80000+80000+80000+80000+80000</f>
+        <v>580000</v>
+      </c>
+      <c r="G4" s="112">
+        <f>100000+80000+80000+70000+80000</f>
+        <v>410000</v>
+      </c>
+      <c r="I4" s="146"/>
+    </row>
+    <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25">
+      <c r="A5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <f>480000+150000</f>
+        <v>630000</v>
+      </c>
+      <c r="I5" s="147"/>
+    </row>
+    <row r="6" spans="1:35" s="7" customFormat="1" ht="17.25">
+      <c r="A6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <f>B3+B4+B5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <f>C3+C4+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <f>D3+D4+D5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f>E3+E4+E5</f>
+        <v>600000</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" ref="F6:AE6" si="1">F3+F4+F5</f>
+        <v>932000</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>410000</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>1039000</v>
+      </c>
+      <c r="I6" s="115">
+        <f>I3+I4+I5</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f>J3+J4+J5</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f>K3+K4+K5</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>Q3+Q4+Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <f>X3+X4+X5</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <f>Y3+Y4+Y5</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <f>AF3+AF4+AF5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="8" customFormat="1" ht="17.25">
+      <c r="A7" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <f>B6+B8</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <f>C6+C8</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:AE7" si="2">D6+D8</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <f>E6+E8</f>
+        <v>268000</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="2"/>
+        <v>468000</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="2"/>
+        <v>198000</v>
+      </c>
+      <c r="H7" s="8">
+        <f>H6+H8</f>
+        <v>535000</v>
+      </c>
+      <c r="I7" s="148">
+        <f>I6+I8</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <f>J6+J8</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <f>K6+K8</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <f>P6+P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <f>S6+S8</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <f>U6+U8</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <f>AF6+AF8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" s="18" customFormat="1" ht="17.25">
+      <c r="A8" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" ref="B8:G8" si="3">SUM(B13,B15,B17,B19,B21,B23,B23)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <f>SUM(D13,D15,D17,D19,D21,D23,D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="3"/>
+        <v>-332000</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="3"/>
+        <v>-464000</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="3"/>
+        <v>-212000</v>
+      </c>
+      <c r="H8" s="18">
+        <f>SUM(H13,H15,H17,H19,H21,H11,H23,H25)</f>
+        <v>-504000</v>
+      </c>
+      <c r="I8" s="149">
+        <f t="shared" ref="I8:AE8" si="4">SUM(I13,I15,I17,I19,I21,I11,I23,I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="18">
+        <f>SUM(O13,O15,O17,O19,O21,O11,O23,O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="18">
+        <f>SUM(S13,S15,S17,S19,S21,S11,S23,S25)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
+        <f>SUM(U13,U15,U17,U19,U21,U11,U23,U25)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="18">
+        <f>SUM(V13,V15,V17,V19,V21,V11,V23,V25)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="18">
+        <f>SUM(W13,W15,W17,W19,W21,W11,W23,W25)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="18">
+        <f>SUM(X13,X15,X17,X19,X21,X11,X23,X25)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="18">
+        <f>SUM(AA13,AA15,AA17,AA19,AA21,AA11,AA23,AA25)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="18">
+        <f>SUM(AB13,AB15,AB17,AB19,AB21,AB11,AB23,AB25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="18">
+        <f>SUM(AF13,AF15,AF17,AF19,AF21,AF11,AF23,AF25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="43" customFormat="1" ht="17.25">
+      <c r="A9" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="150"/>
+    </row>
+    <row r="10" spans="1:35" s="9" customFormat="1" ht="17.25">
+      <c r="A10" s="52"/>
+      <c r="I10" s="151"/>
+    </row>
+    <row r="11" spans="1:35" s="9" customFormat="1" ht="17.25">
+      <c r="A11" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="151"/>
+    </row>
+    <row r="12" spans="1:35" s="10" customFormat="1" ht="17.25">
+      <c r="A12" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="1:35" s="11" customFormat="1" ht="17.25">
+      <c r="A13" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-320000</v>
+      </c>
+      <c r="F13" s="11">
+        <f>-80000-40000-40000-40000</f>
+        <v>-200000</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-40000</v>
+      </c>
+      <c r="H13" s="152">
+        <f>-12000-12000</f>
+        <v>-24000</v>
+      </c>
+      <c r="I13" s="152"/>
+    </row>
+    <row r="14" spans="1:35" s="12" customFormat="1" ht="17.25">
+      <c r="A14" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="72"/>
+      <c r="E14" s="12">
+        <v>300000</v>
+      </c>
+      <c r="F14" s="12">
+        <v>176000</v>
+      </c>
+      <c r="H14" s="72">
+        <v>35000</v>
+      </c>
+      <c r="I14" s="72"/>
+      <c r="AA14" s="72"/>
+    </row>
+    <row r="15" spans="1:35" s="10" customFormat="1" ht="17.25">
+      <c r="A15" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="F15" s="10">
+        <f>-12000-12000</f>
+        <v>-24000</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-12000</v>
+      </c>
+      <c r="H15" s="71">
+        <f>-120000-120000</f>
+        <v>-240000</v>
+      </c>
+      <c r="I15" s="71"/>
+    </row>
+    <row r="16" spans="1:35" s="12" customFormat="1" ht="17.25">
+      <c r="A16" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="12">
+        <v>300000</v>
+      </c>
+      <c r="F16" s="12">
+        <v>176000</v>
+      </c>
+      <c r="H16" s="72">
+        <v>374000</v>
+      </c>
+      <c r="I16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+    </row>
+    <row r="17" spans="1:38" s="10" customFormat="1" ht="17.25">
+      <c r="A17" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="10">
+        <f>-40000-40000</f>
+        <v>-80000</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-40000</v>
+      </c>
+      <c r="H17" s="71">
+        <v>-80000</v>
+      </c>
+      <c r="I17" s="71"/>
+    </row>
+    <row r="18" spans="1:38" s="12" customFormat="1" ht="17.25">
+      <c r="A18" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="72"/>
+    </row>
+    <row r="19" spans="1:38" s="10" customFormat="1" ht="17.25">
+      <c r="A19" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="G19" s="10">
+        <f>-40000-40000-40000</f>
+        <v>-120000</v>
+      </c>
+      <c r="H19" s="10">
+        <v>-160000</v>
+      </c>
+      <c r="I19" s="71"/>
+    </row>
+    <row r="20" spans="1:38" s="12" customFormat="1" ht="17.25">
+      <c r="A20" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="72"/>
+    </row>
+    <row r="21" spans="1:38" s="10" customFormat="1" ht="17.25">
+      <c r="A21" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="I21" s="71"/>
+    </row>
+    <row r="22" spans="1:38" s="12" customFormat="1" ht="17.25">
+      <c r="A22" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="72"/>
+    </row>
+    <row r="23" spans="1:38" s="10" customFormat="1" ht="17.25">
+      <c r="A23" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="71"/>
+    </row>
+    <row r="24" spans="1:38" s="9" customFormat="1" ht="17.25">
+      <c r="A24" s="53"/>
+      <c r="I24" s="151"/>
+    </row>
+    <row r="25" spans="1:38" s="9" customFormat="1" ht="17.25">
+      <c r="A25" s="53"/>
+      <c r="I25" s="151"/>
+    </row>
+    <row r="26" spans="1:38" s="20" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A26" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="187" t="s">
+        <v>5680</v>
+      </c>
+      <c r="C26" s="200" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26" s="200" t="s">
+        <v>299</v>
+      </c>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="200" t="s">
+        <v>299</v>
+      </c>
+      <c r="J26" s="188"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="188"/>
+      <c r="O26" s="188"/>
+      <c r="P26" s="188"/>
+      <c r="Q26" s="188"/>
+      <c r="R26" s="188"/>
+      <c r="S26" s="188"/>
+      <c r="T26" s="188"/>
+      <c r="U26" s="188"/>
+      <c r="V26" s="188"/>
+      <c r="W26" s="188"/>
+      <c r="X26" s="188"/>
+      <c r="Y26" s="188"/>
+      <c r="Z26" s="188"/>
+      <c r="AA26" s="188"/>
+      <c r="AB26" s="188"/>
+      <c r="AC26" s="188"/>
+      <c r="AD26" s="188"/>
+      <c r="AE26" s="188"/>
+      <c r="AF26" s="188"/>
+      <c r="AG26" s="188"/>
+      <c r="AH26" s="188"/>
+      <c r="AI26" s="188"/>
+      <c r="AJ26" s="188"/>
+      <c r="AK26" s="188"/>
+      <c r="AL26" s="188"/>
+    </row>
+    <row r="27" spans="1:38" s="19" customFormat="1" ht="17.25">
+      <c r="A27" s="58"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="I27" s="153"/>
+    </row>
+    <row r="28" spans="1:38" s="19" customFormat="1" ht="17.25">
+      <c r="A28" s="58"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="I28" s="153"/>
+    </row>
+    <row r="29" spans="1:38" s="19" customFormat="1" ht="17.25">
+      <c r="A29" s="58"/>
+      <c r="I29" s="153"/>
+    </row>
+    <row r="30" spans="1:38" s="21" customFormat="1" ht="17.25">
+      <c r="A30" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="154"/>
+    </row>
+    <row r="31" spans="1:38" s="9" customFormat="1" ht="17.25">
+      <c r="A31" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="92">
+        <f>SUM(B2:AF2)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="I31" s="151"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="1:38" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A32" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32" s="78">
+        <f>SUM(B5:AF5)+SUM(B4:AF4)</f>
+        <v>1620000</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="I32" s="151"/>
+      <c r="U32" s="124" t="s">
+        <v>329</v>
+      </c>
+      <c r="V32" s="108" t="s">
+        <v>339</v>
+      </c>
+      <c r="W32" s="1"/>
+      <c r="Y32" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="1:32" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A33" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="70">
+        <f>B34-B31</f>
+        <v>1361000</v>
+      </c>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="108">
+        <v>32760</v>
+      </c>
+      <c r="V33" s="93">
+        <v>33000</v>
+      </c>
+      <c r="W33" s="108"/>
+      <c r="X33" s="108"/>
+      <c r="Y33" s="93">
+        <v>30000</v>
+      </c>
+      <c r="Z33" s="108"/>
+      <c r="AA33" s="108"/>
+      <c r="AB33" s="108"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="108"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="93"/>
+    </row>
+    <row r="34" spans="1:32" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A34" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="14">
+        <f>SUM(B3:AF3)</f>
+        <v>1361000</v>
+      </c>
+      <c r="C34" s="15">
+        <f>B34*0.1</f>
+        <v>136100</v>
+      </c>
+      <c r="I34" s="151"/>
+      <c r="U34" s="163" t="s">
+        <v>372</v>
+      </c>
+      <c r="V34" s="108" t="s">
+        <v>340</v>
+      </c>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="93" t="s">
+        <v>5672</v>
+      </c>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:32" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A35" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="16">
+        <f>SUM(B6:AF6)</f>
+        <v>2981000</v>
+      </c>
+      <c r="C35" s="15">
+        <f>B35*0.1</f>
+        <v>298100</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="I35" s="151"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="194"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:32" s="9" customFormat="1" ht="18" thickBot="1">
+      <c r="A36" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="17">
+        <f>B35+B37</f>
+        <v>1469000</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="I36" s="151"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="195"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:32" ht="18" thickBot="1">
+      <c r="A37" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="44">
+        <f>SUM(B8:AF8)</f>
+        <v>-1512000</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="O37" s="193"/>
+      <c r="AE37" s="9"/>
+    </row>
+    <row r="38" spans="1:32" ht="18" thickBot="1">
+      <c r="A38" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="45">
+        <v>0</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="AE38" s="9"/>
+    </row>
+    <row r="39" spans="1:32" ht="18" thickBot="1">
+      <c r="A39" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="89">
+        <f>(207000+SUM(B5:AF5)+SUM(B8:AF8))+300000+300000+300000</f>
+        <v>225000</v>
+      </c>
+      <c r="C39" s="113"/>
+      <c r="D39" s="114" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="AE39" s="9"/>
+    </row>
+    <row r="40" spans="1:32" ht="18" thickBot="1">
+      <c r="A40" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="87">
+        <f>SUM(B4:AF4)</f>
+        <v>990000</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="115">
+        <f>(C39/30)*1800</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="AE40" s="9"/>
+    </row>
+    <row r="41" spans="1:32">
+      <c r="C41" s="114" t="s">
+        <v>314</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="AE41" s="9"/>
+    </row>
+    <row r="42" spans="1:32">
+      <c r="A42" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="81">
+        <f>SUM(B7:AF7)</f>
+        <v>1469000</v>
+      </c>
+      <c r="P42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="AE42" s="9"/>
+    </row>
+    <row r="43" spans="1:32" ht="17.25" thickBot="1">
+      <c r="A43" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" s="85">
+        <f>B33+B39+B40</f>
+        <v>2576000</v>
+      </c>
+      <c r="P43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="AE43" s="9"/>
+    </row>
+    <row r="44" spans="1:32" ht="17.25" thickBot="1">
+      <c r="A44" s="172" t="s">
+        <v>5407</v>
+      </c>
+      <c r="B44" s="170">
+        <f>SUM(L58:L62)</f>
+        <v>467330</v>
+      </c>
+      <c r="P44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="AE44" s="9"/>
+    </row>
+    <row r="45" spans="1:32">
+      <c r="A45" s="1" t="s">
+        <v>5536</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="H45" s="155"/>
+      <c r="P45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="AE45" s="9"/>
+    </row>
+    <row r="46" spans="1:32">
+      <c r="A46" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="P46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="AE46" s="9"/>
+    </row>
+    <row r="47" spans="1:32">
+      <c r="A47" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="110">
+        <f>SUM(B45:B46)</f>
+        <v>1500000</v>
+      </c>
+      <c r="C47" s="9">
+        <f>B45+B46</f>
+        <v>1500000</v>
+      </c>
+      <c r="E47" s="155"/>
+      <c r="Y47" s="9"/>
+      <c r="AE47" s="9"/>
+    </row>
+    <row r="48" spans="1:32">
+      <c r="E48" s="151" t="s">
+        <v>5553</v>
+      </c>
+      <c r="F48" s="9">
+        <f>B34</f>
+        <v>1361000</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>5541</v>
+      </c>
+      <c r="H48" s="15">
+        <f>B34-(B34*0.005)</f>
+        <v>1354195</v>
+      </c>
+      <c r="Y48" s="9"/>
+      <c r="AE48" s="9"/>
+    </row>
+    <row r="49" spans="4:31">
+      <c r="E49" s="155" t="s">
+        <v>5668</v>
+      </c>
+      <c r="F49" s="9">
+        <f>B47</f>
+        <v>1500000</v>
+      </c>
+      <c r="Y49" s="9"/>
+      <c r="AE49" s="9"/>
+    </row>
+    <row r="50" spans="4:31">
+      <c r="E50" s="155" t="s">
+        <v>5551</v>
+      </c>
+      <c r="F50" s="9">
+        <f>B35</f>
+        <v>2981000</v>
+      </c>
+      <c r="Y50" s="9"/>
+      <c r="AE50" s="9"/>
+    </row>
+    <row r="51" spans="4:31">
+      <c r="E51" s="155" t="s">
+        <v>5539</v>
+      </c>
+      <c r="F51" s="9">
+        <f>C35</f>
+        <v>298100</v>
+      </c>
+      <c r="Y51" s="9"/>
+      <c r="AE51" s="9"/>
+    </row>
+    <row r="52" spans="4:31">
+      <c r="E52" s="155" t="s">
+        <v>5491</v>
+      </c>
+      <c r="F52" s="9">
+        <f>F48-F49-F51</f>
+        <v>-437100</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>5541</v>
+      </c>
+      <c r="H52" s="9">
+        <f>H48-F49-F51</f>
+        <v>-443905</v>
+      </c>
+      <c r="Y52" s="9"/>
+      <c r="AE52" s="9"/>
+    </row>
+    <row r="53" spans="4:31">
+      <c r="Y53" s="9"/>
+      <c r="AE53" s="9"/>
+    </row>
+    <row r="56" spans="4:31" ht="17.25" thickBot="1">
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="156"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="96"/>
+    </row>
+    <row r="57" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="D57" s="94"/>
+      <c r="E57" s="214" t="s">
+        <v>265</v>
+      </c>
+      <c r="F57" s="215"/>
+      <c r="G57" s="215"/>
+      <c r="H57" s="215"/>
+      <c r="I57" s="216"/>
+      <c r="J57" s="164"/>
+      <c r="K57" s="167" t="s">
+        <v>5405</v>
+      </c>
+      <c r="L57" s="168" t="s">
+        <v>346</v>
+      </c>
+      <c r="M57" s="95"/>
+    </row>
+    <row r="58" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="D58" s="94"/>
+      <c r="E58" s="100" t="s">
+        <v>303</v>
+      </c>
+      <c r="F58" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="G58" s="106" t="s">
+        <v>305</v>
+      </c>
+      <c r="H58" s="104" t="s">
+        <v>306</v>
+      </c>
+      <c r="I58" s="157" t="s">
+        <v>307</v>
+      </c>
+      <c r="J58" s="164"/>
+      <c r="K58" s="166" t="s">
+        <v>5406</v>
+      </c>
+      <c r="L58" s="170">
+        <f>SUM(D33:AE33)</f>
+        <v>95760</v>
+      </c>
+      <c r="M58" s="95"/>
+    </row>
+    <row r="59" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="D59" s="94"/>
+      <c r="E59" s="99">
+        <f>SUM(B6:E6)</f>
+        <v>600000</v>
+      </c>
+      <c r="F59" s="101">
+        <f>SUM(F6:L6)</f>
+        <v>2381000</v>
+      </c>
+      <c r="G59" s="103">
+        <f>SUM(M6:S6)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="107">
+        <f>SUM(T6:Z6)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="158">
+        <f>SUM(AA6:AF6)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="171"/>
+      <c r="K59" s="166" t="s">
+        <v>5681</v>
+      </c>
+      <c r="L59" s="165">
+        <v>341270</v>
+      </c>
+      <c r="M59" s="95"/>
+    </row>
+    <row r="60" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="E60" s="99">
+        <f>SUM(B7:E7)</f>
+        <v>268000</v>
+      </c>
+      <c r="F60" s="101">
+        <f>SUM(F7:L7)</f>
+        <v>1201000</v>
+      </c>
+      <c r="G60" s="103">
+        <f>SUM(M7:S7)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="107">
+        <f>SUM(T7:Z7)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="158">
+        <f>SUM(AA7:AF7)</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="94"/>
+      <c r="K60" s="166" t="s">
+        <v>5682</v>
+      </c>
+      <c r="L60" s="165">
+        <v>30300</v>
+      </c>
+      <c r="M60" s="95"/>
+    </row>
+    <row r="61" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="J61" s="94"/>
+      <c r="K61" s="165"/>
+      <c r="L61" s="165"/>
+      <c r="M61" s="95"/>
+    </row>
+    <row r="62" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="G62" s="94"/>
+      <c r="H62" s="99" t="s">
+        <v>264</v>
+      </c>
+      <c r="I62" s="159">
+        <f>SUM(E59:I59)</f>
+        <v>2981000</v>
+      </c>
+      <c r="J62" s="94"/>
+      <c r="K62" s="165"/>
+      <c r="L62" s="165"/>
+      <c r="M62" s="95"/>
+    </row>
+    <row r="63" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="G63" s="94"/>
+      <c r="H63" s="99" t="s">
+        <v>266</v>
+      </c>
+      <c r="I63" s="159">
+        <f>AVERAGE(E59:I59)</f>
+        <v>596200</v>
+      </c>
+      <c r="J63" s="94"/>
+      <c r="K63" s="172" t="s">
+        <v>5407</v>
+      </c>
+      <c r="L63" s="170">
+        <f>SUM(L58:L62)</f>
+        <v>467330</v>
+      </c>
+      <c r="M63" s="95"/>
+    </row>
+    <row r="64" spans="4:31" ht="18" thickTop="1" thickBot="1">
+      <c r="G64" s="94"/>
+      <c r="H64" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="I64" s="159">
+        <f>SUM(E60:I60)</f>
+        <v>1469000</v>
+      </c>
+      <c r="K64" s="97"/>
+      <c r="L64" s="97"/>
+    </row>
+    <row r="65" spans="5:9" ht="18" thickTop="1" thickBot="1">
+      <c r="G65" s="94"/>
+      <c r="H65" s="98" t="s">
+        <v>375</v>
+      </c>
+      <c r="I65" s="159">
+        <f>AVERAGE(E60:I60)</f>
+        <v>293800</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9" ht="17.25" thickTop="1">
+      <c r="H66" s="97"/>
+      <c r="I66" s="160"/>
+    </row>
+    <row r="67" spans="5:9">
+      <c r="E67" s="1" t="s">
+        <v>5674</v>
+      </c>
+      <c r="F67" s="1">
+        <v>4155250</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9">
+      <c r="E68" s="1" t="s">
+        <v>5675</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2085510</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9">
+      <c r="E69" s="1" t="s">
+        <v>5676</v>
+      </c>
+      <c r="F69" s="1">
+        <v>13798750</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9">
+      <c r="E70" s="1" t="s">
+        <v>5677</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1379875</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9">
+      <c r="E71" s="1" t="s">
+        <v>5678</v>
+      </c>
+      <c r="F71" s="1">
+        <v>689865</v>
+      </c>
+      <c r="G71" s="9">
+        <f>F52+F71</f>
+        <v>252765</v>
+      </c>
+    </row>
+    <row r="76" spans="5:9">
+      <c r="E76" s="1" t="s">
+        <v>5669</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="175" t="s">
+        <v>5492</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="176">
+        <f>B36-B47-C35-L63</f>
+        <v>-796430</v>
+      </c>
+      <c r="B83" s="9">
+        <f>A83+C35</f>
+        <v>-498330</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="D105" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" s="119" customFormat="1">
+      <c r="A106" s="119" t="s">
+        <v>334</v>
+      </c>
+      <c r="C106" s="119">
+        <v>153790</v>
+      </c>
+      <c r="D106" s="119">
+        <v>47940</v>
+      </c>
+      <c r="I106" s="114"/>
+      <c r="J106" s="119">
+        <f>172560+153790</f>
+        <v>326350</v>
+      </c>
+      <c r="R106" s="119">
+        <v>95870</v>
+      </c>
+      <c r="T106" s="119">
+        <f>843610+306770</f>
+        <v>1150380</v>
+      </c>
+      <c r="W106" s="119">
+        <v>306770</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" s="1">
+        <f>SUM(B106:AF106)</f>
+        <v>2081100</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" s="1">
+        <v>482000</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" s="1">
+        <v>444400</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" s="1">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" s="1">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129" s="1">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" s="1">
+        <v>1529000</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" s="1">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5">
+      <c r="E132" s="1">
+        <v>587400</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5">
+      <c r="E134" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" s="1">
+        <v>1012000</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5">
+      <c r="E136" s="1">
+        <v>253000</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" s="1">
+        <v>191500</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5">
+      <c r="E139" s="1">
+        <f>SUM(E125:E137)</f>
+        <v>5800300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E57:I57"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
@@ -61571,7 +63410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -61964,70 +63803,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="2" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A2:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="41"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="162" t="s">
-        <v>5398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>5401</v>
-      </c>
-      <c r="B11">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>5400</v>
-      </c>
-      <c r="B13">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>5399</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>
--- a/금영노래방/금영 노래방.xlsx
+++ b/금영노래방/금영 노래방.xlsx
@@ -14,23 +14,24 @@
     <sheet name="11월 매출" sheetId="19" r:id="rId5"/>
     <sheet name="12월 매출" sheetId="20" r:id="rId6"/>
     <sheet name="1월 매출" sheetId="26" r:id="rId7"/>
-    <sheet name="연말 정산" sheetId="23" r:id="rId8"/>
-    <sheet name="재무제표" sheetId="21" r:id="rId9"/>
-    <sheet name="정보" sheetId="2" r:id="rId10"/>
-    <sheet name="계좌,카드" sheetId="3" r:id="rId11"/>
-    <sheet name="아이디,비번" sheetId="4" r:id="rId12"/>
-    <sheet name="팁" sheetId="8" r:id="rId13"/>
-    <sheet name="계산기" sheetId="9" r:id="rId14"/>
-    <sheet name="계좌메모" sheetId="11" r:id="rId15"/>
-    <sheet name="엄마 출금 기록" sheetId="13" r:id="rId16"/>
-    <sheet name="아빠 출금 기록" sheetId="14" r:id="rId17"/>
-    <sheet name="현욱출금기록" sheetId="22" r:id="rId18"/>
-    <sheet name="종합 출금 기록(22년)" sheetId="15" r:id="rId19"/>
-    <sheet name="IP추적" sheetId="12" r:id="rId20"/>
-    <sheet name="블록체인(삼성)" sheetId="16" r:id="rId21"/>
-    <sheet name="양주가격" sheetId="18" r:id="rId22"/>
-    <sheet name="블랙리스트" sheetId="24" r:id="rId23"/>
-    <sheet name="자동이체기록" sheetId="25" r:id="rId24"/>
+    <sheet name="Sheet1" sheetId="27" r:id="rId8"/>
+    <sheet name="연말 정산" sheetId="23" r:id="rId9"/>
+    <sheet name="재무제표" sheetId="21" r:id="rId10"/>
+    <sheet name="정보" sheetId="2" r:id="rId11"/>
+    <sheet name="계좌,카드" sheetId="3" r:id="rId12"/>
+    <sheet name="아이디,비번" sheetId="4" r:id="rId13"/>
+    <sheet name="팁" sheetId="8" r:id="rId14"/>
+    <sheet name="계산기" sheetId="9" r:id="rId15"/>
+    <sheet name="계좌메모" sheetId="11" r:id="rId16"/>
+    <sheet name="엄마 출금 기록" sheetId="13" r:id="rId17"/>
+    <sheet name="아빠 출금 기록" sheetId="14" r:id="rId18"/>
+    <sheet name="현욱출금기록" sheetId="22" r:id="rId19"/>
+    <sheet name="종합 출금 기록(22년)" sheetId="15" r:id="rId20"/>
+    <sheet name="IP추적" sheetId="12" r:id="rId21"/>
+    <sheet name="블록체인(삼성)" sheetId="16" r:id="rId22"/>
+    <sheet name="양주가격" sheetId="18" r:id="rId23"/>
+    <sheet name="블랙리스트" sheetId="24" r:id="rId24"/>
+    <sheet name="자동이체기록" sheetId="25" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10월 매출'!$A$1:$AF$9</definedName>
@@ -41,7 +42,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'9월 매출'!$A$1:$AF$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6415" uniqueCount="5687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6414" uniqueCount="5686">
   <si>
     <t>현금매출</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -17534,10 +17534,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2억원의 대출 원리금(이자)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>C.대출 및 할부</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -17550,10 +17546,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>A.무형자산</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>노래방</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -17566,10 +17558,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>임대업 세금 3.3%기준</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>D.부동산(부동자산)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -17599,10 +17587,6 @@
   </si>
   <si>
     <t>12월</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>연말정산</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -17792,6 +17776,18 @@
   </si>
   <si>
     <t>소비가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.자산</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2억원 대출 원리금(이자)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -18854,15 +18850,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -18873,6 +18860,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19784,8 +19780,8 @@
   </sheetPr>
   <dimension ref="A1:AJ83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -21286,7 +21282,7 @@
         <v>244</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>5654</v>
+        <v>5650</v>
       </c>
       <c r="U30" s="93" t="s">
         <v>249</v>
@@ -21746,6 +21742,392 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="24.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="201" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>5618</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="204" t="s">
+        <v>5683</v>
+      </c>
+      <c r="B2" s="205"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="208" t="s">
+        <v>5621</v>
+      </c>
+      <c r="B3" s="209"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="208" t="s">
+        <v>5608</v>
+      </c>
+      <c r="B4" s="209">
+        <v>67343271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="208" t="s">
+        <v>5609</v>
+      </c>
+      <c r="B5" s="209">
+        <v>6735288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="208" t="s">
+        <v>5589</v>
+      </c>
+      <c r="B6" s="209">
+        <f>B4+B5</f>
+        <v>74078559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="208" t="s">
+        <v>5610</v>
+      </c>
+      <c r="B7" s="209">
+        <v>25470000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="208" t="s">
+        <v>5611</v>
+      </c>
+      <c r="B8" s="209">
+        <v>5704000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="122" t="s">
+        <v>5600</v>
+      </c>
+      <c r="B9" s="123">
+        <f>B7+B8</f>
+        <v>31174000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="208" t="s">
+        <v>5601</v>
+      </c>
+      <c r="B10" s="209">
+        <f>B6-B9</f>
+        <v>42904559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="204" t="s">
+        <v>5629</v>
+      </c>
+      <c r="B11" s="205"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="208" t="s">
+        <v>5612</v>
+      </c>
+      <c r="B12" s="209">
+        <f>'12월 매출'!B39</f>
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="208" t="s">
+        <v>5616</v>
+      </c>
+      <c r="B13" s="209"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="208" t="s">
+        <v>5613</v>
+      </c>
+      <c r="B14" s="209">
+        <f>187000+300000</f>
+        <v>487000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="208" t="s">
+        <v>5614</v>
+      </c>
+      <c r="B15" s="209">
+        <f>103633+300328</f>
+        <v>403961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="208" t="s">
+        <v>5615</v>
+      </c>
+      <c r="B16" s="209">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="208" t="s">
+        <v>5617</v>
+      </c>
+      <c r="B17" s="209">
+        <v>689865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="208" t="s">
+        <v>5607</v>
+      </c>
+      <c r="B18" s="209">
+        <f>SUM(B12:B17)</f>
+        <v>1797826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="204" t="s">
+        <v>5627</v>
+      </c>
+      <c r="B19" s="205"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>5593</v>
+      </c>
+      <c r="B20" s="9">
+        <v>15726217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>5591</v>
+      </c>
+      <c r="B21" s="9">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="122" t="s">
+        <v>5628</v>
+      </c>
+      <c r="B22" s="123">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="206" t="s">
+        <v>5606</v>
+      </c>
+      <c r="B23" s="207" t="s">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>5620</v>
+      </c>
+      <c r="B24" s="9">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>5594</v>
+      </c>
+      <c r="B25" s="9">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="202" t="s">
+        <v>5631</v>
+      </c>
+      <c r="B26" s="203">
+        <f>SUM(B20:B25)</f>
+        <v>78726217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>5604</v>
+      </c>
+      <c r="B27" s="9">
+        <v>346012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>5603</v>
+      </c>
+      <c r="B28" s="9">
+        <v>370103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>5592</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>5619</v>
+      </c>
+      <c r="B30" s="9">
+        <v>335796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>5605</v>
+      </c>
+      <c r="B31" s="9">
+        <v>448994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="83" t="s">
+        <v>5632</v>
+      </c>
+      <c r="B32" s="110">
+        <f>SUM(B27:B31)</f>
+        <v>1500905</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>5595</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1108710</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>5596</v>
+      </c>
+      <c r="B34" s="9">
+        <v>509314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>5597</v>
+      </c>
+      <c r="B35" s="9">
+        <f>SUM(B33:B34)</f>
+        <v>1618024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>5602</v>
+      </c>
+      <c r="B36" s="9">
+        <f>B32+B35</f>
+        <v>3118929</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="122" t="s">
+        <v>5599</v>
+      </c>
+      <c r="B37" s="123">
+        <v>3455725</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="122" t="s">
+        <v>5598</v>
+      </c>
+      <c r="B38" s="123">
+        <f>B37-B33-B34-B27-B30-B31</f>
+        <v>706899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="204" t="s">
+        <v>5633</v>
+      </c>
+      <c r="B39" s="205"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>5626</v>
+      </c>
+      <c r="B40" s="9">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>5630</v>
+      </c>
+      <c r="B41" s="9">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>5622</v>
+      </c>
+      <c r="B42" s="9">
+        <v>130000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>5684</v>
+      </c>
+      <c r="B43" s="9">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>5624</v>
+      </c>
+      <c r="B44" s="9">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="122" t="s">
+        <v>5625</v>
+      </c>
+      <c r="B45" s="123">
+        <f>B44-B43</f>
+        <v>3700000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
@@ -21811,7 +22193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -21856,13 +22238,13 @@
       <c r="G1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="223" t="s">
+      <c r="H1" s="220" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="24" t="s">
@@ -21879,16 +22261,16 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="221" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="219"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="223"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="217" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -21904,14 +22286,14 @@
       <c r="G3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="217"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="219"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="223"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="221"/>
+      <c r="B4" s="218"/>
       <c r="C4" s="24" t="s">
         <v>122</v>
       </c>
@@ -21921,14 +22303,14 @@
       <c r="G4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="217"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="218"/>
-      <c r="L4" s="219"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="223"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="222"/>
+      <c r="B5" s="219"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -21938,11 +22320,11 @@
       <c r="G5" s="24">
         <v>707266</v>
       </c>
-      <c r="H5" s="217"/>
-      <c r="I5" s="218"/>
-      <c r="J5" s="218"/>
-      <c r="K5" s="218"/>
-      <c r="L5" s="219"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="223"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="24" t="s">
@@ -21959,11 +22341,11 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="218"/>
-      <c r="J6" s="218"/>
-      <c r="K6" s="218"/>
-      <c r="L6" s="219"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="223"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="24" t="s">
@@ -21984,11 +22366,11 @@
       <c r="G7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="217"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="219"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="223"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="24" t="s">
@@ -22007,11 +22389,11 @@
       <c r="G8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="217"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="219"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="222"/>
+      <c r="L8" s="223"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="24" t="s">
@@ -22024,11 +22406,11 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="218"/>
-      <c r="L9" s="219"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="222"/>
+      <c r="K9" s="222"/>
+      <c r="L9" s="223"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="24" t="s">
@@ -22043,11 +22425,11 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="218"/>
-      <c r="L10" s="219"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="222"/>
+      <c r="L10" s="223"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="24"/>
@@ -22056,11 +22438,11 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="218"/>
-      <c r="L11" s="219"/>
+      <c r="H11" s="221"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="222"/>
+      <c r="L11" s="223"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="24"/>
@@ -22069,11 +22451,11 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="219"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="222"/>
+      <c r="J12" s="222"/>
+      <c r="K12" s="222"/>
+      <c r="L12" s="223"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="24"/>
@@ -22082,11 +22464,11 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="217"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="218"/>
-      <c r="L13" s="219"/>
+      <c r="H13" s="221"/>
+      <c r="I13" s="222"/>
+      <c r="J13" s="222"/>
+      <c r="K13" s="222"/>
+      <c r="L13" s="223"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="24"/>
@@ -22095,11 +22477,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="218"/>
-      <c r="K14" s="218"/>
-      <c r="L14" s="219"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="222"/>
+      <c r="J14" s="222"/>
+      <c r="K14" s="222"/>
+      <c r="L14" s="223"/>
     </row>
     <row r="15" spans="2:12">
       <c r="I15" s="30"/>
@@ -22600,12 +22982,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
@@ -22615,6 +22991,12 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22622,7 +23004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -22941,13 +23323,13 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="212" t="s">
-        <v>5661</v>
+        <v>5657</v>
       </c>
       <c r="C26" s="213" t="s">
-        <v>5662</v>
+        <v>5658</v>
       </c>
       <c r="D26" s="212" t="s">
-        <v>5663</v>
+        <v>5659</v>
       </c>
     </row>
   </sheetData>
@@ -22962,7 +23344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H13"/>
   <sheetViews>
@@ -23015,7 +23397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -23023,7 +23405,7 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -23099,17 +23481,17 @@
     </row>
     <row r="3" spans="1:20" ht="17.25" thickTop="1">
       <c r="A3" s="130">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="B3" s="130" t="s">
         <v>342</v>
       </c>
       <c r="C3" s="132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="130">
         <f>A3*C3</f>
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="F3" s="130">
         <v>30000</v>
@@ -23147,17 +23529,17 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="82">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>347</v>
       </c>
       <c r="C4" s="133">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D4" s="82">
         <f t="shared" ref="D4:D13" si="0">A4*C4</f>
-        <v>92000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="82">
         <v>10000</v>
@@ -23196,17 +23578,18 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="83">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="B5" s="83" t="s">
         <v>348</v>
       </c>
       <c r="C5" s="133">
-        <v>16</v>
+        <f>12+6</f>
+        <v>18</v>
       </c>
       <c r="D5" s="83">
         <f t="shared" si="0"/>
-        <v>64000</v>
+        <v>90000</v>
       </c>
       <c r="F5" s="83">
         <v>5000</v>
@@ -23392,11 +23775,11 @@
         <v>349</v>
       </c>
       <c r="C10" s="133">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" s="128">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="F10" s="128">
         <v>2000</v>
@@ -23476,12 +23859,11 @@
         <v>351</v>
       </c>
       <c r="C12" s="125">
-        <f>B17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="125">
         <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="F12" s="125">
         <f>F18</f>
@@ -23577,7 +23959,7 @@
       </c>
       <c r="D15" s="129">
         <f>SUM(D3:D13)</f>
-        <v>342000</v>
+        <v>350000</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -23608,7 +23990,7 @@
       </c>
       <c r="D16" s="129">
         <f>D15*1.1</f>
-        <v>376200.00000000006</v>
+        <v>385000.00000000006</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="119" t="s">
@@ -23638,7 +24020,7 @@
         <v>355</v>
       </c>
       <c r="B17" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -23662,7 +24044,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="125">
         <f>40000*B17</f>
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -23692,7 +24074,7 @@
       </c>
       <c r="D19" s="122">
         <f>B17*80000*C3</f>
-        <v>160000</v>
+        <v>720000</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -23727,7 +24109,7 @@
       </c>
       <c r="D20" s="122">
         <f>D19*1.1</f>
-        <v>176000</v>
+        <v>792000.00000000012</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
@@ -23758,7 +24140,7 @@
         <v>484000.00000000006</v>
       </c>
       <c r="K22" t="s">
-        <v>5659</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18" thickTop="1" thickBot="1">
@@ -24043,11 +24425,11 @@
       </c>
       <c r="H44" s="132">
         <f>C3</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44" s="130">
         <f>F44*H44</f>
-        <v>30000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -24067,11 +24449,11 @@
       </c>
       <c r="H45" s="133">
         <f>C4</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I45" s="82">
         <f t="shared" ref="I45:I52" si="4">F45*H45</f>
-        <v>29658.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -24084,11 +24466,11 @@
       </c>
       <c r="H46" s="133">
         <f>C5</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I46" s="83">
         <f t="shared" si="4"/>
-        <v>18260</v>
+        <v>20542.5</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -24132,11 +24514,11 @@
       </c>
       <c r="H49" s="133">
         <f>C10</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I49" s="128">
         <f t="shared" si="4"/>
-        <v>16000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="50" spans="6:9">
@@ -24165,7 +24547,7 @@
       </c>
       <c r="H51" s="133">
         <f>C12</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" s="125">
         <f t="shared" si="4"/>
@@ -24202,7 +24584,7 @@
       </c>
       <c r="I54" s="129">
         <f>SUM(I44:I52)</f>
-        <v>133918.5</v>
+        <v>160542.5</v>
       </c>
     </row>
     <row r="55" spans="6:9">
@@ -24215,7 +24597,7 @@
       </c>
       <c r="I55" s="129">
         <f>I54*1.1</f>
-        <v>147310.35</v>
+        <v>176596.75</v>
       </c>
     </row>
     <row r="56" spans="6:9">
@@ -24281